--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.019845</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0198904</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0199411</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0199892</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201312</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0202981</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0205168</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0208663</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194247</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0196249</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0198597</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019879</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0201309</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201944</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204396</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204292</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206016</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0208694</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0208716</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.021266</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0221654</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0254766</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.0204662</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0205747</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0208946</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211401</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213119</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0214143</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0217806</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0218731</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0220813</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.022994</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0248609</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0303561</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0334795</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0213853</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0215081</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0216916</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0218279</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0223725</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.0226982</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0230858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0235639</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0246222</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0261523</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.028148</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0310283</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0349552</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0411047</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0235334</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0233996</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0240147</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0237518</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0243179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0246823</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.0250545</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0256238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0266776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0281548</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0303362</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0330569</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0370665</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0420454</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0292569</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0293821</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.0294515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0297582</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0298101</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0302477</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0307674</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0314948</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0322669</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0336498</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.0353674</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0379218</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0413547</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.045947</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0557759</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0559223</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0561782</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0562248</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0564335</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0568433</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0571164</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0573685</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0579423</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0585424</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.0597217</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0613516</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.0637716</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.0674956</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.0857108</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085729</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.08582099999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.085891</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.08591310000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.0952533</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0900392</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.0865544</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.08702120000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08758929999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0884514</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.08982080000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0916886</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0949089</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.09997010000000001</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107963</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.108243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.108225</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10822</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.108618</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108608</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.109047</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109454</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110007</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.110855</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.112081</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.113914</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.116949</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.121459</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.134045</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141735</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.14386</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141993</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.141564</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.141767</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.142252</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.142466</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.143005</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.143627</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.144639</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.146121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.148787</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.153145</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.160222</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.15805</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.158093</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158066</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158317</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158434</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0207816</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0208667</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0208241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.0207476</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.020652</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.0209277</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0208354</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.021057</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0207722</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0211993</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.021061</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0212452</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0215641</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0219941</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0221573</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.022048</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.022091</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0224619</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0229443</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0236086</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0218909</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0220636</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0222406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0225907</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.022887</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0230842</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0234928</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.0237357</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0239547</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.0241213</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.0246092</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.0256069</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.0258742</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0314078</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0231422</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0232697</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0236008</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0239637</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0241731</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.024655</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.0250199</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0254471</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.0257887</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.026411</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.0273266</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.0288305</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.0310001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0354398</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0403807</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0246173</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0249205</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0252809</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.0256266</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.0260148</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.0264257</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.0269137</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.0274746</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.0282353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.0295079</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.0309257</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.0332921</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0365299</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0415142</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0269617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0268134</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.0271091</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.028098</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.028241</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0283238</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.0289933</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.0297943</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.0305728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.0318959</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.0330477</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.0355949</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.0380312</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0422199</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0358291</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0366934</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0371542</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0385504</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0397275</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.0406958</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.0420235</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.043628</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.0448497</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.0467952</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.0485398</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.050625</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.0531723</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.0575467</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0690796</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0695586</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.07006270000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.0706492</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.0712165</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.0719084</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.0726926</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.073481</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.0744592</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.0757119</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.0771091</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.0789149</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.08129740000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.085034</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.0910459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.08287219999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.08375249999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.0846664</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.0856579</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.08681120000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.08786919999999999</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.0892593</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.0907998</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.0923614</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.0942355</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.096293</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.0990901</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.102927</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.108871</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.0958808</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.09704169999999999</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.0989488</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.100162</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.101129</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.102743</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.10443</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.106431</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.108216</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.110255</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.112815</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.11575</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.119701</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.126693</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.109886</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.111216</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.112687</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.114154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.115713</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0197621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0199124</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.0199636</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0200411</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0201853</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0205493</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0212255</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0196114</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0196542</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0197311</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0200198</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0202983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0206514</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0208261</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0213814</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.021683</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0218647</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0217385</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0221793</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0234999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.025596</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0208572</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0211474</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0213952</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0216285</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0219129</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0221909</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0226314</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.02287</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0232938</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.0236459</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0243776</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0256094</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0280099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0318825</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0222322</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0224761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0226406</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0229219</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0232372</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0235604</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0239217</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0243675</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0249258</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0256372</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0267547</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0285161</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0309254</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.03463</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0230982</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0233375</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.023593</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0238201</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0241227</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.024922</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0253022</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0259853</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0267356</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.0278598</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0296228</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0320613</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0356651</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0410615</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0247871</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0249031</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0256338</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0258881</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0259173</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0262823</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0271444</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0274852</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0283927</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0298077</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0311471</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0336077</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0368424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0414916</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0365337</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.037033</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0385276</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0385709</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0392564</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.0399463</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.040702</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.041626</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0423938</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0433475</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0447666</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0465736</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0493242</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.0542457</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.07123119999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.071656</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.0721349</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.07265770000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0729856</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0736991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0742898</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.07498199999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.07573630000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.0766086</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.077876</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.07924580000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.08156239999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0852509</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.08773590000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0884414</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0892877</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0899992</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.0907741</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.0918117</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.092913</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.09400500000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.100748</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.09656720000000001</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.0981248</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.100153</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.10274</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.106587</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.112472</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.106248</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.107515</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.108771</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.110258</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.111363</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.112139</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.113529</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.114912</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.116482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.120533</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.123365</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.127277</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.133589</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.119571</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.123522</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.120321</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.121365</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.122535</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.123827</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.125232</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.128774</v>
+        <v>0.116249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09646540000000001</v>
+        <v>0.0980587</v>
       </c>
       <c r="D2" t="n">
-        <v>0.104513</v>
+        <v>0.11834</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.128832</v>
+        <v>0.115821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0974187</v>
+        <v>0.09866800000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.104569</v>
+        <v>0.11913</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.134102</v>
+        <v>0.116843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0956502</v>
+        <v>0.098578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.102135</v>
+        <v>0.11913</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.131589</v>
+        <v>0.117943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0946168</v>
+        <v>0.09920320000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.100619</v>
+        <v>0.120235</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.134158</v>
+        <v>0.120854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0967992</v>
+        <v>0.100327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107883</v>
+        <v>0.121389</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.141019</v>
+        <v>0.123461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0999264</v>
+        <v>0.101706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.106465</v>
+        <v>0.121119</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.148375</v>
+        <v>0.140125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0990177</v>
+        <v>0.101558</v>
       </c>
       <c r="D8" t="n">
-        <v>0.105535</v>
+        <v>0.123531</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.161911</v>
+        <v>0.139807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0998689</v>
+        <v>0.107481</v>
       </c>
       <c r="D9" t="n">
-        <v>0.104071</v>
+        <v>0.127354</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125248</v>
+        <v>0.124267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.102191</v>
+        <v>0.104451</v>
       </c>
       <c r="D10" t="n">
-        <v>0.105548</v>
+        <v>0.127022</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125692</v>
+        <v>0.125759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.100429</v>
+        <v>0.105182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.104528</v>
+        <v>0.127727</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.134515</v>
+        <v>0.131241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0997759</v>
+        <v>0.107524</v>
       </c>
       <c r="D12" t="n">
-        <v>0.105365</v>
+        <v>0.127603</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.132047</v>
+        <v>0.130994</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09955079999999999</v>
+        <v>0.105595</v>
       </c>
       <c r="D13" t="n">
-        <v>0.104711</v>
+        <v>0.12781</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126436</v>
+        <v>0.126989</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0991445</v>
+        <v>0.106322</v>
       </c>
       <c r="D14" t="n">
-        <v>0.104808</v>
+        <v>0.128163</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12598</v>
+        <v>0.126217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09916560000000001</v>
+        <v>0.105851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.107413</v>
+        <v>0.128299</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128243</v>
+        <v>0.12624</v>
       </c>
       <c r="C16" t="n">
-        <v>0.099234</v>
+        <v>0.108357</v>
       </c>
       <c r="D16" t="n">
-        <v>0.104393</v>
+        <v>0.128851</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129579</v>
+        <v>0.132422</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0994742</v>
+        <v>0.108414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.104682</v>
+        <v>0.128891</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129871</v>
+        <v>0.131052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.100565</v>
+        <v>0.10827</v>
       </c>
       <c r="D18" t="n">
-        <v>0.104703</v>
+        <v>0.129863</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131244</v>
+        <v>0.135704</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100015</v>
+        <v>0.11021</v>
       </c>
       <c r="D19" t="n">
-        <v>0.10537</v>
+        <v>0.129692</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.133993</v>
+        <v>0.135904</v>
       </c>
       <c r="C20" t="n">
-        <v>0.100125</v>
+        <v>0.108793</v>
       </c>
       <c r="D20" t="n">
-        <v>0.105596</v>
+        <v>0.12953</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.142663</v>
+        <v>0.139018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.102007</v>
+        <v>0.111775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.107779</v>
+        <v>0.13146</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156062</v>
+        <v>0.146867</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110015</v>
+        <v>0.114117</v>
       </c>
       <c r="D22" t="n">
-        <v>0.112266</v>
+        <v>0.135061</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.169256</v>
+        <v>0.160296</v>
       </c>
       <c r="C23" t="n">
-        <v>0.110842</v>
+        <v>0.120136</v>
       </c>
       <c r="D23" t="n">
-        <v>0.114043</v>
+        <v>0.141001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134941</v>
+        <v>0.139268</v>
       </c>
       <c r="C24" t="n">
-        <v>0.109251</v>
+        <v>0.117553</v>
       </c>
       <c r="D24" t="n">
-        <v>0.113787</v>
+        <v>0.140782</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135294</v>
+        <v>0.144837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.109406</v>
+        <v>0.117057</v>
       </c>
       <c r="D25" t="n">
-        <v>0.114013</v>
+        <v>0.140143</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134388</v>
+        <v>0.134757</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108711</v>
+        <v>0.116127</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114243</v>
+        <v>0.139769</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135106</v>
+        <v>0.135634</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108917</v>
+        <v>0.116475</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114231</v>
+        <v>0.140342</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136689</v>
+        <v>0.137301</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109323</v>
+        <v>0.119729</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114321</v>
+        <v>0.140116</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137776</v>
+        <v>0.135248</v>
       </c>
       <c r="C29" t="n">
-        <v>0.109716</v>
+        <v>0.118359</v>
       </c>
       <c r="D29" t="n">
-        <v>0.114326</v>
+        <v>0.140683</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137718</v>
+        <v>0.137572</v>
       </c>
       <c r="C30" t="n">
-        <v>0.109991</v>
+        <v>0.119003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.114821</v>
+        <v>0.141402</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.140041</v>
+        <v>0.138738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109947</v>
+        <v>0.119927</v>
       </c>
       <c r="D31" t="n">
-        <v>0.115658</v>
+        <v>0.141325</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.145109</v>
+        <v>0.139891</v>
       </c>
       <c r="C32" t="n">
-        <v>0.110063</v>
+        <v>0.119691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.116063</v>
+        <v>0.141757</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143466</v>
+        <v>0.142659</v>
       </c>
       <c r="C33" t="n">
-        <v>0.111442</v>
+        <v>0.118826</v>
       </c>
       <c r="D33" t="n">
-        <v>0.115768</v>
+        <v>0.141905</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.14866</v>
+        <v>0.145807</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11175</v>
+        <v>0.119767</v>
       </c>
       <c r="D34" t="n">
-        <v>0.117392</v>
+        <v>0.143104</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152008</v>
+        <v>0.151112</v>
       </c>
       <c r="C35" t="n">
-        <v>0.11404</v>
+        <v>0.123381</v>
       </c>
       <c r="D35" t="n">
-        <v>0.122301</v>
+        <v>0.146419</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160128</v>
+        <v>0.157385</v>
       </c>
       <c r="C36" t="n">
-        <v>0.12518</v>
+        <v>0.129877</v>
       </c>
       <c r="D36" t="n">
-        <v>0.128743</v>
+        <v>0.153383</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167182</v>
+        <v>0.164782</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125957</v>
+        <v>0.12637</v>
       </c>
       <c r="D37" t="n">
-        <v>0.125137</v>
+        <v>0.154194</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148565</v>
+        <v>0.147326</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121447</v>
+        <v>0.127898</v>
       </c>
       <c r="D38" t="n">
-        <v>0.129026</v>
+        <v>0.154301</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147746</v>
+        <v>0.149117</v>
       </c>
       <c r="C39" t="n">
-        <v>0.122226</v>
+        <v>0.130537</v>
       </c>
       <c r="D39" t="n">
-        <v>0.129862</v>
+        <v>0.156624</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147338</v>
+        <v>0.145506</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12123</v>
+        <v>0.129903</v>
       </c>
       <c r="D40" t="n">
-        <v>0.128534</v>
+        <v>0.154569</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147619</v>
+        <v>0.148022</v>
       </c>
       <c r="C41" t="n">
-        <v>0.119874</v>
+        <v>0.130776</v>
       </c>
       <c r="D41" t="n">
-        <v>0.127583</v>
+        <v>0.156755</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149677</v>
+        <v>0.145361</v>
       </c>
       <c r="C42" t="n">
-        <v>0.120842</v>
+        <v>0.128806</v>
       </c>
       <c r="D42" t="n">
-        <v>0.128213</v>
+        <v>0.156179</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.15051</v>
+        <v>0.152641</v>
       </c>
       <c r="C43" t="n">
-        <v>0.121277</v>
+        <v>0.128411</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128334</v>
+        <v>0.154879</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152759</v>
+        <v>0.15149</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120929</v>
+        <v>0.128767</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12834</v>
+        <v>0.155777</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.151402</v>
+        <v>0.153978</v>
       </c>
       <c r="C45" t="n">
-        <v>0.121783</v>
+        <v>0.131081</v>
       </c>
       <c r="D45" t="n">
-        <v>0.128599</v>
+        <v>0.157203</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.153187</v>
+        <v>0.155678</v>
       </c>
       <c r="C46" t="n">
-        <v>0.122163</v>
+        <v>0.130136</v>
       </c>
       <c r="D46" t="n">
-        <v>0.128211</v>
+        <v>0.15563</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16064</v>
+        <v>0.15814</v>
       </c>
       <c r="C47" t="n">
-        <v>0.123987</v>
+        <v>0.131571</v>
       </c>
       <c r="D47" t="n">
-        <v>0.131344</v>
+        <v>0.158771</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.163246</v>
+        <v>0.161633</v>
       </c>
       <c r="C48" t="n">
-        <v>0.126222</v>
+        <v>0.135408</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132888</v>
+        <v>0.160873</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164221</v>
+        <v>0.178928</v>
       </c>
       <c r="C49" t="n">
-        <v>0.129983</v>
+        <v>0.13705</v>
       </c>
       <c r="D49" t="n">
-        <v>0.13678</v>
+        <v>0.164686</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171048</v>
+        <v>0.176181</v>
       </c>
       <c r="C50" t="n">
-        <v>0.132573</v>
+        <v>0.144393</v>
       </c>
       <c r="D50" t="n">
-        <v>0.142383</v>
+        <v>0.169653</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175754</v>
+        <v>0.188476</v>
       </c>
       <c r="C51" t="n">
-        <v>0.137603</v>
+        <v>0.13972</v>
       </c>
       <c r="D51" t="n">
-        <v>0.139433</v>
+        <v>0.169007</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187715</v>
+        <v>0.190339</v>
       </c>
       <c r="C52" t="n">
-        <v>0.143619</v>
+        <v>0.14151</v>
       </c>
       <c r="D52" t="n">
-        <v>0.140343</v>
+        <v>0.168828</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160038</v>
+        <v>0.159775</v>
       </c>
       <c r="C53" t="n">
-        <v>0.130082</v>
+        <v>0.139552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.141286</v>
+        <v>0.169226</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161021</v>
+        <v>0.160551</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130484</v>
+        <v>0.14171</v>
       </c>
       <c r="D54" t="n">
-        <v>0.140772</v>
+        <v>0.169401</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161869</v>
+        <v>0.161764</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131286</v>
+        <v>0.140386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.142188</v>
+        <v>0.169589</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.163115</v>
+        <v>0.162205</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131948</v>
+        <v>0.140446</v>
       </c>
       <c r="D56" t="n">
-        <v>0.142519</v>
+        <v>0.169552</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163568</v>
+        <v>0.161781</v>
       </c>
       <c r="C57" t="n">
-        <v>0.132564</v>
+        <v>0.140811</v>
       </c>
       <c r="D57" t="n">
-        <v>0.142951</v>
+        <v>0.170303</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165432</v>
+        <v>0.164235</v>
       </c>
       <c r="C58" t="n">
-        <v>0.132622</v>
+        <v>0.143579</v>
       </c>
       <c r="D58" t="n">
-        <v>0.142949</v>
+        <v>0.169197</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166521</v>
+        <v>0.166556</v>
       </c>
       <c r="C59" t="n">
-        <v>0.134136</v>
+        <v>0.144023</v>
       </c>
       <c r="D59" t="n">
-        <v>0.143128</v>
+        <v>0.172127</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.16775</v>
+        <v>0.167344</v>
       </c>
       <c r="C60" t="n">
-        <v>0.135491</v>
+        <v>0.14284</v>
       </c>
       <c r="D60" t="n">
-        <v>0.144687</v>
+        <v>0.172987</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169705</v>
+        <v>0.171286</v>
       </c>
       <c r="C61" t="n">
-        <v>0.136756</v>
+        <v>0.148656</v>
       </c>
       <c r="D61" t="n">
-        <v>0.145998</v>
+        <v>0.174531</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173036</v>
+        <v>0.171719</v>
       </c>
       <c r="C62" t="n">
-        <v>0.137962</v>
+        <v>0.149813</v>
       </c>
       <c r="D62" t="n">
-        <v>0.147661</v>
+        <v>0.176647</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176539</v>
+        <v>0.178367</v>
       </c>
       <c r="C63" t="n">
-        <v>0.139926</v>
+        <v>0.151176</v>
       </c>
       <c r="D63" t="n">
-        <v>0.150652</v>
+        <v>0.179306</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18172</v>
+        <v>0.182644</v>
       </c>
       <c r="C64" t="n">
-        <v>0.143354</v>
+        <v>0.157723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.15579</v>
+        <v>0.183722</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188258</v>
+        <v>0.187857</v>
       </c>
       <c r="C65" t="n">
-        <v>0.147013</v>
+        <v>0.163007</v>
       </c>
       <c r="D65" t="n">
-        <v>0.161554</v>
+        <v>0.190163</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196219</v>
+        <v>0.198598</v>
       </c>
       <c r="C66" t="n">
-        <v>0.153</v>
+        <v>0.155118</v>
       </c>
       <c r="D66" t="n">
-        <v>0.154513</v>
+        <v>0.184279</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181062</v>
+        <v>0.190415</v>
       </c>
       <c r="C67" t="n">
-        <v>0.149137</v>
+        <v>0.156306</v>
       </c>
       <c r="D67" t="n">
-        <v>0.154921</v>
+        <v>0.187833</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.189544</v>
+        <v>0.191042</v>
       </c>
       <c r="C68" t="n">
-        <v>0.150238</v>
+        <v>0.155479</v>
       </c>
       <c r="D68" t="n">
-        <v>0.156366</v>
+        <v>0.185269</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182823</v>
+        <v>0.181174</v>
       </c>
       <c r="C69" t="n">
-        <v>0.148908</v>
+        <v>0.154655</v>
       </c>
       <c r="D69" t="n">
-        <v>0.15463</v>
+        <v>0.18605</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181857</v>
+        <v>0.189691</v>
       </c>
       <c r="C70" t="n">
-        <v>0.147302</v>
+        <v>0.156026</v>
       </c>
       <c r="D70" t="n">
-        <v>0.15597</v>
+        <v>0.187777</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.181959</v>
+        <v>0.187312</v>
       </c>
       <c r="C71" t="n">
-        <v>0.149043</v>
+        <v>0.15556</v>
       </c>
       <c r="D71" t="n">
-        <v>0.156754</v>
+        <v>0.186467</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.188102</v>
+        <v>0.194903</v>
       </c>
       <c r="C72" t="n">
-        <v>0.150323</v>
+        <v>0.155878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.157293</v>
+        <v>0.187591</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.188216</v>
+        <v>0.187901</v>
       </c>
       <c r="C73" t="n">
-        <v>0.149315</v>
+        <v>0.155859</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15719</v>
+        <v>0.187693</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.191366</v>
+        <v>0.192175</v>
       </c>
       <c r="C74" t="n">
-        <v>0.151513</v>
+        <v>0.157048</v>
       </c>
       <c r="D74" t="n">
-        <v>0.158249</v>
+        <v>0.1883</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189852</v>
+        <v>0.194346</v>
       </c>
       <c r="C75" t="n">
-        <v>0.152075</v>
+        <v>0.158033</v>
       </c>
       <c r="D75" t="n">
-        <v>0.15987</v>
+        <v>0.190467</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.194885</v>
+        <v>0.195746</v>
       </c>
       <c r="C76" t="n">
-        <v>0.154344</v>
+        <v>0.160622</v>
       </c>
       <c r="D76" t="n">
-        <v>0.161311</v>
+        <v>0.191026</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195128</v>
+        <v>0.202946</v>
       </c>
       <c r="C77" t="n">
-        <v>0.155147</v>
+        <v>0.163605</v>
       </c>
       <c r="D77" t="n">
-        <v>0.16406</v>
+        <v>0.195415</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204835</v>
+        <v>0.208204</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15855</v>
+        <v>0.166625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.167572</v>
+        <v>0.199513</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206828</v>
+        <v>0.21555</v>
       </c>
       <c r="C79" t="n">
-        <v>0.165478</v>
+        <v>0.173424</v>
       </c>
       <c r="D79" t="n">
-        <v>0.173464</v>
+        <v>0.204609</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.212027</v>
+        <v>0.223063</v>
       </c>
       <c r="C80" t="n">
-        <v>0.166966</v>
+        <v>0.217129</v>
       </c>
       <c r="D80" t="n">
-        <v>0.236077</v>
+        <v>0.250136</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361549</v>
+        <v>0.361694</v>
       </c>
       <c r="C81" t="n">
-        <v>0.285529</v>
+        <v>0.224791</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236174</v>
+        <v>0.271101</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.360147</v>
+        <v>0.370777</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2836</v>
+        <v>0.241509</v>
       </c>
       <c r="D82" t="n">
-        <v>0.232668</v>
+        <v>0.277726</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367249</v>
+        <v>0.373536</v>
       </c>
       <c r="C83" t="n">
-        <v>0.285548</v>
+        <v>0.242607</v>
       </c>
       <c r="D83" t="n">
-        <v>0.234004</v>
+        <v>0.278683</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3638</v>
+        <v>0.378112</v>
       </c>
       <c r="C84" t="n">
-        <v>0.282355</v>
+        <v>0.235808</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232086</v>
+        <v>0.273166</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.364781</v>
+        <v>0.380068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.282971</v>
+        <v>0.220782</v>
       </c>
       <c r="D85" t="n">
-        <v>0.233958</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.369525</v>
+        <v>0.372462</v>
       </c>
       <c r="C86" t="n">
-        <v>0.276118</v>
+        <v>0.221211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.23743</v>
+        <v>0.273187</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.363109</v>
+        <v>0.383185</v>
       </c>
       <c r="C87" t="n">
-        <v>0.280968</v>
+        <v>0.210594</v>
       </c>
       <c r="D87" t="n">
-        <v>0.231891</v>
+        <v>0.261659</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370892</v>
+        <v>0.367989</v>
       </c>
       <c r="C88" t="n">
-        <v>0.275444</v>
+        <v>0.23666</v>
       </c>
       <c r="D88" t="n">
-        <v>0.232981</v>
+        <v>0.269466</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371656</v>
+        <v>0.369595</v>
       </c>
       <c r="C89" t="n">
-        <v>0.277366</v>
+        <v>0.231513</v>
       </c>
       <c r="D89" t="n">
-        <v>0.233066</v>
+        <v>0.262523</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372282</v>
+        <v>0.383344</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278937</v>
+        <v>0.221361</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22976</v>
+        <v>0.262371</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.377268</v>
+        <v>0.378314</v>
       </c>
       <c r="C91" t="n">
-        <v>0.274826</v>
+        <v>0.215362</v>
       </c>
       <c r="D91" t="n">
-        <v>0.230104</v>
+        <v>0.26186</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.378998</v>
+        <v>0.373272</v>
       </c>
       <c r="C92" t="n">
-        <v>0.279236</v>
+        <v>0.231322</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229349</v>
+        <v>0.25714</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.384958</v>
+        <v>0.385518</v>
       </c>
       <c r="C93" t="n">
-        <v>0.275189</v>
+        <v>0.235976</v>
       </c>
       <c r="D93" t="n">
-        <v>0.237819</v>
+        <v>0.267498</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.388326</v>
+        <v>0.392325</v>
       </c>
       <c r="C94" t="n">
-        <v>0.283392</v>
+        <v>0.396851</v>
       </c>
       <c r="D94" t="n">
-        <v>0.397866</v>
+        <v>0.470096</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.530208</v>
+        <v>0.536502</v>
       </c>
       <c r="C95" t="n">
-        <v>0.445343</v>
+        <v>0.387495</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398911</v>
+        <v>0.470001</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5306110000000001</v>
+        <v>0.535529</v>
       </c>
       <c r="C96" t="n">
-        <v>0.444524</v>
+        <v>0.38715</v>
       </c>
       <c r="D96" t="n">
-        <v>0.397483</v>
+        <v>0.472166</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531402</v>
+        <v>0.536307</v>
       </c>
       <c r="C97" t="n">
-        <v>0.443006</v>
+        <v>0.395573</v>
       </c>
       <c r="D97" t="n">
-        <v>0.397709</v>
+        <v>0.469213</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.532346</v>
+        <v>0.538487</v>
       </c>
       <c r="C98" t="n">
-        <v>0.448782</v>
+        <v>0.388584</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397204</v>
+        <v>0.467307</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.533207</v>
+        <v>0.539079</v>
       </c>
       <c r="C99" t="n">
-        <v>0.449656</v>
+        <v>0.394784</v>
       </c>
       <c r="D99" t="n">
-        <v>0.396712</v>
+        <v>0.452504</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.533914</v>
+        <v>0.5385760000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.448205</v>
+        <v>0.386529</v>
       </c>
       <c r="D100" t="n">
-        <v>0.395491</v>
+        <v>0.451976</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.53411</v>
+        <v>0.540276</v>
       </c>
       <c r="C101" t="n">
-        <v>0.447844</v>
+        <v>0.396994</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396815</v>
+        <v>0.466757</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.535223</v>
+        <v>0.541119</v>
       </c>
       <c r="C102" t="n">
-        <v>0.44277</v>
+        <v>0.394986</v>
       </c>
       <c r="D102" t="n">
-        <v>0.396155</v>
+        <v>0.466828</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.537537</v>
+        <v>0.543276</v>
       </c>
       <c r="C103" t="n">
-        <v>0.448684</v>
+        <v>0.384837</v>
       </c>
       <c r="D103" t="n">
-        <v>0.397679</v>
+        <v>0.453922</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.540509</v>
+        <v>0.544959</v>
       </c>
       <c r="C104" t="n">
-        <v>0.449542</v>
+        <v>0.399533</v>
       </c>
       <c r="D104" t="n">
-        <v>0.398804</v>
+        <v>0.470349</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.542399</v>
+        <v>0.549352</v>
       </c>
       <c r="C105" t="n">
-        <v>0.445847</v>
+        <v>0.390014</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401237</v>
+        <v>0.466844</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5466</v>
+        <v>0.553444</v>
       </c>
       <c r="C106" t="n">
-        <v>0.452005</v>
+        <v>0.401687</v>
       </c>
       <c r="D106" t="n">
-        <v>0.400038</v>
+        <v>0.471241</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5512629999999999</v>
+        <v>0.557026</v>
       </c>
       <c r="C107" t="n">
-        <v>0.45564</v>
+        <v>0.408839</v>
       </c>
       <c r="D107" t="n">
-        <v>0.410379</v>
+        <v>0.477596</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.560527</v>
+        <v>0.564408</v>
       </c>
       <c r="C108" t="n">
-        <v>0.459515</v>
+        <v>0.533658</v>
       </c>
       <c r="D108" t="n">
-        <v>0.532505</v>
+        <v>0.651388</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.570044</v>
+        <v>0.575469</v>
       </c>
       <c r="C109" t="n">
-        <v>0.467199</v>
+        <v>0.533588</v>
       </c>
       <c r="D109" t="n">
-        <v>0.527246</v>
+        <v>0.651451</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.609621</v>
+        <v>0.6180020000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5581</v>
+        <v>0.5342980000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.53383</v>
+        <v>0.643835</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.609706</v>
+        <v>0.620626</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557724</v>
+        <v>0.53118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.532443</v>
+        <v>0.654168</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.611764</v>
+        <v>0.616016</v>
       </c>
       <c r="C112" t="n">
-        <v>0.552243</v>
+        <v>0.539674</v>
       </c>
       <c r="D112" t="n">
-        <v>0.533646</v>
+        <v>0.652796</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.611891</v>
+        <v>0.620333</v>
       </c>
       <c r="C113" t="n">
-        <v>0.558527</v>
+        <v>0.538536</v>
       </c>
       <c r="D113" t="n">
-        <v>0.536009</v>
+        <v>0.640594</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.614631</v>
+        <v>0.6198630000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.558665</v>
+        <v>0.538378</v>
       </c>
       <c r="D114" t="n">
-        <v>0.537374</v>
+        <v>0.653852</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.614307</v>
+        <v>0.62268</v>
       </c>
       <c r="C115" t="n">
-        <v>0.554068</v>
+        <v>0.539606</v>
       </c>
       <c r="D115" t="n">
-        <v>0.539689</v>
+        <v>0.654232</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.617877</v>
+        <v>0.622828</v>
       </c>
       <c r="C116" t="n">
-        <v>0.554752</v>
+        <v>0.540566</v>
       </c>
       <c r="D116" t="n">
-        <v>0.537772</v>
+        <v>0.656914</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6216699999999999</v>
+        <v>0.6284149999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5633550000000001</v>
+        <v>0.54216</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5356919999999999</v>
+        <v>0.659206</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.62169</v>
+        <v>0.629084</v>
       </c>
       <c r="C118" t="n">
-        <v>0.564035</v>
+        <v>0.540027</v>
       </c>
       <c r="D118" t="n">
-        <v>0.540985</v>
+        <v>0.659765</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.624758</v>
+        <v>0.631403</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565379</v>
+        <v>0.5492</v>
       </c>
       <c r="D119" t="n">
-        <v>0.545521</v>
+        <v>0.662419</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.629258</v>
+        <v>0.6395459999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.564644</v>
+        <v>0.553222</v>
       </c>
       <c r="D120" t="n">
-        <v>0.545363</v>
+        <v>0.662291</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.637428</v>
+        <v>0.644694</v>
       </c>
       <c r="C121" t="n">
-        <v>0.571814</v>
+        <v>0.553038</v>
       </c>
       <c r="D121" t="n">
-        <v>0.555781</v>
+        <v>0.658849</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.646558</v>
+        <v>0.651394</v>
       </c>
       <c r="C122" t="n">
-        <v>0.577117</v>
+        <v>0.562883</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5582819999999999</v>
+        <v>0.664492</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.66128</v>
+        <v>0.66755</v>
       </c>
       <c r="C123" t="n">
-        <v>0.586736</v>
+        <v>0.700572</v>
       </c>
       <c r="D123" t="n">
-        <v>0.691257</v>
+        <v>0.805711</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.747285</v>
+        <v>0.758693</v>
       </c>
       <c r="C124" t="n">
-        <v>0.683613</v>
+        <v>0.700857</v>
       </c>
       <c r="D124" t="n">
-        <v>0.692121</v>
+        <v>0.807647</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.751897</v>
+        <v>0.761956</v>
       </c>
       <c r="C125" t="n">
-        <v>0.687347</v>
+        <v>0.704573</v>
       </c>
       <c r="D125" t="n">
-        <v>0.694564</v>
+        <v>0.8047299999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.749841</v>
+        <v>0.765166</v>
       </c>
       <c r="C126" t="n">
-        <v>0.688784</v>
+        <v>0.707185</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693832</v>
+        <v>0.809176</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.750421</v>
+        <v>0.764626</v>
       </c>
       <c r="C127" t="n">
-        <v>0.688304</v>
+        <v>0.705097</v>
       </c>
       <c r="D127" t="n">
-        <v>0.693859</v>
+        <v>0.808465</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.754427</v>
+        <v>0.762541</v>
       </c>
       <c r="C128" t="n">
-        <v>0.684904</v>
+        <v>0.706887</v>
       </c>
       <c r="D128" t="n">
-        <v>0.695605</v>
+        <v>0.805055</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.754404</v>
+        <v>0.765332</v>
       </c>
       <c r="C129" t="n">
-        <v>0.686588</v>
+        <v>0.708831</v>
       </c>
       <c r="D129" t="n">
-        <v>0.697661</v>
+        <v>0.807991</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.759575</v>
+        <v>0.766524</v>
       </c>
       <c r="C130" t="n">
-        <v>0.690951</v>
+        <v>0.705101</v>
       </c>
       <c r="D130" t="n">
-        <v>0.701673</v>
+        <v>0.811935</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7591599999999999</v>
+        <v>0.769512</v>
       </c>
       <c r="C131" t="n">
-        <v>0.695144</v>
+        <v>0.711687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.701589</v>
+        <v>0.813242</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.762883</v>
+        <v>0.772286</v>
       </c>
       <c r="C132" t="n">
-        <v>0.696693</v>
+        <v>0.7138370000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.703749</v>
+        <v>0.814928</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.764059</v>
+        <v>0.777455</v>
       </c>
       <c r="C133" t="n">
-        <v>0.699111</v>
+        <v>0.72007</v>
       </c>
       <c r="D133" t="n">
-        <v>0.706191</v>
+        <v>0.820469</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.770123</v>
+        <v>0.780304</v>
       </c>
       <c r="C134" t="n">
-        <v>0.703488</v>
+        <v>0.718487</v>
       </c>
       <c r="D134" t="n">
-        <v>0.709358</v>
+        <v>0.81864</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.776363</v>
+        <v>0.786196</v>
       </c>
       <c r="C135" t="n">
-        <v>0.708874</v>
+        <v>0.724406</v>
       </c>
       <c r="D135" t="n">
-        <v>0.713971</v>
+        <v>0.829972</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.786818</v>
+        <v>0.795617</v>
       </c>
       <c r="C136" t="n">
-        <v>0.714619</v>
+        <v>0.733731</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7229640000000001</v>
+        <v>0.837192</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7976569999999999</v>
+        <v>0.808044</v>
       </c>
       <c r="C137" t="n">
-        <v>0.72319</v>
+        <v>0.837121</v>
       </c>
       <c r="D137" t="n">
-        <v>0.825329</v>
+        <v>0.901558</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.874963</v>
+        <v>0.8842449999999999</v>
       </c>
       <c r="C138" t="n">
-        <v>0.806603</v>
+        <v>0.837126</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8273239999999999</v>
+        <v>0.909267</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.874301</v>
+        <v>0.889779</v>
       </c>
       <c r="C139" t="n">
-        <v>0.807121</v>
+        <v>0.8396400000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8267099999999999</v>
+        <v>0.908102</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.876125</v>
+        <v>0.88398</v>
       </c>
       <c r="C140" t="n">
-        <v>0.80887</v>
+        <v>0.837693</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8277409999999999</v>
+        <v>0.909764</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.877492</v>
+        <v>0.8907620000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.810106</v>
+        <v>0.839926</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829362</v>
+        <v>0.911489</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.876862</v>
+        <v>0.892263</v>
       </c>
       <c r="C142" t="n">
-        <v>0.812497</v>
+        <v>0.840272</v>
       </c>
       <c r="D142" t="n">
-        <v>0.827692</v>
+        <v>0.906408</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.878697</v>
+        <v>0.89486</v>
       </c>
       <c r="C143" t="n">
-        <v>0.813338</v>
+        <v>0.841135</v>
       </c>
       <c r="D143" t="n">
-        <v>0.829555</v>
+        <v>0.913156</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116249</v>
+        <v>0.116831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0980587</v>
+        <v>0.09907440000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11834</v>
+        <v>0.119534</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115821</v>
+        <v>0.117746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09866800000000001</v>
+        <v>0.0999569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11913</v>
+        <v>0.120052</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116843</v>
+        <v>0.123304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.098578</v>
+        <v>0.102403</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11913</v>
+        <v>0.119672</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117943</v>
+        <v>0.118132</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09920320000000001</v>
+        <v>0.0989506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.120235</v>
+        <v>0.120358</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120854</v>
+        <v>0.120362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100327</v>
+        <v>0.09941850000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.121389</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123461</v>
+        <v>0.124551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.101706</v>
+        <v>0.100394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.121119</v>
+        <v>0.122076</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.140125</v>
+        <v>0.130054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101558</v>
+        <v>0.101832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123531</v>
+        <v>0.124137</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139807</v>
+        <v>0.139929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107481</v>
+        <v>0.119918</v>
       </c>
       <c r="D9" t="n">
-        <v>0.127354</v>
+        <v>0.128119</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124267</v>
+        <v>0.130585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104451</v>
+        <v>0.110371</v>
       </c>
       <c r="D10" t="n">
-        <v>0.127022</v>
+        <v>0.130605</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125759</v>
+        <v>0.134353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.105182</v>
+        <v>0.110699</v>
       </c>
       <c r="D11" t="n">
-        <v>0.127727</v>
+        <v>0.129718</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131241</v>
+        <v>0.125642</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107524</v>
+        <v>0.112402</v>
       </c>
       <c r="D12" t="n">
-        <v>0.127603</v>
+        <v>0.131138</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130994</v>
+        <v>0.127702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105595</v>
+        <v>0.113016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.12781</v>
+        <v>0.131867</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126989</v>
+        <v>0.129371</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106322</v>
+        <v>0.114588</v>
       </c>
       <c r="D14" t="n">
-        <v>0.128163</v>
+        <v>0.131754</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126217</v>
+        <v>0.127753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.105851</v>
+        <v>0.113081</v>
       </c>
       <c r="D15" t="n">
-        <v>0.128299</v>
+        <v>0.13316</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12624</v>
+        <v>0.135175</v>
       </c>
       <c r="C16" t="n">
-        <v>0.108357</v>
+        <v>0.114188</v>
       </c>
       <c r="D16" t="n">
-        <v>0.128851</v>
+        <v>0.131615</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.132422</v>
+        <v>0.129299</v>
       </c>
       <c r="C17" t="n">
-        <v>0.108414</v>
+        <v>0.113876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.128891</v>
+        <v>0.133193</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131052</v>
+        <v>0.130469</v>
       </c>
       <c r="C18" t="n">
-        <v>0.10827</v>
+        <v>0.114271</v>
       </c>
       <c r="D18" t="n">
-        <v>0.129863</v>
+        <v>0.133188</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135704</v>
+        <v>0.134101</v>
       </c>
       <c r="C19" t="n">
-        <v>0.11021</v>
+        <v>0.115794</v>
       </c>
       <c r="D19" t="n">
-        <v>0.129692</v>
+        <v>0.132669</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.135904</v>
+        <v>0.144332</v>
       </c>
       <c r="C20" t="n">
-        <v>0.108793</v>
+        <v>0.117053</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12953</v>
+        <v>0.13471</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.139018</v>
+        <v>0.145869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111775</v>
+        <v>0.115774</v>
       </c>
       <c r="D21" t="n">
-        <v>0.13146</v>
+        <v>0.139801</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.146867</v>
+        <v>0.152169</v>
       </c>
       <c r="C22" t="n">
-        <v>0.114117</v>
+        <v>0.120211</v>
       </c>
       <c r="D22" t="n">
-        <v>0.135061</v>
+        <v>0.144159</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160296</v>
+        <v>0.161255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120136</v>
+        <v>0.120582</v>
       </c>
       <c r="D23" t="n">
-        <v>0.141001</v>
+        <v>0.141114</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139268</v>
+        <v>0.135361</v>
       </c>
       <c r="C24" t="n">
-        <v>0.117553</v>
+        <v>0.121399</v>
       </c>
       <c r="D24" t="n">
-        <v>0.140782</v>
+        <v>0.141364</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.144837</v>
+        <v>0.135114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.117057</v>
+        <v>0.117648</v>
       </c>
       <c r="D25" t="n">
-        <v>0.140143</v>
+        <v>0.140461</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134757</v>
+        <v>0.134658</v>
       </c>
       <c r="C26" t="n">
-        <v>0.116127</v>
+        <v>0.121888</v>
       </c>
       <c r="D26" t="n">
-        <v>0.139769</v>
+        <v>0.140094</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135634</v>
+        <v>0.134207</v>
       </c>
       <c r="C27" t="n">
-        <v>0.116475</v>
+        <v>0.12197</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140342</v>
+        <v>0.14115</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137301</v>
+        <v>0.138806</v>
       </c>
       <c r="C28" t="n">
-        <v>0.119729</v>
+        <v>0.12346</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140116</v>
+        <v>0.141762</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135248</v>
+        <v>0.138208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.118359</v>
+        <v>0.123113</v>
       </c>
       <c r="D29" t="n">
-        <v>0.140683</v>
+        <v>0.140884</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137572</v>
+        <v>0.13807</v>
       </c>
       <c r="C30" t="n">
-        <v>0.119003</v>
+        <v>0.123734</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141402</v>
+        <v>0.141718</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138738</v>
+        <v>0.13887</v>
       </c>
       <c r="C31" t="n">
-        <v>0.119927</v>
+        <v>0.123721</v>
       </c>
       <c r="D31" t="n">
-        <v>0.141325</v>
+        <v>0.142419</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139891</v>
+        <v>0.139854</v>
       </c>
       <c r="C32" t="n">
-        <v>0.119691</v>
+        <v>0.121419</v>
       </c>
       <c r="D32" t="n">
-        <v>0.141757</v>
+        <v>0.141167</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.142659</v>
+        <v>0.149409</v>
       </c>
       <c r="C33" t="n">
-        <v>0.118826</v>
+        <v>0.124046</v>
       </c>
       <c r="D33" t="n">
-        <v>0.141905</v>
+        <v>0.141771</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.145807</v>
+        <v>0.146486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.119767</v>
+        <v>0.123042</v>
       </c>
       <c r="D34" t="n">
-        <v>0.143104</v>
+        <v>0.143747</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151112</v>
+        <v>0.151627</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123381</v>
+        <v>0.127062</v>
       </c>
       <c r="D35" t="n">
-        <v>0.146419</v>
+        <v>0.146078</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.157385</v>
+        <v>0.158237</v>
       </c>
       <c r="C36" t="n">
-        <v>0.129877</v>
+        <v>0.132612</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153383</v>
+        <v>0.153174</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.164782</v>
+        <v>0.166027</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12637</v>
+        <v>0.131368</v>
       </c>
       <c r="D37" t="n">
-        <v>0.154194</v>
+        <v>0.156607</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147326</v>
+        <v>0.15384</v>
       </c>
       <c r="C38" t="n">
-        <v>0.127898</v>
+        <v>0.132122</v>
       </c>
       <c r="D38" t="n">
-        <v>0.154301</v>
+        <v>0.157481</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149117</v>
+        <v>0.148093</v>
       </c>
       <c r="C39" t="n">
-        <v>0.130537</v>
+        <v>0.133402</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156624</v>
+        <v>0.15705</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145506</v>
+        <v>0.15087</v>
       </c>
       <c r="C40" t="n">
-        <v>0.129903</v>
+        <v>0.13459</v>
       </c>
       <c r="D40" t="n">
-        <v>0.154569</v>
+        <v>0.156356</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148022</v>
+        <v>0.149885</v>
       </c>
       <c r="C41" t="n">
-        <v>0.130776</v>
+        <v>0.136155</v>
       </c>
       <c r="D41" t="n">
-        <v>0.156755</v>
+        <v>0.157536</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145361</v>
+        <v>0.146068</v>
       </c>
       <c r="C42" t="n">
-        <v>0.128806</v>
+        <v>0.134688</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156179</v>
+        <v>0.156547</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.152641</v>
+        <v>0.150299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.128411</v>
+        <v>0.131292</v>
       </c>
       <c r="D43" t="n">
-        <v>0.154879</v>
+        <v>0.154898</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.15149</v>
+        <v>0.152031</v>
       </c>
       <c r="C44" t="n">
-        <v>0.128767</v>
+        <v>0.130869</v>
       </c>
       <c r="D44" t="n">
-        <v>0.155777</v>
+        <v>0.156822</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153978</v>
+        <v>0.153232</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131081</v>
+        <v>0.131137</v>
       </c>
       <c r="D45" t="n">
-        <v>0.157203</v>
+        <v>0.158154</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155678</v>
+        <v>0.152533</v>
       </c>
       <c r="C46" t="n">
-        <v>0.130136</v>
+        <v>0.137367</v>
       </c>
       <c r="D46" t="n">
-        <v>0.15563</v>
+        <v>0.160295</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15814</v>
+        <v>0.156498</v>
       </c>
       <c r="C47" t="n">
-        <v>0.131571</v>
+        <v>0.137216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.158771</v>
+        <v>0.157395</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161633</v>
+        <v>0.160719</v>
       </c>
       <c r="C48" t="n">
-        <v>0.135408</v>
+        <v>0.141141</v>
       </c>
       <c r="D48" t="n">
-        <v>0.160873</v>
+        <v>0.16225</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.178928</v>
+        <v>0.164151</v>
       </c>
       <c r="C49" t="n">
-        <v>0.13705</v>
+        <v>0.140542</v>
       </c>
       <c r="D49" t="n">
-        <v>0.164686</v>
+        <v>0.166038</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.176181</v>
+        <v>0.168446</v>
       </c>
       <c r="C50" t="n">
-        <v>0.144393</v>
+        <v>0.146363</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169653</v>
+        <v>0.170438</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.188476</v>
+        <v>0.178665</v>
       </c>
       <c r="C51" t="n">
-        <v>0.13972</v>
+        <v>0.141727</v>
       </c>
       <c r="D51" t="n">
-        <v>0.169007</v>
+        <v>0.17042</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.190339</v>
+        <v>0.185915</v>
       </c>
       <c r="C52" t="n">
-        <v>0.14151</v>
+        <v>0.149369</v>
       </c>
       <c r="D52" t="n">
-        <v>0.168828</v>
+        <v>0.169979</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159775</v>
+        <v>0.165397</v>
       </c>
       <c r="C53" t="n">
-        <v>0.139552</v>
+        <v>0.144903</v>
       </c>
       <c r="D53" t="n">
-        <v>0.169226</v>
+        <v>0.170561</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160551</v>
+        <v>0.166959</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14171</v>
+        <v>0.145294</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169401</v>
+        <v>0.169864</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161764</v>
+        <v>0.164922</v>
       </c>
       <c r="C55" t="n">
-        <v>0.140386</v>
+        <v>0.144641</v>
       </c>
       <c r="D55" t="n">
-        <v>0.169589</v>
+        <v>0.170464</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162205</v>
+        <v>0.17341</v>
       </c>
       <c r="C56" t="n">
-        <v>0.140446</v>
+        <v>0.149819</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169552</v>
+        <v>0.171668</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.161781</v>
+        <v>0.177033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.140811</v>
+        <v>0.150541</v>
       </c>
       <c r="D57" t="n">
-        <v>0.170303</v>
+        <v>0.17299</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164235</v>
+        <v>0.170834</v>
       </c>
       <c r="C58" t="n">
-        <v>0.143579</v>
+        <v>0.147068</v>
       </c>
       <c r="D58" t="n">
-        <v>0.169197</v>
+        <v>0.17485</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166556</v>
+        <v>0.182686</v>
       </c>
       <c r="C59" t="n">
-        <v>0.144023</v>
+        <v>0.153134</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172127</v>
+        <v>0.181725</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167344</v>
+        <v>0.17943</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14284</v>
+        <v>0.15021</v>
       </c>
       <c r="D60" t="n">
-        <v>0.172987</v>
+        <v>0.177975</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.171286</v>
+        <v>0.172429</v>
       </c>
       <c r="C61" t="n">
-        <v>0.148656</v>
+        <v>0.150296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.174531</v>
+        <v>0.18064</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171719</v>
+        <v>0.181472</v>
       </c>
       <c r="C62" t="n">
-        <v>0.149813</v>
+        <v>0.160836</v>
       </c>
       <c r="D62" t="n">
-        <v>0.176647</v>
+        <v>0.18097</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178367</v>
+        <v>0.189675</v>
       </c>
       <c r="C63" t="n">
-        <v>0.151176</v>
+        <v>0.163448</v>
       </c>
       <c r="D63" t="n">
-        <v>0.179306</v>
+        <v>0.18354</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182644</v>
+        <v>0.195401</v>
       </c>
       <c r="C64" t="n">
-        <v>0.157723</v>
+        <v>0.162902</v>
       </c>
       <c r="D64" t="n">
-        <v>0.183722</v>
+        <v>0.188476</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187857</v>
+        <v>0.203282</v>
       </c>
       <c r="C65" t="n">
-        <v>0.163007</v>
+        <v>0.175757</v>
       </c>
       <c r="D65" t="n">
-        <v>0.190163</v>
+        <v>0.199385</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198598</v>
+        <v>0.201553</v>
       </c>
       <c r="C66" t="n">
-        <v>0.155118</v>
+        <v>0.159828</v>
       </c>
       <c r="D66" t="n">
-        <v>0.184279</v>
+        <v>0.192713</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.190415</v>
+        <v>0.20953</v>
       </c>
       <c r="C67" t="n">
-        <v>0.156306</v>
+        <v>0.157825</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187833</v>
+        <v>0.189257</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.191042</v>
+        <v>0.204766</v>
       </c>
       <c r="C68" t="n">
-        <v>0.155479</v>
+        <v>0.155585</v>
       </c>
       <c r="D68" t="n">
-        <v>0.185269</v>
+        <v>0.187913</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181174</v>
+        <v>0.203959</v>
       </c>
       <c r="C69" t="n">
-        <v>0.154655</v>
+        <v>0.164901</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18605</v>
+        <v>0.191522</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.189691</v>
+        <v>0.211776</v>
       </c>
       <c r="C70" t="n">
-        <v>0.156026</v>
+        <v>0.15967</v>
       </c>
       <c r="D70" t="n">
-        <v>0.187777</v>
+        <v>0.190631</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.187312</v>
+        <v>0.21142</v>
       </c>
       <c r="C71" t="n">
-        <v>0.15556</v>
+        <v>0.165653</v>
       </c>
       <c r="D71" t="n">
-        <v>0.186467</v>
+        <v>0.195296</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.194903</v>
+        <v>0.235211</v>
       </c>
       <c r="C72" t="n">
-        <v>0.155878</v>
+        <v>0.16358</v>
       </c>
       <c r="D72" t="n">
-        <v>0.187591</v>
+        <v>0.198257</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.187901</v>
+        <v>0.227998</v>
       </c>
       <c r="C73" t="n">
-        <v>0.155859</v>
+        <v>0.164418</v>
       </c>
       <c r="D73" t="n">
-        <v>0.187693</v>
+        <v>0.197014</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.192175</v>
+        <v>0.228206</v>
       </c>
       <c r="C74" t="n">
-        <v>0.157048</v>
+        <v>0.162821</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1883</v>
+        <v>0.198227</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.194346</v>
+        <v>0.230803</v>
       </c>
       <c r="C75" t="n">
-        <v>0.158033</v>
+        <v>0.163366</v>
       </c>
       <c r="D75" t="n">
-        <v>0.190467</v>
+        <v>0.200039</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195746</v>
+        <v>0.246055</v>
       </c>
       <c r="C76" t="n">
-        <v>0.160622</v>
+        <v>0.173968</v>
       </c>
       <c r="D76" t="n">
-        <v>0.191026</v>
+        <v>0.201831</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202946</v>
+        <v>0.211928</v>
       </c>
       <c r="C77" t="n">
-        <v>0.163605</v>
+        <v>0.170537</v>
       </c>
       <c r="D77" t="n">
-        <v>0.195415</v>
+        <v>0.190404</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208204</v>
+        <v>0.208968</v>
       </c>
       <c r="C78" t="n">
-        <v>0.166625</v>
+        <v>0.17461</v>
       </c>
       <c r="D78" t="n">
-        <v>0.199513</v>
+        <v>0.192976</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.21555</v>
+        <v>0.213909</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173424</v>
+        <v>0.174269</v>
       </c>
       <c r="D79" t="n">
-        <v>0.204609</v>
+        <v>0.199502</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.223063</v>
+        <v>0.225596</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217129</v>
+        <v>0.24703</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250136</v>
+        <v>0.273713</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361694</v>
+        <v>0.36905</v>
       </c>
       <c r="C81" t="n">
-        <v>0.224791</v>
+        <v>0.244391</v>
       </c>
       <c r="D81" t="n">
-        <v>0.271101</v>
+        <v>0.252055</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.370777</v>
+        <v>0.369522</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241509</v>
+        <v>0.248838</v>
       </c>
       <c r="D82" t="n">
-        <v>0.277726</v>
+        <v>0.271312</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.373536</v>
+        <v>0.364259</v>
       </c>
       <c r="C83" t="n">
-        <v>0.242607</v>
+        <v>0.228544</v>
       </c>
       <c r="D83" t="n">
-        <v>0.278683</v>
+        <v>0.27596</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.378112</v>
+        <v>0.367215</v>
       </c>
       <c r="C84" t="n">
-        <v>0.235808</v>
+        <v>0.24075</v>
       </c>
       <c r="D84" t="n">
-        <v>0.273166</v>
+        <v>0.259747</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.380068</v>
+        <v>0.367241</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220782</v>
+        <v>0.246983</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2732</v>
+        <v>0.274038</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.372462</v>
+        <v>0.36805</v>
       </c>
       <c r="C86" t="n">
-        <v>0.221211</v>
+        <v>0.242258</v>
       </c>
       <c r="D86" t="n">
-        <v>0.273187</v>
+        <v>0.254764</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.383185</v>
+        <v>0.368491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.210594</v>
+        <v>0.246059</v>
       </c>
       <c r="D87" t="n">
-        <v>0.261659</v>
+        <v>0.265722</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367989</v>
+        <v>0.373927</v>
       </c>
       <c r="C88" t="n">
-        <v>0.23666</v>
+        <v>0.244574</v>
       </c>
       <c r="D88" t="n">
-        <v>0.269466</v>
+        <v>0.244286</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.369595</v>
+        <v>0.37133</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231513</v>
+        <v>0.24204</v>
       </c>
       <c r="D89" t="n">
-        <v>0.262523</v>
+        <v>0.266165</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.383344</v>
+        <v>0.375239</v>
       </c>
       <c r="C90" t="n">
-        <v>0.221361</v>
+        <v>0.242763</v>
       </c>
       <c r="D90" t="n">
-        <v>0.262371</v>
+        <v>0.267874</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.378314</v>
+        <v>0.375605</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215362</v>
+        <v>0.242498</v>
       </c>
       <c r="D91" t="n">
-        <v>0.26186</v>
+        <v>0.262831</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.373272</v>
+        <v>0.380861</v>
       </c>
       <c r="C92" t="n">
-        <v>0.231322</v>
+        <v>0.235393</v>
       </c>
       <c r="D92" t="n">
-        <v>0.25714</v>
+        <v>0.266521</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385518</v>
+        <v>0.385407</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235976</v>
+        <v>0.252031</v>
       </c>
       <c r="D93" t="n">
-        <v>0.267498</v>
+        <v>0.272107</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392325</v>
+        <v>0.397274</v>
       </c>
       <c r="C94" t="n">
-        <v>0.396851</v>
+        <v>0.401269</v>
       </c>
       <c r="D94" t="n">
-        <v>0.470096</v>
+        <v>0.469964</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.536502</v>
+        <v>0.535385</v>
       </c>
       <c r="C95" t="n">
-        <v>0.387495</v>
+        <v>0.403566</v>
       </c>
       <c r="D95" t="n">
-        <v>0.470001</v>
+        <v>0.469116</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535529</v>
+        <v>0.535421</v>
       </c>
       <c r="C96" t="n">
-        <v>0.38715</v>
+        <v>0.405936</v>
       </c>
       <c r="D96" t="n">
-        <v>0.472166</v>
+        <v>0.472871</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.536307</v>
+        <v>0.536506</v>
       </c>
       <c r="C97" t="n">
-        <v>0.395573</v>
+        <v>0.403427</v>
       </c>
       <c r="D97" t="n">
-        <v>0.469213</v>
+        <v>0.469041</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.538487</v>
+        <v>0.537285</v>
       </c>
       <c r="C98" t="n">
-        <v>0.388584</v>
+        <v>0.396376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.467307</v>
+        <v>0.470854</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.539079</v>
+        <v>0.539969</v>
       </c>
       <c r="C99" t="n">
-        <v>0.394784</v>
+        <v>0.397606</v>
       </c>
       <c r="D99" t="n">
-        <v>0.452504</v>
+        <v>0.467534</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5385760000000001</v>
+        <v>0.539062</v>
       </c>
       <c r="C100" t="n">
-        <v>0.386529</v>
+        <v>0.400027</v>
       </c>
       <c r="D100" t="n">
-        <v>0.451976</v>
+        <v>0.47142</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.540276</v>
+        <v>0.540788</v>
       </c>
       <c r="C101" t="n">
-        <v>0.396994</v>
+        <v>0.397613</v>
       </c>
       <c r="D101" t="n">
-        <v>0.466757</v>
+        <v>0.471096</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.541119</v>
+        <v>0.541306</v>
       </c>
       <c r="C102" t="n">
-        <v>0.394986</v>
+        <v>0.388595</v>
       </c>
       <c r="D102" t="n">
-        <v>0.466828</v>
+        <v>0.452802</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.543276</v>
+        <v>0.544127</v>
       </c>
       <c r="C103" t="n">
-        <v>0.384837</v>
+        <v>0.402709</v>
       </c>
       <c r="D103" t="n">
-        <v>0.453922</v>
+        <v>0.456214</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.544959</v>
+        <v>0.544668</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399533</v>
+        <v>0.390403</v>
       </c>
       <c r="D104" t="n">
-        <v>0.470349</v>
+        <v>0.468361</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.549352</v>
+        <v>0.548762</v>
       </c>
       <c r="C105" t="n">
-        <v>0.390014</v>
+        <v>0.401879</v>
       </c>
       <c r="D105" t="n">
-        <v>0.466844</v>
+        <v>0.47102</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.553444</v>
+        <v>0.5525640000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.401687</v>
+        <v>0.404875</v>
       </c>
       <c r="D106" t="n">
-        <v>0.471241</v>
+        <v>0.475693</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.557026</v>
+        <v>0.558364</v>
       </c>
       <c r="C107" t="n">
-        <v>0.408839</v>
+        <v>0.403954</v>
       </c>
       <c r="D107" t="n">
-        <v>0.477596</v>
+        <v>0.479163</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.564408</v>
+        <v>0.5653</v>
       </c>
       <c r="C108" t="n">
-        <v>0.533658</v>
+        <v>0.537914</v>
       </c>
       <c r="D108" t="n">
-        <v>0.651388</v>
+        <v>0.6471519999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.575469</v>
+        <v>0.577468</v>
       </c>
       <c r="C109" t="n">
-        <v>0.533588</v>
+        <v>0.537338</v>
       </c>
       <c r="D109" t="n">
-        <v>0.651451</v>
+        <v>0.64236</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6180020000000001</v>
+        <v>0.618491</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5342980000000001</v>
+        <v>0.53805</v>
       </c>
       <c r="D110" t="n">
-        <v>0.643835</v>
+        <v>0.654294</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.620626</v>
+        <v>0.615847</v>
       </c>
       <c r="C111" t="n">
-        <v>0.53118</v>
+        <v>0.530909</v>
       </c>
       <c r="D111" t="n">
-        <v>0.654168</v>
+        <v>0.642481</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.616016</v>
+        <v>0.619727</v>
       </c>
       <c r="C112" t="n">
-        <v>0.539674</v>
+        <v>0.5366379999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.652796</v>
+        <v>0.656687</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.620333</v>
+        <v>0.617463</v>
       </c>
       <c r="C113" t="n">
-        <v>0.538536</v>
+        <v>0.5394640000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.640594</v>
+        <v>0.659287</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6198630000000001</v>
+        <v>0.620241</v>
       </c>
       <c r="C114" t="n">
-        <v>0.538378</v>
+        <v>0.541512</v>
       </c>
       <c r="D114" t="n">
-        <v>0.653852</v>
+        <v>0.644787</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.62268</v>
+        <v>0.620509</v>
       </c>
       <c r="C115" t="n">
-        <v>0.539606</v>
+        <v>0.542207</v>
       </c>
       <c r="D115" t="n">
-        <v>0.654232</v>
+        <v>0.6461170000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.622828</v>
+        <v>0.62388</v>
       </c>
       <c r="C116" t="n">
-        <v>0.540566</v>
+        <v>0.54052</v>
       </c>
       <c r="D116" t="n">
-        <v>0.656914</v>
+        <v>0.650374</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6284149999999999</v>
+        <v>0.625824</v>
       </c>
       <c r="C117" t="n">
-        <v>0.54216</v>
+        <v>0.5430700000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.659206</v>
+        <v>0.659249</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.629084</v>
+        <v>0.627573</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540027</v>
+        <v>0.542903</v>
       </c>
       <c r="D118" t="n">
-        <v>0.659765</v>
+        <v>0.648844</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.631403</v>
+        <v>0.630966</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5492</v>
+        <v>0.545749</v>
       </c>
       <c r="D119" t="n">
-        <v>0.662419</v>
+        <v>0.664564</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6395459999999999</v>
+        <v>0.638665</v>
       </c>
       <c r="C120" t="n">
-        <v>0.553222</v>
+        <v>0.552219</v>
       </c>
       <c r="D120" t="n">
-        <v>0.662291</v>
+        <v>0.667486</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.644694</v>
+        <v>0.64291</v>
       </c>
       <c r="C121" t="n">
-        <v>0.553038</v>
+        <v>0.554712</v>
       </c>
       <c r="D121" t="n">
-        <v>0.658849</v>
+        <v>0.670401</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.651394</v>
+        <v>0.654185</v>
       </c>
       <c r="C122" t="n">
-        <v>0.562883</v>
+        <v>0.566798</v>
       </c>
       <c r="D122" t="n">
-        <v>0.664492</v>
+        <v>0.678159</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.66755</v>
+        <v>0.66671</v>
       </c>
       <c r="C123" t="n">
-        <v>0.700572</v>
+        <v>0.703045</v>
       </c>
       <c r="D123" t="n">
-        <v>0.805711</v>
+        <v>0.805076</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.758693</v>
+        <v>0.761923</v>
       </c>
       <c r="C124" t="n">
-        <v>0.700857</v>
+        <v>0.704415</v>
       </c>
       <c r="D124" t="n">
-        <v>0.807647</v>
+        <v>0.808424</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.761956</v>
+        <v>0.763029</v>
       </c>
       <c r="C125" t="n">
-        <v>0.704573</v>
+        <v>0.703743</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8047299999999999</v>
+        <v>0.807102</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.765166</v>
+        <v>0.763957</v>
       </c>
       <c r="C126" t="n">
-        <v>0.707185</v>
+        <v>0.707654</v>
       </c>
       <c r="D126" t="n">
-        <v>0.809176</v>
+        <v>0.811161</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.764626</v>
+        <v>0.7620440000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.705097</v>
+        <v>0.704453</v>
       </c>
       <c r="D127" t="n">
-        <v>0.808465</v>
+        <v>0.809548</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.762541</v>
+        <v>0.766095</v>
       </c>
       <c r="C128" t="n">
-        <v>0.706887</v>
+        <v>0.710027</v>
       </c>
       <c r="D128" t="n">
-        <v>0.805055</v>
+        <v>0.805129</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765332</v>
+        <v>0.765975</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708831</v>
+        <v>0.7062619999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.807991</v>
+        <v>0.81047</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.766524</v>
+        <v>0.766882</v>
       </c>
       <c r="C130" t="n">
-        <v>0.705101</v>
+        <v>0.712201</v>
       </c>
       <c r="D130" t="n">
-        <v>0.811935</v>
+        <v>0.813729</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.769512</v>
+        <v>0.771878</v>
       </c>
       <c r="C131" t="n">
-        <v>0.711687</v>
+        <v>0.712493</v>
       </c>
       <c r="D131" t="n">
-        <v>0.813242</v>
+        <v>0.815084</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.772286</v>
+        <v>0.776394</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7138370000000001</v>
+        <v>0.7176439999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.814928</v>
+        <v>0.81889</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.777455</v>
+        <v>0.779102</v>
       </c>
       <c r="C133" t="n">
-        <v>0.72007</v>
+        <v>0.719998</v>
       </c>
       <c r="D133" t="n">
-        <v>0.820469</v>
+        <v>0.821264</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.780304</v>
+        <v>0.781784</v>
       </c>
       <c r="C134" t="n">
-        <v>0.718487</v>
+        <v>0.7186709999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.81864</v>
+        <v>0.823844</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.786196</v>
+        <v>0.7887110000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.724406</v>
+        <v>0.7264429999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.829972</v>
+        <v>0.825174</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.795617</v>
+        <v>0.799607</v>
       </c>
       <c r="C136" t="n">
-        <v>0.733731</v>
+        <v>0.733308</v>
       </c>
       <c r="D136" t="n">
-        <v>0.837192</v>
+        <v>0.841329</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.808044</v>
+        <v>0.808283</v>
       </c>
       <c r="C137" t="n">
-        <v>0.837121</v>
+        <v>0.842435</v>
       </c>
       <c r="D137" t="n">
-        <v>0.901558</v>
+        <v>0.909578</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8842449999999999</v>
+        <v>0.889427</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837126</v>
+        <v>0.837951</v>
       </c>
       <c r="D138" t="n">
-        <v>0.909267</v>
+        <v>0.907413</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.889779</v>
+        <v>0.888991</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8396400000000001</v>
+        <v>0.838403</v>
       </c>
       <c r="D139" t="n">
-        <v>0.908102</v>
+        <v>0.908091</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.88398</v>
+        <v>0.88974</v>
       </c>
       <c r="C140" t="n">
-        <v>0.837693</v>
+        <v>0.840145</v>
       </c>
       <c r="D140" t="n">
-        <v>0.909764</v>
+        <v>0.90849</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8907620000000001</v>
+        <v>0.889572</v>
       </c>
       <c r="C141" t="n">
-        <v>0.839926</v>
+        <v>0.838256</v>
       </c>
       <c r="D141" t="n">
-        <v>0.911489</v>
+        <v>0.909447</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.892263</v>
+        <v>0.891828</v>
       </c>
       <c r="C142" t="n">
-        <v>0.840272</v>
+        <v>0.839695</v>
       </c>
       <c r="D142" t="n">
-        <v>0.906408</v>
+        <v>0.909003</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.89486</v>
+        <v>0.893241</v>
       </c>
       <c r="C143" t="n">
-        <v>0.841135</v>
+        <v>0.836717</v>
       </c>
       <c r="D143" t="n">
-        <v>0.913156</v>
+        <v>0.911765</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116831</v>
+        <v>0.129183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09907440000000001</v>
+        <v>0.110471</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119534</v>
+        <v>0.130919</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117746</v>
+        <v>0.125115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0999569</v>
+        <v>0.104297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.120052</v>
+        <v>0.125682</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123304</v>
+        <v>0.124428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.102403</v>
+        <v>0.105189</v>
       </c>
       <c r="D4" t="n">
-        <v>0.119672</v>
+        <v>0.12673</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118132</v>
+        <v>0.125692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0989506</v>
+        <v>0.106747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.120358</v>
+        <v>0.128642</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.120362</v>
+        <v>0.127855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09941850000000001</v>
+        <v>0.108205</v>
       </c>
       <c r="D6" t="n">
-        <v>0.121068</v>
+        <v>0.129271</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124551</v>
+        <v>0.131445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.100394</v>
+        <v>0.10668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122076</v>
+        <v>0.12905</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.130054</v>
+        <v>0.13553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101832</v>
+        <v>0.107416</v>
       </c>
       <c r="D8" t="n">
-        <v>0.124137</v>
+        <v>0.130453</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139929</v>
+        <v>0.146455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119918</v>
+        <v>0.106623</v>
       </c>
       <c r="D9" t="n">
-        <v>0.128119</v>
+        <v>0.132672</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.130585</v>
+        <v>0.13275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110371</v>
+        <v>0.112618</v>
       </c>
       <c r="D10" t="n">
-        <v>0.130605</v>
+        <v>0.130647</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134353</v>
+        <v>0.127304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110699</v>
+        <v>0.11087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.129718</v>
+        <v>0.132743</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125642</v>
+        <v>0.128807</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112402</v>
+        <v>0.10982</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131138</v>
+        <v>0.131671</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127702</v>
+        <v>0.129188</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113016</v>
+        <v>0.109397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131867</v>
+        <v>0.131207</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129371</v>
+        <v>0.128244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.114588</v>
+        <v>0.108869</v>
       </c>
       <c r="D14" t="n">
-        <v>0.131754</v>
+        <v>0.132026</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.127753</v>
+        <v>0.129031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.113081</v>
+        <v>0.109487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.13316</v>
+        <v>0.131749</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.135175</v>
+        <v>0.135334</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114188</v>
+        <v>0.108584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131615</v>
+        <v>0.131802</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129299</v>
+        <v>0.130755</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113876</v>
+        <v>0.109429</v>
       </c>
       <c r="D17" t="n">
-        <v>0.133193</v>
+        <v>0.132103</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130469</v>
+        <v>0.13102</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114271</v>
+        <v>0.113616</v>
       </c>
       <c r="D18" t="n">
-        <v>0.133188</v>
+        <v>0.132179</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134101</v>
+        <v>0.132846</v>
       </c>
       <c r="C19" t="n">
-        <v>0.115794</v>
+        <v>0.109997</v>
       </c>
       <c r="D19" t="n">
-        <v>0.132669</v>
+        <v>0.132341</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.144332</v>
+        <v>0.136883</v>
       </c>
       <c r="C20" t="n">
-        <v>0.117053</v>
+        <v>0.110995</v>
       </c>
       <c r="D20" t="n">
-        <v>0.13471</v>
+        <v>0.133066</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.145869</v>
+        <v>0.142672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.115774</v>
+        <v>0.111944</v>
       </c>
       <c r="D21" t="n">
-        <v>0.139801</v>
+        <v>0.135227</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.152169</v>
+        <v>0.149395</v>
       </c>
       <c r="C22" t="n">
-        <v>0.120211</v>
+        <v>0.116726</v>
       </c>
       <c r="D22" t="n">
-        <v>0.144159</v>
+        <v>0.138757</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161255</v>
+        <v>0.160083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120582</v>
+        <v>0.121395</v>
       </c>
       <c r="D23" t="n">
-        <v>0.141114</v>
+        <v>0.142537</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135361</v>
+        <v>0.143618</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121399</v>
+        <v>0.123662</v>
       </c>
       <c r="D24" t="n">
-        <v>0.141364</v>
+        <v>0.143177</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135114</v>
+        <v>0.137322</v>
       </c>
       <c r="C25" t="n">
-        <v>0.117648</v>
+        <v>0.122608</v>
       </c>
       <c r="D25" t="n">
-        <v>0.140461</v>
+        <v>0.141604</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134658</v>
+        <v>0.134961</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121888</v>
+        <v>0.122681</v>
       </c>
       <c r="D26" t="n">
-        <v>0.140094</v>
+        <v>0.141778</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134207</v>
+        <v>0.136141</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12197</v>
+        <v>0.122512</v>
       </c>
       <c r="D27" t="n">
-        <v>0.14115</v>
+        <v>0.140725</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138806</v>
+        <v>0.135354</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12346</v>
+        <v>0.120253</v>
       </c>
       <c r="D28" t="n">
-        <v>0.141762</v>
+        <v>0.140986</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138208</v>
+        <v>0.136241</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123113</v>
+        <v>0.119852</v>
       </c>
       <c r="D29" t="n">
-        <v>0.140884</v>
+        <v>0.140943</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13807</v>
+        <v>0.136974</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123734</v>
+        <v>0.122572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141718</v>
+        <v>0.141691</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13887</v>
+        <v>0.145651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123721</v>
+        <v>0.122324</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142419</v>
+        <v>0.142117</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139854</v>
+        <v>0.142181</v>
       </c>
       <c r="C32" t="n">
-        <v>0.121419</v>
+        <v>0.120026</v>
       </c>
       <c r="D32" t="n">
-        <v>0.141167</v>
+        <v>0.14217</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.149409</v>
+        <v>0.1432</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124046</v>
+        <v>0.12432</v>
       </c>
       <c r="D33" t="n">
-        <v>0.141771</v>
+        <v>0.14276</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.146486</v>
+        <v>0.146782</v>
       </c>
       <c r="C34" t="n">
-        <v>0.123042</v>
+        <v>0.124881</v>
       </c>
       <c r="D34" t="n">
-        <v>0.143747</v>
+        <v>0.143957</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151627</v>
+        <v>0.152782</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127062</v>
+        <v>0.126047</v>
       </c>
       <c r="D35" t="n">
-        <v>0.146078</v>
+        <v>0.147153</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.158237</v>
+        <v>0.157656</v>
       </c>
       <c r="C36" t="n">
-        <v>0.132612</v>
+        <v>0.131096</v>
       </c>
       <c r="D36" t="n">
-        <v>0.153174</v>
+        <v>0.154789</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166027</v>
+        <v>0.16624</v>
       </c>
       <c r="C37" t="n">
-        <v>0.131368</v>
+        <v>0.132317</v>
       </c>
       <c r="D37" t="n">
-        <v>0.156607</v>
+        <v>0.156375</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.15384</v>
+        <v>0.154287</v>
       </c>
       <c r="C38" t="n">
-        <v>0.132122</v>
+        <v>0.135945</v>
       </c>
       <c r="D38" t="n">
-        <v>0.157481</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148093</v>
+        <v>0.147866</v>
       </c>
       <c r="C39" t="n">
-        <v>0.133402</v>
+        <v>0.132835</v>
       </c>
       <c r="D39" t="n">
-        <v>0.15705</v>
+        <v>0.156511</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.15087</v>
+        <v>0.150315</v>
       </c>
       <c r="C40" t="n">
-        <v>0.13459</v>
+        <v>0.131504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.156356</v>
+        <v>0.156075</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149885</v>
+        <v>0.147929</v>
       </c>
       <c r="C41" t="n">
-        <v>0.136155</v>
+        <v>0.135051</v>
       </c>
       <c r="D41" t="n">
-        <v>0.157536</v>
+        <v>0.155991</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146068</v>
+        <v>0.149689</v>
       </c>
       <c r="C42" t="n">
-        <v>0.134688</v>
+        <v>0.134974</v>
       </c>
       <c r="D42" t="n">
-        <v>0.156547</v>
+        <v>0.155697</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150299</v>
+        <v>0.150212</v>
       </c>
       <c r="C43" t="n">
-        <v>0.131292</v>
+        <v>0.131693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.154898</v>
+        <v>0.156101</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152031</v>
+        <v>0.150803</v>
       </c>
       <c r="C44" t="n">
-        <v>0.130869</v>
+        <v>0.135881</v>
       </c>
       <c r="D44" t="n">
-        <v>0.156822</v>
+        <v>0.15641</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153232</v>
+        <v>0.152047</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131137</v>
+        <v>0.132454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.158154</v>
+        <v>0.158706</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.152533</v>
+        <v>0.154114</v>
       </c>
       <c r="C46" t="n">
-        <v>0.137367</v>
+        <v>0.136528</v>
       </c>
       <c r="D46" t="n">
-        <v>0.160295</v>
+        <v>0.15811</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156498</v>
+        <v>0.156407</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137216</v>
+        <v>0.134598</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157395</v>
+        <v>0.15938</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160719</v>
+        <v>0.160845</v>
       </c>
       <c r="C48" t="n">
-        <v>0.141141</v>
+        <v>0.136853</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16225</v>
+        <v>0.162483</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164151</v>
+        <v>0.16388</v>
       </c>
       <c r="C49" t="n">
-        <v>0.140542</v>
+        <v>0.146008</v>
       </c>
       <c r="D49" t="n">
-        <v>0.166038</v>
+        <v>0.166227</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.168446</v>
+        <v>0.169747</v>
       </c>
       <c r="C50" t="n">
-        <v>0.146363</v>
+        <v>0.14986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170438</v>
+        <v>0.170611</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178665</v>
+        <v>0.179212</v>
       </c>
       <c r="C51" t="n">
-        <v>0.141727</v>
+        <v>0.146897</v>
       </c>
       <c r="D51" t="n">
-        <v>0.17042</v>
+        <v>0.168493</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.185915</v>
+        <v>0.187912</v>
       </c>
       <c r="C52" t="n">
-        <v>0.149369</v>
+        <v>0.148742</v>
       </c>
       <c r="D52" t="n">
-        <v>0.169979</v>
+        <v>0.16952</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.165397</v>
+        <v>0.159514</v>
       </c>
       <c r="C53" t="n">
-        <v>0.144903</v>
+        <v>0.149312</v>
       </c>
       <c r="D53" t="n">
-        <v>0.170561</v>
+        <v>0.169514</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.166959</v>
+        <v>0.160065</v>
       </c>
       <c r="C54" t="n">
-        <v>0.145294</v>
+        <v>0.14455</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169864</v>
+        <v>0.169635</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.164922</v>
+        <v>0.159666</v>
       </c>
       <c r="C55" t="n">
-        <v>0.144641</v>
+        <v>0.144259</v>
       </c>
       <c r="D55" t="n">
-        <v>0.170464</v>
+        <v>0.16941</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.17341</v>
+        <v>0.160854</v>
       </c>
       <c r="C56" t="n">
-        <v>0.149819</v>
+        <v>0.143578</v>
       </c>
       <c r="D56" t="n">
-        <v>0.171668</v>
+        <v>0.169817</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.177033</v>
+        <v>0.166359</v>
       </c>
       <c r="C57" t="n">
-        <v>0.150541</v>
+        <v>0.144758</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17299</v>
+        <v>0.170677</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.170834</v>
+        <v>0.163297</v>
       </c>
       <c r="C58" t="n">
-        <v>0.147068</v>
+        <v>0.145135</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17485</v>
+        <v>0.172497</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.182686</v>
+        <v>0.167415</v>
       </c>
       <c r="C59" t="n">
-        <v>0.153134</v>
+        <v>0.152111</v>
       </c>
       <c r="D59" t="n">
-        <v>0.181725</v>
+        <v>0.171988</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.17943</v>
+        <v>0.170292</v>
       </c>
       <c r="C60" t="n">
-        <v>0.15021</v>
+        <v>0.14928</v>
       </c>
       <c r="D60" t="n">
-        <v>0.177975</v>
+        <v>0.173644</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.172429</v>
+        <v>0.170695</v>
       </c>
       <c r="C61" t="n">
-        <v>0.150296</v>
+        <v>0.154859</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18064</v>
+        <v>0.175022</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.181472</v>
+        <v>0.172893</v>
       </c>
       <c r="C62" t="n">
-        <v>0.160836</v>
+        <v>0.151035</v>
       </c>
       <c r="D62" t="n">
-        <v>0.18097</v>
+        <v>0.1768</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189675</v>
+        <v>0.177491</v>
       </c>
       <c r="C63" t="n">
-        <v>0.163448</v>
+        <v>0.160137</v>
       </c>
       <c r="D63" t="n">
-        <v>0.18354</v>
+        <v>0.179442</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.195401</v>
+        <v>0.182002</v>
       </c>
       <c r="C64" t="n">
-        <v>0.162902</v>
+        <v>0.158336</v>
       </c>
       <c r="D64" t="n">
-        <v>0.188476</v>
+        <v>0.184754</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.203282</v>
+        <v>0.189446</v>
       </c>
       <c r="C65" t="n">
-        <v>0.175757</v>
+        <v>0.170984</v>
       </c>
       <c r="D65" t="n">
-        <v>0.199385</v>
+        <v>0.191646</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.201553</v>
+        <v>0.198312</v>
       </c>
       <c r="C66" t="n">
-        <v>0.159828</v>
+        <v>0.163249</v>
       </c>
       <c r="D66" t="n">
-        <v>0.192713</v>
+        <v>0.187467</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.20953</v>
+        <v>0.204373</v>
       </c>
       <c r="C67" t="n">
-        <v>0.157825</v>
+        <v>0.15934</v>
       </c>
       <c r="D67" t="n">
-        <v>0.189257</v>
+        <v>0.188145</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.204766</v>
+        <v>0.207684</v>
       </c>
       <c r="C68" t="n">
-        <v>0.155585</v>
+        <v>0.166167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.187913</v>
+        <v>0.192668</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.203959</v>
+        <v>0.208605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.164901</v>
+        <v>0.159343</v>
       </c>
       <c r="D69" t="n">
-        <v>0.191522</v>
+        <v>0.187855</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.211776</v>
+        <v>0.198163</v>
       </c>
       <c r="C70" t="n">
-        <v>0.15967</v>
+        <v>0.168385</v>
       </c>
       <c r="D70" t="n">
-        <v>0.190631</v>
+        <v>0.18961</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.21142</v>
+        <v>0.20599</v>
       </c>
       <c r="C71" t="n">
-        <v>0.165653</v>
+        <v>0.162074</v>
       </c>
       <c r="D71" t="n">
-        <v>0.195296</v>
+        <v>0.193278</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.235211</v>
+        <v>0.202164</v>
       </c>
       <c r="C72" t="n">
-        <v>0.16358</v>
+        <v>0.163514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.198257</v>
+        <v>0.189211</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.227998</v>
+        <v>0.203504</v>
       </c>
       <c r="C73" t="n">
-        <v>0.164418</v>
+        <v>0.160886</v>
       </c>
       <c r="D73" t="n">
-        <v>0.197014</v>
+        <v>0.191087</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.228206</v>
+        <v>0.210014</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162821</v>
+        <v>0.166285</v>
       </c>
       <c r="D74" t="n">
-        <v>0.198227</v>
+        <v>0.193096</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.230803</v>
+        <v>0.223274</v>
       </c>
       <c r="C75" t="n">
-        <v>0.163366</v>
+        <v>0.170985</v>
       </c>
       <c r="D75" t="n">
-        <v>0.200039</v>
+        <v>0.19582</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.246055</v>
+        <v>0.211287</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173968</v>
+        <v>0.171051</v>
       </c>
       <c r="D76" t="n">
-        <v>0.201831</v>
+        <v>0.193709</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.211928</v>
+        <v>0.22213</v>
       </c>
       <c r="C77" t="n">
-        <v>0.170537</v>
+        <v>0.164984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.190404</v>
+        <v>0.19781</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.208968</v>
+        <v>0.229099</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17461</v>
+        <v>0.177646</v>
       </c>
       <c r="D78" t="n">
-        <v>0.192976</v>
+        <v>0.199131</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.213909</v>
+        <v>0.228381</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174269</v>
+        <v>0.184343</v>
       </c>
       <c r="D79" t="n">
-        <v>0.199502</v>
+        <v>0.205281</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.225596</v>
+        <v>0.241841</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24703</v>
+        <v>0.249488</v>
       </c>
       <c r="D80" t="n">
-        <v>0.273713</v>
+        <v>0.278023</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.36905</v>
+        <v>0.376913</v>
       </c>
       <c r="C81" t="n">
-        <v>0.244391</v>
+        <v>0.253734</v>
       </c>
       <c r="D81" t="n">
-        <v>0.252055</v>
+        <v>0.282467</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.369522</v>
+        <v>0.372302</v>
       </c>
       <c r="C82" t="n">
-        <v>0.248838</v>
+        <v>0.254893</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271312</v>
+        <v>0.275433</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364259</v>
+        <v>0.372955</v>
       </c>
       <c r="C83" t="n">
-        <v>0.228544</v>
+        <v>0.254982</v>
       </c>
       <c r="D83" t="n">
-        <v>0.27596</v>
+        <v>0.276702</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.367215</v>
+        <v>0.378826</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24075</v>
+        <v>0.24791</v>
       </c>
       <c r="D84" t="n">
-        <v>0.259747</v>
+        <v>0.27929</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.367241</v>
+        <v>0.37455</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246983</v>
+        <v>0.250051</v>
       </c>
       <c r="D85" t="n">
-        <v>0.274038</v>
+        <v>0.282242</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.36805</v>
+        <v>0.381496</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242258</v>
+        <v>0.249406</v>
       </c>
       <c r="D86" t="n">
-        <v>0.254764</v>
+        <v>0.275816</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368491</v>
+        <v>0.384176</v>
       </c>
       <c r="C87" t="n">
-        <v>0.246059</v>
+        <v>0.248667</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265722</v>
+        <v>0.275697</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.373927</v>
+        <v>0.378459</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244574</v>
+        <v>0.244744</v>
       </c>
       <c r="D88" t="n">
-        <v>0.244286</v>
+        <v>0.273978</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.37133</v>
+        <v>0.383499</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24204</v>
+        <v>0.234372</v>
       </c>
       <c r="D89" t="n">
-        <v>0.266165</v>
+        <v>0.270552</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375239</v>
+        <v>0.386128</v>
       </c>
       <c r="C90" t="n">
-        <v>0.242763</v>
+        <v>0.248528</v>
       </c>
       <c r="D90" t="n">
-        <v>0.267874</v>
+        <v>0.260511</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375605</v>
+        <v>0.388478</v>
       </c>
       <c r="C91" t="n">
-        <v>0.242498</v>
+        <v>0.254416</v>
       </c>
       <c r="D91" t="n">
-        <v>0.262831</v>
+        <v>0.273892</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.380861</v>
+        <v>0.392362</v>
       </c>
       <c r="C92" t="n">
-        <v>0.235393</v>
+        <v>0.24832</v>
       </c>
       <c r="D92" t="n">
-        <v>0.266521</v>
+        <v>0.273675</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.385407</v>
+        <v>0.395081</v>
       </c>
       <c r="C93" t="n">
-        <v>0.252031</v>
+        <v>0.25564</v>
       </c>
       <c r="D93" t="n">
-        <v>0.272107</v>
+        <v>0.278652</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.397274</v>
+        <v>0.406175</v>
       </c>
       <c r="C94" t="n">
-        <v>0.401269</v>
+        <v>0.403948</v>
       </c>
       <c r="D94" t="n">
-        <v>0.469964</v>
+        <v>0.473865</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535385</v>
+        <v>0.538451</v>
       </c>
       <c r="C95" t="n">
-        <v>0.403566</v>
+        <v>0.397747</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469116</v>
+        <v>0.472276</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535421</v>
+        <v>0.536767</v>
       </c>
       <c r="C96" t="n">
-        <v>0.405936</v>
+        <v>0.396313</v>
       </c>
       <c r="D96" t="n">
-        <v>0.472871</v>
+        <v>0.470415</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.536506</v>
+        <v>0.536771</v>
       </c>
       <c r="C97" t="n">
-        <v>0.403427</v>
+        <v>0.400091</v>
       </c>
       <c r="D97" t="n">
-        <v>0.469041</v>
+        <v>0.473035</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.537285</v>
+        <v>0.536321</v>
       </c>
       <c r="C98" t="n">
-        <v>0.396376</v>
+        <v>0.392197</v>
       </c>
       <c r="D98" t="n">
-        <v>0.470854</v>
+        <v>0.47105</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.539969</v>
+        <v>0.539507</v>
       </c>
       <c r="C99" t="n">
-        <v>0.397606</v>
+        <v>0.391438</v>
       </c>
       <c r="D99" t="n">
-        <v>0.467534</v>
+        <v>0.469952</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.539062</v>
+        <v>0.538946</v>
       </c>
       <c r="C100" t="n">
-        <v>0.400027</v>
+        <v>0.395044</v>
       </c>
       <c r="D100" t="n">
-        <v>0.47142</v>
+        <v>0.466169</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.540788</v>
+        <v>0.538042</v>
       </c>
       <c r="C101" t="n">
-        <v>0.397613</v>
+        <v>0.398827</v>
       </c>
       <c r="D101" t="n">
-        <v>0.471096</v>
+        <v>0.470145</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.541306</v>
+        <v>0.540565</v>
       </c>
       <c r="C102" t="n">
-        <v>0.388595</v>
+        <v>0.396595</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452802</v>
+        <v>0.451748</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.544127</v>
+        <v>0.543153</v>
       </c>
       <c r="C103" t="n">
-        <v>0.402709</v>
+        <v>0.397335</v>
       </c>
       <c r="D103" t="n">
-        <v>0.456214</v>
+        <v>0.468068</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.544668</v>
+        <v>0.545516</v>
       </c>
       <c r="C104" t="n">
-        <v>0.390403</v>
+        <v>0.400696</v>
       </c>
       <c r="D104" t="n">
-        <v>0.468361</v>
+        <v>0.469616</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.548762</v>
+        <v>0.546165</v>
       </c>
       <c r="C105" t="n">
-        <v>0.401879</v>
+        <v>0.400272</v>
       </c>
       <c r="D105" t="n">
-        <v>0.47102</v>
+        <v>0.473155</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5525640000000001</v>
+        <v>0.551806</v>
       </c>
       <c r="C106" t="n">
-        <v>0.404875</v>
+        <v>0.409062</v>
       </c>
       <c r="D106" t="n">
-        <v>0.475693</v>
+        <v>0.474051</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.558364</v>
+        <v>0.555675</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403954</v>
+        <v>0.409943</v>
       </c>
       <c r="D107" t="n">
-        <v>0.479163</v>
+        <v>0.478306</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5653</v>
+        <v>0.565133</v>
       </c>
       <c r="C108" t="n">
-        <v>0.537914</v>
+        <v>0.536162</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6471519999999999</v>
+        <v>0.6508119999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.577468</v>
+        <v>0.574609</v>
       </c>
       <c r="C109" t="n">
-        <v>0.537338</v>
+        <v>0.539003</v>
       </c>
       <c r="D109" t="n">
-        <v>0.64236</v>
+        <v>0.652174</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.618491</v>
+        <v>0.615134</v>
       </c>
       <c r="C110" t="n">
-        <v>0.53805</v>
+        <v>0.535962</v>
       </c>
       <c r="D110" t="n">
-        <v>0.654294</v>
+        <v>0.650543</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.615847</v>
+        <v>0.618067</v>
       </c>
       <c r="C111" t="n">
-        <v>0.530909</v>
+        <v>0.536547</v>
       </c>
       <c r="D111" t="n">
-        <v>0.642481</v>
+        <v>0.6516960000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.619727</v>
+        <v>0.616642</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5366379999999999</v>
+        <v>0.534594</v>
       </c>
       <c r="D112" t="n">
-        <v>0.656687</v>
+        <v>0.64406</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.617463</v>
+        <v>0.619601</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5394640000000001</v>
+        <v>0.538581</v>
       </c>
       <c r="D113" t="n">
-        <v>0.659287</v>
+        <v>0.654643</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.620241</v>
+        <v>0.621294</v>
       </c>
       <c r="C114" t="n">
-        <v>0.541512</v>
+        <v>0.539082</v>
       </c>
       <c r="D114" t="n">
-        <v>0.644787</v>
+        <v>0.6534</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.620509</v>
+        <v>0.622429</v>
       </c>
       <c r="C115" t="n">
-        <v>0.542207</v>
+        <v>0.5397690000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6461170000000001</v>
+        <v>0.654511</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.62388</v>
+        <v>0.622875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.54052</v>
+        <v>0.539754</v>
       </c>
       <c r="D116" t="n">
-        <v>0.650374</v>
+        <v>0.655398</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.625824</v>
+        <v>0.622679</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5430700000000001</v>
+        <v>0.5419620000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.659249</v>
+        <v>0.657332</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.627573</v>
+        <v>0.626997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.542903</v>
+        <v>0.541829</v>
       </c>
       <c r="D118" t="n">
-        <v>0.648844</v>
+        <v>0.661305</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.630966</v>
+        <v>0.6315809999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.545749</v>
+        <v>0.546173</v>
       </c>
       <c r="D119" t="n">
-        <v>0.664564</v>
+        <v>0.652203</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.638665</v>
+        <v>0.636895</v>
       </c>
       <c r="C120" t="n">
-        <v>0.552219</v>
+        <v>0.555359</v>
       </c>
       <c r="D120" t="n">
-        <v>0.667486</v>
+        <v>0.665253</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.64291</v>
+        <v>0.642133</v>
       </c>
       <c r="C121" t="n">
-        <v>0.554712</v>
+        <v>0.5560389999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.670401</v>
+        <v>0.670813</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.654185</v>
+        <v>0.650998</v>
       </c>
       <c r="C122" t="n">
-        <v>0.566798</v>
+        <v>0.567657</v>
       </c>
       <c r="D122" t="n">
-        <v>0.678159</v>
+        <v>0.666564</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.66671</v>
+        <v>0.662562</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703045</v>
+        <v>0.704568</v>
       </c>
       <c r="D123" t="n">
-        <v>0.805076</v>
+        <v>0.802136</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.761923</v>
+        <v>0.760881</v>
       </c>
       <c r="C124" t="n">
-        <v>0.704415</v>
+        <v>0.703304</v>
       </c>
       <c r="D124" t="n">
-        <v>0.808424</v>
+        <v>0.806007</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.763029</v>
+        <v>0.761881</v>
       </c>
       <c r="C125" t="n">
-        <v>0.703743</v>
+        <v>0.70405</v>
       </c>
       <c r="D125" t="n">
-        <v>0.807102</v>
+        <v>0.80525</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.763957</v>
+        <v>0.761113</v>
       </c>
       <c r="C126" t="n">
-        <v>0.707654</v>
+        <v>0.705704</v>
       </c>
       <c r="D126" t="n">
-        <v>0.811161</v>
+        <v>0.804288</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7620440000000001</v>
+        <v>0.761875</v>
       </c>
       <c r="C127" t="n">
-        <v>0.704453</v>
+        <v>0.70546</v>
       </c>
       <c r="D127" t="n">
-        <v>0.809548</v>
+        <v>0.805569</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.766095</v>
+        <v>0.762493</v>
       </c>
       <c r="C128" t="n">
-        <v>0.710027</v>
+        <v>0.7086209999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.805129</v>
+        <v>0.8060850000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765975</v>
+        <v>0.765514</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7062619999999999</v>
+        <v>0.708433</v>
       </c>
       <c r="D129" t="n">
-        <v>0.81047</v>
+        <v>0.811001</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.766882</v>
+        <v>0.7663990000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.712201</v>
+        <v>0.709915</v>
       </c>
       <c r="D130" t="n">
-        <v>0.813729</v>
+        <v>0.812591</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.771878</v>
+        <v>0.767002</v>
       </c>
       <c r="C131" t="n">
-        <v>0.712493</v>
+        <v>0.709103</v>
       </c>
       <c r="D131" t="n">
-        <v>0.815084</v>
+        <v>0.813685</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.776394</v>
+        <v>0.771898</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7176439999999999</v>
+        <v>0.718155</v>
       </c>
       <c r="D132" t="n">
-        <v>0.81889</v>
+        <v>0.8177</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.779102</v>
+        <v>0.777003</v>
       </c>
       <c r="C133" t="n">
-        <v>0.719998</v>
+        <v>0.7189720000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.821264</v>
+        <v>0.820063</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.781784</v>
+        <v>0.780361</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7186709999999999</v>
+        <v>0.719156</v>
       </c>
       <c r="D134" t="n">
-        <v>0.823844</v>
+        <v>0.823597</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7887110000000001</v>
+        <v>0.7875490000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7264429999999999</v>
+        <v>0.726834</v>
       </c>
       <c r="D135" t="n">
-        <v>0.825174</v>
+        <v>0.828224</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.799607</v>
+        <v>0.8075870000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.733308</v>
+        <v>0.73443</v>
       </c>
       <c r="D136" t="n">
-        <v>0.841329</v>
+        <v>0.835103</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.808283</v>
+        <v>0.809153</v>
       </c>
       <c r="C137" t="n">
-        <v>0.842435</v>
+        <v>0.835457</v>
       </c>
       <c r="D137" t="n">
-        <v>0.909578</v>
+        <v>0.908712</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.889427</v>
+        <v>0.887872</v>
       </c>
       <c r="C138" t="n">
-        <v>0.837951</v>
+        <v>0.839713</v>
       </c>
       <c r="D138" t="n">
-        <v>0.907413</v>
+        <v>0.90866</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.888991</v>
+        <v>0.889507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.838403</v>
+        <v>0.838128</v>
       </c>
       <c r="D139" t="n">
-        <v>0.908091</v>
+        <v>0.909836</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.88974</v>
+        <v>0.8905</v>
       </c>
       <c r="C140" t="n">
-        <v>0.840145</v>
+        <v>0.839979</v>
       </c>
       <c r="D140" t="n">
-        <v>0.90849</v>
+        <v>0.908579</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.889572</v>
+        <v>0.891127</v>
       </c>
       <c r="C141" t="n">
-        <v>0.838256</v>
+        <v>0.839937</v>
       </c>
       <c r="D141" t="n">
-        <v>0.909447</v>
+        <v>0.909451</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.891828</v>
+        <v>0.8913</v>
       </c>
       <c r="C142" t="n">
-        <v>0.839695</v>
+        <v>0.840384</v>
       </c>
       <c r="D142" t="n">
-        <v>0.909003</v>
+        <v>0.910155</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.893241</v>
+        <v>0.893285</v>
       </c>
       <c r="C143" t="n">
-        <v>0.836717</v>
+        <v>0.84099</v>
       </c>
       <c r="D143" t="n">
-        <v>0.911765</v>
+        <v>0.912781</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.129183</v>
+        <v>0.120669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110471</v>
+        <v>0.101781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130919</v>
+        <v>0.123772</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125115</v>
+        <v>0.120646</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104297</v>
+        <v>0.100771</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125682</v>
+        <v>0.132197</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124428</v>
+        <v>0.124487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.105189</v>
+        <v>0.103106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12673</v>
+        <v>0.136921</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.125692</v>
+        <v>0.12228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.106747</v>
+        <v>0.10125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.128642</v>
+        <v>0.146553</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.127855</v>
+        <v>0.126621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108205</v>
+        <v>0.103306</v>
       </c>
       <c r="D6" t="n">
-        <v>0.129271</v>
+        <v>0.153848</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.131445</v>
+        <v>0.132211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10668</v>
+        <v>0.102459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12905</v>
+        <v>0.122464</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13553</v>
+        <v>0.136158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107416</v>
+        <v>0.105885</v>
       </c>
       <c r="D8" t="n">
-        <v>0.130453</v>
+        <v>0.126873</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146455</v>
+        <v>0.145502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106623</v>
+        <v>0.108064</v>
       </c>
       <c r="D9" t="n">
-        <v>0.132672</v>
+        <v>0.133229</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13275</v>
+        <v>0.126904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.112618</v>
+        <v>0.110702</v>
       </c>
       <c r="D10" t="n">
-        <v>0.130647</v>
+        <v>0.136884</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127304</v>
+        <v>0.13299</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11087</v>
+        <v>0.111318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.132743</v>
+        <v>0.139861</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128807</v>
+        <v>0.126616</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10982</v>
+        <v>0.112908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131671</v>
+        <v>0.144186</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129188</v>
+        <v>0.129246</v>
       </c>
       <c r="C13" t="n">
-        <v>0.109397</v>
+        <v>0.110299</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131207</v>
+        <v>0.150874</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128244</v>
+        <v>0.128224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.108869</v>
+        <v>0.110744</v>
       </c>
       <c r="D14" t="n">
-        <v>0.132026</v>
+        <v>0.156404</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129031</v>
+        <v>0.129038</v>
       </c>
       <c r="C15" t="n">
-        <v>0.109487</v>
+        <v>0.111987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.131749</v>
+        <v>0.161557</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.135334</v>
+        <v>0.128876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.108584</v>
+        <v>0.112359</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131802</v>
+        <v>0.167465</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130755</v>
+        <v>0.129213</v>
       </c>
       <c r="C17" t="n">
-        <v>0.109429</v>
+        <v>0.110133</v>
       </c>
       <c r="D17" t="n">
-        <v>0.132103</v>
+        <v>0.172812</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13102</v>
+        <v>0.130931</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113616</v>
+        <v>0.113563</v>
       </c>
       <c r="D18" t="n">
-        <v>0.132179</v>
+        <v>0.180928</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132846</v>
+        <v>0.140093</v>
       </c>
       <c r="C19" t="n">
-        <v>0.109997</v>
+        <v>0.114326</v>
       </c>
       <c r="D19" t="n">
-        <v>0.132341</v>
+        <v>0.18447</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136883</v>
+        <v>0.145171</v>
       </c>
       <c r="C20" t="n">
-        <v>0.110995</v>
+        <v>0.11297</v>
       </c>
       <c r="D20" t="n">
-        <v>0.133066</v>
+        <v>0.191197</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.142672</v>
+        <v>0.14834</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111944</v>
+        <v>0.116585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.135227</v>
+        <v>0.141886</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149395</v>
+        <v>0.155653</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116726</v>
+        <v>0.120069</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138757</v>
+        <v>0.147246</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160083</v>
+        <v>0.168034</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121395</v>
+        <v>0.117114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.142537</v>
+        <v>0.150543</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.143618</v>
+        <v>0.139398</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123662</v>
+        <v>0.121769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.143177</v>
+        <v>0.155367</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137322</v>
+        <v>0.140031</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122608</v>
+        <v>0.120189</v>
       </c>
       <c r="D25" t="n">
-        <v>0.141604</v>
+        <v>0.158734</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134961</v>
+        <v>0.143402</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122681</v>
+        <v>0.121227</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141778</v>
+        <v>0.163276</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136141</v>
+        <v>0.135971</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122512</v>
+        <v>0.118377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140725</v>
+        <v>0.165571</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135354</v>
+        <v>0.135648</v>
       </c>
       <c r="C28" t="n">
-        <v>0.120253</v>
+        <v>0.117624</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140986</v>
+        <v>0.170802</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136241</v>
+        <v>0.140579</v>
       </c>
       <c r="C29" t="n">
-        <v>0.119852</v>
+        <v>0.121803</v>
       </c>
       <c r="D29" t="n">
-        <v>0.140943</v>
+        <v>0.176445</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136974</v>
+        <v>0.137054</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122572</v>
+        <v>0.122394</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141691</v>
+        <v>0.181703</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.145651</v>
+        <v>0.139455</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122324</v>
+        <v>0.12257</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142117</v>
+        <v>0.185907</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142181</v>
+        <v>0.149593</v>
       </c>
       <c r="C32" t="n">
-        <v>0.120026</v>
+        <v>0.122784</v>
       </c>
       <c r="D32" t="n">
-        <v>0.14217</v>
+        <v>0.191453</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1432</v>
+        <v>0.144987</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12432</v>
+        <v>0.123936</v>
       </c>
       <c r="D33" t="n">
-        <v>0.14276</v>
+        <v>0.195185</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.146782</v>
+        <v>0.148029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.124881</v>
+        <v>0.122115</v>
       </c>
       <c r="D34" t="n">
-        <v>0.143957</v>
+        <v>0.200005</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152782</v>
+        <v>0.153451</v>
       </c>
       <c r="C35" t="n">
-        <v>0.126047</v>
+        <v>0.132403</v>
       </c>
       <c r="D35" t="n">
-        <v>0.147153</v>
+        <v>0.155523</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.157656</v>
+        <v>0.158451</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131096</v>
+        <v>0.137496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154789</v>
+        <v>0.158433</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16624</v>
+        <v>0.166078</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132317</v>
+        <v>0.12843</v>
       </c>
       <c r="D37" t="n">
-        <v>0.156375</v>
+        <v>0.163347</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154287</v>
+        <v>0.145988</v>
       </c>
       <c r="C38" t="n">
-        <v>0.135945</v>
+        <v>0.130749</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1554</v>
+        <v>0.166759</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147866</v>
+        <v>0.150729</v>
       </c>
       <c r="C39" t="n">
-        <v>0.132835</v>
+        <v>0.131615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156511</v>
+        <v>0.170604</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150315</v>
+        <v>0.148918</v>
       </c>
       <c r="C40" t="n">
-        <v>0.131504</v>
+        <v>0.135452</v>
       </c>
       <c r="D40" t="n">
-        <v>0.156075</v>
+        <v>0.173746</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147929</v>
+        <v>0.149029</v>
       </c>
       <c r="C41" t="n">
-        <v>0.135051</v>
+        <v>0.133578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155991</v>
+        <v>0.177991</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149689</v>
+        <v>0.148303</v>
       </c>
       <c r="C42" t="n">
-        <v>0.134974</v>
+        <v>0.136378</v>
       </c>
       <c r="D42" t="n">
-        <v>0.155697</v>
+        <v>0.18263</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150212</v>
+        <v>0.149885</v>
       </c>
       <c r="C43" t="n">
-        <v>0.131693</v>
+        <v>0.134835</v>
       </c>
       <c r="D43" t="n">
-        <v>0.156101</v>
+        <v>0.188409</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150803</v>
+        <v>0.149279</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135881</v>
+        <v>0.13638</v>
       </c>
       <c r="D44" t="n">
-        <v>0.15641</v>
+        <v>0.192713</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152047</v>
+        <v>0.154209</v>
       </c>
       <c r="C45" t="n">
-        <v>0.132454</v>
+        <v>0.136341</v>
       </c>
       <c r="D45" t="n">
-        <v>0.158706</v>
+        <v>0.197498</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154114</v>
+        <v>0.156312</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136528</v>
+        <v>0.142531</v>
       </c>
       <c r="D46" t="n">
-        <v>0.15811</v>
+        <v>0.203637</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156407</v>
+        <v>0.156797</v>
       </c>
       <c r="C47" t="n">
-        <v>0.134598</v>
+        <v>0.137136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.15938</v>
+        <v>0.208799</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160845</v>
+        <v>0.161803</v>
       </c>
       <c r="C48" t="n">
-        <v>0.136853</v>
+        <v>0.14506</v>
       </c>
       <c r="D48" t="n">
-        <v>0.162483</v>
+        <v>0.213004</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16388</v>
+        <v>0.163381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.146008</v>
+        <v>0.147585</v>
       </c>
       <c r="D49" t="n">
-        <v>0.166227</v>
+        <v>0.2179</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169747</v>
+        <v>0.177465</v>
       </c>
       <c r="C50" t="n">
-        <v>0.14986</v>
+        <v>0.152033</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170611</v>
+        <v>0.158597</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179212</v>
+        <v>0.180616</v>
       </c>
       <c r="C51" t="n">
-        <v>0.146897</v>
+        <v>0.14249</v>
       </c>
       <c r="D51" t="n">
-        <v>0.168493</v>
+        <v>0.162161</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187912</v>
+        <v>0.189348</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148742</v>
+        <v>0.150622</v>
       </c>
       <c r="D52" t="n">
-        <v>0.16952</v>
+        <v>0.165951</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159514</v>
+        <v>0.160529</v>
       </c>
       <c r="C53" t="n">
-        <v>0.149312</v>
+        <v>0.143618</v>
       </c>
       <c r="D53" t="n">
-        <v>0.169514</v>
+        <v>0.169739</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160065</v>
+        <v>0.160335</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14455</v>
+        <v>0.144497</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169635</v>
+        <v>0.173514</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159666</v>
+        <v>0.161078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.144259</v>
+        <v>0.147843</v>
       </c>
       <c r="D55" t="n">
-        <v>0.16941</v>
+        <v>0.178014</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160854</v>
+        <v>0.162191</v>
       </c>
       <c r="C56" t="n">
-        <v>0.143578</v>
+        <v>0.142406</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169817</v>
+        <v>0.182492</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.166359</v>
+        <v>0.164136</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144758</v>
+        <v>0.144413</v>
       </c>
       <c r="D57" t="n">
-        <v>0.170677</v>
+        <v>0.187143</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163297</v>
+        <v>0.165368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145135</v>
+        <v>0.145939</v>
       </c>
       <c r="D58" t="n">
-        <v>0.172497</v>
+        <v>0.191905</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.167415</v>
+        <v>0.166597</v>
       </c>
       <c r="C59" t="n">
-        <v>0.152111</v>
+        <v>0.147108</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171988</v>
+        <v>0.196474</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.170292</v>
+        <v>0.169068</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14928</v>
+        <v>0.148526</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173644</v>
+        <v>0.201161</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170695</v>
+        <v>0.17207</v>
       </c>
       <c r="C61" t="n">
-        <v>0.154859</v>
+        <v>0.151</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175022</v>
+        <v>0.207378</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172893</v>
+        <v>0.17362</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151035</v>
+        <v>0.16309</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1768</v>
+        <v>0.211025</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177491</v>
+        <v>0.176945</v>
       </c>
       <c r="C63" t="n">
-        <v>0.160137</v>
+        <v>0.160373</v>
       </c>
       <c r="D63" t="n">
-        <v>0.179442</v>
+        <v>0.216259</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182002</v>
+        <v>0.182473</v>
       </c>
       <c r="C64" t="n">
-        <v>0.158336</v>
+        <v>0.161066</v>
       </c>
       <c r="D64" t="n">
-        <v>0.184754</v>
+        <v>0.165878</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189446</v>
+        <v>0.187537</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170984</v>
+        <v>0.174336</v>
       </c>
       <c r="D65" t="n">
-        <v>0.191646</v>
+        <v>0.170683</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198312</v>
+        <v>0.195633</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163249</v>
+        <v>0.162369</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187467</v>
+        <v>0.176588</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.204373</v>
+        <v>0.195881</v>
       </c>
       <c r="C67" t="n">
-        <v>0.15934</v>
+        <v>0.158608</v>
       </c>
       <c r="D67" t="n">
-        <v>0.188145</v>
+        <v>0.183682</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.207684</v>
+        <v>0.19008</v>
       </c>
       <c r="C68" t="n">
-        <v>0.166167</v>
+        <v>0.156992</v>
       </c>
       <c r="D68" t="n">
-        <v>0.192668</v>
+        <v>0.187053</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.208605</v>
+        <v>0.188178</v>
       </c>
       <c r="C69" t="n">
-        <v>0.159343</v>
+        <v>0.157008</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187855</v>
+        <v>0.195099</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.198163</v>
+        <v>0.205557</v>
       </c>
       <c r="C70" t="n">
-        <v>0.168385</v>
+        <v>0.166682</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18961</v>
+        <v>0.20044</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.20599</v>
+        <v>0.188696</v>
       </c>
       <c r="C71" t="n">
-        <v>0.162074</v>
+        <v>0.161002</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193278</v>
+        <v>0.207726</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.202164</v>
+        <v>0.189082</v>
       </c>
       <c r="C72" t="n">
-        <v>0.163514</v>
+        <v>0.166698</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189211</v>
+        <v>0.214856</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.203504</v>
+        <v>0.19757</v>
       </c>
       <c r="C73" t="n">
-        <v>0.160886</v>
+        <v>0.159618</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191087</v>
+        <v>0.224315</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.210014</v>
+        <v>0.19047</v>
       </c>
       <c r="C74" t="n">
-        <v>0.166285</v>
+        <v>0.166965</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193096</v>
+        <v>0.234003</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.223274</v>
+        <v>0.200536</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170985</v>
+        <v>0.168312</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19582</v>
+        <v>0.241229</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211287</v>
+        <v>0.202576</v>
       </c>
       <c r="C76" t="n">
-        <v>0.171051</v>
+        <v>0.17364</v>
       </c>
       <c r="D76" t="n">
-        <v>0.193709</v>
+        <v>0.253199</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.22213</v>
+        <v>0.199956</v>
       </c>
       <c r="C77" t="n">
-        <v>0.164984</v>
+        <v>0.175526</v>
       </c>
       <c r="D77" t="n">
-        <v>0.19781</v>
+        <v>0.265867</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.229099</v>
+        <v>0.200372</v>
       </c>
       <c r="C78" t="n">
-        <v>0.177646</v>
+        <v>0.171431</v>
       </c>
       <c r="D78" t="n">
-        <v>0.199131</v>
+        <v>0.220899</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.228381</v>
+        <v>0.206646</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184343</v>
+        <v>0.185891</v>
       </c>
       <c r="D79" t="n">
-        <v>0.205281</v>
+        <v>0.231211</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.241841</v>
+        <v>0.228349</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249488</v>
+        <v>0.24107</v>
       </c>
       <c r="D80" t="n">
-        <v>0.278023</v>
+        <v>0.242752</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.376913</v>
+        <v>0.351348</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253734</v>
+        <v>0.232424</v>
       </c>
       <c r="D81" t="n">
-        <v>0.282467</v>
+        <v>0.254596</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372302</v>
+        <v>0.368097</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254893</v>
+        <v>0.207918</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275433</v>
+        <v>0.264119</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.372955</v>
+        <v>0.37187</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254982</v>
+        <v>0.215959</v>
       </c>
       <c r="D83" t="n">
-        <v>0.276702</v>
+        <v>0.277225</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.378826</v>
+        <v>0.37401</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24791</v>
+        <v>0.234991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.27929</v>
+        <v>0.286926</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37455</v>
+        <v>0.372326</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250051</v>
+        <v>0.241243</v>
       </c>
       <c r="D85" t="n">
-        <v>0.282242</v>
+        <v>0.305234</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.381496</v>
+        <v>0.369375</v>
       </c>
       <c r="C86" t="n">
-        <v>0.249406</v>
+        <v>0.208943</v>
       </c>
       <c r="D86" t="n">
-        <v>0.275816</v>
+        <v>0.315562</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.384176</v>
+        <v>0.376691</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248667</v>
+        <v>0.210732</v>
       </c>
       <c r="D87" t="n">
-        <v>0.275697</v>
+        <v>0.332091</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378459</v>
+        <v>0.37897</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244744</v>
+        <v>0.230178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273978</v>
+        <v>0.346123</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.383499</v>
+        <v>0.374593</v>
       </c>
       <c r="C89" t="n">
-        <v>0.234372</v>
+        <v>0.222921</v>
       </c>
       <c r="D89" t="n">
-        <v>0.270552</v>
+        <v>0.362843</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386128</v>
+        <v>0.384588</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248528</v>
+        <v>0.232545</v>
       </c>
       <c r="D90" t="n">
-        <v>0.260511</v>
+        <v>0.378437</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388478</v>
+        <v>0.382355</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254416</v>
+        <v>0.232263</v>
       </c>
       <c r="D91" t="n">
-        <v>0.273892</v>
+        <v>0.394299</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.392362</v>
+        <v>0.386457</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24832</v>
+        <v>0.214569</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273675</v>
+        <v>0.340453</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.395081</v>
+        <v>0.390096</v>
       </c>
       <c r="C93" t="n">
-        <v>0.25564</v>
+        <v>0.220657</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278652</v>
+        <v>0.350219</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.406175</v>
+        <v>0.387726</v>
       </c>
       <c r="C94" t="n">
-        <v>0.403948</v>
+        <v>0.396418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.473865</v>
+        <v>0.365971</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.538451</v>
+        <v>0.533021</v>
       </c>
       <c r="C95" t="n">
-        <v>0.397747</v>
+        <v>0.393328</v>
       </c>
       <c r="D95" t="n">
-        <v>0.472276</v>
+        <v>0.374589</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.536767</v>
+        <v>0.534295</v>
       </c>
       <c r="C96" t="n">
-        <v>0.396313</v>
+        <v>0.394286</v>
       </c>
       <c r="D96" t="n">
-        <v>0.470415</v>
+        <v>0.386479</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.536771</v>
+        <v>0.534394</v>
       </c>
       <c r="C97" t="n">
-        <v>0.400091</v>
+        <v>0.388205</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473035</v>
+        <v>0.398541</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.536321</v>
+        <v>0.530946</v>
       </c>
       <c r="C98" t="n">
-        <v>0.392197</v>
+        <v>0.387334</v>
       </c>
       <c r="D98" t="n">
-        <v>0.47105</v>
+        <v>0.413032</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.539507</v>
+        <v>0.535535</v>
       </c>
       <c r="C99" t="n">
-        <v>0.391438</v>
+        <v>0.386821</v>
       </c>
       <c r="D99" t="n">
-        <v>0.469952</v>
+        <v>0.430318</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.538946</v>
+        <v>0.536853</v>
       </c>
       <c r="C100" t="n">
-        <v>0.395044</v>
+        <v>0.385724</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466169</v>
+        <v>0.442211</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.538042</v>
+        <v>0.538378</v>
       </c>
       <c r="C101" t="n">
-        <v>0.398827</v>
+        <v>0.394556</v>
       </c>
       <c r="D101" t="n">
-        <v>0.470145</v>
+        <v>0.46009</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.540565</v>
+        <v>0.53911</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396595</v>
+        <v>0.39476</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451748</v>
+        <v>0.476256</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.543153</v>
+        <v>0.540946</v>
       </c>
       <c r="C103" t="n">
-        <v>0.397335</v>
+        <v>0.388995</v>
       </c>
       <c r="D103" t="n">
-        <v>0.468068</v>
+        <v>0.497585</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.545516</v>
+        <v>0.537876</v>
       </c>
       <c r="C104" t="n">
-        <v>0.400696</v>
+        <v>0.39789</v>
       </c>
       <c r="D104" t="n">
-        <v>0.469616</v>
+        <v>0.509944</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.546165</v>
+        <v>0.540477</v>
       </c>
       <c r="C105" t="n">
-        <v>0.400272</v>
+        <v>0.393982</v>
       </c>
       <c r="D105" t="n">
-        <v>0.473155</v>
+        <v>0.532877</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551806</v>
+        <v>0.547222</v>
       </c>
       <c r="C106" t="n">
-        <v>0.409062</v>
+        <v>0.396087</v>
       </c>
       <c r="D106" t="n">
-        <v>0.474051</v>
+        <v>0.539954</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.555675</v>
+        <v>0.555876</v>
       </c>
       <c r="C107" t="n">
-        <v>0.409943</v>
+        <v>0.414012</v>
       </c>
       <c r="D107" t="n">
-        <v>0.478306</v>
+        <v>0.524543</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.565133</v>
+        <v>0.5638609999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.536162</v>
+        <v>0.52319</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6508119999999999</v>
+        <v>0.52723</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.574609</v>
+        <v>0.568426</v>
       </c>
       <c r="C109" t="n">
-        <v>0.539003</v>
+        <v>0.527222</v>
       </c>
       <c r="D109" t="n">
-        <v>0.652174</v>
+        <v>0.556006</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.615134</v>
+        <v>0.616734</v>
       </c>
       <c r="C110" t="n">
-        <v>0.535962</v>
+        <v>0.532795</v>
       </c>
       <c r="D110" t="n">
-        <v>0.650543</v>
+        <v>0.557233</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.618067</v>
+        <v>0.609696</v>
       </c>
       <c r="C111" t="n">
-        <v>0.536547</v>
+        <v>0.532581</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6516960000000001</v>
+        <v>0.575255</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.616642</v>
+        <v>0.614859</v>
       </c>
       <c r="C112" t="n">
-        <v>0.534594</v>
+        <v>0.533324</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64406</v>
+        <v>0.588969</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.619601</v>
+        <v>0.617852</v>
       </c>
       <c r="C113" t="n">
-        <v>0.538581</v>
+        <v>0.530767</v>
       </c>
       <c r="D113" t="n">
-        <v>0.654643</v>
+        <v>0.595081</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.621294</v>
+        <v>0.615749</v>
       </c>
       <c r="C114" t="n">
-        <v>0.539082</v>
+        <v>0.532443</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6534</v>
+        <v>0.614608</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622429</v>
+        <v>0.6177009999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5397690000000001</v>
+        <v>0.537877</v>
       </c>
       <c r="D115" t="n">
-        <v>0.654511</v>
+        <v>0.628045</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.622875</v>
+        <v>0.608613</v>
       </c>
       <c r="C116" t="n">
-        <v>0.539754</v>
+        <v>0.524024</v>
       </c>
       <c r="D116" t="n">
-        <v>0.655398</v>
+        <v>0.638073</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.622679</v>
+        <v>0.622151</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5419620000000001</v>
+        <v>0.540575</v>
       </c>
       <c r="D117" t="n">
-        <v>0.657332</v>
+        <v>0.654771</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626997</v>
+        <v>0.625279</v>
       </c>
       <c r="C118" t="n">
-        <v>0.541829</v>
+        <v>0.538362</v>
       </c>
       <c r="D118" t="n">
-        <v>0.661305</v>
+        <v>0.668651</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6315809999999999</v>
+        <v>0.629898</v>
       </c>
       <c r="C119" t="n">
-        <v>0.546173</v>
+        <v>0.546162</v>
       </c>
       <c r="D119" t="n">
-        <v>0.652203</v>
+        <v>0.689908</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.636895</v>
+        <v>0.63772</v>
       </c>
       <c r="C120" t="n">
-        <v>0.555359</v>
+        <v>0.5385259999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665253</v>
+        <v>0.714627</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.642133</v>
+        <v>0.638953</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5560389999999999</v>
+        <v>0.560364</v>
       </c>
       <c r="D121" t="n">
-        <v>0.670813</v>
+        <v>0.638503</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.650998</v>
+        <v>0.6518040000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.567657</v>
+        <v>0.562846</v>
       </c>
       <c r="D122" t="n">
-        <v>0.666564</v>
+        <v>0.649245</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.662562</v>
+        <v>0.663605</v>
       </c>
       <c r="C123" t="n">
-        <v>0.704568</v>
+        <v>0.693748</v>
       </c>
       <c r="D123" t="n">
-        <v>0.802136</v>
+        <v>0.644796</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.760881</v>
+        <v>0.752425</v>
       </c>
       <c r="C124" t="n">
-        <v>0.703304</v>
+        <v>0.691448</v>
       </c>
       <c r="D124" t="n">
-        <v>0.806007</v>
+        <v>0.671497</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.761881</v>
+        <v>0.755371</v>
       </c>
       <c r="C125" t="n">
-        <v>0.70405</v>
+        <v>0.6968529999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.80525</v>
+        <v>0.686453</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.761113</v>
+        <v>0.746312</v>
       </c>
       <c r="C126" t="n">
-        <v>0.705704</v>
+        <v>0.694893</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804288</v>
+        <v>0.6986289999999999</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.761875</v>
+        <v>0.755724</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70546</v>
+        <v>0.698788</v>
       </c>
       <c r="D127" t="n">
-        <v>0.805569</v>
+        <v>0.7021269999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.762493</v>
+        <v>0.759642</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7086209999999999</v>
+        <v>0.699385</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8060850000000001</v>
+        <v>0.723649</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765514</v>
+        <v>0.756429</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708433</v>
+        <v>0.697782</v>
       </c>
       <c r="D129" t="n">
-        <v>0.811001</v>
+        <v>0.740563</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7663990000000001</v>
+        <v>0.757426</v>
       </c>
       <c r="C130" t="n">
-        <v>0.709915</v>
+        <v>0.69921</v>
       </c>
       <c r="D130" t="n">
-        <v>0.812591</v>
+        <v>0.7543530000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.767002</v>
+        <v>0.760449</v>
       </c>
       <c r="C131" t="n">
-        <v>0.709103</v>
+        <v>0.707701</v>
       </c>
       <c r="D131" t="n">
-        <v>0.813685</v>
+        <v>0.760497</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.771898</v>
+        <v>0.762391</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718155</v>
+        <v>0.704523</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8177</v>
+        <v>0.7873019999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.777003</v>
+        <v>0.773133</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7189720000000001</v>
+        <v>0.7086789999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.820063</v>
+        <v>0.797928</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.780361</v>
+        <v>0.777864</v>
       </c>
       <c r="C134" t="n">
-        <v>0.719156</v>
+        <v>0.7141189999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.823597</v>
+        <v>0.814921</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7875490000000001</v>
+        <v>0.785567</v>
       </c>
       <c r="C135" t="n">
-        <v>0.726834</v>
+        <v>0.728057</v>
       </c>
       <c r="D135" t="n">
-        <v>0.828224</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8075870000000001</v>
+        <v>0.790896</v>
       </c>
       <c r="C136" t="n">
-        <v>0.73443</v>
+        <v>0.730588</v>
       </c>
       <c r="D136" t="n">
-        <v>0.835103</v>
+        <v>0.644655</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.809153</v>
+        <v>0.80104</v>
       </c>
       <c r="C137" t="n">
-        <v>0.835457</v>
+        <v>0.832744</v>
       </c>
       <c r="D137" t="n">
-        <v>0.908712</v>
+        <v>0.654516</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.887872</v>
+        <v>0.8850170000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.839713</v>
+        <v>0.832019</v>
       </c>
       <c r="D138" t="n">
-        <v>0.90866</v>
+        <v>0.664954</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.889507</v>
+        <v>0.8838549999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.838128</v>
+        <v>0.834081</v>
       </c>
       <c r="D139" t="n">
-        <v>0.909836</v>
+        <v>0.6762</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8905</v>
+        <v>0.872234</v>
       </c>
       <c r="C140" t="n">
-        <v>0.839979</v>
+        <v>0.832631</v>
       </c>
       <c r="D140" t="n">
-        <v>0.908579</v>
+        <v>0.680633</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.891127</v>
+        <v>0.88532</v>
       </c>
       <c r="C141" t="n">
-        <v>0.839937</v>
+        <v>0.833073</v>
       </c>
       <c r="D141" t="n">
-        <v>0.909451</v>
+        <v>0.700929</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8913</v>
+        <v>0.885196</v>
       </c>
       <c r="C142" t="n">
-        <v>0.840384</v>
+        <v>0.825139</v>
       </c>
       <c r="D142" t="n">
-        <v>0.910155</v>
+        <v>0.715391</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.893285</v>
+        <v>0.887537</v>
       </c>
       <c r="C143" t="n">
-        <v>0.84099</v>
+        <v>0.835438</v>
       </c>
       <c r="D143" t="n">
-        <v>0.912781</v>
+        <v>0.72878</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.019845</v>
+                  <v>0.0196861</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198904</v>
+                  <v>0.0197442</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199411</v>
+                  <v>0.0197441</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199892</v>
+                  <v>0.0197505</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201312</v>
+                  <v>0.0199072</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0202981</v>
+                  <v>0.020167</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0205168</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0208663</v>
+                  <v>0.0205995</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194247</v>
+                  <v>0.0193044</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196249</v>
+                  <v>0.0194655</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198597</v>
+                  <v>0.0196123</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019879</v>
+                  <v>0.0198252</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0201309</v>
+                  <v>0.0198606</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201944</v>
+                  <v>0.0200329</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0204396</v>
+                  <v>0.0200361</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0204292</v>
+                  <v>0.020201</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0206016</v>
+                  <v>0.0201688</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0208694</v>
+                  <v>0.0204639</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208716</v>
+                  <v>0.020687</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.021266</v>
+                  <v>0.0209861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0221654</v>
+                  <v>0.0214982</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0254766</v>
+                  <v>0.0232463</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0204662</v>
+                  <v>0.0203659</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0205747</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207285</v>
+                  <v>0.0206548</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208946</v>
+                  <v>0.0208464</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0211401</v>
+                  <v>0.0210504</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0213119</v>
+                  <v>0.0212226</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214143</v>
+                  <v>0.0216188</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0217806</v>
+                  <v>0.0218555</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218731</v>
+                  <v>0.0220454</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0220813</v>
+                  <v>0.0221091</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.022994</v>
+                  <v>0.0229123</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248609</v>
+                  <v>0.023554</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0303561</v>
+                  <v>0.025525</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0334795</v>
+                  <v>0.0295991</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0213853</v>
+                  <v>0.0226652</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0215081</v>
+                  <v>0.0226726</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0216916</v>
+                  <v>0.0230688</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0218279</v>
+                  <v>0.0220955</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0219942</v>
+                  <v>0.0221313</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0223725</v>
+                  <v>0.0224242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226982</v>
+                  <v>0.0226252</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230858</v>
+                  <v>0.0229498</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235639</v>
+                  <v>0.0233683</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0246222</v>
+                  <v>0.024254</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0261523</v>
+                  <v>0.0251133</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.028148</v>
+                  <v>0.0266522</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310283</v>
+                  <v>0.029904</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0349552</v>
+                  <v>0.0329878</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0411047</v>
+                  <v>0.0389153</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0235334</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233996</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240147</v>
+                  <v>0.0234553</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237518</v>
+                  <v>0.0236761</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0243179</v>
+                  <v>0.0239042</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0246823</v>
+                  <v>0.0242977</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0250545</v>
+                  <v>0.0246093</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256238</v>
+                  <v>0.0252684</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0266776</v>
+                  <v>0.0261573</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0281548</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0303362</v>
+                  <v>0.0293145</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0330569</v>
+                  <v>0.0323043</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0370665</v>
+                  <v>0.0357062</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420454</v>
+                  <v>0.0407992</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292569</v>
+                  <v>0.0291067</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293821</v>
+                  <v>0.0292957</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294515</v>
+                  <v>0.0294658</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297582</v>
+                  <v>0.0296458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298101</v>
+                  <v>0.0298446</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302477</v>
+                  <v>0.0303077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0307674</v>
+                  <v>0.0305738</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0314948</v>
+                  <v>0.0311089</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0322669</v>
+                  <v>0.031958</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0336498</v>
+                  <v>0.0331584</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353674</v>
+                  <v>0.0348142</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0379218</v>
+                  <v>0.0371248</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0413547</v>
+                  <v>0.0406293</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.045947</v>
+                  <v>0.0455093</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0557759</v>
+                  <v>0.054876</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0559223</v>
+                  <v>0.0551749</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0561782</v>
+                  <v>0.0552561</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0562248</v>
+                  <v>0.0555251</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0564335</v>
+                  <v>0.0557353</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0568433</v>
+                  <v>0.0559444</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0571164</v>
+                  <v>0.056275</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0573685</v>
+                  <v>0.0565668</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0579423</v>
+                  <v>0.0570285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0585424</v>
+                  <v>0.0577995</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0597217</v>
+                  <v>0.0587407</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0613516</v>
+                  <v>0.0605897</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0637716</v>
+                  <v>0.0631306</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0674956</v>
+                  <v>0.06695570000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0857108</v>
+                  <v>0.09221509999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.085729</v>
+                  <v>0.0858753</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08582099999999999</v>
+                  <v>0.08594309999999999</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.085891</v>
+                  <v>0.0860457</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08591310000000001</v>
+                  <v>0.0861672</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0952533</v>
+                  <v>0.0863088</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0900392</v>
+                  <v>0.0865691</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0865544</v>
+                  <v>0.0868321</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08702120000000001</v>
+                  <v>0.08713460000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08758929999999999</v>
+                  <v>0.08769159999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0884514</v>
+                  <v>0.0958198</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08982080000000001</v>
+                  <v>0.0898485</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0916886</v>
+                  <v>0.095514</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949089</v>
+                  <v>0.09515</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.09997010000000001</v>
+                  <v>0.100163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.107963</v>
+                  <v>0.1074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108243</v>
+                  <v>0.10739</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.108225</v>
+                  <v>0.107504</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.10822</v>
+                  <v>0.107377</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.108618</v>
+                  <v>0.114714</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108608</v>
+                  <v>0.108009</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109047</v>
+                  <v>0.108717</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109454</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110007</v>
+                  <v>0.110397</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110855</v>
+                  <v>0.111361</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112081</v>
+                  <v>0.112842</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.113914</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.116949</v>
+                  <v>0.117867</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.121459</v>
+                  <v>0.124715</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.134045</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.141735</v>
+                  <v>0.140249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.14386</v>
+                  <v>0.139831</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.141993</v>
+                  <v>0.139692</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.141564</v>
+                  <v>0.139658</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.141767</v>
+                  <v>0.139443</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142252</v>
+                  <v>0.139582</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142466</v>
+                  <v>0.139867</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.143005</v>
+                  <v>0.14053</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.143627</v>
+                  <v>0.141002</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144639</v>
+                  <v>0.142003</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.146121</v>
+                  <v>0.143615</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.148787</v>
+                  <v>0.145983</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.153145</v>
+                  <v>0.150084</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.160222</v>
+                  <v>0.158033</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15805</v>
+                  <v>0.157812</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.158093</v>
+                  <v>0.157958</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158066</v>
+                  <v>0.158179</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158317</v>
+                  <v>0.158157</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158434</v>
+                  <v>0.158476</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0207816</v>
+                  <v>0.021348</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0208667</v>
+                  <v>0.0214877</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208241</v>
+                  <v>0.0216247</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207476</v>
+                  <v>0.0218795</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.020652</v>
+                  <v>0.0221566</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0209277</v>
+                  <v>0.0227802</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0208354</v>
+                  <v>0.0236896</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021057</v>
+                  <v>0.0202692</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207722</v>
+                  <v>0.0207092</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211993</v>
+                  <v>0.0210303</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.021061</v>
+                  <v>0.0213025</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0212452</v>
+                  <v>0.0213527</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0215641</v>
+                  <v>0.0218472</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0219941</v>
+                  <v>0.0222591</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0221573</v>
+                  <v>0.0226628</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022048</v>
+                  <v>0.022977</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.022091</v>
+                  <v>0.0233228</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223514</v>
+                  <v>0.0238671</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224619</v>
+                  <v>0.0246036</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0226031</v>
+                  <v>0.0252305</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229443</v>
+                  <v>0.0277472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0236086</v>
+                  <v>0.0217618</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218909</v>
+                  <v>0.0219587</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0220636</v>
+                  <v>0.0222026</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222406</v>
+                  <v>0.0224898</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225907</v>
+                  <v>0.0228074</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.022887</v>
+                  <v>0.0232103</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0230842</v>
+                  <v>0.0236661</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234928</v>
+                  <v>0.0240376</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0237357</v>
+                  <v>0.0245248</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0239547</v>
+                  <v>0.0252023</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0241213</v>
+                  <v>0.0257564</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0246092</v>
+                  <v>0.0270565</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0256069</v>
+                  <v>0.0287934</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0258742</v>
+                  <v>0.0324096</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0314078</v>
+                  <v>0.0236684</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231422</v>
+                  <v>0.0241302</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0232697</v>
+                  <v>0.0244332</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0236008</v>
+                  <v>0.0245736</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239637</v>
+                  <v>0.0239295</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0241731</v>
+                  <v>0.0243207</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.024655</v>
+                  <v>0.0252591</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0250199</v>
+                  <v>0.0256591</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0254471</v>
+                  <v>0.0259074</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0257887</v>
+                  <v>0.0266036</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.026411</v>
+                  <v>0.027689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273266</v>
+                  <v>0.0291986</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288305</v>
+                  <v>0.0317988</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0310001</v>
+                  <v>0.0360721</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0354398</v>
+                  <v>0.023394</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0403807</v>
+                  <v>0.0236044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246173</v>
+                  <v>0.023867</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0249205</v>
+                  <v>0.0241515</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0252809</v>
+                  <v>0.0244875</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0256266</v>
+                  <v>0.0249477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0260148</v>
+                  <v>0.0253774</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0264257</v>
+                  <v>0.0259302</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0269137</v>
+                  <v>0.0265094</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274746</v>
+                  <v>0.0274929</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0282353</v>
+                  <v>0.0286629</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0295079</v>
+                  <v>0.0303873</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0309257</v>
+                  <v>0.0330881</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0332921</v>
+                  <v>0.0367975</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0365299</v>
+                  <v>0.0428056</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0415142</v>
+                  <v>0.0248565</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0269617</v>
+                  <v>0.0254945</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0268134</v>
+                  <v>0.025829</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0271091</v>
+                  <v>0.0266013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.028098</v>
+                  <v>0.0265404</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.028241</v>
+                  <v>0.0270211</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0283238</v>
+                  <v>0.027483</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0289933</v>
+                  <v>0.0281629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0297943</v>
+                  <v>0.0291473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0305728</v>
+                  <v>0.0302343</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0318959</v>
+                  <v>0.0321709</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0330477</v>
+                  <v>0.0346453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0355949</v>
+                  <v>0.038211</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0380312</v>
+                  <v>0.0437751</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0422199</v>
+                  <v>0.0369618</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0358291</v>
+                  <v>0.0377666</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0366934</v>
+                  <v>0.0385693</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0371542</v>
+                  <v>0.0393414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0385504</v>
+                  <v>0.0400166</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0397275</v>
+                  <v>0.0406419</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0406958</v>
+                  <v>0.0415556</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0420235</v>
+                  <v>0.0424017</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.043628</v>
+                  <v>0.0449697</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0448497</v>
+                  <v>0.0442997</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0467952</v>
+                  <v>0.0456659</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0485398</v>
+                  <v>0.047738</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.050625</v>
+                  <v>0.0505484</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0531723</v>
+                  <v>0.0549595</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0575467</v>
+                  <v>0.0715803</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0690796</v>
+                  <v>0.0719887</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0695586</v>
+                  <v>0.0723747</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07006270000000001</v>
+                  <v>0.0728399</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0706492</v>
+                  <v>0.07350520000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0712165</v>
+                  <v>0.0740489</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0719084</v>
+                  <v>0.0746351</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0726926</v>
+                  <v>0.0754398</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.073481</v>
+                  <v>0.07621650000000001</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0744592</v>
+                  <v>0.0796057</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0757119</v>
+                  <v>0.07860830000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0771091</v>
+                  <v>0.0804361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0789149</v>
+                  <v>0.0829439</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08129740000000001</v>
+                  <v>0.08686770000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.085034</v>
+                  <v>0.0889514</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0910459</v>
+                  <v>0.089729</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.08287219999999999</v>
+                  <v>0.0904097</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.08375249999999999</v>
+                  <v>0.0913191</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0846664</v>
+                  <v>0.0921503</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0856579</v>
+                  <v>0.0931935</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.08681120000000001</v>
+                  <v>0.09714059999999999</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.08786919999999999</v>
+                  <v>0.09524050000000001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0892593</v>
+                  <v>0.096618</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0907998</v>
+                  <v>0.0979674</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0923614</v>
+                  <v>0.0996447</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0942355</v>
+                  <v>0.101745</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.096293</v>
+                  <v>0.104375</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0990901</v>
+                  <v>0.108312</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102927</v>
+                  <v>0.114594</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.108871</v>
+                  <v>0.106984</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0958808</v>
+                  <v>0.119349</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.09704169999999999</v>
+                  <v>0.109142</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0989488</v>
+                  <v>0.110214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.100162</v>
+                  <v>0.111475</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.101129</v>
+                  <v>0.112737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.102743</v>
+                  <v>0.11413</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.10443</v>
+                  <v>0.115719</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.106431</v>
+                  <v>0.117336</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.108216</v>
+                  <v>0.119263</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.110255</v>
+                  <v>0.121651</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112815</v>
+                  <v>0.124577</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.11575</v>
+                  <v>0.128814</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.119701</v>
+                  <v>0.13534</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.126693</v>
+                  <v>0.118414</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.108481</v>
+                  <v>0.119444</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.109886</v>
+                  <v>0.120531</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.111216</v>
+                  <v>0.121662</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.112687</v>
+                  <v>0.122894</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.114154</v>
+                  <v>0.12405</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.115713</v>
+                  <v>0.125504</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0197621</v>
+                  <v>0.0336857</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0199124</v>
+                  <v>0.0394849</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0199636</v>
+                  <v>0.0423094</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0200411</v>
+                  <v>0.0461472</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201853</v>
+                  <v>0.0507523</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0205493</v>
+                  <v>0.030305</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212255</v>
+                  <v>0.0319421</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0196114</v>
+                  <v>0.0344693</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196542</v>
+                  <v>0.0368055</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197311</v>
+                  <v>0.0393418</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200198</v>
+                  <v>0.0427875</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202983</v>
+                  <v>0.0475742</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206514</v>
+                  <v>0.0488059</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208261</v>
+                  <v>0.0525665</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0213814</v>
+                  <v>0.0568101</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.021683</v>
+                  <v>0.0604767</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0218647</v>
+                  <v>0.0639252</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0217385</v>
+                  <v>0.0675722</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0221793</v>
+                  <v>0.0692373</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234999</v>
+                  <v>0.0444481</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.025596</v>
+                  <v>0.0475408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0208572</v>
+                  <v>0.0489493</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0211474</v>
+                  <v>0.0508013</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0213952</v>
+                  <v>0.0535126</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0216285</v>
+                  <v>0.0556632</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0219129</v>
+                  <v>0.0589148</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221909</v>
+                  <v>0.0614351</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226314</v>
+                  <v>0.06435200000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.02287</v>
+                  <v>0.0664998</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0232938</v>
+                  <v>0.07017470000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236459</v>
+                  <v>0.0725022</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243776</v>
+                  <v>0.0762954</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0256094</v>
+                  <v>0.0772482</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0280099</v>
+                  <v>0.0518274</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0318825</v>
+                  <v>0.0539981</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0222322</v>
+                  <v>0.0569381</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224761</v>
+                  <v>0.0590617</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226406</v>
+                  <v>0.0616864</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229219</v>
+                  <v>0.0607154</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0232372</v>
+                  <v>0.06472219999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235604</v>
+                  <v>0.0669053</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239217</v>
+                  <v>0.06983350000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0243675</v>
+                  <v>0.0728838</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0249258</v>
+                  <v>0.0752324</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0256372</v>
+                  <v>0.07806680000000001</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0267547</v>
+                  <v>0.0802983</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0285161</v>
+                  <v>0.0828279</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0309254</v>
+                  <v>0.0846045</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.03463</v>
+                  <v>0.0575865</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0230982</v>
+                  <v>0.0593047</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0233375</v>
+                  <v>0.0611502</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023593</v>
+                  <v>0.0636737</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0238201</v>
+                  <v>0.0657292</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0241227</v>
+                  <v>0.06833930000000001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244723</v>
+                  <v>0.0707661</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.024922</v>
+                  <v>0.073903</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0253022</v>
+                  <v>0.0761425</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0259853</v>
+                  <v>0.078791</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0267356</v>
+                  <v>0.08170040000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0278598</v>
+                  <v>0.0839515</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0296228</v>
+                  <v>0.0861381</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0320613</v>
+                  <v>0.088853</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0356651</v>
+                  <v>0.0638098</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0410615</v>
+                  <v>0.06650739999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0247871</v>
+                  <v>0.0691383</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0249031</v>
+                  <v>0.0715653</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0256338</v>
+                  <v>0.0745817</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0258881</v>
+                  <v>0.07851610000000001</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0259173</v>
+                  <v>0.0814839</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0262823</v>
+                  <v>0.0860113</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0271444</v>
+                  <v>0.09014419999999999</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0274852</v>
+                  <v>0.0948281</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283927</v>
+                  <v>0.0981105</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0298077</v>
+                  <v>0.101526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0311471</v>
+                  <v>0.107487</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0336077</v>
+                  <v>0.112807</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0368424</v>
+                  <v>0.0965601</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0414916</v>
+                  <v>0.101097</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0365337</v>
+                  <v>0.106082</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.037033</v>
+                  <v>0.110975</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385276</v>
+                  <v>0.114995</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0385709</v>
+                  <v>0.120023</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0392564</v>
+                  <v>0.125893</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0399463</v>
+                  <v>0.130762</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.040702</v>
+                  <v>0.136855</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.041626</v>
+                  <v>0.142491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0423938</v>
+                  <v>0.148735</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0433475</v>
+                  <v>0.154806</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0447666</v>
+                  <v>0.160276</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0465736</v>
+                  <v>0.165942</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0493242</v>
+                  <v>0.145194</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0542457</v>
+                  <v>0.148853</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.07123119999999999</v>
+                  <v>0.152457</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.071656</v>
+                  <v>0.156847</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721349</v>
+                  <v>0.16093</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.07265770000000001</v>
+                  <v>0.165502</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0729856</v>
+                  <v>0.171025</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0736991</v>
+                  <v>0.176145</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0742898</v>
+                  <v>0.181854</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07498199999999999</v>
+                  <v>0.187152</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07573630000000001</v>
+                  <v>0.192849</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0766086</v>
+                  <v>0.199082</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.077876</v>
+                  <v>0.205029</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.07924580000000001</v>
+                  <v>0.211115</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08156239999999999</v>
+                  <v>0.217795</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0852509</v>
+                  <v>0.181761</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08773590000000001</v>
+                  <v>0.184875</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0884414</v>
+                  <v>0.18853</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0892877</v>
+                  <v>0.193379</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0899992</v>
+                  <v>0.196792</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0907741</v>
+                  <v>0.201399</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0918117</v>
+                  <v>0.206374</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.092913</v>
+                  <v>0.211734</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09400500000000001</v>
+                  <v>0.218001</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.100748</v>
+                  <v>0.223144</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.09656720000000001</v>
+                  <v>0.229767</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0981248</v>
+                  <v>0.235872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.100153</v>
+                  <v>0.240776</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.10274</v>
+                  <v>0.247637</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106587</v>
+                  <v>0.198997</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.112472</v>
+                  <v>0.202385</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106248</v>
+                  <v>0.205971</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.107515</v>
+                  <v>0.209681</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108771</v>
+                  <v>0.213857</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110258</v>
+                  <v>0.218441</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111363</v>
+                  <v>0.223282</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112139</v>
+                  <v>0.228864</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.113529</v>
+                  <v>0.234598</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.114912</v>
+                  <v>0.240649</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.116482</v>
+                  <v>0.251617</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.118414</v>
+                  <v>0.252683</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.120533</v>
+                  <v>0.258786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.123365</v>
+                  <v>0.264415</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.127277</v>
+                  <v>0.20958</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.133589</v>
+                  <v>0.21278</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.119571</v>
+                  <v>0.216352</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.123522</v>
+                  <v>0.219749</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120321</v>
+                  <v>0.224359</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121365</v>
+                  <v>0.228913</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122535</v>
+                  <v>0.236829</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123827</v>
+                  <v>0.239299</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125232</v>
+                  <v>0.2453</v>
                 </pt>
               </numCache>
             </numRef>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.129183</v>
+        <v>0.135324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110471</v>
+        <v>0.12722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130919</v>
+        <v>0.12089</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.125115</v>
+        <v>0.131969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104297</v>
+        <v>0.127539</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125682</v>
+        <v>0.125436</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124428</v>
+        <v>0.136373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.105189</v>
+        <v>0.127986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12673</v>
+        <v>0.126409</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.125692</v>
+        <v>0.147864</v>
       </c>
       <c r="C5" t="n">
-        <v>0.106747</v>
+        <v>0.127955</v>
       </c>
       <c r="D5" t="n">
-        <v>0.128642</v>
+        <v>0.12809</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.127855</v>
+        <v>0.142039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.108205</v>
+        <v>0.128268</v>
       </c>
       <c r="D6" t="n">
-        <v>0.129271</v>
+        <v>0.128802</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.131445</v>
+        <v>0.144499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10668</v>
+        <v>0.128531</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12905</v>
+        <v>0.131805</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13553</v>
+        <v>0.154223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107416</v>
+        <v>0.129523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.130453</v>
+        <v>0.128908</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146455</v>
+        <v>0.159852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106623</v>
+        <v>0.123163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.132672</v>
+        <v>0.125432</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.13275</v>
+        <v>0.146146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.112618</v>
+        <v>0.128797</v>
       </c>
       <c r="D10" t="n">
-        <v>0.130647</v>
+        <v>0.124054</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127304</v>
+        <v>0.130857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11087</v>
+        <v>0.126172</v>
       </c>
       <c r="D11" t="n">
-        <v>0.132743</v>
+        <v>0.128695</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.128807</v>
+        <v>0.131088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.10982</v>
+        <v>0.129942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.131671</v>
+        <v>0.126392</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129188</v>
+        <v>0.1337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.109397</v>
+        <v>0.125574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.131207</v>
+        <v>0.128928</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128244</v>
+        <v>0.138984</v>
       </c>
       <c r="C14" t="n">
-        <v>0.108869</v>
+        <v>0.127465</v>
       </c>
       <c r="D14" t="n">
-        <v>0.132026</v>
+        <v>0.126772</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129031</v>
+        <v>0.132058</v>
       </c>
       <c r="C15" t="n">
-        <v>0.109487</v>
+        <v>0.127204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.131749</v>
+        <v>0.129766</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.135334</v>
+        <v>0.132519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.108584</v>
+        <v>0.129643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.131802</v>
+        <v>0.128609</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130755</v>
+        <v>0.133097</v>
       </c>
       <c r="C17" t="n">
-        <v>0.109429</v>
+        <v>0.133372</v>
       </c>
       <c r="D17" t="n">
-        <v>0.132103</v>
+        <v>0.129758</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13102</v>
+        <v>0.138265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113616</v>
+        <v>0.127521</v>
       </c>
       <c r="D18" t="n">
-        <v>0.132179</v>
+        <v>0.127107</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132846</v>
+        <v>0.135783</v>
       </c>
       <c r="C19" t="n">
-        <v>0.109997</v>
+        <v>0.130304</v>
       </c>
       <c r="D19" t="n">
-        <v>0.132341</v>
+        <v>0.131593</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136883</v>
+        <v>0.139195</v>
       </c>
       <c r="C20" t="n">
-        <v>0.110995</v>
+        <v>0.129564</v>
       </c>
       <c r="D20" t="n">
-        <v>0.133066</v>
+        <v>0.128919</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.142672</v>
+        <v>0.153977</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111944</v>
+        <v>0.134132</v>
       </c>
       <c r="D21" t="n">
-        <v>0.135227</v>
+        <v>0.130247</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149395</v>
+        <v>0.160047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.116726</v>
+        <v>0.132954</v>
       </c>
       <c r="D22" t="n">
-        <v>0.138757</v>
+        <v>0.132723</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.160083</v>
+        <v>0.161959</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121395</v>
+        <v>0.138229</v>
       </c>
       <c r="D23" t="n">
-        <v>0.142537</v>
+        <v>0.131062</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.143618</v>
+        <v>0.147683</v>
       </c>
       <c r="C24" t="n">
-        <v>0.123662</v>
+        <v>0.129193</v>
       </c>
       <c r="D24" t="n">
-        <v>0.143177</v>
+        <v>0.128337</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137322</v>
+        <v>0.13717</v>
       </c>
       <c r="C25" t="n">
-        <v>0.122608</v>
+        <v>0.129288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.141604</v>
+        <v>0.127306</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134961</v>
+        <v>0.13381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.122681</v>
+        <v>0.128833</v>
       </c>
       <c r="D26" t="n">
-        <v>0.141778</v>
+        <v>0.128082</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136141</v>
+        <v>0.13759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.122512</v>
+        <v>0.128438</v>
       </c>
       <c r="D27" t="n">
-        <v>0.140725</v>
+        <v>0.128351</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135354</v>
+        <v>0.136478</v>
       </c>
       <c r="C28" t="n">
-        <v>0.120253</v>
+        <v>0.128515</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140986</v>
+        <v>0.128085</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136241</v>
+        <v>0.136544</v>
       </c>
       <c r="C29" t="n">
-        <v>0.119852</v>
+        <v>0.129409</v>
       </c>
       <c r="D29" t="n">
-        <v>0.140943</v>
+        <v>0.128793</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136974</v>
+        <v>0.136192</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122572</v>
+        <v>0.128435</v>
       </c>
       <c r="D30" t="n">
-        <v>0.141691</v>
+        <v>0.127892</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.145651</v>
+        <v>0.147045</v>
       </c>
       <c r="C31" t="n">
-        <v>0.122324</v>
+        <v>0.131003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142117</v>
+        <v>0.128288</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142181</v>
+        <v>0.147402</v>
       </c>
       <c r="C32" t="n">
-        <v>0.120026</v>
+        <v>0.130527</v>
       </c>
       <c r="D32" t="n">
-        <v>0.14217</v>
+        <v>0.128813</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1432</v>
+        <v>0.143434</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12432</v>
+        <v>0.130015</v>
       </c>
       <c r="D33" t="n">
-        <v>0.14276</v>
+        <v>0.130019</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.146782</v>
+        <v>0.152045</v>
       </c>
       <c r="C34" t="n">
-        <v>0.124881</v>
+        <v>0.130772</v>
       </c>
       <c r="D34" t="n">
-        <v>0.143957</v>
+        <v>0.130831</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152782</v>
+        <v>0.151839</v>
       </c>
       <c r="C35" t="n">
-        <v>0.126047</v>
+        <v>0.135693</v>
       </c>
       <c r="D35" t="n">
-        <v>0.147153</v>
+        <v>0.134511</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.157656</v>
+        <v>0.168358</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131096</v>
+        <v>0.143207</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154789</v>
+        <v>0.142257</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16624</v>
+        <v>0.166277</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132317</v>
+        <v>0.136246</v>
       </c>
       <c r="D37" t="n">
-        <v>0.156375</v>
+        <v>0.148584</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154287</v>
+        <v>0.147313</v>
       </c>
       <c r="C38" t="n">
-        <v>0.135945</v>
+        <v>0.141131</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1554</v>
+        <v>0.140532</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147866</v>
+        <v>0.147862</v>
       </c>
       <c r="C39" t="n">
-        <v>0.132835</v>
+        <v>0.139518</v>
       </c>
       <c r="D39" t="n">
-        <v>0.156511</v>
+        <v>0.143625</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150315</v>
+        <v>0.144987</v>
       </c>
       <c r="C40" t="n">
-        <v>0.131504</v>
+        <v>0.140165</v>
       </c>
       <c r="D40" t="n">
-        <v>0.156075</v>
+        <v>0.141283</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147929</v>
+        <v>0.149113</v>
       </c>
       <c r="C41" t="n">
-        <v>0.135051</v>
+        <v>0.146867</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155991</v>
+        <v>0.140356</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149689</v>
+        <v>0.154444</v>
       </c>
       <c r="C42" t="n">
-        <v>0.134974</v>
+        <v>0.144052</v>
       </c>
       <c r="D42" t="n">
-        <v>0.155697</v>
+        <v>0.140529</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150212</v>
+        <v>0.1542</v>
       </c>
       <c r="C43" t="n">
-        <v>0.131693</v>
+        <v>0.142444</v>
       </c>
       <c r="D43" t="n">
-        <v>0.156101</v>
+        <v>0.142361</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150803</v>
+        <v>0.148472</v>
       </c>
       <c r="C44" t="n">
-        <v>0.135881</v>
+        <v>0.142555</v>
       </c>
       <c r="D44" t="n">
-        <v>0.15641</v>
+        <v>0.141223</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152047</v>
+        <v>0.153964</v>
       </c>
       <c r="C45" t="n">
-        <v>0.132454</v>
+        <v>0.140246</v>
       </c>
       <c r="D45" t="n">
-        <v>0.158706</v>
+        <v>0.140526</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154114</v>
+        <v>0.151087</v>
       </c>
       <c r="C46" t="n">
-        <v>0.136528</v>
+        <v>0.139888</v>
       </c>
       <c r="D46" t="n">
-        <v>0.15811</v>
+        <v>0.141738</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156407</v>
+        <v>0.156003</v>
       </c>
       <c r="C47" t="n">
-        <v>0.134598</v>
+        <v>0.146773</v>
       </c>
       <c r="D47" t="n">
-        <v>0.15938</v>
+        <v>0.143495</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160845</v>
+        <v>0.158417</v>
       </c>
       <c r="C48" t="n">
-        <v>0.136853</v>
+        <v>0.145588</v>
       </c>
       <c r="D48" t="n">
-        <v>0.162483</v>
+        <v>0.144416</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.16388</v>
+        <v>0.165289</v>
       </c>
       <c r="C49" t="n">
-        <v>0.146008</v>
+        <v>0.155574</v>
       </c>
       <c r="D49" t="n">
-        <v>0.166227</v>
+        <v>0.148973</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169747</v>
+        <v>0.167874</v>
       </c>
       <c r="C50" t="n">
-        <v>0.14986</v>
+        <v>0.156768</v>
       </c>
       <c r="D50" t="n">
-        <v>0.170611</v>
+        <v>0.157381</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.179212</v>
+        <v>0.176952</v>
       </c>
       <c r="C51" t="n">
-        <v>0.146897</v>
+        <v>0.151035</v>
       </c>
       <c r="D51" t="n">
-        <v>0.168493</v>
+        <v>0.162943</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187912</v>
+        <v>0.202558</v>
       </c>
       <c r="C52" t="n">
-        <v>0.148742</v>
+        <v>0.152172</v>
       </c>
       <c r="D52" t="n">
-        <v>0.16952</v>
+        <v>0.155578</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159514</v>
+        <v>0.17505</v>
       </c>
       <c r="C53" t="n">
-        <v>0.149312</v>
+        <v>0.168315</v>
       </c>
       <c r="D53" t="n">
-        <v>0.169514</v>
+        <v>0.158751</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160065</v>
+        <v>0.185165</v>
       </c>
       <c r="C54" t="n">
-        <v>0.14455</v>
+        <v>0.160415</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169635</v>
+        <v>0.160343</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159666</v>
+        <v>0.164558</v>
       </c>
       <c r="C55" t="n">
-        <v>0.144259</v>
+        <v>0.162668</v>
       </c>
       <c r="D55" t="n">
-        <v>0.16941</v>
+        <v>0.15542</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160854</v>
+        <v>0.167245</v>
       </c>
       <c r="C56" t="n">
-        <v>0.143578</v>
+        <v>0.155437</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169817</v>
+        <v>0.157572</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.166359</v>
+        <v>0.164314</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144758</v>
+        <v>0.150734</v>
       </c>
       <c r="D57" t="n">
-        <v>0.170677</v>
+        <v>0.159214</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163297</v>
+        <v>0.162732</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145135</v>
+        <v>0.153975</v>
       </c>
       <c r="D58" t="n">
-        <v>0.172497</v>
+        <v>0.15843</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.167415</v>
+        <v>0.166079</v>
       </c>
       <c r="C59" t="n">
-        <v>0.152111</v>
+        <v>0.155442</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171988</v>
+        <v>0.159049</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.170292</v>
+        <v>0.172483</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14928</v>
+        <v>0.153994</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173644</v>
+        <v>0.16817</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.170695</v>
+        <v>0.176145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.154859</v>
+        <v>0.159931</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175022</v>
+        <v>0.161484</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172893</v>
+        <v>0.183434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.151035</v>
+        <v>0.163004</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1768</v>
+        <v>0.164526</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.177491</v>
+        <v>0.181115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.160137</v>
+        <v>0.172348</v>
       </c>
       <c r="D63" t="n">
-        <v>0.179442</v>
+        <v>0.167466</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182002</v>
+        <v>0.192353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.158336</v>
+        <v>0.171117</v>
       </c>
       <c r="D64" t="n">
-        <v>0.184754</v>
+        <v>0.172574</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189446</v>
+        <v>0.199818</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170984</v>
+        <v>0.174784</v>
       </c>
       <c r="D65" t="n">
-        <v>0.191646</v>
+        <v>0.181217</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198312</v>
+        <v>0.212679</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163249</v>
+        <v>0.166074</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187467</v>
+        <v>0.17014</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.204373</v>
+        <v>0.200193</v>
       </c>
       <c r="C67" t="n">
-        <v>0.15934</v>
+        <v>0.17276</v>
       </c>
       <c r="D67" t="n">
-        <v>0.188145</v>
+        <v>0.175436</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.207684</v>
+        <v>0.188658</v>
       </c>
       <c r="C68" t="n">
-        <v>0.166167</v>
+        <v>0.170041</v>
       </c>
       <c r="D68" t="n">
-        <v>0.192668</v>
+        <v>0.172197</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.208605</v>
+        <v>0.19194</v>
       </c>
       <c r="C69" t="n">
-        <v>0.159343</v>
+        <v>0.170078</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187855</v>
+        <v>0.175715</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.198163</v>
+        <v>0.189622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.168385</v>
+        <v>0.172339</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18961</v>
+        <v>0.174637</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.20599</v>
+        <v>0.19174</v>
       </c>
       <c r="C71" t="n">
-        <v>0.162074</v>
+        <v>0.173321</v>
       </c>
       <c r="D71" t="n">
-        <v>0.193278</v>
+        <v>0.173127</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.202164</v>
+        <v>0.192423</v>
       </c>
       <c r="C72" t="n">
-        <v>0.163514</v>
+        <v>0.171799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189211</v>
+        <v>0.176243</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.203504</v>
+        <v>0.211205</v>
       </c>
       <c r="C73" t="n">
-        <v>0.160886</v>
+        <v>0.171219</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191087</v>
+        <v>0.182833</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.210014</v>
+        <v>0.212022</v>
       </c>
       <c r="C74" t="n">
-        <v>0.166285</v>
+        <v>0.171749</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193096</v>
+        <v>0.175464</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.223274</v>
+        <v>0.219423</v>
       </c>
       <c r="C75" t="n">
-        <v>0.170985</v>
+        <v>0.186665</v>
       </c>
       <c r="D75" t="n">
-        <v>0.19582</v>
+        <v>0.188691</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211287</v>
+        <v>0.214873</v>
       </c>
       <c r="C76" t="n">
-        <v>0.171051</v>
+        <v>0.178871</v>
       </c>
       <c r="D76" t="n">
-        <v>0.193709</v>
+        <v>0.186633</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.22213</v>
+        <v>0.222089</v>
       </c>
       <c r="C77" t="n">
-        <v>0.164984</v>
+        <v>0.179556</v>
       </c>
       <c r="D77" t="n">
-        <v>0.19781</v>
+        <v>0.185952</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.229099</v>
+        <v>0.254535</v>
       </c>
       <c r="C78" t="n">
-        <v>0.177646</v>
+        <v>0.194646</v>
       </c>
       <c r="D78" t="n">
-        <v>0.199131</v>
+        <v>0.199497</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.228381</v>
+        <v>0.228414</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184343</v>
+        <v>0.193651</v>
       </c>
       <c r="D79" t="n">
-        <v>0.205281</v>
+        <v>0.206688</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.241841</v>
+        <v>0.246645</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249488</v>
+        <v>0.246874</v>
       </c>
       <c r="D80" t="n">
-        <v>0.278023</v>
+        <v>0.251825</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.376913</v>
+        <v>0.37385</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253734</v>
+        <v>0.25329</v>
       </c>
       <c r="D81" t="n">
-        <v>0.282467</v>
+        <v>0.257573</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372302</v>
+        <v>0.372426</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254893</v>
+        <v>0.256826</v>
       </c>
       <c r="D82" t="n">
-        <v>0.275433</v>
+        <v>0.253439</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.372955</v>
+        <v>0.370351</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254982</v>
+        <v>0.255626</v>
       </c>
       <c r="D83" t="n">
-        <v>0.276702</v>
+        <v>0.260452</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.378826</v>
+        <v>0.371959</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24791</v>
+        <v>0.244592</v>
       </c>
       <c r="D84" t="n">
-        <v>0.27929</v>
+        <v>0.256017</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.37455</v>
+        <v>0.374652</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250051</v>
+        <v>0.24192</v>
       </c>
       <c r="D85" t="n">
-        <v>0.282242</v>
+        <v>0.251636</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.381496</v>
+        <v>0.371427</v>
       </c>
       <c r="C86" t="n">
-        <v>0.249406</v>
+        <v>0.252784</v>
       </c>
       <c r="D86" t="n">
-        <v>0.275816</v>
+        <v>0.232208</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.384176</v>
+        <v>0.376075</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248667</v>
+        <v>0.254906</v>
       </c>
       <c r="D87" t="n">
-        <v>0.275697</v>
+        <v>0.233608</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378459</v>
+        <v>0.378685</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244744</v>
+        <v>0.254382</v>
       </c>
       <c r="D88" t="n">
-        <v>0.273978</v>
+        <v>0.251011</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.383499</v>
+        <v>0.380775</v>
       </c>
       <c r="C89" t="n">
-        <v>0.234372</v>
+        <v>0.242774</v>
       </c>
       <c r="D89" t="n">
-        <v>0.270552</v>
+        <v>0.250189</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386128</v>
+        <v>0.381096</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248528</v>
+        <v>0.238751</v>
       </c>
       <c r="D90" t="n">
-        <v>0.260511</v>
+        <v>0.246357</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388478</v>
+        <v>0.380368</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254416</v>
+        <v>0.246427</v>
       </c>
       <c r="D91" t="n">
-        <v>0.273892</v>
+        <v>0.251871</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.392362</v>
+        <v>0.38579</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24832</v>
+        <v>0.258493</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273675</v>
+        <v>0.252665</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.395081</v>
+        <v>0.390637</v>
       </c>
       <c r="C93" t="n">
-        <v>0.25564</v>
+        <v>0.267616</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278652</v>
+        <v>0.25674</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.406175</v>
+        <v>0.398008</v>
       </c>
       <c r="C94" t="n">
-        <v>0.403948</v>
+        <v>0.410849</v>
       </c>
       <c r="D94" t="n">
-        <v>0.473865</v>
+        <v>0.415038</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.538451</v>
+        <v>0.53382</v>
       </c>
       <c r="C95" t="n">
-        <v>0.397747</v>
+        <v>0.410564</v>
       </c>
       <c r="D95" t="n">
-        <v>0.472276</v>
+        <v>0.413455</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.536767</v>
+        <v>0.534494</v>
       </c>
       <c r="C96" t="n">
-        <v>0.396313</v>
+        <v>0.409466</v>
       </c>
       <c r="D96" t="n">
-        <v>0.470415</v>
+        <v>0.412336</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.536771</v>
+        <v>0.5348309999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.400091</v>
+        <v>0.395953</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473035</v>
+        <v>0.411719</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.536321</v>
+        <v>0.534238</v>
       </c>
       <c r="C98" t="n">
-        <v>0.392197</v>
+        <v>0.409021</v>
       </c>
       <c r="D98" t="n">
-        <v>0.47105</v>
+        <v>0.412067</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.539507</v>
+        <v>0.536792</v>
       </c>
       <c r="C99" t="n">
-        <v>0.391438</v>
+        <v>0.409559</v>
       </c>
       <c r="D99" t="n">
-        <v>0.469952</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.538946</v>
+        <v>0.536556</v>
       </c>
       <c r="C100" t="n">
-        <v>0.395044</v>
+        <v>0.409257</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466169</v>
+        <v>0.398797</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.538042</v>
+        <v>0.538967</v>
       </c>
       <c r="C101" t="n">
-        <v>0.398827</v>
+        <v>0.393665</v>
       </c>
       <c r="D101" t="n">
-        <v>0.470145</v>
+        <v>0.408304</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.540565</v>
+        <v>0.539295</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396595</v>
+        <v>0.406984</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451748</v>
+        <v>0.411213</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.543153</v>
+        <v>0.541025</v>
       </c>
       <c r="C103" t="n">
-        <v>0.397335</v>
+        <v>0.409205</v>
       </c>
       <c r="D103" t="n">
-        <v>0.468068</v>
+        <v>0.409886</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.545516</v>
+        <v>0.541853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.400696</v>
+        <v>0.397004</v>
       </c>
       <c r="D104" t="n">
-        <v>0.469616</v>
+        <v>0.411484</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.546165</v>
+        <v>0.54513</v>
       </c>
       <c r="C105" t="n">
-        <v>0.400272</v>
+        <v>0.413652</v>
       </c>
       <c r="D105" t="n">
-        <v>0.473155</v>
+        <v>0.416048</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551806</v>
+        <v>0.551737</v>
       </c>
       <c r="C106" t="n">
-        <v>0.409062</v>
+        <v>0.403572</v>
       </c>
       <c r="D106" t="n">
-        <v>0.474051</v>
+        <v>0.416961</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.555675</v>
+        <v>0.55481</v>
       </c>
       <c r="C107" t="n">
-        <v>0.409943</v>
+        <v>0.409058</v>
       </c>
       <c r="D107" t="n">
-        <v>0.478306</v>
+        <v>0.413302</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.565133</v>
+        <v>0.562182</v>
       </c>
       <c r="C108" t="n">
-        <v>0.536162</v>
+        <v>0.545659</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6508119999999999</v>
+        <v>0.537649</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.574609</v>
+        <v>0.573518</v>
       </c>
       <c r="C109" t="n">
-        <v>0.539003</v>
+        <v>0.545287</v>
       </c>
       <c r="D109" t="n">
-        <v>0.652174</v>
+        <v>0.545301</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.615134</v>
+        <v>0.615266</v>
       </c>
       <c r="C110" t="n">
-        <v>0.535962</v>
+        <v>0.548812</v>
       </c>
       <c r="D110" t="n">
-        <v>0.650543</v>
+        <v>0.547244</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.618067</v>
+        <v>0.612417</v>
       </c>
       <c r="C111" t="n">
-        <v>0.536547</v>
+        <v>0.5476839999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6516960000000001</v>
+        <v>0.53908</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.616642</v>
+        <v>0.615283</v>
       </c>
       <c r="C112" t="n">
-        <v>0.534594</v>
+        <v>0.5495370000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.64406</v>
+        <v>0.5403480000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.619601</v>
+        <v>0.613312</v>
       </c>
       <c r="C113" t="n">
-        <v>0.538581</v>
+        <v>0.547821</v>
       </c>
       <c r="D113" t="n">
-        <v>0.654643</v>
+        <v>0.549996</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.621294</v>
+        <v>0.616414</v>
       </c>
       <c r="C114" t="n">
-        <v>0.539082</v>
+        <v>0.544907</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6534</v>
+        <v>0.552033</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622429</v>
+        <v>0.618669</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5397690000000001</v>
+        <v>0.547532</v>
       </c>
       <c r="D115" t="n">
-        <v>0.654511</v>
+        <v>0.551369</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.622875</v>
+        <v>0.6221370000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.539754</v>
+        <v>0.546667</v>
       </c>
       <c r="D116" t="n">
-        <v>0.655398</v>
+        <v>0.553137</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.622679</v>
+        <v>0.62252</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5419620000000001</v>
+        <v>0.556541</v>
       </c>
       <c r="D117" t="n">
-        <v>0.657332</v>
+        <v>0.55413</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626997</v>
+        <v>0.626508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.541829</v>
+        <v>0.5578920000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.661305</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6315809999999999</v>
+        <v>0.627337</v>
       </c>
       <c r="C119" t="n">
-        <v>0.546173</v>
+        <v>0.559735</v>
       </c>
       <c r="D119" t="n">
-        <v>0.652203</v>
+        <v>0.557786</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.636895</v>
+        <v>0.631997</v>
       </c>
       <c r="C120" t="n">
-        <v>0.555359</v>
+        <v>0.561281</v>
       </c>
       <c r="D120" t="n">
-        <v>0.665253</v>
+        <v>0.5646910000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.642133</v>
+        <v>0.641967</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5560389999999999</v>
+        <v>0.564496</v>
       </c>
       <c r="D121" t="n">
-        <v>0.670813</v>
+        <v>0.562105</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.650998</v>
+        <v>0.650871</v>
       </c>
       <c r="C122" t="n">
-        <v>0.567657</v>
+        <v>0.576094</v>
       </c>
       <c r="D122" t="n">
-        <v>0.666564</v>
+        <v>0.58035</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.662562</v>
+        <v>0.662664</v>
       </c>
       <c r="C123" t="n">
-        <v>0.704568</v>
+        <v>0.721973</v>
       </c>
       <c r="D123" t="n">
-        <v>0.802136</v>
+        <v>0.722301</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.760881</v>
+        <v>0.764803</v>
       </c>
       <c r="C124" t="n">
-        <v>0.703304</v>
+        <v>0.715985</v>
       </c>
       <c r="D124" t="n">
-        <v>0.806007</v>
+        <v>0.714333</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.761881</v>
+        <v>0.7636540000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.70405</v>
+        <v>0.71866</v>
       </c>
       <c r="D125" t="n">
-        <v>0.80525</v>
+        <v>0.71802</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.761113</v>
+        <v>0.763448</v>
       </c>
       <c r="C126" t="n">
-        <v>0.705704</v>
+        <v>0.720503</v>
       </c>
       <c r="D126" t="n">
-        <v>0.804288</v>
+        <v>0.719186</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.761875</v>
+        <v>0.765423</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70546</v>
+        <v>0.721129</v>
       </c>
       <c r="D127" t="n">
-        <v>0.805569</v>
+        <v>0.720062</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.762493</v>
+        <v>0.766016</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7086209999999999</v>
+        <v>0.723342</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8060850000000001</v>
+        <v>0.719105</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765514</v>
+        <v>0.765051</v>
       </c>
       <c r="C129" t="n">
-        <v>0.708433</v>
+        <v>0.722698</v>
       </c>
       <c r="D129" t="n">
-        <v>0.811001</v>
+        <v>0.720311</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7663990000000001</v>
+        <v>0.768277</v>
       </c>
       <c r="C130" t="n">
-        <v>0.709915</v>
+        <v>0.72715</v>
       </c>
       <c r="D130" t="n">
-        <v>0.812591</v>
+        <v>0.722428</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.767002</v>
+        <v>0.773515</v>
       </c>
       <c r="C131" t="n">
-        <v>0.709103</v>
+        <v>0.727282</v>
       </c>
       <c r="D131" t="n">
-        <v>0.813685</v>
+        <v>0.729011</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.771898</v>
+        <v>0.776312</v>
       </c>
       <c r="C132" t="n">
-        <v>0.718155</v>
+        <v>0.729961</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8177</v>
+        <v>0.72792</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.777003</v>
+        <v>0.780661</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7189720000000001</v>
+        <v>0.733518</v>
       </c>
       <c r="D133" t="n">
-        <v>0.820063</v>
+        <v>0.730746</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.780361</v>
+        <v>0.782465</v>
       </c>
       <c r="C134" t="n">
-        <v>0.719156</v>
+        <v>0.737628</v>
       </c>
       <c r="D134" t="n">
-        <v>0.823597</v>
+        <v>0.735739</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7875490000000001</v>
+        <v>0.789345</v>
       </c>
       <c r="C135" t="n">
-        <v>0.726834</v>
+        <v>0.740048</v>
       </c>
       <c r="D135" t="n">
-        <v>0.828224</v>
+        <v>0.739493</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8075870000000001</v>
+        <v>0.801098</v>
       </c>
       <c r="C136" t="n">
-        <v>0.73443</v>
+        <v>0.750764</v>
       </c>
       <c r="D136" t="n">
-        <v>0.835103</v>
+        <v>0.747098</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.809153</v>
+        <v>0.811086</v>
       </c>
       <c r="C137" t="n">
-        <v>0.835457</v>
+        <v>0.849664</v>
       </c>
       <c r="D137" t="n">
-        <v>0.908712</v>
+        <v>0.848934</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.887872</v>
+        <v>0.88669</v>
       </c>
       <c r="C138" t="n">
-        <v>0.839713</v>
+        <v>0.848133</v>
       </c>
       <c r="D138" t="n">
-        <v>0.90866</v>
+        <v>0.849671</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.889507</v>
+        <v>0.886636</v>
       </c>
       <c r="C139" t="n">
-        <v>0.838128</v>
+        <v>0.850735</v>
       </c>
       <c r="D139" t="n">
-        <v>0.909836</v>
+        <v>0.8497130000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8905</v>
+        <v>0.882045</v>
       </c>
       <c r="C140" t="n">
-        <v>0.839979</v>
+        <v>0.849797</v>
       </c>
       <c r="D140" t="n">
-        <v>0.908579</v>
+        <v>0.849061</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.891127</v>
+        <v>0.887744</v>
       </c>
       <c r="C141" t="n">
-        <v>0.839937</v>
+        <v>0.849371</v>
       </c>
       <c r="D141" t="n">
-        <v>0.909451</v>
+        <v>0.848459</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8913</v>
+        <v>0.8833490000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.840384</v>
+        <v>0.850485</v>
       </c>
       <c r="D142" t="n">
-        <v>0.910155</v>
+        <v>0.850421</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.893285</v>
+        <v>0.889244</v>
       </c>
       <c r="C143" t="n">
-        <v>0.84099</v>
+        <v>0.8516550000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.912781</v>
+        <v>0.851316</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.135324</v>
+        <v>0.115662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.12722</v>
+        <v>0.113094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12089</v>
+        <v>0.113106</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.131969</v>
+        <v>0.116624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127539</v>
+        <v>0.113477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125436</v>
+        <v>0.113323</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.136373</v>
+        <v>0.117306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.127986</v>
+        <v>0.114037</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126409</v>
+        <v>0.114057</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.147864</v>
+        <v>0.117273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127955</v>
+        <v>0.114074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12809</v>
+        <v>0.11388</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.142039</v>
+        <v>0.118882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128268</v>
+        <v>0.11448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.128802</v>
+        <v>0.114678</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.144499</v>
+        <v>0.123217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.128531</v>
+        <v>0.115474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.131805</v>
+        <v>0.115769</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.154223</v>
+        <v>0.129424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129523</v>
+        <v>0.117183</v>
       </c>
       <c r="D8" t="n">
-        <v>0.128908</v>
+        <v>0.117463</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159852</v>
+        <v>0.139971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.123163</v>
+        <v>0.122652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.125432</v>
+        <v>0.118811</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.146146</v>
+        <v>0.124559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.128797</v>
+        <v>0.118582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.124054</v>
+        <v>0.11988</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.130857</v>
+        <v>0.124502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.126172</v>
+        <v>0.118831</v>
       </c>
       <c r="D11" t="n">
-        <v>0.128695</v>
+        <v>0.119517</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131088</v>
+        <v>0.124907</v>
       </c>
       <c r="C12" t="n">
-        <v>0.129942</v>
+        <v>0.119722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.126392</v>
+        <v>0.119787</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1337</v>
+        <v>0.125585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.125574</v>
+        <v>0.119713</v>
       </c>
       <c r="D13" t="n">
-        <v>0.128928</v>
+        <v>0.12107</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.138984</v>
+        <v>0.125921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.127465</v>
+        <v>0.120517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.126772</v>
+        <v>0.120842</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.132058</v>
+        <v>0.126564</v>
       </c>
       <c r="C15" t="n">
-        <v>0.127204</v>
+        <v>0.121253</v>
       </c>
       <c r="D15" t="n">
-        <v>0.129766</v>
+        <v>0.121082</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.132519</v>
+        <v>0.127132</v>
       </c>
       <c r="C16" t="n">
-        <v>0.129643</v>
+        <v>0.121031</v>
       </c>
       <c r="D16" t="n">
-        <v>0.128609</v>
+        <v>0.121533</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.133097</v>
+        <v>0.128306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.133372</v>
+        <v>0.121234</v>
       </c>
       <c r="D17" t="n">
-        <v>0.129758</v>
+        <v>0.121775</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138265</v>
+        <v>0.130111</v>
       </c>
       <c r="C18" t="n">
-        <v>0.127521</v>
+        <v>0.122531</v>
       </c>
       <c r="D18" t="n">
-        <v>0.127107</v>
+        <v>0.122242</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.135783</v>
+        <v>0.131933</v>
       </c>
       <c r="C19" t="n">
-        <v>0.130304</v>
+        <v>0.124594</v>
       </c>
       <c r="D19" t="n">
-        <v>0.131593</v>
+        <v>0.122776</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.139195</v>
+        <v>0.135492</v>
       </c>
       <c r="C20" t="n">
-        <v>0.129564</v>
+        <v>0.123149</v>
       </c>
       <c r="D20" t="n">
-        <v>0.128919</v>
+        <v>0.123374</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.153977</v>
+        <v>0.140416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.134132</v>
+        <v>0.124951</v>
       </c>
       <c r="D21" t="n">
-        <v>0.130247</v>
+        <v>0.125233</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160047</v>
+        <v>0.149857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.132954</v>
+        <v>0.129378</v>
       </c>
       <c r="D22" t="n">
-        <v>0.132723</v>
+        <v>0.129571</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161959</v>
+        <v>0.159164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.138229</v>
+        <v>0.139023</v>
       </c>
       <c r="D23" t="n">
-        <v>0.131062</v>
+        <v>0.130874</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.147683</v>
+        <v>0.145182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.129193</v>
+        <v>0.136731</v>
       </c>
       <c r="D24" t="n">
-        <v>0.128337</v>
+        <v>0.129822</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13717</v>
+        <v>0.137563</v>
       </c>
       <c r="C25" t="n">
-        <v>0.129288</v>
+        <v>0.133349</v>
       </c>
       <c r="D25" t="n">
-        <v>0.127306</v>
+        <v>0.129213</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13381</v>
+        <v>0.13969</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128833</v>
+        <v>0.134576</v>
       </c>
       <c r="D26" t="n">
-        <v>0.128082</v>
+        <v>0.129749</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.13759</v>
+        <v>0.136726</v>
       </c>
       <c r="C27" t="n">
-        <v>0.128438</v>
+        <v>0.134193</v>
       </c>
       <c r="D27" t="n">
-        <v>0.128351</v>
+        <v>0.128786</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136478</v>
+        <v>0.134493</v>
       </c>
       <c r="C28" t="n">
-        <v>0.128515</v>
+        <v>0.132155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.128085</v>
+        <v>0.129031</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136544</v>
+        <v>0.13823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.129409</v>
+        <v>0.132365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.128793</v>
+        <v>0.128728</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.136192</v>
+        <v>0.138693</v>
       </c>
       <c r="C30" t="n">
-        <v>0.128435</v>
+        <v>0.13001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.127892</v>
+        <v>0.128528</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.147045</v>
+        <v>0.137476</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131003</v>
+        <v>0.131917</v>
       </c>
       <c r="D31" t="n">
-        <v>0.128288</v>
+        <v>0.128802</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.147402</v>
+        <v>0.140505</v>
       </c>
       <c r="C32" t="n">
-        <v>0.130527</v>
+        <v>0.13144</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128813</v>
+        <v>0.129221</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143434</v>
+        <v>0.141967</v>
       </c>
       <c r="C33" t="n">
-        <v>0.130015</v>
+        <v>0.130219</v>
       </c>
       <c r="D33" t="n">
-        <v>0.130019</v>
+        <v>0.12989</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.152045</v>
+        <v>0.146586</v>
       </c>
       <c r="C34" t="n">
-        <v>0.130772</v>
+        <v>0.131047</v>
       </c>
       <c r="D34" t="n">
-        <v>0.130831</v>
+        <v>0.131063</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151839</v>
+        <v>0.151193</v>
       </c>
       <c r="C35" t="n">
-        <v>0.135693</v>
+        <v>0.134726</v>
       </c>
       <c r="D35" t="n">
-        <v>0.134511</v>
+        <v>0.13468</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.168358</v>
+        <v>0.157306</v>
       </c>
       <c r="C36" t="n">
-        <v>0.143207</v>
+        <v>0.144005</v>
       </c>
       <c r="D36" t="n">
-        <v>0.142257</v>
+        <v>0.142608</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166277</v>
+        <v>0.166003</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136246</v>
+        <v>0.136616</v>
       </c>
       <c r="D37" t="n">
-        <v>0.148584</v>
+        <v>0.139094</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147313</v>
+        <v>0.147048</v>
       </c>
       <c r="C38" t="n">
-        <v>0.141131</v>
+        <v>0.140469</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140532</v>
+        <v>0.140777</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147862</v>
+        <v>0.148411</v>
       </c>
       <c r="C39" t="n">
-        <v>0.139518</v>
+        <v>0.138812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.143625</v>
+        <v>0.139286</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.144987</v>
+        <v>0.147753</v>
       </c>
       <c r="C40" t="n">
-        <v>0.140165</v>
+        <v>0.138245</v>
       </c>
       <c r="D40" t="n">
-        <v>0.141283</v>
+        <v>0.140607</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149113</v>
+        <v>0.146523</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146867</v>
+        <v>0.140147</v>
       </c>
       <c r="D41" t="n">
-        <v>0.140356</v>
+        <v>0.140982</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.154444</v>
+        <v>0.149331</v>
       </c>
       <c r="C42" t="n">
-        <v>0.144052</v>
+        <v>0.139733</v>
       </c>
       <c r="D42" t="n">
-        <v>0.140529</v>
+        <v>0.140422</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1542</v>
+        <v>0.146837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.142444</v>
+        <v>0.138985</v>
       </c>
       <c r="D43" t="n">
-        <v>0.142361</v>
+        <v>0.140141</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.148472</v>
+        <v>0.151188</v>
       </c>
       <c r="C44" t="n">
-        <v>0.142555</v>
+        <v>0.141857</v>
       </c>
       <c r="D44" t="n">
-        <v>0.141223</v>
+        <v>0.141147</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153964</v>
+        <v>0.153658</v>
       </c>
       <c r="C45" t="n">
-        <v>0.140246</v>
+        <v>0.14184</v>
       </c>
       <c r="D45" t="n">
-        <v>0.140526</v>
+        <v>0.139808</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.151087</v>
+        <v>0.152404</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139888</v>
+        <v>0.141863</v>
       </c>
       <c r="D46" t="n">
-        <v>0.141738</v>
+        <v>0.14187</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156003</v>
+        <v>0.153693</v>
       </c>
       <c r="C47" t="n">
-        <v>0.146773</v>
+        <v>0.141729</v>
       </c>
       <c r="D47" t="n">
-        <v>0.143495</v>
+        <v>0.143563</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158417</v>
+        <v>0.15989</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145588</v>
+        <v>0.145457</v>
       </c>
       <c r="D48" t="n">
-        <v>0.144416</v>
+        <v>0.14694</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165289</v>
+        <v>0.163305</v>
       </c>
       <c r="C49" t="n">
-        <v>0.155574</v>
+        <v>0.149024</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148973</v>
+        <v>0.150004</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.167874</v>
+        <v>0.170842</v>
       </c>
       <c r="C50" t="n">
-        <v>0.156768</v>
+        <v>0.155776</v>
       </c>
       <c r="D50" t="n">
-        <v>0.157381</v>
+        <v>0.156112</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176952</v>
+        <v>0.178347</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151035</v>
+        <v>0.151675</v>
       </c>
       <c r="D51" t="n">
-        <v>0.162943</v>
+        <v>0.15497</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.202558</v>
+        <v>0.191674</v>
       </c>
       <c r="C52" t="n">
-        <v>0.152172</v>
+        <v>0.161686</v>
       </c>
       <c r="D52" t="n">
-        <v>0.155578</v>
+        <v>0.154059</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.17505</v>
+        <v>0.163133</v>
       </c>
       <c r="C53" t="n">
-        <v>0.168315</v>
+        <v>0.154531</v>
       </c>
       <c r="D53" t="n">
-        <v>0.158751</v>
+        <v>0.158573</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.185165</v>
+        <v>0.165188</v>
       </c>
       <c r="C54" t="n">
-        <v>0.160415</v>
+        <v>0.155734</v>
       </c>
       <c r="D54" t="n">
-        <v>0.160343</v>
+        <v>0.157332</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.164558</v>
+        <v>0.166142</v>
       </c>
       <c r="C55" t="n">
-        <v>0.162668</v>
+        <v>0.156918</v>
       </c>
       <c r="D55" t="n">
-        <v>0.15542</v>
+        <v>0.158205</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.167245</v>
+        <v>0.169028</v>
       </c>
       <c r="C56" t="n">
-        <v>0.155437</v>
+        <v>0.158556</v>
       </c>
       <c r="D56" t="n">
-        <v>0.157572</v>
+        <v>0.158676</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.164314</v>
+        <v>0.167747</v>
       </c>
       <c r="C57" t="n">
-        <v>0.150734</v>
+        <v>0.154854</v>
       </c>
       <c r="D57" t="n">
-        <v>0.159214</v>
+        <v>0.160477</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.162732</v>
+        <v>0.166519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.153975</v>
+        <v>0.156788</v>
       </c>
       <c r="D58" t="n">
-        <v>0.15843</v>
+        <v>0.15874</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166079</v>
+        <v>0.172891</v>
       </c>
       <c r="C59" t="n">
-        <v>0.155442</v>
+        <v>0.156242</v>
       </c>
       <c r="D59" t="n">
-        <v>0.159049</v>
+        <v>0.158669</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.172483</v>
+        <v>0.168406</v>
       </c>
       <c r="C60" t="n">
-        <v>0.153994</v>
+        <v>0.161028</v>
       </c>
       <c r="D60" t="n">
-        <v>0.16817</v>
+        <v>0.160516</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.176145</v>
+        <v>0.176413</v>
       </c>
       <c r="C61" t="n">
-        <v>0.159931</v>
+        <v>0.161636</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161484</v>
+        <v>0.163293</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.183434</v>
+        <v>0.176264</v>
       </c>
       <c r="C62" t="n">
-        <v>0.163004</v>
+        <v>0.163036</v>
       </c>
       <c r="D62" t="n">
-        <v>0.164526</v>
+        <v>0.165029</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.181115</v>
+        <v>0.17924</v>
       </c>
       <c r="C63" t="n">
-        <v>0.172348</v>
+        <v>0.165952</v>
       </c>
       <c r="D63" t="n">
-        <v>0.167466</v>
+        <v>0.169603</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.192353</v>
+        <v>0.194222</v>
       </c>
       <c r="C64" t="n">
-        <v>0.171117</v>
+        <v>0.170577</v>
       </c>
       <c r="D64" t="n">
-        <v>0.172574</v>
+        <v>0.172573</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.199818</v>
+        <v>0.193884</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174784</v>
+        <v>0.178081</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181217</v>
+        <v>0.180144</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.212679</v>
+        <v>0.198041</v>
       </c>
       <c r="C66" t="n">
-        <v>0.166074</v>
+        <v>0.169689</v>
       </c>
       <c r="D66" t="n">
-        <v>0.17014</v>
+        <v>0.177574</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.200193</v>
+        <v>0.20167</v>
       </c>
       <c r="C67" t="n">
-        <v>0.17276</v>
+        <v>0.170432</v>
       </c>
       <c r="D67" t="n">
-        <v>0.175436</v>
+        <v>0.174527</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.188658</v>
+        <v>0.206367</v>
       </c>
       <c r="C68" t="n">
-        <v>0.170041</v>
+        <v>0.17697</v>
       </c>
       <c r="D68" t="n">
-        <v>0.172197</v>
+        <v>0.17406</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.19194</v>
+        <v>0.21041</v>
       </c>
       <c r="C69" t="n">
-        <v>0.170078</v>
+        <v>0.175804</v>
       </c>
       <c r="D69" t="n">
-        <v>0.175715</v>
+        <v>0.179918</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.189622</v>
+        <v>0.212471</v>
       </c>
       <c r="C70" t="n">
-        <v>0.172339</v>
+        <v>0.173767</v>
       </c>
       <c r="D70" t="n">
-        <v>0.174637</v>
+        <v>0.181442</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19174</v>
+        <v>0.209149</v>
       </c>
       <c r="C71" t="n">
-        <v>0.173321</v>
+        <v>0.177883</v>
       </c>
       <c r="D71" t="n">
-        <v>0.173127</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192423</v>
+        <v>0.205978</v>
       </c>
       <c r="C72" t="n">
-        <v>0.171799</v>
+        <v>0.172501</v>
       </c>
       <c r="D72" t="n">
-        <v>0.176243</v>
+        <v>0.179477</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211205</v>
+        <v>0.209309</v>
       </c>
       <c r="C73" t="n">
-        <v>0.171219</v>
+        <v>0.174999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.182833</v>
+        <v>0.177169</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.212022</v>
+        <v>0.216313</v>
       </c>
       <c r="C74" t="n">
-        <v>0.171749</v>
+        <v>0.177915</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175464</v>
+        <v>0.179996</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.219423</v>
+        <v>0.210399</v>
       </c>
       <c r="C75" t="n">
-        <v>0.186665</v>
+        <v>0.174843</v>
       </c>
       <c r="D75" t="n">
-        <v>0.188691</v>
+        <v>0.176773</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214873</v>
+        <v>0.211486</v>
       </c>
       <c r="C76" t="n">
-        <v>0.178871</v>
+        <v>0.176606</v>
       </c>
       <c r="D76" t="n">
-        <v>0.186633</v>
+        <v>0.17909</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.222089</v>
+        <v>0.219481</v>
       </c>
       <c r="C77" t="n">
-        <v>0.179556</v>
+        <v>0.179297</v>
       </c>
       <c r="D77" t="n">
-        <v>0.185952</v>
+        <v>0.182255</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254535</v>
+        <v>0.222639</v>
       </c>
       <c r="C78" t="n">
-        <v>0.194646</v>
+        <v>0.184877</v>
       </c>
       <c r="D78" t="n">
-        <v>0.199497</v>
+        <v>0.178842</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.228414</v>
+        <v>0.221353</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193651</v>
+        <v>0.188593</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206688</v>
+        <v>0.190041</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.246645</v>
+        <v>0.226464</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246874</v>
+        <v>0.248156</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251825</v>
+        <v>0.251939</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.37385</v>
+        <v>0.360535</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25329</v>
+        <v>0.24018</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257573</v>
+        <v>0.227355</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372426</v>
+        <v>0.359773</v>
       </c>
       <c r="C82" t="n">
-        <v>0.256826</v>
+        <v>0.256984</v>
       </c>
       <c r="D82" t="n">
-        <v>0.253439</v>
+        <v>0.227551</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.370351</v>
+        <v>0.364455</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255626</v>
+        <v>0.25073</v>
       </c>
       <c r="D83" t="n">
-        <v>0.260452</v>
+        <v>0.227873</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.371959</v>
+        <v>0.364779</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244592</v>
+        <v>0.23899</v>
       </c>
       <c r="D84" t="n">
-        <v>0.256017</v>
+        <v>0.248367</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.374652</v>
+        <v>0.365601</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24192</v>
+        <v>0.241068</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251636</v>
+        <v>0.245582</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371427</v>
+        <v>0.367497</v>
       </c>
       <c r="C86" t="n">
-        <v>0.252784</v>
+        <v>0.247136</v>
       </c>
       <c r="D86" t="n">
-        <v>0.232208</v>
+        <v>0.247114</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.376075</v>
+        <v>0.365119</v>
       </c>
       <c r="C87" t="n">
-        <v>0.254906</v>
+        <v>0.248058</v>
       </c>
       <c r="D87" t="n">
-        <v>0.233608</v>
+        <v>0.24746</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378685</v>
+        <v>0.368946</v>
       </c>
       <c r="C88" t="n">
-        <v>0.254382</v>
+        <v>0.24294</v>
       </c>
       <c r="D88" t="n">
-        <v>0.251011</v>
+        <v>0.246749</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.380775</v>
+        <v>0.369795</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242774</v>
+        <v>0.242158</v>
       </c>
       <c r="D89" t="n">
-        <v>0.250189</v>
+        <v>0.244414</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.381096</v>
+        <v>0.37107</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238751</v>
+        <v>0.236267</v>
       </c>
       <c r="D90" t="n">
-        <v>0.246357</v>
+        <v>0.252627</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.380368</v>
+        <v>0.37659</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246427</v>
+        <v>0.245623</v>
       </c>
       <c r="D91" t="n">
-        <v>0.251871</v>
+        <v>0.246342</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.38579</v>
+        <v>0.374964</v>
       </c>
       <c r="C92" t="n">
-        <v>0.258493</v>
+        <v>0.240052</v>
       </c>
       <c r="D92" t="n">
-        <v>0.252665</v>
+        <v>0.251181</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.390637</v>
+        <v>0.382845</v>
       </c>
       <c r="C93" t="n">
-        <v>0.267616</v>
+        <v>0.242169</v>
       </c>
       <c r="D93" t="n">
-        <v>0.25674</v>
+        <v>0.254432</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.398008</v>
+        <v>0.389678</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410849</v>
+        <v>0.410346</v>
       </c>
       <c r="D94" t="n">
-        <v>0.415038</v>
+        <v>0.411961</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.53382</v>
+        <v>0.533267</v>
       </c>
       <c r="C95" t="n">
-        <v>0.410564</v>
+        <v>0.409519</v>
       </c>
       <c r="D95" t="n">
-        <v>0.413455</v>
+        <v>0.411558</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.534494</v>
+        <v>0.533832</v>
       </c>
       <c r="C96" t="n">
-        <v>0.409466</v>
+        <v>0.410663</v>
       </c>
       <c r="D96" t="n">
-        <v>0.412336</v>
+        <v>0.412165</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5348309999999999</v>
+        <v>0.533464</v>
       </c>
       <c r="C97" t="n">
-        <v>0.395953</v>
+        <v>0.396571</v>
       </c>
       <c r="D97" t="n">
-        <v>0.411719</v>
+        <v>0.408301</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.534238</v>
+        <v>0.534682</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409021</v>
+        <v>0.394498</v>
       </c>
       <c r="D98" t="n">
-        <v>0.412067</v>
+        <v>0.409661</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.536792</v>
+        <v>0.535463</v>
       </c>
       <c r="C99" t="n">
-        <v>0.409559</v>
+        <v>0.394729</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3985</v>
+        <v>0.408804</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.536556</v>
+        <v>0.536237</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409257</v>
+        <v>0.408272</v>
       </c>
       <c r="D100" t="n">
-        <v>0.398797</v>
+        <v>0.412166</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.538967</v>
+        <v>0.537175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.393665</v>
+        <v>0.407773</v>
       </c>
       <c r="D101" t="n">
-        <v>0.408304</v>
+        <v>0.396654</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.539295</v>
+        <v>0.538181</v>
       </c>
       <c r="C102" t="n">
-        <v>0.406984</v>
+        <v>0.39639</v>
       </c>
       <c r="D102" t="n">
-        <v>0.411213</v>
+        <v>0.411402</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.541025</v>
+        <v>0.539828</v>
       </c>
       <c r="C103" t="n">
-        <v>0.409205</v>
+        <v>0.396285</v>
       </c>
       <c r="D103" t="n">
-        <v>0.409886</v>
+        <v>0.411234</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.541853</v>
+        <v>0.5424020000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.397004</v>
+        <v>0.410598</v>
       </c>
       <c r="D104" t="n">
-        <v>0.411484</v>
+        <v>0.412239</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.54513</v>
+        <v>0.546279</v>
       </c>
       <c r="C105" t="n">
-        <v>0.413652</v>
+        <v>0.413504</v>
       </c>
       <c r="D105" t="n">
-        <v>0.416048</v>
+        <v>0.417232</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551737</v>
+        <v>0.55045</v>
       </c>
       <c r="C106" t="n">
-        <v>0.403572</v>
+        <v>0.417663</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416961</v>
+        <v>0.419273</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.55481</v>
+        <v>0.554994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.409058</v>
+        <v>0.408736</v>
       </c>
       <c r="D107" t="n">
-        <v>0.413302</v>
+        <v>0.412331</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.562182</v>
+        <v>0.561684</v>
       </c>
       <c r="C108" t="n">
-        <v>0.545659</v>
+        <v>0.540337</v>
       </c>
       <c r="D108" t="n">
-        <v>0.537649</v>
+        <v>0.541806</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.573518</v>
+        <v>0.573125</v>
       </c>
       <c r="C109" t="n">
-        <v>0.545287</v>
+        <v>0.547347</v>
       </c>
       <c r="D109" t="n">
-        <v>0.545301</v>
+        <v>0.547011</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.615266</v>
+        <v>0.612762</v>
       </c>
       <c r="C110" t="n">
-        <v>0.548812</v>
+        <v>0.55028</v>
       </c>
       <c r="D110" t="n">
-        <v>0.547244</v>
+        <v>0.5458730000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.612417</v>
+        <v>0.615056</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5476839999999999</v>
+        <v>0.547391</v>
       </c>
       <c r="D111" t="n">
-        <v>0.53908</v>
+        <v>0.538875</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.615283</v>
+        <v>0.6151</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5495370000000001</v>
+        <v>0.550069</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5403480000000001</v>
+        <v>0.552162</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.613312</v>
+        <v>0.616577</v>
       </c>
       <c r="C113" t="n">
-        <v>0.547821</v>
+        <v>0.548426</v>
       </c>
       <c r="D113" t="n">
-        <v>0.549996</v>
+        <v>0.552034</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.616414</v>
+        <v>0.617545</v>
       </c>
       <c r="C114" t="n">
-        <v>0.544907</v>
+        <v>0.548309</v>
       </c>
       <c r="D114" t="n">
-        <v>0.552033</v>
+        <v>0.552356</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.618669</v>
+        <v>0.618927</v>
       </c>
       <c r="C115" t="n">
-        <v>0.547532</v>
+        <v>0.5510699999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.551369</v>
+        <v>0.549718</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6221370000000001</v>
+        <v>0.618217</v>
       </c>
       <c r="C116" t="n">
-        <v>0.546667</v>
+        <v>0.552092</v>
       </c>
       <c r="D116" t="n">
-        <v>0.553137</v>
+        <v>0.555142</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.62252</v>
+        <v>0.6217</v>
       </c>
       <c r="C117" t="n">
-        <v>0.556541</v>
+        <v>0.554212</v>
       </c>
       <c r="D117" t="n">
-        <v>0.55413</v>
+        <v>0.555157</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626508</v>
+        <v>0.626741</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5578920000000001</v>
+        <v>0.553745</v>
       </c>
       <c r="D118" t="n">
-        <v>0.556</v>
+        <v>0.556898</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.627337</v>
+        <v>0.629511</v>
       </c>
       <c r="C119" t="n">
-        <v>0.559735</v>
+        <v>0.555746</v>
       </c>
       <c r="D119" t="n">
-        <v>0.557786</v>
+        <v>0.561369</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.631997</v>
+        <v>0.632323</v>
       </c>
       <c r="C120" t="n">
-        <v>0.561281</v>
+        <v>0.5645019999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5646910000000001</v>
+        <v>0.565145</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.641967</v>
+        <v>0.642796</v>
       </c>
       <c r="C121" t="n">
-        <v>0.564496</v>
+        <v>0.567618</v>
       </c>
       <c r="D121" t="n">
-        <v>0.562105</v>
+        <v>0.560117</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.650871</v>
+        <v>0.649464</v>
       </c>
       <c r="C122" t="n">
-        <v>0.576094</v>
+        <v>0.576976</v>
       </c>
       <c r="D122" t="n">
-        <v>0.58035</v>
+        <v>0.579647</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.662664</v>
+        <v>0.66322</v>
       </c>
       <c r="C123" t="n">
-        <v>0.721973</v>
+        <v>0.718209</v>
       </c>
       <c r="D123" t="n">
-        <v>0.722301</v>
+        <v>0.715209</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.764803</v>
+        <v>0.75934</v>
       </c>
       <c r="C124" t="n">
-        <v>0.715985</v>
+        <v>0.722297</v>
       </c>
       <c r="D124" t="n">
-        <v>0.714333</v>
+        <v>0.715318</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7636540000000001</v>
+        <v>0.762315</v>
       </c>
       <c r="C125" t="n">
-        <v>0.71866</v>
+        <v>0.720433</v>
       </c>
       <c r="D125" t="n">
-        <v>0.71802</v>
+        <v>0.71715</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.763448</v>
+        <v>0.758404</v>
       </c>
       <c r="C126" t="n">
-        <v>0.720503</v>
+        <v>0.718962</v>
       </c>
       <c r="D126" t="n">
-        <v>0.719186</v>
+        <v>0.714292</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.765423</v>
+        <v>0.76115</v>
       </c>
       <c r="C127" t="n">
-        <v>0.721129</v>
+        <v>0.7233039999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.720062</v>
+        <v>0.713413</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.766016</v>
+        <v>0.764757</v>
       </c>
       <c r="C128" t="n">
-        <v>0.723342</v>
+        <v>0.721738</v>
       </c>
       <c r="D128" t="n">
-        <v>0.719105</v>
+        <v>0.71933</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765051</v>
+        <v>0.765886</v>
       </c>
       <c r="C129" t="n">
-        <v>0.722698</v>
+        <v>0.72046</v>
       </c>
       <c r="D129" t="n">
-        <v>0.720311</v>
+        <v>0.722157</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.768277</v>
+        <v>0.76737</v>
       </c>
       <c r="C130" t="n">
-        <v>0.72715</v>
+        <v>0.727387</v>
       </c>
       <c r="D130" t="n">
-        <v>0.722428</v>
+        <v>0.72521</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.773515</v>
+        <v>0.769421</v>
       </c>
       <c r="C131" t="n">
-        <v>0.727282</v>
+        <v>0.726757</v>
       </c>
       <c r="D131" t="n">
-        <v>0.729011</v>
+        <v>0.725512</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.776312</v>
+        <v>0.772124</v>
       </c>
       <c r="C132" t="n">
-        <v>0.729961</v>
+        <v>0.725417</v>
       </c>
       <c r="D132" t="n">
-        <v>0.72792</v>
+        <v>0.726592</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.780661</v>
+        <v>0.77361</v>
       </c>
       <c r="C133" t="n">
-        <v>0.733518</v>
+        <v>0.731641</v>
       </c>
       <c r="D133" t="n">
-        <v>0.730746</v>
+        <v>0.730286</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.782465</v>
+        <v>0.778127</v>
       </c>
       <c r="C134" t="n">
-        <v>0.737628</v>
+        <v>0.735937</v>
       </c>
       <c r="D134" t="n">
-        <v>0.735739</v>
+        <v>0.733028</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.789345</v>
+        <v>0.78794</v>
       </c>
       <c r="C135" t="n">
-        <v>0.740048</v>
+        <v>0.743351</v>
       </c>
       <c r="D135" t="n">
-        <v>0.739493</v>
+        <v>0.740569</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.801098</v>
+        <v>0.795191</v>
       </c>
       <c r="C136" t="n">
-        <v>0.750764</v>
+        <v>0.747996</v>
       </c>
       <c r="D136" t="n">
-        <v>0.747098</v>
+        <v>0.74807</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.811086</v>
+        <v>0.811847</v>
       </c>
       <c r="C137" t="n">
-        <v>0.849664</v>
+        <v>0.847128</v>
       </c>
       <c r="D137" t="n">
-        <v>0.848934</v>
+        <v>0.847997</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.88669</v>
+        <v>0.879942</v>
       </c>
       <c r="C138" t="n">
-        <v>0.848133</v>
+        <v>0.848162</v>
       </c>
       <c r="D138" t="n">
-        <v>0.849671</v>
+        <v>0.849538</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.886636</v>
+        <v>0.880993</v>
       </c>
       <c r="C139" t="n">
-        <v>0.850735</v>
+        <v>0.8503500000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8497130000000001</v>
+        <v>0.848502</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.882045</v>
+        <v>0.887246</v>
       </c>
       <c r="C140" t="n">
-        <v>0.849797</v>
+        <v>0.846175</v>
       </c>
       <c r="D140" t="n">
-        <v>0.849061</v>
+        <v>0.849129</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.887744</v>
+        <v>0.8871289999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.849371</v>
+        <v>0.8507749999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.848459</v>
+        <v>0.8497400000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8833490000000001</v>
+        <v>0.88829</v>
       </c>
       <c r="C142" t="n">
-        <v>0.850485</v>
+        <v>0.850534</v>
       </c>
       <c r="D142" t="n">
-        <v>0.850421</v>
+        <v>0.851416</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.889244</v>
+        <v>0.889443</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8516550000000001</v>
+        <v>0.848715</v>
       </c>
       <c r="D143" t="n">
-        <v>0.851316</v>
+        <v>0.851419</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115662</v>
+        <v>0.119406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113094</v>
+        <v>0.11514</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113106</v>
+        <v>0.11478</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116624</v>
+        <v>0.11756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113477</v>
+        <v>0.114412</v>
       </c>
       <c r="D3" t="n">
-        <v>0.113323</v>
+        <v>0.113963</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117306</v>
+        <v>0.117839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114037</v>
+        <v>0.114109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114057</v>
+        <v>0.114341</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117273</v>
+        <v>0.119283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114074</v>
+        <v>0.114623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11388</v>
+        <v>0.114603</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118882</v>
+        <v>0.121017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11448</v>
+        <v>0.115021</v>
       </c>
       <c r="D6" t="n">
-        <v>0.114678</v>
+        <v>0.115176</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123217</v>
+        <v>0.125699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115474</v>
+        <v>0.116237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.115769</v>
+        <v>0.116382</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.129424</v>
+        <v>0.1312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117183</v>
+        <v>0.117971</v>
       </c>
       <c r="D8" t="n">
-        <v>0.117463</v>
+        <v>0.11802</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139971</v>
+        <v>0.141461</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122652</v>
+        <v>0.1244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.118811</v>
+        <v>0.119819</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124559</v>
+        <v>0.125567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.118582</v>
+        <v>0.12288</v>
       </c>
       <c r="D10" t="n">
-        <v>0.11988</v>
+        <v>0.119762</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124502</v>
+        <v>0.125748</v>
       </c>
       <c r="C11" t="n">
-        <v>0.118831</v>
+        <v>0.1249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119517</v>
+        <v>0.119795</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124907</v>
+        <v>0.126625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119722</v>
+        <v>0.12038</v>
       </c>
       <c r="D12" t="n">
-        <v>0.119787</v>
+        <v>0.12086</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125585</v>
+        <v>0.127755</v>
       </c>
       <c r="C13" t="n">
-        <v>0.119713</v>
+        <v>0.125699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.12107</v>
+        <v>0.121023</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125921</v>
+        <v>0.128663</v>
       </c>
       <c r="C14" t="n">
-        <v>0.120517</v>
+        <v>0.124752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.120842</v>
+        <v>0.120821</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126564</v>
+        <v>0.129779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.121253</v>
+        <v>0.124161</v>
       </c>
       <c r="D15" t="n">
-        <v>0.121082</v>
+        <v>0.121983</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127132</v>
+        <v>0.129496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121031</v>
+        <v>0.122102</v>
       </c>
       <c r="D16" t="n">
-        <v>0.121533</v>
+        <v>0.121506</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128306</v>
+        <v>0.130249</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121234</v>
+        <v>0.121986</v>
       </c>
       <c r="D17" t="n">
-        <v>0.121775</v>
+        <v>0.12211</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130111</v>
+        <v>0.141936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122531</v>
+        <v>0.122501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.122242</v>
+        <v>0.12275</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131933</v>
+        <v>0.133198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.124594</v>
+        <v>0.122822</v>
       </c>
       <c r="D19" t="n">
-        <v>0.122776</v>
+        <v>0.123119</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.135492</v>
+        <v>0.137735</v>
       </c>
       <c r="C20" t="n">
-        <v>0.123149</v>
+        <v>0.12329</v>
       </c>
       <c r="D20" t="n">
-        <v>0.123374</v>
+        <v>0.123703</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140416</v>
+        <v>0.141796</v>
       </c>
       <c r="C21" t="n">
-        <v>0.124951</v>
+        <v>0.125663</v>
       </c>
       <c r="D21" t="n">
-        <v>0.125233</v>
+        <v>0.125153</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.149857</v>
+        <v>0.151233</v>
       </c>
       <c r="C22" t="n">
-        <v>0.129378</v>
+        <v>0.130455</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129571</v>
+        <v>0.135917</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159164</v>
+        <v>0.160239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.139023</v>
+        <v>0.132402</v>
       </c>
       <c r="D23" t="n">
-        <v>0.130874</v>
+        <v>0.127619</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.145182</v>
+        <v>0.133768</v>
       </c>
       <c r="C24" t="n">
-        <v>0.136731</v>
+        <v>0.127258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.129822</v>
+        <v>0.12995</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.137563</v>
+        <v>0.134668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133349</v>
+        <v>0.131279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.129213</v>
+        <v>0.134214</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.13969</v>
+        <v>0.13538</v>
       </c>
       <c r="C26" t="n">
-        <v>0.134576</v>
+        <v>0.127915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.129749</v>
+        <v>0.13578</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136726</v>
+        <v>0.135765</v>
       </c>
       <c r="C27" t="n">
-        <v>0.134193</v>
+        <v>0.130936</v>
       </c>
       <c r="D27" t="n">
-        <v>0.128786</v>
+        <v>0.127884</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134493</v>
+        <v>0.136808</v>
       </c>
       <c r="C28" t="n">
-        <v>0.132155</v>
+        <v>0.131291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.129031</v>
+        <v>0.127883</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13823</v>
+        <v>0.142191</v>
       </c>
       <c r="C29" t="n">
         <v>0.132365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.128728</v>
+        <v>0.129406</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138693</v>
+        <v>0.138028</v>
       </c>
       <c r="C30" t="n">
-        <v>0.13001</v>
+        <v>0.13619</v>
       </c>
       <c r="D30" t="n">
-        <v>0.128528</v>
+        <v>0.134562</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.137476</v>
+        <v>0.146154</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131917</v>
+        <v>0.135231</v>
       </c>
       <c r="D31" t="n">
-        <v>0.128802</v>
+        <v>0.132023</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140505</v>
+        <v>0.141079</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13144</v>
+        <v>0.129976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129221</v>
+        <v>0.129162</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.141967</v>
+        <v>0.144389</v>
       </c>
       <c r="C33" t="n">
-        <v>0.130219</v>
+        <v>0.131357</v>
       </c>
       <c r="D33" t="n">
-        <v>0.12989</v>
+        <v>0.135953</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.146586</v>
+        <v>0.147974</v>
       </c>
       <c r="C34" t="n">
-        <v>0.131047</v>
+        <v>0.131255</v>
       </c>
       <c r="D34" t="n">
-        <v>0.131063</v>
+        <v>0.135794</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151193</v>
+        <v>0.156621</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134726</v>
+        <v>0.142215</v>
       </c>
       <c r="D35" t="n">
-        <v>0.13468</v>
+        <v>0.142016</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.157306</v>
+        <v>0.158195</v>
       </c>
       <c r="C36" t="n">
-        <v>0.144005</v>
+        <v>0.149615</v>
       </c>
       <c r="D36" t="n">
-        <v>0.142608</v>
+        <v>0.145593</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166003</v>
+        <v>0.165881</v>
       </c>
       <c r="C37" t="n">
-        <v>0.136616</v>
+        <v>0.142545</v>
       </c>
       <c r="D37" t="n">
-        <v>0.139094</v>
+        <v>0.144106</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147048</v>
+        <v>0.148404</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140469</v>
+        <v>0.140746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.140777</v>
+        <v>0.148439</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148411</v>
+        <v>0.146401</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138812</v>
+        <v>0.138945</v>
       </c>
       <c r="D39" t="n">
-        <v>0.139286</v>
+        <v>0.147784</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147753</v>
+        <v>0.148214</v>
       </c>
       <c r="C40" t="n">
-        <v>0.138245</v>
+        <v>0.141363</v>
       </c>
       <c r="D40" t="n">
-        <v>0.140607</v>
+        <v>0.141072</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146523</v>
+        <v>0.148588</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140147</v>
+        <v>0.140786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.140982</v>
+        <v>0.14252</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149331</v>
+        <v>0.149303</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139733</v>
+        <v>0.148147</v>
       </c>
       <c r="D42" t="n">
-        <v>0.140422</v>
+        <v>0.149122</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.146837</v>
+        <v>0.150358</v>
       </c>
       <c r="C43" t="n">
-        <v>0.138985</v>
+        <v>0.143966</v>
       </c>
       <c r="D43" t="n">
-        <v>0.140141</v>
+        <v>0.140403</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151188</v>
+        <v>0.152904</v>
       </c>
       <c r="C44" t="n">
-        <v>0.141857</v>
+        <v>0.142223</v>
       </c>
       <c r="D44" t="n">
-        <v>0.141147</v>
+        <v>0.147825</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153658</v>
+        <v>0.154045</v>
       </c>
       <c r="C45" t="n">
-        <v>0.14184</v>
+        <v>0.141422</v>
       </c>
       <c r="D45" t="n">
-        <v>0.139808</v>
+        <v>0.143399</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.152404</v>
+        <v>0.155071</v>
       </c>
       <c r="C46" t="n">
-        <v>0.141863</v>
+        <v>0.146056</v>
       </c>
       <c r="D46" t="n">
-        <v>0.14187</v>
+        <v>0.144497</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.153693</v>
+        <v>0.160496</v>
       </c>
       <c r="C47" t="n">
-        <v>0.141729</v>
+        <v>0.146038</v>
       </c>
       <c r="D47" t="n">
-        <v>0.143563</v>
+        <v>0.148042</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15989</v>
+        <v>0.158299</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145457</v>
+        <v>0.155429</v>
       </c>
       <c r="D48" t="n">
-        <v>0.14694</v>
+        <v>0.154402</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.163305</v>
+        <v>0.165148</v>
       </c>
       <c r="C49" t="n">
-        <v>0.149024</v>
+        <v>0.159551</v>
       </c>
       <c r="D49" t="n">
-        <v>0.150004</v>
+        <v>0.151985</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170842</v>
+        <v>0.170397</v>
       </c>
       <c r="C50" t="n">
-        <v>0.155776</v>
+        <v>0.159344</v>
       </c>
       <c r="D50" t="n">
-        <v>0.156112</v>
+        <v>0.164673</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178347</v>
+        <v>0.176251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151675</v>
+        <v>0.159639</v>
       </c>
       <c r="D51" t="n">
-        <v>0.15497</v>
+        <v>0.152789</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.191674</v>
+        <v>0.18868</v>
       </c>
       <c r="C52" t="n">
-        <v>0.161686</v>
+        <v>0.151776</v>
       </c>
       <c r="D52" t="n">
-        <v>0.154059</v>
+        <v>0.153366</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.163133</v>
+        <v>0.164308</v>
       </c>
       <c r="C53" t="n">
-        <v>0.154531</v>
+        <v>0.155824</v>
       </c>
       <c r="D53" t="n">
-        <v>0.158573</v>
+        <v>0.157856</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.165188</v>
+        <v>0.160745</v>
       </c>
       <c r="C54" t="n">
-        <v>0.155734</v>
+        <v>0.15819</v>
       </c>
       <c r="D54" t="n">
-        <v>0.157332</v>
+        <v>0.155801</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.166142</v>
+        <v>0.164945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.156918</v>
+        <v>0.155859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158205</v>
+        <v>0.160283</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.169028</v>
+        <v>0.165768</v>
       </c>
       <c r="C56" t="n">
-        <v>0.158556</v>
+        <v>0.162822</v>
       </c>
       <c r="D56" t="n">
-        <v>0.158676</v>
+        <v>0.158693</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.167747</v>
+        <v>0.16764</v>
       </c>
       <c r="C57" t="n">
-        <v>0.154854</v>
+        <v>0.156242</v>
       </c>
       <c r="D57" t="n">
-        <v>0.160477</v>
+        <v>0.158967</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.166519</v>
+        <v>0.166988</v>
       </c>
       <c r="C58" t="n">
-        <v>0.156788</v>
+        <v>0.157824</v>
       </c>
       <c r="D58" t="n">
-        <v>0.15874</v>
+        <v>0.167681</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.172891</v>
+        <v>0.163163</v>
       </c>
       <c r="C59" t="n">
-        <v>0.156242</v>
+        <v>0.156356</v>
       </c>
       <c r="D59" t="n">
-        <v>0.158669</v>
+        <v>0.159767</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168406</v>
+        <v>0.171427</v>
       </c>
       <c r="C60" t="n">
-        <v>0.161028</v>
+        <v>0.162121</v>
       </c>
       <c r="D60" t="n">
-        <v>0.160516</v>
+        <v>0.160803</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.176413</v>
+        <v>0.172496</v>
       </c>
       <c r="C61" t="n">
-        <v>0.161636</v>
+        <v>0.161556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.163293</v>
+        <v>0.171138</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.176264</v>
+        <v>0.175028</v>
       </c>
       <c r="C62" t="n">
-        <v>0.163036</v>
+        <v>0.164358</v>
       </c>
       <c r="D62" t="n">
-        <v>0.165029</v>
+        <v>0.164934</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17924</v>
+        <v>0.180365</v>
       </c>
       <c r="C63" t="n">
-        <v>0.165952</v>
+        <v>0.172801</v>
       </c>
       <c r="D63" t="n">
-        <v>0.169603</v>
+        <v>0.178596</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194222</v>
+        <v>0.179788</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170577</v>
+        <v>0.167171</v>
       </c>
       <c r="D64" t="n">
-        <v>0.172573</v>
+        <v>0.174914</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193884</v>
+        <v>0.186436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.178081</v>
+        <v>0.175567</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180144</v>
+        <v>0.185497</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198041</v>
+        <v>0.20171</v>
       </c>
       <c r="C66" t="n">
-        <v>0.169689</v>
+        <v>0.167578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.177574</v>
+        <v>0.17893</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.20167</v>
+        <v>0.206068</v>
       </c>
       <c r="C67" t="n">
-        <v>0.170432</v>
+        <v>0.184041</v>
       </c>
       <c r="D67" t="n">
-        <v>0.174527</v>
+        <v>0.191058</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.206367</v>
+        <v>0.207822</v>
       </c>
       <c r="C68" t="n">
-        <v>0.17697</v>
+        <v>0.178057</v>
       </c>
       <c r="D68" t="n">
-        <v>0.17406</v>
+        <v>0.181473</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.21041</v>
+        <v>0.207434</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175804</v>
+        <v>0.17861</v>
       </c>
       <c r="D69" t="n">
-        <v>0.179918</v>
+        <v>0.180846</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.212471</v>
+        <v>0.220622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.173767</v>
+        <v>0.175907</v>
       </c>
       <c r="D70" t="n">
-        <v>0.181442</v>
+        <v>0.19425</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.209149</v>
+        <v>0.233441</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177883</v>
+        <v>0.177784</v>
       </c>
       <c r="D71" t="n">
-        <v>0.179</v>
+        <v>0.183935</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205978</v>
+        <v>0.22487</v>
       </c>
       <c r="C72" t="n">
-        <v>0.172501</v>
+        <v>0.181004</v>
       </c>
       <c r="D72" t="n">
-        <v>0.179477</v>
+        <v>0.192179</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.209309</v>
+        <v>0.234411</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174999</v>
+        <v>0.18181</v>
       </c>
       <c r="D73" t="n">
-        <v>0.177169</v>
+        <v>0.185913</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.216313</v>
+        <v>0.227482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.177915</v>
+        <v>0.185857</v>
       </c>
       <c r="D74" t="n">
-        <v>0.179996</v>
+        <v>0.187939</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210399</v>
+        <v>0.23151</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174843</v>
+        <v>0.187115</v>
       </c>
       <c r="D75" t="n">
-        <v>0.176773</v>
+        <v>0.184749</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211486</v>
+        <v>0.196491</v>
       </c>
       <c r="C76" t="n">
-        <v>0.176606</v>
+        <v>0.184826</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17909</v>
+        <v>0.192343</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.219481</v>
+        <v>0.224154</v>
       </c>
       <c r="C77" t="n">
-        <v>0.179297</v>
+        <v>0.186566</v>
       </c>
       <c r="D77" t="n">
-        <v>0.182255</v>
+        <v>0.188515</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.222639</v>
+        <v>0.227879</v>
       </c>
       <c r="C78" t="n">
-        <v>0.184877</v>
+        <v>0.181947</v>
       </c>
       <c r="D78" t="n">
-        <v>0.178842</v>
+        <v>0.199258</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.221353</v>
+        <v>0.208386</v>
       </c>
       <c r="C79" t="n">
-        <v>0.188593</v>
+        <v>0.191942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.190041</v>
+        <v>0.197627</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.226464</v>
+        <v>0.220789</v>
       </c>
       <c r="C80" t="n">
-        <v>0.248156</v>
+        <v>0.257508</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251939</v>
+        <v>0.25155</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.360535</v>
+        <v>0.370743</v>
       </c>
       <c r="C81" t="n">
-        <v>0.24018</v>
+        <v>0.25278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227355</v>
+        <v>0.258889</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.359773</v>
+        <v>0.372075</v>
       </c>
       <c r="C82" t="n">
-        <v>0.256984</v>
+        <v>0.253655</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227551</v>
+        <v>0.26535</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364455</v>
+        <v>0.371111</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25073</v>
+        <v>0.246063</v>
       </c>
       <c r="D83" t="n">
-        <v>0.227873</v>
+        <v>0.268891</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364779</v>
+        <v>0.372924</v>
       </c>
       <c r="C84" t="n">
-        <v>0.23899</v>
+        <v>0.2555</v>
       </c>
       <c r="D84" t="n">
-        <v>0.248367</v>
+        <v>0.262527</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.365601</v>
+        <v>0.37259</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241068</v>
+        <v>0.260374</v>
       </c>
       <c r="D85" t="n">
-        <v>0.245582</v>
+        <v>0.260724</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367497</v>
+        <v>0.374813</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247136</v>
+        <v>0.252008</v>
       </c>
       <c r="D86" t="n">
-        <v>0.247114</v>
+        <v>0.263523</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.365119</v>
+        <v>0.374687</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248058</v>
+        <v>0.25126</v>
       </c>
       <c r="D87" t="n">
-        <v>0.24746</v>
+        <v>0.262563</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.368946</v>
+        <v>0.373351</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24294</v>
+        <v>0.247839</v>
       </c>
       <c r="D88" t="n">
-        <v>0.246749</v>
+        <v>0.249191</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.369795</v>
+        <v>0.378689</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242158</v>
+        <v>0.256897</v>
       </c>
       <c r="D89" t="n">
-        <v>0.244414</v>
+        <v>0.252961</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.37107</v>
+        <v>0.378452</v>
       </c>
       <c r="C90" t="n">
-        <v>0.236267</v>
+        <v>0.257384</v>
       </c>
       <c r="D90" t="n">
-        <v>0.252627</v>
+        <v>0.256134</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37659</v>
+        <v>0.382625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.245623</v>
+        <v>0.250221</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246342</v>
+        <v>0.250372</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.374964</v>
+        <v>0.384488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240052</v>
+        <v>0.260984</v>
       </c>
       <c r="D92" t="n">
-        <v>0.251181</v>
+        <v>0.251432</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382845</v>
+        <v>0.397072</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242169</v>
+        <v>0.254342</v>
       </c>
       <c r="D93" t="n">
-        <v>0.254432</v>
+        <v>0.246219</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389678</v>
+        <v>0.393961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410346</v>
+        <v>0.412614</v>
       </c>
       <c r="D94" t="n">
-        <v>0.411961</v>
+        <v>0.411856</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.533267</v>
+        <v>0.536482</v>
       </c>
       <c r="C95" t="n">
-        <v>0.409519</v>
+        <v>0.411986</v>
       </c>
       <c r="D95" t="n">
-        <v>0.411558</v>
+        <v>0.413413</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.533832</v>
+        <v>0.53756</v>
       </c>
       <c r="C96" t="n">
-        <v>0.410663</v>
+        <v>0.411375</v>
       </c>
       <c r="D96" t="n">
-        <v>0.412165</v>
+        <v>0.398967</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.533464</v>
+        <v>0.537726</v>
       </c>
       <c r="C97" t="n">
-        <v>0.396571</v>
+        <v>0.41989</v>
       </c>
       <c r="D97" t="n">
-        <v>0.408301</v>
+        <v>0.411669</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.534682</v>
+        <v>0.537839</v>
       </c>
       <c r="C98" t="n">
-        <v>0.394498</v>
+        <v>0.4154</v>
       </c>
       <c r="D98" t="n">
-        <v>0.409661</v>
+        <v>0.397758</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.535463</v>
+        <v>0.5394330000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.394729</v>
+        <v>0.395771</v>
       </c>
       <c r="D99" t="n">
-        <v>0.408804</v>
+        <v>0.411187</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.536237</v>
+        <v>0.538878</v>
       </c>
       <c r="C100" t="n">
-        <v>0.408272</v>
+        <v>0.410105</v>
       </c>
       <c r="D100" t="n">
-        <v>0.412166</v>
+        <v>0.409774</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.537175</v>
+        <v>0.540203</v>
       </c>
       <c r="C101" t="n">
-        <v>0.407773</v>
+        <v>0.395137</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396654</v>
+        <v>0.398413</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.538181</v>
+        <v>0.540905</v>
       </c>
       <c r="C102" t="n">
-        <v>0.39639</v>
+        <v>0.40966</v>
       </c>
       <c r="D102" t="n">
-        <v>0.411402</v>
+        <v>0.40893</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.539828</v>
+        <v>0.542361</v>
       </c>
       <c r="C103" t="n">
-        <v>0.396285</v>
+        <v>0.409544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.411234</v>
+        <v>0.412432</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5424020000000001</v>
+        <v>0.544361</v>
       </c>
       <c r="C104" t="n">
-        <v>0.410598</v>
+        <v>0.411639</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412239</v>
+        <v>0.413256</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.546279</v>
+        <v>0.546597</v>
       </c>
       <c r="C105" t="n">
-        <v>0.413504</v>
+        <v>0.4156</v>
       </c>
       <c r="D105" t="n">
-        <v>0.417232</v>
+        <v>0.426191</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.55045</v>
+        <v>0.550538</v>
       </c>
       <c r="C106" t="n">
-        <v>0.417663</v>
+        <v>0.414462</v>
       </c>
       <c r="D106" t="n">
-        <v>0.419273</v>
+        <v>0.419962</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.554994</v>
+        <v>0.557272</v>
       </c>
       <c r="C107" t="n">
-        <v>0.408736</v>
+        <v>0.422454</v>
       </c>
       <c r="D107" t="n">
-        <v>0.412331</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.561684</v>
+        <v>0.569887</v>
       </c>
       <c r="C108" t="n">
-        <v>0.540337</v>
+        <v>0.550076</v>
       </c>
       <c r="D108" t="n">
-        <v>0.541806</v>
+        <v>0.552013</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.573125</v>
+        <v>0.575807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.547347</v>
+        <v>0.549496</v>
       </c>
       <c r="D109" t="n">
-        <v>0.547011</v>
+        <v>0.544276</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.612762</v>
+        <v>0.6175929999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.55028</v>
+        <v>0.550478</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5458730000000001</v>
+        <v>0.550466</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.615056</v>
+        <v>0.615746</v>
       </c>
       <c r="C111" t="n">
-        <v>0.547391</v>
+        <v>0.549405</v>
       </c>
       <c r="D111" t="n">
-        <v>0.538875</v>
+        <v>0.5534829999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6151</v>
+        <v>0.618801</v>
       </c>
       <c r="C112" t="n">
-        <v>0.550069</v>
+        <v>0.552641</v>
       </c>
       <c r="D112" t="n">
-        <v>0.552162</v>
+        <v>0.5500660000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.616577</v>
+        <v>0.616313</v>
       </c>
       <c r="C113" t="n">
-        <v>0.548426</v>
+        <v>0.549251</v>
       </c>
       <c r="D113" t="n">
-        <v>0.552034</v>
+        <v>0.554932</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.617545</v>
+        <v>0.619058</v>
       </c>
       <c r="C114" t="n">
-        <v>0.548309</v>
+        <v>0.5522820000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.552356</v>
+        <v>0.5571739999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.618927</v>
+        <v>0.621266</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5510699999999999</v>
+        <v>0.553754</v>
       </c>
       <c r="D115" t="n">
-        <v>0.549718</v>
+        <v>0.5568689999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.618217</v>
+        <v>0.622406</v>
       </c>
       <c r="C116" t="n">
-        <v>0.552092</v>
+        <v>0.565324</v>
       </c>
       <c r="D116" t="n">
-        <v>0.555142</v>
+        <v>0.559597</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6217</v>
+        <v>0.6261409999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.554212</v>
+        <v>0.556372</v>
       </c>
       <c r="D117" t="n">
-        <v>0.555157</v>
+        <v>0.560364</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626741</v>
+        <v>0.629434</v>
       </c>
       <c r="C118" t="n">
-        <v>0.553745</v>
+        <v>0.558815</v>
       </c>
       <c r="D118" t="n">
-        <v>0.556898</v>
+        <v>0.561406</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.629511</v>
+        <v>0.6335190000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.555746</v>
+        <v>0.560863</v>
       </c>
       <c r="D119" t="n">
-        <v>0.561369</v>
+        <v>0.5651929999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.632323</v>
+        <v>0.636405</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5645019999999999</v>
+        <v>0.564503</v>
       </c>
       <c r="D120" t="n">
-        <v>0.565145</v>
+        <v>0.5664400000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.642796</v>
+        <v>0.643203</v>
       </c>
       <c r="C121" t="n">
-        <v>0.567618</v>
+        <v>0.571882</v>
       </c>
       <c r="D121" t="n">
-        <v>0.560117</v>
+        <v>0.572416</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.649464</v>
+        <v>0.653846</v>
       </c>
       <c r="C122" t="n">
-        <v>0.576976</v>
+        <v>0.579599</v>
       </c>
       <c r="D122" t="n">
-        <v>0.579647</v>
+        <v>0.575032</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.66322</v>
+        <v>0.667629</v>
       </c>
       <c r="C123" t="n">
-        <v>0.718209</v>
+        <v>0.714205</v>
       </c>
       <c r="D123" t="n">
-        <v>0.715209</v>
+        <v>0.715324</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.75934</v>
+        <v>0.76058</v>
       </c>
       <c r="C124" t="n">
-        <v>0.722297</v>
+        <v>0.715132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.715318</v>
+        <v>0.715192</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.762315</v>
+        <v>0.762201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.720433</v>
+        <v>0.715245</v>
       </c>
       <c r="D125" t="n">
-        <v>0.71715</v>
+        <v>0.71519</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.758404</v>
+        <v>0.762516</v>
       </c>
       <c r="C126" t="n">
-        <v>0.718962</v>
+        <v>0.714765</v>
       </c>
       <c r="D126" t="n">
-        <v>0.714292</v>
+        <v>0.714641</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.76115</v>
+        <v>0.7611560000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7233039999999999</v>
+        <v>0.715957</v>
       </c>
       <c r="D127" t="n">
-        <v>0.713413</v>
+        <v>0.715036</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.764757</v>
+        <v>0.762772</v>
       </c>
       <c r="C128" t="n">
-        <v>0.721738</v>
+        <v>0.717611</v>
       </c>
       <c r="D128" t="n">
-        <v>0.71933</v>
+        <v>0.72004</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.765886</v>
+        <v>0.764365</v>
       </c>
       <c r="C129" t="n">
-        <v>0.72046</v>
+        <v>0.718998</v>
       </c>
       <c r="D129" t="n">
-        <v>0.722157</v>
+        <v>0.7159489999999999</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.76737</v>
+        <v>0.765922</v>
       </c>
       <c r="C130" t="n">
-        <v>0.727387</v>
+        <v>0.720692</v>
       </c>
       <c r="D130" t="n">
-        <v>0.72521</v>
+        <v>0.7208909999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.769421</v>
+        <v>0.767906</v>
       </c>
       <c r="C131" t="n">
-        <v>0.726757</v>
+        <v>0.722085</v>
       </c>
       <c r="D131" t="n">
-        <v>0.725512</v>
+        <v>0.7236</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.772124</v>
+        <v>0.773497</v>
       </c>
       <c r="C132" t="n">
-        <v>0.725417</v>
+        <v>0.725714</v>
       </c>
       <c r="D132" t="n">
-        <v>0.726592</v>
+        <v>0.72539</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.77361</v>
+        <v>0.774465</v>
       </c>
       <c r="C133" t="n">
-        <v>0.731641</v>
+        <v>0.729258</v>
       </c>
       <c r="D133" t="n">
-        <v>0.730286</v>
+        <v>0.7259330000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.778127</v>
+        <v>0.7796380000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.735937</v>
+        <v>0.731859</v>
       </c>
       <c r="D134" t="n">
-        <v>0.733028</v>
+        <v>0.735116</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.78794</v>
+        <v>0.788594</v>
       </c>
       <c r="C135" t="n">
-        <v>0.743351</v>
+        <v>0.7398940000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.740569</v>
+        <v>0.740934</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.795191</v>
+        <v>0.79528</v>
       </c>
       <c r="C136" t="n">
-        <v>0.747996</v>
+        <v>0.745771</v>
       </c>
       <c r="D136" t="n">
-        <v>0.74807</v>
+        <v>0.74559</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.811847</v>
+        <v>0.808322</v>
       </c>
       <c r="C137" t="n">
-        <v>0.847128</v>
+        <v>0.852305</v>
       </c>
       <c r="D137" t="n">
-        <v>0.847997</v>
+        <v>0.850698</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.879942</v>
+        <v>0.887965</v>
       </c>
       <c r="C138" t="n">
-        <v>0.848162</v>
+        <v>0.852055</v>
       </c>
       <c r="D138" t="n">
-        <v>0.849538</v>
+        <v>0.852787</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.880993</v>
+        <v>0.889529</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8503500000000001</v>
+        <v>0.852417</v>
       </c>
       <c r="D139" t="n">
-        <v>0.848502</v>
+        <v>0.853291</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.887246</v>
+        <v>0.890854</v>
       </c>
       <c r="C140" t="n">
-        <v>0.846175</v>
+        <v>0.855006</v>
       </c>
       <c r="D140" t="n">
-        <v>0.849129</v>
+        <v>0.853589</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8871289999999999</v>
+        <v>0.887532</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8507749999999999</v>
+        <v>0.854023</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8497400000000001</v>
+        <v>0.8529870000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.88829</v>
+        <v>0.891554</v>
       </c>
       <c r="C142" t="n">
-        <v>0.850534</v>
+        <v>0.854368</v>
       </c>
       <c r="D142" t="n">
-        <v>0.851416</v>
+        <v>0.855313</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.889443</v>
+        <v>0.893209</v>
       </c>
       <c r="C143" t="n">
-        <v>0.848715</v>
+        <v>0.856582</v>
       </c>
       <c r="D143" t="n">
-        <v>0.851419</v>
+        <v>0.854583</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.120669</v>
+        <v>0.116828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.101781</v>
+        <v>0.11402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.123772</v>
+        <v>0.133784</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120646</v>
+        <v>0.115194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.100771</v>
+        <v>0.113315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.132197</v>
+        <v>0.141607</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124487</v>
+        <v>0.116389</v>
       </c>
       <c r="C4" t="n">
-        <v>0.103106</v>
+        <v>0.11347</v>
       </c>
       <c r="D4" t="n">
-        <v>0.136921</v>
+        <v>0.146662</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12228</v>
+        <v>0.117824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.10125</v>
+        <v>0.114093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.146553</v>
+        <v>0.155026</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.126621</v>
+        <v>0.11903</v>
       </c>
       <c r="C6" t="n">
-        <v>0.103306</v>
+        <v>0.114412</v>
       </c>
       <c r="D6" t="n">
-        <v>0.153848</v>
+        <v>0.161178</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.132211</v>
+        <v>0.123792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.102459</v>
+        <v>0.115675</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122464</v>
+        <v>0.127964</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.136158</v>
+        <v>0.128252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105885</v>
+        <v>0.117124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.126873</v>
+        <v>0.131112</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.145502</v>
+        <v>0.139696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108064</v>
+        <v>0.117635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.133229</v>
+        <v>0.135821</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126904</v>
+        <v>0.127229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.110702</v>
+        <v>0.124378</v>
       </c>
       <c r="D10" t="n">
-        <v>0.136884</v>
+        <v>0.13962</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.13299</v>
+        <v>0.131911</v>
       </c>
       <c r="C11" t="n">
-        <v>0.111318</v>
+        <v>0.11828</v>
       </c>
       <c r="D11" t="n">
-        <v>0.139861</v>
+        <v>0.145252</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126616</v>
+        <v>0.125661</v>
       </c>
       <c r="C12" t="n">
-        <v>0.112908</v>
+        <v>0.122972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.144186</v>
+        <v>0.149551</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.129246</v>
+        <v>0.133052</v>
       </c>
       <c r="C13" t="n">
-        <v>0.110299</v>
+        <v>0.122371</v>
       </c>
       <c r="D13" t="n">
-        <v>0.150874</v>
+        <v>0.154806</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128224</v>
+        <v>0.125719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.110744</v>
+        <v>0.121311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.156404</v>
+        <v>0.159948</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129038</v>
+        <v>0.131718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.111987</v>
+        <v>0.12444</v>
       </c>
       <c r="D15" t="n">
-        <v>0.161557</v>
+        <v>0.167064</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128876</v>
+        <v>0.127584</v>
       </c>
       <c r="C16" t="n">
-        <v>0.112359</v>
+        <v>0.119402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167465</v>
+        <v>0.172477</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129213</v>
+        <v>0.128565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.110133</v>
+        <v>0.125057</v>
       </c>
       <c r="D17" t="n">
-        <v>0.172812</v>
+        <v>0.180063</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130931</v>
+        <v>0.138597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.113563</v>
+        <v>0.125271</v>
       </c>
       <c r="D18" t="n">
-        <v>0.180928</v>
+        <v>0.18544</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.140093</v>
+        <v>0.132746</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114326</v>
+        <v>0.121678</v>
       </c>
       <c r="D19" t="n">
-        <v>0.18447</v>
+        <v>0.189623</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.145171</v>
+        <v>0.141268</v>
       </c>
       <c r="C20" t="n">
-        <v>0.11297</v>
+        <v>0.128069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.191197</v>
+        <v>0.195617</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.14834</v>
+        <v>0.140167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.116585</v>
+        <v>0.128132</v>
       </c>
       <c r="D21" t="n">
-        <v>0.141886</v>
+        <v>0.14991</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.155653</v>
+        <v>0.147668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.120069</v>
+        <v>0.127727</v>
       </c>
       <c r="D22" t="n">
-        <v>0.147246</v>
+        <v>0.155488</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.168034</v>
+        <v>0.158135</v>
       </c>
       <c r="C23" t="n">
-        <v>0.117114</v>
+        <v>0.134027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.150543</v>
+        <v>0.159751</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.139398</v>
+        <v>0.141278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.121769</v>
+        <v>0.13896</v>
       </c>
       <c r="D24" t="n">
-        <v>0.155367</v>
+        <v>0.164878</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.140031</v>
+        <v>0.143475</v>
       </c>
       <c r="C25" t="n">
-        <v>0.120189</v>
+        <v>0.133862</v>
       </c>
       <c r="D25" t="n">
-        <v>0.158734</v>
+        <v>0.168179</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.143402</v>
+        <v>0.136374</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121227</v>
+        <v>0.139232</v>
       </c>
       <c r="D26" t="n">
-        <v>0.163276</v>
+        <v>0.174976</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135971</v>
+        <v>0.138899</v>
       </c>
       <c r="C27" t="n">
-        <v>0.118377</v>
+        <v>0.130423</v>
       </c>
       <c r="D27" t="n">
-        <v>0.165571</v>
+        <v>0.179219</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135648</v>
+        <v>0.138299</v>
       </c>
       <c r="C28" t="n">
-        <v>0.117624</v>
+        <v>0.131761</v>
       </c>
       <c r="D28" t="n">
-        <v>0.170802</v>
+        <v>0.184876</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.140579</v>
+        <v>0.139373</v>
       </c>
       <c r="C29" t="n">
-        <v>0.121803</v>
+        <v>0.131901</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176445</v>
+        <v>0.189059</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137054</v>
+        <v>0.139856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122394</v>
+        <v>0.131461</v>
       </c>
       <c r="D30" t="n">
-        <v>0.181703</v>
+        <v>0.19431</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139455</v>
+        <v>0.141782</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12257</v>
+        <v>0.12928</v>
       </c>
       <c r="D31" t="n">
-        <v>0.185907</v>
+        <v>0.198746</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.149593</v>
+        <v>0.140151</v>
       </c>
       <c r="C32" t="n">
-        <v>0.122784</v>
+        <v>0.131594</v>
       </c>
       <c r="D32" t="n">
-        <v>0.191453</v>
+        <v>0.203941</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144987</v>
+        <v>0.150847</v>
       </c>
       <c r="C33" t="n">
-        <v>0.123936</v>
+        <v>0.12986</v>
       </c>
       <c r="D33" t="n">
-        <v>0.195185</v>
+        <v>0.209345</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148029</v>
+        <v>0.149647</v>
       </c>
       <c r="C34" t="n">
-        <v>0.122115</v>
+        <v>0.131706</v>
       </c>
       <c r="D34" t="n">
-        <v>0.200005</v>
+        <v>0.213567</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153451</v>
+        <v>0.151727</v>
       </c>
       <c r="C35" t="n">
-        <v>0.132403</v>
+        <v>0.136468</v>
       </c>
       <c r="D35" t="n">
-        <v>0.155523</v>
+        <v>0.166703</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.158451</v>
+        <v>0.16759</v>
       </c>
       <c r="C36" t="n">
-        <v>0.137496</v>
+        <v>0.145973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.158433</v>
+        <v>0.171098</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166078</v>
+        <v>0.170362</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12843</v>
+        <v>0.144392</v>
       </c>
       <c r="D37" t="n">
-        <v>0.163347</v>
+        <v>0.175272</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.145988</v>
+        <v>0.147293</v>
       </c>
       <c r="C38" t="n">
-        <v>0.130749</v>
+        <v>0.138731</v>
       </c>
       <c r="D38" t="n">
-        <v>0.166759</v>
+        <v>0.178196</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150729</v>
+        <v>0.150627</v>
       </c>
       <c r="C39" t="n">
-        <v>0.131615</v>
+        <v>0.14575</v>
       </c>
       <c r="D39" t="n">
-        <v>0.170604</v>
+        <v>0.183411</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148918</v>
+        <v>0.148514</v>
       </c>
       <c r="C40" t="n">
-        <v>0.135452</v>
+        <v>0.142852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.173746</v>
+        <v>0.187651</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149029</v>
+        <v>0.149243</v>
       </c>
       <c r="C41" t="n">
-        <v>0.133578</v>
+        <v>0.140191</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177991</v>
+        <v>0.191631</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148303</v>
+        <v>0.150192</v>
       </c>
       <c r="C42" t="n">
-        <v>0.136378</v>
+        <v>0.150024</v>
       </c>
       <c r="D42" t="n">
-        <v>0.18263</v>
+        <v>0.196263</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149885</v>
+        <v>0.149044</v>
       </c>
       <c r="C43" t="n">
-        <v>0.134835</v>
+        <v>0.154163</v>
       </c>
       <c r="D43" t="n">
-        <v>0.188409</v>
+        <v>0.201531</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149279</v>
+        <v>0.152354</v>
       </c>
       <c r="C44" t="n">
-        <v>0.13638</v>
+        <v>0.144695</v>
       </c>
       <c r="D44" t="n">
-        <v>0.192713</v>
+        <v>0.206109</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154209</v>
+        <v>0.153061</v>
       </c>
       <c r="C45" t="n">
-        <v>0.136341</v>
+        <v>0.14379</v>
       </c>
       <c r="D45" t="n">
-        <v>0.197498</v>
+        <v>0.211261</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156312</v>
+        <v>0.156136</v>
       </c>
       <c r="C46" t="n">
-        <v>0.142531</v>
+        <v>0.153565</v>
       </c>
       <c r="D46" t="n">
-        <v>0.203637</v>
+        <v>0.217063</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156797</v>
+        <v>0.16123</v>
       </c>
       <c r="C47" t="n">
-        <v>0.137136</v>
+        <v>0.149665</v>
       </c>
       <c r="D47" t="n">
-        <v>0.208799</v>
+        <v>0.22274</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161803</v>
+        <v>0.162151</v>
       </c>
       <c r="C48" t="n">
-        <v>0.14506</v>
+        <v>0.156871</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213004</v>
+        <v>0.227344</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.163381</v>
+        <v>0.165748</v>
       </c>
       <c r="C49" t="n">
-        <v>0.147585</v>
+        <v>0.160923</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2179</v>
+        <v>0.231365</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.177465</v>
+        <v>0.174766</v>
       </c>
       <c r="C50" t="n">
-        <v>0.152033</v>
+        <v>0.164954</v>
       </c>
       <c r="D50" t="n">
-        <v>0.158597</v>
+        <v>0.172085</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.180616</v>
+        <v>0.181092</v>
       </c>
       <c r="C51" t="n">
-        <v>0.14249</v>
+        <v>0.158307</v>
       </c>
       <c r="D51" t="n">
-        <v>0.162161</v>
+        <v>0.176156</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189348</v>
+        <v>0.18427</v>
       </c>
       <c r="C52" t="n">
-        <v>0.150622</v>
+        <v>0.158816</v>
       </c>
       <c r="D52" t="n">
-        <v>0.165951</v>
+        <v>0.179906</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160529</v>
+        <v>0.159509</v>
       </c>
       <c r="C53" t="n">
-        <v>0.143618</v>
+        <v>0.164409</v>
       </c>
       <c r="D53" t="n">
-        <v>0.169739</v>
+        <v>0.183585</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160335</v>
+        <v>0.161176</v>
       </c>
       <c r="C54" t="n">
-        <v>0.144497</v>
+        <v>0.161665</v>
       </c>
       <c r="D54" t="n">
-        <v>0.173514</v>
+        <v>0.188469</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161078</v>
+        <v>0.164274</v>
       </c>
       <c r="C55" t="n">
-        <v>0.147843</v>
+        <v>0.164501</v>
       </c>
       <c r="D55" t="n">
-        <v>0.178014</v>
+        <v>0.192981</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162191</v>
+        <v>0.164274</v>
       </c>
       <c r="C56" t="n">
-        <v>0.142406</v>
+        <v>0.157483</v>
       </c>
       <c r="D56" t="n">
-        <v>0.182492</v>
+        <v>0.198264</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.164136</v>
+        <v>0.163014</v>
       </c>
       <c r="C57" t="n">
-        <v>0.144413</v>
+        <v>0.164372</v>
       </c>
       <c r="D57" t="n">
-        <v>0.187143</v>
+        <v>0.202299</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165368</v>
+        <v>0.163194</v>
       </c>
       <c r="C58" t="n">
-        <v>0.145939</v>
+        <v>0.157485</v>
       </c>
       <c r="D58" t="n">
-        <v>0.191905</v>
+        <v>0.207341</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166597</v>
+        <v>0.170028</v>
       </c>
       <c r="C59" t="n">
-        <v>0.147108</v>
+        <v>0.163872</v>
       </c>
       <c r="D59" t="n">
-        <v>0.196474</v>
+        <v>0.212833</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.169068</v>
+        <v>0.167034</v>
       </c>
       <c r="C60" t="n">
-        <v>0.148526</v>
+        <v>0.165201</v>
       </c>
       <c r="D60" t="n">
-        <v>0.201161</v>
+        <v>0.217259</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.17207</v>
+        <v>0.169504</v>
       </c>
       <c r="C61" t="n">
-        <v>0.151</v>
+        <v>0.172397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.207378</v>
+        <v>0.222749</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.17362</v>
+        <v>0.172166</v>
       </c>
       <c r="C62" t="n">
-        <v>0.16309</v>
+        <v>0.171717</v>
       </c>
       <c r="D62" t="n">
-        <v>0.211025</v>
+        <v>0.228895</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176945</v>
+        <v>0.183876</v>
       </c>
       <c r="C63" t="n">
-        <v>0.160373</v>
+        <v>0.16691</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216259</v>
+        <v>0.232677</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182473</v>
+        <v>0.180455</v>
       </c>
       <c r="C64" t="n">
-        <v>0.161066</v>
+        <v>0.18245</v>
       </c>
       <c r="D64" t="n">
-        <v>0.165878</v>
+        <v>0.180477</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187537</v>
+        <v>0.201213</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174336</v>
+        <v>0.187833</v>
       </c>
       <c r="D65" t="n">
-        <v>0.170683</v>
+        <v>0.184253</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.195633</v>
+        <v>0.208271</v>
       </c>
       <c r="C66" t="n">
-        <v>0.162369</v>
+        <v>0.178902</v>
       </c>
       <c r="D66" t="n">
-        <v>0.176588</v>
+        <v>0.190186</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.195881</v>
+        <v>0.18345</v>
       </c>
       <c r="C67" t="n">
-        <v>0.158608</v>
+        <v>0.179981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183682</v>
+        <v>0.195761</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.19008</v>
+        <v>0.204919</v>
       </c>
       <c r="C68" t="n">
-        <v>0.156992</v>
+        <v>0.180734</v>
       </c>
       <c r="D68" t="n">
-        <v>0.187053</v>
+        <v>0.200561</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.188178</v>
+        <v>0.216118</v>
       </c>
       <c r="C69" t="n">
-        <v>0.157008</v>
+        <v>0.187637</v>
       </c>
       <c r="D69" t="n">
-        <v>0.195099</v>
+        <v>0.208214</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.205557</v>
+        <v>0.211566</v>
       </c>
       <c r="C70" t="n">
-        <v>0.166682</v>
+        <v>0.182244</v>
       </c>
       <c r="D70" t="n">
-        <v>0.20044</v>
+        <v>0.215879</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188696</v>
+        <v>0.205361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.161002</v>
+        <v>0.174175</v>
       </c>
       <c r="D71" t="n">
-        <v>0.207726</v>
+        <v>0.219137</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.189082</v>
+        <v>0.22903</v>
       </c>
       <c r="C72" t="n">
-        <v>0.166698</v>
+        <v>0.181596</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214856</v>
+        <v>0.22945</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.19757</v>
+        <v>0.182377</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159618</v>
+        <v>0.172504</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224315</v>
+        <v>0.236581</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19047</v>
+        <v>0.201549</v>
       </c>
       <c r="C74" t="n">
-        <v>0.166965</v>
+        <v>0.181909</v>
       </c>
       <c r="D74" t="n">
-        <v>0.234003</v>
+        <v>0.246925</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200536</v>
+        <v>0.210908</v>
       </c>
       <c r="C75" t="n">
-        <v>0.168312</v>
+        <v>0.185288</v>
       </c>
       <c r="D75" t="n">
-        <v>0.241229</v>
+        <v>0.259534</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.202576</v>
+        <v>0.213872</v>
       </c>
       <c r="C76" t="n">
-        <v>0.17364</v>
+        <v>0.183352</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253199</v>
+        <v>0.272584</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199956</v>
+        <v>0.203269</v>
       </c>
       <c r="C77" t="n">
-        <v>0.175526</v>
+        <v>0.184943</v>
       </c>
       <c r="D77" t="n">
-        <v>0.265867</v>
+        <v>0.289867</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200372</v>
+        <v>0.215695</v>
       </c>
       <c r="C78" t="n">
-        <v>0.171431</v>
+        <v>0.19335</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220899</v>
+        <v>0.236685</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206646</v>
+        <v>0.208639</v>
       </c>
       <c r="C79" t="n">
-        <v>0.185891</v>
+        <v>0.202811</v>
       </c>
       <c r="D79" t="n">
-        <v>0.231211</v>
+        <v>0.246384</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228349</v>
+        <v>0.209974</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24107</v>
+        <v>0.247162</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242752</v>
+        <v>0.254797</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351348</v>
+        <v>0.351432</v>
       </c>
       <c r="C81" t="n">
-        <v>0.232424</v>
+        <v>0.248805</v>
       </c>
       <c r="D81" t="n">
-        <v>0.254596</v>
+        <v>0.268742</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.368097</v>
+        <v>0.36443</v>
       </c>
       <c r="C82" t="n">
-        <v>0.207918</v>
+        <v>0.252085</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264119</v>
+        <v>0.280259</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.37187</v>
+        <v>0.364545</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215959</v>
+        <v>0.257269</v>
       </c>
       <c r="D83" t="n">
-        <v>0.277225</v>
+        <v>0.290405</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.37401</v>
+        <v>0.366856</v>
       </c>
       <c r="C84" t="n">
-        <v>0.234991</v>
+        <v>0.260154</v>
       </c>
       <c r="D84" t="n">
-        <v>0.286926</v>
+        <v>0.305203</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.372326</v>
+        <v>0.370051</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241243</v>
+        <v>0.259393</v>
       </c>
       <c r="D85" t="n">
-        <v>0.305234</v>
+        <v>0.319233</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.369375</v>
+        <v>0.371908</v>
       </c>
       <c r="C86" t="n">
-        <v>0.208943</v>
+        <v>0.247999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.315562</v>
+        <v>0.332159</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.376691</v>
+        <v>0.368426</v>
       </c>
       <c r="C87" t="n">
-        <v>0.210732</v>
+        <v>0.245526</v>
       </c>
       <c r="D87" t="n">
-        <v>0.332091</v>
+        <v>0.3505</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.37897</v>
+        <v>0.370351</v>
       </c>
       <c r="C88" t="n">
-        <v>0.230178</v>
+        <v>0.247765</v>
       </c>
       <c r="D88" t="n">
-        <v>0.346123</v>
+        <v>0.36825</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374593</v>
+        <v>0.374747</v>
       </c>
       <c r="C89" t="n">
-        <v>0.222921</v>
+        <v>0.242358</v>
       </c>
       <c r="D89" t="n">
-        <v>0.362843</v>
+        <v>0.382975</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.384588</v>
+        <v>0.368068</v>
       </c>
       <c r="C90" t="n">
-        <v>0.232545</v>
+        <v>0.244563</v>
       </c>
       <c r="D90" t="n">
-        <v>0.378437</v>
+        <v>0.393493</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.382355</v>
+        <v>0.371921</v>
       </c>
       <c r="C91" t="n">
-        <v>0.232263</v>
+        <v>0.247944</v>
       </c>
       <c r="D91" t="n">
-        <v>0.394299</v>
+        <v>0.41019</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.386457</v>
+        <v>0.376085</v>
       </c>
       <c r="C92" t="n">
-        <v>0.214569</v>
+        <v>0.248812</v>
       </c>
       <c r="D92" t="n">
-        <v>0.340453</v>
+        <v>0.36435</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.390096</v>
+        <v>0.381602</v>
       </c>
       <c r="C93" t="n">
-        <v>0.220657</v>
+        <v>0.261395</v>
       </c>
       <c r="D93" t="n">
-        <v>0.350219</v>
+        <v>0.375372</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387726</v>
+        <v>0.390314</v>
       </c>
       <c r="C94" t="n">
-        <v>0.396418</v>
+        <v>0.410382</v>
       </c>
       <c r="D94" t="n">
-        <v>0.365971</v>
+        <v>0.387831</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.533021</v>
+        <v>0.535679</v>
       </c>
       <c r="C95" t="n">
-        <v>0.393328</v>
+        <v>0.405768</v>
       </c>
       <c r="D95" t="n">
-        <v>0.374589</v>
+        <v>0.394092</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.534295</v>
+        <v>0.535397</v>
       </c>
       <c r="C96" t="n">
-        <v>0.394286</v>
+        <v>0.408508</v>
       </c>
       <c r="D96" t="n">
-        <v>0.386479</v>
+        <v>0.409425</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.534394</v>
+        <v>0.531377</v>
       </c>
       <c r="C97" t="n">
-        <v>0.388205</v>
+        <v>0.404496</v>
       </c>
       <c r="D97" t="n">
-        <v>0.398541</v>
+        <v>0.418946</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.530946</v>
+        <v>0.53581</v>
       </c>
       <c r="C98" t="n">
-        <v>0.387334</v>
+        <v>0.40549</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413032</v>
+        <v>0.435934</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.535535</v>
+        <v>0.537046</v>
       </c>
       <c r="C99" t="n">
-        <v>0.386821</v>
+        <v>0.411412</v>
       </c>
       <c r="D99" t="n">
-        <v>0.430318</v>
+        <v>0.450309</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.536853</v>
+        <v>0.532654</v>
       </c>
       <c r="C100" t="n">
-        <v>0.385724</v>
+        <v>0.404355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.442211</v>
+        <v>0.465587</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.538378</v>
+        <v>0.539382</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394556</v>
+        <v>0.404203</v>
       </c>
       <c r="D101" t="n">
-        <v>0.46009</v>
+        <v>0.483192</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.53911</v>
+        <v>0.539833</v>
       </c>
       <c r="C102" t="n">
-        <v>0.39476</v>
+        <v>0.408753</v>
       </c>
       <c r="D102" t="n">
-        <v>0.476256</v>
+        <v>0.496175</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.540946</v>
+        <v>0.536429</v>
       </c>
       <c r="C103" t="n">
-        <v>0.388995</v>
+        <v>0.407145</v>
       </c>
       <c r="D103" t="n">
-        <v>0.497585</v>
+        <v>0.5173990000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537876</v>
+        <v>0.544059</v>
       </c>
       <c r="C104" t="n">
-        <v>0.39789</v>
+        <v>0.409226</v>
       </c>
       <c r="D104" t="n">
-        <v>0.509944</v>
+        <v>0.52999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.540477</v>
+        <v>0.547238</v>
       </c>
       <c r="C105" t="n">
-        <v>0.393982</v>
+        <v>0.415077</v>
       </c>
       <c r="D105" t="n">
-        <v>0.532877</v>
+        <v>0.545412</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.547222</v>
+        <v>0.551587</v>
       </c>
       <c r="C106" t="n">
-        <v>0.396087</v>
+        <v>0.423188</v>
       </c>
       <c r="D106" t="n">
-        <v>0.539954</v>
+        <v>0.565453</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.555876</v>
+        <v>0.557904</v>
       </c>
       <c r="C107" t="n">
-        <v>0.414012</v>
+        <v>0.423056</v>
       </c>
       <c r="D107" t="n">
-        <v>0.524543</v>
+        <v>0.518589</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5638609999999999</v>
+        <v>0.56346</v>
       </c>
       <c r="C108" t="n">
-        <v>0.52319</v>
+        <v>0.54352</v>
       </c>
       <c r="D108" t="n">
-        <v>0.52723</v>
+        <v>0.544841</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.568426</v>
+        <v>0.576273</v>
       </c>
       <c r="C109" t="n">
-        <v>0.527222</v>
+        <v>0.542573</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556006</v>
+        <v>0.557151</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.616734</v>
+        <v>0.6143150000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.532795</v>
+        <v>0.549742</v>
       </c>
       <c r="D110" t="n">
-        <v>0.557233</v>
+        <v>0.567472</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.609696</v>
+        <v>0.6140370000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.532581</v>
+        <v>0.543766</v>
       </c>
       <c r="D111" t="n">
-        <v>0.575255</v>
+        <v>0.582584</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.614859</v>
+        <v>0.615333</v>
       </c>
       <c r="C112" t="n">
-        <v>0.533324</v>
+        <v>0.543828</v>
       </c>
       <c r="D112" t="n">
-        <v>0.588969</v>
+        <v>0.596208</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.617852</v>
+        <v>0.616093</v>
       </c>
       <c r="C113" t="n">
-        <v>0.530767</v>
+        <v>0.549248</v>
       </c>
       <c r="D113" t="n">
-        <v>0.595081</v>
+        <v>0.613021</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.615749</v>
+        <v>0.617908</v>
       </c>
       <c r="C114" t="n">
-        <v>0.532443</v>
+        <v>0.548816</v>
       </c>
       <c r="D114" t="n">
-        <v>0.614608</v>
+        <v>0.626988</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6177009999999999</v>
+        <v>0.621262</v>
       </c>
       <c r="C115" t="n">
-        <v>0.537877</v>
+        <v>0.552679</v>
       </c>
       <c r="D115" t="n">
-        <v>0.628045</v>
+        <v>0.642601</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.608613</v>
+        <v>0.62391</v>
       </c>
       <c r="C116" t="n">
-        <v>0.524024</v>
+        <v>0.549501</v>
       </c>
       <c r="D116" t="n">
-        <v>0.638073</v>
+        <v>0.654806</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.622151</v>
+        <v>0.623872</v>
       </c>
       <c r="C117" t="n">
-        <v>0.540575</v>
+        <v>0.5578070000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.654771</v>
+        <v>0.677581</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.625279</v>
+        <v>0.626725</v>
       </c>
       <c r="C118" t="n">
-        <v>0.538362</v>
+        <v>0.561573</v>
       </c>
       <c r="D118" t="n">
-        <v>0.668651</v>
+        <v>0.689791</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.629898</v>
+        <v>0.633692</v>
       </c>
       <c r="C119" t="n">
-        <v>0.546162</v>
+        <v>0.565272</v>
       </c>
       <c r="D119" t="n">
-        <v>0.689908</v>
+        <v>0.7062040000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.63772</v>
+        <v>0.636955</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5385259999999999</v>
+        <v>0.5660230000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.714627</v>
+        <v>0.722591</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.638953</v>
+        <v>0.642479</v>
       </c>
       <c r="C121" t="n">
-        <v>0.560364</v>
+        <v>0.565503</v>
       </c>
       <c r="D121" t="n">
-        <v>0.638503</v>
+        <v>0.632432</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6518040000000001</v>
+        <v>0.646029</v>
       </c>
       <c r="C122" t="n">
-        <v>0.562846</v>
+        <v>0.580122</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649245</v>
+        <v>0.644809</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.663605</v>
+        <v>0.665616</v>
       </c>
       <c r="C123" t="n">
-        <v>0.693748</v>
+        <v>0.711902</v>
       </c>
       <c r="D123" t="n">
-        <v>0.644796</v>
+        <v>0.656097</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.752425</v>
+        <v>0.756953</v>
       </c>
       <c r="C124" t="n">
-        <v>0.691448</v>
+        <v>0.7138409999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671497</v>
+        <v>0.6861660000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.755371</v>
+        <v>0.760819</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6968529999999999</v>
+        <v>0.7109839999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.686453</v>
+        <v>0.682887</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.746312</v>
+        <v>0.757843</v>
       </c>
       <c r="C126" t="n">
-        <v>0.694893</v>
+        <v>0.7122039999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6986289999999999</v>
+        <v>0.711197</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.755724</v>
+        <v>0.759092</v>
       </c>
       <c r="C127" t="n">
-        <v>0.698788</v>
+        <v>0.711433</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7021269999999999</v>
+        <v>0.725302</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.759642</v>
+        <v>0.762637</v>
       </c>
       <c r="C128" t="n">
-        <v>0.699385</v>
+        <v>0.714663</v>
       </c>
       <c r="D128" t="n">
-        <v>0.723649</v>
+        <v>0.739415</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.756429</v>
+        <v>0.760362</v>
       </c>
       <c r="C129" t="n">
-        <v>0.697782</v>
+        <v>0.717959</v>
       </c>
       <c r="D129" t="n">
-        <v>0.740563</v>
+        <v>0.754629</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.757426</v>
+        <v>0.765571</v>
       </c>
       <c r="C130" t="n">
-        <v>0.69921</v>
+        <v>0.722485</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7543530000000001</v>
+        <v>0.768214</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.760449</v>
+        <v>0.765439</v>
       </c>
       <c r="C131" t="n">
-        <v>0.707701</v>
+        <v>0.720229</v>
       </c>
       <c r="D131" t="n">
-        <v>0.760497</v>
+        <v>0.78493</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.762391</v>
+        <v>0.769845</v>
       </c>
       <c r="C132" t="n">
-        <v>0.704523</v>
+        <v>0.724934</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7873019999999999</v>
+        <v>0.800978</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.773133</v>
+        <v>0.77253</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7086789999999999</v>
+        <v>0.723526</v>
       </c>
       <c r="D133" t="n">
-        <v>0.797928</v>
+        <v>0.817234</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.777864</v>
+        <v>0.776178</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7141189999999999</v>
+        <v>0.730972</v>
       </c>
       <c r="D134" t="n">
-        <v>0.814921</v>
+        <v>0.834753</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.785567</v>
+        <v>0.7834680000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.728057</v>
+        <v>0.735873</v>
       </c>
       <c r="D135" t="n">
-        <v>0.636</v>
+        <v>0.7072929999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.790896</v>
+        <v>0.776927</v>
       </c>
       <c r="C136" t="n">
-        <v>0.730588</v>
+        <v>0.74414</v>
       </c>
       <c r="D136" t="n">
-        <v>0.644655</v>
+        <v>0.717804</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.80104</v>
+        <v>0.807386</v>
       </c>
       <c r="C137" t="n">
-        <v>0.832744</v>
+        <v>0.841326</v>
       </c>
       <c r="D137" t="n">
-        <v>0.654516</v>
+        <v>0.726193</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8850170000000001</v>
+        <v>0.887107</v>
       </c>
       <c r="C138" t="n">
-        <v>0.832019</v>
+        <v>0.8505819999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.664954</v>
+        <v>0.739676</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8838549999999999</v>
+        <v>0.887684</v>
       </c>
       <c r="C139" t="n">
-        <v>0.834081</v>
+        <v>0.8518869999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6762</v>
+        <v>0.7528589999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.872234</v>
+        <v>0.888592</v>
       </c>
       <c r="C140" t="n">
-        <v>0.832631</v>
+        <v>0.852967</v>
       </c>
       <c r="D140" t="n">
-        <v>0.680633</v>
+        <v>0.764865</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.88532</v>
+        <v>0.887942</v>
       </c>
       <c r="C141" t="n">
-        <v>0.833073</v>
+        <v>0.853432</v>
       </c>
       <c r="D141" t="n">
-        <v>0.700929</v>
+        <v>0.778569</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.885196</v>
+        <v>0.889567</v>
       </c>
       <c r="C142" t="n">
-        <v>0.825139</v>
+        <v>0.854159</v>
       </c>
       <c r="D142" t="n">
-        <v>0.715391</v>
+        <v>0.792376</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.887537</v>
+        <v>0.878592</v>
       </c>
       <c r="C143" t="n">
-        <v>0.835438</v>
+        <v>0.854496</v>
       </c>
       <c r="D143" t="n">
-        <v>0.72878</v>
+        <v>0.804556</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116828</v>
+        <v>0.115346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11402</v>
+        <v>0.114858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133784</v>
+        <v>0.131681</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115194</v>
+        <v>0.115313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113315</v>
+        <v>0.115336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141607</v>
+        <v>0.140315</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116389</v>
+        <v>0.116289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11347</v>
+        <v>0.115324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146662</v>
+        <v>0.14637</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117824</v>
+        <v>0.11719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114093</v>
+        <v>0.115548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155026</v>
+        <v>0.154204</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11903</v>
+        <v>0.120007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.114412</v>
+        <v>0.116538</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161178</v>
+        <v>0.159193</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123792</v>
+        <v>0.122799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115675</v>
+        <v>0.116937</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127964</v>
+        <v>0.126994</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128252</v>
+        <v>0.128048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117124</v>
+        <v>0.119174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131112</v>
+        <v>0.130214</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139696</v>
+        <v>0.138124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117635</v>
+        <v>0.120554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135821</v>
+        <v>0.134117</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127229</v>
+        <v>0.124067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.124378</v>
+        <v>0.120765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.13962</v>
+        <v>0.140188</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131911</v>
+        <v>0.127352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11828</v>
+        <v>0.120993</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145252</v>
+        <v>0.144245</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125661</v>
+        <v>0.124913</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122972</v>
+        <v>0.12106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149551</v>
+        <v>0.15002</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.133052</v>
+        <v>0.126036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122371</v>
+        <v>0.12177</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154806</v>
+        <v>0.156004</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125719</v>
+        <v>0.125478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.121311</v>
+        <v>0.12154</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159948</v>
+        <v>0.160187</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131718</v>
+        <v>0.12547</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12444</v>
+        <v>0.122657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167064</v>
+        <v>0.16726</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127584</v>
+        <v>0.129353</v>
       </c>
       <c r="C16" t="n">
-        <v>0.119402</v>
+        <v>0.12265</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172477</v>
+        <v>0.173437</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128565</v>
+        <v>0.130352</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125057</v>
+        <v>0.123094</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180063</v>
+        <v>0.179372</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138597</v>
+        <v>0.129903</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125271</v>
+        <v>0.126389</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18544</v>
+        <v>0.184506</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132746</v>
+        <v>0.132975</v>
       </c>
       <c r="C19" t="n">
-        <v>0.121678</v>
+        <v>0.123813</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189623</v>
+        <v>0.190317</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141268</v>
+        <v>0.13531</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128069</v>
+        <v>0.127462</v>
       </c>
       <c r="D20" t="n">
-        <v>0.195617</v>
+        <v>0.195314</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140167</v>
+        <v>0.146453</v>
       </c>
       <c r="C21" t="n">
-        <v>0.128132</v>
+        <v>0.126039</v>
       </c>
       <c r="D21" t="n">
-        <v>0.14991</v>
+        <v>0.150664</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147668</v>
+        <v>0.146329</v>
       </c>
       <c r="C22" t="n">
-        <v>0.127727</v>
+        <v>0.130019</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155488</v>
+        <v>0.153886</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158135</v>
+        <v>0.155297</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134027</v>
+        <v>0.13117</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159751</v>
+        <v>0.158398</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141278</v>
+        <v>0.134047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.13896</v>
+        <v>0.130721</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164878</v>
+        <v>0.163882</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.143475</v>
+        <v>0.13495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133862</v>
+        <v>0.130912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.168179</v>
+        <v>0.16819</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136374</v>
+        <v>0.134677</v>
       </c>
       <c r="C26" t="n">
-        <v>0.139232</v>
+        <v>0.131976</v>
       </c>
       <c r="D26" t="n">
-        <v>0.174976</v>
+        <v>0.172632</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138899</v>
+        <v>0.13508</v>
       </c>
       <c r="C27" t="n">
-        <v>0.130423</v>
+        <v>0.131832</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179219</v>
+        <v>0.178613</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138299</v>
+        <v>0.1374</v>
       </c>
       <c r="C28" t="n">
-        <v>0.131761</v>
+        <v>0.131287</v>
       </c>
       <c r="D28" t="n">
-        <v>0.184876</v>
+        <v>0.183768</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139373</v>
+        <v>0.13625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131901</v>
+        <v>0.131367</v>
       </c>
       <c r="D29" t="n">
-        <v>0.189059</v>
+        <v>0.187636</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139856</v>
+        <v>0.137152</v>
       </c>
       <c r="C30" t="n">
-        <v>0.131461</v>
+        <v>0.131352</v>
       </c>
       <c r="D30" t="n">
-        <v>0.19431</v>
+        <v>0.194323</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141782</v>
+        <v>0.138738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12928</v>
+        <v>0.131403</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198746</v>
+        <v>0.199157</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140151</v>
+        <v>0.140273</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131594</v>
+        <v>0.132273</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203941</v>
+        <v>0.204472</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150847</v>
+        <v>0.156623</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12986</v>
+        <v>0.132442</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209345</v>
+        <v>0.209786</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149647</v>
+        <v>0.156473</v>
       </c>
       <c r="C34" t="n">
-        <v>0.131706</v>
+        <v>0.133914</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213567</v>
+        <v>0.214534</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151727</v>
+        <v>0.152008</v>
       </c>
       <c r="C35" t="n">
-        <v>0.136468</v>
+        <v>0.138609</v>
       </c>
       <c r="D35" t="n">
-        <v>0.166703</v>
+        <v>0.16611</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.16759</v>
+        <v>0.157747</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145973</v>
+        <v>0.147276</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171098</v>
+        <v>0.170166</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170362</v>
+        <v>0.166042</v>
       </c>
       <c r="C37" t="n">
-        <v>0.144392</v>
+        <v>0.145266</v>
       </c>
       <c r="D37" t="n">
-        <v>0.175272</v>
+        <v>0.174213</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147293</v>
+        <v>0.146861</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138731</v>
+        <v>0.143749</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178196</v>
+        <v>0.179045</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150627</v>
+        <v>0.147446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14575</v>
+        <v>0.145343</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183411</v>
+        <v>0.183412</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148514</v>
+        <v>0.148807</v>
       </c>
       <c r="C40" t="n">
-        <v>0.142852</v>
+        <v>0.14443</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187651</v>
+        <v>0.187527</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149243</v>
+        <v>0.146781</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140191</v>
+        <v>0.144086</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191631</v>
+        <v>0.191463</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150192</v>
+        <v>0.148914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150024</v>
+        <v>0.145181</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196263</v>
+        <v>0.195529</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149044</v>
+        <v>0.149857</v>
       </c>
       <c r="C43" t="n">
-        <v>0.154163</v>
+        <v>0.145348</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201531</v>
+        <v>0.200877</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152354</v>
+        <v>0.150848</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144695</v>
+        <v>0.145695</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206109</v>
+        <v>0.205691</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153061</v>
+        <v>0.153344</v>
       </c>
       <c r="C45" t="n">
-        <v>0.14379</v>
+        <v>0.145348</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211261</v>
+        <v>0.210934</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156136</v>
+        <v>0.157177</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153565</v>
+        <v>0.145798</v>
       </c>
       <c r="D46" t="n">
-        <v>0.217063</v>
+        <v>0.216243</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16123</v>
+        <v>0.156759</v>
       </c>
       <c r="C47" t="n">
-        <v>0.149665</v>
+        <v>0.146589</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22274</v>
+        <v>0.221987</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162151</v>
+        <v>0.160418</v>
       </c>
       <c r="C48" t="n">
-        <v>0.156871</v>
+        <v>0.148718</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227344</v>
+        <v>0.226775</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165748</v>
+        <v>0.164497</v>
       </c>
       <c r="C49" t="n">
-        <v>0.160923</v>
+        <v>0.153992</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231365</v>
+        <v>0.231542</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174766</v>
+        <v>0.170105</v>
       </c>
       <c r="C50" t="n">
-        <v>0.164954</v>
+        <v>0.157682</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172085</v>
+        <v>0.171906</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181092</v>
+        <v>0.175108</v>
       </c>
       <c r="C51" t="n">
-        <v>0.158307</v>
+        <v>0.157548</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176156</v>
+        <v>0.17511</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18427</v>
+        <v>0.1852</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158816</v>
+        <v>0.158676</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179906</v>
+        <v>0.179198</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159509</v>
+        <v>0.160036</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164409</v>
+        <v>0.158907</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183585</v>
+        <v>0.183625</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161176</v>
+        <v>0.160412</v>
       </c>
       <c r="C54" t="n">
-        <v>0.161665</v>
+        <v>0.160343</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188469</v>
+        <v>0.187813</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.164274</v>
+        <v>0.162245</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164501</v>
+        <v>0.159177</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192981</v>
+        <v>0.192033</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164274</v>
+        <v>0.162191</v>
       </c>
       <c r="C56" t="n">
-        <v>0.157483</v>
+        <v>0.159414</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198264</v>
+        <v>0.196962</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163014</v>
+        <v>0.163439</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164372</v>
+        <v>0.15819</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202299</v>
+        <v>0.201853</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163194</v>
+        <v>0.164324</v>
       </c>
       <c r="C58" t="n">
-        <v>0.157485</v>
+        <v>0.160333</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207341</v>
+        <v>0.206985</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.170028</v>
+        <v>0.166585</v>
       </c>
       <c r="C59" t="n">
-        <v>0.163872</v>
+        <v>0.160723</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212833</v>
+        <v>0.212195</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167034</v>
+        <v>0.167372</v>
       </c>
       <c r="C60" t="n">
-        <v>0.165201</v>
+        <v>0.157901</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217259</v>
+        <v>0.217706</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169504</v>
+        <v>0.170362</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172397</v>
+        <v>0.164933</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222749</v>
+        <v>0.222965</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172166</v>
+        <v>0.186392</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171717</v>
+        <v>0.163022</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228895</v>
+        <v>0.227838</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183876</v>
+        <v>0.177343</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16691</v>
+        <v>0.169361</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232677</v>
+        <v>0.232409</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180455</v>
+        <v>0.185137</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18245</v>
+        <v>0.173442</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180477</v>
+        <v>0.179516</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.201213</v>
+        <v>0.18913</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187833</v>
+        <v>0.180794</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184253</v>
+        <v>0.183574</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.208271</v>
+        <v>0.198509</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178902</v>
+        <v>0.174235</v>
       </c>
       <c r="D66" t="n">
-        <v>0.190186</v>
+        <v>0.187224</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18345</v>
+        <v>0.178124</v>
       </c>
       <c r="C67" t="n">
-        <v>0.179981</v>
+        <v>0.170416</v>
       </c>
       <c r="D67" t="n">
-        <v>0.195761</v>
+        <v>0.192842</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.204919</v>
+        <v>0.181024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.180734</v>
+        <v>0.173976</v>
       </c>
       <c r="D68" t="n">
-        <v>0.200561</v>
+        <v>0.198958</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.216118</v>
+        <v>0.180328</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187637</v>
+        <v>0.175619</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208214</v>
+        <v>0.204578</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.211566</v>
+        <v>0.178425</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182244</v>
+        <v>0.175442</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215879</v>
+        <v>0.210353</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.205361</v>
+        <v>0.179942</v>
       </c>
       <c r="C71" t="n">
-        <v>0.174175</v>
+        <v>0.176643</v>
       </c>
       <c r="D71" t="n">
-        <v>0.219137</v>
+        <v>0.218823</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22903</v>
+        <v>0.183053</v>
       </c>
       <c r="C72" t="n">
-        <v>0.181596</v>
+        <v>0.178115</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22945</v>
+        <v>0.226354</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182377</v>
+        <v>0.189772</v>
       </c>
       <c r="C73" t="n">
-        <v>0.172504</v>
+        <v>0.180166</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236581</v>
+        <v>0.233117</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201549</v>
+        <v>0.190693</v>
       </c>
       <c r="C74" t="n">
-        <v>0.181909</v>
+        <v>0.181816</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246925</v>
+        <v>0.242781</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210908</v>
+        <v>0.189843</v>
       </c>
       <c r="C75" t="n">
-        <v>0.185288</v>
+        <v>0.182786</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259534</v>
+        <v>0.250714</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213872</v>
+        <v>0.195386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.183352</v>
+        <v>0.185369</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272584</v>
+        <v>0.26107</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203269</v>
+        <v>0.19691</v>
       </c>
       <c r="C77" t="n">
-        <v>0.184943</v>
+        <v>0.188455</v>
       </c>
       <c r="D77" t="n">
-        <v>0.289867</v>
+        <v>0.271997</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.215695</v>
+        <v>0.200465</v>
       </c>
       <c r="C78" t="n">
-        <v>0.19335</v>
+        <v>0.191535</v>
       </c>
       <c r="D78" t="n">
-        <v>0.236685</v>
+        <v>0.224224</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208639</v>
+        <v>0.209599</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202811</v>
+        <v>0.197617</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246384</v>
+        <v>0.233706</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.209974</v>
+        <v>0.223257</v>
       </c>
       <c r="C80" t="n">
-        <v>0.247162</v>
+        <v>0.269154</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254797</v>
+        <v>0.244921</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351432</v>
+        <v>0.36419</v>
       </c>
       <c r="C81" t="n">
-        <v>0.248805</v>
+        <v>0.273115</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268742</v>
+        <v>0.259534</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.36443</v>
+        <v>0.363607</v>
       </c>
       <c r="C82" t="n">
-        <v>0.252085</v>
+        <v>0.274653</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280259</v>
+        <v>0.267966</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364545</v>
+        <v>0.366708</v>
       </c>
       <c r="C83" t="n">
-        <v>0.257269</v>
+        <v>0.274477</v>
       </c>
       <c r="D83" t="n">
-        <v>0.290405</v>
+        <v>0.28424</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366856</v>
+        <v>0.372174</v>
       </c>
       <c r="C84" t="n">
-        <v>0.260154</v>
+        <v>0.273306</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305203</v>
+        <v>0.296652</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370051</v>
+        <v>0.365261</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259393</v>
+        <v>0.272888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319233</v>
+        <v>0.311705</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371908</v>
+        <v>0.361451</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247999</v>
+        <v>0.272434</v>
       </c>
       <c r="D86" t="n">
-        <v>0.332159</v>
+        <v>0.325553</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368426</v>
+        <v>0.365479</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245526</v>
+        <v>0.278198</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3505</v>
+        <v>0.343115</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370351</v>
+        <v>0.368621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247765</v>
+        <v>0.275067</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36825</v>
+        <v>0.363174</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374747</v>
+        <v>0.375714</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242358</v>
+        <v>0.276934</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382975</v>
+        <v>0.378316</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.368068</v>
+        <v>0.368253</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244563</v>
+        <v>0.270429</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393493</v>
+        <v>0.389448</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.371921</v>
+        <v>0.37649</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247944</v>
+        <v>0.275028</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41019</v>
+        <v>0.406996</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376085</v>
+        <v>0.376028</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248812</v>
+        <v>0.273303</v>
       </c>
       <c r="D92" t="n">
-        <v>0.36435</v>
+        <v>0.36267</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381602</v>
+        <v>0.379087</v>
       </c>
       <c r="C93" t="n">
-        <v>0.261395</v>
+        <v>0.277962</v>
       </c>
       <c r="D93" t="n">
-        <v>0.375372</v>
+        <v>0.372395</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390314</v>
+        <v>0.390035</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410382</v>
+        <v>0.454312</v>
       </c>
       <c r="D94" t="n">
-        <v>0.387831</v>
+        <v>0.384744</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535679</v>
+        <v>0.532548</v>
       </c>
       <c r="C95" t="n">
-        <v>0.405768</v>
+        <v>0.455026</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394092</v>
+        <v>0.394168</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535397</v>
+        <v>0.532759</v>
       </c>
       <c r="C96" t="n">
-        <v>0.408508</v>
+        <v>0.453396</v>
       </c>
       <c r="D96" t="n">
-        <v>0.409425</v>
+        <v>0.408542</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531377</v>
+        <v>0.5341320000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.404496</v>
+        <v>0.451924</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418946</v>
+        <v>0.422106</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.53581</v>
+        <v>0.534768</v>
       </c>
       <c r="C98" t="n">
-        <v>0.40549</v>
+        <v>0.450649</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435934</v>
+        <v>0.434567</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.537046</v>
+        <v>0.534573</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411412</v>
+        <v>0.449137</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450309</v>
+        <v>0.448883</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.532654</v>
+        <v>0.535947</v>
       </c>
       <c r="C100" t="n">
-        <v>0.404355</v>
+        <v>0.448306</v>
       </c>
       <c r="D100" t="n">
-        <v>0.465587</v>
+        <v>0.46606</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.539382</v>
+        <v>0.536517</v>
       </c>
       <c r="C101" t="n">
-        <v>0.404203</v>
+        <v>0.44239</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483192</v>
+        <v>0.479941</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.539833</v>
+        <v>0.537253</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408753</v>
+        <v>0.446045</v>
       </c>
       <c r="D102" t="n">
-        <v>0.496175</v>
+        <v>0.495017</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.536429</v>
+        <v>0.540879</v>
       </c>
       <c r="C103" t="n">
-        <v>0.407145</v>
+        <v>0.442259</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5173990000000001</v>
+        <v>0.5096580000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.544059</v>
+        <v>0.536883</v>
       </c>
       <c r="C104" t="n">
-        <v>0.409226</v>
+        <v>0.445846</v>
       </c>
       <c r="D104" t="n">
-        <v>0.52999</v>
+        <v>0.529223</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.547238</v>
+        <v>0.546031</v>
       </c>
       <c r="C105" t="n">
-        <v>0.415077</v>
+        <v>0.448585</v>
       </c>
       <c r="D105" t="n">
-        <v>0.545412</v>
+        <v>0.54771</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551587</v>
+        <v>0.547839</v>
       </c>
       <c r="C106" t="n">
-        <v>0.423188</v>
+        <v>0.44909</v>
       </c>
       <c r="D106" t="n">
-        <v>0.565453</v>
+        <v>0.561705</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.557904</v>
+        <v>0.548727</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423056</v>
+        <v>0.448747</v>
       </c>
       <c r="D107" t="n">
-        <v>0.518589</v>
+        <v>0.5358810000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.56346</v>
+        <v>0.561704</v>
       </c>
       <c r="C108" t="n">
-        <v>0.54352</v>
+        <v>0.57052</v>
       </c>
       <c r="D108" t="n">
-        <v>0.544841</v>
+        <v>0.542235</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.576273</v>
+        <v>0.5726250000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.542573</v>
+        <v>0.576613</v>
       </c>
       <c r="D109" t="n">
-        <v>0.557151</v>
+        <v>0.545718</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6143150000000001</v>
+        <v>0.609963</v>
       </c>
       <c r="C110" t="n">
-        <v>0.549742</v>
+        <v>0.570518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.567472</v>
+        <v>0.557789</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6140370000000001</v>
+        <v>0.610308</v>
       </c>
       <c r="C111" t="n">
-        <v>0.543766</v>
+        <v>0.570485</v>
       </c>
       <c r="D111" t="n">
-        <v>0.582584</v>
+        <v>0.583214</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.615333</v>
+        <v>0.615184</v>
       </c>
       <c r="C112" t="n">
-        <v>0.543828</v>
+        <v>0.571208</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596208</v>
+        <v>0.592991</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.616093</v>
+        <v>0.615672</v>
       </c>
       <c r="C113" t="n">
-        <v>0.549248</v>
+        <v>0.569861</v>
       </c>
       <c r="D113" t="n">
-        <v>0.613021</v>
+        <v>0.611666</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.617908</v>
+        <v>0.618542</v>
       </c>
       <c r="C114" t="n">
-        <v>0.548816</v>
+        <v>0.571156</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626988</v>
+        <v>0.622444</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621262</v>
+        <v>0.620309</v>
       </c>
       <c r="C115" t="n">
-        <v>0.552679</v>
+        <v>0.572443</v>
       </c>
       <c r="D115" t="n">
-        <v>0.642601</v>
+        <v>0.642913</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.62391</v>
+        <v>0.6202</v>
       </c>
       <c r="C116" t="n">
-        <v>0.549501</v>
+        <v>0.573198</v>
       </c>
       <c r="D116" t="n">
-        <v>0.654806</v>
+        <v>0.659299</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623872</v>
+        <v>0.6174269999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5578070000000001</v>
+        <v>0.574865</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677581</v>
+        <v>0.6784559999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626725</v>
+        <v>0.623502</v>
       </c>
       <c r="C118" t="n">
-        <v>0.561573</v>
+        <v>0.569441</v>
       </c>
       <c r="D118" t="n">
-        <v>0.689791</v>
+        <v>0.691204</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.633692</v>
+        <v>0.622148</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565272</v>
+        <v>0.578095</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7062040000000001</v>
+        <v>0.709793</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.636955</v>
+        <v>0.631856</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5660230000000001</v>
+        <v>0.583063</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722591</v>
+        <v>0.721302</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.642479</v>
+        <v>0.635483</v>
       </c>
       <c r="C121" t="n">
-        <v>0.565503</v>
+        <v>0.576865</v>
       </c>
       <c r="D121" t="n">
-        <v>0.632432</v>
+        <v>0.647306</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.646029</v>
+        <v>0.645185</v>
       </c>
       <c r="C122" t="n">
-        <v>0.580122</v>
+        <v>0.591764</v>
       </c>
       <c r="D122" t="n">
-        <v>0.644809</v>
+        <v>0.643191</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.665616</v>
+        <v>0.658442</v>
       </c>
       <c r="C123" t="n">
-        <v>0.711902</v>
+        <v>0.723692</v>
       </c>
       <c r="D123" t="n">
-        <v>0.656097</v>
+        <v>0.653367</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.756953</v>
+        <v>0.753682</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7138409999999999</v>
+        <v>0.720329</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6861660000000001</v>
+        <v>0.68545</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.760819</v>
+        <v>0.754455</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7109839999999999</v>
+        <v>0.7235549999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682887</v>
+        <v>0.695719</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.757843</v>
+        <v>0.755854</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7122039999999999</v>
+        <v>0.7236629999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.711197</v>
+        <v>0.709853</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.759092</v>
+        <v>0.756579</v>
       </c>
       <c r="C127" t="n">
-        <v>0.711433</v>
+        <v>0.729108</v>
       </c>
       <c r="D127" t="n">
-        <v>0.725302</v>
+        <v>0.7110030000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.762637</v>
+        <v>0.756698</v>
       </c>
       <c r="C128" t="n">
-        <v>0.714663</v>
+        <v>0.723083</v>
       </c>
       <c r="D128" t="n">
-        <v>0.739415</v>
+        <v>0.737063</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.760362</v>
+        <v>0.760988</v>
       </c>
       <c r="C129" t="n">
-        <v>0.717959</v>
+        <v>0.720705</v>
       </c>
       <c r="D129" t="n">
-        <v>0.754629</v>
+        <v>0.752603</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.765571</v>
+        <v>0.756189</v>
       </c>
       <c r="C130" t="n">
-        <v>0.722485</v>
+        <v>0.7291840000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.768214</v>
+        <v>0.76615</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.765439</v>
+        <v>0.7573299999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.720229</v>
+        <v>0.72911</v>
       </c>
       <c r="D131" t="n">
-        <v>0.78493</v>
+        <v>0.7806149999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.769845</v>
+        <v>0.754398</v>
       </c>
       <c r="C132" t="n">
-        <v>0.724934</v>
+        <v>0.731216</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800978</v>
+        <v>0.796515</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.77253</v>
+        <v>0.765805</v>
       </c>
       <c r="C133" t="n">
-        <v>0.723526</v>
+        <v>0.738779</v>
       </c>
       <c r="D133" t="n">
-        <v>0.817234</v>
+        <v>0.813427</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.776178</v>
+        <v>0.776157</v>
       </c>
       <c r="C134" t="n">
-        <v>0.730972</v>
+        <v>0.736885</v>
       </c>
       <c r="D134" t="n">
-        <v>0.834753</v>
+        <v>0.832135</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7834680000000001</v>
+        <v>0.765522</v>
       </c>
       <c r="C135" t="n">
-        <v>0.735873</v>
+        <v>0.74575</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7072929999999999</v>
+        <v>0.704523</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.776927</v>
+        <v>0.772405</v>
       </c>
       <c r="C136" t="n">
-        <v>0.74414</v>
+        <v>0.75673</v>
       </c>
       <c r="D136" t="n">
-        <v>0.717804</v>
+        <v>0.714236</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.807386</v>
+        <v>0.803054</v>
       </c>
       <c r="C137" t="n">
-        <v>0.841326</v>
+        <v>0.845489</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726193</v>
+        <v>0.724616</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.887107</v>
+        <v>0.883572</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8505819999999999</v>
+        <v>0.844291</v>
       </c>
       <c r="D138" t="n">
-        <v>0.739676</v>
+        <v>0.735985</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.887684</v>
+        <v>0.872425</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8518869999999999</v>
+        <v>0.8567709999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7528589999999999</v>
+        <v>0.748151</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.888592</v>
+        <v>0.881959</v>
       </c>
       <c r="C140" t="n">
-        <v>0.852967</v>
+        <v>0.848571</v>
       </c>
       <c r="D140" t="n">
-        <v>0.764865</v>
+        <v>0.760613</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.887942</v>
+        <v>0.877423</v>
       </c>
       <c r="C141" t="n">
-        <v>0.853432</v>
+        <v>0.858328</v>
       </c>
       <c r="D141" t="n">
-        <v>0.778569</v>
+        <v>0.774518</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.889567</v>
+        <v>0.885469</v>
       </c>
       <c r="C142" t="n">
-        <v>0.854159</v>
+        <v>0.859123</v>
       </c>
       <c r="D142" t="n">
-        <v>0.792376</v>
+        <v>0.787156</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.878592</v>
+        <v>0.886529</v>
       </c>
       <c r="C143" t="n">
-        <v>0.854496</v>
+        <v>0.846435</v>
       </c>
       <c r="D143" t="n">
-        <v>0.804556</v>
+        <v>0.8016760000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116828</v>
+        <v>0.115656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11402</v>
+        <v>0.113163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133784</v>
+        <v>0.133903</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115194</v>
+        <v>0.116554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113315</v>
+        <v>0.113558</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141607</v>
+        <v>0.14139</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116389</v>
+        <v>0.117552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11347</v>
+        <v>0.113785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146662</v>
+        <v>0.146274</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117824</v>
+        <v>0.117483</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114093</v>
+        <v>0.1139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155026</v>
+        <v>0.154225</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11903</v>
+        <v>0.120992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.114412</v>
+        <v>0.11501</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161178</v>
+        <v>0.160859</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123792</v>
+        <v>0.122807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115675</v>
+        <v>0.115397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127964</v>
+        <v>0.127598</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128252</v>
+        <v>0.128278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117124</v>
+        <v>0.117098</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131112</v>
+        <v>0.130783</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139696</v>
+        <v>0.139329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117635</v>
+        <v>0.117828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135821</v>
+        <v>0.135052</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127229</v>
+        <v>0.124092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.124378</v>
+        <v>0.117863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.13962</v>
+        <v>0.138776</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131911</v>
+        <v>0.124503</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11828</v>
+        <v>0.118441</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145252</v>
+        <v>0.144008</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125661</v>
+        <v>0.124389</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122972</v>
+        <v>0.118431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149551</v>
+        <v>0.149035</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.133052</v>
+        <v>0.125507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122371</v>
+        <v>0.119066</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154806</v>
+        <v>0.154435</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125719</v>
+        <v>0.12575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.121311</v>
+        <v>0.119389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159948</v>
+        <v>0.16044</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131718</v>
+        <v>0.126341</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12444</v>
+        <v>0.119572</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167064</v>
+        <v>0.16716</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127584</v>
+        <v>0.130042</v>
       </c>
       <c r="C16" t="n">
-        <v>0.119402</v>
+        <v>0.119346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172477</v>
+        <v>0.172821</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128565</v>
+        <v>0.128175</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125057</v>
+        <v>0.120853</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180063</v>
+        <v>0.179065</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138597</v>
+        <v>0.133064</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125271</v>
+        <v>0.121822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18544</v>
+        <v>0.18479</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132746</v>
+        <v>0.131721</v>
       </c>
       <c r="C19" t="n">
-        <v>0.121678</v>
+        <v>0.120277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189623</v>
+        <v>0.189817</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141268</v>
+        <v>0.13519</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128069</v>
+        <v>0.121214</v>
       </c>
       <c r="D20" t="n">
-        <v>0.195617</v>
+        <v>0.195094</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140167</v>
+        <v>0.142336</v>
       </c>
       <c r="C21" t="n">
-        <v>0.128132</v>
+        <v>0.122902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.14991</v>
+        <v>0.149201</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147668</v>
+        <v>0.147633</v>
       </c>
       <c r="C22" t="n">
-        <v>0.127727</v>
+        <v>0.132492</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155488</v>
+        <v>0.155193</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158135</v>
+        <v>0.155305</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134027</v>
+        <v>0.134048</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159751</v>
+        <v>0.158065</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141278</v>
+        <v>0.134412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.13896</v>
+        <v>0.132073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164878</v>
+        <v>0.163529</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.143475</v>
+        <v>0.134331</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133862</v>
+        <v>0.128591</v>
       </c>
       <c r="D25" t="n">
-        <v>0.168179</v>
+        <v>0.168491</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136374</v>
+        <v>0.134199</v>
       </c>
       <c r="C26" t="n">
-        <v>0.139232</v>
+        <v>0.129641</v>
       </c>
       <c r="D26" t="n">
-        <v>0.174976</v>
+        <v>0.172597</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138899</v>
+        <v>0.135654</v>
       </c>
       <c r="C27" t="n">
-        <v>0.130423</v>
+        <v>0.134632</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179219</v>
+        <v>0.177191</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138299</v>
+        <v>0.137034</v>
       </c>
       <c r="C28" t="n">
-        <v>0.131761</v>
+        <v>0.130355</v>
       </c>
       <c r="D28" t="n">
-        <v>0.184876</v>
+        <v>0.183088</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139373</v>
+        <v>0.137666</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131901</v>
+        <v>0.133609</v>
       </c>
       <c r="D29" t="n">
-        <v>0.189059</v>
+        <v>0.187571</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139856</v>
+        <v>0.137705</v>
       </c>
       <c r="C30" t="n">
-        <v>0.131461</v>
+        <v>0.128353</v>
       </c>
       <c r="D30" t="n">
-        <v>0.19431</v>
+        <v>0.192557</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141782</v>
+        <v>0.138134</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12928</v>
+        <v>0.135097</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198746</v>
+        <v>0.198028</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140151</v>
+        <v>0.140115</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131594</v>
+        <v>0.131756</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203941</v>
+        <v>0.204411</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150847</v>
+        <v>0.143807</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12986</v>
+        <v>0.130601</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209345</v>
+        <v>0.209969</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149647</v>
+        <v>0.148213</v>
       </c>
       <c r="C34" t="n">
-        <v>0.131706</v>
+        <v>0.138741</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213567</v>
+        <v>0.214228</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151727</v>
+        <v>0.151377</v>
       </c>
       <c r="C35" t="n">
-        <v>0.136468</v>
+        <v>0.144052</v>
       </c>
       <c r="D35" t="n">
-        <v>0.166703</v>
+        <v>0.16598</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.16759</v>
+        <v>0.156689</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145973</v>
+        <v>0.142912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171098</v>
+        <v>0.170972</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170362</v>
+        <v>0.165893</v>
       </c>
       <c r="C37" t="n">
-        <v>0.144392</v>
+        <v>0.136827</v>
       </c>
       <c r="D37" t="n">
-        <v>0.175272</v>
+        <v>0.174434</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147293</v>
+        <v>0.151851</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138731</v>
+        <v>0.147139</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178196</v>
+        <v>0.17868</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150627</v>
+        <v>0.148077</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14575</v>
+        <v>0.140561</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183411</v>
+        <v>0.182788</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148514</v>
+        <v>0.147266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.142852</v>
+        <v>0.148449</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187651</v>
+        <v>0.187608</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149243</v>
+        <v>0.149401</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140191</v>
+        <v>0.142048</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191631</v>
+        <v>0.191634</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150192</v>
+        <v>0.150315</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150024</v>
+        <v>0.142777</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196263</v>
+        <v>0.196803</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149044</v>
+        <v>0.149266</v>
       </c>
       <c r="C43" t="n">
-        <v>0.154163</v>
+        <v>0.146701</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201531</v>
+        <v>0.201535</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152354</v>
+        <v>0.15102</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144695</v>
+        <v>0.140097</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206109</v>
+        <v>0.206518</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153061</v>
+        <v>0.15263</v>
       </c>
       <c r="C45" t="n">
-        <v>0.14379</v>
+        <v>0.142541</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211261</v>
+        <v>0.211779</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156136</v>
+        <v>0.153079</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153565</v>
+        <v>0.144823</v>
       </c>
       <c r="D46" t="n">
-        <v>0.217063</v>
+        <v>0.217041</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16123</v>
+        <v>0.156317</v>
       </c>
       <c r="C47" t="n">
-        <v>0.149665</v>
+        <v>0.144528</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22274</v>
+        <v>0.222329</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162151</v>
+        <v>0.161394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.156871</v>
+        <v>0.148916</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227344</v>
+        <v>0.226987</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165748</v>
+        <v>0.164663</v>
       </c>
       <c r="C49" t="n">
-        <v>0.160923</v>
+        <v>0.157802</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231365</v>
+        <v>0.231899</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174766</v>
+        <v>0.168276</v>
       </c>
       <c r="C50" t="n">
-        <v>0.164954</v>
+        <v>0.157942</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172085</v>
+        <v>0.171757</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181092</v>
+        <v>0.176525</v>
       </c>
       <c r="C51" t="n">
-        <v>0.158307</v>
+        <v>0.15871</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176156</v>
+        <v>0.175362</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18427</v>
+        <v>0.185604</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158816</v>
+        <v>0.152765</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179906</v>
+        <v>0.179257</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159509</v>
+        <v>0.160127</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164409</v>
+        <v>0.153382</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183585</v>
+        <v>0.183579</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161176</v>
+        <v>0.160815</v>
       </c>
       <c r="C54" t="n">
-        <v>0.161665</v>
+        <v>0.154365</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188469</v>
+        <v>0.187889</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.164274</v>
+        <v>0.160433</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164501</v>
+        <v>0.162425</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192981</v>
+        <v>0.192815</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164274</v>
+        <v>0.162025</v>
       </c>
       <c r="C56" t="n">
-        <v>0.157483</v>
+        <v>0.155422</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198264</v>
+        <v>0.197359</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163014</v>
+        <v>0.162966</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164372</v>
+        <v>0.155356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202299</v>
+        <v>0.202185</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163194</v>
+        <v>0.162759</v>
       </c>
       <c r="C58" t="n">
-        <v>0.157485</v>
+        <v>0.158454</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207341</v>
+        <v>0.207767</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.170028</v>
+        <v>0.166395</v>
       </c>
       <c r="C59" t="n">
-        <v>0.163872</v>
+        <v>0.1673</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212833</v>
+        <v>0.21232</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167034</v>
+        <v>0.166979</v>
       </c>
       <c r="C60" t="n">
-        <v>0.165201</v>
+        <v>0.161259</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217259</v>
+        <v>0.21727</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169504</v>
+        <v>0.169423</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172397</v>
+        <v>0.169806</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222749</v>
+        <v>0.222661</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172166</v>
+        <v>0.17373</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171717</v>
+        <v>0.164021</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228895</v>
+        <v>0.227486</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183876</v>
+        <v>0.175916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16691</v>
+        <v>0.168386</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232677</v>
+        <v>0.231976</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180455</v>
+        <v>0.181639</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18245</v>
+        <v>0.172652</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180477</v>
+        <v>0.17946</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.201213</v>
+        <v>0.189694</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187833</v>
+        <v>0.185607</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184253</v>
+        <v>0.183466</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.208271</v>
+        <v>0.196533</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178902</v>
+        <v>0.165868</v>
       </c>
       <c r="D66" t="n">
-        <v>0.190186</v>
+        <v>0.187474</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18345</v>
+        <v>0.181305</v>
       </c>
       <c r="C67" t="n">
-        <v>0.179981</v>
+        <v>0.173596</v>
       </c>
       <c r="D67" t="n">
-        <v>0.195761</v>
+        <v>0.193317</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.204919</v>
+        <v>0.182211</v>
       </c>
       <c r="C68" t="n">
-        <v>0.180734</v>
+        <v>0.176822</v>
       </c>
       <c r="D68" t="n">
-        <v>0.200561</v>
+        <v>0.198981</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.216118</v>
+        <v>0.180377</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187637</v>
+        <v>0.168626</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208214</v>
+        <v>0.204767</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.211566</v>
+        <v>0.179657</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182244</v>
+        <v>0.168738</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215879</v>
+        <v>0.211563</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.205361</v>
+        <v>0.181321</v>
       </c>
       <c r="C71" t="n">
-        <v>0.174175</v>
+        <v>0.16853</v>
       </c>
       <c r="D71" t="n">
-        <v>0.219137</v>
+        <v>0.218143</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22903</v>
+        <v>0.182225</v>
       </c>
       <c r="C72" t="n">
-        <v>0.181596</v>
+        <v>0.17325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22945</v>
+        <v>0.226043</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182377</v>
+        <v>0.186135</v>
       </c>
       <c r="C73" t="n">
-        <v>0.172504</v>
+        <v>0.174899</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236581</v>
+        <v>0.233527</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201549</v>
+        <v>0.187037</v>
       </c>
       <c r="C74" t="n">
-        <v>0.181909</v>
+        <v>0.171082</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246925</v>
+        <v>0.243656</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210908</v>
+        <v>0.188718</v>
       </c>
       <c r="C75" t="n">
-        <v>0.185288</v>
+        <v>0.183618</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259534</v>
+        <v>0.252001</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213872</v>
+        <v>0.191188</v>
       </c>
       <c r="C76" t="n">
-        <v>0.183352</v>
+        <v>0.178942</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272584</v>
+        <v>0.260681</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203269</v>
+        <v>0.197294</v>
       </c>
       <c r="C77" t="n">
-        <v>0.184943</v>
+        <v>0.186661</v>
       </c>
       <c r="D77" t="n">
-        <v>0.289867</v>
+        <v>0.271458</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.215695</v>
+        <v>0.203516</v>
       </c>
       <c r="C78" t="n">
-        <v>0.19335</v>
+        <v>0.185031</v>
       </c>
       <c r="D78" t="n">
-        <v>0.236685</v>
+        <v>0.225042</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208639</v>
+        <v>0.205394</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202811</v>
+        <v>0.188588</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246384</v>
+        <v>0.234457</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.209974</v>
+        <v>0.214299</v>
       </c>
       <c r="C80" t="n">
-        <v>0.247162</v>
+        <v>0.251206</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254797</v>
+        <v>0.246571</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351432</v>
+        <v>0.371999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.248805</v>
+        <v>0.253097</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268742</v>
+        <v>0.260418</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.36443</v>
+        <v>0.372508</v>
       </c>
       <c r="C82" t="n">
-        <v>0.252085</v>
+        <v>0.260531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280259</v>
+        <v>0.269352</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364545</v>
+        <v>0.374999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.257269</v>
+        <v>0.25206</v>
       </c>
       <c r="D83" t="n">
-        <v>0.290405</v>
+        <v>0.287448</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366856</v>
+        <v>0.376158</v>
       </c>
       <c r="C84" t="n">
-        <v>0.260154</v>
+        <v>0.256504</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305203</v>
+        <v>0.300571</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370051</v>
+        <v>0.37667</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259393</v>
+        <v>0.259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319233</v>
+        <v>0.316203</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371908</v>
+        <v>0.376433</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247999</v>
+        <v>0.2573</v>
       </c>
       <c r="D86" t="n">
-        <v>0.332159</v>
+        <v>0.331421</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368426</v>
+        <v>0.378168</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245526</v>
+        <v>0.254501</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3505</v>
+        <v>0.350806</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370351</v>
+        <v>0.379042</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247765</v>
+        <v>0.254088</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36825</v>
+        <v>0.369228</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374747</v>
+        <v>0.380237</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242358</v>
+        <v>0.259355</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382975</v>
+        <v>0.385228</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.368068</v>
+        <v>0.379689</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244563</v>
+        <v>0.260252</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393493</v>
+        <v>0.39668</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.371921</v>
+        <v>0.381783</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247944</v>
+        <v>0.259933</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41019</v>
+        <v>0.414482</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376085</v>
+        <v>0.384046</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248812</v>
+        <v>0.248757</v>
       </c>
       <c r="D92" t="n">
-        <v>0.36435</v>
+        <v>0.367261</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381602</v>
+        <v>0.390459</v>
       </c>
       <c r="C93" t="n">
-        <v>0.261395</v>
+        <v>0.257641</v>
       </c>
       <c r="D93" t="n">
-        <v>0.375372</v>
+        <v>0.378332</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390314</v>
+        <v>0.39693</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410382</v>
+        <v>0.422675</v>
       </c>
       <c r="D94" t="n">
-        <v>0.387831</v>
+        <v>0.392808</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535679</v>
+        <v>0.5588340000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.405768</v>
+        <v>0.421571</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394092</v>
+        <v>0.401248</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535397</v>
+        <v>0.558619</v>
       </c>
       <c r="C96" t="n">
-        <v>0.408508</v>
+        <v>0.420925</v>
       </c>
       <c r="D96" t="n">
-        <v>0.409425</v>
+        <v>0.413525</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531377</v>
+        <v>0.560195</v>
       </c>
       <c r="C97" t="n">
-        <v>0.404496</v>
+        <v>0.42077</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418946</v>
+        <v>0.427008</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.53581</v>
+        <v>0.5606449999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.40549</v>
+        <v>0.422827</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435934</v>
+        <v>0.443674</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.537046</v>
+        <v>0.5597800000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411412</v>
+        <v>0.418718</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450309</v>
+        <v>0.45755</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.532654</v>
+        <v>0.562065</v>
       </c>
       <c r="C100" t="n">
-        <v>0.404355</v>
+        <v>0.421585</v>
       </c>
       <c r="D100" t="n">
-        <v>0.465587</v>
+        <v>0.475418</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.539382</v>
+        <v>0.563558</v>
       </c>
       <c r="C101" t="n">
-        <v>0.404203</v>
+        <v>0.421634</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483192</v>
+        <v>0.489943</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.539833</v>
+        <v>0.564106</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408753</v>
+        <v>0.420158</v>
       </c>
       <c r="D102" t="n">
-        <v>0.496175</v>
+        <v>0.5049940000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.536429</v>
+        <v>0.566501</v>
       </c>
       <c r="C103" t="n">
-        <v>0.407145</v>
+        <v>0.426132</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5173990000000001</v>
+        <v>0.521992</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.544059</v>
+        <v>0.568893</v>
       </c>
       <c r="C104" t="n">
-        <v>0.409226</v>
+        <v>0.428215</v>
       </c>
       <c r="D104" t="n">
-        <v>0.52999</v>
+        <v>0.5427110000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.547238</v>
+        <v>0.570956</v>
       </c>
       <c r="C105" t="n">
-        <v>0.415077</v>
+        <v>0.426678</v>
       </c>
       <c r="D105" t="n">
-        <v>0.545412</v>
+        <v>0.559485</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551587</v>
+        <v>0.575014</v>
       </c>
       <c r="C106" t="n">
-        <v>0.423188</v>
+        <v>0.430106</v>
       </c>
       <c r="D106" t="n">
-        <v>0.565453</v>
+        <v>0.572456</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.557904</v>
+        <v>0.579994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423056</v>
+        <v>0.439398</v>
       </c>
       <c r="D107" t="n">
-        <v>0.518589</v>
+        <v>0.548476</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.56346</v>
+        <v>0.588716</v>
       </c>
       <c r="C108" t="n">
-        <v>0.54352</v>
+        <v>0.570837</v>
       </c>
       <c r="D108" t="n">
-        <v>0.544841</v>
+        <v>0.557859</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.576273</v>
+        <v>0.598969</v>
       </c>
       <c r="C109" t="n">
-        <v>0.542573</v>
+        <v>0.57584</v>
       </c>
       <c r="D109" t="n">
-        <v>0.557151</v>
+        <v>0.570441</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6143150000000001</v>
+        <v>0.6453449999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.549742</v>
+        <v>0.573325</v>
       </c>
       <c r="D110" t="n">
-        <v>0.567472</v>
+        <v>0.583864</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6140370000000001</v>
+        <v>0.646726</v>
       </c>
       <c r="C111" t="n">
-        <v>0.543766</v>
+        <v>0.573062</v>
       </c>
       <c r="D111" t="n">
-        <v>0.582584</v>
+        <v>0.597821</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.615333</v>
+        <v>0.6459819999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.543828</v>
+        <v>0.573055</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596208</v>
+        <v>0.611442</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.616093</v>
+        <v>0.6482560000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.549248</v>
+        <v>0.574621</v>
       </c>
       <c r="D113" t="n">
-        <v>0.613021</v>
+        <v>0.627674</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.617908</v>
+        <v>0.648011</v>
       </c>
       <c r="C114" t="n">
-        <v>0.548816</v>
+        <v>0.577025</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626988</v>
+        <v>0.641722</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621262</v>
+        <v>0.652877</v>
       </c>
       <c r="C115" t="n">
-        <v>0.552679</v>
+        <v>0.576862</v>
       </c>
       <c r="D115" t="n">
-        <v>0.642601</v>
+        <v>0.659787</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.62391</v>
+        <v>0.653247</v>
       </c>
       <c r="C116" t="n">
-        <v>0.549501</v>
+        <v>0.577245</v>
       </c>
       <c r="D116" t="n">
-        <v>0.654806</v>
+        <v>0.678862</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623872</v>
+        <v>0.654857</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5578070000000001</v>
+        <v>0.57874</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677581</v>
+        <v>0.695241</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626725</v>
+        <v>0.6576650000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.561573</v>
+        <v>0.5830109999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.689791</v>
+        <v>0.711063</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.633692</v>
+        <v>0.662401</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565272</v>
+        <v>0.586287</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7062040000000001</v>
+        <v>0.730098</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.636955</v>
+        <v>0.667203</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5660230000000001</v>
+        <v>0.592907</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722591</v>
+        <v>0.743068</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.642479</v>
+        <v>0.671964</v>
       </c>
       <c r="C121" t="n">
-        <v>0.565503</v>
+        <v>0.595907</v>
       </c>
       <c r="D121" t="n">
-        <v>0.632432</v>
+        <v>0.67448</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.646029</v>
+        <v>0.681548</v>
       </c>
       <c r="C122" t="n">
-        <v>0.580122</v>
+        <v>0.604448</v>
       </c>
       <c r="D122" t="n">
-        <v>0.644809</v>
+        <v>0.686005</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.665616</v>
+        <v>0.69569</v>
       </c>
       <c r="C123" t="n">
-        <v>0.711902</v>
+        <v>0.744688</v>
       </c>
       <c r="D123" t="n">
-        <v>0.656097</v>
+        <v>0.697201</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.756953</v>
+        <v>0.792405</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7138409999999999</v>
+        <v>0.745545</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6861660000000001</v>
+        <v>0.711492</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.760819</v>
+        <v>0.793799</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7109839999999999</v>
+        <v>0.7462</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682887</v>
+        <v>0.723774</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.757843</v>
+        <v>0.794987</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7122039999999999</v>
+        <v>0.747806</v>
       </c>
       <c r="D126" t="n">
-        <v>0.711197</v>
+        <v>0.736441</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.759092</v>
+        <v>0.795252</v>
       </c>
       <c r="C127" t="n">
-        <v>0.711433</v>
+        <v>0.747669</v>
       </c>
       <c r="D127" t="n">
-        <v>0.725302</v>
+        <v>0.750188</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.762637</v>
+        <v>0.797894</v>
       </c>
       <c r="C128" t="n">
-        <v>0.714663</v>
+        <v>0.748737</v>
       </c>
       <c r="D128" t="n">
-        <v>0.739415</v>
+        <v>0.763842</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.760362</v>
+        <v>0.79969</v>
       </c>
       <c r="C129" t="n">
-        <v>0.717959</v>
+        <v>0.750119</v>
       </c>
       <c r="D129" t="n">
-        <v>0.754629</v>
+        <v>0.781785</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.765571</v>
+        <v>0.800872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.722485</v>
+        <v>0.751413</v>
       </c>
       <c r="D130" t="n">
-        <v>0.768214</v>
+        <v>0.79233</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.765439</v>
+        <v>0.802975</v>
       </c>
       <c r="C131" t="n">
-        <v>0.720229</v>
+        <v>0.7536620000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.78493</v>
+        <v>0.805404</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.769845</v>
+        <v>0.806553</v>
       </c>
       <c r="C132" t="n">
-        <v>0.724934</v>
+        <v>0.756294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800978</v>
+        <v>0.824319</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.77253</v>
+        <v>0.8103860000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.723526</v>
+        <v>0.7592449999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.817234</v>
+        <v>0.843149</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.776178</v>
+        <v>0.8152779999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.730972</v>
+        <v>0.76335</v>
       </c>
       <c r="D134" t="n">
-        <v>0.834753</v>
+        <v>0.863308</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7834680000000001</v>
+        <v>0.822483</v>
       </c>
       <c r="C135" t="n">
-        <v>0.735873</v>
+        <v>0.770415</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7072929999999999</v>
+        <v>0.73602</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.776927</v>
+        <v>0.8310340000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.74414</v>
+        <v>0.775867</v>
       </c>
       <c r="D136" t="n">
-        <v>0.717804</v>
+        <v>0.74575</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.807386</v>
+        <v>0.844042</v>
       </c>
       <c r="C137" t="n">
-        <v>0.841326</v>
+        <v>0.887892</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726193</v>
+        <v>0.757309</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.887107</v>
+        <v>0.931119</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8505819999999999</v>
+        <v>0.885262</v>
       </c>
       <c r="D138" t="n">
-        <v>0.739676</v>
+        <v>0.768421</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.887684</v>
+        <v>0.929764</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8518869999999999</v>
+        <v>0.886312</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7528589999999999</v>
+        <v>0.77984</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.888592</v>
+        <v>0.930403</v>
       </c>
       <c r="C140" t="n">
-        <v>0.852967</v>
+        <v>0.8864</v>
       </c>
       <c r="D140" t="n">
-        <v>0.764865</v>
+        <v>0.793623</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.887942</v>
+        <v>0.9312859999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>0.853432</v>
+        <v>0.887409</v>
       </c>
       <c r="D141" t="n">
-        <v>0.778569</v>
+        <v>0.805803</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.889567</v>
+        <v>0.933042</v>
       </c>
       <c r="C142" t="n">
-        <v>0.854159</v>
+        <v>0.888666</v>
       </c>
       <c r="D142" t="n">
-        <v>0.792376</v>
+        <v>0.821627</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.878592</v>
+        <v>0.934077</v>
       </c>
       <c r="C143" t="n">
-        <v>0.854496</v>
+        <v>0.8889899999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.804556</v>
+        <v>0.83492</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116828</v>
+        <v>0.116007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11402</v>
+        <v>0.110839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133784</v>
+        <v>0.131251</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115194</v>
+        <v>0.115497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113315</v>
+        <v>0.111354</v>
       </c>
       <c r="D3" t="n">
-        <v>0.141607</v>
+        <v>0.137304</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116389</v>
+        <v>0.11545</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11347</v>
+        <v>0.111618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146662</v>
+        <v>0.144334</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117824</v>
+        <v>0.123149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.114093</v>
+        <v>0.116733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155026</v>
+        <v>0.151736</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11903</v>
+        <v>0.11904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.114412</v>
+        <v>0.113106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161178</v>
+        <v>0.157101</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.123792</v>
+        <v>0.131855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115675</v>
+        <v>0.120065</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127964</v>
+        <v>0.126507</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128252</v>
+        <v>0.132994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117124</v>
+        <v>0.130215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131112</v>
+        <v>0.129719</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139696</v>
+        <v>0.152137</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117635</v>
+        <v>0.115831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135821</v>
+        <v>0.134701</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.127229</v>
+        <v>0.124047</v>
       </c>
       <c r="C10" t="n">
-        <v>0.124378</v>
+        <v>0.116328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.13962</v>
+        <v>0.139555</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.131911</v>
+        <v>0.124117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.11828</v>
+        <v>0.116782</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145252</v>
+        <v>0.143911</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125661</v>
+        <v>0.124329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122972</v>
+        <v>0.116733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149551</v>
+        <v>0.149333</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.133052</v>
+        <v>0.125368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.122371</v>
+        <v>0.116903</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154806</v>
+        <v>0.153436</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125719</v>
+        <v>0.125072</v>
       </c>
       <c r="C14" t="n">
-        <v>0.121311</v>
+        <v>0.117183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159948</v>
+        <v>0.15939</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131718</v>
+        <v>0.125633</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12444</v>
+        <v>0.117549</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167064</v>
+        <v>0.165513</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127584</v>
+        <v>0.126472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.119402</v>
+        <v>0.117429</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172477</v>
+        <v>0.171344</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128565</v>
+        <v>0.126775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125057</v>
+        <v>0.118075</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180063</v>
+        <v>0.177139</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138597</v>
+        <v>0.129158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125271</v>
+        <v>0.118676</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18544</v>
+        <v>0.182475</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132746</v>
+        <v>0.13035</v>
       </c>
       <c r="C19" t="n">
-        <v>0.121678</v>
+        <v>0.119456</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189623</v>
+        <v>0.188814</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.141268</v>
+        <v>0.133774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128069</v>
+        <v>0.121116</v>
       </c>
       <c r="D20" t="n">
-        <v>0.195617</v>
+        <v>0.192839</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140167</v>
+        <v>0.138447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.128132</v>
+        <v>0.123145</v>
       </c>
       <c r="D21" t="n">
-        <v>0.14991</v>
+        <v>0.148193</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147668</v>
+        <v>0.145551</v>
       </c>
       <c r="C22" t="n">
-        <v>0.127727</v>
+        <v>0.128286</v>
       </c>
       <c r="D22" t="n">
-        <v>0.155488</v>
+        <v>0.15305</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158135</v>
+        <v>0.155067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134027</v>
+        <v>0.125445</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159751</v>
+        <v>0.158168</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.141278</v>
+        <v>0.133999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.13896</v>
+        <v>0.125675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164878</v>
+        <v>0.161705</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.143475</v>
+        <v>0.134791</v>
       </c>
       <c r="C25" t="n">
-        <v>0.133862</v>
+        <v>0.125477</v>
       </c>
       <c r="D25" t="n">
-        <v>0.168179</v>
+        <v>0.167046</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136374</v>
+        <v>0.134481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.139232</v>
+        <v>0.125399</v>
       </c>
       <c r="D26" t="n">
-        <v>0.174976</v>
+        <v>0.171657</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138899</v>
+        <v>0.134972</v>
       </c>
       <c r="C27" t="n">
-        <v>0.130423</v>
+        <v>0.129014</v>
       </c>
       <c r="D27" t="n">
-        <v>0.179219</v>
+        <v>0.176735</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138299</v>
+        <v>0.136789</v>
       </c>
       <c r="C28" t="n">
-        <v>0.131761</v>
+        <v>0.126478</v>
       </c>
       <c r="D28" t="n">
-        <v>0.184876</v>
+        <v>0.182335</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139373</v>
+        <v>0.136294</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131901</v>
+        <v>0.130613</v>
       </c>
       <c r="D29" t="n">
-        <v>0.189059</v>
+        <v>0.186553</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139856</v>
+        <v>0.137312</v>
       </c>
       <c r="C30" t="n">
-        <v>0.131461</v>
+        <v>0.136771</v>
       </c>
       <c r="D30" t="n">
-        <v>0.19431</v>
+        <v>0.191319</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141782</v>
+        <v>0.138192</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12928</v>
+        <v>0.129583</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198746</v>
+        <v>0.19654</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140151</v>
+        <v>0.140348</v>
       </c>
       <c r="C32" t="n">
-        <v>0.131594</v>
+        <v>0.128274</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203941</v>
+        <v>0.202683</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150847</v>
+        <v>0.143659</v>
       </c>
       <c r="C33" t="n">
-        <v>0.12986</v>
+        <v>0.13284</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209345</v>
+        <v>0.208013</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149647</v>
+        <v>0.147486</v>
       </c>
       <c r="C34" t="n">
-        <v>0.131706</v>
+        <v>0.138711</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213567</v>
+        <v>0.213266</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151727</v>
+        <v>0.152565</v>
       </c>
       <c r="C35" t="n">
-        <v>0.136468</v>
+        <v>0.136905</v>
       </c>
       <c r="D35" t="n">
-        <v>0.166703</v>
+        <v>0.165107</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.16759</v>
+        <v>0.15839</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145973</v>
+        <v>0.145694</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171098</v>
+        <v>0.168708</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170362</v>
+        <v>0.16649</v>
       </c>
       <c r="C37" t="n">
-        <v>0.144392</v>
+        <v>0.135478</v>
       </c>
       <c r="D37" t="n">
-        <v>0.175272</v>
+        <v>0.173354</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147293</v>
+        <v>0.14815</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138731</v>
+        <v>0.145246</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178196</v>
+        <v>0.176813</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.150627</v>
+        <v>0.148257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14575</v>
+        <v>0.138879</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183411</v>
+        <v>0.181967</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148514</v>
+        <v>0.148524</v>
       </c>
       <c r="C40" t="n">
-        <v>0.142852</v>
+        <v>0.154297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187651</v>
+        <v>0.185904</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149243</v>
+        <v>0.14559</v>
       </c>
       <c r="C41" t="n">
-        <v>0.140191</v>
+        <v>0.146155</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191631</v>
+        <v>0.190265</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150192</v>
+        <v>0.149658</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150024</v>
+        <v>0.139826</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196263</v>
+        <v>0.195042</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149044</v>
+        <v>0.150532</v>
       </c>
       <c r="C43" t="n">
-        <v>0.154163</v>
+        <v>0.156193</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201531</v>
+        <v>0.199769</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152354</v>
+        <v>0.152425</v>
       </c>
       <c r="C44" t="n">
-        <v>0.144695</v>
+        <v>0.146235</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206109</v>
+        <v>0.204663</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153061</v>
+        <v>0.152724</v>
       </c>
       <c r="C45" t="n">
-        <v>0.14379</v>
+        <v>0.145814</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211261</v>
+        <v>0.209811</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156136</v>
+        <v>0.153895</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153565</v>
+        <v>0.147892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.217063</v>
+        <v>0.214861</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.16123</v>
+        <v>0.157825</v>
       </c>
       <c r="C47" t="n">
-        <v>0.149665</v>
+        <v>0.142353</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22274</v>
+        <v>0.220971</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162151</v>
+        <v>0.162158</v>
       </c>
       <c r="C48" t="n">
-        <v>0.156871</v>
+        <v>0.146794</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227344</v>
+        <v>0.225421</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.165748</v>
+        <v>0.164443</v>
       </c>
       <c r="C49" t="n">
-        <v>0.160923</v>
+        <v>0.149184</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231365</v>
+        <v>0.230061</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174766</v>
+        <v>0.170366</v>
       </c>
       <c r="C50" t="n">
-        <v>0.164954</v>
+        <v>0.157172</v>
       </c>
       <c r="D50" t="n">
-        <v>0.172085</v>
+        <v>0.168699</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181092</v>
+        <v>0.177766</v>
       </c>
       <c r="C51" t="n">
-        <v>0.158307</v>
+        <v>0.15816</v>
       </c>
       <c r="D51" t="n">
-        <v>0.176156</v>
+        <v>0.171929</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.18427</v>
+        <v>0.199527</v>
       </c>
       <c r="C52" t="n">
-        <v>0.158816</v>
+        <v>0.151328</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179906</v>
+        <v>0.175924</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159509</v>
+        <v>0.160103</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164409</v>
+        <v>0.152908</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183585</v>
+        <v>0.179846</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161176</v>
+        <v>0.160601</v>
       </c>
       <c r="C54" t="n">
-        <v>0.161665</v>
+        <v>0.151708</v>
       </c>
       <c r="D54" t="n">
-        <v>0.188469</v>
+        <v>0.18427</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.164274</v>
+        <v>0.160592</v>
       </c>
       <c r="C55" t="n">
-        <v>0.164501</v>
+        <v>0.152554</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192981</v>
+        <v>0.188667</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.164274</v>
+        <v>0.166112</v>
       </c>
       <c r="C56" t="n">
-        <v>0.157483</v>
+        <v>0.15159</v>
       </c>
       <c r="D56" t="n">
-        <v>0.198264</v>
+        <v>0.193666</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163014</v>
+        <v>0.162591</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164372</v>
+        <v>0.155722</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202299</v>
+        <v>0.198333</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163194</v>
+        <v>0.163146</v>
       </c>
       <c r="C58" t="n">
-        <v>0.157485</v>
+        <v>0.153922</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207341</v>
+        <v>0.20362</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.170028</v>
+        <v>0.16615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.163872</v>
+        <v>0.154151</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212833</v>
+        <v>0.208706</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167034</v>
+        <v>0.172692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.165201</v>
+        <v>0.154923</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217259</v>
+        <v>0.213539</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169504</v>
+        <v>0.169128</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172397</v>
+        <v>0.163521</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222749</v>
+        <v>0.219091</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172166</v>
+        <v>0.174696</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171717</v>
+        <v>0.159953</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228895</v>
+        <v>0.223909</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183876</v>
+        <v>0.182773</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16691</v>
+        <v>0.161725</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232677</v>
+        <v>0.228246</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180455</v>
+        <v>0.181744</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18245</v>
+        <v>0.168209</v>
       </c>
       <c r="D64" t="n">
-        <v>0.180477</v>
+        <v>0.177307</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.201213</v>
+        <v>0.194667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187833</v>
+        <v>0.173482</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184253</v>
+        <v>0.181566</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.208271</v>
+        <v>0.204544</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178902</v>
+        <v>0.164154</v>
       </c>
       <c r="D66" t="n">
-        <v>0.190186</v>
+        <v>0.183425</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18345</v>
+        <v>0.179231</v>
       </c>
       <c r="C67" t="n">
-        <v>0.179981</v>
+        <v>0.16278</v>
       </c>
       <c r="D67" t="n">
-        <v>0.195761</v>
+        <v>0.190691</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.204919</v>
+        <v>0.184046</v>
       </c>
       <c r="C68" t="n">
-        <v>0.180734</v>
+        <v>0.172702</v>
       </c>
       <c r="D68" t="n">
-        <v>0.200561</v>
+        <v>0.194567</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.216118</v>
+        <v>0.180571</v>
       </c>
       <c r="C69" t="n">
-        <v>0.187637</v>
+        <v>0.16308</v>
       </c>
       <c r="D69" t="n">
-        <v>0.208214</v>
+        <v>0.201227</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.211566</v>
+        <v>0.182787</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182244</v>
+        <v>0.163313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215879</v>
+        <v>0.207653</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.205361</v>
+        <v>0.183125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.174175</v>
+        <v>0.164236</v>
       </c>
       <c r="D71" t="n">
-        <v>0.219137</v>
+        <v>0.213798</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.22903</v>
+        <v>0.183146</v>
       </c>
       <c r="C72" t="n">
-        <v>0.181596</v>
+        <v>0.183648</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22945</v>
+        <v>0.218397</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.182377</v>
+        <v>0.185178</v>
       </c>
       <c r="C73" t="n">
-        <v>0.172504</v>
+        <v>0.168388</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236581</v>
+        <v>0.225598</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201549</v>
+        <v>0.18725</v>
       </c>
       <c r="C74" t="n">
-        <v>0.181909</v>
+        <v>0.167278</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246925</v>
+        <v>0.236414</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.210908</v>
+        <v>0.190242</v>
       </c>
       <c r="C75" t="n">
-        <v>0.185288</v>
+        <v>0.16933</v>
       </c>
       <c r="D75" t="n">
-        <v>0.259534</v>
+        <v>0.243691</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213872</v>
+        <v>0.196958</v>
       </c>
       <c r="C76" t="n">
-        <v>0.183352</v>
+        <v>0.173335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.272584</v>
+        <v>0.255369</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203269</v>
+        <v>0.194723</v>
       </c>
       <c r="C77" t="n">
-        <v>0.184943</v>
+        <v>0.183844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.289867</v>
+        <v>0.264616</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.215695</v>
+        <v>0.198997</v>
       </c>
       <c r="C78" t="n">
-        <v>0.19335</v>
+        <v>0.176738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.236685</v>
+        <v>0.218281</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208639</v>
+        <v>0.209343</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202811</v>
+        <v>0.192629</v>
       </c>
       <c r="D79" t="n">
-        <v>0.246384</v>
+        <v>0.227569</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.209974</v>
+        <v>0.215127</v>
       </c>
       <c r="C80" t="n">
-        <v>0.247162</v>
+        <v>0.24103</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254797</v>
+        <v>0.235935</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351432</v>
+        <v>0.357953</v>
       </c>
       <c r="C81" t="n">
-        <v>0.248805</v>
+        <v>0.239452</v>
       </c>
       <c r="D81" t="n">
-        <v>0.268742</v>
+        <v>0.249325</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.36443</v>
+        <v>0.357633</v>
       </c>
       <c r="C82" t="n">
-        <v>0.252085</v>
+        <v>0.246051</v>
       </c>
       <c r="D82" t="n">
-        <v>0.280259</v>
+        <v>0.260499</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.364545</v>
+        <v>0.36022</v>
       </c>
       <c r="C83" t="n">
-        <v>0.257269</v>
+        <v>0.252369</v>
       </c>
       <c r="D83" t="n">
-        <v>0.290405</v>
+        <v>0.275862</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.366856</v>
+        <v>0.358833</v>
       </c>
       <c r="C84" t="n">
-        <v>0.260154</v>
+        <v>0.251193</v>
       </c>
       <c r="D84" t="n">
-        <v>0.305203</v>
+        <v>0.287572</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.370051</v>
+        <v>0.362683</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259393</v>
+        <v>0.243792</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319233</v>
+        <v>0.304873</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.371908</v>
+        <v>0.366521</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247999</v>
+        <v>0.242964</v>
       </c>
       <c r="D86" t="n">
-        <v>0.332159</v>
+        <v>0.321328</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368426</v>
+        <v>0.367936</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245526</v>
+        <v>0.242182</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3505</v>
+        <v>0.338296</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.370351</v>
+        <v>0.369544</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247765</v>
+        <v>0.24266</v>
       </c>
       <c r="D88" t="n">
-        <v>0.36825</v>
+        <v>0.355687</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.374747</v>
+        <v>0.368849</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242358</v>
+        <v>0.240022</v>
       </c>
       <c r="D89" t="n">
-        <v>0.382975</v>
+        <v>0.371843</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.368068</v>
+        <v>0.372233</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244563</v>
+        <v>0.240566</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393493</v>
+        <v>0.38453</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.371921</v>
+        <v>0.372668</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247944</v>
+        <v>0.238554</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41019</v>
+        <v>0.400067</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376085</v>
+        <v>0.376624</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248812</v>
+        <v>0.241531</v>
       </c>
       <c r="D92" t="n">
-        <v>0.36435</v>
+        <v>0.356054</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381602</v>
+        <v>0.382154</v>
       </c>
       <c r="C93" t="n">
-        <v>0.261395</v>
+        <v>0.243507</v>
       </c>
       <c r="D93" t="n">
-        <v>0.375372</v>
+        <v>0.365804</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390314</v>
+        <v>0.386861</v>
       </c>
       <c r="C94" t="n">
-        <v>0.410382</v>
+        <v>0.399848</v>
       </c>
       <c r="D94" t="n">
-        <v>0.387831</v>
+        <v>0.378769</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.535679</v>
+        <v>0.527033</v>
       </c>
       <c r="C95" t="n">
-        <v>0.405768</v>
+        <v>0.398937</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394092</v>
+        <v>0.387952</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.535397</v>
+        <v>0.52681</v>
       </c>
       <c r="C96" t="n">
-        <v>0.408508</v>
+        <v>0.399355</v>
       </c>
       <c r="D96" t="n">
-        <v>0.409425</v>
+        <v>0.39773</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.531377</v>
+        <v>0.5281670000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.404496</v>
+        <v>0.399105</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418946</v>
+        <v>0.411989</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.53581</v>
+        <v>0.529092</v>
       </c>
       <c r="C98" t="n">
-        <v>0.40549</v>
+        <v>0.406988</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435934</v>
+        <v>0.426121</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.537046</v>
+        <v>0.528237</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411412</v>
+        <v>0.398312</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450309</v>
+        <v>0.441552</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.532654</v>
+        <v>0.529197</v>
       </c>
       <c r="C100" t="n">
-        <v>0.404355</v>
+        <v>0.397734</v>
       </c>
       <c r="D100" t="n">
-        <v>0.465587</v>
+        <v>0.458203</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.539382</v>
+        <v>0.530698</v>
       </c>
       <c r="C101" t="n">
-        <v>0.404203</v>
+        <v>0.405796</v>
       </c>
       <c r="D101" t="n">
-        <v>0.483192</v>
+        <v>0.469993</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.539833</v>
+        <v>0.532425</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408753</v>
+        <v>0.397749</v>
       </c>
       <c r="D102" t="n">
-        <v>0.496175</v>
+        <v>0.486726</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.536429</v>
+        <v>0.53509</v>
       </c>
       <c r="C103" t="n">
-        <v>0.407145</v>
+        <v>0.399017</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5173990000000001</v>
+        <v>0.5034960000000001</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.544059</v>
+        <v>0.536233</v>
       </c>
       <c r="C104" t="n">
-        <v>0.409226</v>
+        <v>0.401195</v>
       </c>
       <c r="D104" t="n">
-        <v>0.52999</v>
+        <v>0.519424</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.547238</v>
+        <v>0.539228</v>
       </c>
       <c r="C105" t="n">
-        <v>0.415077</v>
+        <v>0.402291</v>
       </c>
       <c r="D105" t="n">
-        <v>0.545412</v>
+        <v>0.536198</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.551587</v>
+        <v>0.543776</v>
       </c>
       <c r="C106" t="n">
-        <v>0.423188</v>
+        <v>0.406929</v>
       </c>
       <c r="D106" t="n">
-        <v>0.565453</v>
+        <v>0.552561</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.557904</v>
+        <v>0.550099</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423056</v>
+        <v>0.413757</v>
       </c>
       <c r="D107" t="n">
-        <v>0.518589</v>
+        <v>0.522802</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.56346</v>
+        <v>0.557129</v>
       </c>
       <c r="C108" t="n">
-        <v>0.54352</v>
+        <v>0.535226</v>
       </c>
       <c r="D108" t="n">
-        <v>0.544841</v>
+        <v>0.53238</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.576273</v>
+        <v>0.568263</v>
       </c>
       <c r="C109" t="n">
-        <v>0.542573</v>
+        <v>0.534303</v>
       </c>
       <c r="D109" t="n">
-        <v>0.557151</v>
+        <v>0.544102</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6143150000000001</v>
+        <v>0.602334</v>
       </c>
       <c r="C110" t="n">
-        <v>0.549742</v>
+        <v>0.5344370000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.567472</v>
+        <v>0.556302</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6140370000000001</v>
+        <v>0.604608</v>
       </c>
       <c r="C111" t="n">
-        <v>0.543766</v>
+        <v>0.535379</v>
       </c>
       <c r="D111" t="n">
-        <v>0.582584</v>
+        <v>0.568612</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.615333</v>
+        <v>0.607336</v>
       </c>
       <c r="C112" t="n">
-        <v>0.543828</v>
+        <v>0.536245</v>
       </c>
       <c r="D112" t="n">
-        <v>0.596208</v>
+        <v>0.58285</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.616093</v>
+        <v>0.605819</v>
       </c>
       <c r="C113" t="n">
-        <v>0.549248</v>
+        <v>0.534906</v>
       </c>
       <c r="D113" t="n">
-        <v>0.613021</v>
+        <v>0.598157</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.617908</v>
+        <v>0.609092</v>
       </c>
       <c r="C114" t="n">
-        <v>0.548816</v>
+        <v>0.538964</v>
       </c>
       <c r="D114" t="n">
-        <v>0.626988</v>
+        <v>0.610116</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.621262</v>
+        <v>0.614094</v>
       </c>
       <c r="C115" t="n">
-        <v>0.552679</v>
+        <v>0.539483</v>
       </c>
       <c r="D115" t="n">
-        <v>0.642601</v>
+        <v>0.629806</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.62391</v>
+        <v>0.612984</v>
       </c>
       <c r="C116" t="n">
-        <v>0.549501</v>
+        <v>0.540106</v>
       </c>
       <c r="D116" t="n">
-        <v>0.654806</v>
+        <v>0.645304</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623872</v>
+        <v>0.613474</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5578070000000001</v>
+        <v>0.5425410000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677581</v>
+        <v>0.662083</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.626725</v>
+        <v>0.616119</v>
       </c>
       <c r="C118" t="n">
-        <v>0.561573</v>
+        <v>0.544577</v>
       </c>
       <c r="D118" t="n">
-        <v>0.689791</v>
+        <v>0.676874</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.633692</v>
+        <v>0.622088</v>
       </c>
       <c r="C119" t="n">
-        <v>0.565272</v>
+        <v>0.546961</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7062040000000001</v>
+        <v>0.694876</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.636955</v>
+        <v>0.627583</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5660230000000001</v>
+        <v>0.551238</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722591</v>
+        <v>0.708315</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.642479</v>
+        <v>0.632939</v>
       </c>
       <c r="C121" t="n">
-        <v>0.565503</v>
+        <v>0.558202</v>
       </c>
       <c r="D121" t="n">
-        <v>0.632432</v>
+        <v>0.632617</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.646029</v>
+        <v>0.64225</v>
       </c>
       <c r="C122" t="n">
-        <v>0.580122</v>
+        <v>0.564992</v>
       </c>
       <c r="D122" t="n">
-        <v>0.644809</v>
+        <v>0.6442369999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.665616</v>
+        <v>0.653928</v>
       </c>
       <c r="C123" t="n">
-        <v>0.711902</v>
+        <v>0.693642</v>
       </c>
       <c r="D123" t="n">
-        <v>0.656097</v>
+        <v>0.655408</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.756953</v>
+        <v>0.743356</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7138409999999999</v>
+        <v>0.692582</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6861660000000001</v>
+        <v>0.670214</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.760819</v>
+        <v>0.744345</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7109839999999999</v>
+        <v>0.695716</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682887</v>
+        <v>0.681653</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.757843</v>
+        <v>0.744051</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7122039999999999</v>
+        <v>0.697096</v>
       </c>
       <c r="D126" t="n">
-        <v>0.711197</v>
+        <v>0.694255</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.759092</v>
+        <v>0.74871</v>
       </c>
       <c r="C127" t="n">
-        <v>0.711433</v>
+        <v>0.696981</v>
       </c>
       <c r="D127" t="n">
-        <v>0.725302</v>
+        <v>0.708371</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.762637</v>
+        <v>0.747854</v>
       </c>
       <c r="C128" t="n">
-        <v>0.714663</v>
+        <v>0.698338</v>
       </c>
       <c r="D128" t="n">
-        <v>0.739415</v>
+        <v>0.721988</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.760362</v>
+        <v>0.749684</v>
       </c>
       <c r="C129" t="n">
-        <v>0.717959</v>
+        <v>0.698502</v>
       </c>
       <c r="D129" t="n">
-        <v>0.754629</v>
+        <v>0.737621</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.765571</v>
+        <v>0.752341</v>
       </c>
       <c r="C130" t="n">
-        <v>0.722485</v>
+        <v>0.700953</v>
       </c>
       <c r="D130" t="n">
-        <v>0.768214</v>
+        <v>0.7489209999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.765439</v>
+        <v>0.751198</v>
       </c>
       <c r="C131" t="n">
-        <v>0.720229</v>
+        <v>0.700477</v>
       </c>
       <c r="D131" t="n">
-        <v>0.78493</v>
+        <v>0.762624</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.769845</v>
+        <v>0.7562219999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.724934</v>
+        <v>0.703796</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800978</v>
+        <v>0.778697</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.77253</v>
+        <v>0.759693</v>
       </c>
       <c r="C133" t="n">
-        <v>0.723526</v>
+        <v>0.709433</v>
       </c>
       <c r="D133" t="n">
-        <v>0.817234</v>
+        <v>0.7969850000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.776178</v>
+        <v>0.763202</v>
       </c>
       <c r="C134" t="n">
-        <v>0.730972</v>
+        <v>0.714421</v>
       </c>
       <c r="D134" t="n">
-        <v>0.834753</v>
+        <v>0.816684</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7834680000000001</v>
+        <v>0.769834</v>
       </c>
       <c r="C135" t="n">
-        <v>0.735873</v>
+        <v>0.719687</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7072929999999999</v>
+        <v>0.687269</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.776927</v>
+        <v>0.786862</v>
       </c>
       <c r="C136" t="n">
-        <v>0.74414</v>
+        <v>0.724143</v>
       </c>
       <c r="D136" t="n">
-        <v>0.717804</v>
+        <v>0.69721</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.807386</v>
+        <v>0.792775</v>
       </c>
       <c r="C137" t="n">
-        <v>0.841326</v>
+        <v>0.828884</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726193</v>
+        <v>0.707773</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.887107</v>
+        <v>0.868198</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8505819999999999</v>
+        <v>0.828397</v>
       </c>
       <c r="D138" t="n">
-        <v>0.739676</v>
+        <v>0.719845</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.887684</v>
+        <v>0.867631</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8518869999999999</v>
+        <v>0.829618</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7528589999999999</v>
+        <v>0.731885</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.888592</v>
+        <v>0.868605</v>
       </c>
       <c r="C140" t="n">
-        <v>0.852967</v>
+        <v>0.830795</v>
       </c>
       <c r="D140" t="n">
-        <v>0.764865</v>
+        <v>0.744855</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.887942</v>
+        <v>0.868642</v>
       </c>
       <c r="C141" t="n">
-        <v>0.853432</v>
+        <v>0.831801</v>
       </c>
       <c r="D141" t="n">
-        <v>0.778569</v>
+        <v>0.757965</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.889567</v>
+        <v>0.870068</v>
       </c>
       <c r="C142" t="n">
-        <v>0.854159</v>
+        <v>0.831337</v>
       </c>
       <c r="D142" t="n">
-        <v>0.792376</v>
+        <v>0.771778</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.878592</v>
+        <v>0.8717780000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.854496</v>
+        <v>0.832118</v>
       </c>
       <c r="D143" t="n">
-        <v>0.804556</v>
+        <v>0.785036</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116007</v>
+        <v>0.115822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110839</v>
+        <v>0.110871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.131251</v>
+        <v>0.132222</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115497</v>
+        <v>0.115025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111354</v>
+        <v>0.111186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.137304</v>
+        <v>0.139369</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11545</v>
+        <v>0.115454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.111618</v>
+        <v>0.111498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.144334</v>
+        <v>0.144954</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.123149</v>
+        <v>0.116635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.116733</v>
+        <v>0.112157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.151736</v>
+        <v>0.151739</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11904</v>
+        <v>0.118628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.113106</v>
+        <v>0.113166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.157101</v>
+        <v>0.158272</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.131855</v>
+        <v>0.122781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.120065</v>
+        <v>0.115809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.126507</v>
+        <v>0.127949</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.132994</v>
+        <v>0.127492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130215</v>
+        <v>0.120009</v>
       </c>
       <c r="D8" t="n">
-        <v>0.129719</v>
+        <v>0.131306</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152137</v>
+        <v>0.138579</v>
       </c>
       <c r="C9" t="n">
-        <v>0.115831</v>
+        <v>0.115966</v>
       </c>
       <c r="D9" t="n">
-        <v>0.134701</v>
+        <v>0.135412</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124047</v>
+        <v>0.124066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116328</v>
+        <v>0.115985</v>
       </c>
       <c r="D10" t="n">
-        <v>0.139555</v>
+        <v>0.139773</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124117</v>
+        <v>0.123795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116782</v>
+        <v>0.119089</v>
       </c>
       <c r="D11" t="n">
-        <v>0.143911</v>
+        <v>0.143721</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124329</v>
+        <v>0.124298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.116733</v>
+        <v>0.126858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149333</v>
+        <v>0.148686</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.125368</v>
+        <v>0.124597</v>
       </c>
       <c r="C13" t="n">
-        <v>0.116903</v>
+        <v>0.11718</v>
       </c>
       <c r="D13" t="n">
-        <v>0.153436</v>
+        <v>0.152848</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125072</v>
+        <v>0.124999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117183</v>
+        <v>0.118052</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15939</v>
+        <v>0.158745</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.125633</v>
+        <v>0.126596</v>
       </c>
       <c r="C15" t="n">
-        <v>0.117549</v>
+        <v>0.118059</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165513</v>
+        <v>0.164678</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126472</v>
+        <v>0.127848</v>
       </c>
       <c r="C16" t="n">
-        <v>0.117429</v>
+        <v>0.118452</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171344</v>
+        <v>0.171181</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.126775</v>
+        <v>0.129059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.118075</v>
+        <v>0.121386</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177139</v>
+        <v>0.177228</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129158</v>
+        <v>0.128698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.118676</v>
+        <v>0.120125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.182475</v>
+        <v>0.182252</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13035</v>
+        <v>0.131353</v>
       </c>
       <c r="C19" t="n">
-        <v>0.119456</v>
+        <v>0.122808</v>
       </c>
       <c r="D19" t="n">
-        <v>0.188814</v>
+        <v>0.188126</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.133774</v>
+        <v>0.134281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.121116</v>
+        <v>0.121794</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192839</v>
+        <v>0.192973</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.138447</v>
+        <v>0.138941</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123145</v>
+        <v>0.123901</v>
       </c>
       <c r="D21" t="n">
-        <v>0.148193</v>
+        <v>0.147041</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.145551</v>
+        <v>0.147506</v>
       </c>
       <c r="C22" t="n">
-        <v>0.128286</v>
+        <v>0.131259</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15305</v>
+        <v>0.152005</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155067</v>
+        <v>0.16318</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125445</v>
+        <v>0.125306</v>
       </c>
       <c r="D23" t="n">
-        <v>0.158168</v>
+        <v>0.156328</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133999</v>
+        <v>0.13525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.125675</v>
+        <v>0.125037</v>
       </c>
       <c r="D24" t="n">
-        <v>0.161705</v>
+        <v>0.162347</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134791</v>
+        <v>0.135534</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125477</v>
+        <v>0.125239</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167046</v>
+        <v>0.167689</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134481</v>
+        <v>0.141983</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125399</v>
+        <v>0.125216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171657</v>
+        <v>0.171268</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134972</v>
+        <v>0.134968</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129014</v>
+        <v>0.125729</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176735</v>
+        <v>0.176229</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136789</v>
+        <v>0.136472</v>
       </c>
       <c r="C28" t="n">
-        <v>0.126478</v>
+        <v>0.12626</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182335</v>
+        <v>0.181096</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136294</v>
+        <v>0.135666</v>
       </c>
       <c r="C29" t="n">
-        <v>0.130613</v>
+        <v>0.126543</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186553</v>
+        <v>0.186259</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137312</v>
+        <v>0.137562</v>
       </c>
       <c r="C30" t="n">
-        <v>0.136771</v>
+        <v>0.129468</v>
       </c>
       <c r="D30" t="n">
-        <v>0.191319</v>
+        <v>0.191336</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138192</v>
+        <v>0.1382</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129583</v>
+        <v>0.127201</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19654</v>
+        <v>0.196173</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140348</v>
+        <v>0.140389</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128274</v>
+        <v>0.128184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202683</v>
+        <v>0.202606</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143659</v>
+        <v>0.144681</v>
       </c>
       <c r="C33" t="n">
-        <v>0.13284</v>
+        <v>0.130416</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208013</v>
+        <v>0.207996</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147486</v>
+        <v>0.148942</v>
       </c>
       <c r="C34" t="n">
-        <v>0.138711</v>
+        <v>0.132113</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213266</v>
+        <v>0.211908</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152565</v>
+        <v>0.151173</v>
       </c>
       <c r="C35" t="n">
-        <v>0.136905</v>
+        <v>0.134783</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165107</v>
+        <v>0.165005</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.15839</v>
+        <v>0.159796</v>
       </c>
       <c r="C36" t="n">
-        <v>0.145694</v>
+        <v>0.141326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168708</v>
+        <v>0.169957</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16649</v>
+        <v>0.166137</v>
       </c>
       <c r="C37" t="n">
-        <v>0.135478</v>
+        <v>0.134825</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173354</v>
+        <v>0.17344</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14815</v>
+        <v>0.147503</v>
       </c>
       <c r="C38" t="n">
-        <v>0.145246</v>
+        <v>0.137729</v>
       </c>
       <c r="D38" t="n">
-        <v>0.176813</v>
+        <v>0.176569</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148257</v>
+        <v>0.14708</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138879</v>
+        <v>0.138471</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181967</v>
+        <v>0.181304</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148524</v>
+        <v>0.147809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.154297</v>
+        <v>0.137998</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185904</v>
+        <v>0.185699</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14559</v>
+        <v>0.148813</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146155</v>
+        <v>0.137817</v>
       </c>
       <c r="D41" t="n">
-        <v>0.190265</v>
+        <v>0.190133</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149658</v>
+        <v>0.149045</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139826</v>
+        <v>0.139279</v>
       </c>
       <c r="D42" t="n">
-        <v>0.195042</v>
+        <v>0.194747</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150532</v>
+        <v>0.149503</v>
       </c>
       <c r="C43" t="n">
-        <v>0.156193</v>
+        <v>0.139175</v>
       </c>
       <c r="D43" t="n">
-        <v>0.199769</v>
+        <v>0.199614</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152425</v>
+        <v>0.151744</v>
       </c>
       <c r="C44" t="n">
-        <v>0.146235</v>
+        <v>0.140013</v>
       </c>
       <c r="D44" t="n">
-        <v>0.204663</v>
+        <v>0.204854</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152724</v>
+        <v>0.153176</v>
       </c>
       <c r="C45" t="n">
-        <v>0.145814</v>
+        <v>0.139987</v>
       </c>
       <c r="D45" t="n">
-        <v>0.209811</v>
+        <v>0.209825</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.153895</v>
+        <v>0.155073</v>
       </c>
       <c r="C46" t="n">
-        <v>0.147892</v>
+        <v>0.139858</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214861</v>
+        <v>0.214876</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157825</v>
+        <v>0.157923</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142353</v>
+        <v>0.142647</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220971</v>
+        <v>0.220776</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.162158</v>
+        <v>0.159993</v>
       </c>
       <c r="C48" t="n">
-        <v>0.146794</v>
+        <v>0.14569</v>
       </c>
       <c r="D48" t="n">
-        <v>0.225421</v>
+        <v>0.225266</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164443</v>
+        <v>0.164219</v>
       </c>
       <c r="C49" t="n">
-        <v>0.149184</v>
+        <v>0.149694</v>
       </c>
       <c r="D49" t="n">
-        <v>0.230061</v>
+        <v>0.229567</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170366</v>
+        <v>0.169508</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157172</v>
+        <v>0.153354</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168699</v>
+        <v>0.168632</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177766</v>
+        <v>0.175751</v>
       </c>
       <c r="C51" t="n">
-        <v>0.15816</v>
+        <v>0.151303</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171929</v>
+        <v>0.171982</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.199527</v>
+        <v>0.187937</v>
       </c>
       <c r="C52" t="n">
-        <v>0.151328</v>
+        <v>0.15251</v>
       </c>
       <c r="D52" t="n">
-        <v>0.175924</v>
+        <v>0.17607</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160103</v>
+        <v>0.159379</v>
       </c>
       <c r="C53" t="n">
-        <v>0.152908</v>
+        <v>0.151284</v>
       </c>
       <c r="D53" t="n">
-        <v>0.179846</v>
+        <v>0.180241</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160601</v>
+        <v>0.160501</v>
       </c>
       <c r="C54" t="n">
-        <v>0.151708</v>
+        <v>0.154696</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18427</v>
+        <v>0.185036</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160592</v>
+        <v>0.161254</v>
       </c>
       <c r="C55" t="n">
-        <v>0.152554</v>
+        <v>0.151706</v>
       </c>
       <c r="D55" t="n">
-        <v>0.188667</v>
+        <v>0.188973</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.166112</v>
+        <v>0.162041</v>
       </c>
       <c r="C56" t="n">
-        <v>0.15159</v>
+        <v>0.151485</v>
       </c>
       <c r="D56" t="n">
-        <v>0.193666</v>
+        <v>0.19381</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162591</v>
+        <v>0.162269</v>
       </c>
       <c r="C57" t="n">
-        <v>0.155722</v>
+        <v>0.152264</v>
       </c>
       <c r="D57" t="n">
-        <v>0.198333</v>
+        <v>0.199331</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163146</v>
+        <v>0.165697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.153922</v>
+        <v>0.15373</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20362</v>
+        <v>0.20413</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16615</v>
+        <v>0.165441</v>
       </c>
       <c r="C59" t="n">
-        <v>0.154151</v>
+        <v>0.15775</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208706</v>
+        <v>0.208812</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.172692</v>
+        <v>0.169393</v>
       </c>
       <c r="C60" t="n">
-        <v>0.154923</v>
+        <v>0.1557</v>
       </c>
       <c r="D60" t="n">
-        <v>0.213539</v>
+        <v>0.214186</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169128</v>
+        <v>0.168568</v>
       </c>
       <c r="C61" t="n">
-        <v>0.163521</v>
+        <v>0.157846</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219091</v>
+        <v>0.219133</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174696</v>
+        <v>0.177189</v>
       </c>
       <c r="C62" t="n">
-        <v>0.159953</v>
+        <v>0.160031</v>
       </c>
       <c r="D62" t="n">
-        <v>0.223909</v>
+        <v>0.224461</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.182773</v>
+        <v>0.175828</v>
       </c>
       <c r="C63" t="n">
-        <v>0.161725</v>
+        <v>0.165467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.228246</v>
+        <v>0.22904</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181744</v>
+        <v>0.187242</v>
       </c>
       <c r="C64" t="n">
-        <v>0.168209</v>
+        <v>0.166171</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177307</v>
+        <v>0.176592</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194667</v>
+        <v>0.187037</v>
       </c>
       <c r="C65" t="n">
-        <v>0.173482</v>
+        <v>0.174881</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181566</v>
+        <v>0.182659</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204544</v>
+        <v>0.203984</v>
       </c>
       <c r="C66" t="n">
-        <v>0.164154</v>
+        <v>0.161861</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183425</v>
+        <v>0.18434</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179231</v>
+        <v>0.18099</v>
       </c>
       <c r="C67" t="n">
-        <v>0.16278</v>
+        <v>0.168716</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190691</v>
+        <v>0.18935</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184046</v>
+        <v>0.180683</v>
       </c>
       <c r="C68" t="n">
-        <v>0.172702</v>
+        <v>0.162362</v>
       </c>
       <c r="D68" t="n">
-        <v>0.194567</v>
+        <v>0.19727</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180571</v>
+        <v>0.181922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.16308</v>
+        <v>0.172554</v>
       </c>
       <c r="D69" t="n">
-        <v>0.201227</v>
+        <v>0.20131</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182787</v>
+        <v>0.182121</v>
       </c>
       <c r="C70" t="n">
-        <v>0.163313</v>
+        <v>0.163</v>
       </c>
       <c r="D70" t="n">
-        <v>0.207653</v>
+        <v>0.207195</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.183125</v>
+        <v>0.182438</v>
       </c>
       <c r="C71" t="n">
-        <v>0.164236</v>
+        <v>0.16728</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213798</v>
+        <v>0.217112</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183146</v>
+        <v>0.187331</v>
       </c>
       <c r="C72" t="n">
-        <v>0.183648</v>
+        <v>0.165119</v>
       </c>
       <c r="D72" t="n">
-        <v>0.218397</v>
+        <v>0.223827</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185178</v>
+        <v>0.185771</v>
       </c>
       <c r="C73" t="n">
-        <v>0.168388</v>
+        <v>0.165193</v>
       </c>
       <c r="D73" t="n">
-        <v>0.225598</v>
+        <v>0.230266</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.18725</v>
+        <v>0.185865</v>
       </c>
       <c r="C74" t="n">
-        <v>0.167278</v>
+        <v>0.168098</v>
       </c>
       <c r="D74" t="n">
-        <v>0.236414</v>
+        <v>0.239869</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190242</v>
+        <v>0.190067</v>
       </c>
       <c r="C75" t="n">
-        <v>0.16933</v>
+        <v>0.167577</v>
       </c>
       <c r="D75" t="n">
-        <v>0.243691</v>
+        <v>0.247934</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.196958</v>
+        <v>0.205999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173335</v>
+        <v>0.171834</v>
       </c>
       <c r="D76" t="n">
-        <v>0.255369</v>
+        <v>0.259245</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194723</v>
+        <v>0.199401</v>
       </c>
       <c r="C77" t="n">
-        <v>0.183844</v>
+        <v>0.174525</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264616</v>
+        <v>0.269373</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.198997</v>
+        <v>0.206186</v>
       </c>
       <c r="C78" t="n">
-        <v>0.176738</v>
+        <v>0.179654</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218281</v>
+        <v>0.220531</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.209343</v>
+        <v>0.208508</v>
       </c>
       <c r="C79" t="n">
-        <v>0.192629</v>
+        <v>0.185638</v>
       </c>
       <c r="D79" t="n">
-        <v>0.227569</v>
+        <v>0.229967</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215127</v>
+        <v>0.224711</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24103</v>
+        <v>0.241937</v>
       </c>
       <c r="D80" t="n">
-        <v>0.235935</v>
+        <v>0.240882</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357953</v>
+        <v>0.360211</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239452</v>
+        <v>0.244271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249325</v>
+        <v>0.253475</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.357633</v>
+        <v>0.362358</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246051</v>
+        <v>0.244721</v>
       </c>
       <c r="D82" t="n">
-        <v>0.260499</v>
+        <v>0.26358</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.36022</v>
+        <v>0.363874</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252369</v>
+        <v>0.249779</v>
       </c>
       <c r="D83" t="n">
-        <v>0.275862</v>
+        <v>0.279431</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.358833</v>
+        <v>0.364741</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251193</v>
+        <v>0.244364</v>
       </c>
       <c r="D84" t="n">
-        <v>0.287572</v>
+        <v>0.291614</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.362683</v>
+        <v>0.361831</v>
       </c>
       <c r="C85" t="n">
-        <v>0.243792</v>
+        <v>0.252809</v>
       </c>
       <c r="D85" t="n">
-        <v>0.304873</v>
+        <v>0.306063</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366521</v>
+        <v>0.365386</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242964</v>
+        <v>0.241771</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321328</v>
+        <v>0.323017</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367936</v>
+        <v>0.363576</v>
       </c>
       <c r="C87" t="n">
-        <v>0.242182</v>
+        <v>0.248114</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338296</v>
+        <v>0.338775</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369544</v>
+        <v>0.36884</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24266</v>
+        <v>0.247571</v>
       </c>
       <c r="D88" t="n">
-        <v>0.355687</v>
+        <v>0.35712</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.368849</v>
+        <v>0.370732</v>
       </c>
       <c r="C89" t="n">
-        <v>0.240022</v>
+        <v>0.247887</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371843</v>
+        <v>0.371121</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372233</v>
+        <v>0.369461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240566</v>
+        <v>0.239408</v>
       </c>
       <c r="D90" t="n">
-        <v>0.38453</v>
+        <v>0.383738</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.372668</v>
+        <v>0.375145</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238554</v>
+        <v>0.24115</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400067</v>
+        <v>0.401463</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376624</v>
+        <v>0.37865</v>
       </c>
       <c r="C92" t="n">
-        <v>0.241531</v>
+        <v>0.24639</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356054</v>
+        <v>0.357266</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.382154</v>
+        <v>0.381689</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243507</v>
+        <v>0.250822</v>
       </c>
       <c r="D93" t="n">
-        <v>0.365804</v>
+        <v>0.366687</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386861</v>
+        <v>0.387746</v>
       </c>
       <c r="C94" t="n">
-        <v>0.399848</v>
+        <v>0.401114</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378769</v>
+        <v>0.379904</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.527033</v>
+        <v>0.5281940000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>0.398937</v>
+        <v>0.400056</v>
       </c>
       <c r="D95" t="n">
-        <v>0.387952</v>
+        <v>0.389785</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52681</v>
+        <v>0.52765</v>
       </c>
       <c r="C96" t="n">
-        <v>0.399355</v>
+        <v>0.400019</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39773</v>
+        <v>0.401183</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5281670000000001</v>
+        <v>0.529335</v>
       </c>
       <c r="C97" t="n">
-        <v>0.399105</v>
+        <v>0.399229</v>
       </c>
       <c r="D97" t="n">
-        <v>0.411989</v>
+        <v>0.415057</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.529092</v>
+        <v>0.530146</v>
       </c>
       <c r="C98" t="n">
-        <v>0.406988</v>
+        <v>0.398759</v>
       </c>
       <c r="D98" t="n">
-        <v>0.426121</v>
+        <v>0.427204</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528237</v>
+        <v>0.527691</v>
       </c>
       <c r="C99" t="n">
-        <v>0.398312</v>
+        <v>0.398078</v>
       </c>
       <c r="D99" t="n">
-        <v>0.441552</v>
+        <v>0.443279</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.529197</v>
+        <v>0.531929</v>
       </c>
       <c r="C100" t="n">
-        <v>0.397734</v>
+        <v>0.398129</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458203</v>
+        <v>0.457899</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.530698</v>
+        <v>0.5320279999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.405796</v>
+        <v>0.401624</v>
       </c>
       <c r="D101" t="n">
-        <v>0.469993</v>
+        <v>0.471661</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.532425</v>
+        <v>0.532929</v>
       </c>
       <c r="C102" t="n">
-        <v>0.397749</v>
+        <v>0.401952</v>
       </c>
       <c r="D102" t="n">
-        <v>0.486726</v>
+        <v>0.486875</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.53509</v>
+        <v>0.5339660000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.399017</v>
+        <v>0.398558</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5034960000000001</v>
+        <v>0.502717</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.536233</v>
+        <v>0.537116</v>
       </c>
       <c r="C104" t="n">
-        <v>0.401195</v>
+        <v>0.400108</v>
       </c>
       <c r="D104" t="n">
-        <v>0.519424</v>
+        <v>0.519278</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539228</v>
+        <v>0.54013</v>
       </c>
       <c r="C105" t="n">
-        <v>0.402291</v>
+        <v>0.40271</v>
       </c>
       <c r="D105" t="n">
-        <v>0.536198</v>
+        <v>0.537178</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543776</v>
+        <v>0.543469</v>
       </c>
       <c r="C106" t="n">
-        <v>0.406929</v>
+        <v>0.40541</v>
       </c>
       <c r="D106" t="n">
-        <v>0.552561</v>
+        <v>0.554604</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.550099</v>
+        <v>0.548144</v>
       </c>
       <c r="C107" t="n">
-        <v>0.413757</v>
+        <v>0.412572</v>
       </c>
       <c r="D107" t="n">
-        <v>0.522802</v>
+        <v>0.524701</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.557129</v>
+        <v>0.5570889999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.535226</v>
+        <v>0.536063</v>
       </c>
       <c r="D108" t="n">
-        <v>0.53238</v>
+        <v>0.53426</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.568263</v>
+        <v>0.568273</v>
       </c>
       <c r="C109" t="n">
-        <v>0.534303</v>
+        <v>0.536706</v>
       </c>
       <c r="D109" t="n">
-        <v>0.544102</v>
+        <v>0.545856</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602334</v>
+        <v>0.603502</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5344370000000001</v>
+        <v>0.5337499999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.556302</v>
+        <v>0.558426</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.604608</v>
+        <v>0.605123</v>
       </c>
       <c r="C111" t="n">
-        <v>0.535379</v>
+        <v>0.534582</v>
       </c>
       <c r="D111" t="n">
-        <v>0.568612</v>
+        <v>0.570908</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.607336</v>
+        <v>0.6066859999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.536245</v>
+        <v>0.535893</v>
       </c>
       <c r="D112" t="n">
-        <v>0.58285</v>
+        <v>0.583483</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.605819</v>
+        <v>0.605291</v>
       </c>
       <c r="C113" t="n">
-        <v>0.534906</v>
+        <v>0.536193</v>
       </c>
       <c r="D113" t="n">
-        <v>0.598157</v>
+        <v>0.599495</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.609092</v>
+        <v>0.606109</v>
       </c>
       <c r="C114" t="n">
-        <v>0.538964</v>
+        <v>0.538481</v>
       </c>
       <c r="D114" t="n">
-        <v>0.610116</v>
+        <v>0.611557</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.614094</v>
+        <v>0.612542</v>
       </c>
       <c r="C115" t="n">
-        <v>0.539483</v>
+        <v>0.538321</v>
       </c>
       <c r="D115" t="n">
-        <v>0.629806</v>
+        <v>0.630011</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.612984</v>
+        <v>0.611515</v>
       </c>
       <c r="C116" t="n">
-        <v>0.540106</v>
+        <v>0.539076</v>
       </c>
       <c r="D116" t="n">
-        <v>0.645304</v>
+        <v>0.646455</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.613474</v>
+        <v>0.613368</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5425410000000001</v>
+        <v>0.540561</v>
       </c>
       <c r="D117" t="n">
-        <v>0.662083</v>
+        <v>0.663895</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.616119</v>
+        <v>0.616741</v>
       </c>
       <c r="C118" t="n">
-        <v>0.544577</v>
+        <v>0.544036</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676874</v>
+        <v>0.67778</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622088</v>
+        <v>0.620333</v>
       </c>
       <c r="C119" t="n">
-        <v>0.546961</v>
+        <v>0.5488150000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.694876</v>
+        <v>0.695678</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.627583</v>
+        <v>0.6266929999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.551238</v>
+        <v>0.551164</v>
       </c>
       <c r="D120" t="n">
-        <v>0.708315</v>
+        <v>0.709737</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.632939</v>
+        <v>0.632103</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558202</v>
+        <v>0.556189</v>
       </c>
       <c r="D121" t="n">
-        <v>0.632617</v>
+        <v>0.632425</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.64225</v>
+        <v>0.643519</v>
       </c>
       <c r="C122" t="n">
-        <v>0.564992</v>
+        <v>0.567317</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6442369999999999</v>
+        <v>0.6440979999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.653928</v>
+        <v>0.652193</v>
       </c>
       <c r="C123" t="n">
-        <v>0.693642</v>
+        <v>0.69252</v>
       </c>
       <c r="D123" t="n">
-        <v>0.655408</v>
+        <v>0.6546689999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.743356</v>
+        <v>0.740455</v>
       </c>
       <c r="C124" t="n">
-        <v>0.692582</v>
+        <v>0.69414</v>
       </c>
       <c r="D124" t="n">
-        <v>0.670214</v>
+        <v>0.669266</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.744345</v>
+        <v>0.744761</v>
       </c>
       <c r="C125" t="n">
-        <v>0.695716</v>
+        <v>0.69653</v>
       </c>
       <c r="D125" t="n">
-        <v>0.681653</v>
+        <v>0.681206</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.744051</v>
+        <v>0.745685</v>
       </c>
       <c r="C126" t="n">
-        <v>0.697096</v>
+        <v>0.692743</v>
       </c>
       <c r="D126" t="n">
-        <v>0.694255</v>
+        <v>0.694453</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.74871</v>
+        <v>0.746775</v>
       </c>
       <c r="C127" t="n">
-        <v>0.696981</v>
+        <v>0.696545</v>
       </c>
       <c r="D127" t="n">
-        <v>0.708371</v>
+        <v>0.707399</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.747854</v>
+        <v>0.747441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698338</v>
+        <v>0.69768</v>
       </c>
       <c r="D128" t="n">
-        <v>0.721988</v>
+        <v>0.721504</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.749684</v>
+        <v>0.749096</v>
       </c>
       <c r="C129" t="n">
-        <v>0.698502</v>
+        <v>0.697511</v>
       </c>
       <c r="D129" t="n">
-        <v>0.737621</v>
+        <v>0.737102</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.752341</v>
+        <v>0.750434</v>
       </c>
       <c r="C130" t="n">
-        <v>0.700953</v>
+        <v>0.701921</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7489209999999999</v>
+        <v>0.749667</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.751198</v>
+        <v>0.750488</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700477</v>
+        <v>0.699983</v>
       </c>
       <c r="D131" t="n">
-        <v>0.762624</v>
+        <v>0.7632330000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7562219999999999</v>
+        <v>0.753077</v>
       </c>
       <c r="C132" t="n">
-        <v>0.703796</v>
+        <v>0.703089</v>
       </c>
       <c r="D132" t="n">
-        <v>0.778697</v>
+        <v>0.779392</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.759693</v>
+        <v>0.756424</v>
       </c>
       <c r="C133" t="n">
-        <v>0.709433</v>
+        <v>0.705057</v>
       </c>
       <c r="D133" t="n">
-        <v>0.7969850000000001</v>
+        <v>0.796088</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.763202</v>
+        <v>0.763015</v>
       </c>
       <c r="C134" t="n">
-        <v>0.714421</v>
+        <v>0.710979</v>
       </c>
       <c r="D134" t="n">
-        <v>0.816684</v>
+        <v>0.815273</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.769834</v>
+        <v>0.7718469999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.719687</v>
+        <v>0.716106</v>
       </c>
       <c r="D135" t="n">
-        <v>0.687269</v>
+        <v>0.687153</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.786862</v>
+        <v>0.778813</v>
       </c>
       <c r="C136" t="n">
-        <v>0.724143</v>
+        <v>0.723452</v>
       </c>
       <c r="D136" t="n">
-        <v>0.69721</v>
+        <v>0.696814</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.792775</v>
+        <v>0.7910740000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.828884</v>
+        <v>0.8270690000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.707773</v>
+        <v>0.707395</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.868198</v>
+        <v>0.868117</v>
       </c>
       <c r="C138" t="n">
-        <v>0.828397</v>
+        <v>0.827702</v>
       </c>
       <c r="D138" t="n">
-        <v>0.719845</v>
+        <v>0.718711</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.867631</v>
+        <v>0.866933</v>
       </c>
       <c r="C139" t="n">
-        <v>0.829618</v>
+        <v>0.829527</v>
       </c>
       <c r="D139" t="n">
-        <v>0.731885</v>
+        <v>0.730936</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.868605</v>
+        <v>0.869112</v>
       </c>
       <c r="C140" t="n">
-        <v>0.830795</v>
+        <v>0.829804</v>
       </c>
       <c r="D140" t="n">
-        <v>0.744855</v>
+        <v>0.744318</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.868642</v>
+        <v>0.868492</v>
       </c>
       <c r="C141" t="n">
-        <v>0.831801</v>
+        <v>0.828701</v>
       </c>
       <c r="D141" t="n">
-        <v>0.757965</v>
+        <v>0.757418</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.870068</v>
+        <v>0.870665</v>
       </c>
       <c r="C142" t="n">
-        <v>0.831337</v>
+        <v>0.831179</v>
       </c>
       <c r="D142" t="n">
-        <v>0.771778</v>
+        <v>0.771262</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8717780000000001</v>
+        <v>0.870932</v>
       </c>
       <c r="C143" t="n">
-        <v>0.832118</v>
+        <v>0.83152</v>
       </c>
       <c r="D143" t="n">
-        <v>0.785036</v>
+        <v>0.7858270000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115822</v>
+        <v>0.115643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110871</v>
+        <v>0.131757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132222</v>
+        <v>0.110983</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.108361</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115025</v>
+        <v>0.115927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.111186</v>
+        <v>0.139378</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139369</v>
+        <v>0.111309</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.108767</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.115454</v>
+        <v>0.124721</v>
       </c>
       <c r="C4" t="n">
-        <v>0.111498</v>
+        <v>0.146861</v>
       </c>
       <c r="D4" t="n">
-        <v>0.144954</v>
+        <v>0.111482</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.110823</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.116635</v>
+        <v>0.118933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.112157</v>
+        <v>0.15381</v>
       </c>
       <c r="D5" t="n">
-        <v>0.151739</v>
+        <v>0.112019</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.109542</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118628</v>
+        <v>0.121803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.113166</v>
+        <v>0.160163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.158272</v>
+        <v>0.112474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.112136</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122781</v>
+        <v>0.125617</v>
       </c>
       <c r="C7" t="n">
-        <v>0.115809</v>
+        <v>0.126113</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127949</v>
+        <v>0.113517</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.111207</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.127492</v>
+        <v>0.134629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.120009</v>
+        <v>0.129636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131306</v>
+        <v>0.115181</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.112783</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138579</v>
+        <v>0.164085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.115966</v>
+        <v>0.134317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135412</v>
+        <v>0.115813</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.112914</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124066</v>
+        <v>0.124475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.115985</v>
+        <v>0.140599</v>
       </c>
       <c r="D10" t="n">
-        <v>0.139773</v>
+        <v>0.116148</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.112626</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123795</v>
+        <v>0.127451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119089</v>
+        <v>0.145622</v>
       </c>
       <c r="D11" t="n">
-        <v>0.143721</v>
+        <v>0.116725</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.111188</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124298</v>
+        <v>0.136221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.126858</v>
+        <v>0.150185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.148686</v>
+        <v>0.116663</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1112</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124597</v>
+        <v>0.134093</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11718</v>
+        <v>0.155472</v>
       </c>
       <c r="D13" t="n">
-        <v>0.152848</v>
+        <v>0.117292</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.112028</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.124999</v>
+        <v>0.129875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.118052</v>
+        <v>0.160896</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158745</v>
+        <v>0.118324</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.112257</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126596</v>
+        <v>0.131958</v>
       </c>
       <c r="C15" t="n">
-        <v>0.118059</v>
+        <v>0.168154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.164678</v>
+        <v>0.118743</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.112147</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127848</v>
+        <v>0.12709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.118452</v>
+        <v>0.174481</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171181</v>
+        <v>0.118244</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.112203</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129059</v>
+        <v>0.131098</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121386</v>
+        <v>0.180243</v>
       </c>
       <c r="D17" t="n">
-        <v>0.177228</v>
+        <v>0.118436</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.112821</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128698</v>
+        <v>0.131498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.120125</v>
+        <v>0.185898</v>
       </c>
       <c r="D18" t="n">
-        <v>0.182252</v>
+        <v>0.119072</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.11266</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131353</v>
+        <v>0.134289</v>
       </c>
       <c r="C19" t="n">
-        <v>0.122808</v>
+        <v>0.19186</v>
       </c>
       <c r="D19" t="n">
-        <v>0.188126</v>
+        <v>0.119065</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1131</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.134281</v>
+        <v>0.147152</v>
       </c>
       <c r="C20" t="n">
-        <v>0.121794</v>
+        <v>0.196534</v>
       </c>
       <c r="D20" t="n">
-        <v>0.192973</v>
+        <v>0.119824</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.114015</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.138941</v>
+        <v>0.150998</v>
       </c>
       <c r="C21" t="n">
-        <v>0.123901</v>
+        <v>0.149838</v>
       </c>
       <c r="D21" t="n">
-        <v>0.147041</v>
+        <v>0.121104</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.115997</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147506</v>
+        <v>0.164248</v>
       </c>
       <c r="C22" t="n">
-        <v>0.131259</v>
+        <v>0.155131</v>
       </c>
       <c r="D22" t="n">
-        <v>0.152005</v>
+        <v>0.124806</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.121304</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16318</v>
+        <v>0.159273</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125306</v>
+        <v>0.159132</v>
       </c>
       <c r="D23" t="n">
-        <v>0.156328</v>
+        <v>0.124689</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.121972</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13525</v>
+        <v>0.133314</v>
       </c>
       <c r="C24" t="n">
-        <v>0.125037</v>
+        <v>0.164413</v>
       </c>
       <c r="D24" t="n">
-        <v>0.162347</v>
+        <v>0.125098</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.122495</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135534</v>
+        <v>0.13442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.125239</v>
+        <v>0.169381</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167689</v>
+        <v>0.126292</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.119866</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141983</v>
+        <v>0.135446</v>
       </c>
       <c r="C26" t="n">
-        <v>0.125216</v>
+        <v>0.174177</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171268</v>
+        <v>0.125698</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.119931</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.134968</v>
+        <v>0.135832</v>
       </c>
       <c r="C27" t="n">
-        <v>0.125729</v>
+        <v>0.179658</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176229</v>
+        <v>0.125491</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.121511</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136472</v>
+        <v>0.135725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.12626</v>
+        <v>0.183551</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181096</v>
+        <v>0.125836</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.122218</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135666</v>
+        <v>0.136125</v>
       </c>
       <c r="C29" t="n">
-        <v>0.126543</v>
+        <v>0.189151</v>
       </c>
       <c r="D29" t="n">
-        <v>0.186259</v>
+        <v>0.125936</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.123228</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137562</v>
+        <v>0.138927</v>
       </c>
       <c r="C30" t="n">
-        <v>0.129468</v>
+        <v>0.194274</v>
       </c>
       <c r="D30" t="n">
-        <v>0.191336</v>
+        <v>0.126627</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.123937</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1382</v>
+        <v>0.139359</v>
       </c>
       <c r="C31" t="n">
-        <v>0.127201</v>
+        <v>0.199901</v>
       </c>
       <c r="D31" t="n">
-        <v>0.196173</v>
+        <v>0.126775</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.124514</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140389</v>
+        <v>0.141346</v>
       </c>
       <c r="C32" t="n">
-        <v>0.128184</v>
+        <v>0.206234</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202606</v>
+        <v>0.127043</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.125124</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144681</v>
+        <v>0.143929</v>
       </c>
       <c r="C33" t="n">
-        <v>0.130416</v>
+        <v>0.210897</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207996</v>
+        <v>0.127905</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.12574</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148942</v>
+        <v>0.147152</v>
       </c>
       <c r="C34" t="n">
-        <v>0.132113</v>
+        <v>0.215509</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211908</v>
+        <v>0.128568</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.129317</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151173</v>
+        <v>0.153277</v>
       </c>
       <c r="C35" t="n">
-        <v>0.134783</v>
+        <v>0.166137</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165005</v>
+        <v>0.133595</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.135037</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159796</v>
+        <v>0.160215</v>
       </c>
       <c r="C36" t="n">
-        <v>0.141326</v>
+        <v>0.169924</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169957</v>
+        <v>0.141602</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.141335</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166137</v>
+        <v>0.168834</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134825</v>
+        <v>0.174127</v>
       </c>
       <c r="D37" t="n">
-        <v>0.17344</v>
+        <v>0.140004</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.140718</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147503</v>
+        <v>0.147072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.137729</v>
+        <v>0.179108</v>
       </c>
       <c r="D38" t="n">
-        <v>0.176569</v>
+        <v>0.135823</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.13944</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14708</v>
+        <v>0.14676</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138471</v>
+        <v>0.183717</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181304</v>
+        <v>0.1362</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.140045</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147809</v>
+        <v>0.154961</v>
       </c>
       <c r="C40" t="n">
-        <v>0.137998</v>
+        <v>0.187606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185699</v>
+        <v>0.135138</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.14061</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148813</v>
+        <v>0.147933</v>
       </c>
       <c r="C41" t="n">
-        <v>0.137817</v>
+        <v>0.192566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.190133</v>
+        <v>0.135446</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.13929</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.149045</v>
+        <v>0.154351</v>
       </c>
       <c r="C42" t="n">
-        <v>0.139279</v>
+        <v>0.197068</v>
       </c>
       <c r="D42" t="n">
-        <v>0.194747</v>
+        <v>0.138564</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.14017</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149503</v>
+        <v>0.149554</v>
       </c>
       <c r="C43" t="n">
-        <v>0.139175</v>
+        <v>0.20191</v>
       </c>
       <c r="D43" t="n">
-        <v>0.199614</v>
+        <v>0.13973</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.14111</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151744</v>
+        <v>0.149279</v>
       </c>
       <c r="C44" t="n">
-        <v>0.140013</v>
+        <v>0.207185</v>
       </c>
       <c r="D44" t="n">
-        <v>0.204854</v>
+        <v>0.13859</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.139593</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.153176</v>
+        <v>0.152106</v>
       </c>
       <c r="C45" t="n">
-        <v>0.139987</v>
+        <v>0.212697</v>
       </c>
       <c r="D45" t="n">
-        <v>0.209825</v>
+        <v>0.137197</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.139386</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155073</v>
+        <v>0.155399</v>
       </c>
       <c r="C46" t="n">
-        <v>0.139858</v>
+        <v>0.217778</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214876</v>
+        <v>0.140316</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.141877</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157923</v>
+        <v>0.17011</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142647</v>
+        <v>0.223391</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220776</v>
+        <v>0.139896</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.145952</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.159993</v>
+        <v>0.161474</v>
       </c>
       <c r="C48" t="n">
-        <v>0.14569</v>
+        <v>0.228102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.225266</v>
+        <v>0.144822</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.149301</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164219</v>
+        <v>0.166853</v>
       </c>
       <c r="C49" t="n">
-        <v>0.149694</v>
+        <v>0.232805</v>
       </c>
       <c r="D49" t="n">
-        <v>0.229567</v>
+        <v>0.14947</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.152541</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169508</v>
+        <v>0.1757</v>
       </c>
       <c r="C50" t="n">
-        <v>0.153354</v>
+        <v>0.171407</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168632</v>
+        <v>0.152493</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.156566</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175751</v>
+        <v>0.178642</v>
       </c>
       <c r="C51" t="n">
-        <v>0.151303</v>
+        <v>0.174796</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171982</v>
+        <v>0.153342</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.152465</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187937</v>
+        <v>0.186639</v>
       </c>
       <c r="C52" t="n">
-        <v>0.15251</v>
+        <v>0.178504</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17607</v>
+        <v>0.150565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.154602</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159379</v>
+        <v>0.160585</v>
       </c>
       <c r="C53" t="n">
-        <v>0.151284</v>
+        <v>0.183057</v>
       </c>
       <c r="D53" t="n">
-        <v>0.180241</v>
+        <v>0.150729</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.153027</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160501</v>
+        <v>0.161311</v>
       </c>
       <c r="C54" t="n">
-        <v>0.154696</v>
+        <v>0.187275</v>
       </c>
       <c r="D54" t="n">
-        <v>0.185036</v>
+        <v>0.151083</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.155303</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161254</v>
+        <v>0.161757</v>
       </c>
       <c r="C55" t="n">
-        <v>0.151706</v>
+        <v>0.191657</v>
       </c>
       <c r="D55" t="n">
-        <v>0.188973</v>
+        <v>0.151478</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.153848</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162041</v>
+        <v>0.167286</v>
       </c>
       <c r="C56" t="n">
-        <v>0.151485</v>
+        <v>0.196598</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19381</v>
+        <v>0.150011</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.154169</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162269</v>
+        <v>0.163553</v>
       </c>
       <c r="C57" t="n">
-        <v>0.152264</v>
+        <v>0.201746</v>
       </c>
       <c r="D57" t="n">
-        <v>0.199331</v>
+        <v>0.151645</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.154265</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165697</v>
+        <v>0.164862</v>
       </c>
       <c r="C58" t="n">
-        <v>0.15373</v>
+        <v>0.20713</v>
       </c>
       <c r="D58" t="n">
-        <v>0.20413</v>
+        <v>0.152538</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.155679</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165441</v>
+        <v>0.166367</v>
       </c>
       <c r="C59" t="n">
-        <v>0.15775</v>
+        <v>0.211908</v>
       </c>
       <c r="D59" t="n">
-        <v>0.208812</v>
+        <v>0.152256</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.157642</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.169393</v>
+        <v>0.168106</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1557</v>
+        <v>0.217551</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214186</v>
+        <v>0.15454</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.159713</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168568</v>
+        <v>0.1705</v>
       </c>
       <c r="C61" t="n">
-        <v>0.157846</v>
+        <v>0.222085</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219133</v>
+        <v>0.155629</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.160733</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.177189</v>
+        <v>0.173315</v>
       </c>
       <c r="C62" t="n">
-        <v>0.160031</v>
+        <v>0.228255</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224461</v>
+        <v>0.158086</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.163032</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175828</v>
+        <v>0.179138</v>
       </c>
       <c r="C63" t="n">
-        <v>0.165467</v>
+        <v>0.232552</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22904</v>
+        <v>0.162488</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.167165</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187242</v>
+        <v>0.18236</v>
       </c>
       <c r="C64" t="n">
-        <v>0.166171</v>
+        <v>0.177121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176592</v>
+        <v>0.166646</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.171961</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187037</v>
+        <v>0.189205</v>
       </c>
       <c r="C65" t="n">
-        <v>0.174881</v>
+        <v>0.181054</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182659</v>
+        <v>0.172475</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.178299</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.203984</v>
+        <v>0.198695</v>
       </c>
       <c r="C66" t="n">
-        <v>0.161861</v>
+        <v>0.187311</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18434</v>
+        <v>0.159627</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.163554</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.18099</v>
+        <v>0.180642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.168716</v>
+        <v>0.192284</v>
       </c>
       <c r="D67" t="n">
-        <v>0.18935</v>
+        <v>0.162058</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.164087</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180683</v>
+        <v>0.183826</v>
       </c>
       <c r="C68" t="n">
-        <v>0.162362</v>
+        <v>0.19825</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19727</v>
+        <v>0.16234</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.166415</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181922</v>
+        <v>0.189001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.172554</v>
+        <v>0.2042</v>
       </c>
       <c r="D69" t="n">
-        <v>0.20131</v>
+        <v>0.162547</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.167015</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182121</v>
+        <v>0.185549</v>
       </c>
       <c r="C70" t="n">
-        <v>0.163</v>
+        <v>0.210005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.207195</v>
+        <v>0.164845</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.165526</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182438</v>
+        <v>0.185147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.16728</v>
+        <v>0.218232</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217112</v>
+        <v>0.163702</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.16588</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.187331</v>
+        <v>0.190242</v>
       </c>
       <c r="C72" t="n">
-        <v>0.165119</v>
+        <v>0.228179</v>
       </c>
       <c r="D72" t="n">
-        <v>0.223827</v>
+        <v>0.164339</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.167298</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185771</v>
+        <v>0.192912</v>
       </c>
       <c r="C73" t="n">
-        <v>0.165193</v>
+        <v>0.235398</v>
       </c>
       <c r="D73" t="n">
-        <v>0.230266</v>
+        <v>0.165962</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.168831</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.185865</v>
+        <v>0.189005</v>
       </c>
       <c r="C74" t="n">
-        <v>0.168098</v>
+        <v>0.241933</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239869</v>
+        <v>0.167123</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.172928</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.190067</v>
+        <v>0.192492</v>
       </c>
       <c r="C75" t="n">
-        <v>0.167577</v>
+        <v>0.252806</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247934</v>
+        <v>0.170857</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.173178</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.205999</v>
+        <v>0.197669</v>
       </c>
       <c r="C76" t="n">
-        <v>0.171834</v>
+        <v>0.263722</v>
       </c>
       <c r="D76" t="n">
-        <v>0.259245</v>
+        <v>0.172618</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.176247</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199401</v>
+        <v>0.198718</v>
       </c>
       <c r="C77" t="n">
-        <v>0.174525</v>
+        <v>0.274684</v>
       </c>
       <c r="D77" t="n">
-        <v>0.269373</v>
+        <v>0.173012</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.18038</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.206186</v>
+        <v>0.205859</v>
       </c>
       <c r="C78" t="n">
-        <v>0.179654</v>
+        <v>0.229436</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220531</v>
+        <v>0.176959</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.184167</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208508</v>
+        <v>0.214765</v>
       </c>
       <c r="C79" t="n">
-        <v>0.185638</v>
+        <v>0.239449</v>
       </c>
       <c r="D79" t="n">
-        <v>0.229967</v>
+        <v>0.182745</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.190131</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224711</v>
+        <v>0.220324</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241937</v>
+        <v>0.250546</v>
       </c>
       <c r="D80" t="n">
-        <v>0.240882</v>
+        <v>0.250674</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.176371</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.360211</v>
+        <v>0.385416</v>
       </c>
       <c r="C81" t="n">
-        <v>0.244271</v>
+        <v>0.265303</v>
       </c>
       <c r="D81" t="n">
-        <v>0.253475</v>
+        <v>0.250292</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.178071</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362358</v>
+        <v>0.385824</v>
       </c>
       <c r="C82" t="n">
-        <v>0.244721</v>
+        <v>0.278739</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26358</v>
+        <v>0.251247</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.176994</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.363874</v>
+        <v>0.386755</v>
       </c>
       <c r="C83" t="n">
-        <v>0.249779</v>
+        <v>0.293425</v>
       </c>
       <c r="D83" t="n">
-        <v>0.279431</v>
+        <v>0.252431</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.179059</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364741</v>
+        <v>0.391318</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244364</v>
+        <v>0.311322</v>
       </c>
       <c r="D84" t="n">
-        <v>0.291614</v>
+        <v>0.251041</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.179957</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.361831</v>
+        <v>0.387823</v>
       </c>
       <c r="C85" t="n">
-        <v>0.252809</v>
+        <v>0.326077</v>
       </c>
       <c r="D85" t="n">
-        <v>0.306063</v>
+        <v>0.253298</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.182339</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.365386</v>
+        <v>0.391652</v>
       </c>
       <c r="C86" t="n">
-        <v>0.241771</v>
+        <v>0.341381</v>
       </c>
       <c r="D86" t="n">
-        <v>0.323017</v>
+        <v>0.249109</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.183557</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.363576</v>
+        <v>0.390202</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248114</v>
+        <v>0.358616</v>
       </c>
       <c r="D87" t="n">
-        <v>0.338775</v>
+        <v>0.253172</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.186288</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.36884</v>
+        <v>0.391165</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247571</v>
+        <v>0.378682</v>
       </c>
       <c r="D88" t="n">
-        <v>0.35712</v>
+        <v>0.248514</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.19047</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.370732</v>
+        <v>0.394129</v>
       </c>
       <c r="C89" t="n">
-        <v>0.247887</v>
+        <v>0.400739</v>
       </c>
       <c r="D89" t="n">
-        <v>0.371121</v>
+        <v>0.248338</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.191423</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369461</v>
+        <v>0.395836</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239408</v>
+        <v>0.413273</v>
       </c>
       <c r="D90" t="n">
-        <v>0.383738</v>
+        <v>0.245811</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.194578</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375145</v>
+        <v>0.401353</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24115</v>
+        <v>0.434065</v>
       </c>
       <c r="D91" t="n">
-        <v>0.401463</v>
+        <v>0.246362</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.199716</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.37865</v>
+        <v>0.400134</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24639</v>
+        <v>0.378937</v>
       </c>
       <c r="D92" t="n">
-        <v>0.357266</v>
+        <v>0.249153</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.204576</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381689</v>
+        <v>0.405847</v>
       </c>
       <c r="C93" t="n">
-        <v>0.250822</v>
+        <v>0.394498</v>
       </c>
       <c r="D93" t="n">
-        <v>0.366687</v>
+        <v>0.252154</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.213919</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387746</v>
+        <v>0.410804</v>
       </c>
       <c r="C94" t="n">
-        <v>0.401114</v>
+        <v>0.402652</v>
       </c>
       <c r="D94" t="n">
-        <v>0.379904</v>
+        <v>0.428877</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.283509</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5281940000000001</v>
+        <v>0.56889</v>
       </c>
       <c r="C95" t="n">
-        <v>0.400056</v>
+        <v>0.42417</v>
       </c>
       <c r="D95" t="n">
-        <v>0.389785</v>
+        <v>0.428856</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.285335</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.52765</v>
+        <v>0.571129</v>
       </c>
       <c r="C96" t="n">
-        <v>0.400019</v>
+        <v>0.432823</v>
       </c>
       <c r="D96" t="n">
-        <v>0.401183</v>
+        <v>0.427511</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.287204</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.529335</v>
+        <v>0.570165</v>
       </c>
       <c r="C97" t="n">
-        <v>0.399229</v>
+        <v>0.450117</v>
       </c>
       <c r="D97" t="n">
-        <v>0.415057</v>
+        <v>0.42738</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.287915</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.530146</v>
+        <v>0.570841</v>
       </c>
       <c r="C98" t="n">
-        <v>0.398759</v>
+        <v>0.464988</v>
       </c>
       <c r="D98" t="n">
-        <v>0.427204</v>
+        <v>0.429158</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.298949</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.527691</v>
+        <v>0.571594</v>
       </c>
       <c r="C99" t="n">
-        <v>0.398078</v>
+        <v>0.480415</v>
       </c>
       <c r="D99" t="n">
-        <v>0.443279</v>
+        <v>0.426368</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.289174</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.531929</v>
+        <v>0.572977</v>
       </c>
       <c r="C100" t="n">
-        <v>0.398129</v>
+        <v>0.496571</v>
       </c>
       <c r="D100" t="n">
-        <v>0.457899</v>
+        <v>0.426647</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.292014</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5320279999999999</v>
+        <v>0.572208</v>
       </c>
       <c r="C101" t="n">
-        <v>0.401624</v>
+        <v>0.514808</v>
       </c>
       <c r="D101" t="n">
-        <v>0.471661</v>
+        <v>0.427881</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.298072</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.532929</v>
+        <v>0.575074</v>
       </c>
       <c r="C102" t="n">
-        <v>0.401952</v>
+        <v>0.53306</v>
       </c>
       <c r="D102" t="n">
-        <v>0.486875</v>
+        <v>0.426812</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.295937</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5339660000000001</v>
+        <v>0.576703</v>
       </c>
       <c r="C103" t="n">
-        <v>0.398558</v>
+        <v>0.551314</v>
       </c>
       <c r="D103" t="n">
-        <v>0.502717</v>
+        <v>0.426875</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.300242</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537116</v>
+        <v>0.580858</v>
       </c>
       <c r="C104" t="n">
-        <v>0.400108</v>
+        <v>0.5659149999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.519278</v>
+        <v>0.428434</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.303755</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.54013</v>
+        <v>0.583575</v>
       </c>
       <c r="C105" t="n">
-        <v>0.40271</v>
+        <v>0.586939</v>
       </c>
       <c r="D105" t="n">
-        <v>0.537178</v>
+        <v>0.432809</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.303812</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543469</v>
+        <v>0.588388</v>
       </c>
       <c r="C106" t="n">
-        <v>0.40541</v>
+        <v>0.6038210000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.554604</v>
+        <v>0.435631</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.306794</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.548144</v>
+        <v>0.592028</v>
       </c>
       <c r="C107" t="n">
-        <v>0.412572</v>
+        <v>0.571983</v>
       </c>
       <c r="D107" t="n">
-        <v>0.524701</v>
+        <v>0.43894</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.322212</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5570889999999999</v>
+        <v>0.599734</v>
       </c>
       <c r="C108" t="n">
-        <v>0.536063</v>
+        <v>0.583008</v>
       </c>
       <c r="D108" t="n">
-        <v>0.53426</v>
+        <v>0.578666</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.533594</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.568273</v>
+        <v>0.6117089999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.536706</v>
+        <v>0.598631</v>
       </c>
       <c r="D109" t="n">
-        <v>0.545856</v>
+        <v>0.579699</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.536539</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.603502</v>
+        <v>0.653944</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5337499999999999</v>
+        <v>0.616833</v>
       </c>
       <c r="D110" t="n">
-        <v>0.558426</v>
+        <v>0.579882</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.537879</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.605123</v>
+        <v>0.6571360000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.534582</v>
+        <v>0.629199</v>
       </c>
       <c r="D111" t="n">
-        <v>0.570908</v>
+        <v>0.579265</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.539274</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6066859999999999</v>
+        <v>0.656098</v>
       </c>
       <c r="C112" t="n">
-        <v>0.535893</v>
+        <v>0.640361</v>
       </c>
       <c r="D112" t="n">
-        <v>0.583483</v>
+        <v>0.581251</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5403790000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.605291</v>
+        <v>0.657079</v>
       </c>
       <c r="C113" t="n">
-        <v>0.536193</v>
+        <v>0.657459</v>
       </c>
       <c r="D113" t="n">
-        <v>0.599495</v>
+        <v>0.5795129999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.543181</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.606109</v>
+        <v>0.657274</v>
       </c>
       <c r="C114" t="n">
-        <v>0.538481</v>
+        <v>0.671153</v>
       </c>
       <c r="D114" t="n">
-        <v>0.611557</v>
+        <v>0.582795</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.542618</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.612542</v>
+        <v>0.659005</v>
       </c>
       <c r="C115" t="n">
-        <v>0.538321</v>
+        <v>0.687799</v>
       </c>
       <c r="D115" t="n">
-        <v>0.630011</v>
+        <v>0.583623</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.546828</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.611515</v>
+        <v>0.659655</v>
       </c>
       <c r="C116" t="n">
-        <v>0.539076</v>
+        <v>0.704461</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646455</v>
+        <v>0.5838719999999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.546353</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.613368</v>
+        <v>0.663594</v>
       </c>
       <c r="C117" t="n">
-        <v>0.540561</v>
+        <v>0.724056</v>
       </c>
       <c r="D117" t="n">
-        <v>0.663895</v>
+        <v>0.587159</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.546527</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.616741</v>
+        <v>0.665399</v>
       </c>
       <c r="C118" t="n">
-        <v>0.544036</v>
+        <v>0.7387860000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.67778</v>
+        <v>0.590546</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.548462</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.620333</v>
+        <v>0.668017</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5488150000000001</v>
+        <v>0.766317</v>
       </c>
       <c r="D119" t="n">
-        <v>0.695678</v>
+        <v>0.592987</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.556184</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6266929999999999</v>
+        <v>0.674854</v>
       </c>
       <c r="C120" t="n">
-        <v>0.551164</v>
+        <v>0.774913</v>
       </c>
       <c r="D120" t="n">
-        <v>0.709737</v>
+        <v>0.599826</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.560352</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.632103</v>
+        <v>0.683768</v>
       </c>
       <c r="C121" t="n">
-        <v>0.556189</v>
+        <v>0.700061</v>
       </c>
       <c r="D121" t="n">
-        <v>0.632425</v>
+        <v>0.602627</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.567507</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.643519</v>
+        <v>0.695361</v>
       </c>
       <c r="C122" t="n">
-        <v>0.567317</v>
+        <v>0.70818</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6440979999999999</v>
+        <v>0.610808</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.574219</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.652193</v>
+        <v>0.705296</v>
       </c>
       <c r="C123" t="n">
-        <v>0.69252</v>
+        <v>0.723708</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6546689999999999</v>
+        <v>0.756511</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.778045</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.740455</v>
+        <v>0.8076680000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.69414</v>
+        <v>0.735418</v>
       </c>
       <c r="D124" t="n">
-        <v>0.669266</v>
+        <v>0.758596</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.779154</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.744761</v>
+        <v>0.808692</v>
       </c>
       <c r="C125" t="n">
-        <v>0.69653</v>
+        <v>0.750205</v>
       </c>
       <c r="D125" t="n">
-        <v>0.681206</v>
+        <v>0.759538</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.779551</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.745685</v>
+        <v>0.8094749999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>0.692743</v>
+        <v>0.767916</v>
       </c>
       <c r="D126" t="n">
-        <v>0.694453</v>
+        <v>0.761047</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.783738</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.746775</v>
+        <v>0.812152</v>
       </c>
       <c r="C127" t="n">
-        <v>0.696545</v>
+        <v>0.780272</v>
       </c>
       <c r="D127" t="n">
-        <v>0.707399</v>
+        <v>0.760841</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.783736</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.747441</v>
+        <v>0.814185</v>
       </c>
       <c r="C128" t="n">
-        <v>0.69768</v>
+        <v>0.794435</v>
       </c>
       <c r="D128" t="n">
-        <v>0.721504</v>
+        <v>0.762841</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.786984</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.749096</v>
+        <v>0.814455</v>
       </c>
       <c r="C129" t="n">
-        <v>0.697511</v>
+        <v>0.806389</v>
       </c>
       <c r="D129" t="n">
-        <v>0.737102</v>
+        <v>0.760099</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.786121</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.750434</v>
+        <v>0.814581</v>
       </c>
       <c r="C130" t="n">
-        <v>0.701921</v>
+        <v>0.82346</v>
       </c>
       <c r="D130" t="n">
-        <v>0.749667</v>
+        <v>0.765509</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.790075</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.750488</v>
+        <v>0.81975</v>
       </c>
       <c r="C131" t="n">
-        <v>0.699983</v>
+        <v>0.844233</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7632330000000001</v>
+        <v>0.767586</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.791436</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.753077</v>
+        <v>0.821577</v>
       </c>
       <c r="C132" t="n">
-        <v>0.703089</v>
+        <v>0.860998</v>
       </c>
       <c r="D132" t="n">
-        <v>0.779392</v>
+        <v>0.7711440000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.797162</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.756424</v>
+        <v>0.826245</v>
       </c>
       <c r="C133" t="n">
-        <v>0.705057</v>
+        <v>0.881615</v>
       </c>
       <c r="D133" t="n">
-        <v>0.796088</v>
+        <v>0.772848</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.800972</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.763015</v>
+        <v>0.832541</v>
       </c>
       <c r="C134" t="n">
-        <v>0.710979</v>
+        <v>0.897674</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815273</v>
+        <v>0.776236</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.80562</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7718469999999999</v>
+        <v>0.836306</v>
       </c>
       <c r="C135" t="n">
-        <v>0.716106</v>
+        <v>0.759548</v>
       </c>
       <c r="D135" t="n">
-        <v>0.687153</v>
+        <v>0.781388</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.8147</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.778813</v>
+        <v>0.84822</v>
       </c>
       <c r="C136" t="n">
-        <v>0.723452</v>
+        <v>0.7697079999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.696814</v>
+        <v>0.788428</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.8252429999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7910740000000001</v>
+        <v>0.859493</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8270690000000001</v>
+        <v>0.782166</v>
       </c>
       <c r="D137" t="n">
-        <v>0.707395</v>
+        <v>0.904131</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.925488</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.868117</v>
+        <v>0.946513</v>
       </c>
       <c r="C138" t="n">
-        <v>0.827702</v>
+        <v>0.792219</v>
       </c>
       <c r="D138" t="n">
-        <v>0.718711</v>
+        <v>0.90476</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.927414</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.866933</v>
+        <v>0.948146</v>
       </c>
       <c r="C139" t="n">
-        <v>0.829527</v>
+        <v>0.805359</v>
       </c>
       <c r="D139" t="n">
-        <v>0.730936</v>
+        <v>0.904067</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.927735</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.869112</v>
+        <v>0.948274</v>
       </c>
       <c r="C140" t="n">
-        <v>0.829804</v>
+        <v>0.819287</v>
       </c>
       <c r="D140" t="n">
-        <v>0.744318</v>
+        <v>0.904251</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.929073</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.868492</v>
+        <v>0.949655</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828701</v>
+        <v>0.833292</v>
       </c>
       <c r="D141" t="n">
-        <v>0.757418</v>
+        <v>0.90664</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.930799</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.870665</v>
+        <v>0.950545</v>
       </c>
       <c r="C142" t="n">
-        <v>0.831179</v>
+        <v>0.852131</v>
       </c>
       <c r="D142" t="n">
-        <v>0.771262</v>
+        <v>0.905827</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.933361</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.870932</v>
+        <v>0.951232</v>
       </c>
       <c r="C143" t="n">
-        <v>0.83152</v>
+        <v>0.866272</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7858270000000001</v>
+        <v>0.910335</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.938843</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196861</v>
+                  <v>0.0194751</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197442</v>
+                  <v>0.0195629</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0197441</v>
+                  <v>0.019489</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0197505</v>
+                  <v>0.0195779</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0199072</v>
+                  <v>0.0196134</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020167</v>
+                  <v>0.0197913</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0201829</v>
+                  <v>0.0199155</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0205995</v>
+                  <v>0.0201101</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193044</v>
+                  <v>0.0196084</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0194655</v>
+                  <v>0.0195614</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196123</v>
+                  <v>0.0196347</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198252</v>
+                  <v>0.0198925</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198606</v>
+                  <v>0.0200039</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0200329</v>
+                  <v>0.0201837</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200361</v>
+                  <v>0.0200675</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.020201</v>
+                  <v>0.0201647</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0201688</v>
+                  <v>0.0202739</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0204639</v>
+                  <v>0.0202086</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.020687</v>
+                  <v>0.0205069</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0209861</v>
+                  <v>0.0207083</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0214982</v>
+                  <v>0.0211543</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0232463</v>
+                  <v>0.0230484</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203659</v>
+                  <v>0.0206813</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204979</v>
+                  <v>0.0207405</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206548</v>
+                  <v>0.0207665</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0208464</v>
+                  <v>0.0209769</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210504</v>
+                  <v>0.021056</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212226</v>
+                  <v>0.0212252</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216188</v>
+                  <v>0.0213505</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0218555</v>
+                  <v>0.0215039</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0220454</v>
+                  <v>0.0217981</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221091</v>
+                  <v>0.0221214</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0229123</v>
+                  <v>0.023275</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.023554</v>
+                  <v>0.0250124</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.025525</v>
+                  <v>0.0266118</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0295991</v>
+                  <v>0.0311996</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226652</v>
+                  <v>0.0216211</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226726</v>
+                  <v>0.0218931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0230688</v>
+                  <v>0.0219329</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0220955</v>
+                  <v>0.0221215</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221313</v>
+                  <v>0.0222904</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224242</v>
+                  <v>0.0224773</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0226252</v>
+                  <v>0.0228221</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0229498</v>
+                  <v>0.0230365</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0233683</v>
+                  <v>0.0235124</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024254</v>
+                  <v>0.02408</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0251133</v>
+                  <v>0.025044</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0266522</v>
+                  <v>0.0279553</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.029904</v>
+                  <v>0.0304389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0329878</v>
+                  <v>0.0353825</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0389153</v>
+                  <v>0.0392081</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231873</v>
+                  <v>0.0230524</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233782</v>
+                  <v>0.0234244</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234553</v>
+                  <v>0.0234108</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0236761</v>
+                  <v>0.0239286</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239042</v>
+                  <v>0.0240818</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0242977</v>
+                  <v>0.024439</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0246093</v>
+                  <v>0.0247787</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252684</v>
+                  <v>0.0252449</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0261573</v>
+                  <v>0.0265282</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0274839</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0293145</v>
+                  <v>0.0294202</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0323043</v>
+                  <v>0.032256</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0357062</v>
+                  <v>0.035998</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0407992</v>
+                  <v>0.0410284</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291067</v>
+                  <v>0.0292854</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0292957</v>
+                  <v>0.0293731</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294658</v>
+                  <v>0.0295223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0296458</v>
+                  <v>0.0297504</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0298446</v>
+                  <v>0.0300985</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303077</v>
+                  <v>0.0302054</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0305738</v>
+                  <v>0.030751</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311089</v>
+                  <v>0.0311922</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.031958</v>
+                  <v>0.0320559</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331584</v>
+                  <v>0.0331467</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348142</v>
+                  <v>0.0348991</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0371248</v>
+                  <v>0.0373412</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0406293</v>
+                  <v>0.0409062</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0455093</v>
+                  <v>0.0457293</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.054876</v>
+                  <v>0.0555257</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0551749</v>
+                  <v>0.0577904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0552561</v>
+                  <v>0.055792</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0555251</v>
+                  <v>0.0560207</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0557353</v>
+                  <v>0.0561087</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0559444</v>
+                  <v>0.0563414</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056275</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0565668</v>
+                  <v>0.0571958</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0570285</v>
+                  <v>0.057884</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0577995</v>
+                  <v>0.0582425</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0587407</v>
+                  <v>0.0592452</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0605897</v>
+                  <v>0.0608211</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0631306</v>
+                  <v>0.0633513</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06695570000000001</v>
+                  <v>0.06725390000000001</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.09221509999999999</v>
+                  <v>0.0858208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0858753</v>
+                  <v>0.08577170000000001</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594309999999999</v>
+                  <v>0.08594590000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0860457</v>
+                  <v>0.08606900000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0861672</v>
+                  <v>0.08616749999999999</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0863088</v>
+                  <v>0.08662789999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0865691</v>
+                  <v>0.0864133</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0868321</v>
+                  <v>0.088181</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.08713460000000001</v>
+                  <v>0.0871123</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.08769159999999999</v>
+                  <v>0.0876926</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0958198</v>
+                  <v>0.0885166</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0898485</v>
+                  <v>0.0897474</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.095514</v>
+                  <v>0.09172080000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.09515</v>
+                  <v>0.0949308</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100163</v>
+                  <v>0.0997827</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.1074</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.10739</v>
+                  <v>0.108902</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.107504</v>
+                  <v>0.109017</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.107377</v>
+                  <v>0.109219</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114714</v>
+                  <v>0.109295</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.108009</v>
+                  <v>0.109582</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.108717</v>
+                  <v>0.109729</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.109426</v>
+                  <v>0.110229</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110397</v>
+                  <v>0.110875</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111361</v>
+                  <v>0.111655</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112842</v>
+                  <v>0.112821</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114762</v>
+                  <v>0.114619</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117867</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.124715</v>
+                  <v>0.122013</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139793</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140249</v>
+                  <v>0.139131</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139831</v>
+                  <v>0.139496</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139692</v>
+                  <v>0.139621</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.139658</v>
+                  <v>0.13995</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.139443</v>
+                  <v>0.14025</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.139582</v>
+                  <v>0.140479</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.139867</v>
+                  <v>0.142087</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.14053</v>
+                  <v>0.141701</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141002</v>
+                  <v>0.142135</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.142003</v>
+                  <v>0.143369</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.143615</v>
+                  <v>0.14492</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145983</v>
+                  <v>0.147621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150084</v>
+                  <v>0.151632</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.158033</v>
+                  <v>0.157728</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157812</v>
+                  <v>0.157774</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157958</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158179</v>
+                  <v>0.158086</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158157</v>
+                  <v>0.158035</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158476</v>
+                  <v>0.178791</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.021348</v>
+                  <v>0.0365145</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0214877</v>
+                  <v>0.0396988</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0216247</v>
+                  <v>0.0447642</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0218795</v>
+                  <v>0.0498033</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0221566</v>
+                  <v>0.0537687</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0227802</v>
+                  <v>0.0315887</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0236896</v>
+                  <v>0.0336489</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0202692</v>
+                  <v>0.0356574</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0207092</v>
+                  <v>0.0376125</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0210303</v>
+                  <v>0.0405804</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213025</v>
+                  <v>0.0447308</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0213527</v>
+                  <v>0.047286</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0218472</v>
+                  <v>0.0503759</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0222591</v>
+                  <v>0.0539423</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0226628</v>
+                  <v>0.0578276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022977</v>
+                  <v>0.0614582</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233228</v>
+                  <v>0.0653006</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0238671</v>
+                  <v>0.0680994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0246036</v>
+                  <v>0.0704849</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0252305</v>
+                  <v>0.0446121</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0277472</v>
+                  <v>0.047444</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0217618</v>
+                  <v>0.0493842</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0219587</v>
+                  <v>0.0514984</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0222026</v>
+                  <v>0.0543429</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0224898</v>
+                  <v>0.0563413</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0228074</v>
+                  <v>0.0616033</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0232103</v>
+                  <v>0.0643247</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236661</v>
+                  <v>0.0662176</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0240376</v>
+                  <v>0.0698588</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0245248</v>
+                  <v>0.07215820000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0252023</v>
+                  <v>0.0748846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0257564</v>
+                  <v>0.0769565</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0270565</v>
+                  <v>0.0791249</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0287934</v>
+                  <v>0.0519505</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0324096</v>
+                  <v>0.0537373</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0236684</v>
+                  <v>0.0560572</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0241302</v>
+                  <v>0.0580173</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0244332</v>
+                  <v>0.0596857</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0245736</v>
+                  <v>0.0624772</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0239295</v>
+                  <v>0.06461600000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0243207</v>
+                  <v>0.0672449</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0252591</v>
+                  <v>0.06969930000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0256591</v>
+                  <v>0.07249079999999999</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0259074</v>
+                  <v>0.07484499999999999</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0266036</v>
+                  <v>0.0778189</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.027689</v>
+                  <v>0.0800609</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291986</v>
+                  <v>0.0823764</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0317988</v>
+                  <v>0.0844506</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0360721</v>
+                  <v>0.0578649</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.023394</v>
+                  <v>0.0591875</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0236044</v>
+                  <v>0.0615245</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.023867</v>
+                  <v>0.0639034</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0241515</v>
+                  <v>0.0656783</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0244875</v>
+                  <v>0.0679548</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0249477</v>
+                  <v>0.0705563</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253774</v>
+                  <v>0.0733139</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0259302</v>
+                  <v>0.0760695</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0265094</v>
+                  <v>0.07903490000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0274929</v>
+                  <v>0.080972</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0286629</v>
+                  <v>0.08393299999999999</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303873</v>
+                  <v>0.08583780000000001</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0330881</v>
+                  <v>0.08868760000000001</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0367975</v>
+                  <v>0.0634653</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0428056</v>
+                  <v>0.0660341</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0248565</v>
+                  <v>0.068684</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254945</v>
+                  <v>0.0716908</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.025829</v>
+                  <v>0.0754389</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0266013</v>
+                  <v>0.0780781</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0265404</v>
+                  <v>0.08159859999999999</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270211</v>
+                  <v>0.0866746</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.027483</v>
+                  <v>0.0889358</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281629</v>
+                  <v>0.0945853</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0291473</v>
+                  <v>0.0982999</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0302343</v>
+                  <v>0.102978</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321709</v>
+                  <v>0.106901</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0346453</v>
+                  <v>0.112317</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.038211</v>
+                  <v>0.09733840000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0437751</v>
+                  <v>0.101335</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0369618</v>
+                  <v>0.105975</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0377666</v>
+                  <v>0.110132</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0385693</v>
+                  <v>0.115172</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0393414</v>
+                  <v>0.121209</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0400166</v>
+                  <v>0.126205</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0406419</v>
+                  <v>0.131141</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0415556</v>
+                  <v>0.137704</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0424017</v>
+                  <v>0.143051</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0449697</v>
+                  <v>0.149748</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0442997</v>
+                  <v>0.154568</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0456659</v>
+                  <v>0.16029</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.047738</v>
+                  <v>0.166513</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0505484</v>
+                  <v>0.145912</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0549595</v>
+                  <v>0.149301</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0715803</v>
+                  <v>0.152309</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0719887</v>
+                  <v>0.157221</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0723747</v>
+                  <v>0.160664</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0728399</v>
+                  <v>0.166029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07350520000000001</v>
+                  <v>0.170781</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0740489</v>
+                  <v>0.175608</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0746351</v>
+                  <v>0.181033</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0754398</v>
+                  <v>0.186455</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.07621650000000001</v>
+                  <v>0.192398</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0796057</v>
+                  <v>0.199037</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07860830000000001</v>
+                  <v>0.203931</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0804361</v>
+                  <v>0.210695</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0829439</v>
+                  <v>0.216678</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08686770000000001</v>
+                  <v>0.181859</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0889514</v>
+                  <v>0.199868</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.089729</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0904097</v>
+                  <v>0.192797</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0913191</v>
+                  <v>0.196994</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0921503</v>
+                  <v>0.201949</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0931935</v>
+                  <v>0.206787</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09714059999999999</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.09524050000000001</v>
+                  <v>0.217678</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.096618</v>
+                  <v>0.223918</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0979674</v>
+                  <v>0.229518</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0996447</v>
+                  <v>0.23542</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.101745</v>
+                  <v>0.241207</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104375</v>
+                  <v>0.247384</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108312</v>
+                  <v>0.199268</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114594</v>
+                  <v>0.202036</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.106984</v>
+                  <v>0.205435</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.119349</v>
+                  <v>0.209778</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109142</v>
+                  <v>0.213788</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110214</v>
+                  <v>0.218497</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111475</v>
+                  <v>0.22327</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.112737</v>
+                  <v>0.228488</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11413</v>
+                  <v>0.234375</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115719</v>
+                  <v>0.240447</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117336</v>
+                  <v>0.24599</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.119263</v>
+                  <v>0.251978</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121651</v>
+                  <v>0.257944</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.124577</v>
+                  <v>0.268641</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128814</v>
+                  <v>0.209616</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13534</v>
+                  <v>0.212749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118414</v>
+                  <v>0.216194</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119444</v>
+                  <v>0.220147</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120531</v>
+                  <v>0.224171</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.121662</v>
+                  <v>0.229194</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.122894</v>
+                  <v>0.234298</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.12405</v>
+                  <v>0.239466</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125504</v>
+                  <v>0.245367</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0336857</v>
+                  <v>0.0196261</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0394849</v>
+                  <v>0.0197912</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0423094</v>
+                  <v>0.0198901</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0461472</v>
+                  <v>0.0199582</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0507523</v>
+                  <v>0.0201314</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.030305</v>
+                  <v>0.0201829</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0319421</v>
+                  <v>0.0207955</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0344693</v>
+                  <v>0.0194471</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0368055</v>
+                  <v>0.0195449</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0393418</v>
+                  <v>0.019867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0427875</v>
+                  <v>0.0201596</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0475742</v>
+                  <v>0.0201363</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0488059</v>
+                  <v>0.0205715</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0525665</v>
+                  <v>0.021072</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0568101</v>
+                  <v>0.0210413</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0604767</v>
+                  <v>0.0212453</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0639252</v>
+                  <v>0.0213354</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0675722</v>
+                  <v>0.0214148</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0692373</v>
+                  <v>0.0218501</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0444481</v>
+                  <v>0.0224228</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0475408</v>
+                  <v>0.0237556</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0489493</v>
+                  <v>0.0210571</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0508013</v>
+                  <v>0.0212586</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0535126</v>
+                  <v>0.0214644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0556632</v>
+                  <v>0.0215637</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0589148</v>
+                  <v>0.021764</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0614351</v>
+                  <v>0.0221105</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.06435200000000001</v>
+                  <v>0.022421</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0664998</v>
+                  <v>0.0226251</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07017470000000001</v>
+                  <v>0.0229748</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0725022</v>
+                  <v>0.02343</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0762954</v>
+                  <v>0.0239333</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0772482</v>
+                  <v>0.0247176</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0518274</v>
+                  <v>0.0263657</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0539981</v>
+                  <v>0.0292434</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0569381</v>
+                  <v>0.0221968</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0590617</v>
+                  <v>0.0224122</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0616864</v>
+                  <v>0.0226233</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0607154</v>
+                  <v>0.0229104</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06472219999999999</v>
+                  <v>0.0231873</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0669053</v>
+                  <v>0.0235225</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06983350000000001</v>
+                  <v>0.0245394</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0728838</v>
+                  <v>0.0242028</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0752324</v>
+                  <v>0.0246188</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.07806680000000001</v>
+                  <v>0.0255792</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0802983</v>
+                  <v>0.0258658</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0828279</v>
+                  <v>0.0269256</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0846045</v>
+                  <v>0.029475</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0575865</v>
+                  <v>0.0328029</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0593047</v>
+                  <v>0.0229759</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0611502</v>
+                  <v>0.0231768</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0636737</v>
+                  <v>0.0234395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0657292</v>
+                  <v>0.023729</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.06833930000000001</v>
+                  <v>0.0240074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0707661</v>
+                  <v>0.024327</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.073903</v>
+                  <v>0.0247229</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0761425</v>
+                  <v>0.025276</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.078791</v>
+                  <v>0.0257848</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.08170040000000001</v>
+                  <v>0.0264266</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0839515</v>
+                  <v>0.0273739</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0861381</v>
+                  <v>0.0289127</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.088853</v>
+                  <v>0.0313813</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0638098</v>
+                  <v>0.0347866</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.06650739999999999</v>
+                  <v>0.0405541</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0691383</v>
+                  <v>0.0251501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0715653</v>
+                  <v>0.0254762</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0745817</v>
+                  <v>0.0257275</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.07851610000000001</v>
+                  <v>0.0260131</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0814839</v>
+                  <v>0.0263866</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0860113</v>
+                  <v>0.0261122</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.09014419999999999</v>
+                  <v>0.0272077</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0948281</v>
+                  <v>0.0281149</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0981105</v>
+                  <v>0.0283556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.101526</v>
+                  <v>0.0292696</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.107487</v>
+                  <v>0.0306653</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112807</v>
+                  <v>0.0333493</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0965601</v>
+                  <v>0.0363328</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101097</v>
+                  <v>0.0412171</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.106082</v>
+                  <v>0.0356659</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110975</v>
+                  <v>0.0363526</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.114995</v>
+                  <v>0.0371667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.120023</v>
+                  <v>0.0379171</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.125893</v>
+                  <v>0.0386585</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.130762</v>
+                  <v>0.0393656</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.136855</v>
+                  <v>0.0400877</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.142491</v>
+                  <v>0.0412195</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.148735</v>
+                  <v>0.0419461</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154806</v>
+                  <v>0.0430021</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.160276</v>
+                  <v>0.0442752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.165942</v>
+                  <v>0.046052</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145194</v>
+                  <v>0.0487434</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.148853</v>
+                  <v>0.0533016</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152457</v>
+                  <v>0.0713101</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.156847</v>
+                  <v>0.07162789999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.16093</v>
+                  <v>0.0721873</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.165502</v>
+                  <v>0.0726131</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.171025</v>
+                  <v>0.0731451</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.176145</v>
+                  <v>0.073726</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181854</v>
+                  <v>0.0743772</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.187152</v>
+                  <v>0.0751235</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192849</v>
+                  <v>0.0758935</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199082</v>
+                  <v>0.07695730000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.205029</v>
+                  <v>0.07818170000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.211115</v>
+                  <v>0.0798373</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217795</v>
+                  <v>0.08226</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181761</v>
+                  <v>0.0859181</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.184875</v>
+                  <v>0.08945119999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18853</v>
+                  <v>0.0901479</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.193379</v>
+                  <v>0.0909215</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196792</v>
+                  <v>0.0917118</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201399</v>
+                  <v>0.09258719999999999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206374</v>
+                  <v>0.09357890000000001</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.211734</v>
+                  <v>0.09464</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.218001</v>
+                  <v>0.0957011</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223144</v>
+                  <v>0.0970447</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229767</v>
+                  <v>0.0984414</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.235872</v>
+                  <v>0.101572</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.240776</v>
+                  <v>0.102157</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247637</v>
+                  <v>0.104633</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.198997</v>
+                  <v>0.108505</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202385</v>
+                  <v>0.114455</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205971</v>
+                  <v>0.107135</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209681</v>
+                  <v>0.10814</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213857</v>
+                  <v>0.109179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218441</v>
+                  <v>0.110339</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.223282</v>
+                  <v>0.111555</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228864</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234598</v>
+                  <v>0.11438</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240649</v>
+                  <v>0.115714</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.251617</v>
+                  <v>0.117191</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252683</v>
+                  <v>0.11914</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.258786</v>
+                  <v>0.121337</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.264415</v>
+                  <v>0.127893</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.20958</v>
+                  <v>0.128374</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21278</v>
+                  <v>0.134621</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216352</v>
+                  <v>0.118436</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219749</v>
+                  <v>0.119542</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224359</v>
+                  <v>0.120555</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.228913</v>
+                  <v>0.124935</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236829</v>
+                  <v>0.12278</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239299</v>
+                  <v>0.123993</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.2453</v>
+                  <v>0.125349</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0206785</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0207813</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0208833</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0207783</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0207749</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.020897</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0212215</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0216661</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0216931</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219577</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0219969</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0221826</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225411</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0228079</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0227173</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0227772</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0230473</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0229634</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0230157</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0234205</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0244919</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.023336</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0235586</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0238225</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237382</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0238801</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0241333</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0244564</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0245499</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0247842</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0251216</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0254613</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0260233</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0270699</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0306774</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245451</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247372</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.024937</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0252111</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253094</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0255793</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0257865</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0260194</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026382</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0268562</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0274538</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0286629</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.030666</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0341753</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0248564</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0250656</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0253725</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0256172</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.025785</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0260479</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265271</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0269807</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0273609</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0280786</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0290054</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0305336</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0329544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0362898</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0419218</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.026637</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0267861</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0277745</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0273026</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0277491</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281135</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0285725</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0291539</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0301281</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315789</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.032797</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0350439</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0383708</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0434181</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335094</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.033843</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0344867</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0348016</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0352056</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0360305</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0367309</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372919</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0386863</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0396944</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0417616</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0474931</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.052939</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.06786490000000001</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.068254</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06875249999999999</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0691842</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.06990540000000001</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07045410000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0711215</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0718926</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0728032</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07412000000000001</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.07561420000000001</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0777135</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.08079749999999999</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0859578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0926965</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0931657</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.09363</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0942807</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0949342</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0956124</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09643110000000001</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0974578</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.09865409999999999</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.099985</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.101915</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.10417</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107355</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.111855</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119295</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111174</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.113436</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.112627</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113487</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114491</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.116157</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.116856</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.118562</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120523</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.121962</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124397</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.127842</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.14034</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.13989</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123322</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124097</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.124887</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126237</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.12706</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127951</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129431</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115643</v>
+        <v>0.115429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.131757</v>
+        <v>0.114467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110983</v>
+        <v>0.110879</v>
       </c>
       <c r="E2" t="n">
-        <v>0.108361</v>
+        <v>0.108322</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115927</v>
+        <v>0.116526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139378</v>
+        <v>0.115245</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111309</v>
+        <v>0.111003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.108767</v>
+        <v>0.108847</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124721</v>
+        <v>0.117568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146861</v>
+        <v>0.116249</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111482</v>
+        <v>0.111536</v>
       </c>
       <c r="E4" t="n">
-        <v>0.110823</v>
+        <v>0.109151</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118933</v>
+        <v>0.119196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15381</v>
+        <v>0.117613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112019</v>
+        <v>0.111849</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109542</v>
+        <v>0.109636</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121803</v>
+        <v>0.121505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160163</v>
+        <v>0.118945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112474</v>
+        <v>0.112561</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112136</v>
+        <v>0.110332</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.125617</v>
+        <v>0.124682</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126113</v>
+        <v>0.12285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113517</v>
+        <v>0.113531</v>
       </c>
       <c r="E7" t="n">
-        <v>0.111207</v>
+        <v>0.111479</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.134629</v>
+        <v>0.130508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129636</v>
+        <v>0.129305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115181</v>
+        <v>0.114809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.112783</v>
+        <v>0.113701</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.164085</v>
+        <v>0.138907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.134317</v>
+        <v>0.138401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.115813</v>
+        <v>0.115459</v>
       </c>
       <c r="E9" t="n">
-        <v>0.112914</v>
+        <v>0.110591</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124475</v>
+        <v>0.126359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.140599</v>
+        <v>0.116635</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116148</v>
+        <v>0.116834</v>
       </c>
       <c r="E10" t="n">
-        <v>0.112626</v>
+        <v>0.110417</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127451</v>
+        <v>0.129004</v>
       </c>
       <c r="C11" t="n">
-        <v>0.145622</v>
+        <v>0.124503</v>
       </c>
       <c r="D11" t="n">
-        <v>0.116725</v>
+        <v>0.131027</v>
       </c>
       <c r="E11" t="n">
-        <v>0.111188</v>
+        <v>0.110597</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.136221</v>
+        <v>0.128221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150185</v>
+        <v>0.122836</v>
       </c>
       <c r="D12" t="n">
-        <v>0.116663</v>
+        <v>0.117389</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1112</v>
+        <v>0.110681</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134093</v>
+        <v>0.126029</v>
       </c>
       <c r="C13" t="n">
-        <v>0.155472</v>
+        <v>0.123235</v>
       </c>
       <c r="D13" t="n">
-        <v>0.117292</v>
+        <v>0.121357</v>
       </c>
       <c r="E13" t="n">
-        <v>0.112028</v>
+        <v>0.111332</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129875</v>
+        <v>0.126275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.160896</v>
+        <v>0.12389</v>
       </c>
       <c r="D14" t="n">
-        <v>0.118324</v>
+        <v>0.117209</v>
       </c>
       <c r="E14" t="n">
-        <v>0.112257</v>
+        <v>0.111188</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131958</v>
+        <v>0.127995</v>
       </c>
       <c r="C15" t="n">
-        <v>0.168154</v>
+        <v>0.11953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.118743</v>
+        <v>0.1178</v>
       </c>
       <c r="E15" t="n">
-        <v>0.112147</v>
+        <v>0.113077</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12709</v>
+        <v>0.130713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.174481</v>
+        <v>0.133556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.118244</v>
+        <v>0.118129</v>
       </c>
       <c r="E16" t="n">
-        <v>0.112203</v>
+        <v>0.112011</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131098</v>
+        <v>0.135179</v>
       </c>
       <c r="C17" t="n">
-        <v>0.180243</v>
+        <v>0.122708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118436</v>
+        <v>0.126201</v>
       </c>
       <c r="E17" t="n">
-        <v>0.112821</v>
+        <v>0.113025</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131498</v>
+        <v>0.133023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.185898</v>
+        <v>0.128473</v>
       </c>
       <c r="D18" t="n">
-        <v>0.119072</v>
+        <v>0.119509</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11266</v>
+        <v>0.112396</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134289</v>
+        <v>0.132595</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19186</v>
+        <v>0.134496</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119065</v>
+        <v>0.121689</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1131</v>
+        <v>0.112929</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.147152</v>
+        <v>0.146925</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196534</v>
+        <v>0.139623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119824</v>
+        <v>0.119923</v>
       </c>
       <c r="E20" t="n">
-        <v>0.114015</v>
+        <v>0.113859</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.150998</v>
+        <v>0.140698</v>
       </c>
       <c r="C21" t="n">
-        <v>0.149838</v>
+        <v>0.137452</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121104</v>
+        <v>0.121166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.115997</v>
+        <v>0.115669</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.164248</v>
+        <v>0.160741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155131</v>
+        <v>0.141946</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124806</v>
+        <v>0.1253</v>
       </c>
       <c r="E22" t="n">
-        <v>0.121304</v>
+        <v>0.119483</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159273</v>
+        <v>0.156712</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159132</v>
+        <v>0.162808</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124689</v>
+        <v>0.124556</v>
       </c>
       <c r="E23" t="n">
-        <v>0.121972</v>
+        <v>0.120635</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133314</v>
+        <v>0.13453</v>
       </c>
       <c r="C24" t="n">
-        <v>0.164413</v>
+        <v>0.134066</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125098</v>
+        <v>0.12479</v>
       </c>
       <c r="E24" t="n">
-        <v>0.122495</v>
+        <v>0.121552</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13442</v>
+        <v>0.137759</v>
       </c>
       <c r="C25" t="n">
-        <v>0.169381</v>
+        <v>0.13516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.126292</v>
+        <v>0.12878</v>
       </c>
       <c r="E25" t="n">
-        <v>0.119866</v>
+        <v>0.123208</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135446</v>
+        <v>0.135667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.174177</v>
+        <v>0.142777</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125698</v>
+        <v>0.125771</v>
       </c>
       <c r="E26" t="n">
-        <v>0.119931</v>
+        <v>0.126228</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135832</v>
+        <v>0.136621</v>
       </c>
       <c r="C27" t="n">
-        <v>0.179658</v>
+        <v>0.130053</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125491</v>
+        <v>0.127433</v>
       </c>
       <c r="E27" t="n">
-        <v>0.121511</v>
+        <v>0.121603</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135725</v>
+        <v>0.136281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.183551</v>
+        <v>0.138929</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125836</v>
+        <v>0.131248</v>
       </c>
       <c r="E28" t="n">
-        <v>0.122218</v>
+        <v>0.119794</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136125</v>
+        <v>0.136327</v>
       </c>
       <c r="C29" t="n">
-        <v>0.189151</v>
+        <v>0.13177</v>
       </c>
       <c r="D29" t="n">
-        <v>0.125936</v>
+        <v>0.126195</v>
       </c>
       <c r="E29" t="n">
-        <v>0.123228</v>
+        <v>0.131915</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138927</v>
+        <v>0.137555</v>
       </c>
       <c r="C30" t="n">
-        <v>0.194274</v>
+        <v>0.133302</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126627</v>
+        <v>0.126321</v>
       </c>
       <c r="E30" t="n">
-        <v>0.123937</v>
+        <v>0.121995</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139359</v>
+        <v>0.13967</v>
       </c>
       <c r="C31" t="n">
-        <v>0.199901</v>
+        <v>0.14251</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126775</v>
+        <v>0.126473</v>
       </c>
       <c r="E31" t="n">
-        <v>0.124514</v>
+        <v>0.123177</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141346</v>
+        <v>0.141486</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206234</v>
+        <v>0.145074</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127043</v>
+        <v>0.126659</v>
       </c>
       <c r="E32" t="n">
-        <v>0.125124</v>
+        <v>0.124949</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143929</v>
+        <v>0.163135</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210897</v>
+        <v>0.144013</v>
       </c>
       <c r="D33" t="n">
-        <v>0.127905</v>
+        <v>0.12812</v>
       </c>
       <c r="E33" t="n">
-        <v>0.12574</v>
+        <v>0.124739</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147152</v>
+        <v>0.151973</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215509</v>
+        <v>0.14622</v>
       </c>
       <c r="D34" t="n">
-        <v>0.128568</v>
+        <v>0.131554</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129317</v>
+        <v>0.12832</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153277</v>
+        <v>0.154759</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166137</v>
+        <v>0.160342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.133595</v>
+        <v>0.13394</v>
       </c>
       <c r="E35" t="n">
-        <v>0.135037</v>
+        <v>0.140986</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160215</v>
+        <v>0.158985</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169924</v>
+        <v>0.155071</v>
       </c>
       <c r="D36" t="n">
-        <v>0.141602</v>
+        <v>0.146218</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141335</v>
+        <v>0.141529</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168834</v>
+        <v>0.167422</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174127</v>
+        <v>0.163396</v>
       </c>
       <c r="D37" t="n">
-        <v>0.140004</v>
+        <v>0.138776</v>
       </c>
       <c r="E37" t="n">
-        <v>0.140718</v>
+        <v>0.139114</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147072</v>
+        <v>0.14591</v>
       </c>
       <c r="C38" t="n">
-        <v>0.179108</v>
+        <v>0.149706</v>
       </c>
       <c r="D38" t="n">
-        <v>0.135823</v>
+        <v>0.137578</v>
       </c>
       <c r="E38" t="n">
-        <v>0.13944</v>
+        <v>0.140125</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14676</v>
+        <v>0.148324</v>
       </c>
       <c r="C39" t="n">
-        <v>0.183717</v>
+        <v>0.156653</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1362</v>
+        <v>0.139132</v>
       </c>
       <c r="E39" t="n">
-        <v>0.140045</v>
+        <v>0.145706</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.154961</v>
+        <v>0.149269</v>
       </c>
       <c r="C40" t="n">
-        <v>0.187606</v>
+        <v>0.149218</v>
       </c>
       <c r="D40" t="n">
-        <v>0.135138</v>
+        <v>0.138977</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14061</v>
+        <v>0.141215</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147933</v>
+        <v>0.149181</v>
       </c>
       <c r="C41" t="n">
-        <v>0.192566</v>
+        <v>0.151994</v>
       </c>
       <c r="D41" t="n">
-        <v>0.135446</v>
+        <v>0.136903</v>
       </c>
       <c r="E41" t="n">
-        <v>0.13929</v>
+        <v>0.140189</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.154351</v>
+        <v>0.148837</v>
       </c>
       <c r="C42" t="n">
-        <v>0.197068</v>
+        <v>0.151364</v>
       </c>
       <c r="D42" t="n">
-        <v>0.138564</v>
+        <v>0.141996</v>
       </c>
       <c r="E42" t="n">
-        <v>0.14017</v>
+        <v>0.139369</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149554</v>
+        <v>0.150837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20191</v>
+        <v>0.15665</v>
       </c>
       <c r="D43" t="n">
-        <v>0.13973</v>
+        <v>0.139922</v>
       </c>
       <c r="E43" t="n">
-        <v>0.14111</v>
+        <v>0.144162</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149279</v>
+        <v>0.152633</v>
       </c>
       <c r="C44" t="n">
-        <v>0.207185</v>
+        <v>0.15462</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13859</v>
+        <v>0.136828</v>
       </c>
       <c r="E44" t="n">
-        <v>0.139593</v>
+        <v>0.142901</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152106</v>
+        <v>0.153194</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212697</v>
+        <v>0.163693</v>
       </c>
       <c r="D45" t="n">
-        <v>0.137197</v>
+        <v>0.138873</v>
       </c>
       <c r="E45" t="n">
-        <v>0.139386</v>
+        <v>0.141472</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155399</v>
+        <v>0.15302</v>
       </c>
       <c r="C46" t="n">
-        <v>0.217778</v>
+        <v>0.173636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140316</v>
+        <v>0.137511</v>
       </c>
       <c r="E46" t="n">
-        <v>0.141877</v>
+        <v>0.147624</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.17011</v>
+        <v>0.155732</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223391</v>
+        <v>0.163787</v>
       </c>
       <c r="D47" t="n">
-        <v>0.139896</v>
+        <v>0.140885</v>
       </c>
       <c r="E47" t="n">
-        <v>0.145952</v>
+        <v>0.14886</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161474</v>
+        <v>0.159269</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228102</v>
+        <v>0.169044</v>
       </c>
       <c r="D48" t="n">
-        <v>0.144822</v>
+        <v>0.144996</v>
       </c>
       <c r="E48" t="n">
-        <v>0.149301</v>
+        <v>0.150991</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166853</v>
+        <v>0.165975</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232805</v>
+        <v>0.177736</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14947</v>
+        <v>0.147355</v>
       </c>
       <c r="E49" t="n">
-        <v>0.152541</v>
+        <v>0.1576</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1757</v>
+        <v>0.169528</v>
       </c>
       <c r="C50" t="n">
-        <v>0.171407</v>
+        <v>0.181984</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152493</v>
+        <v>0.15161</v>
       </c>
       <c r="E50" t="n">
-        <v>0.156566</v>
+        <v>0.156925</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178642</v>
+        <v>0.176087</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174796</v>
+        <v>0.188825</v>
       </c>
       <c r="D51" t="n">
-        <v>0.153342</v>
+        <v>0.150959</v>
       </c>
       <c r="E51" t="n">
-        <v>0.152465</v>
+        <v>0.160028</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186639</v>
+        <v>0.186664</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178504</v>
+        <v>0.191295</v>
       </c>
       <c r="D52" t="n">
-        <v>0.150565</v>
+        <v>0.150759</v>
       </c>
       <c r="E52" t="n">
-        <v>0.154602</v>
+        <v>0.152657</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160585</v>
+        <v>0.161378</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183057</v>
+        <v>0.166149</v>
       </c>
       <c r="D53" t="n">
-        <v>0.150729</v>
+        <v>0.149488</v>
       </c>
       <c r="E53" t="n">
-        <v>0.153027</v>
+        <v>0.160706</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161311</v>
+        <v>0.161074</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187275</v>
+        <v>0.167266</v>
       </c>
       <c r="D54" t="n">
-        <v>0.151083</v>
+        <v>0.151138</v>
       </c>
       <c r="E54" t="n">
-        <v>0.155303</v>
+        <v>0.154401</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161757</v>
+        <v>0.162061</v>
       </c>
       <c r="C55" t="n">
-        <v>0.191657</v>
+        <v>0.169531</v>
       </c>
       <c r="D55" t="n">
-        <v>0.151478</v>
+        <v>0.151939</v>
       </c>
       <c r="E55" t="n">
-        <v>0.153848</v>
+        <v>0.153847</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.167286</v>
+        <v>0.162472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.196598</v>
+        <v>0.169182</v>
       </c>
       <c r="D56" t="n">
-        <v>0.150011</v>
+        <v>0.150232</v>
       </c>
       <c r="E56" t="n">
-        <v>0.154169</v>
+        <v>0.153842</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163553</v>
+        <v>0.164015</v>
       </c>
       <c r="C57" t="n">
-        <v>0.201746</v>
+        <v>0.180748</v>
       </c>
       <c r="D57" t="n">
-        <v>0.151645</v>
+        <v>0.149734</v>
       </c>
       <c r="E57" t="n">
-        <v>0.154265</v>
+        <v>0.155822</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164862</v>
+        <v>0.165777</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20713</v>
+        <v>0.171288</v>
       </c>
       <c r="D58" t="n">
-        <v>0.152538</v>
+        <v>0.152278</v>
       </c>
       <c r="E58" t="n">
-        <v>0.155679</v>
+        <v>0.157181</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166367</v>
+        <v>0.17059</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211908</v>
+        <v>0.177867</v>
       </c>
       <c r="D59" t="n">
-        <v>0.152256</v>
+        <v>0.150693</v>
       </c>
       <c r="E59" t="n">
-        <v>0.157642</v>
+        <v>0.158709</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168106</v>
+        <v>0.168431</v>
       </c>
       <c r="C60" t="n">
-        <v>0.217551</v>
+        <v>0.173718</v>
       </c>
       <c r="D60" t="n">
-        <v>0.15454</v>
+        <v>0.153697</v>
       </c>
       <c r="E60" t="n">
-        <v>0.159713</v>
+        <v>0.158269</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1705</v>
+        <v>0.170592</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222085</v>
+        <v>0.180083</v>
       </c>
       <c r="D61" t="n">
-        <v>0.155629</v>
+        <v>0.153778</v>
       </c>
       <c r="E61" t="n">
-        <v>0.160733</v>
+        <v>0.160516</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173315</v>
+        <v>0.173781</v>
       </c>
       <c r="C62" t="n">
-        <v>0.228255</v>
+        <v>0.18102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.158086</v>
+        <v>0.159741</v>
       </c>
       <c r="E62" t="n">
-        <v>0.163032</v>
+        <v>0.166355</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179138</v>
+        <v>0.177893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232552</v>
+        <v>0.183032</v>
       </c>
       <c r="D63" t="n">
-        <v>0.162488</v>
+        <v>0.161167</v>
       </c>
       <c r="E63" t="n">
-        <v>0.167165</v>
+        <v>0.166471</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18236</v>
+        <v>0.182404</v>
       </c>
       <c r="C64" t="n">
-        <v>0.177121</v>
+        <v>0.197919</v>
       </c>
       <c r="D64" t="n">
-        <v>0.166646</v>
+        <v>0.166044</v>
       </c>
       <c r="E64" t="n">
-        <v>0.171961</v>
+        <v>0.170335</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189205</v>
+        <v>0.189359</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181054</v>
+        <v>0.194606</v>
       </c>
       <c r="D65" t="n">
-        <v>0.172475</v>
+        <v>0.172642</v>
       </c>
       <c r="E65" t="n">
-        <v>0.178299</v>
+        <v>0.176445</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198695</v>
+        <v>0.198486</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187311</v>
+        <v>0.212309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.159627</v>
+        <v>0.159603</v>
       </c>
       <c r="E66" t="n">
-        <v>0.163554</v>
+        <v>0.166164</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180642</v>
+        <v>0.180975</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192284</v>
+        <v>0.174528</v>
       </c>
       <c r="D67" t="n">
-        <v>0.162058</v>
+        <v>0.160684</v>
       </c>
       <c r="E67" t="n">
-        <v>0.164087</v>
+        <v>0.164984</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183826</v>
+        <v>0.184749</v>
       </c>
       <c r="C68" t="n">
-        <v>0.19825</v>
+        <v>0.175597</v>
       </c>
       <c r="D68" t="n">
-        <v>0.16234</v>
+        <v>0.160935</v>
       </c>
       <c r="E68" t="n">
-        <v>0.166415</v>
+        <v>0.163957</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.189001</v>
+        <v>0.183379</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2042</v>
+        <v>0.176283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.162547</v>
+        <v>0.164544</v>
       </c>
       <c r="E69" t="n">
-        <v>0.167015</v>
+        <v>0.164345</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185549</v>
+        <v>0.182377</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210005</v>
+        <v>0.18547</v>
       </c>
       <c r="D70" t="n">
-        <v>0.164845</v>
+        <v>0.163673</v>
       </c>
       <c r="E70" t="n">
-        <v>0.165526</v>
+        <v>0.166958</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185147</v>
+        <v>0.187331</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218232</v>
+        <v>0.183426</v>
       </c>
       <c r="D71" t="n">
-        <v>0.163702</v>
+        <v>0.161575</v>
       </c>
       <c r="E71" t="n">
-        <v>0.16588</v>
+        <v>0.166094</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.190242</v>
+        <v>0.185718</v>
       </c>
       <c r="C72" t="n">
-        <v>0.228179</v>
+        <v>0.178793</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164339</v>
+        <v>0.16502</v>
       </c>
       <c r="E72" t="n">
-        <v>0.167298</v>
+        <v>0.167035</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.192912</v>
+        <v>0.187216</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235398</v>
+        <v>0.188606</v>
       </c>
       <c r="D73" t="n">
-        <v>0.165962</v>
+        <v>0.163171</v>
       </c>
       <c r="E73" t="n">
-        <v>0.168831</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.189005</v>
+        <v>0.190048</v>
       </c>
       <c r="C74" t="n">
-        <v>0.241933</v>
+        <v>0.188903</v>
       </c>
       <c r="D74" t="n">
-        <v>0.167123</v>
+        <v>0.165325</v>
       </c>
       <c r="E74" t="n">
-        <v>0.172928</v>
+        <v>0.169668</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192492</v>
+        <v>0.190058</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252806</v>
+        <v>0.184746</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170857</v>
+        <v>0.168368</v>
       </c>
       <c r="E75" t="n">
-        <v>0.173178</v>
+        <v>0.171764</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197669</v>
+        <v>0.19667</v>
       </c>
       <c r="C76" t="n">
-        <v>0.263722</v>
+        <v>0.196193</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172618</v>
+        <v>0.169424</v>
       </c>
       <c r="E76" t="n">
-        <v>0.176247</v>
+        <v>0.173481</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198718</v>
+        <v>0.19663</v>
       </c>
       <c r="C77" t="n">
-        <v>0.274684</v>
+        <v>0.192062</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173012</v>
+        <v>0.172419</v>
       </c>
       <c r="E77" t="n">
-        <v>0.18038</v>
+        <v>0.176755</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205859</v>
+        <v>0.207607</v>
       </c>
       <c r="C78" t="n">
-        <v>0.229436</v>
+        <v>0.19625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176959</v>
+        <v>0.176574</v>
       </c>
       <c r="E78" t="n">
-        <v>0.184167</v>
+        <v>0.181641</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.214765</v>
+        <v>0.206395</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239449</v>
+        <v>0.210126</v>
       </c>
       <c r="D79" t="n">
-        <v>0.182745</v>
+        <v>0.186765</v>
       </c>
       <c r="E79" t="n">
-        <v>0.190131</v>
+        <v>0.189886</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220324</v>
+        <v>0.217902</v>
       </c>
       <c r="C80" t="n">
-        <v>0.250546</v>
+        <v>0.214817</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250674</v>
+        <v>0.250365</v>
       </c>
       <c r="E80" t="n">
-        <v>0.176371</v>
+        <v>0.174698</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.385416</v>
+        <v>0.385666</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265303</v>
+        <v>0.183411</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250292</v>
+        <v>0.250061</v>
       </c>
       <c r="E81" t="n">
-        <v>0.178071</v>
+        <v>0.17595</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.385824</v>
+        <v>0.3857</v>
       </c>
       <c r="C82" t="n">
-        <v>0.278739</v>
+        <v>0.182739</v>
       </c>
       <c r="D82" t="n">
-        <v>0.251247</v>
+        <v>0.252546</v>
       </c>
       <c r="E82" t="n">
-        <v>0.176994</v>
+        <v>0.17644</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386755</v>
+        <v>0.389045</v>
       </c>
       <c r="C83" t="n">
-        <v>0.293425</v>
+        <v>0.183339</v>
       </c>
       <c r="D83" t="n">
-        <v>0.252431</v>
+        <v>0.248833</v>
       </c>
       <c r="E83" t="n">
-        <v>0.179059</v>
+        <v>0.187287</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391318</v>
+        <v>0.393116</v>
       </c>
       <c r="C84" t="n">
-        <v>0.311322</v>
+        <v>0.184914</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251041</v>
+        <v>0.251434</v>
       </c>
       <c r="E84" t="n">
-        <v>0.179957</v>
+        <v>0.18074</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.387823</v>
+        <v>0.390927</v>
       </c>
       <c r="C85" t="n">
-        <v>0.326077</v>
+        <v>0.187192</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253298</v>
+        <v>0.251341</v>
       </c>
       <c r="E85" t="n">
-        <v>0.182339</v>
+        <v>0.180737</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.391652</v>
+        <v>0.396591</v>
       </c>
       <c r="C86" t="n">
-        <v>0.341381</v>
+        <v>0.187729</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249109</v>
+        <v>0.25135</v>
       </c>
       <c r="E86" t="n">
-        <v>0.183557</v>
+        <v>0.181893</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.390202</v>
+        <v>0.396379</v>
       </c>
       <c r="C87" t="n">
-        <v>0.358616</v>
+        <v>0.191289</v>
       </c>
       <c r="D87" t="n">
-        <v>0.253172</v>
+        <v>0.250382</v>
       </c>
       <c r="E87" t="n">
-        <v>0.186288</v>
+        <v>0.184125</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391165</v>
+        <v>0.396506</v>
       </c>
       <c r="C88" t="n">
-        <v>0.378682</v>
+        <v>0.192835</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248514</v>
+        <v>0.251756</v>
       </c>
       <c r="E88" t="n">
-        <v>0.19047</v>
+        <v>0.187657</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.394129</v>
+        <v>0.395879</v>
       </c>
       <c r="C89" t="n">
-        <v>0.400739</v>
+        <v>0.195441</v>
       </c>
       <c r="D89" t="n">
-        <v>0.248338</v>
+        <v>0.247486</v>
       </c>
       <c r="E89" t="n">
-        <v>0.191423</v>
+        <v>0.189145</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395836</v>
+        <v>0.39965</v>
       </c>
       <c r="C90" t="n">
-        <v>0.413273</v>
+        <v>0.198775</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245811</v>
+        <v>0.247163</v>
       </c>
       <c r="E90" t="n">
-        <v>0.194578</v>
+        <v>0.192637</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.401353</v>
+        <v>0.401274</v>
       </c>
       <c r="C91" t="n">
-        <v>0.434065</v>
+        <v>0.203835</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246362</v>
+        <v>0.24413</v>
       </c>
       <c r="E91" t="n">
-        <v>0.199716</v>
+        <v>0.196309</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.400134</v>
+        <v>0.405695</v>
       </c>
       <c r="C92" t="n">
-        <v>0.378937</v>
+        <v>0.211504</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249153</v>
+        <v>0.246102</v>
       </c>
       <c r="E92" t="n">
-        <v>0.204576</v>
+        <v>0.202421</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.405847</v>
+        <v>0.417851</v>
       </c>
       <c r="C93" t="n">
-        <v>0.394498</v>
+        <v>0.218564</v>
       </c>
       <c r="D93" t="n">
-        <v>0.252154</v>
+        <v>0.251006</v>
       </c>
       <c r="E93" t="n">
-        <v>0.213919</v>
+        <v>0.211631</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.410804</v>
+        <v>0.414167</v>
       </c>
       <c r="C94" t="n">
-        <v>0.402652</v>
+        <v>0.23554</v>
       </c>
       <c r="D94" t="n">
-        <v>0.428877</v>
+        <v>0.429692</v>
       </c>
       <c r="E94" t="n">
-        <v>0.283509</v>
+        <v>0.286799</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.56889</v>
+        <v>0.574854</v>
       </c>
       <c r="C95" t="n">
-        <v>0.42417</v>
+        <v>0.310712</v>
       </c>
       <c r="D95" t="n">
-        <v>0.428856</v>
+        <v>0.430389</v>
       </c>
       <c r="E95" t="n">
-        <v>0.285335</v>
+        <v>0.290487</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.571129</v>
+        <v>0.573238</v>
       </c>
       <c r="C96" t="n">
-        <v>0.432823</v>
+        <v>0.313043</v>
       </c>
       <c r="D96" t="n">
-        <v>0.427511</v>
+        <v>0.42874</v>
       </c>
       <c r="E96" t="n">
-        <v>0.287204</v>
+        <v>0.28737</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.570165</v>
+        <v>0.575406</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450117</v>
+        <v>0.311572</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42738</v>
+        <v>0.429583</v>
       </c>
       <c r="E97" t="n">
-        <v>0.287915</v>
+        <v>0.29087</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.570841</v>
+        <v>0.575326</v>
       </c>
       <c r="C98" t="n">
-        <v>0.464988</v>
+        <v>0.310359</v>
       </c>
       <c r="D98" t="n">
-        <v>0.429158</v>
+        <v>0.429545</v>
       </c>
       <c r="E98" t="n">
-        <v>0.298949</v>
+        <v>0.290014</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.571594</v>
+        <v>0.576216</v>
       </c>
       <c r="C99" t="n">
-        <v>0.480415</v>
+        <v>0.314401</v>
       </c>
       <c r="D99" t="n">
-        <v>0.426368</v>
+        <v>0.429102</v>
       </c>
       <c r="E99" t="n">
-        <v>0.289174</v>
+        <v>0.290015</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.572977</v>
+        <v>0.577663</v>
       </c>
       <c r="C100" t="n">
-        <v>0.496571</v>
+        <v>0.317457</v>
       </c>
       <c r="D100" t="n">
-        <v>0.426647</v>
+        <v>0.428731</v>
       </c>
       <c r="E100" t="n">
-        <v>0.292014</v>
+        <v>0.293983</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.572208</v>
+        <v>0.579121</v>
       </c>
       <c r="C101" t="n">
-        <v>0.514808</v>
+        <v>0.316427</v>
       </c>
       <c r="D101" t="n">
-        <v>0.427881</v>
+        <v>0.428138</v>
       </c>
       <c r="E101" t="n">
-        <v>0.298072</v>
+        <v>0.294937</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.575074</v>
+        <v>0.579836</v>
       </c>
       <c r="C102" t="n">
-        <v>0.53306</v>
+        <v>0.325016</v>
       </c>
       <c r="D102" t="n">
-        <v>0.426812</v>
+        <v>0.429628</v>
       </c>
       <c r="E102" t="n">
-        <v>0.295937</v>
+        <v>0.298742</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.576703</v>
+        <v>0.581284</v>
       </c>
       <c r="C103" t="n">
-        <v>0.551314</v>
+        <v>0.321801</v>
       </c>
       <c r="D103" t="n">
-        <v>0.426875</v>
+        <v>0.428376</v>
       </c>
       <c r="E103" t="n">
-        <v>0.300242</v>
+        <v>0.296574</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.580858</v>
+        <v>0.582491</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5659149999999999</v>
+        <v>0.329899</v>
       </c>
       <c r="D104" t="n">
-        <v>0.428434</v>
+        <v>0.42982</v>
       </c>
       <c r="E104" t="n">
-        <v>0.303755</v>
+        <v>0.297798</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.583575</v>
+        <v>0.586741</v>
       </c>
       <c r="C105" t="n">
-        <v>0.586939</v>
+        <v>0.32907</v>
       </c>
       <c r="D105" t="n">
-        <v>0.432809</v>
+        <v>0.430766</v>
       </c>
       <c r="E105" t="n">
-        <v>0.303812</v>
+        <v>0.301228</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.588388</v>
+        <v>0.59007</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6038210000000001</v>
+        <v>0.332808</v>
       </c>
       <c r="D106" t="n">
-        <v>0.435631</v>
+        <v>0.435459</v>
       </c>
       <c r="E106" t="n">
-        <v>0.306794</v>
+        <v>0.312667</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.592028</v>
+        <v>0.595251</v>
       </c>
       <c r="C107" t="n">
-        <v>0.571983</v>
+        <v>0.347259</v>
       </c>
       <c r="D107" t="n">
-        <v>0.43894</v>
+        <v>0.441316</v>
       </c>
       <c r="E107" t="n">
-        <v>0.322212</v>
+        <v>0.314474</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.599734</v>
+        <v>0.603171</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583008</v>
+        <v>0.355391</v>
       </c>
       <c r="D108" t="n">
-        <v>0.578666</v>
+        <v>0.580655</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533594</v>
+        <v>0.535877</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6117089999999999</v>
+        <v>0.61536</v>
       </c>
       <c r="C109" t="n">
-        <v>0.598631</v>
+        <v>0.365152</v>
       </c>
       <c r="D109" t="n">
-        <v>0.579699</v>
+        <v>0.582525</v>
       </c>
       <c r="E109" t="n">
-        <v>0.536539</v>
+        <v>0.539685</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.653944</v>
+        <v>0.657778</v>
       </c>
       <c r="C110" t="n">
-        <v>0.616833</v>
+        <v>0.572729</v>
       </c>
       <c r="D110" t="n">
-        <v>0.579882</v>
+        <v>0.581399</v>
       </c>
       <c r="E110" t="n">
-        <v>0.537879</v>
+        <v>0.538973</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6571360000000001</v>
+        <v>0.661767</v>
       </c>
       <c r="C111" t="n">
-        <v>0.629199</v>
+        <v>0.569956</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579265</v>
+        <v>0.583108</v>
       </c>
       <c r="E111" t="n">
-        <v>0.539274</v>
+        <v>0.540848</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.656098</v>
+        <v>0.658572</v>
       </c>
       <c r="C112" t="n">
-        <v>0.640361</v>
+        <v>0.57479</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581251</v>
+        <v>0.5825050000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5403790000000001</v>
+        <v>0.543886</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.657079</v>
+        <v>0.660733</v>
       </c>
       <c r="C113" t="n">
-        <v>0.657459</v>
+        <v>0.5738259999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5795129999999999</v>
+        <v>0.58365</v>
       </c>
       <c r="E113" t="n">
-        <v>0.543181</v>
+        <v>0.5455100000000001</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.657274</v>
+        <v>0.663707</v>
       </c>
       <c r="C114" t="n">
-        <v>0.671153</v>
+        <v>0.57703</v>
       </c>
       <c r="D114" t="n">
-        <v>0.582795</v>
+        <v>0.582897</v>
       </c>
       <c r="E114" t="n">
-        <v>0.542618</v>
+        <v>0.546477</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659005</v>
+        <v>0.6644</v>
       </c>
       <c r="C115" t="n">
-        <v>0.687799</v>
+        <v>0.577493</v>
       </c>
       <c r="D115" t="n">
-        <v>0.583623</v>
+        <v>0.58774</v>
       </c>
       <c r="E115" t="n">
-        <v>0.546828</v>
+        <v>0.5465680000000001</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.659655</v>
+        <v>0.664582</v>
       </c>
       <c r="C116" t="n">
-        <v>0.704461</v>
+        <v>0.577529</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5838719999999999</v>
+        <v>0.590202</v>
       </c>
       <c r="E116" t="n">
-        <v>0.546353</v>
+        <v>0.549548</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.663594</v>
+        <v>0.665917</v>
       </c>
       <c r="C117" t="n">
-        <v>0.724056</v>
+        <v>0.5850919999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.587159</v>
+        <v>0.588345</v>
       </c>
       <c r="E117" t="n">
-        <v>0.546527</v>
+        <v>0.5515139999999999</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.665399</v>
+        <v>0.673557</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7387860000000001</v>
+        <v>0.588842</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590546</v>
+        <v>0.5941149999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.548462</v>
+        <v>0.557236</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.668017</v>
+        <v>0.67593</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766317</v>
+        <v>0.593068</v>
       </c>
       <c r="D119" t="n">
-        <v>0.592987</v>
+        <v>0.5938909999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.556184</v>
+        <v>0.555322</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.674854</v>
+        <v>0.6799539999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.774913</v>
+        <v>0.59666</v>
       </c>
       <c r="D120" t="n">
-        <v>0.599826</v>
+        <v>0.599629</v>
       </c>
       <c r="E120" t="n">
-        <v>0.560352</v>
+        <v>0.56295</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.683768</v>
+        <v>0.688474</v>
       </c>
       <c r="C121" t="n">
-        <v>0.700061</v>
+        <v>0.609137</v>
       </c>
       <c r="D121" t="n">
-        <v>0.602627</v>
+        <v>0.6050680000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.567507</v>
+        <v>0.56968</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.695361</v>
+        <v>0.697666</v>
       </c>
       <c r="C122" t="n">
-        <v>0.70818</v>
+        <v>0.616055</v>
       </c>
       <c r="D122" t="n">
-        <v>0.610808</v>
+        <v>0.616243</v>
       </c>
       <c r="E122" t="n">
-        <v>0.574219</v>
+        <v>0.578116</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.705296</v>
+        <v>0.71324</v>
       </c>
       <c r="C123" t="n">
-        <v>0.723708</v>
+        <v>0.631414</v>
       </c>
       <c r="D123" t="n">
-        <v>0.756511</v>
+        <v>0.759991</v>
       </c>
       <c r="E123" t="n">
-        <v>0.778045</v>
+        <v>0.781146</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8076680000000001</v>
+        <v>0.815204</v>
       </c>
       <c r="C124" t="n">
-        <v>0.735418</v>
+        <v>0.809883</v>
       </c>
       <c r="D124" t="n">
-        <v>0.758596</v>
+        <v>0.764092</v>
       </c>
       <c r="E124" t="n">
-        <v>0.779154</v>
+        <v>0.785355</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.808692</v>
+        <v>0.815266</v>
       </c>
       <c r="C125" t="n">
-        <v>0.750205</v>
+        <v>0.810455</v>
       </c>
       <c r="D125" t="n">
-        <v>0.759538</v>
+        <v>0.761906</v>
       </c>
       <c r="E125" t="n">
-        <v>0.779551</v>
+        <v>0.7841320000000001</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8094749999999999</v>
+        <v>0.817711</v>
       </c>
       <c r="C126" t="n">
-        <v>0.767916</v>
+        <v>0.814339</v>
       </c>
       <c r="D126" t="n">
-        <v>0.761047</v>
+        <v>0.761831</v>
       </c>
       <c r="E126" t="n">
-        <v>0.783738</v>
+        <v>0.785612</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.812152</v>
+        <v>0.819296</v>
       </c>
       <c r="C127" t="n">
-        <v>0.780272</v>
+        <v>0.818014</v>
       </c>
       <c r="D127" t="n">
-        <v>0.760841</v>
+        <v>0.763079</v>
       </c>
       <c r="E127" t="n">
-        <v>0.783736</v>
+        <v>0.787413</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.814185</v>
+        <v>0.818447</v>
       </c>
       <c r="C128" t="n">
-        <v>0.794435</v>
+        <v>0.814989</v>
       </c>
       <c r="D128" t="n">
-        <v>0.762841</v>
+        <v>0.7635729999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.786984</v>
+        <v>0.788166</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.814455</v>
+        <v>0.821581</v>
       </c>
       <c r="C129" t="n">
-        <v>0.806389</v>
+        <v>0.81742</v>
       </c>
       <c r="D129" t="n">
-        <v>0.760099</v>
+        <v>0.765777</v>
       </c>
       <c r="E129" t="n">
-        <v>0.786121</v>
+        <v>0.789751</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.814581</v>
+        <v>0.821357</v>
       </c>
       <c r="C130" t="n">
-        <v>0.82346</v>
+        <v>0.82192</v>
       </c>
       <c r="D130" t="n">
-        <v>0.765509</v>
+        <v>0.767241</v>
       </c>
       <c r="E130" t="n">
-        <v>0.790075</v>
+        <v>0.792041</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.81975</v>
+        <v>0.821387</v>
       </c>
       <c r="C131" t="n">
-        <v>0.844233</v>
+        <v>0.827332</v>
       </c>
       <c r="D131" t="n">
-        <v>0.767586</v>
+        <v>0.769186</v>
       </c>
       <c r="E131" t="n">
-        <v>0.791436</v>
+        <v>0.795399</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.821577</v>
+        <v>0.823492</v>
       </c>
       <c r="C132" t="n">
-        <v>0.860998</v>
+        <v>0.828647</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7711440000000001</v>
+        <v>0.772402</v>
       </c>
       <c r="E132" t="n">
-        <v>0.797162</v>
+        <v>0.798905</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.826245</v>
+        <v>0.8314589999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.881615</v>
+        <v>0.831659</v>
       </c>
       <c r="D133" t="n">
-        <v>0.772848</v>
+        <v>0.773593</v>
       </c>
       <c r="E133" t="n">
-        <v>0.800972</v>
+        <v>0.802303</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.832541</v>
+        <v>0.834935</v>
       </c>
       <c r="C134" t="n">
-        <v>0.897674</v>
+        <v>0.839283</v>
       </c>
       <c r="D134" t="n">
-        <v>0.776236</v>
+        <v>0.782663</v>
       </c>
       <c r="E134" t="n">
-        <v>0.80562</v>
+        <v>0.811676</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.836306</v>
+        <v>0.842046</v>
       </c>
       <c r="C135" t="n">
-        <v>0.759548</v>
+        <v>0.848943</v>
       </c>
       <c r="D135" t="n">
-        <v>0.781388</v>
+        <v>0.786906</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8147</v>
+        <v>0.817187</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.84822</v>
+        <v>0.851437</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7697079999999999</v>
+        <v>0.856523</v>
       </c>
       <c r="D136" t="n">
-        <v>0.788428</v>
+        <v>0.7961819999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8252429999999999</v>
+        <v>0.827678</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.859493</v>
+        <v>0.8655080000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.782166</v>
+        <v>0.875908</v>
       </c>
       <c r="D137" t="n">
-        <v>0.904131</v>
+        <v>0.908521</v>
       </c>
       <c r="E137" t="n">
-        <v>0.925488</v>
+        <v>0.929248</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.946513</v>
+        <v>0.953338</v>
       </c>
       <c r="C138" t="n">
-        <v>0.792219</v>
+        <v>0.963321</v>
       </c>
       <c r="D138" t="n">
-        <v>0.90476</v>
+        <v>0.908313</v>
       </c>
       <c r="E138" t="n">
-        <v>0.927414</v>
+        <v>0.932027</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.948146</v>
+        <v>0.9540149999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.805359</v>
+        <v>0.963762</v>
       </c>
       <c r="D139" t="n">
-        <v>0.904067</v>
+        <v>0.908461</v>
       </c>
       <c r="E139" t="n">
-        <v>0.927735</v>
+        <v>0.932009</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.948274</v>
+        <v>0.953222</v>
       </c>
       <c r="C140" t="n">
-        <v>0.819287</v>
+        <v>0.9641110000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.904251</v>
+        <v>0.909003</v>
       </c>
       <c r="E140" t="n">
-        <v>0.929073</v>
+        <v>0.933569</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.949655</v>
+        <v>0.954664</v>
       </c>
       <c r="C141" t="n">
-        <v>0.833292</v>
+        <v>0.966457</v>
       </c>
       <c r="D141" t="n">
-        <v>0.90664</v>
+        <v>0.910114</v>
       </c>
       <c r="E141" t="n">
-        <v>0.930799</v>
+        <v>0.9351930000000001</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.950545</v>
+        <v>0.956059</v>
       </c>
       <c r="C142" t="n">
-        <v>0.852131</v>
+        <v>0.968036</v>
       </c>
       <c r="D142" t="n">
-        <v>0.905827</v>
+        <v>0.910523</v>
       </c>
       <c r="E142" t="n">
-        <v>0.933361</v>
+        <v>0.937014</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.951232</v>
+        <v>0.957638</v>
       </c>
       <c r="C143" t="n">
-        <v>0.866272</v>
+        <v>0.969851</v>
       </c>
       <c r="D143" t="n">
-        <v>0.910335</v>
+        <v>0.912242</v>
       </c>
       <c r="E143" t="n">
-        <v>0.938843</v>
+        <v>0.9393280000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115643</v>
+        <v>0.12408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.131757</v>
+        <v>0.132117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110983</v>
+        <v>0.110847</v>
       </c>
       <c r="E2" t="n">
-        <v>0.108361</v>
+        <v>0.10999</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115927</v>
+        <v>0.126037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.139378</v>
+        <v>0.138671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.111309</v>
+        <v>0.110973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.108767</v>
+        <v>0.110102</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124721</v>
+        <v>0.131563</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146861</v>
+        <v>0.145503</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111482</v>
+        <v>0.11133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.110823</v>
+        <v>0.10863</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.118933</v>
+        <v>0.12684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.15381</v>
+        <v>0.152793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.112019</v>
+        <v>0.111471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109542</v>
+        <v>0.109022</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121803</v>
+        <v>0.128054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160163</v>
+        <v>0.158965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112474</v>
+        <v>0.112196</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112136</v>
+        <v>0.111861</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.125617</v>
+        <v>0.134991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126113</v>
+        <v>0.126109</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113517</v>
+        <v>0.113359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.111207</v>
+        <v>0.112619</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.134629</v>
+        <v>0.13459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.129636</v>
+        <v>0.130005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115181</v>
+        <v>0.115042</v>
       </c>
       <c r="E8" t="n">
-        <v>0.112783</v>
+        <v>0.114358</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.164085</v>
+        <v>0.146715</v>
       </c>
       <c r="C9" t="n">
-        <v>0.134317</v>
+        <v>0.133688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.115813</v>
+        <v>0.119877</v>
       </c>
       <c r="E9" t="n">
-        <v>0.112914</v>
+        <v>0.10986</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124475</v>
+        <v>0.126833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.140599</v>
+        <v>0.139786</v>
       </c>
       <c r="D10" t="n">
-        <v>0.116148</v>
+        <v>0.117081</v>
       </c>
       <c r="E10" t="n">
-        <v>0.112626</v>
+        <v>0.110918</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.127451</v>
+        <v>0.132144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.145622</v>
+        <v>0.145064</v>
       </c>
       <c r="D11" t="n">
-        <v>0.116725</v>
+        <v>0.118113</v>
       </c>
       <c r="E11" t="n">
-        <v>0.111188</v>
+        <v>0.111369</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.136221</v>
+        <v>0.131962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.150185</v>
+        <v>0.149608</v>
       </c>
       <c r="D12" t="n">
-        <v>0.116663</v>
+        <v>0.120417</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1112</v>
+        <v>0.110204</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.134093</v>
+        <v>0.127008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.155472</v>
+        <v>0.155322</v>
       </c>
       <c r="D13" t="n">
-        <v>0.117292</v>
+        <v>0.120661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.112028</v>
+        <v>0.11193</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.129875</v>
+        <v>0.126457</v>
       </c>
       <c r="C14" t="n">
-        <v>0.160896</v>
+        <v>0.160404</v>
       </c>
       <c r="D14" t="n">
-        <v>0.118324</v>
+        <v>0.120126</v>
       </c>
       <c r="E14" t="n">
-        <v>0.112257</v>
+        <v>0.11072</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.131958</v>
+        <v>0.134942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.168154</v>
+        <v>0.166843</v>
       </c>
       <c r="D15" t="n">
-        <v>0.118743</v>
+        <v>0.120024</v>
       </c>
       <c r="E15" t="n">
-        <v>0.112147</v>
+        <v>0.112338</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12709</v>
+        <v>0.129744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.174481</v>
+        <v>0.173106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.118244</v>
+        <v>0.117639</v>
       </c>
       <c r="E16" t="n">
-        <v>0.112203</v>
+        <v>0.110904</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131098</v>
+        <v>0.142279</v>
       </c>
       <c r="C17" t="n">
-        <v>0.180243</v>
+        <v>0.179614</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118436</v>
+        <v>0.118851</v>
       </c>
       <c r="E17" t="n">
-        <v>0.112821</v>
+        <v>0.111301</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131498</v>
+        <v>0.132083</v>
       </c>
       <c r="C18" t="n">
-        <v>0.185898</v>
+        <v>0.185799</v>
       </c>
       <c r="D18" t="n">
-        <v>0.119072</v>
+        <v>0.120771</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11266</v>
+        <v>0.111575</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.134289</v>
+        <v>0.144272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19186</v>
+        <v>0.18991</v>
       </c>
       <c r="D19" t="n">
-        <v>0.119065</v>
+        <v>0.121947</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1131</v>
+        <v>0.112299</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.147152</v>
+        <v>0.14729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196534</v>
+        <v>0.195253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119824</v>
+        <v>0.122693</v>
       </c>
       <c r="E20" t="n">
-        <v>0.114015</v>
+        <v>0.11298</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.150998</v>
+        <v>0.148654</v>
       </c>
       <c r="C21" t="n">
-        <v>0.149838</v>
+        <v>0.149376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121104</v>
+        <v>0.120551</v>
       </c>
       <c r="E21" t="n">
-        <v>0.115997</v>
+        <v>0.116234</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.164248</v>
+        <v>0.164041</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155131</v>
+        <v>0.154512</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124806</v>
+        <v>0.124934</v>
       </c>
       <c r="E22" t="n">
-        <v>0.121304</v>
+        <v>0.120956</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159273</v>
+        <v>0.167287</v>
       </c>
       <c r="C23" t="n">
-        <v>0.159132</v>
+        <v>0.15832</v>
       </c>
       <c r="D23" t="n">
-        <v>0.124689</v>
+        <v>0.126452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.121972</v>
+        <v>0.121828</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133314</v>
+        <v>0.136513</v>
       </c>
       <c r="C24" t="n">
-        <v>0.164413</v>
+        <v>0.165198</v>
       </c>
       <c r="D24" t="n">
-        <v>0.125098</v>
+        <v>0.126158</v>
       </c>
       <c r="E24" t="n">
-        <v>0.122495</v>
+        <v>0.12404</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13442</v>
+        <v>0.135455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.169381</v>
+        <v>0.168824</v>
       </c>
       <c r="D25" t="n">
-        <v>0.126292</v>
+        <v>0.128061</v>
       </c>
       <c r="E25" t="n">
-        <v>0.119866</v>
+        <v>0.121338</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135446</v>
+        <v>0.140821</v>
       </c>
       <c r="C26" t="n">
-        <v>0.174177</v>
+        <v>0.172313</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125698</v>
+        <v>0.125314</v>
       </c>
       <c r="E26" t="n">
-        <v>0.119931</v>
+        <v>0.120375</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135832</v>
+        <v>0.135339</v>
       </c>
       <c r="C27" t="n">
-        <v>0.179658</v>
+        <v>0.177432</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125491</v>
+        <v>0.127882</v>
       </c>
       <c r="E27" t="n">
-        <v>0.121511</v>
+        <v>0.120133</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135725</v>
+        <v>0.135664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.183551</v>
+        <v>0.183225</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125836</v>
+        <v>0.127632</v>
       </c>
       <c r="E28" t="n">
-        <v>0.122218</v>
+        <v>0.119222</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136125</v>
+        <v>0.136761</v>
       </c>
       <c r="C29" t="n">
-        <v>0.189151</v>
+        <v>0.187894</v>
       </c>
       <c r="D29" t="n">
-        <v>0.125936</v>
+        <v>0.126862</v>
       </c>
       <c r="E29" t="n">
-        <v>0.123228</v>
+        <v>0.121619</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138927</v>
+        <v>0.146417</v>
       </c>
       <c r="C30" t="n">
-        <v>0.194274</v>
+        <v>0.192658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126627</v>
+        <v>0.126337</v>
       </c>
       <c r="E30" t="n">
-        <v>0.123937</v>
+        <v>0.119954</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139359</v>
+        <v>0.13907</v>
       </c>
       <c r="C31" t="n">
-        <v>0.199901</v>
+        <v>0.198316</v>
       </c>
       <c r="D31" t="n">
-        <v>0.126775</v>
+        <v>0.127163</v>
       </c>
       <c r="E31" t="n">
-        <v>0.124514</v>
+        <v>0.122194</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141346</v>
+        <v>0.141521</v>
       </c>
       <c r="C32" t="n">
-        <v>0.206234</v>
+        <v>0.204443</v>
       </c>
       <c r="D32" t="n">
-        <v>0.127043</v>
+        <v>0.126892</v>
       </c>
       <c r="E32" t="n">
-        <v>0.125124</v>
+        <v>0.122756</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.143929</v>
+        <v>0.144369</v>
       </c>
       <c r="C33" t="n">
-        <v>0.210897</v>
+        <v>0.209391</v>
       </c>
       <c r="D33" t="n">
-        <v>0.127905</v>
+        <v>0.127779</v>
       </c>
       <c r="E33" t="n">
-        <v>0.12574</v>
+        <v>0.123047</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147152</v>
+        <v>0.147813</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215509</v>
+        <v>0.214368</v>
       </c>
       <c r="D34" t="n">
-        <v>0.128568</v>
+        <v>0.129466</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129317</v>
+        <v>0.127837</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153277</v>
+        <v>0.161179</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166137</v>
+        <v>0.165663</v>
       </c>
       <c r="D35" t="n">
-        <v>0.133595</v>
+        <v>0.134835</v>
       </c>
       <c r="E35" t="n">
-        <v>0.135037</v>
+        <v>0.133476</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160215</v>
+        <v>0.167148</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169924</v>
+        <v>0.170445</v>
       </c>
       <c r="D36" t="n">
-        <v>0.141602</v>
+        <v>0.14326</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141335</v>
+        <v>0.140864</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168834</v>
+        <v>0.174242</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174127</v>
+        <v>0.174272</v>
       </c>
       <c r="D37" t="n">
-        <v>0.140004</v>
+        <v>0.134495</v>
       </c>
       <c r="E37" t="n">
-        <v>0.140718</v>
+        <v>0.139206</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147072</v>
+        <v>0.148443</v>
       </c>
       <c r="C38" t="n">
-        <v>0.179108</v>
+        <v>0.17892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.135823</v>
+        <v>0.138376</v>
       </c>
       <c r="E38" t="n">
-        <v>0.13944</v>
+        <v>0.137574</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14676</v>
+        <v>0.147811</v>
       </c>
       <c r="C39" t="n">
-        <v>0.183717</v>
+        <v>0.183158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1362</v>
+        <v>0.1379</v>
       </c>
       <c r="E39" t="n">
-        <v>0.140045</v>
+        <v>0.13959</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.154961</v>
+        <v>0.150536</v>
       </c>
       <c r="C40" t="n">
-        <v>0.187606</v>
+        <v>0.187375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.135138</v>
+        <v>0.139057</v>
       </c>
       <c r="E40" t="n">
-        <v>0.14061</v>
+        <v>0.138092</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147933</v>
+        <v>0.149097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.192566</v>
+        <v>0.1925</v>
       </c>
       <c r="D41" t="n">
-        <v>0.135446</v>
+        <v>0.139852</v>
       </c>
       <c r="E41" t="n">
-        <v>0.13929</v>
+        <v>0.137705</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.154351</v>
+        <v>0.152761</v>
       </c>
       <c r="C42" t="n">
-        <v>0.197068</v>
+        <v>0.197569</v>
       </c>
       <c r="D42" t="n">
-        <v>0.138564</v>
+        <v>0.140958</v>
       </c>
       <c r="E42" t="n">
-        <v>0.14017</v>
+        <v>0.139447</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149554</v>
+        <v>0.150392</v>
       </c>
       <c r="C43" t="n">
-        <v>0.20191</v>
+        <v>0.201966</v>
       </c>
       <c r="D43" t="n">
-        <v>0.13973</v>
+        <v>0.139277</v>
       </c>
       <c r="E43" t="n">
-        <v>0.14111</v>
+        <v>0.139282</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.149279</v>
+        <v>0.151092</v>
       </c>
       <c r="C44" t="n">
-        <v>0.207185</v>
+        <v>0.206998</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13859</v>
+        <v>0.142428</v>
       </c>
       <c r="E44" t="n">
-        <v>0.139593</v>
+        <v>0.141367</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152106</v>
+        <v>0.15148</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212697</v>
+        <v>0.212752</v>
       </c>
       <c r="D45" t="n">
-        <v>0.137197</v>
+        <v>0.141497</v>
       </c>
       <c r="E45" t="n">
-        <v>0.139386</v>
+        <v>0.138819</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155399</v>
+        <v>0.154285</v>
       </c>
       <c r="C46" t="n">
-        <v>0.217778</v>
+        <v>0.217155</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140316</v>
+        <v>0.14008</v>
       </c>
       <c r="E46" t="n">
-        <v>0.141877</v>
+        <v>0.143488</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.17011</v>
+        <v>0.164288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.223391</v>
+        <v>0.22313</v>
       </c>
       <c r="D47" t="n">
-        <v>0.139896</v>
+        <v>0.14203</v>
       </c>
       <c r="E47" t="n">
-        <v>0.145952</v>
+        <v>0.143604</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161474</v>
+        <v>0.161409</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228102</v>
+        <v>0.227517</v>
       </c>
       <c r="D48" t="n">
-        <v>0.144822</v>
+        <v>0.146315</v>
       </c>
       <c r="E48" t="n">
-        <v>0.149301</v>
+        <v>0.148123</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166853</v>
+        <v>0.166065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232805</v>
+        <v>0.232615</v>
       </c>
       <c r="D49" t="n">
-        <v>0.14947</v>
+        <v>0.152028</v>
       </c>
       <c r="E49" t="n">
-        <v>0.152541</v>
+        <v>0.152117</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1757</v>
+        <v>0.171828</v>
       </c>
       <c r="C50" t="n">
-        <v>0.171407</v>
+        <v>0.171309</v>
       </c>
       <c r="D50" t="n">
-        <v>0.152493</v>
+        <v>0.156244</v>
       </c>
       <c r="E50" t="n">
-        <v>0.156566</v>
+        <v>0.157147</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178642</v>
+        <v>0.178058</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174796</v>
+        <v>0.174734</v>
       </c>
       <c r="D51" t="n">
-        <v>0.153342</v>
+        <v>0.154289</v>
       </c>
       <c r="E51" t="n">
-        <v>0.152465</v>
+        <v>0.154222</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186639</v>
+        <v>0.19263</v>
       </c>
       <c r="C52" t="n">
-        <v>0.178504</v>
+        <v>0.179276</v>
       </c>
       <c r="D52" t="n">
-        <v>0.150565</v>
+        <v>0.150874</v>
       </c>
       <c r="E52" t="n">
-        <v>0.154602</v>
+        <v>0.154226</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160585</v>
+        <v>0.161127</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183057</v>
+        <v>0.183556</v>
       </c>
       <c r="D53" t="n">
-        <v>0.150729</v>
+        <v>0.152288</v>
       </c>
       <c r="E53" t="n">
-        <v>0.153027</v>
+        <v>0.154053</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161311</v>
+        <v>0.161203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187275</v>
+        <v>0.187129</v>
       </c>
       <c r="D54" t="n">
-        <v>0.151083</v>
+        <v>0.150955</v>
       </c>
       <c r="E54" t="n">
-        <v>0.155303</v>
+        <v>0.154956</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161757</v>
+        <v>0.161903</v>
       </c>
       <c r="C55" t="n">
-        <v>0.191657</v>
+        <v>0.191553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.151478</v>
+        <v>0.152737</v>
       </c>
       <c r="E55" t="n">
-        <v>0.153848</v>
+        <v>0.15284</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.167286</v>
+        <v>0.160605</v>
       </c>
       <c r="C56" t="n">
-        <v>0.196598</v>
+        <v>0.197086</v>
       </c>
       <c r="D56" t="n">
-        <v>0.150011</v>
+        <v>0.154198</v>
       </c>
       <c r="E56" t="n">
-        <v>0.154169</v>
+        <v>0.154035</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163553</v>
+        <v>0.162105</v>
       </c>
       <c r="C57" t="n">
-        <v>0.201746</v>
+        <v>0.201897</v>
       </c>
       <c r="D57" t="n">
-        <v>0.151645</v>
+        <v>0.152277</v>
       </c>
       <c r="E57" t="n">
-        <v>0.154265</v>
+        <v>0.155155</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164862</v>
+        <v>0.165133</v>
       </c>
       <c r="C58" t="n">
-        <v>0.20713</v>
+        <v>0.206762</v>
       </c>
       <c r="D58" t="n">
-        <v>0.152538</v>
+        <v>0.152808</v>
       </c>
       <c r="E58" t="n">
-        <v>0.155679</v>
+        <v>0.15611</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166367</v>
+        <v>0.165769</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211908</v>
+        <v>0.211829</v>
       </c>
       <c r="D59" t="n">
-        <v>0.152256</v>
+        <v>0.154242</v>
       </c>
       <c r="E59" t="n">
-        <v>0.157642</v>
+        <v>0.158268</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.168106</v>
+        <v>0.167119</v>
       </c>
       <c r="C60" t="n">
-        <v>0.217551</v>
+        <v>0.21701</v>
       </c>
       <c r="D60" t="n">
-        <v>0.15454</v>
+        <v>0.1559</v>
       </c>
       <c r="E60" t="n">
-        <v>0.159713</v>
+        <v>0.159747</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1705</v>
+        <v>0.169262</v>
       </c>
       <c r="C61" t="n">
-        <v>0.222085</v>
+        <v>0.22234</v>
       </c>
       <c r="D61" t="n">
-        <v>0.155629</v>
+        <v>0.156754</v>
       </c>
       <c r="E61" t="n">
-        <v>0.160733</v>
+        <v>0.162077</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173315</v>
+        <v>0.179877</v>
       </c>
       <c r="C62" t="n">
-        <v>0.228255</v>
+        <v>0.227823</v>
       </c>
       <c r="D62" t="n">
-        <v>0.158086</v>
+        <v>0.158319</v>
       </c>
       <c r="E62" t="n">
-        <v>0.163032</v>
+        <v>0.166087</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179138</v>
+        <v>0.17677</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232552</v>
+        <v>0.232382</v>
       </c>
       <c r="D63" t="n">
-        <v>0.162488</v>
+        <v>0.162844</v>
       </c>
       <c r="E63" t="n">
-        <v>0.167165</v>
+        <v>0.167912</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18236</v>
+        <v>0.180437</v>
       </c>
       <c r="C64" t="n">
-        <v>0.177121</v>
+        <v>0.176812</v>
       </c>
       <c r="D64" t="n">
-        <v>0.166646</v>
+        <v>0.168135</v>
       </c>
       <c r="E64" t="n">
-        <v>0.171961</v>
+        <v>0.171743</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189205</v>
+        <v>0.188055</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181054</v>
+        <v>0.181716</v>
       </c>
       <c r="D65" t="n">
-        <v>0.172475</v>
+        <v>0.175711</v>
       </c>
       <c r="E65" t="n">
-        <v>0.178299</v>
+        <v>0.178686</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198695</v>
+        <v>0.197947</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187311</v>
+        <v>0.186495</v>
       </c>
       <c r="D66" t="n">
-        <v>0.159627</v>
+        <v>0.162788</v>
       </c>
       <c r="E66" t="n">
-        <v>0.163554</v>
+        <v>0.163462</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.180642</v>
+        <v>0.184472</v>
       </c>
       <c r="C67" t="n">
-        <v>0.192284</v>
+        <v>0.191761</v>
       </c>
       <c r="D67" t="n">
-        <v>0.162058</v>
+        <v>0.16681</v>
       </c>
       <c r="E67" t="n">
-        <v>0.164087</v>
+        <v>0.163976</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183826</v>
+        <v>0.180178</v>
       </c>
       <c r="C68" t="n">
-        <v>0.19825</v>
+        <v>0.197887</v>
       </c>
       <c r="D68" t="n">
-        <v>0.16234</v>
+        <v>0.162496</v>
       </c>
       <c r="E68" t="n">
-        <v>0.166415</v>
+        <v>0.164649</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.189001</v>
+        <v>0.182262</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2042</v>
+        <v>0.203664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.162547</v>
+        <v>0.163235</v>
       </c>
       <c r="E69" t="n">
-        <v>0.167015</v>
+        <v>0.16738</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185549</v>
+        <v>0.185053</v>
       </c>
       <c r="C70" t="n">
-        <v>0.210005</v>
+        <v>0.209836</v>
       </c>
       <c r="D70" t="n">
-        <v>0.164845</v>
+        <v>0.163738</v>
       </c>
       <c r="E70" t="n">
-        <v>0.165526</v>
+        <v>0.166303</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185147</v>
+        <v>0.184249</v>
       </c>
       <c r="C71" t="n">
-        <v>0.218232</v>
+        <v>0.216614</v>
       </c>
       <c r="D71" t="n">
-        <v>0.163702</v>
+        <v>0.164563</v>
       </c>
       <c r="E71" t="n">
-        <v>0.16588</v>
+        <v>0.167194</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.190242</v>
+        <v>0.183572</v>
       </c>
       <c r="C72" t="n">
-        <v>0.228179</v>
+        <v>0.224231</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164339</v>
+        <v>0.164844</v>
       </c>
       <c r="E72" t="n">
-        <v>0.167298</v>
+        <v>0.167023</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.192912</v>
+        <v>0.184596</v>
       </c>
       <c r="C73" t="n">
-        <v>0.235398</v>
+        <v>0.232093</v>
       </c>
       <c r="D73" t="n">
-        <v>0.165962</v>
+        <v>0.168639</v>
       </c>
       <c r="E73" t="n">
-        <v>0.168831</v>
+        <v>0.168948</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.189005</v>
+        <v>0.186741</v>
       </c>
       <c r="C74" t="n">
-        <v>0.241933</v>
+        <v>0.242058</v>
       </c>
       <c r="D74" t="n">
-        <v>0.167123</v>
+        <v>0.168125</v>
       </c>
       <c r="E74" t="n">
-        <v>0.172928</v>
+        <v>0.170824</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.192492</v>
+        <v>0.195641</v>
       </c>
       <c r="C75" t="n">
-        <v>0.252806</v>
+        <v>0.251842</v>
       </c>
       <c r="D75" t="n">
-        <v>0.170857</v>
+        <v>0.171355</v>
       </c>
       <c r="E75" t="n">
-        <v>0.173178</v>
+        <v>0.173186</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197669</v>
+        <v>0.194249</v>
       </c>
       <c r="C76" t="n">
-        <v>0.263722</v>
+        <v>0.262357</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172618</v>
+        <v>0.169696</v>
       </c>
       <c r="E76" t="n">
-        <v>0.176247</v>
+        <v>0.174918</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198718</v>
+        <v>0.196377</v>
       </c>
       <c r="C77" t="n">
-        <v>0.274684</v>
+        <v>0.269442</v>
       </c>
       <c r="D77" t="n">
-        <v>0.173012</v>
+        <v>0.175679</v>
       </c>
       <c r="E77" t="n">
-        <v>0.18038</v>
+        <v>0.178726</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205859</v>
+        <v>0.200891</v>
       </c>
       <c r="C78" t="n">
-        <v>0.229436</v>
+        <v>0.223109</v>
       </c>
       <c r="D78" t="n">
-        <v>0.176959</v>
+        <v>0.177941</v>
       </c>
       <c r="E78" t="n">
-        <v>0.184167</v>
+        <v>0.18374</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.214765</v>
+        <v>0.206467</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239449</v>
+        <v>0.232404</v>
       </c>
       <c r="D79" t="n">
-        <v>0.182745</v>
+        <v>0.181628</v>
       </c>
       <c r="E79" t="n">
-        <v>0.190131</v>
+        <v>0.190926</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220324</v>
+        <v>0.220063</v>
       </c>
       <c r="C80" t="n">
-        <v>0.250546</v>
+        <v>0.24516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250674</v>
+        <v>0.221845</v>
       </c>
       <c r="E80" t="n">
-        <v>0.176371</v>
+        <v>0.17634</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.385416</v>
+        <v>0.363799</v>
       </c>
       <c r="C81" t="n">
-        <v>0.265303</v>
+        <v>0.257004</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250292</v>
+        <v>0.242399</v>
       </c>
       <c r="E81" t="n">
-        <v>0.178071</v>
+        <v>0.176236</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.385824</v>
+        <v>0.365257</v>
       </c>
       <c r="C82" t="n">
-        <v>0.278739</v>
+        <v>0.270587</v>
       </c>
       <c r="D82" t="n">
-        <v>0.251247</v>
+        <v>0.244366</v>
       </c>
       <c r="E82" t="n">
-        <v>0.176994</v>
+        <v>0.176431</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386755</v>
+        <v>0.362787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.293425</v>
+        <v>0.28233</v>
       </c>
       <c r="D83" t="n">
-        <v>0.252431</v>
+        <v>0.221356</v>
       </c>
       <c r="E83" t="n">
-        <v>0.179059</v>
+        <v>0.178372</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391318</v>
+        <v>0.36776</v>
       </c>
       <c r="C84" t="n">
-        <v>0.311322</v>
+        <v>0.299259</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251041</v>
+        <v>0.241519</v>
       </c>
       <c r="E84" t="n">
-        <v>0.179957</v>
+        <v>0.177443</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.387823</v>
+        <v>0.368193</v>
       </c>
       <c r="C85" t="n">
-        <v>0.326077</v>
+        <v>0.311752</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253298</v>
+        <v>0.247781</v>
       </c>
       <c r="E85" t="n">
-        <v>0.182339</v>
+        <v>0.180103</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.391652</v>
+        <v>0.373654</v>
       </c>
       <c r="C86" t="n">
-        <v>0.341381</v>
+        <v>0.325877</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249109</v>
+        <v>0.221332</v>
       </c>
       <c r="E86" t="n">
-        <v>0.183557</v>
+        <v>0.181406</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.390202</v>
+        <v>0.372095</v>
       </c>
       <c r="C87" t="n">
-        <v>0.358616</v>
+        <v>0.341657</v>
       </c>
       <c r="D87" t="n">
-        <v>0.253172</v>
+        <v>0.246842</v>
       </c>
       <c r="E87" t="n">
-        <v>0.186288</v>
+        <v>0.184228</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.391165</v>
+        <v>0.371035</v>
       </c>
       <c r="C88" t="n">
-        <v>0.378682</v>
+        <v>0.360098</v>
       </c>
       <c r="D88" t="n">
-        <v>0.248514</v>
+        <v>0.243073</v>
       </c>
       <c r="E88" t="n">
-        <v>0.19047</v>
+        <v>0.188132</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.394129</v>
+        <v>0.367729</v>
       </c>
       <c r="C89" t="n">
-        <v>0.400739</v>
+        <v>0.377406</v>
       </c>
       <c r="D89" t="n">
-        <v>0.248338</v>
+        <v>0.239237</v>
       </c>
       <c r="E89" t="n">
-        <v>0.191423</v>
+        <v>0.189366</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395836</v>
+        <v>0.375365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.413273</v>
+        <v>0.390973</v>
       </c>
       <c r="D90" t="n">
-        <v>0.245811</v>
+        <v>0.2375</v>
       </c>
       <c r="E90" t="n">
-        <v>0.194578</v>
+        <v>0.192751</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.401353</v>
+        <v>0.375618</v>
       </c>
       <c r="C91" t="n">
-        <v>0.434065</v>
+        <v>0.410163</v>
       </c>
       <c r="D91" t="n">
-        <v>0.246362</v>
+        <v>0.240426</v>
       </c>
       <c r="E91" t="n">
-        <v>0.199716</v>
+        <v>0.196647</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.400134</v>
+        <v>0.380063</v>
       </c>
       <c r="C92" t="n">
-        <v>0.378937</v>
+        <v>0.35848</v>
       </c>
       <c r="D92" t="n">
-        <v>0.249153</v>
+        <v>0.217885</v>
       </c>
       <c r="E92" t="n">
-        <v>0.204576</v>
+        <v>0.202998</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.405847</v>
+        <v>0.386023</v>
       </c>
       <c r="C93" t="n">
-        <v>0.394498</v>
+        <v>0.368289</v>
       </c>
       <c r="D93" t="n">
-        <v>0.252154</v>
+        <v>0.24771</v>
       </c>
       <c r="E93" t="n">
-        <v>0.213919</v>
+        <v>0.212088</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.410804</v>
+        <v>0.393888</v>
       </c>
       <c r="C94" t="n">
-        <v>0.402652</v>
+        <v>0.378166</v>
       </c>
       <c r="D94" t="n">
-        <v>0.428877</v>
+        <v>0.401209</v>
       </c>
       <c r="E94" t="n">
-        <v>0.283509</v>
+        <v>0.271477</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.56889</v>
+        <v>0.523201</v>
       </c>
       <c r="C95" t="n">
-        <v>0.42417</v>
+        <v>0.396813</v>
       </c>
       <c r="D95" t="n">
-        <v>0.428856</v>
+        <v>0.398648</v>
       </c>
       <c r="E95" t="n">
-        <v>0.285335</v>
+        <v>0.27717</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.571129</v>
+        <v>0.528093</v>
       </c>
       <c r="C96" t="n">
-        <v>0.432823</v>
+        <v>0.408155</v>
       </c>
       <c r="D96" t="n">
-        <v>0.427511</v>
+        <v>0.400288</v>
       </c>
       <c r="E96" t="n">
-        <v>0.287204</v>
+        <v>0.276547</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.570165</v>
+        <v>0.540595</v>
       </c>
       <c r="C97" t="n">
-        <v>0.450117</v>
+        <v>0.421484</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42738</v>
+        <v>0.366604</v>
       </c>
       <c r="E97" t="n">
-        <v>0.287915</v>
+        <v>0.270265</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.570841</v>
+        <v>0.529206</v>
       </c>
       <c r="C98" t="n">
-        <v>0.464988</v>
+        <v>0.43561</v>
       </c>
       <c r="D98" t="n">
-        <v>0.429158</v>
+        <v>0.388684</v>
       </c>
       <c r="E98" t="n">
-        <v>0.298949</v>
+        <v>0.26543</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.571594</v>
+        <v>0.52933</v>
       </c>
       <c r="C99" t="n">
-        <v>0.480415</v>
+        <v>0.448277</v>
       </c>
       <c r="D99" t="n">
-        <v>0.426368</v>
+        <v>0.4008</v>
       </c>
       <c r="E99" t="n">
-        <v>0.289174</v>
+        <v>0.280716</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.572977</v>
+        <v>0.526343</v>
       </c>
       <c r="C100" t="n">
-        <v>0.496571</v>
+        <v>0.46411</v>
       </c>
       <c r="D100" t="n">
-        <v>0.426647</v>
+        <v>0.398676</v>
       </c>
       <c r="E100" t="n">
-        <v>0.292014</v>
+        <v>0.271609</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.572208</v>
+        <v>0.5315</v>
       </c>
       <c r="C101" t="n">
-        <v>0.514808</v>
+        <v>0.48251</v>
       </c>
       <c r="D101" t="n">
-        <v>0.427881</v>
+        <v>0.397956</v>
       </c>
       <c r="E101" t="n">
-        <v>0.298072</v>
+        <v>0.278585</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.575074</v>
+        <v>0.528745</v>
       </c>
       <c r="C102" t="n">
-        <v>0.53306</v>
+        <v>0.497931</v>
       </c>
       <c r="D102" t="n">
-        <v>0.426812</v>
+        <v>0.400392</v>
       </c>
       <c r="E102" t="n">
-        <v>0.295937</v>
+        <v>0.282805</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.576703</v>
+        <v>0.535198</v>
       </c>
       <c r="C103" t="n">
-        <v>0.551314</v>
+        <v>0.513758</v>
       </c>
       <c r="D103" t="n">
-        <v>0.426875</v>
+        <v>0.399581</v>
       </c>
       <c r="E103" t="n">
-        <v>0.300242</v>
+        <v>0.284585</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.580858</v>
+        <v>0.537972</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5659149999999999</v>
+        <v>0.527783</v>
       </c>
       <c r="D104" t="n">
-        <v>0.428434</v>
+        <v>0.367781</v>
       </c>
       <c r="E104" t="n">
-        <v>0.303755</v>
+        <v>0.285915</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.583575</v>
+        <v>0.540777</v>
       </c>
       <c r="C105" t="n">
-        <v>0.586939</v>
+        <v>0.547631</v>
       </c>
       <c r="D105" t="n">
-        <v>0.432809</v>
+        <v>0.401372</v>
       </c>
       <c r="E105" t="n">
-        <v>0.303812</v>
+        <v>0.289004</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.588388</v>
+        <v>0.5444870000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6038210000000001</v>
+        <v>0.562689</v>
       </c>
       <c r="D106" t="n">
-        <v>0.435631</v>
+        <v>0.405957</v>
       </c>
       <c r="E106" t="n">
-        <v>0.306794</v>
+        <v>0.29307</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.592028</v>
+        <v>0.5512359999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.571983</v>
+        <v>0.529686</v>
       </c>
       <c r="D107" t="n">
-        <v>0.43894</v>
+        <v>0.412022</v>
       </c>
       <c r="E107" t="n">
-        <v>0.322212</v>
+        <v>0.300175</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.599734</v>
+        <v>0.558669</v>
       </c>
       <c r="C108" t="n">
-        <v>0.583008</v>
+        <v>0.538889</v>
       </c>
       <c r="D108" t="n">
-        <v>0.578666</v>
+        <v>0.532489</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533594</v>
+        <v>0.480145</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6117089999999999</v>
+        <v>0.5683550000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.598631</v>
+        <v>0.553195</v>
       </c>
       <c r="D109" t="n">
-        <v>0.579699</v>
+        <v>0.534612</v>
       </c>
       <c r="E109" t="n">
-        <v>0.536539</v>
+        <v>0.475747</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.653944</v>
+        <v>0.591073</v>
       </c>
       <c r="C110" t="n">
-        <v>0.616833</v>
+        <v>0.57064</v>
       </c>
       <c r="D110" t="n">
-        <v>0.579882</v>
+        <v>0.530522</v>
       </c>
       <c r="E110" t="n">
-        <v>0.537879</v>
+        <v>0.499228</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6571360000000001</v>
+        <v>0.605203</v>
       </c>
       <c r="C111" t="n">
-        <v>0.629199</v>
+        <v>0.582299</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579265</v>
+        <v>0.535158</v>
       </c>
       <c r="E111" t="n">
-        <v>0.539274</v>
+        <v>0.473333</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.656098</v>
+        <v>0.604745</v>
       </c>
       <c r="C112" t="n">
-        <v>0.640361</v>
+        <v>0.576618</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581251</v>
+        <v>0.516524</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5403790000000001</v>
+        <v>0.496978</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.657079</v>
+        <v>0.608633</v>
       </c>
       <c r="C113" t="n">
-        <v>0.657459</v>
+        <v>0.608245</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5795129999999999</v>
+        <v>0.535146</v>
       </c>
       <c r="E113" t="n">
-        <v>0.543181</v>
+        <v>0.485832</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.657274</v>
+        <v>0.60858</v>
       </c>
       <c r="C114" t="n">
-        <v>0.671153</v>
+        <v>0.616265</v>
       </c>
       <c r="D114" t="n">
-        <v>0.582795</v>
+        <v>0.533876</v>
       </c>
       <c r="E114" t="n">
-        <v>0.542618</v>
+        <v>0.489538</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.659005</v>
+        <v>0.6088249999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.687799</v>
+        <v>0.633254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.583623</v>
+        <v>0.5370470000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.546828</v>
+        <v>0.49566</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.659655</v>
+        <v>0.612079</v>
       </c>
       <c r="C116" t="n">
-        <v>0.704461</v>
+        <v>0.649168</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5838719999999999</v>
+        <v>0.520176</v>
       </c>
       <c r="E116" t="n">
-        <v>0.546353</v>
+        <v>0.501897</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.663594</v>
+        <v>0.613918</v>
       </c>
       <c r="C117" t="n">
-        <v>0.724056</v>
+        <v>0.667777</v>
       </c>
       <c r="D117" t="n">
-        <v>0.587159</v>
+        <v>0.5419349999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.546527</v>
+        <v>0.49978</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.665399</v>
+        <v>0.616618</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7387860000000001</v>
+        <v>0.680049</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590546</v>
+        <v>0.544746</v>
       </c>
       <c r="E118" t="n">
-        <v>0.548462</v>
+        <v>0.509581</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.668017</v>
+        <v>0.622577</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766317</v>
+        <v>0.705008</v>
       </c>
       <c r="D119" t="n">
-        <v>0.592987</v>
+        <v>0.548544</v>
       </c>
       <c r="E119" t="n">
-        <v>0.556184</v>
+        <v>0.516721</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.674854</v>
+        <v>0.614509</v>
       </c>
       <c r="C120" t="n">
-        <v>0.774913</v>
+        <v>0.714129</v>
       </c>
       <c r="D120" t="n">
-        <v>0.599826</v>
+        <v>0.532342</v>
       </c>
       <c r="E120" t="n">
-        <v>0.560352</v>
+        <v>0.520192</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.683768</v>
+        <v>0.634248</v>
       </c>
       <c r="C121" t="n">
-        <v>0.700061</v>
+        <v>0.638101</v>
       </c>
       <c r="D121" t="n">
-        <v>0.602627</v>
+        <v>0.556542</v>
       </c>
       <c r="E121" t="n">
-        <v>0.567507</v>
+        <v>0.526599</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.695361</v>
+        <v>0.642572</v>
       </c>
       <c r="C122" t="n">
-        <v>0.70818</v>
+        <v>0.645339</v>
       </c>
       <c r="D122" t="n">
-        <v>0.610808</v>
+        <v>0.553619</v>
       </c>
       <c r="E122" t="n">
-        <v>0.574219</v>
+        <v>0.5304410000000001</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.705296</v>
+        <v>0.654408</v>
       </c>
       <c r="C123" t="n">
-        <v>0.723708</v>
+        <v>0.660613</v>
       </c>
       <c r="D123" t="n">
-        <v>0.756511</v>
+        <v>0.6793360000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.778045</v>
+        <v>0.702954</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8076680000000001</v>
+        <v>0.728513</v>
       </c>
       <c r="C124" t="n">
-        <v>0.735418</v>
+        <v>0.672238</v>
       </c>
       <c r="D124" t="n">
-        <v>0.758596</v>
+        <v>0.675319</v>
       </c>
       <c r="E124" t="n">
-        <v>0.779154</v>
+        <v>0.706712</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.808692</v>
+        <v>0.744527</v>
       </c>
       <c r="C125" t="n">
-        <v>0.750205</v>
+        <v>0.685324</v>
       </c>
       <c r="D125" t="n">
-        <v>0.759538</v>
+        <v>0.690648</v>
       </c>
       <c r="E125" t="n">
-        <v>0.779551</v>
+        <v>0.71201</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8094749999999999</v>
+        <v>0.7430330000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.767916</v>
+        <v>0.688918</v>
       </c>
       <c r="D126" t="n">
-        <v>0.761047</v>
+        <v>0.693879</v>
       </c>
       <c r="E126" t="n">
-        <v>0.783738</v>
+        <v>0.715014</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.812152</v>
+        <v>0.727379</v>
       </c>
       <c r="C127" t="n">
-        <v>0.780272</v>
+        <v>0.7142230000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.760841</v>
+        <v>0.694713</v>
       </c>
       <c r="E127" t="n">
-        <v>0.783736</v>
+        <v>0.708993</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.814185</v>
+        <v>0.7482220000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.794435</v>
+        <v>0.728186</v>
       </c>
       <c r="D128" t="n">
-        <v>0.762841</v>
+        <v>0.698085</v>
       </c>
       <c r="E128" t="n">
-        <v>0.786984</v>
+        <v>0.710017</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.814455</v>
+        <v>0.751667</v>
       </c>
       <c r="C129" t="n">
-        <v>0.806389</v>
+        <v>0.739598</v>
       </c>
       <c r="D129" t="n">
-        <v>0.760099</v>
+        <v>0.694882</v>
       </c>
       <c r="E129" t="n">
-        <v>0.786121</v>
+        <v>0.713176</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.814581</v>
+        <v>0.749646</v>
       </c>
       <c r="C130" t="n">
-        <v>0.82346</v>
+        <v>0.744768</v>
       </c>
       <c r="D130" t="n">
-        <v>0.765509</v>
+        <v>0.679269</v>
       </c>
       <c r="E130" t="n">
-        <v>0.790075</v>
+        <v>0.715073</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.81975</v>
+        <v>0.7519130000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.844233</v>
+        <v>0.773105</v>
       </c>
       <c r="D131" t="n">
-        <v>0.767586</v>
+        <v>0.7016829999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>0.791436</v>
+        <v>0.718253</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.821577</v>
+        <v>0.741294</v>
       </c>
       <c r="C132" t="n">
-        <v>0.860998</v>
+        <v>0.789017</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7711440000000001</v>
+        <v>0.687638</v>
       </c>
       <c r="E132" t="n">
-        <v>0.797162</v>
+        <v>0.72118</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.826245</v>
+        <v>0.759637</v>
       </c>
       <c r="C133" t="n">
-        <v>0.881615</v>
+        <v>0.808322</v>
       </c>
       <c r="D133" t="n">
-        <v>0.772848</v>
+        <v>0.706994</v>
       </c>
       <c r="E133" t="n">
-        <v>0.800972</v>
+        <v>0.731471</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.832541</v>
+        <v>0.7646230000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.897674</v>
+        <v>0.822314</v>
       </c>
       <c r="D134" t="n">
-        <v>0.776236</v>
+        <v>0.7105359999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.80562</v>
+        <v>0.719344</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.836306</v>
+        <v>0.771539</v>
       </c>
       <c r="C135" t="n">
-        <v>0.759548</v>
+        <v>0.680467</v>
       </c>
       <c r="D135" t="n">
-        <v>0.781388</v>
+        <v>0.703998</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8147</v>
+        <v>0.744327</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.84822</v>
+        <v>0.780385</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7697079999999999</v>
+        <v>0.702133</v>
       </c>
       <c r="D136" t="n">
-        <v>0.788428</v>
+        <v>0.72289</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8252429999999999</v>
+        <v>0.753085</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.859493</v>
+        <v>0.793622</v>
       </c>
       <c r="C137" t="n">
-        <v>0.782166</v>
+        <v>0.702341</v>
       </c>
       <c r="D137" t="n">
-        <v>0.904131</v>
+        <v>0.818172</v>
       </c>
       <c r="E137" t="n">
-        <v>0.925488</v>
+        <v>0.839809</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.946513</v>
+        <v>0.868068</v>
       </c>
       <c r="C138" t="n">
-        <v>0.792219</v>
+        <v>0.713802</v>
       </c>
       <c r="D138" t="n">
-        <v>0.90476</v>
+        <v>0.829686</v>
       </c>
       <c r="E138" t="n">
-        <v>0.927414</v>
+        <v>0.837543</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.948146</v>
+        <v>0.868376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.805359</v>
+        <v>0.735531</v>
       </c>
       <c r="D139" t="n">
-        <v>0.904067</v>
+        <v>0.827702</v>
       </c>
       <c r="E139" t="n">
-        <v>0.927735</v>
+        <v>0.837985</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.948274</v>
+        <v>0.8695850000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.819287</v>
+        <v>0.748157</v>
       </c>
       <c r="D140" t="n">
-        <v>0.904251</v>
+        <v>0.829759</v>
       </c>
       <c r="E140" t="n">
-        <v>0.929073</v>
+        <v>0.842683</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.949655</v>
+        <v>0.869228</v>
       </c>
       <c r="C141" t="n">
-        <v>0.833292</v>
+        <v>0.7607159999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.90664</v>
+        <v>0.829589</v>
       </c>
       <c r="E141" t="n">
-        <v>0.930799</v>
+        <v>0.843472</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.950545</v>
+        <v>0.872657</v>
       </c>
       <c r="C142" t="n">
-        <v>0.852131</v>
+        <v>0.769396</v>
       </c>
       <c r="D142" t="n">
-        <v>0.905827</v>
+        <v>0.830138</v>
       </c>
       <c r="E142" t="n">
-        <v>0.933361</v>
+        <v>0.844644</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.951232</v>
+        <v>0.8602379999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.866272</v>
+        <v>0.792797</v>
       </c>
       <c r="D143" t="n">
-        <v>0.910335</v>
+        <v>0.817667</v>
       </c>
       <c r="E143" t="n">
-        <v>0.938843</v>
+        <v>0.843744</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12408</v>
+        <v>0.115343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132117</v>
+        <v>0.1124</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110847</v>
+        <v>0.132264</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10999</v>
+        <v>0.111662</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.108258</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.126037</v>
+        <v>0.117413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.138671</v>
+        <v>0.113794</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110973</v>
+        <v>0.140166</v>
       </c>
       <c r="E3" t="n">
-        <v>0.110102</v>
+        <v>0.111703</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.108594</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.131563</v>
+        <v>0.11836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.145503</v>
+        <v>0.114901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11133</v>
+        <v>0.145885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10863</v>
+        <v>0.111979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.108931</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.12684</v>
+        <v>0.119749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.152793</v>
+        <v>0.115948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111471</v>
+        <v>0.15404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109022</v>
+        <v>0.112348</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.109252</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.128054</v>
+        <v>0.121885</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158965</v>
+        <v>0.119015</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112196</v>
+        <v>0.161647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.111861</v>
+        <v>0.112726</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.11013</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.134991</v>
+        <v>0.124495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126109</v>
+        <v>0.121341</v>
       </c>
       <c r="D7" t="n">
-        <v>0.113359</v>
+        <v>0.128221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.112619</v>
+        <v>0.114457</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.110807</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13459</v>
+        <v>0.12995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.130005</v>
+        <v>0.126651</v>
       </c>
       <c r="D8" t="n">
-        <v>0.115042</v>
+        <v>0.131748</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114358</v>
+        <v>0.11592</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.112853</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.146715</v>
+        <v>0.139886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.133688</v>
+        <v>0.136904</v>
       </c>
       <c r="D9" t="n">
-        <v>0.119877</v>
+        <v>0.135692</v>
       </c>
       <c r="E9" t="n">
-        <v>0.10986</v>
+        <v>0.1166</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.111005</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126833</v>
+        <v>0.131942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.139786</v>
+        <v>0.120367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.117081</v>
+        <v>0.140347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.110918</v>
+        <v>0.11702</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.113412</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.132144</v>
+        <v>0.133755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.145064</v>
+        <v>0.127276</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118113</v>
+        <v>0.145203</v>
       </c>
       <c r="E11" t="n">
-        <v>0.111369</v>
+        <v>0.12345</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.112127</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.131962</v>
+        <v>0.126083</v>
       </c>
       <c r="C12" t="n">
-        <v>0.149608</v>
+        <v>0.125068</v>
       </c>
       <c r="D12" t="n">
-        <v>0.120417</v>
+        <v>0.150312</v>
       </c>
       <c r="E12" t="n">
-        <v>0.110204</v>
+        <v>0.119759</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.111322</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127008</v>
+        <v>0.133963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.155322</v>
+        <v>0.127014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.120661</v>
+        <v>0.156368</v>
       </c>
       <c r="E13" t="n">
-        <v>0.11193</v>
+        <v>0.117599</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.111666</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126457</v>
+        <v>0.140809</v>
       </c>
       <c r="C14" t="n">
-        <v>0.160404</v>
+        <v>0.128583</v>
       </c>
       <c r="D14" t="n">
-        <v>0.120126</v>
+        <v>0.161406</v>
       </c>
       <c r="E14" t="n">
-        <v>0.11072</v>
+        <v>0.118388</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.112132</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.134942</v>
+        <v>0.129301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.166843</v>
+        <v>0.123721</v>
       </c>
       <c r="D15" t="n">
-        <v>0.120024</v>
+        <v>0.168357</v>
       </c>
       <c r="E15" t="n">
-        <v>0.112338</v>
+        <v>0.117755</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.114229</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129744</v>
+        <v>0.128939</v>
       </c>
       <c r="C16" t="n">
-        <v>0.173106</v>
+        <v>0.126723</v>
       </c>
       <c r="D16" t="n">
-        <v>0.117639</v>
+        <v>0.174687</v>
       </c>
       <c r="E16" t="n">
-        <v>0.110904</v>
+        <v>0.1187</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.111759</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.142279</v>
+        <v>0.138172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.179614</v>
+        <v>0.130682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118851</v>
+        <v>0.181072</v>
       </c>
       <c r="E17" t="n">
-        <v>0.111301</v>
+        <v>0.120237</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.113708</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132083</v>
+        <v>0.138656</v>
       </c>
       <c r="C18" t="n">
-        <v>0.185799</v>
+        <v>0.126475</v>
       </c>
       <c r="D18" t="n">
-        <v>0.120771</v>
+        <v>0.186839</v>
       </c>
       <c r="E18" t="n">
-        <v>0.111575</v>
+        <v>0.121535</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.11178</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.144272</v>
+        <v>0.140268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.18991</v>
+        <v>0.129248</v>
       </c>
       <c r="D19" t="n">
-        <v>0.121947</v>
+        <v>0.191355</v>
       </c>
       <c r="E19" t="n">
-        <v>0.112299</v>
+        <v>0.122842</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.114924</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.14729</v>
+        <v>0.143839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195253</v>
+        <v>0.130554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.122693</v>
+        <v>0.197196</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11298</v>
+        <v>0.122211</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.114132</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.148654</v>
+        <v>0.142069</v>
       </c>
       <c r="C21" t="n">
-        <v>0.149376</v>
+        <v>0.134728</v>
       </c>
       <c r="D21" t="n">
-        <v>0.120551</v>
+        <v>0.148716</v>
       </c>
       <c r="E21" t="n">
-        <v>0.116234</v>
+        <v>0.121107</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.118111</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.164041</v>
+        <v>0.160802</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154512</v>
+        <v>0.167979</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124934</v>
+        <v>0.153482</v>
       </c>
       <c r="E22" t="n">
-        <v>0.120956</v>
+        <v>0.123929</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.122168</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167287</v>
+        <v>0.165587</v>
       </c>
       <c r="C23" t="n">
-        <v>0.15832</v>
+        <v>0.154666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.126452</v>
+        <v>0.157452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.121828</v>
+        <v>0.125417</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.119288</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136513</v>
+        <v>0.135316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.165198</v>
+        <v>0.131175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.126158</v>
+        <v>0.16345</v>
       </c>
       <c r="E24" t="n">
-        <v>0.12404</v>
+        <v>0.125377</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.122678</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135455</v>
+        <v>0.13489</v>
       </c>
       <c r="C25" t="n">
-        <v>0.168824</v>
+        <v>0.12989</v>
       </c>
       <c r="D25" t="n">
-        <v>0.128061</v>
+        <v>0.167242</v>
       </c>
       <c r="E25" t="n">
-        <v>0.121338</v>
+        <v>0.129912</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.124273</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.140821</v>
+        <v>0.139056</v>
       </c>
       <c r="C26" t="n">
-        <v>0.172313</v>
+        <v>0.14258</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125314</v>
+        <v>0.171651</v>
       </c>
       <c r="E26" t="n">
-        <v>0.120375</v>
+        <v>0.125781</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.11949</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135339</v>
+        <v>0.137494</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177432</v>
+        <v>0.128656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.127882</v>
+        <v>0.177072</v>
       </c>
       <c r="E27" t="n">
-        <v>0.120133</v>
+        <v>0.125805</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.12756</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135664</v>
+        <v>0.136167</v>
       </c>
       <c r="C28" t="n">
-        <v>0.183225</v>
+        <v>0.131031</v>
       </c>
       <c r="D28" t="n">
-        <v>0.127632</v>
+        <v>0.182273</v>
       </c>
       <c r="E28" t="n">
-        <v>0.119222</v>
+        <v>0.126058</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.126854</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136761</v>
+        <v>0.136891</v>
       </c>
       <c r="C29" t="n">
-        <v>0.187894</v>
+        <v>0.144404</v>
       </c>
       <c r="D29" t="n">
-        <v>0.126862</v>
+        <v>0.189301</v>
       </c>
       <c r="E29" t="n">
-        <v>0.121619</v>
+        <v>0.126805</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.124878</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.146417</v>
+        <v>0.140224</v>
       </c>
       <c r="C30" t="n">
-        <v>0.192658</v>
+        <v>0.134873</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126337</v>
+        <v>0.192363</v>
       </c>
       <c r="E30" t="n">
-        <v>0.119954</v>
+        <v>0.127504</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.122353</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13907</v>
+        <v>0.139248</v>
       </c>
       <c r="C31" t="n">
-        <v>0.198316</v>
+        <v>0.141924</v>
       </c>
       <c r="D31" t="n">
-        <v>0.127163</v>
+        <v>0.197768</v>
       </c>
       <c r="E31" t="n">
-        <v>0.122194</v>
+        <v>0.127478</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.122569</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141521</v>
+        <v>0.142665</v>
       </c>
       <c r="C32" t="n">
-        <v>0.204443</v>
+        <v>0.138513</v>
       </c>
       <c r="D32" t="n">
-        <v>0.126892</v>
+        <v>0.204072</v>
       </c>
       <c r="E32" t="n">
-        <v>0.122756</v>
+        <v>0.126793</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.126133</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144369</v>
+        <v>0.144048</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209391</v>
+        <v>0.146712</v>
       </c>
       <c r="D33" t="n">
-        <v>0.127779</v>
+        <v>0.210265</v>
       </c>
       <c r="E33" t="n">
-        <v>0.123047</v>
+        <v>0.128144</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.124164</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147813</v>
+        <v>0.147774</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214368</v>
+        <v>0.145535</v>
       </c>
       <c r="D34" t="n">
-        <v>0.129466</v>
+        <v>0.21454</v>
       </c>
       <c r="E34" t="n">
-        <v>0.127837</v>
+        <v>0.131998</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.123749</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.161179</v>
+        <v>0.152357</v>
       </c>
       <c r="C35" t="n">
-        <v>0.165663</v>
+        <v>0.155725</v>
       </c>
       <c r="D35" t="n">
-        <v>0.134835</v>
+        <v>0.165655</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133476</v>
+        <v>0.135568</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.13439</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.167148</v>
+        <v>0.166961</v>
       </c>
       <c r="C36" t="n">
-        <v>0.170445</v>
+        <v>0.169035</v>
       </c>
       <c r="D36" t="n">
-        <v>0.14326</v>
+        <v>0.169316</v>
       </c>
       <c r="E36" t="n">
-        <v>0.140864</v>
+        <v>0.141188</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.13849</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174242</v>
+        <v>0.168085</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174272</v>
+        <v>0.186351</v>
       </c>
       <c r="D37" t="n">
-        <v>0.134495</v>
+        <v>0.173184</v>
       </c>
       <c r="E37" t="n">
-        <v>0.139206</v>
+        <v>0.13778</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.137717</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148443</v>
+        <v>0.148821</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17892</v>
+        <v>0.146496</v>
       </c>
       <c r="D38" t="n">
-        <v>0.138376</v>
+        <v>0.178</v>
       </c>
       <c r="E38" t="n">
-        <v>0.137574</v>
+        <v>0.137303</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.137922</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147811</v>
+        <v>0.14681</v>
       </c>
       <c r="C39" t="n">
-        <v>0.183158</v>
+        <v>0.154917</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1379</v>
+        <v>0.182276</v>
       </c>
       <c r="E39" t="n">
-        <v>0.13959</v>
+        <v>0.137994</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.138412</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150536</v>
+        <v>0.149068</v>
       </c>
       <c r="C40" t="n">
-        <v>0.187375</v>
+        <v>0.14856</v>
       </c>
       <c r="D40" t="n">
-        <v>0.139057</v>
+        <v>0.186504</v>
       </c>
       <c r="E40" t="n">
-        <v>0.138092</v>
+        <v>0.136791</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.140379</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149097</v>
+        <v>0.148976</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1925</v>
+        <v>0.14886</v>
       </c>
       <c r="D41" t="n">
-        <v>0.139852</v>
+        <v>0.191721</v>
       </c>
       <c r="E41" t="n">
-        <v>0.137705</v>
+        <v>0.138003</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.14481</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.152761</v>
+        <v>0.150335</v>
       </c>
       <c r="C42" t="n">
-        <v>0.197569</v>
+        <v>0.152416</v>
       </c>
       <c r="D42" t="n">
-        <v>0.140958</v>
+        <v>0.196339</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139447</v>
+        <v>0.139117</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.146894</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150392</v>
+        <v>0.150237</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201966</v>
+        <v>0.150697</v>
       </c>
       <c r="D43" t="n">
-        <v>0.139277</v>
+        <v>0.20187</v>
       </c>
       <c r="E43" t="n">
-        <v>0.139282</v>
+        <v>0.141074</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.144863</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151092</v>
+        <v>0.150627</v>
       </c>
       <c r="C44" t="n">
-        <v>0.206998</v>
+        <v>0.158882</v>
       </c>
       <c r="D44" t="n">
-        <v>0.142428</v>
+        <v>0.206268</v>
       </c>
       <c r="E44" t="n">
-        <v>0.141367</v>
+        <v>0.139368</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.140104</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.15148</v>
+        <v>0.156009</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212752</v>
+        <v>0.152873</v>
       </c>
       <c r="D45" t="n">
-        <v>0.141497</v>
+        <v>0.212378</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138819</v>
+        <v>0.138922</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.140872</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154285</v>
+        <v>0.155444</v>
       </c>
       <c r="C46" t="n">
-        <v>0.217155</v>
+        <v>0.16483</v>
       </c>
       <c r="D46" t="n">
-        <v>0.14008</v>
+        <v>0.216925</v>
       </c>
       <c r="E46" t="n">
-        <v>0.143488</v>
+        <v>0.142127</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.14425</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.164288</v>
+        <v>0.158508</v>
       </c>
       <c r="C47" t="n">
-        <v>0.22313</v>
+        <v>0.165027</v>
       </c>
       <c r="D47" t="n">
-        <v>0.14203</v>
+        <v>0.22261</v>
       </c>
       <c r="E47" t="n">
-        <v>0.143604</v>
+        <v>0.140436</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.147725</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161409</v>
+        <v>0.15982</v>
       </c>
       <c r="C48" t="n">
-        <v>0.227517</v>
+        <v>0.160515</v>
       </c>
       <c r="D48" t="n">
-        <v>0.146315</v>
+        <v>0.226883</v>
       </c>
       <c r="E48" t="n">
-        <v>0.148123</v>
+        <v>0.145054</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.146759</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166065</v>
+        <v>0.164938</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232615</v>
+        <v>0.173255</v>
       </c>
       <c r="D49" t="n">
-        <v>0.152028</v>
+        <v>0.232316</v>
       </c>
       <c r="E49" t="n">
-        <v>0.152117</v>
+        <v>0.148106</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.148226</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171828</v>
+        <v>0.169905</v>
       </c>
       <c r="C50" t="n">
-        <v>0.171309</v>
+        <v>0.169481</v>
       </c>
       <c r="D50" t="n">
-        <v>0.156244</v>
+        <v>0.171313</v>
       </c>
       <c r="E50" t="n">
-        <v>0.157147</v>
+        <v>0.153714</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.157667</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178058</v>
+        <v>0.178223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174734</v>
+        <v>0.198786</v>
       </c>
       <c r="D51" t="n">
-        <v>0.154289</v>
+        <v>0.175294</v>
       </c>
       <c r="E51" t="n">
-        <v>0.154222</v>
+        <v>0.150853</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.152636</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.19263</v>
+        <v>0.197069</v>
       </c>
       <c r="C52" t="n">
-        <v>0.179276</v>
+        <v>0.194004</v>
       </c>
       <c r="D52" t="n">
-        <v>0.150874</v>
+        <v>0.179134</v>
       </c>
       <c r="E52" t="n">
-        <v>0.154226</v>
+        <v>0.151149</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.153953</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161127</v>
+        <v>0.160292</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183556</v>
+        <v>0.166617</v>
       </c>
       <c r="D53" t="n">
-        <v>0.152288</v>
+        <v>0.183392</v>
       </c>
       <c r="E53" t="n">
-        <v>0.154053</v>
+        <v>0.150955</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.160396</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161203</v>
+        <v>0.160836</v>
       </c>
       <c r="C54" t="n">
-        <v>0.187129</v>
+        <v>0.1662</v>
       </c>
       <c r="D54" t="n">
-        <v>0.150955</v>
+        <v>0.187148</v>
       </c>
       <c r="E54" t="n">
-        <v>0.154956</v>
+        <v>0.150585</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.160299</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.161903</v>
+        <v>0.160549</v>
       </c>
       <c r="C55" t="n">
-        <v>0.191553</v>
+        <v>0.167842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.152737</v>
+        <v>0.191677</v>
       </c>
       <c r="E55" t="n">
-        <v>0.15284</v>
+        <v>0.151389</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.157308</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160605</v>
+        <v>0.16147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.197086</v>
+        <v>0.167272</v>
       </c>
       <c r="D56" t="n">
-        <v>0.154198</v>
+        <v>0.196586</v>
       </c>
       <c r="E56" t="n">
-        <v>0.154035</v>
+        <v>0.157622</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.155799</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162105</v>
+        <v>0.162972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.201897</v>
+        <v>0.169395</v>
       </c>
       <c r="D57" t="n">
-        <v>0.152277</v>
+        <v>0.202082</v>
       </c>
       <c r="E57" t="n">
-        <v>0.155155</v>
+        <v>0.161728</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.154383</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.165133</v>
+        <v>0.164619</v>
       </c>
       <c r="C58" t="n">
-        <v>0.206762</v>
+        <v>0.17055</v>
       </c>
       <c r="D58" t="n">
-        <v>0.152808</v>
+        <v>0.207212</v>
       </c>
       <c r="E58" t="n">
-        <v>0.15611</v>
+        <v>0.152107</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.155901</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165769</v>
+        <v>0.165513</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211829</v>
+        <v>0.171746</v>
       </c>
       <c r="D59" t="n">
-        <v>0.154242</v>
+        <v>0.212735</v>
       </c>
       <c r="E59" t="n">
-        <v>0.158268</v>
+        <v>0.154035</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.155518</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167119</v>
+        <v>0.166683</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21701</v>
+        <v>0.173996</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1559</v>
+        <v>0.217198</v>
       </c>
       <c r="E60" t="n">
-        <v>0.159747</v>
+        <v>0.155364</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.16398</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169262</v>
+        <v>0.169398</v>
       </c>
       <c r="C61" t="n">
-        <v>0.22234</v>
+        <v>0.177353</v>
       </c>
       <c r="D61" t="n">
-        <v>0.156754</v>
+        <v>0.22264</v>
       </c>
       <c r="E61" t="n">
-        <v>0.162077</v>
+        <v>0.156101</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.160115</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.179877</v>
+        <v>0.173103</v>
       </c>
       <c r="C62" t="n">
-        <v>0.227823</v>
+        <v>0.179442</v>
       </c>
       <c r="D62" t="n">
-        <v>0.158319</v>
+        <v>0.227911</v>
       </c>
       <c r="E62" t="n">
-        <v>0.166087</v>
+        <v>0.158425</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.167943</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17677</v>
+        <v>0.174627</v>
       </c>
       <c r="C63" t="n">
-        <v>0.232382</v>
+        <v>0.181719</v>
       </c>
       <c r="D63" t="n">
-        <v>0.162844</v>
+        <v>0.232945</v>
       </c>
       <c r="E63" t="n">
-        <v>0.167912</v>
+        <v>0.161489</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.16692</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180437</v>
+        <v>0.180182</v>
       </c>
       <c r="C64" t="n">
-        <v>0.176812</v>
+        <v>0.193186</v>
       </c>
       <c r="D64" t="n">
-        <v>0.168135</v>
+        <v>0.176994</v>
       </c>
       <c r="E64" t="n">
-        <v>0.171743</v>
+        <v>0.166474</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.171474</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.188055</v>
+        <v>0.187162</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181716</v>
+        <v>0.19549</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175711</v>
+        <v>0.180954</v>
       </c>
       <c r="E65" t="n">
-        <v>0.178686</v>
+        <v>0.173397</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.185323</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197947</v>
+        <v>0.195393</v>
       </c>
       <c r="C66" t="n">
-        <v>0.186495</v>
+        <v>0.204984</v>
       </c>
       <c r="D66" t="n">
-        <v>0.162788</v>
+        <v>0.186021</v>
       </c>
       <c r="E66" t="n">
-        <v>0.163462</v>
+        <v>0.161292</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.163595</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184472</v>
+        <v>0.182184</v>
       </c>
       <c r="C67" t="n">
-        <v>0.191761</v>
+        <v>0.17458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.16681</v>
+        <v>0.190887</v>
       </c>
       <c r="E67" t="n">
-        <v>0.163976</v>
+        <v>0.161715</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.166951</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180178</v>
+        <v>0.182344</v>
       </c>
       <c r="C68" t="n">
-        <v>0.197887</v>
+        <v>0.17501</v>
       </c>
       <c r="D68" t="n">
-        <v>0.162496</v>
+        <v>0.197334</v>
       </c>
       <c r="E68" t="n">
-        <v>0.164649</v>
+        <v>0.162328</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.162339</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182262</v>
+        <v>0.183291</v>
       </c>
       <c r="C69" t="n">
-        <v>0.203664</v>
+        <v>0.1756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.163235</v>
+        <v>0.202702</v>
       </c>
       <c r="E69" t="n">
-        <v>0.16738</v>
+        <v>0.16312</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.164614</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185053</v>
+        <v>0.183642</v>
       </c>
       <c r="C70" t="n">
-        <v>0.209836</v>
+        <v>0.176895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.163738</v>
+        <v>0.211199</v>
       </c>
       <c r="E70" t="n">
-        <v>0.166303</v>
+        <v>0.163222</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.16513</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.184249</v>
+        <v>0.186763</v>
       </c>
       <c r="C71" t="n">
-        <v>0.216614</v>
+        <v>0.17702</v>
       </c>
       <c r="D71" t="n">
-        <v>0.164563</v>
+        <v>0.216746</v>
       </c>
       <c r="E71" t="n">
-        <v>0.167194</v>
+        <v>0.164195</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.166047</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183572</v>
+        <v>0.183466</v>
       </c>
       <c r="C72" t="n">
-        <v>0.224231</v>
+        <v>0.178238</v>
       </c>
       <c r="D72" t="n">
-        <v>0.164844</v>
+        <v>0.225146</v>
       </c>
       <c r="E72" t="n">
-        <v>0.167023</v>
+        <v>0.164451</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.175095</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184596</v>
+        <v>0.188033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.232093</v>
+        <v>0.180115</v>
       </c>
       <c r="D73" t="n">
-        <v>0.168639</v>
+        <v>0.232195</v>
       </c>
       <c r="E73" t="n">
-        <v>0.168948</v>
+        <v>0.165021</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.167923</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.186741</v>
+        <v>0.187001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242058</v>
+        <v>0.181935</v>
       </c>
       <c r="D74" t="n">
-        <v>0.168125</v>
+        <v>0.242177</v>
       </c>
       <c r="E74" t="n">
-        <v>0.170824</v>
+        <v>0.169073</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.170234</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195641</v>
+        <v>0.188849</v>
       </c>
       <c r="C75" t="n">
-        <v>0.251842</v>
+        <v>0.189175</v>
       </c>
       <c r="D75" t="n">
-        <v>0.171355</v>
+        <v>0.251565</v>
       </c>
       <c r="E75" t="n">
-        <v>0.173186</v>
+        <v>0.168153</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.173119</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.194249</v>
+        <v>0.191197</v>
       </c>
       <c r="C76" t="n">
-        <v>0.262357</v>
+        <v>0.187445</v>
       </c>
       <c r="D76" t="n">
-        <v>0.169696</v>
+        <v>0.261544</v>
       </c>
       <c r="E76" t="n">
-        <v>0.174918</v>
+        <v>0.169993</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.173381</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196377</v>
+        <v>0.198122</v>
       </c>
       <c r="C77" t="n">
-        <v>0.269442</v>
+        <v>0.19135</v>
       </c>
       <c r="D77" t="n">
-        <v>0.175679</v>
+        <v>0.272987</v>
       </c>
       <c r="E77" t="n">
-        <v>0.178726</v>
+        <v>0.17314</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.176693</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200891</v>
+        <v>0.205989</v>
       </c>
       <c r="C78" t="n">
-        <v>0.223109</v>
+        <v>0.196266</v>
       </c>
       <c r="D78" t="n">
-        <v>0.177941</v>
+        <v>0.224111</v>
       </c>
       <c r="E78" t="n">
-        <v>0.18374</v>
+        <v>0.176714</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.181306</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206467</v>
+        <v>0.210929</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232404</v>
+        <v>0.209517</v>
       </c>
       <c r="D79" t="n">
-        <v>0.181628</v>
+        <v>0.236283</v>
       </c>
       <c r="E79" t="n">
-        <v>0.190926</v>
+        <v>0.184204</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.189951</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.220063</v>
+        <v>0.21566</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24516</v>
+        <v>0.218168</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221845</v>
+        <v>0.244804</v>
       </c>
       <c r="E80" t="n">
-        <v>0.17634</v>
+        <v>0.240715</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.174935</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.363799</v>
+        <v>0.358545</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257004</v>
+        <v>0.181678</v>
       </c>
       <c r="D81" t="n">
-        <v>0.242399</v>
+        <v>0.25714</v>
       </c>
       <c r="E81" t="n">
-        <v>0.176236</v>
+        <v>0.240272</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.175275</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.365257</v>
+        <v>0.355761</v>
       </c>
       <c r="C82" t="n">
-        <v>0.270587</v>
+        <v>0.183467</v>
       </c>
       <c r="D82" t="n">
-        <v>0.244366</v>
+        <v>0.271099</v>
       </c>
       <c r="E82" t="n">
-        <v>0.176431</v>
+        <v>0.240636</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.183536</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.362787</v>
+        <v>0.356587</v>
       </c>
       <c r="C83" t="n">
-        <v>0.28233</v>
+        <v>0.183408</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221356</v>
+        <v>0.285271</v>
       </c>
       <c r="E83" t="n">
-        <v>0.178372</v>
+        <v>0.240641</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.177414</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.36776</v>
+        <v>0.360308</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299259</v>
+        <v>0.190047</v>
       </c>
       <c r="D84" t="n">
-        <v>0.241519</v>
+        <v>0.299013</v>
       </c>
       <c r="E84" t="n">
-        <v>0.177443</v>
+        <v>0.242264</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.180503</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.368193</v>
+        <v>0.365395</v>
       </c>
       <c r="C85" t="n">
-        <v>0.311752</v>
+        <v>0.186388</v>
       </c>
       <c r="D85" t="n">
-        <v>0.247781</v>
+        <v>0.313869</v>
       </c>
       <c r="E85" t="n">
-        <v>0.180103</v>
+        <v>0.242018</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.181102</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.373654</v>
+        <v>0.365531</v>
       </c>
       <c r="C86" t="n">
-        <v>0.325877</v>
+        <v>0.189278</v>
       </c>
       <c r="D86" t="n">
-        <v>0.221332</v>
+        <v>0.329159</v>
       </c>
       <c r="E86" t="n">
-        <v>0.181406</v>
+        <v>0.2406</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.181309</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.372095</v>
+        <v>0.362298</v>
       </c>
       <c r="C87" t="n">
-        <v>0.341657</v>
+        <v>0.190555</v>
       </c>
       <c r="D87" t="n">
-        <v>0.246842</v>
+        <v>0.344554</v>
       </c>
       <c r="E87" t="n">
-        <v>0.184228</v>
+        <v>0.24044</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.184126</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.371035</v>
+        <v>0.369096</v>
       </c>
       <c r="C88" t="n">
-        <v>0.360098</v>
+        <v>0.191756</v>
       </c>
       <c r="D88" t="n">
-        <v>0.243073</v>
+        <v>0.359874</v>
       </c>
       <c r="E88" t="n">
-        <v>0.188132</v>
+        <v>0.238571</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.18599</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.367729</v>
+        <v>0.367012</v>
       </c>
       <c r="C89" t="n">
-        <v>0.377406</v>
+        <v>0.194639</v>
       </c>
       <c r="D89" t="n">
-        <v>0.239237</v>
+        <v>0.375547</v>
       </c>
       <c r="E89" t="n">
-        <v>0.189366</v>
+        <v>0.237705</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.190571</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.375365</v>
+        <v>0.369398</v>
       </c>
       <c r="C90" t="n">
-        <v>0.390973</v>
+        <v>0.200038</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2375</v>
+        <v>0.392963</v>
       </c>
       <c r="E90" t="n">
-        <v>0.192751</v>
+        <v>0.237621</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.191569</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375618</v>
+        <v>0.373872</v>
       </c>
       <c r="C91" t="n">
-        <v>0.410163</v>
+        <v>0.20332</v>
       </c>
       <c r="D91" t="n">
-        <v>0.240426</v>
+        <v>0.407524</v>
       </c>
       <c r="E91" t="n">
-        <v>0.196647</v>
+        <v>0.239487</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.19537</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.380063</v>
+        <v>0.373892</v>
       </c>
       <c r="C92" t="n">
-        <v>0.35848</v>
+        <v>0.209137</v>
       </c>
       <c r="D92" t="n">
-        <v>0.217885</v>
+        <v>0.356852</v>
       </c>
       <c r="E92" t="n">
-        <v>0.202998</v>
+        <v>0.239239</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.201491</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386023</v>
+        <v>0.378424</v>
       </c>
       <c r="C93" t="n">
-        <v>0.368289</v>
+        <v>0.216723</v>
       </c>
       <c r="D93" t="n">
-        <v>0.24771</v>
+        <v>0.36976</v>
       </c>
       <c r="E93" t="n">
-        <v>0.212088</v>
+        <v>0.250347</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.214334</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.393888</v>
+        <v>0.384822</v>
       </c>
       <c r="C94" t="n">
-        <v>0.378166</v>
+        <v>0.229699</v>
       </c>
       <c r="D94" t="n">
-        <v>0.401209</v>
+        <v>0.37853</v>
       </c>
       <c r="E94" t="n">
-        <v>0.271477</v>
+        <v>0.399892</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.275522</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.523201</v>
+        <v>0.528442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.396813</v>
+        <v>0.30165</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398648</v>
+        <v>0.396122</v>
       </c>
       <c r="E95" t="n">
-        <v>0.27717</v>
+        <v>0.399139</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.270549</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.528093</v>
+        <v>0.528623</v>
       </c>
       <c r="C96" t="n">
-        <v>0.408155</v>
+        <v>0.29314</v>
       </c>
       <c r="D96" t="n">
-        <v>0.400288</v>
+        <v>0.407535</v>
       </c>
       <c r="E96" t="n">
-        <v>0.276547</v>
+        <v>0.399412</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.272448</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.540595</v>
+        <v>0.528954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.421484</v>
+        <v>0.293201</v>
       </c>
       <c r="D97" t="n">
-        <v>0.366604</v>
+        <v>0.421334</v>
       </c>
       <c r="E97" t="n">
-        <v>0.270265</v>
+        <v>0.399532</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.268193</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.529206</v>
+        <v>0.530217</v>
       </c>
       <c r="C98" t="n">
-        <v>0.43561</v>
+        <v>0.302981</v>
       </c>
       <c r="D98" t="n">
-        <v>0.388684</v>
+        <v>0.439458</v>
       </c>
       <c r="E98" t="n">
-        <v>0.26543</v>
+        <v>0.399089</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.272414</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.52933</v>
+        <v>0.529215</v>
       </c>
       <c r="C99" t="n">
-        <v>0.448277</v>
+        <v>0.300032</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4008</v>
+        <v>0.449343</v>
       </c>
       <c r="E99" t="n">
-        <v>0.280716</v>
+        <v>0.399654</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.274898</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.526343</v>
+        <v>0.531362</v>
       </c>
       <c r="C100" t="n">
-        <v>0.46411</v>
+        <v>0.295417</v>
       </c>
       <c r="D100" t="n">
-        <v>0.398676</v>
+        <v>0.462904</v>
       </c>
       <c r="E100" t="n">
-        <v>0.271609</v>
+        <v>0.398826</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.276427</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5315</v>
+        <v>0.5323059999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.48251</v>
+        <v>0.299934</v>
       </c>
       <c r="D101" t="n">
-        <v>0.397956</v>
+        <v>0.476479</v>
       </c>
       <c r="E101" t="n">
-        <v>0.278585</v>
+        <v>0.399517</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.278938</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.528745</v>
+        <v>0.533654</v>
       </c>
       <c r="C102" t="n">
-        <v>0.497931</v>
+        <v>0.305728</v>
       </c>
       <c r="D102" t="n">
-        <v>0.400392</v>
+        <v>0.497022</v>
       </c>
       <c r="E102" t="n">
-        <v>0.282805</v>
+        <v>0.398638</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.282745</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.535198</v>
+        <v>0.535184</v>
       </c>
       <c r="C103" t="n">
-        <v>0.513758</v>
+        <v>0.304769</v>
       </c>
       <c r="D103" t="n">
-        <v>0.399581</v>
+        <v>0.516025</v>
       </c>
       <c r="E103" t="n">
-        <v>0.284585</v>
+        <v>0.398651</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.284718</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537972</v>
+        <v>0.537602</v>
       </c>
       <c r="C104" t="n">
-        <v>0.527783</v>
+        <v>0.308662</v>
       </c>
       <c r="D104" t="n">
-        <v>0.367781</v>
+        <v>0.5294180000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.285915</v>
+        <v>0.401615</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.287885</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.540777</v>
+        <v>0.539762</v>
       </c>
       <c r="C105" t="n">
-        <v>0.547631</v>
+        <v>0.316874</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401372</v>
+        <v>0.546193</v>
       </c>
       <c r="E105" t="n">
-        <v>0.289004</v>
+        <v>0.403927</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.290859</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5444870000000001</v>
+        <v>0.5442129999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.562689</v>
+        <v>0.322278</v>
       </c>
       <c r="D106" t="n">
-        <v>0.405957</v>
+        <v>0.5645250000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.29307</v>
+        <v>0.407205</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.296764</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5512359999999999</v>
+        <v>0.550243</v>
       </c>
       <c r="C107" t="n">
-        <v>0.529686</v>
+        <v>0.327846</v>
       </c>
       <c r="D107" t="n">
-        <v>0.412022</v>
+        <v>0.531543</v>
       </c>
       <c r="E107" t="n">
-        <v>0.300175</v>
+        <v>0.413841</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.300804</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.558669</v>
+        <v>0.557638</v>
       </c>
       <c r="C108" t="n">
-        <v>0.538889</v>
+        <v>0.337983</v>
       </c>
       <c r="D108" t="n">
-        <v>0.532489</v>
+        <v>0.54477</v>
       </c>
       <c r="E108" t="n">
-        <v>0.480145</v>
+        <v>0.531967</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.496654</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5683550000000001</v>
+        <v>0.567836</v>
       </c>
       <c r="C109" t="n">
-        <v>0.553195</v>
+        <v>0.350459</v>
       </c>
       <c r="D109" t="n">
-        <v>0.534612</v>
+        <v>0.552307</v>
       </c>
       <c r="E109" t="n">
-        <v>0.475747</v>
+        <v>0.53407</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.495358</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.591073</v>
+        <v>0.60329</v>
       </c>
       <c r="C110" t="n">
-        <v>0.57064</v>
+        <v>0.5294450000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.530522</v>
+        <v>0.566673</v>
       </c>
       <c r="E110" t="n">
-        <v>0.499228</v>
+        <v>0.5338580000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.497373</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.605203</v>
+        <v>0.603651</v>
       </c>
       <c r="C111" t="n">
-        <v>0.582299</v>
+        <v>0.529142</v>
       </c>
       <c r="D111" t="n">
-        <v>0.535158</v>
+        <v>0.5796750000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.473333</v>
+        <v>0.535815</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.499886</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.604745</v>
+        <v>0.606446</v>
       </c>
       <c r="C112" t="n">
-        <v>0.576618</v>
+        <v>0.526726</v>
       </c>
       <c r="D112" t="n">
-        <v>0.516524</v>
+        <v>0.590372</v>
       </c>
       <c r="E112" t="n">
-        <v>0.496978</v>
+        <v>0.536061</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.499225</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.608633</v>
+        <v>0.607952</v>
       </c>
       <c r="C113" t="n">
-        <v>0.608245</v>
+        <v>0.530757</v>
       </c>
       <c r="D113" t="n">
-        <v>0.535146</v>
+        <v>0.606866</v>
       </c>
       <c r="E113" t="n">
-        <v>0.485832</v>
+        <v>0.536338</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.501072</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.60858</v>
+        <v>0.608349</v>
       </c>
       <c r="C114" t="n">
-        <v>0.616265</v>
+        <v>0.5326610000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.533876</v>
+        <v>0.618855</v>
       </c>
       <c r="E114" t="n">
-        <v>0.489538</v>
+        <v>0.5353329999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.500256</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6088249999999999</v>
+        <v>0.609839</v>
       </c>
       <c r="C115" t="n">
-        <v>0.633254</v>
+        <v>0.5343329999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5370470000000001</v>
+        <v>0.635119</v>
       </c>
       <c r="E115" t="n">
-        <v>0.49566</v>
+        <v>0.536393</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.505198</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.612079</v>
+        <v>0.611264</v>
       </c>
       <c r="C116" t="n">
-        <v>0.649168</v>
+        <v>0.535511</v>
       </c>
       <c r="D116" t="n">
-        <v>0.520176</v>
+        <v>0.65021</v>
       </c>
       <c r="E116" t="n">
-        <v>0.501897</v>
+        <v>0.537584</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.505331</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.613918</v>
+        <v>0.610745</v>
       </c>
       <c r="C117" t="n">
-        <v>0.667777</v>
+        <v>0.538268</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5419349999999999</v>
+        <v>0.670901</v>
       </c>
       <c r="E117" t="n">
-        <v>0.49978</v>
+        <v>0.541619</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.506884</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.616618</v>
+        <v>0.614995</v>
       </c>
       <c r="C118" t="n">
-        <v>0.680049</v>
+        <v>0.539664</v>
       </c>
       <c r="D118" t="n">
-        <v>0.544746</v>
+        <v>0.679988</v>
       </c>
       <c r="E118" t="n">
-        <v>0.509581</v>
+        <v>0.542758</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.510704</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622577</v>
+        <v>0.6211179999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.705008</v>
+        <v>0.545919</v>
       </c>
       <c r="D119" t="n">
-        <v>0.548544</v>
+        <v>0.701501</v>
       </c>
       <c r="E119" t="n">
-        <v>0.516721</v>
+        <v>0.547405</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.512006</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.614509</v>
+        <v>0.6255039999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.714129</v>
+        <v>0.553397</v>
       </c>
       <c r="D120" t="n">
-        <v>0.532342</v>
+        <v>0.721862</v>
       </c>
       <c r="E120" t="n">
-        <v>0.520192</v>
+        <v>0.550146</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.518308</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.634248</v>
+        <v>0.630548</v>
       </c>
       <c r="C121" t="n">
-        <v>0.638101</v>
+        <v>0.558403</v>
       </c>
       <c r="D121" t="n">
-        <v>0.556542</v>
+        <v>0.636381</v>
       </c>
       <c r="E121" t="n">
-        <v>0.526599</v>
+        <v>0.555489</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.522166</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.642572</v>
+        <v>0.639411</v>
       </c>
       <c r="C122" t="n">
-        <v>0.645339</v>
+        <v>0.56564</v>
       </c>
       <c r="D122" t="n">
-        <v>0.553619</v>
+        <v>0.646703</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5304410000000001</v>
+        <v>0.564808</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.534695</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.654408</v>
+        <v>0.653017</v>
       </c>
       <c r="C123" t="n">
-        <v>0.660613</v>
+        <v>0.5842349999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6793360000000001</v>
+        <v>0.660509</v>
       </c>
       <c r="E123" t="n">
-        <v>0.702954</v>
+        <v>0.693663</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.708797</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.728513</v>
+        <v>0.740502</v>
       </c>
       <c r="C124" t="n">
-        <v>0.672238</v>
+        <v>0.7395890000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.675319</v>
+        <v>0.673281</v>
       </c>
       <c r="E124" t="n">
-        <v>0.706712</v>
+        <v>0.692434</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.708689</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.744527</v>
+        <v>0.74161</v>
       </c>
       <c r="C125" t="n">
-        <v>0.685324</v>
+        <v>0.737616</v>
       </c>
       <c r="D125" t="n">
-        <v>0.690648</v>
+        <v>0.672637</v>
       </c>
       <c r="E125" t="n">
-        <v>0.71201</v>
+        <v>0.692764</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.710719</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7430330000000001</v>
+        <v>0.745292</v>
       </c>
       <c r="C126" t="n">
-        <v>0.688918</v>
+        <v>0.740168</v>
       </c>
       <c r="D126" t="n">
-        <v>0.693879</v>
+        <v>0.6992620000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.715014</v>
+        <v>0.694306</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.713404</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.727379</v>
+        <v>0.746088</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7142230000000001</v>
+        <v>0.740511</v>
       </c>
       <c r="D127" t="n">
-        <v>0.694713</v>
+        <v>0.715525</v>
       </c>
       <c r="E127" t="n">
-        <v>0.708993</v>
+        <v>0.695933</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.712022</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7482220000000001</v>
+        <v>0.735199</v>
       </c>
       <c r="C128" t="n">
-        <v>0.728186</v>
+        <v>0.742572</v>
       </c>
       <c r="D128" t="n">
-        <v>0.698085</v>
+        <v>0.72922</v>
       </c>
       <c r="E128" t="n">
-        <v>0.710017</v>
+        <v>0.6956870000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.713192</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.751667</v>
+        <v>0.7487200000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>0.739598</v>
+        <v>0.743121</v>
       </c>
       <c r="D129" t="n">
-        <v>0.694882</v>
+        <v>0.743301</v>
       </c>
       <c r="E129" t="n">
-        <v>0.713176</v>
+        <v>0.697263</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.712781</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.749646</v>
+        <v>0.748689</v>
       </c>
       <c r="C130" t="n">
-        <v>0.744768</v>
+        <v>0.746471</v>
       </c>
       <c r="D130" t="n">
-        <v>0.679269</v>
+        <v>0.757206</v>
       </c>
       <c r="E130" t="n">
-        <v>0.715073</v>
+        <v>0.699722</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.719541</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7519130000000001</v>
+        <v>0.752618</v>
       </c>
       <c r="C131" t="n">
-        <v>0.773105</v>
+        <v>0.750893</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7016829999999999</v>
+        <v>0.77386</v>
       </c>
       <c r="E131" t="n">
-        <v>0.718253</v>
+        <v>0.698885</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.7246359999999999</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.741294</v>
+        <v>0.754293</v>
       </c>
       <c r="C132" t="n">
-        <v>0.789017</v>
+        <v>0.753848</v>
       </c>
       <c r="D132" t="n">
-        <v>0.687638</v>
+        <v>0.788436</v>
       </c>
       <c r="E132" t="n">
-        <v>0.72118</v>
+        <v>0.701982</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.726191</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.759637</v>
+        <v>0.76171</v>
       </c>
       <c r="C133" t="n">
-        <v>0.808322</v>
+        <v>0.756266</v>
       </c>
       <c r="D133" t="n">
-        <v>0.706994</v>
+        <v>0.805623</v>
       </c>
       <c r="E133" t="n">
-        <v>0.731471</v>
+        <v>0.70652</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.727763</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7646230000000001</v>
+        <v>0.749196</v>
       </c>
       <c r="C134" t="n">
-        <v>0.822314</v>
+        <v>0.765916</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7105359999999999</v>
+        <v>0.818798</v>
       </c>
       <c r="E134" t="n">
-        <v>0.719344</v>
+        <v>0.710534</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.735492</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.771539</v>
+        <v>0.770593</v>
       </c>
       <c r="C135" t="n">
-        <v>0.680467</v>
+        <v>0.770932</v>
       </c>
       <c r="D135" t="n">
-        <v>0.703998</v>
+        <v>0.684094</v>
       </c>
       <c r="E135" t="n">
-        <v>0.744327</v>
+        <v>0.716199</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.742436</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.780385</v>
+        <v>0.780184</v>
       </c>
       <c r="C136" t="n">
-        <v>0.702133</v>
+        <v>0.782521</v>
       </c>
       <c r="D136" t="n">
-        <v>0.72289</v>
+        <v>0.703634</v>
       </c>
       <c r="E136" t="n">
-        <v>0.753085</v>
+        <v>0.724332</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.753598</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.793622</v>
+        <v>0.792459</v>
       </c>
       <c r="C137" t="n">
-        <v>0.702341</v>
+        <v>0.798295</v>
       </c>
       <c r="D137" t="n">
-        <v>0.818172</v>
+        <v>0.714325</v>
       </c>
       <c r="E137" t="n">
-        <v>0.839809</v>
+        <v>0.827504</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.838991</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.868068</v>
+        <v>0.866422</v>
       </c>
       <c r="C138" t="n">
-        <v>0.713802</v>
+        <v>0.866052</v>
       </c>
       <c r="D138" t="n">
-        <v>0.829686</v>
+        <v>0.726725</v>
       </c>
       <c r="E138" t="n">
-        <v>0.837543</v>
+        <v>0.829023</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.840207</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.868376</v>
+        <v>0.867076</v>
       </c>
       <c r="C139" t="n">
-        <v>0.735531</v>
+        <v>0.867334</v>
       </c>
       <c r="D139" t="n">
-        <v>0.827702</v>
+        <v>0.726975</v>
       </c>
       <c r="E139" t="n">
-        <v>0.837985</v>
+        <v>0.829579</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.83995</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8695850000000001</v>
+        <v>0.856774</v>
       </c>
       <c r="C140" t="n">
-        <v>0.748157</v>
+        <v>0.867273</v>
       </c>
       <c r="D140" t="n">
-        <v>0.829759</v>
+        <v>0.751085</v>
       </c>
       <c r="E140" t="n">
-        <v>0.842683</v>
+        <v>0.828879</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.839795</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.869228</v>
+        <v>0.857792</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7607159999999999</v>
+        <v>0.869098</v>
       </c>
       <c r="D141" t="n">
-        <v>0.829589</v>
+        <v>0.7538550000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.843472</v>
+        <v>0.828789</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.842494</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.872657</v>
+        <v>0.869076</v>
       </c>
       <c r="C142" t="n">
-        <v>0.769396</v>
+        <v>0.85767</v>
       </c>
       <c r="D142" t="n">
-        <v>0.830138</v>
+        <v>0.769208</v>
       </c>
       <c r="E142" t="n">
-        <v>0.844644</v>
+        <v>0.828779</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.846651</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8602379999999999</v>
+        <v>0.870966</v>
       </c>
       <c r="C143" t="n">
-        <v>0.792797</v>
+        <v>0.859135</v>
       </c>
       <c r="D143" t="n">
-        <v>0.817667</v>
+        <v>0.793813</v>
       </c>
       <c r="E143" t="n">
-        <v>0.843744</v>
+        <v>0.829809</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.84728</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0194751</v>
+                  <v>0.0193848</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195629</v>
+                  <v>0.0194619</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.019489</v>
+                  <v>0.0193778</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0195779</v>
+                  <v>0.0194707</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0196134</v>
+                  <v>0.0196489</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0197913</v>
+                  <v>0.0196529</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0199155</v>
+                  <v>0.0199483</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0201101</v>
+                  <v>0.0201947</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0196084</v>
+                  <v>0.0192209</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195614</v>
+                  <v>0.019424</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0196347</v>
+                  <v>0.0197447</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198925</v>
+                  <v>0.0197918</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0200039</v>
+                  <v>0.0198616</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201837</v>
+                  <v>0.0200231</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0200675</v>
+                  <v>0.0201789</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0201647</v>
+                  <v>0.0202069</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0202739</v>
+                  <v>0.0204096</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0202086</v>
+                  <v>0.0205851</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0205069</v>
+                  <v>0.0206359</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0207083</v>
+                  <v>0.0208679</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0211543</v>
+                  <v>0.0211078</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0230484</v>
+                  <v>0.0248881</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206813</v>
+                  <v>0.0203805</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0207405</v>
+                  <v>0.0204958</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0207665</v>
+                  <v>0.0206497</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0209769</v>
+                  <v>0.0208718</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.021056</v>
+                  <v>0.0210186</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0212252</v>
+                  <v>0.0211438</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0213505</v>
+                  <v>0.0213385</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215039</v>
+                  <v>0.021513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0217981</v>
+                  <v>0.0220629</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221214</v>
+                  <v>0.0221137</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.023275</v>
+                  <v>0.0228733</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0250124</v>
+                  <v>0.0243698</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0266118</v>
+                  <v>0.0271109</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0311996</v>
+                  <v>0.0312224</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0216211</v>
+                  <v>0.0214949</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0218931</v>
+                  <v>0.0218569</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219329</v>
+                  <v>0.0217457</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0221215</v>
+                  <v>0.0220473</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0222904</v>
+                  <v>0.0222951</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224773</v>
+                  <v>0.0224305</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0228221</v>
+                  <v>0.0226572</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0230365</v>
+                  <v>0.0229888</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235124</v>
+                  <v>0.0234883</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.02408</v>
+                  <v>0.0238963</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.025044</v>
+                  <v>0.025005</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0279553</v>
+                  <v>0.0268192</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0304389</v>
+                  <v>0.029844</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0353825</v>
+                  <v>0.0336676</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0392081</v>
+                  <v>0.03842</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230524</v>
+                  <v>0.0233104</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0234244</v>
+                  <v>0.023341</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0234108</v>
+                  <v>0.0237441</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239286</v>
+                  <v>0.0239331</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0240818</v>
+                  <v>0.0241352</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.024439</v>
+                  <v>0.024359</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0247787</v>
+                  <v>0.0245657</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252449</v>
+                  <v>0.0251086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265282</v>
+                  <v>0.0260587</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0274839</v>
+                  <v>0.0274484</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0294202</v>
+                  <v>0.0293528</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.032256</v>
+                  <v>0.0319897</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.035998</v>
+                  <v>0.0356338</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0410284</v>
+                  <v>0.0409657</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0292854</v>
+                  <v>0.0289145</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293731</v>
+                  <v>0.0290849</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0295223</v>
+                  <v>0.0291312</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0297504</v>
+                  <v>0.0292314</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300985</v>
+                  <v>0.0295317</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302054</v>
+                  <v>0.0298013</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030751</v>
+                  <v>0.0301607</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0311922</v>
+                  <v>0.030776</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0320559</v>
+                  <v>0.0317162</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0331467</v>
+                  <v>0.0328879</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0348991</v>
+                  <v>0.0346028</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0373412</v>
+                  <v>0.0370192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0409062</v>
+                  <v>0.0402907</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0457293</v>
+                  <v>0.0451694</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0555257</v>
+                  <v>0.0547573</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0577904</v>
+                  <v>0.0555636</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.055792</v>
+                  <v>0.055387</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0560207</v>
+                  <v>0.0554725</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0561087</v>
+                  <v>0.0557169</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0563414</v>
+                  <v>0.0559509</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056655</v>
+                  <v>0.0560586</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0571958</v>
+                  <v>0.0562625</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.057884</v>
+                  <v>0.0567185</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0582425</v>
+                  <v>0.0576972</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0592452</v>
+                  <v>0.0587159</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0608211</v>
+                  <v>0.060325</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0633513</v>
+                  <v>0.0629981</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06725390000000001</v>
+                  <v>0.06682589999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0858208</v>
+                  <v>0.0858251</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.08577170000000001</v>
+                  <v>0.0857677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08594590000000001</v>
+                  <v>0.085906</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08606900000000001</v>
+                  <v>0.0859969</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.08616749999999999</v>
+                  <v>0.086075</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08662789999999999</v>
+                  <v>0.0861682</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0864133</v>
+                  <v>0.08647729999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.088181</v>
+                  <v>0.0867111</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0871123</v>
+                  <v>0.08710229999999999</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876926</v>
+                  <v>0.08776050000000001</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0885166</v>
+                  <v>0.08850959999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0897474</v>
+                  <v>0.0897652</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09172080000000001</v>
+                  <v>0.09188499999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0949308</v>
+                  <v>0.0952229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0997827</v>
+                  <v>0.100016</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.109009</v>
+                  <v>0.108131</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.108902</v>
+                  <v>0.108075</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.109017</v>
+                  <v>0.108184</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.109219</v>
+                  <v>0.10833</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.109295</v>
+                  <v>0.108539</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.109582</v>
+                  <v>0.108599</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.109729</v>
+                  <v>0.108799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.110229</v>
+                  <v>0.109382</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.110875</v>
+                  <v>0.109872</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.111655</v>
+                  <v>0.121679</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.112821</v>
+                  <v>0.11203</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.114619</v>
+                  <v>0.113814</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.117464</v>
+                  <v>0.116862</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.122013</v>
+                  <v>0.121543</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.139209</v>
+                  <v>0.140062</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.139131</v>
+                  <v>0.140058</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.139496</v>
+                  <v>0.139603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.139621</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.13995</v>
+                  <v>0.139755</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.14025</v>
+                  <v>0.139773</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.140479</v>
+                  <v>0.139973</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.142087</v>
+                  <v>0.140326</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141701</v>
+                  <v>0.140658</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.142135</v>
+                  <v>0.140894</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.143369</v>
+                  <v>0.1421</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14492</v>
+                  <v>0.143547</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.147621</v>
+                  <v>0.146307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.151632</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157728</v>
+                  <v>0.158166</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.157774</v>
+                  <v>0.158195</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157822</v>
+                  <v>0.15855</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.158086</v>
+                  <v>0.158668</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158035</v>
+                  <v>0.159246</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.178791</v>
+                  <v>0.158584</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0365145</v>
+                  <v>0.0175627</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0396988</v>
+                  <v>0.0175947</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0447642</v>
+                  <v>0.0176587</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0498033</v>
+                  <v>0.0177658</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0537687</v>
+                  <v>0.0179719</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0315887</v>
+                  <v>0.018025</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0336489</v>
+                  <v>0.0181412</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0356574</v>
+                  <v>0.0187716</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0376125</v>
+                  <v>0.0181729</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0405804</v>
+                  <v>0.0183363</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0447308</v>
+                  <v>0.018272</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.047286</v>
+                  <v>0.0186146</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0503759</v>
+                  <v>0.0185738</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0539423</v>
+                  <v>0.0189054</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0578276</v>
+                  <v>0.0189311</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0614582</v>
+                  <v>0.0193473</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0653006</v>
+                  <v>0.0191405</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0680994</v>
+                  <v>0.0193073</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0704849</v>
+                  <v>0.0193</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0446121</v>
+                  <v>0.0195934</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.047444</v>
+                  <v>0.0204342</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0493842</v>
+                  <v>0.0258092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0514984</v>
+                  <v>0.0194516</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0543429</v>
+                  <v>0.0195151</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0563413</v>
+                  <v>0.019712</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0616033</v>
+                  <v>0.0198041</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0643247</v>
+                  <v>0.0200263</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0662176</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0698588</v>
+                  <v>0.0204215</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.07215820000000001</v>
+                  <v>0.020546</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0748846</v>
+                  <v>0.0208661</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0769565</v>
+                  <v>0.0211468</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0791249</v>
+                  <v>0.0216524</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0519505</v>
+                  <v>0.0228986</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0537373</v>
+                  <v>0.0250296</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0560572</v>
+                  <v>0.0299358</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0580173</v>
+                  <v>0.0207518</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0596857</v>
+                  <v>0.0209239</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0624772</v>
+                  <v>0.0210062</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.06461600000000001</v>
+                  <v>0.0212501</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0672449</v>
+                  <v>0.0213877</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.06969930000000001</v>
+                  <v>0.0216913</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.07249079999999999</v>
+                  <v>0.0219272</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.07484499999999999</v>
+                  <v>0.022197</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0778189</v>
+                  <v>0.022681</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0800609</v>
+                  <v>0.0234421</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0823764</v>
+                  <v>0.0240753</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0844506</v>
+                  <v>0.0257732</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0578649</v>
+                  <v>0.0285813</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0591875</v>
+                  <v>0.0324607</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0615245</v>
+                  <v>0.0380034</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0639034</v>
+                  <v>0.0220148</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0656783</v>
+                  <v>0.0221262</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0679548</v>
+                  <v>0.0223024</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0705563</v>
+                  <v>0.022656</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0733139</v>
+                  <v>0.0228134</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0760695</v>
+                  <v>0.0231381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.07903490000000001</v>
+                  <v>0.0235722</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.080972</v>
+                  <v>0.0241989</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.08393299999999999</v>
+                  <v>0.025026</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.08583780000000001</v>
+                  <v>0.0264049</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.08868760000000001</v>
+                  <v>0.0283304</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0634653</v>
+                  <v>0.0308026</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0660341</v>
+                  <v>0.0349232</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.068684</v>
+                  <v>0.0401922</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0716908</v>
+                  <v>0.0246507</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0754389</v>
+                  <v>0.0249507</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0780781</v>
+                  <v>0.0249084</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.08159859999999999</v>
+                  <v>0.025417</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0866746</v>
+                  <v>0.025691</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0889358</v>
+                  <v>0.0262707</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0945853</v>
+                  <v>0.0268015</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0982999</v>
+                  <v>0.0274789</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.102978</v>
+                  <v>0.0288561</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.106901</v>
+                  <v>0.030155</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.112317</v>
+                  <v>0.0326295</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.09733840000000001</v>
+                  <v>0.0355582</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101335</v>
+                  <v>0.0387886</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.105975</v>
+                  <v>0.0442776</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.110132</v>
+                  <v>0.0354786</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.115172</v>
+                  <v>0.0356873</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.121209</v>
+                  <v>0.0359896</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.126205</v>
+                  <v>0.0361447</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.131141</v>
+                  <v>0.0365455</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.137704</v>
+                  <v>0.0370387</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.143051</v>
+                  <v>0.0374911</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.149748</v>
+                  <v>0.0382015</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.154568</v>
+                  <v>0.0393225</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.16029</v>
+                  <v>0.0405886</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.166513</v>
+                  <v>0.0425901</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.145912</v>
+                  <v>0.0454562</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.149301</v>
+                  <v>0.0496657</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.152309</v>
+                  <v>0.0553023</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.157221</v>
+                  <v>0.07135279999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.160664</v>
+                  <v>0.0716075</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.166029</v>
+                  <v>0.0718963</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.170781</v>
+                  <v>0.0721396</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.175608</v>
+                  <v>0.07288070000000001</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.181033</v>
+                  <v>0.07289329999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.186455</v>
+                  <v>0.073226</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.192398</v>
+                  <v>0.073786</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.199037</v>
+                  <v>0.0744944</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.203931</v>
+                  <v>0.07550759999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.210695</v>
+                  <v>0.0775174</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.216678</v>
+                  <v>0.0796972</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.181859</v>
+                  <v>0.0833348</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.199868</v>
+                  <v>0.08797199999999999</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.193515</v>
+                  <v>0.0954035</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.192797</v>
+                  <v>0.0996648</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.196994</v>
+                  <v>0.0977754</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.201949</v>
+                  <v>0.0978999</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.206787</v>
+                  <v>0.0981046</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212581</v>
+                  <v>0.0988192</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.217678</v>
+                  <v>0.0991438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223918</v>
+                  <v>0.102822</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229518</v>
+                  <v>0.100287</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.23542</v>
+                  <v>0.101658</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.241207</v>
+                  <v>0.103364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.247384</v>
+                  <v>0.105254</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.199268</v>
+                  <v>0.108244</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.202036</v>
+                  <v>0.11305</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.205435</v>
+                  <v>0.119961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.209778</v>
+                  <v>0.13336</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.213788</v>
+                  <v>0.133718</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.218497</v>
+                  <v>0.133814</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.22327</v>
+                  <v>0.133896</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.228488</v>
+                  <v>0.134135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.234375</v>
+                  <v>0.134577</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.240447</v>
+                  <v>0.135148</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24599</v>
+                  <v>0.135817</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.251978</v>
+                  <v>0.136846</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.257944</v>
+                  <v>0.13806</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.268641</v>
+                  <v>0.139958</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209616</v>
+                  <v>0.14262</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212749</v>
+                  <v>0.146392</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.216194</v>
+                  <v>0.152046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.220147</v>
+                  <v>0.152616</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224171</v>
+                  <v>0.153035</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229194</v>
+                  <v>0.153122</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234298</v>
+                  <v>0.153483</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.239466</v>
+                  <v>0.153843</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.245367</v>
+                  <v>0.153735</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196261</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0197912</v>
+                  <v>0.0372243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198901</v>
+                  <v>0.0433747</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199582</v>
+                  <v>0.0462062</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0201314</v>
+                  <v>0.0510849</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0201829</v>
+                  <v>0.0306249</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0207955</v>
+                  <v>0.0325</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0194471</v>
+                  <v>0.0346322</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0195449</v>
+                  <v>0.0364502</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.019867</v>
+                  <v>0.0397791</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0201596</v>
+                  <v>0.0431275</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0201363</v>
+                  <v>0.0471309</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205715</v>
+                  <v>0.0496454</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.021072</v>
+                  <v>0.0533765</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0210413</v>
+                  <v>0.0571097</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0212453</v>
+                  <v>0.0602121</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0213354</v>
+                  <v>0.0639561</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0214148</v>
+                  <v>0.0669614</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0218501</v>
+                  <v>0.070434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0224228</v>
+                  <v>0.0451085</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0237556</v>
+                  <v>0.046578</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0210571</v>
+                  <v>0.0525073</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0212586</v>
+                  <v>0.0537413</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0214644</v>
+                  <v>0.056061</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0215637</v>
+                  <v>0.0582335</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.021764</v>
+                  <v>0.0604336</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0221105</v>
+                  <v>0.063626</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.022421</v>
+                  <v>0.06649049999999999</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0226251</v>
+                  <v>0.0688616</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0229748</v>
+                  <v>0.07168040000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.02343</v>
+                  <v>0.0746487</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0239333</v>
+                  <v>0.07752729999999999</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0247176</v>
+                  <v>0.07917970000000001</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0263657</v>
+                  <v>0.0529663</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0292434</v>
+                  <v>0.0547963</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0221968</v>
+                  <v>0.0564959</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0224122</v>
+                  <v>0.0580906</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0226233</v>
+                  <v>0.0601554</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0229104</v>
+                  <v>0.06259190000000001</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0231873</v>
+                  <v>0.0644839</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0235225</v>
+                  <v>0.0672614</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0245394</v>
+                  <v>0.06977800000000001</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242028</v>
+                  <v>0.0726223</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0246188</v>
+                  <v>0.0752708</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0255792</v>
+                  <v>0.0774999</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0258658</v>
+                  <v>0.0799808</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0269256</v>
+                  <v>0.0821132</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.029475</v>
+                  <v>0.0838373</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0328029</v>
+                  <v>0.057428</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0229759</v>
+                  <v>0.0590788</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0231768</v>
+                  <v>0.0613427</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0234395</v>
+                  <v>0.06343699999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.023729</v>
+                  <v>0.06561989999999999</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0240074</v>
+                  <v>0.0681055</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.024327</v>
+                  <v>0.070746</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0247229</v>
+                  <v>0.0727792</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.025276</v>
+                  <v>0.0757994</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0257848</v>
+                  <v>0.07800020000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0264266</v>
+                  <v>0.08056480000000001</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0273739</v>
+                  <v>0.08313520000000001</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0289127</v>
+                  <v>0.0855432</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313813</v>
+                  <v>0.0898707</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0347866</v>
+                  <v>0.0657703</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0405541</v>
+                  <v>0.06761300000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0251501</v>
+                  <v>0.0706816</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0254762</v>
+                  <v>0.0736002</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0257275</v>
+                  <v>0.07693999999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0260131</v>
+                  <v>0.0791196</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0263866</v>
+                  <v>0.0839456</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0261122</v>
+                  <v>0.0874417</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0272077</v>
+                  <v>0.0915048</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0281149</v>
+                  <v>0.0958411</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0283556</v>
+                  <v>0.100017</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0292696</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0306653</v>
+                  <v>0.107671</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0333493</v>
+                  <v>0.113168</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0363328</v>
+                  <v>0.0979264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0412171</v>
+                  <v>0.101481</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0356659</v>
+                  <v>0.105553</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0363526</v>
+                  <v>0.11045</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0371667</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0379171</v>
+                  <v>0.120141</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0386585</v>
+                  <v>0.125522</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0393656</v>
+                  <v>0.130499</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0400877</v>
+                  <v>0.135999</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0412195</v>
+                  <v>0.141492</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0419461</v>
+                  <v>0.147983</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0430021</v>
+                  <v>0.153941</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0442752</v>
+                  <v>0.160131</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.046052</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0487434</v>
+                  <v>0.145305</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0533016</v>
+                  <v>0.149575</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0713101</v>
+                  <v>0.15412</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07162789999999999</v>
+                  <v>0.156752</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0721873</v>
+                  <v>0.161486</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0726131</v>
+                  <v>0.165355</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0731451</v>
+                  <v>0.171084</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.073726</v>
+                  <v>0.175965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0743772</v>
+                  <v>0.181715</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0751235</v>
+                  <v>0.18689</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0758935</v>
+                  <v>0.193063</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07695730000000001</v>
+                  <v>0.198751</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07818170000000001</v>
+                  <v>0.204087</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0798373</v>
+                  <v>0.211733</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08226</v>
+                  <v>0.21659</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859181</v>
+                  <v>0.182251</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.08945119999999999</v>
+                  <v>0.185854</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0901479</v>
+                  <v>0.189322</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0909215</v>
+                  <v>0.193413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0917118</v>
+                  <v>0.19773</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.09258719999999999</v>
+                  <v>0.202287</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.09357890000000001</v>
+                  <v>0.208167</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09464</v>
+                  <v>0.212927</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0957011</v>
+                  <v>0.218337</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0970447</v>
+                  <v>0.224385</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0984414</v>
+                  <v>0.230112</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101572</v>
+                  <v>0.236296</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102157</v>
+                  <v>0.242636</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104633</v>
+                  <v>0.248114</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108505</v>
+                  <v>0.200198</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.114455</v>
+                  <v>0.202936</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.107135</v>
+                  <v>0.206116</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.10814</v>
+                  <v>0.209939</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.109179</v>
+                  <v>0.214804</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.110339</v>
+                  <v>0.220161</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.111555</v>
+                  <v>0.223485</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.117399</v>
+                  <v>0.229261</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.11438</v>
+                  <v>0.235257</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.115714</v>
+                  <v>0.24097</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.117191</v>
+                  <v>0.246462</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.11914</v>
+                  <v>0.253085</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.121337</v>
+                  <v>0.258205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127893</v>
+                  <v>0.265025</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.128374</v>
+                  <v>0.210482</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.134621</v>
+                  <v>0.213193</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.118436</v>
+                  <v>0.219024</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.119542</v>
+                  <v>0.221271</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.120555</v>
+                  <v>0.22573</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.124935</v>
+                  <v>0.229762</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12278</v>
+                  <v>0.23492</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.123993</v>
+                  <v>0.24055</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.125349</v>
+                  <v>0.245786</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0206785</v>
+                  <v>0.0197894</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0207813</v>
+                  <v>0.0201052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0208833</v>
+                  <v>0.0201236</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0207783</v>
+                  <v>0.0200332</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0207749</v>
+                  <v>0.0203125</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.020897</v>
+                  <v>0.0206254</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0212215</v>
+                  <v>0.0213259</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0216661</v>
+                  <v>0.019472</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0216931</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0219577</v>
+                  <v>0.019895</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0219969</v>
+                  <v>0.0201555</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0221826</v>
+                  <v>0.0202462</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0225411</v>
+                  <v>0.0204734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0228079</v>
+                  <v>0.0207159</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0227173</v>
+                  <v>0.0208968</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227772</v>
+                  <v>0.021277</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230473</v>
+                  <v>0.0214165</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0229634</v>
+                  <v>0.0217844</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0230157</v>
+                  <v>0.0221565</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0234205</v>
+                  <v>0.0230293</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0244919</v>
+                  <v>0.02607</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.023336</v>
+                  <v>0.0209819</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0235586</v>
+                  <v>0.0211275</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0238225</v>
+                  <v>0.0213664</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0237382</v>
+                  <v>0.021552</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0238801</v>
+                  <v>0.0217889</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0241333</v>
+                  <v>0.022141</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0244564</v>
+                  <v>0.0224621</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0245499</v>
+                  <v>0.0227454</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0247842</v>
+                  <v>0.0230891</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0251216</v>
+                  <v>0.0235791</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0254613</v>
+                  <v>0.0243147</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0260233</v>
+                  <v>0.0254992</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0270699</v>
+                  <v>0.0276103</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0306774</v>
+                  <v>0.0319471</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0245451</v>
+                  <v>0.0222259</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0247372</v>
+                  <v>0.0224589</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.024937</v>
+                  <v>0.0225931</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0252111</v>
+                  <v>0.0229286</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0253094</v>
+                  <v>0.0231774</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0255793</v>
+                  <v>0.0240694</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0257865</v>
+                  <v>0.0239096</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0260194</v>
+                  <v>0.0242348</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.026382</v>
+                  <v>0.0247279</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0268562</v>
+                  <v>0.0255188</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0274538</v>
+                  <v>0.0264864</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0286629</v>
+                  <v>0.0279806</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.030666</v>
+                  <v>0.0306931</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0341753</v>
+                  <v>0.0341211</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0248564</v>
+                  <v>0.0229859</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0250656</v>
+                  <v>0.0231886</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0253725</v>
+                  <v>0.0234438</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0256172</v>
+                  <v>0.0237361</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.025785</v>
+                  <v>0.0240592</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0260479</v>
+                  <v>0.0243611</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265271</v>
+                  <v>0.0247697</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0269807</v>
+                  <v>0.0252948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0273609</v>
+                  <v>0.0259223</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0280786</v>
+                  <v>0.026794</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0290054</v>
+                  <v>0.027927</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0305336</v>
+                  <v>0.0297296</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0329544</v>
+                  <v>0.0320666</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0362898</v>
+                  <v>0.0355204</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0419218</v>
+                  <v>0.040984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.026637</v>
+                  <v>0.0253889</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0267861</v>
+                  <v>0.0250649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0277745</v>
+                  <v>0.0253452</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0273026</v>
+                  <v>0.0255558</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0277491</v>
+                  <v>0.0259444</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0281135</v>
+                  <v>0.0264835</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0285725</v>
+                  <v>0.0277257</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0291539</v>
+                  <v>0.0278552</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0301281</v>
+                  <v>0.0284422</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0315789</v>
+                  <v>0.0297968</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.032797</v>
+                  <v>0.0311555</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0350439</v>
+                  <v>0.033579</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0383708</v>
+                  <v>0.036514</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0434181</v>
+                  <v>0.041536</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0335094</v>
+                  <v>0.0361322</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.033843</v>
+                  <v>0.0366932</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0344867</v>
+                  <v>0.0376074</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0348016</v>
+                  <v>0.0384358</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0352056</v>
+                  <v>0.0391975</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0360305</v>
+                  <v>0.0400954</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0367309</v>
+                  <v>0.0407676</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0372919</v>
+                  <v>0.0415868</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0386863</v>
+                  <v>0.0424312</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0396944</v>
+                  <v>0.0440182</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0417616</v>
+                  <v>0.0448619</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0440648</v>
+                  <v>0.0466044</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0474931</v>
+                  <v>0.0522096</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.052939</v>
+                  <v>0.0533849</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.06786490000000001</v>
+                  <v>0.07120079999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.068254</v>
+                  <v>0.074347</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.06875249999999999</v>
+                  <v>0.0720843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0691842</v>
+                  <v>0.0726903</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.06990540000000001</v>
+                  <v>0.0733799</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.07045410000000001</v>
+                  <v>0.0737217</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0711215</v>
+                  <v>0.0743284</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0718926</v>
+                  <v>0.07510169999999999</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0728032</v>
+                  <v>0.0759703</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.07412000000000001</v>
+                  <v>0.0768456</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.07561420000000001</v>
+                  <v>0.078163</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0777135</v>
+                  <v>0.08907039999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08079749999999999</v>
+                  <v>0.0824233</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0859578</v>
+                  <v>0.0859721</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0926965</v>
+                  <v>0.0888313</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0931657</v>
+                  <v>0.0893418</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.09363</v>
+                  <v>0.09014900000000001</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0942807</v>
+                  <v>0.0909683</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0949342</v>
+                  <v>0.091824</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0956124</v>
+                  <v>0.0928055</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09643110000000001</v>
+                  <v>0.0937335</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0974578</v>
+                  <v>0.0949487</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.09865409999999999</v>
+                  <v>0.0960443</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.099985</v>
+                  <v>0.1104</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.101915</v>
+                  <v>0.0990668</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.10417</v>
+                  <v>0.101151</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.107355</v>
+                  <v>0.103725</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.111855</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.119295</v>
+                  <v>0.11348</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.111174</v>
+                  <v>0.107438</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.113436</v>
+                  <v>0.108556</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.112627</v>
+                  <v>0.109643</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.113487</v>
+                  <v>0.110714</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.114491</v>
+                  <v>0.111891</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.116157</v>
+                  <v>0.113163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.116856</v>
+                  <v>0.114402</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.118562</v>
+                  <v>0.119551</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.120523</v>
+                  <v>0.117449</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.121962</v>
+                  <v>0.11945</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.124397</v>
+                  <v>0.121615</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.127842</v>
+                  <v>0.124506</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.14034</v>
+                  <v>0.128529</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.13989</v>
+                  <v>0.136396</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.123322</v>
+                  <v>0.118386</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.124097</v>
+                  <v>0.120885</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.124887</v>
+                  <v>0.121618</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.126237</v>
+                  <v>0.121781</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.12706</v>
+                  <v>0.123325</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.127951</v>
+                  <v>0.123784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.129431</v>
+                  <v>0.125183</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0207038</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0209254</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0210935</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0211706</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0212118</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0213994</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0221416</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0217383</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.021984</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0219441</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0222077</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0225074</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0225264</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0227424</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0228512</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.022922</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0231906</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0233755</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0238266</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0248271</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0279618</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0233915</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0234442</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0236222</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0237763</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0240463</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0242566</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0245442</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0247829</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0251674</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0255784</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0262318</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0271806</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0296471</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0340328</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0245842</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0247098</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0249816</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0251795</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0253233</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0256274</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0259189</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0261494</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.026656</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0272972</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0281227</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0297722</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0320114</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0359768</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0249922</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0251284</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0254049</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0255729</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0259531</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0261395</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0265401</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0270227</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0276978</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0284369</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0295769</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0313434</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0337604</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0372556</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.042835</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0265858</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0269848</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0272039</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0274478</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0278812</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0281991</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0287265</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0295737</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0303666</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0315994</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0332608</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0355532</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.038887</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0440891</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0335026</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0336411</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0340919</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0347245</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0350658</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.035695</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.036408</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0372398</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0382203</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0395911</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0413396</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0440599</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0478185</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531663</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0674756</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0678738</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.06835280000000001</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0688624</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.07131179999999999</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.07247720000000001</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0707691</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0715047</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0724716</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.07365339999999999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0752357</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.07733470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0805929</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.08521570000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.09318120000000001</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0937201</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0947561</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0946718</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0954238</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0960589</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.09680229999999999</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.09780510000000001</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0989189</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.100379</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.102046</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.104462</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.107403</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.123425</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.119466</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.111747</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.112366</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.113098</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.113718</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.114767</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.115834</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.117009</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.11837</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.120045</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.122017</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.124441</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.12801</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.132847</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.140151</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.123723</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.124728</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.125981</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.126212</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.127737</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.127931</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.129179</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115343</v>
+        <v>0.115037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1124</v>
+        <v>0.112385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132264</v>
+        <v>0.132202</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111662</v>
+        <v>0.110646</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108258</v>
+        <v>0.108485</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117413</v>
+        <v>0.11548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113794</v>
+        <v>0.117346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140166</v>
+        <v>0.140561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.111703</v>
+        <v>0.110985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108594</v>
+        <v>0.108591</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11836</v>
+        <v>0.1157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114901</v>
+        <v>0.130994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145885</v>
+        <v>0.147091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111979</v>
+        <v>0.111294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108931</v>
+        <v>0.108925</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.119749</v>
+        <v>0.117272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115948</v>
+        <v>0.125819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15404</v>
+        <v>0.15471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.112348</v>
+        <v>0.11164</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109252</v>
+        <v>0.109572</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121885</v>
+        <v>0.119556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.119015</v>
+        <v>0.134693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161647</v>
+        <v>0.161979</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112726</v>
+        <v>0.112001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.11013</v>
+        <v>0.110438</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124495</v>
+        <v>0.122497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.121341</v>
+        <v>0.130951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128221</v>
+        <v>0.12855</v>
       </c>
       <c r="E7" t="n">
-        <v>0.114457</v>
+        <v>0.113531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.110807</v>
+        <v>0.113401</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12995</v>
+        <v>0.128126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.126651</v>
+        <v>0.128863</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131748</v>
+        <v>0.131579</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11592</v>
+        <v>0.114879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.112853</v>
+        <v>0.113408</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139886</v>
+        <v>0.138351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136904</v>
+        <v>0.138106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135692</v>
+        <v>0.136506</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1166</v>
+        <v>0.115886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.111005</v>
+        <v>0.110451</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.131942</v>
+        <v>0.123823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.120367</v>
+        <v>0.116193</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140347</v>
+        <v>0.140166</v>
       </c>
       <c r="E10" t="n">
-        <v>0.11702</v>
+        <v>0.116279</v>
       </c>
       <c r="F10" t="n">
-        <v>0.113412</v>
+        <v>0.110308</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.133755</v>
+        <v>0.124224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.127276</v>
+        <v>0.123033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145203</v>
+        <v>0.145</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12345</v>
+        <v>0.116266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.112127</v>
+        <v>0.110571</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126083</v>
+        <v>0.124121</v>
       </c>
       <c r="C12" t="n">
-        <v>0.125068</v>
+        <v>0.121384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150312</v>
+        <v>0.150225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.119759</v>
+        <v>0.116496</v>
       </c>
       <c r="F12" t="n">
-        <v>0.111322</v>
+        <v>0.110604</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.133963</v>
+        <v>0.124529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.127014</v>
+        <v>0.12649</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156368</v>
+        <v>0.1554</v>
       </c>
       <c r="E13" t="n">
-        <v>0.117599</v>
+        <v>0.116611</v>
       </c>
       <c r="F13" t="n">
-        <v>0.111666</v>
+        <v>0.110812</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.140809</v>
+        <v>0.125389</v>
       </c>
       <c r="C14" t="n">
-        <v>0.128583</v>
+        <v>0.125974</v>
       </c>
       <c r="D14" t="n">
-        <v>0.161406</v>
+        <v>0.160975</v>
       </c>
       <c r="E14" t="n">
-        <v>0.118388</v>
+        <v>0.116912</v>
       </c>
       <c r="F14" t="n">
-        <v>0.112132</v>
+        <v>0.111843</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129301</v>
+        <v>0.126451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.123721</v>
+        <v>0.118536</v>
       </c>
       <c r="D15" t="n">
-        <v>0.168357</v>
+        <v>0.167213</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117755</v>
+        <v>0.117496</v>
       </c>
       <c r="F15" t="n">
-        <v>0.114229</v>
+        <v>0.112726</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128939</v>
+        <v>0.126418</v>
       </c>
       <c r="C16" t="n">
-        <v>0.126723</v>
+        <v>0.122334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174687</v>
+        <v>0.174097</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1187</v>
+        <v>0.119265</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111759</v>
+        <v>0.111142</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.138172</v>
+        <v>0.128231</v>
       </c>
       <c r="C17" t="n">
-        <v>0.130682</v>
+        <v>0.119919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.181072</v>
+        <v>0.180773</v>
       </c>
       <c r="E17" t="n">
-        <v>0.120237</v>
+        <v>0.117866</v>
       </c>
       <c r="F17" t="n">
-        <v>0.113708</v>
+        <v>0.117045</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138656</v>
+        <v>0.128972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.126475</v>
+        <v>0.123192</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186839</v>
+        <v>0.18609</v>
       </c>
       <c r="E18" t="n">
-        <v>0.121535</v>
+        <v>0.11803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11178</v>
+        <v>0.113129</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.140268</v>
+        <v>0.13102</v>
       </c>
       <c r="C19" t="n">
-        <v>0.129248</v>
+        <v>0.127615</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191355</v>
+        <v>0.191112</v>
       </c>
       <c r="E19" t="n">
-        <v>0.122842</v>
+        <v>0.118566</v>
       </c>
       <c r="F19" t="n">
-        <v>0.114924</v>
+        <v>0.113006</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.143839</v>
+        <v>0.136549</v>
       </c>
       <c r="C20" t="n">
-        <v>0.130554</v>
+        <v>0.13663</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197196</v>
+        <v>0.197288</v>
       </c>
       <c r="E20" t="n">
-        <v>0.122211</v>
+        <v>0.119595</v>
       </c>
       <c r="F20" t="n">
-        <v>0.114132</v>
+        <v>0.113409</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.142069</v>
+        <v>0.140753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.134728</v>
+        <v>0.144715</v>
       </c>
       <c r="D21" t="n">
-        <v>0.148716</v>
+        <v>0.149212</v>
       </c>
       <c r="E21" t="n">
-        <v>0.121107</v>
+        <v>0.120297</v>
       </c>
       <c r="F21" t="n">
-        <v>0.118111</v>
+        <v>0.115083</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.160802</v>
+        <v>0.148949</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167979</v>
+        <v>0.157841</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153482</v>
+        <v>0.153382</v>
       </c>
       <c r="E22" t="n">
-        <v>0.123929</v>
+        <v>0.124014</v>
       </c>
       <c r="F22" t="n">
-        <v>0.122168</v>
+        <v>0.120579</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165587</v>
+        <v>0.158428</v>
       </c>
       <c r="C23" t="n">
-        <v>0.154666</v>
+        <v>0.153103</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157452</v>
+        <v>0.157449</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125417</v>
+        <v>0.125102</v>
       </c>
       <c r="F23" t="n">
-        <v>0.119288</v>
+        <v>0.123882</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135316</v>
+        <v>0.134416</v>
       </c>
       <c r="C24" t="n">
-        <v>0.131175</v>
+        <v>0.130246</v>
       </c>
       <c r="D24" t="n">
-        <v>0.16345</v>
+        <v>0.164401</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125377</v>
+        <v>0.125609</v>
       </c>
       <c r="F24" t="n">
-        <v>0.122678</v>
+        <v>0.12095</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13489</v>
+        <v>0.134527</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12989</v>
+        <v>0.136332</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167242</v>
+        <v>0.167578</v>
       </c>
       <c r="E25" t="n">
-        <v>0.129912</v>
+        <v>0.125823</v>
       </c>
       <c r="F25" t="n">
-        <v>0.124273</v>
+        <v>0.124603</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.139056</v>
+        <v>0.136991</v>
       </c>
       <c r="C26" t="n">
-        <v>0.14258</v>
+        <v>0.128638</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171651</v>
+        <v>0.172177</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125781</v>
+        <v>0.125445</v>
       </c>
       <c r="F26" t="n">
-        <v>0.11949</v>
+        <v>0.121079</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137494</v>
+        <v>0.135245</v>
       </c>
       <c r="C27" t="n">
-        <v>0.128656</v>
+        <v>0.129319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177072</v>
+        <v>0.177281</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125805</v>
+        <v>0.125721</v>
       </c>
       <c r="F27" t="n">
-        <v>0.12756</v>
+        <v>0.126953</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136167</v>
+        <v>0.135775</v>
       </c>
       <c r="C28" t="n">
-        <v>0.131031</v>
+        <v>0.137318</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182273</v>
+        <v>0.181593</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126058</v>
+        <v>0.126021</v>
       </c>
       <c r="F28" t="n">
-        <v>0.126854</v>
+        <v>0.120698</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136891</v>
+        <v>0.135975</v>
       </c>
       <c r="C29" t="n">
-        <v>0.144404</v>
+        <v>0.129497</v>
       </c>
       <c r="D29" t="n">
-        <v>0.189301</v>
+        <v>0.187832</v>
       </c>
       <c r="E29" t="n">
-        <v>0.126805</v>
+        <v>0.125998</v>
       </c>
       <c r="F29" t="n">
-        <v>0.124878</v>
+        <v>0.132558</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.140224</v>
+        <v>0.137785</v>
       </c>
       <c r="C30" t="n">
-        <v>0.134873</v>
+        <v>0.139544</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192363</v>
+        <v>0.192284</v>
       </c>
       <c r="E30" t="n">
-        <v>0.127504</v>
+        <v>0.126167</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122353</v>
+        <v>0.122809</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139248</v>
+        <v>0.139343</v>
       </c>
       <c r="C31" t="n">
-        <v>0.141924</v>
+        <v>0.140719</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197768</v>
+        <v>0.197419</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127478</v>
+        <v>0.127032</v>
       </c>
       <c r="F31" t="n">
-        <v>0.122569</v>
+        <v>0.127203</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142665</v>
+        <v>0.141446</v>
       </c>
       <c r="C32" t="n">
-        <v>0.138513</v>
+        <v>0.13703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204072</v>
+        <v>0.203893</v>
       </c>
       <c r="E32" t="n">
-        <v>0.126793</v>
+        <v>0.128425</v>
       </c>
       <c r="F32" t="n">
-        <v>0.126133</v>
+        <v>0.121644</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144048</v>
+        <v>0.144574</v>
       </c>
       <c r="C33" t="n">
-        <v>0.146712</v>
+        <v>0.145112</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210265</v>
+        <v>0.209929</v>
       </c>
       <c r="E33" t="n">
-        <v>0.128144</v>
+        <v>0.127605</v>
       </c>
       <c r="F33" t="n">
-        <v>0.124164</v>
+        <v>0.12507</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147774</v>
+        <v>0.147722</v>
       </c>
       <c r="C34" t="n">
-        <v>0.145535</v>
+        <v>0.152363</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21454</v>
+        <v>0.213633</v>
       </c>
       <c r="E34" t="n">
-        <v>0.131998</v>
+        <v>0.129797</v>
       </c>
       <c r="F34" t="n">
-        <v>0.123749</v>
+        <v>0.12303</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152357</v>
+        <v>0.153516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.155725</v>
+        <v>0.148261</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165655</v>
+        <v>0.165454</v>
       </c>
       <c r="E35" t="n">
-        <v>0.135568</v>
+        <v>0.133756</v>
       </c>
       <c r="F35" t="n">
-        <v>0.13439</v>
+        <v>0.131586</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.166961</v>
+        <v>0.159244</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169035</v>
+        <v>0.156009</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169316</v>
+        <v>0.169511</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141188</v>
+        <v>0.141235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.13849</v>
+        <v>0.142288</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168085</v>
+        <v>0.167043</v>
       </c>
       <c r="C37" t="n">
-        <v>0.186351</v>
+        <v>0.17953</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173184</v>
+        <v>0.173433</v>
       </c>
       <c r="E37" t="n">
-        <v>0.13778</v>
+        <v>0.137058</v>
       </c>
       <c r="F37" t="n">
-        <v>0.137717</v>
+        <v>0.141315</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148821</v>
+        <v>0.147371</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146496</v>
+        <v>0.146231</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178</v>
+        <v>0.177846</v>
       </c>
       <c r="E38" t="n">
-        <v>0.137303</v>
+        <v>0.134325</v>
       </c>
       <c r="F38" t="n">
-        <v>0.137922</v>
+        <v>0.141125</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14681</v>
+        <v>0.148256</v>
       </c>
       <c r="C39" t="n">
-        <v>0.154917</v>
+        <v>0.148246</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182276</v>
+        <v>0.183138</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137994</v>
+        <v>0.137829</v>
       </c>
       <c r="F39" t="n">
-        <v>0.138412</v>
+        <v>0.139794</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149068</v>
+        <v>0.147428</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14856</v>
+        <v>0.14695</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186504</v>
+        <v>0.186485</v>
       </c>
       <c r="E40" t="n">
-        <v>0.136791</v>
+        <v>0.137731</v>
       </c>
       <c r="F40" t="n">
-        <v>0.140379</v>
+        <v>0.139928</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148976</v>
+        <v>0.147427</v>
       </c>
       <c r="C41" t="n">
-        <v>0.14886</v>
+        <v>0.146466</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191721</v>
+        <v>0.191535</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138003</v>
+        <v>0.138055</v>
       </c>
       <c r="F41" t="n">
-        <v>0.14481</v>
+        <v>0.141192</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.150335</v>
+        <v>0.148914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152416</v>
+        <v>0.152833</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196339</v>
+        <v>0.196337</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139117</v>
+        <v>0.139492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.146894</v>
+        <v>0.143322</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150237</v>
+        <v>0.150923</v>
       </c>
       <c r="C43" t="n">
-        <v>0.150697</v>
+        <v>0.14999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20187</v>
+        <v>0.20111</v>
       </c>
       <c r="E43" t="n">
-        <v>0.141074</v>
+        <v>0.138108</v>
       </c>
       <c r="F43" t="n">
-        <v>0.144863</v>
+        <v>0.14266</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150627</v>
+        <v>0.151062</v>
       </c>
       <c r="C44" t="n">
-        <v>0.158882</v>
+        <v>0.154139</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206268</v>
+        <v>0.206205</v>
       </c>
       <c r="E44" t="n">
-        <v>0.139368</v>
+        <v>0.138629</v>
       </c>
       <c r="F44" t="n">
-        <v>0.140104</v>
+        <v>0.139821</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.156009</v>
+        <v>0.152738</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152873</v>
+        <v>0.152699</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212378</v>
+        <v>0.211492</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138922</v>
+        <v>0.138178</v>
       </c>
       <c r="F45" t="n">
-        <v>0.140872</v>
+        <v>0.13939</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155444</v>
+        <v>0.155041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.16483</v>
+        <v>0.153992</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216925</v>
+        <v>0.216572</v>
       </c>
       <c r="E46" t="n">
-        <v>0.142127</v>
+        <v>0.139362</v>
       </c>
       <c r="F46" t="n">
-        <v>0.14425</v>
+        <v>0.151294</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158508</v>
+        <v>0.158835</v>
       </c>
       <c r="C47" t="n">
-        <v>0.165027</v>
+        <v>0.157755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22261</v>
+        <v>0.222227</v>
       </c>
       <c r="E47" t="n">
-        <v>0.140436</v>
+        <v>0.14155</v>
       </c>
       <c r="F47" t="n">
-        <v>0.147725</v>
+        <v>0.14645</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.15982</v>
+        <v>0.160836</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160515</v>
+        <v>0.161785</v>
       </c>
       <c r="D48" t="n">
-        <v>0.226883</v>
+        <v>0.227282</v>
       </c>
       <c r="E48" t="n">
-        <v>0.145054</v>
+        <v>0.144632</v>
       </c>
       <c r="F48" t="n">
-        <v>0.146759</v>
+        <v>0.148715</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164938</v>
+        <v>0.164489</v>
       </c>
       <c r="C49" t="n">
-        <v>0.173255</v>
+        <v>0.17315</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232316</v>
+        <v>0.231843</v>
       </c>
       <c r="E49" t="n">
-        <v>0.148106</v>
+        <v>0.151551</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148226</v>
+        <v>0.149551</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169905</v>
+        <v>0.169504</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169481</v>
+        <v>0.174235</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171313</v>
+        <v>0.171388</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153714</v>
+        <v>0.153825</v>
       </c>
       <c r="F50" t="n">
-        <v>0.157667</v>
+        <v>0.154973</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.178223</v>
+        <v>0.177274</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198786</v>
+        <v>0.183341</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175294</v>
+        <v>0.174994</v>
       </c>
       <c r="E51" t="n">
-        <v>0.150853</v>
+        <v>0.151302</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152636</v>
+        <v>0.152244</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.197069</v>
+        <v>0.186953</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194004</v>
+        <v>0.188645</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179134</v>
+        <v>0.17883</v>
       </c>
       <c r="E52" t="n">
-        <v>0.151149</v>
+        <v>0.150459</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153953</v>
+        <v>0.153242</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160292</v>
+        <v>0.159398</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166617</v>
+        <v>0.175918</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183392</v>
+        <v>0.18323</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150955</v>
+        <v>0.150823</v>
       </c>
       <c r="F53" t="n">
-        <v>0.160396</v>
+        <v>0.153526</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160836</v>
+        <v>0.160516</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1662</v>
+        <v>0.169102</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187148</v>
+        <v>0.187037</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150585</v>
+        <v>0.150782</v>
       </c>
       <c r="F54" t="n">
-        <v>0.160299</v>
+        <v>0.156409</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160549</v>
+        <v>0.160734</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167842</v>
+        <v>0.167338</v>
       </c>
       <c r="D55" t="n">
-        <v>0.191677</v>
+        <v>0.192448</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151389</v>
+        <v>0.151474</v>
       </c>
       <c r="F55" t="n">
-        <v>0.157308</v>
+        <v>0.155198</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.16147</v>
+        <v>0.162178</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167272</v>
+        <v>0.167695</v>
       </c>
       <c r="D56" t="n">
-        <v>0.196586</v>
+        <v>0.19737</v>
       </c>
       <c r="E56" t="n">
-        <v>0.157622</v>
+        <v>0.152625</v>
       </c>
       <c r="F56" t="n">
-        <v>0.155799</v>
+        <v>0.154512</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162972</v>
+        <v>0.162296</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169395</v>
+        <v>0.169685</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202082</v>
+        <v>0.201898</v>
       </c>
       <c r="E57" t="n">
-        <v>0.161728</v>
+        <v>0.151315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.154383</v>
+        <v>0.155865</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164619</v>
+        <v>0.163847</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17055</v>
+        <v>0.170634</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207212</v>
+        <v>0.207534</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152107</v>
+        <v>0.152563</v>
       </c>
       <c r="F58" t="n">
-        <v>0.155901</v>
+        <v>0.156195</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165513</v>
+        <v>0.165132</v>
       </c>
       <c r="C59" t="n">
-        <v>0.171746</v>
+        <v>0.18085</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212735</v>
+        <v>0.212167</v>
       </c>
       <c r="E59" t="n">
-        <v>0.154035</v>
+        <v>0.152623</v>
       </c>
       <c r="F59" t="n">
-        <v>0.155518</v>
+        <v>0.156024</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166683</v>
+        <v>0.167057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173996</v>
+        <v>0.174066</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217198</v>
+        <v>0.21785</v>
       </c>
       <c r="E60" t="n">
-        <v>0.155364</v>
+        <v>0.15421</v>
       </c>
       <c r="F60" t="n">
-        <v>0.16398</v>
+        <v>0.163263</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169398</v>
+        <v>0.169253</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177353</v>
+        <v>0.183956</v>
       </c>
       <c r="D61" t="n">
-        <v>0.22264</v>
+        <v>0.222902</v>
       </c>
       <c r="E61" t="n">
-        <v>0.156101</v>
+        <v>0.155271</v>
       </c>
       <c r="F61" t="n">
-        <v>0.160115</v>
+        <v>0.16021</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173103</v>
+        <v>0.173022</v>
       </c>
       <c r="C62" t="n">
-        <v>0.179442</v>
+        <v>0.188518</v>
       </c>
       <c r="D62" t="n">
-        <v>0.227911</v>
+        <v>0.228409</v>
       </c>
       <c r="E62" t="n">
-        <v>0.158425</v>
+        <v>0.15837</v>
       </c>
       <c r="F62" t="n">
-        <v>0.167943</v>
+        <v>0.164974</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.174627</v>
+        <v>0.175717</v>
       </c>
       <c r="C63" t="n">
-        <v>0.181719</v>
+        <v>0.183423</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232945</v>
+        <v>0.232737</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161489</v>
+        <v>0.161351</v>
       </c>
       <c r="F63" t="n">
-        <v>0.16692</v>
+        <v>0.172965</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180182</v>
+        <v>0.185641</v>
       </c>
       <c r="C64" t="n">
-        <v>0.193186</v>
+        <v>0.189136</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176994</v>
+        <v>0.177194</v>
       </c>
       <c r="E64" t="n">
-        <v>0.166474</v>
+        <v>0.166107</v>
       </c>
       <c r="F64" t="n">
-        <v>0.171474</v>
+        <v>0.169264</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187162</v>
+        <v>0.187332</v>
       </c>
       <c r="C65" t="n">
-        <v>0.19549</v>
+        <v>0.204619</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180954</v>
+        <v>0.181002</v>
       </c>
       <c r="E65" t="n">
-        <v>0.173397</v>
+        <v>0.172243</v>
       </c>
       <c r="F65" t="n">
-        <v>0.185323</v>
+        <v>0.181677</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.195393</v>
+        <v>0.204972</v>
       </c>
       <c r="C66" t="n">
-        <v>0.204984</v>
+        <v>0.207048</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186021</v>
+        <v>0.18597</v>
       </c>
       <c r="E66" t="n">
-        <v>0.161292</v>
+        <v>0.162309</v>
       </c>
       <c r="F66" t="n">
-        <v>0.163595</v>
+        <v>0.162995</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.182184</v>
+        <v>0.179288</v>
       </c>
       <c r="C67" t="n">
-        <v>0.17458</v>
+        <v>0.174452</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190887</v>
+        <v>0.190921</v>
       </c>
       <c r="E67" t="n">
         <v>0.161715</v>
       </c>
       <c r="F67" t="n">
-        <v>0.166951</v>
+        <v>0.163886</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.182344</v>
+        <v>0.179988</v>
       </c>
       <c r="C68" t="n">
-        <v>0.17501</v>
+        <v>0.18115</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197334</v>
+        <v>0.197924</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162328</v>
+        <v>0.162342</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162339</v>
+        <v>0.162345</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.183291</v>
+        <v>0.180708</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1756</v>
+        <v>0.175804</v>
       </c>
       <c r="D69" t="n">
-        <v>0.202702</v>
+        <v>0.203869</v>
       </c>
       <c r="E69" t="n">
-        <v>0.16312</v>
+        <v>0.162164</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164614</v>
+        <v>0.164405</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.183642</v>
+        <v>0.187122</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176895</v>
+        <v>0.182459</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211199</v>
+        <v>0.209987</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163222</v>
+        <v>0.163726</v>
       </c>
       <c r="F70" t="n">
-        <v>0.16513</v>
+        <v>0.16507</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.186763</v>
+        <v>0.1841</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17702</v>
+        <v>0.177866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.216746</v>
+        <v>0.217078</v>
       </c>
       <c r="E71" t="n">
-        <v>0.164195</v>
+        <v>0.163898</v>
       </c>
       <c r="F71" t="n">
-        <v>0.166047</v>
+        <v>0.16632</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183466</v>
+        <v>0.185654</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178238</v>
+        <v>0.178573</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225146</v>
+        <v>0.224598</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164451</v>
+        <v>0.164093</v>
       </c>
       <c r="F72" t="n">
-        <v>0.175095</v>
+        <v>0.166749</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.188033</v>
+        <v>0.18599</v>
       </c>
       <c r="C73" t="n">
-        <v>0.180115</v>
+        <v>0.179914</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232195</v>
+        <v>0.232906</v>
       </c>
       <c r="E73" t="n">
-        <v>0.165021</v>
+        <v>0.16475</v>
       </c>
       <c r="F73" t="n">
-        <v>0.167923</v>
+        <v>0.169657</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.187001</v>
+        <v>0.188697</v>
       </c>
       <c r="C74" t="n">
-        <v>0.181935</v>
+        <v>0.183457</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242177</v>
+        <v>0.242872</v>
       </c>
       <c r="E74" t="n">
-        <v>0.169073</v>
+        <v>0.166195</v>
       </c>
       <c r="F74" t="n">
-        <v>0.170234</v>
+        <v>0.177223</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.188849</v>
+        <v>0.187285</v>
       </c>
       <c r="C75" t="n">
-        <v>0.189175</v>
+        <v>0.193246</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251565</v>
+        <v>0.250605</v>
       </c>
       <c r="E75" t="n">
-        <v>0.168153</v>
+        <v>0.169566</v>
       </c>
       <c r="F75" t="n">
-        <v>0.173119</v>
+        <v>0.172666</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.191197</v>
+        <v>0.19289</v>
       </c>
       <c r="C76" t="n">
-        <v>0.187445</v>
+        <v>0.187874</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261544</v>
+        <v>0.261741</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169993</v>
+        <v>0.169423</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173381</v>
+        <v>0.173509</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198122</v>
+        <v>0.202239</v>
       </c>
       <c r="C77" t="n">
-        <v>0.19135</v>
+        <v>0.192436</v>
       </c>
       <c r="D77" t="n">
-        <v>0.272987</v>
+        <v>0.271563</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17314</v>
+        <v>0.17216</v>
       </c>
       <c r="F77" t="n">
-        <v>0.176693</v>
+        <v>0.179506</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.205989</v>
+        <v>0.201953</v>
       </c>
       <c r="C78" t="n">
-        <v>0.196266</v>
+        <v>0.206365</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224111</v>
+        <v>0.224349</v>
       </c>
       <c r="E78" t="n">
-        <v>0.176714</v>
+        <v>0.175893</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181306</v>
+        <v>0.181452</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.210929</v>
+        <v>0.206564</v>
       </c>
       <c r="C79" t="n">
-        <v>0.209517</v>
+        <v>0.202976</v>
       </c>
       <c r="D79" t="n">
-        <v>0.236283</v>
+        <v>0.23526</v>
       </c>
       <c r="E79" t="n">
-        <v>0.184204</v>
+        <v>0.188273</v>
       </c>
       <c r="F79" t="n">
-        <v>0.189951</v>
+        <v>0.189043</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.21566</v>
+        <v>0.213196</v>
       </c>
       <c r="C80" t="n">
-        <v>0.218168</v>
+        <v>0.215067</v>
       </c>
       <c r="D80" t="n">
-        <v>0.244804</v>
+        <v>0.243333</v>
       </c>
       <c r="E80" t="n">
-        <v>0.240715</v>
+        <v>0.241946</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174935</v>
+        <v>0.174482</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358545</v>
+        <v>0.362828</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181678</v>
+        <v>0.181105</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25714</v>
+        <v>0.257664</v>
       </c>
       <c r="E81" t="n">
-        <v>0.240272</v>
+        <v>0.244272</v>
       </c>
       <c r="F81" t="n">
-        <v>0.175275</v>
+        <v>0.175575</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.355761</v>
+        <v>0.362371</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183467</v>
+        <v>0.188687</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271099</v>
+        <v>0.271982</v>
       </c>
       <c r="E82" t="n">
-        <v>0.240636</v>
+        <v>0.24163</v>
       </c>
       <c r="F82" t="n">
-        <v>0.183536</v>
+        <v>0.176245</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.356587</v>
+        <v>0.366156</v>
       </c>
       <c r="C83" t="n">
-        <v>0.183408</v>
+        <v>0.184775</v>
       </c>
       <c r="D83" t="n">
-        <v>0.285271</v>
+        <v>0.284397</v>
       </c>
       <c r="E83" t="n">
-        <v>0.240641</v>
+        <v>0.242312</v>
       </c>
       <c r="F83" t="n">
-        <v>0.177414</v>
+        <v>0.17702</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.360308</v>
+        <v>0.364028</v>
       </c>
       <c r="C84" t="n">
-        <v>0.190047</v>
+        <v>0.184774</v>
       </c>
       <c r="D84" t="n">
-        <v>0.299013</v>
+        <v>0.298869</v>
       </c>
       <c r="E84" t="n">
-        <v>0.242264</v>
+        <v>0.242725</v>
       </c>
       <c r="F84" t="n">
-        <v>0.180503</v>
+        <v>0.178291</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.365395</v>
+        <v>0.363927</v>
       </c>
       <c r="C85" t="n">
-        <v>0.186388</v>
+        <v>0.18724</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313869</v>
+        <v>0.313746</v>
       </c>
       <c r="E85" t="n">
-        <v>0.242018</v>
+        <v>0.241648</v>
       </c>
       <c r="F85" t="n">
-        <v>0.181102</v>
+        <v>0.180589</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.365531</v>
+        <v>0.363563</v>
       </c>
       <c r="C86" t="n">
-        <v>0.189278</v>
+        <v>0.186806</v>
       </c>
       <c r="D86" t="n">
-        <v>0.329159</v>
+        <v>0.328828</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2406</v>
+        <v>0.24203</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181309</v>
+        <v>0.181104</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.362298</v>
+        <v>0.366219</v>
       </c>
       <c r="C87" t="n">
-        <v>0.190555</v>
+        <v>0.188687</v>
       </c>
       <c r="D87" t="n">
-        <v>0.344554</v>
+        <v>0.343653</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24044</v>
+        <v>0.24131</v>
       </c>
       <c r="F87" t="n">
-        <v>0.184126</v>
+        <v>0.183364</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369096</v>
+        <v>0.369752</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191756</v>
+        <v>0.191245</v>
       </c>
       <c r="D88" t="n">
-        <v>0.359874</v>
+        <v>0.360016</v>
       </c>
       <c r="E88" t="n">
-        <v>0.238571</v>
+        <v>0.242178</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18599</v>
+        <v>0.18603</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.367012</v>
+        <v>0.36975</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194639</v>
+        <v>0.194319</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375547</v>
+        <v>0.375678</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237705</v>
+        <v>0.237983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.190571</v>
+        <v>0.187499</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.369398</v>
+        <v>0.372034</v>
       </c>
       <c r="C90" t="n">
-        <v>0.200038</v>
+        <v>0.198879</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392963</v>
+        <v>0.392876</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237621</v>
+        <v>0.241161</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191569</v>
+        <v>0.191212</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.373872</v>
+        <v>0.37372</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20332</v>
+        <v>0.202506</v>
       </c>
       <c r="D91" t="n">
-        <v>0.407524</v>
+        <v>0.40756</v>
       </c>
       <c r="E91" t="n">
-        <v>0.239487</v>
+        <v>0.23791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.19537</v>
+        <v>0.194593</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.373892</v>
+        <v>0.376719</v>
       </c>
       <c r="C92" t="n">
-        <v>0.209137</v>
+        <v>0.208999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356852</v>
+        <v>0.358165</v>
       </c>
       <c r="E92" t="n">
-        <v>0.239239</v>
+        <v>0.240837</v>
       </c>
       <c r="F92" t="n">
-        <v>0.201491</v>
+        <v>0.202382</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.378424</v>
+        <v>0.381148</v>
       </c>
       <c r="C93" t="n">
-        <v>0.216723</v>
+        <v>0.215895</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36976</v>
+        <v>0.367928</v>
       </c>
       <c r="E93" t="n">
-        <v>0.250347</v>
+        <v>0.243188</v>
       </c>
       <c r="F93" t="n">
-        <v>0.214334</v>
+        <v>0.209147</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.384822</v>
+        <v>0.387318</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229699</v>
+        <v>0.229252</v>
       </c>
       <c r="D94" t="n">
-        <v>0.37853</v>
+        <v>0.378156</v>
       </c>
       <c r="E94" t="n">
-        <v>0.399892</v>
+        <v>0.398785</v>
       </c>
       <c r="F94" t="n">
-        <v>0.275522</v>
+        <v>0.270785</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.528442</v>
+        <v>0.525778</v>
       </c>
       <c r="C95" t="n">
-        <v>0.30165</v>
+        <v>0.297152</v>
       </c>
       <c r="D95" t="n">
-        <v>0.396122</v>
+        <v>0.394996</v>
       </c>
       <c r="E95" t="n">
-        <v>0.399139</v>
+        <v>0.397735</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270549</v>
+        <v>0.270985</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.528623</v>
+        <v>0.525817</v>
       </c>
       <c r="C96" t="n">
-        <v>0.29314</v>
+        <v>0.295936</v>
       </c>
       <c r="D96" t="n">
-        <v>0.407535</v>
+        <v>0.408013</v>
       </c>
       <c r="E96" t="n">
-        <v>0.399412</v>
+        <v>0.398402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.272448</v>
+        <v>0.274198</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.528954</v>
+        <v>0.5261940000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.293201</v>
+        <v>0.299625</v>
       </c>
       <c r="D97" t="n">
-        <v>0.421334</v>
+        <v>0.419721</v>
       </c>
       <c r="E97" t="n">
-        <v>0.399532</v>
+        <v>0.397559</v>
       </c>
       <c r="F97" t="n">
-        <v>0.268193</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.530217</v>
+        <v>0.526448</v>
       </c>
       <c r="C98" t="n">
-        <v>0.302981</v>
+        <v>0.295845</v>
       </c>
       <c r="D98" t="n">
-        <v>0.439458</v>
+        <v>0.435573</v>
       </c>
       <c r="E98" t="n">
-        <v>0.399089</v>
+        <v>0.397483</v>
       </c>
       <c r="F98" t="n">
-        <v>0.272414</v>
+        <v>0.27241</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.529215</v>
+        <v>0.526191</v>
       </c>
       <c r="C99" t="n">
-        <v>0.300032</v>
+        <v>0.300638</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449343</v>
+        <v>0.449081</v>
       </c>
       <c r="E99" t="n">
-        <v>0.399654</v>
+        <v>0.396962</v>
       </c>
       <c r="F99" t="n">
-        <v>0.274898</v>
+        <v>0.278921</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.531362</v>
+        <v>0.5286380000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>0.295417</v>
+        <v>0.29961</v>
       </c>
       <c r="D100" t="n">
-        <v>0.462904</v>
+        <v>0.464069</v>
       </c>
       <c r="E100" t="n">
-        <v>0.398826</v>
+        <v>0.396061</v>
       </c>
       <c r="F100" t="n">
-        <v>0.276427</v>
+        <v>0.279136</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5323059999999999</v>
+        <v>0.5286960000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.299934</v>
+        <v>0.300164</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476479</v>
+        <v>0.477234</v>
       </c>
       <c r="E101" t="n">
-        <v>0.399517</v>
+        <v>0.395577</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278938</v>
+        <v>0.278982</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.533654</v>
+        <v>0.529663</v>
       </c>
       <c r="C102" t="n">
-        <v>0.305728</v>
+        <v>0.302656</v>
       </c>
       <c r="D102" t="n">
-        <v>0.497022</v>
+        <v>0.495379</v>
       </c>
       <c r="E102" t="n">
-        <v>0.398638</v>
+        <v>0.397212</v>
       </c>
       <c r="F102" t="n">
-        <v>0.282745</v>
+        <v>0.279839</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.535184</v>
+        <v>0.530756</v>
       </c>
       <c r="C103" t="n">
-        <v>0.304769</v>
+        <v>0.308322</v>
       </c>
       <c r="D103" t="n">
-        <v>0.516025</v>
+        <v>0.512506</v>
       </c>
       <c r="E103" t="n">
-        <v>0.398651</v>
+        <v>0.39774</v>
       </c>
       <c r="F103" t="n">
-        <v>0.284718</v>
+        <v>0.286833</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.537602</v>
+        <v>0.533928</v>
       </c>
       <c r="C104" t="n">
-        <v>0.308662</v>
+        <v>0.310948</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5294180000000001</v>
+        <v>0.527523</v>
       </c>
       <c r="E104" t="n">
-        <v>0.401615</v>
+        <v>0.398488</v>
       </c>
       <c r="F104" t="n">
-        <v>0.287885</v>
+        <v>0.282561</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539762</v>
+        <v>0.537833</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316874</v>
+        <v>0.310439</v>
       </c>
       <c r="D105" t="n">
-        <v>0.546193</v>
+        <v>0.544058</v>
       </c>
       <c r="E105" t="n">
-        <v>0.403927</v>
+        <v>0.402138</v>
       </c>
       <c r="F105" t="n">
-        <v>0.290859</v>
+        <v>0.292772</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5442129999999999</v>
+        <v>0.540838</v>
       </c>
       <c r="C106" t="n">
-        <v>0.322278</v>
+        <v>0.321713</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5645250000000001</v>
+        <v>0.563991</v>
       </c>
       <c r="E106" t="n">
-        <v>0.407205</v>
+        <v>0.4048</v>
       </c>
       <c r="F106" t="n">
-        <v>0.296764</v>
+        <v>0.294313</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.550243</v>
+        <v>0.546463</v>
       </c>
       <c r="C107" t="n">
-        <v>0.327846</v>
+        <v>0.328601</v>
       </c>
       <c r="D107" t="n">
-        <v>0.531543</v>
+        <v>0.52832</v>
       </c>
       <c r="E107" t="n">
-        <v>0.413841</v>
+        <v>0.41013</v>
       </c>
       <c r="F107" t="n">
-        <v>0.300804</v>
+        <v>0.298938</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.557638</v>
+        <v>0.553751</v>
       </c>
       <c r="C108" t="n">
-        <v>0.337983</v>
+        <v>0.334467</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54477</v>
+        <v>0.54216</v>
       </c>
       <c r="E108" t="n">
-        <v>0.531967</v>
+        <v>0.533094</v>
       </c>
       <c r="F108" t="n">
-        <v>0.496654</v>
+        <v>0.492495</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.567836</v>
+        <v>0.565084</v>
       </c>
       <c r="C109" t="n">
-        <v>0.350459</v>
+        <v>0.351107</v>
       </c>
       <c r="D109" t="n">
-        <v>0.552307</v>
+        <v>0.548195</v>
       </c>
       <c r="E109" t="n">
-        <v>0.53407</v>
+        <v>0.531732</v>
       </c>
       <c r="F109" t="n">
-        <v>0.495358</v>
+        <v>0.495739</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.60329</v>
+        <v>0.602454</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5294450000000001</v>
+        <v>0.5231789999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.566673</v>
+        <v>0.5636949999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5338580000000001</v>
+        <v>0.532884</v>
       </c>
       <c r="F110" t="n">
-        <v>0.497373</v>
+        <v>0.493992</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.603651</v>
+        <v>0.602272</v>
       </c>
       <c r="C111" t="n">
-        <v>0.529142</v>
+        <v>0.528342</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5796750000000001</v>
+        <v>0.575986</v>
       </c>
       <c r="E111" t="n">
-        <v>0.535815</v>
+        <v>0.534311</v>
       </c>
       <c r="F111" t="n">
-        <v>0.499886</v>
+        <v>0.4953</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.606446</v>
+        <v>0.602342</v>
       </c>
       <c r="C112" t="n">
-        <v>0.526726</v>
+        <v>0.52717</v>
       </c>
       <c r="D112" t="n">
-        <v>0.590372</v>
+        <v>0.587359</v>
       </c>
       <c r="E112" t="n">
-        <v>0.536061</v>
+        <v>0.535184</v>
       </c>
       <c r="F112" t="n">
-        <v>0.499225</v>
+        <v>0.497898</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607952</v>
+        <v>0.607206</v>
       </c>
       <c r="C113" t="n">
-        <v>0.530757</v>
+        <v>0.525103</v>
       </c>
       <c r="D113" t="n">
-        <v>0.606866</v>
+        <v>0.60295</v>
       </c>
       <c r="E113" t="n">
-        <v>0.536338</v>
+        <v>0.535658</v>
       </c>
       <c r="F113" t="n">
-        <v>0.501072</v>
+        <v>0.49861</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608349</v>
+        <v>0.608392</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5326610000000001</v>
+        <v>0.528474</v>
       </c>
       <c r="D114" t="n">
-        <v>0.618855</v>
+        <v>0.617445</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5353329999999999</v>
+        <v>0.533491</v>
       </c>
       <c r="F114" t="n">
-        <v>0.500256</v>
+        <v>0.497215</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.609839</v>
+        <v>0.608824</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5343329999999999</v>
+        <v>0.529053</v>
       </c>
       <c r="D115" t="n">
-        <v>0.635119</v>
+        <v>0.634076</v>
       </c>
       <c r="E115" t="n">
-        <v>0.536393</v>
+        <v>0.536362</v>
       </c>
       <c r="F115" t="n">
-        <v>0.505198</v>
+        <v>0.500038</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.611264</v>
+        <v>0.608325</v>
       </c>
       <c r="C116" t="n">
-        <v>0.535511</v>
+        <v>0.533856</v>
       </c>
       <c r="D116" t="n">
-        <v>0.65021</v>
+        <v>0.646172</v>
       </c>
       <c r="E116" t="n">
-        <v>0.537584</v>
+        <v>0.536752</v>
       </c>
       <c r="F116" t="n">
-        <v>0.505331</v>
+        <v>0.501494</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.610745</v>
+        <v>0.60925</v>
       </c>
       <c r="C117" t="n">
-        <v>0.538268</v>
+        <v>0.536388</v>
       </c>
       <c r="D117" t="n">
-        <v>0.670901</v>
+        <v>0.667424</v>
       </c>
       <c r="E117" t="n">
-        <v>0.541619</v>
+        <v>0.538861</v>
       </c>
       <c r="F117" t="n">
-        <v>0.506884</v>
+        <v>0.505754</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.614995</v>
+        <v>0.613963</v>
       </c>
       <c r="C118" t="n">
-        <v>0.539664</v>
+        <v>0.540439</v>
       </c>
       <c r="D118" t="n">
-        <v>0.679988</v>
+        <v>0.676881</v>
       </c>
       <c r="E118" t="n">
-        <v>0.542758</v>
+        <v>0.541365</v>
       </c>
       <c r="F118" t="n">
-        <v>0.510704</v>
+        <v>0.508664</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6211179999999999</v>
+        <v>0.621978</v>
       </c>
       <c r="C119" t="n">
-        <v>0.545919</v>
+        <v>0.542264</v>
       </c>
       <c r="D119" t="n">
-        <v>0.701501</v>
+        <v>0.6968760000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.547405</v>
+        <v>0.545705</v>
       </c>
       <c r="F119" t="n">
-        <v>0.512006</v>
+        <v>0.508023</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.6255039999999999</v>
+        <v>0.625772</v>
       </c>
       <c r="C120" t="n">
-        <v>0.553397</v>
+        <v>0.548561</v>
       </c>
       <c r="D120" t="n">
-        <v>0.721862</v>
+        <v>0.718041</v>
       </c>
       <c r="E120" t="n">
-        <v>0.550146</v>
+        <v>0.547894</v>
       </c>
       <c r="F120" t="n">
-        <v>0.518308</v>
+        <v>0.5137119999999999</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.630548</v>
+        <v>0.6288629999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558403</v>
+        <v>0.5563</v>
       </c>
       <c r="D121" t="n">
-        <v>0.636381</v>
+        <v>0.63346</v>
       </c>
       <c r="E121" t="n">
-        <v>0.555489</v>
+        <v>0.553897</v>
       </c>
       <c r="F121" t="n">
-        <v>0.522166</v>
+        <v>0.520931</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.639411</v>
+        <v>0.637761</v>
       </c>
       <c r="C122" t="n">
-        <v>0.56564</v>
+        <v>0.572779</v>
       </c>
       <c r="D122" t="n">
-        <v>0.646703</v>
+        <v>0.6447040000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.564808</v>
+        <v>0.562763</v>
       </c>
       <c r="F122" t="n">
-        <v>0.534695</v>
+        <v>0.5308929999999999</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.653017</v>
+        <v>0.64929</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5842349999999999</v>
+        <v>0.580387</v>
       </c>
       <c r="D123" t="n">
-        <v>0.660509</v>
+        <v>0.6573329999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.693663</v>
+        <v>0.69092</v>
       </c>
       <c r="F123" t="n">
-        <v>0.708797</v>
+        <v>0.7046480000000001</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.740502</v>
+        <v>0.739303</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7395890000000001</v>
+        <v>0.732291</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673281</v>
+        <v>0.6695179999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.692434</v>
+        <v>0.689592</v>
       </c>
       <c r="F124" t="n">
-        <v>0.708689</v>
+        <v>0.706144</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.74161</v>
+        <v>0.740434</v>
       </c>
       <c r="C125" t="n">
-        <v>0.737616</v>
+        <v>0.733552</v>
       </c>
       <c r="D125" t="n">
-        <v>0.672637</v>
+        <v>0.680804</v>
       </c>
       <c r="E125" t="n">
-        <v>0.692764</v>
+        <v>0.691448</v>
       </c>
       <c r="F125" t="n">
-        <v>0.710719</v>
+        <v>0.707026</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.745292</v>
+        <v>0.7423070000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.740168</v>
+        <v>0.735493</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6992620000000001</v>
+        <v>0.695641</v>
       </c>
       <c r="E126" t="n">
-        <v>0.694306</v>
+        <v>0.691441</v>
       </c>
       <c r="F126" t="n">
-        <v>0.713404</v>
+        <v>0.70783</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.746088</v>
+        <v>0.742357</v>
       </c>
       <c r="C127" t="n">
-        <v>0.740511</v>
+        <v>0.736726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.715525</v>
+        <v>0.710989</v>
       </c>
       <c r="E127" t="n">
-        <v>0.695933</v>
+        <v>0.693381</v>
       </c>
       <c r="F127" t="n">
-        <v>0.712022</v>
+        <v>0.709386</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.735199</v>
+        <v>0.743708</v>
       </c>
       <c r="C128" t="n">
-        <v>0.742572</v>
+        <v>0.738978</v>
       </c>
       <c r="D128" t="n">
-        <v>0.72922</v>
+        <v>0.724627</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6956870000000001</v>
+        <v>0.693404</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713192</v>
+        <v>0.711085</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7487200000000001</v>
+        <v>0.746796</v>
       </c>
       <c r="C129" t="n">
-        <v>0.743121</v>
+        <v>0.740936</v>
       </c>
       <c r="D129" t="n">
-        <v>0.743301</v>
+        <v>0.73933</v>
       </c>
       <c r="E129" t="n">
-        <v>0.697263</v>
+        <v>0.693908</v>
       </c>
       <c r="F129" t="n">
-        <v>0.712781</v>
+        <v>0.713056</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.748689</v>
+        <v>0.745599</v>
       </c>
       <c r="C130" t="n">
-        <v>0.746471</v>
+        <v>0.742287</v>
       </c>
       <c r="D130" t="n">
-        <v>0.757206</v>
+        <v>0.75209</v>
       </c>
       <c r="E130" t="n">
-        <v>0.699722</v>
+        <v>0.697155</v>
       </c>
       <c r="F130" t="n">
-        <v>0.719541</v>
+        <v>0.7162849999999999</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.752618</v>
+        <v>0.748243</v>
       </c>
       <c r="C131" t="n">
-        <v>0.750893</v>
+        <v>0.745635</v>
       </c>
       <c r="D131" t="n">
-        <v>0.77386</v>
+        <v>0.769136</v>
       </c>
       <c r="E131" t="n">
-        <v>0.698885</v>
+        <v>0.697565</v>
       </c>
       <c r="F131" t="n">
-        <v>0.7246359999999999</v>
+        <v>0.717141</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.754293</v>
+        <v>0.751685</v>
       </c>
       <c r="C132" t="n">
-        <v>0.753848</v>
+        <v>0.7491719999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.788436</v>
+        <v>0.784218</v>
       </c>
       <c r="E132" t="n">
-        <v>0.701982</v>
+        <v>0.700518</v>
       </c>
       <c r="F132" t="n">
-        <v>0.726191</v>
+        <v>0.722462</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.76171</v>
+        <v>0.755555</v>
       </c>
       <c r="C133" t="n">
-        <v>0.756266</v>
+        <v>0.753846</v>
       </c>
       <c r="D133" t="n">
-        <v>0.805623</v>
+        <v>0.80088</v>
       </c>
       <c r="E133" t="n">
-        <v>0.70652</v>
+        <v>0.7030729999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>0.727763</v>
+        <v>0.724285</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.749196</v>
+        <v>0.761684</v>
       </c>
       <c r="C134" t="n">
-        <v>0.765916</v>
+        <v>0.761358</v>
       </c>
       <c r="D134" t="n">
-        <v>0.818798</v>
+        <v>0.815626</v>
       </c>
       <c r="E134" t="n">
-        <v>0.710534</v>
+        <v>0.706933</v>
       </c>
       <c r="F134" t="n">
-        <v>0.735492</v>
+        <v>0.731588</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.770593</v>
+        <v>0.76786</v>
       </c>
       <c r="C135" t="n">
-        <v>0.770932</v>
+        <v>0.766741</v>
       </c>
       <c r="D135" t="n">
-        <v>0.684094</v>
+        <v>0.690037</v>
       </c>
       <c r="E135" t="n">
-        <v>0.716199</v>
+        <v>0.711933</v>
       </c>
       <c r="F135" t="n">
-        <v>0.742436</v>
+        <v>0.737115</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.780184</v>
+        <v>0.77646</v>
       </c>
       <c r="C136" t="n">
-        <v>0.782521</v>
+        <v>0.778826</v>
       </c>
       <c r="D136" t="n">
-        <v>0.703634</v>
+        <v>0.699977</v>
       </c>
       <c r="E136" t="n">
-        <v>0.724332</v>
+        <v>0.721002</v>
       </c>
       <c r="F136" t="n">
-        <v>0.753598</v>
+        <v>0.750738</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.792459</v>
+        <v>0.786851</v>
       </c>
       <c r="C137" t="n">
-        <v>0.798295</v>
+        <v>0.7938809999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714325</v>
+        <v>0.710944</v>
       </c>
       <c r="E137" t="n">
-        <v>0.827504</v>
+        <v>0.823825</v>
       </c>
       <c r="F137" t="n">
-        <v>0.838991</v>
+        <v>0.835658</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.866422</v>
+        <v>0.864676</v>
       </c>
       <c r="C138" t="n">
-        <v>0.866052</v>
+        <v>0.862256</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726725</v>
+        <v>0.722477</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829023</v>
+        <v>0.825065</v>
       </c>
       <c r="F138" t="n">
-        <v>0.840207</v>
+        <v>0.836306</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.867076</v>
+        <v>0.864545</v>
       </c>
       <c r="C139" t="n">
-        <v>0.867334</v>
+        <v>0.863408</v>
       </c>
       <c r="D139" t="n">
-        <v>0.726975</v>
+        <v>0.73433</v>
       </c>
       <c r="E139" t="n">
-        <v>0.829579</v>
+        <v>0.825418</v>
       </c>
       <c r="F139" t="n">
-        <v>0.83995</v>
+        <v>0.837939</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.856774</v>
+        <v>0.865549</v>
       </c>
       <c r="C140" t="n">
-        <v>0.867273</v>
+        <v>0.865042</v>
       </c>
       <c r="D140" t="n">
-        <v>0.751085</v>
+        <v>0.747776</v>
       </c>
       <c r="E140" t="n">
-        <v>0.828879</v>
+        <v>0.8260420000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839795</v>
+        <v>0.839144</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.857792</v>
+        <v>0.865936</v>
       </c>
       <c r="C141" t="n">
-        <v>0.869098</v>
+        <v>0.8662530000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7538550000000001</v>
+        <v>0.761143</v>
       </c>
       <c r="E141" t="n">
-        <v>0.828789</v>
+        <v>0.827639</v>
       </c>
       <c r="F141" t="n">
-        <v>0.842494</v>
+        <v>0.840122</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.869076</v>
+        <v>0.864533</v>
       </c>
       <c r="C142" t="n">
-        <v>0.85767</v>
+        <v>0.866314</v>
       </c>
       <c r="D142" t="n">
-        <v>0.769208</v>
+        <v>0.774017</v>
       </c>
       <c r="E142" t="n">
-        <v>0.828779</v>
+        <v>0.826539</v>
       </c>
       <c r="F142" t="n">
-        <v>0.846651</v>
+        <v>0.841458</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.870966</v>
+        <v>0.867157</v>
       </c>
       <c r="C143" t="n">
-        <v>0.859135</v>
+        <v>0.8683689999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.793813</v>
+        <v>0.789529</v>
       </c>
       <c r="E143" t="n">
-        <v>0.829809</v>
+        <v>0.827473</v>
       </c>
       <c r="F143" t="n">
-        <v>0.84728</v>
+        <v>0.844963</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115037</v>
+        <v>0.116953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112385</v>
+        <v>0.123806</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132202</v>
+        <v>0.132349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110646</v>
+        <v>0.110859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108485</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11548</v>
+        <v>0.124581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117346</v>
+        <v>0.124573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140561</v>
+        <v>0.140837</v>
       </c>
       <c r="E3" t="n">
-        <v>0.110985</v>
+        <v>0.111024</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108591</v>
+        <v>0.108597</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1157</v>
+        <v>0.125686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130994</v>
+        <v>0.115388</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147091</v>
+        <v>0.147419</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111294</v>
+        <v>0.111301</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108925</v>
+        <v>0.10907</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117272</v>
+        <v>0.128557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125819</v>
+        <v>0.126994</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15471</v>
+        <v>0.155996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11164</v>
+        <v>0.111619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109572</v>
+        <v>0.109543</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119556</v>
+        <v>0.127487</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134693</v>
+        <v>0.128979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161979</v>
+        <v>0.163091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112001</v>
+        <v>0.11219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110438</v>
+        <v>0.110704</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122497</v>
+        <v>0.140724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130951</v>
+        <v>0.127115</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12855</v>
+        <v>0.127825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113531</v>
+        <v>0.113829</v>
       </c>
       <c r="F7" t="n">
-        <v>0.113401</v>
+        <v>0.111932</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128126</v>
+        <v>0.128237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.128863</v>
+        <v>0.131397</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131579</v>
+        <v>0.131381</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114879</v>
+        <v>0.115384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113408</v>
+        <v>0.113914</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138351</v>
+        <v>0.151882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138106</v>
+        <v>0.142244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136506</v>
+        <v>0.136364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.115886</v>
+        <v>0.116245</v>
       </c>
       <c r="F9" t="n">
-        <v>0.110451</v>
+        <v>0.110084</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123823</v>
+        <v>0.125623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116193</v>
+        <v>0.119267</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140166</v>
+        <v>0.141018</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116279</v>
+        <v>0.11687</v>
       </c>
       <c r="F10" t="n">
-        <v>0.110308</v>
+        <v>0.11092</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124224</v>
+        <v>0.126512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123033</v>
+        <v>0.126867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145</v>
+        <v>0.145177</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116266</v>
+        <v>0.116435</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110571</v>
+        <v>0.111215</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124121</v>
+        <v>0.124794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121384</v>
+        <v>0.122649</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150225</v>
+        <v>0.149827</v>
       </c>
       <c r="E12" t="n">
-        <v>0.116496</v>
+        <v>0.116856</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110604</v>
+        <v>0.110537</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124529</v>
+        <v>0.124716</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12649</v>
+        <v>0.127836</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1554</v>
+        <v>0.155879</v>
       </c>
       <c r="E13" t="n">
-        <v>0.116611</v>
+        <v>0.117082</v>
       </c>
       <c r="F13" t="n">
-        <v>0.110812</v>
+        <v>0.110936</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125389</v>
+        <v>0.125875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125974</v>
+        <v>0.123399</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160975</v>
+        <v>0.16183</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116912</v>
+        <v>0.117453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.111843</v>
+        <v>0.110857</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126451</v>
+        <v>0.126114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.118536</v>
+        <v>0.133768</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167213</v>
+        <v>0.16778</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117496</v>
+        <v>0.117107</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112726</v>
+        <v>0.114035</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126418</v>
+        <v>0.125801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122334</v>
+        <v>0.123052</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174097</v>
+        <v>0.174457</v>
       </c>
       <c r="E16" t="n">
-        <v>0.119265</v>
+        <v>0.117663</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111142</v>
+        <v>0.113859</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128231</v>
+        <v>0.127641</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119919</v>
+        <v>0.127498</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180773</v>
+        <v>0.180934</v>
       </c>
       <c r="E17" t="n">
-        <v>0.117866</v>
+        <v>0.117664</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117045</v>
+        <v>0.111603</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128972</v>
+        <v>0.128744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123192</v>
+        <v>0.130673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18609</v>
+        <v>0.187099</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11803</v>
+        <v>0.118325</v>
       </c>
       <c r="F18" t="n">
-        <v>0.113129</v>
+        <v>0.113175</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13102</v>
+        <v>0.130706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127615</v>
+        <v>0.134837</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191112</v>
+        <v>0.191347</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118566</v>
+        <v>0.118709</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113006</v>
+        <v>0.11249</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136549</v>
+        <v>0.134306</v>
       </c>
       <c r="C20" t="n">
-        <v>0.13663</v>
+        <v>0.144269</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197288</v>
+        <v>0.197231</v>
       </c>
       <c r="E20" t="n">
-        <v>0.119595</v>
+        <v>0.119644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113409</v>
+        <v>0.118944</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140753</v>
+        <v>0.140902</v>
       </c>
       <c r="C21" t="n">
-        <v>0.144715</v>
+        <v>0.142822</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149212</v>
+        <v>0.14872</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120297</v>
+        <v>0.128805</v>
       </c>
       <c r="F21" t="n">
-        <v>0.115083</v>
+        <v>0.114966</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148949</v>
+        <v>0.147899</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157841</v>
+        <v>0.156838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153382</v>
+        <v>0.153759</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124014</v>
+        <v>0.132163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120579</v>
+        <v>0.118736</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158428</v>
+        <v>0.15917</v>
       </c>
       <c r="C23" t="n">
-        <v>0.153103</v>
+        <v>0.164997</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157449</v>
+        <v>0.159061</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125102</v>
+        <v>0.125425</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123882</v>
+        <v>0.1299</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134416</v>
+        <v>0.134822</v>
       </c>
       <c r="C24" t="n">
-        <v>0.130246</v>
+        <v>0.136931</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164401</v>
+        <v>0.163427</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125609</v>
+        <v>0.125499</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12095</v>
+        <v>0.121285</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134527</v>
+        <v>0.134819</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136332</v>
+        <v>0.134834</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167578</v>
+        <v>0.168331</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125823</v>
+        <v>0.126438</v>
       </c>
       <c r="F25" t="n">
-        <v>0.124603</v>
+        <v>0.121753</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136991</v>
+        <v>0.135111</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128638</v>
+        <v>0.128724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172177</v>
+        <v>0.172695</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125445</v>
+        <v>0.132415</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121079</v>
+        <v>0.120836</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135245</v>
+        <v>0.137037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129319</v>
+        <v>0.134061</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177281</v>
+        <v>0.177176</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125721</v>
+        <v>0.126206</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126953</v>
+        <v>0.123127</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135775</v>
+        <v>0.136235</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137318</v>
+        <v>0.138293</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181593</v>
+        <v>0.182375</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126021</v>
+        <v>0.125801</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120698</v>
+        <v>0.126832</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135975</v>
+        <v>0.136083</v>
       </c>
       <c r="C29" t="n">
-        <v>0.129497</v>
+        <v>0.147681</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187832</v>
+        <v>0.187953</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125998</v>
+        <v>0.12611</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132558</v>
+        <v>0.132841</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137785</v>
+        <v>0.138375</v>
       </c>
       <c r="C30" t="n">
-        <v>0.139544</v>
+        <v>0.144964</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192284</v>
+        <v>0.192874</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126167</v>
+        <v>0.127394</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122809</v>
+        <v>0.128254</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139343</v>
+        <v>0.139414</v>
       </c>
       <c r="C31" t="n">
-        <v>0.140719</v>
+        <v>0.14134</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197419</v>
+        <v>0.19749</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127032</v>
+        <v>0.127024</v>
       </c>
       <c r="F31" t="n">
-        <v>0.127203</v>
+        <v>0.122903</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141446</v>
+        <v>0.142802</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13703</v>
+        <v>0.147255</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203893</v>
+        <v>0.203793</v>
       </c>
       <c r="E32" t="n">
-        <v>0.128425</v>
+        <v>0.127286</v>
       </c>
       <c r="F32" t="n">
-        <v>0.121644</v>
+        <v>0.123507</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144574</v>
+        <v>0.144161</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145112</v>
+        <v>0.146323</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209929</v>
+        <v>0.21009</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127605</v>
+        <v>0.133228</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12507</v>
+        <v>0.129694</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147722</v>
+        <v>0.148314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152363</v>
+        <v>0.151567</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213633</v>
+        <v>0.214192</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129797</v>
+        <v>0.129332</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12303</v>
+        <v>0.128521</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153516</v>
+        <v>0.153348</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148261</v>
+        <v>0.151655</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165454</v>
+        <v>0.16526</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133756</v>
+        <v>0.13332</v>
       </c>
       <c r="F35" t="n">
-        <v>0.131586</v>
+        <v>0.133063</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159244</v>
+        <v>0.160409</v>
       </c>
       <c r="C36" t="n">
-        <v>0.156009</v>
+        <v>0.164175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169511</v>
+        <v>0.169532</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141235</v>
+        <v>0.141643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.142288</v>
+        <v>0.136966</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167043</v>
+        <v>0.170458</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17953</v>
+        <v>0.174569</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173433</v>
+        <v>0.173383</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137058</v>
+        <v>0.137372</v>
       </c>
       <c r="F37" t="n">
-        <v>0.141315</v>
+        <v>0.144589</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147371</v>
+        <v>0.148129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146231</v>
+        <v>0.154526</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177846</v>
+        <v>0.17767</v>
       </c>
       <c r="E38" t="n">
-        <v>0.134325</v>
+        <v>0.138721</v>
       </c>
       <c r="F38" t="n">
-        <v>0.141125</v>
+        <v>0.136836</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148256</v>
+        <v>0.148025</v>
       </c>
       <c r="C39" t="n">
-        <v>0.148246</v>
+        <v>0.15554</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183138</v>
+        <v>0.182831</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137829</v>
+        <v>0.140765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.139794</v>
+        <v>0.139689</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147428</v>
+        <v>0.147979</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14695</v>
+        <v>0.155912</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186485</v>
+        <v>0.186423</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137731</v>
+        <v>0.137356</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139928</v>
+        <v>0.139257</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147427</v>
+        <v>0.148955</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146466</v>
+        <v>0.149561</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191535</v>
+        <v>0.191753</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138055</v>
+        <v>0.140549</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141192</v>
+        <v>0.147025</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148914</v>
+        <v>0.148707</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152833</v>
+        <v>0.154267</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196337</v>
+        <v>0.196495</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139492</v>
+        <v>0.141955</v>
       </c>
       <c r="F42" t="n">
-        <v>0.143322</v>
+        <v>0.139453</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150923</v>
+        <v>0.149522</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14999</v>
+        <v>0.148982</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20111</v>
+        <v>0.201404</v>
       </c>
       <c r="E43" t="n">
-        <v>0.138108</v>
+        <v>0.1441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14266</v>
+        <v>0.144445</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151062</v>
+        <v>0.151671</v>
       </c>
       <c r="C44" t="n">
-        <v>0.154139</v>
+        <v>0.151003</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206205</v>
+        <v>0.20673</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138629</v>
+        <v>0.143443</v>
       </c>
       <c r="F44" t="n">
-        <v>0.139821</v>
+        <v>0.149307</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152738</v>
+        <v>0.15277</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152699</v>
+        <v>0.151132</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211492</v>
+        <v>0.211594</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138178</v>
+        <v>0.140371</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13939</v>
+        <v>0.139928</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155041</v>
+        <v>0.154914</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153992</v>
+        <v>0.154664</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216572</v>
+        <v>0.216588</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139362</v>
+        <v>0.146379</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151294</v>
+        <v>0.152693</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158835</v>
+        <v>0.156808</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157755</v>
+        <v>0.167094</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222227</v>
+        <v>0.222752</v>
       </c>
       <c r="E47" t="n">
-        <v>0.14155</v>
+        <v>0.141569</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14645</v>
+        <v>0.142745</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160836</v>
+        <v>0.163214</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161785</v>
+        <v>0.162154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227282</v>
+        <v>0.226978</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144632</v>
+        <v>0.14426</v>
       </c>
       <c r="F48" t="n">
-        <v>0.148715</v>
+        <v>0.146929</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164489</v>
+        <v>0.170065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17315</v>
+        <v>0.164879</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231843</v>
+        <v>0.231926</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151551</v>
+        <v>0.148667</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149551</v>
+        <v>0.148886</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169504</v>
+        <v>0.172365</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174235</v>
+        <v>0.18333</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171388</v>
+        <v>0.171531</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153825</v>
+        <v>0.155331</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154973</v>
+        <v>0.157127</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177274</v>
+        <v>0.187775</v>
       </c>
       <c r="C51" t="n">
-        <v>0.183341</v>
+        <v>0.184577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174994</v>
+        <v>0.175464</v>
       </c>
       <c r="E51" t="n">
-        <v>0.151302</v>
+        <v>0.149467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152244</v>
+        <v>0.159927</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186953</v>
+        <v>0.184635</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188645</v>
+        <v>0.190096</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17883</v>
+        <v>0.178927</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150459</v>
+        <v>0.150176</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153242</v>
+        <v>0.153156</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159398</v>
+        <v>0.158827</v>
       </c>
       <c r="C53" t="n">
-        <v>0.175918</v>
+        <v>0.165239</v>
       </c>
       <c r="D53" t="n">
-        <v>0.18323</v>
+        <v>0.183326</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150823</v>
+        <v>0.150247</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153526</v>
+        <v>0.153066</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160516</v>
+        <v>0.15992</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169102</v>
+        <v>0.166755</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187037</v>
+        <v>0.187649</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150782</v>
+        <v>0.151629</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156409</v>
+        <v>0.163639</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160734</v>
+        <v>0.160802</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167338</v>
+        <v>0.166927</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192448</v>
+        <v>0.192117</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151474</v>
+        <v>0.150542</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155198</v>
+        <v>0.154053</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162178</v>
+        <v>0.160234</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167695</v>
+        <v>0.168372</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19737</v>
+        <v>0.197197</v>
       </c>
       <c r="E56" t="n">
-        <v>0.152625</v>
+        <v>0.150653</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154512</v>
+        <v>0.155134</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162296</v>
+        <v>0.162101</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169685</v>
+        <v>0.173418</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201898</v>
+        <v>0.202312</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151315</v>
+        <v>0.151127</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155865</v>
+        <v>0.160293</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163847</v>
+        <v>0.163056</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170634</v>
+        <v>0.177004</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207534</v>
+        <v>0.207633</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152563</v>
+        <v>0.156693</v>
       </c>
       <c r="F58" t="n">
-        <v>0.156195</v>
+        <v>0.156831</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165132</v>
+        <v>0.164814</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18085</v>
+        <v>0.172659</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212167</v>
+        <v>0.2137</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152623</v>
+        <v>0.15202</v>
       </c>
       <c r="F59" t="n">
-        <v>0.156024</v>
+        <v>0.158832</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167057</v>
+        <v>0.165897</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174066</v>
+        <v>0.173915</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21785</v>
+        <v>0.218358</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15421</v>
+        <v>0.15501</v>
       </c>
       <c r="F60" t="n">
-        <v>0.163263</v>
+        <v>0.164901</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169253</v>
+        <v>0.168092</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183956</v>
+        <v>0.176717</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222902</v>
+        <v>0.223035</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155271</v>
+        <v>0.155728</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16021</v>
+        <v>0.15893</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173022</v>
+        <v>0.172077</v>
       </c>
       <c r="C62" t="n">
-        <v>0.188518</v>
+        <v>0.186371</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228409</v>
+        <v>0.228266</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15837</v>
+        <v>0.157683</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164974</v>
+        <v>0.163582</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175717</v>
+        <v>0.17585</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183423</v>
+        <v>0.183674</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232737</v>
+        <v>0.233727</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161351</v>
+        <v>0.161589</v>
       </c>
       <c r="F63" t="n">
-        <v>0.172965</v>
+        <v>0.166818</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185641</v>
+        <v>0.181275</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189136</v>
+        <v>0.188475</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177194</v>
+        <v>0.177038</v>
       </c>
       <c r="E64" t="n">
-        <v>0.166107</v>
+        <v>0.165738</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169264</v>
+        <v>0.170691</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187332</v>
+        <v>0.186166</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204619</v>
+        <v>0.195568</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181002</v>
+        <v>0.181464</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172243</v>
+        <v>0.174259</v>
       </c>
       <c r="F65" t="n">
-        <v>0.181677</v>
+        <v>0.177126</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204972</v>
+        <v>0.19524</v>
       </c>
       <c r="C66" t="n">
-        <v>0.207048</v>
+        <v>0.208312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18597</v>
+        <v>0.186691</v>
       </c>
       <c r="E66" t="n">
-        <v>0.162309</v>
+        <v>0.161536</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162995</v>
+        <v>0.163246</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179288</v>
+        <v>0.17971</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174452</v>
+        <v>0.174595</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190921</v>
+        <v>0.190851</v>
       </c>
       <c r="E67" t="n">
-        <v>0.161715</v>
+        <v>0.162135</v>
       </c>
       <c r="F67" t="n">
-        <v>0.163886</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179988</v>
+        <v>0.180471</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18115</v>
+        <v>0.175106</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197924</v>
+        <v>0.199542</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162342</v>
+        <v>0.162362</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162345</v>
+        <v>0.162337</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180708</v>
+        <v>0.180344</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175804</v>
+        <v>0.175343</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203869</v>
+        <v>0.204025</v>
       </c>
       <c r="E69" t="n">
-        <v>0.162164</v>
+        <v>0.163594</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164405</v>
+        <v>0.164566</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187122</v>
+        <v>0.181968</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182459</v>
+        <v>0.176586</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209987</v>
+        <v>0.211505</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163726</v>
+        <v>0.163372</v>
       </c>
       <c r="F70" t="n">
-        <v>0.16507</v>
+        <v>0.165413</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1841</v>
+        <v>0.18453</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177866</v>
+        <v>0.177863</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217078</v>
+        <v>0.217706</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163898</v>
+        <v>0.163292</v>
       </c>
       <c r="F71" t="n">
-        <v>0.16632</v>
+        <v>0.165837</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185654</v>
+        <v>0.183598</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178573</v>
+        <v>0.17906</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224598</v>
+        <v>0.225277</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164093</v>
+        <v>0.170148</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166749</v>
+        <v>0.166655</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18599</v>
+        <v>0.184678</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179914</v>
+        <v>0.18025</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232906</v>
+        <v>0.233617</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16475</v>
+        <v>0.165444</v>
       </c>
       <c r="F73" t="n">
-        <v>0.169657</v>
+        <v>0.167816</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188697</v>
+        <v>0.187211</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183457</v>
+        <v>0.182355</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242872</v>
+        <v>0.242983</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166195</v>
+        <v>0.166162</v>
       </c>
       <c r="F74" t="n">
-        <v>0.177223</v>
+        <v>0.169717</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187285</v>
+        <v>0.189552</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193246</v>
+        <v>0.184616</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250605</v>
+        <v>0.25253</v>
       </c>
       <c r="E75" t="n">
-        <v>0.169566</v>
+        <v>0.167761</v>
       </c>
       <c r="F75" t="n">
-        <v>0.172666</v>
+        <v>0.171728</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19289</v>
+        <v>0.193023</v>
       </c>
       <c r="C76" t="n">
-        <v>0.187874</v>
+        <v>0.189452</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261741</v>
+        <v>0.262356</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169423</v>
+        <v>0.17151</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173509</v>
+        <v>0.173767</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202239</v>
+        <v>0.197082</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192436</v>
+        <v>0.196661</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271563</v>
+        <v>0.274233</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17216</v>
+        <v>0.17207</v>
       </c>
       <c r="F77" t="n">
-        <v>0.179506</v>
+        <v>0.178166</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201953</v>
+        <v>0.200355</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206365</v>
+        <v>0.19663</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224349</v>
+        <v>0.223004</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175893</v>
+        <v>0.176242</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181452</v>
+        <v>0.181359</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206564</v>
+        <v>0.205569</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202976</v>
+        <v>0.20346</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23526</v>
+        <v>0.234415</v>
       </c>
       <c r="E79" t="n">
-        <v>0.188273</v>
+        <v>0.182273</v>
       </c>
       <c r="F79" t="n">
-        <v>0.189043</v>
+        <v>0.190024</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213196</v>
+        <v>0.215702</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215067</v>
+        <v>0.21249</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243333</v>
+        <v>0.243083</v>
       </c>
       <c r="E80" t="n">
-        <v>0.241946</v>
+        <v>0.242357</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174482</v>
+        <v>0.177944</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362828</v>
+        <v>0.359079</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181105</v>
+        <v>0.185012</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257664</v>
+        <v>0.25521</v>
       </c>
       <c r="E81" t="n">
-        <v>0.244272</v>
+        <v>0.244894</v>
       </c>
       <c r="F81" t="n">
-        <v>0.175575</v>
+        <v>0.177215</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362371</v>
+        <v>0.360331</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188687</v>
+        <v>0.182683</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271982</v>
+        <v>0.269653</v>
       </c>
       <c r="E82" t="n">
-        <v>0.24163</v>
+        <v>0.246047</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176245</v>
+        <v>0.184872</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366156</v>
+        <v>0.361321</v>
       </c>
       <c r="C83" t="n">
-        <v>0.184775</v>
+        <v>0.185164</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284397</v>
+        <v>0.283274</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242312</v>
+        <v>0.242011</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17702</v>
+        <v>0.177347</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364028</v>
+        <v>0.361217</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184774</v>
+        <v>0.184836</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298869</v>
+        <v>0.297679</v>
       </c>
       <c r="E84" t="n">
-        <v>0.242725</v>
+        <v>0.243684</v>
       </c>
       <c r="F84" t="n">
-        <v>0.178291</v>
+        <v>0.178541</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363927</v>
+        <v>0.363037</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18724</v>
+        <v>0.186186</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313746</v>
+        <v>0.313459</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241648</v>
+        <v>0.243358</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180589</v>
+        <v>0.180358</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.363563</v>
+        <v>0.365926</v>
       </c>
       <c r="C86" t="n">
-        <v>0.186806</v>
+        <v>0.187546</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328828</v>
+        <v>0.328158</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24203</v>
+        <v>0.243216</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181104</v>
+        <v>0.181476</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.366219</v>
+        <v>0.367841</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188687</v>
+        <v>0.1909</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343653</v>
+        <v>0.343408</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24131</v>
+        <v>0.239361</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183364</v>
+        <v>0.183532</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369752</v>
+        <v>0.367018</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191245</v>
+        <v>0.192748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360016</v>
+        <v>0.359515</v>
       </c>
       <c r="E88" t="n">
-        <v>0.242178</v>
+        <v>0.24313</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18603</v>
+        <v>0.186883</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36975</v>
+        <v>0.36847</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194319</v>
+        <v>0.193955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375678</v>
+        <v>0.375243</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237983</v>
+        <v>0.239329</v>
       </c>
       <c r="F89" t="n">
-        <v>0.187499</v>
+        <v>0.189151</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372034</v>
+        <v>0.370746</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198879</v>
+        <v>0.19953</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392876</v>
+        <v>0.392698</v>
       </c>
       <c r="E90" t="n">
-        <v>0.241161</v>
+        <v>0.238144</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191212</v>
+        <v>0.191496</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37372</v>
+        <v>0.370703</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202506</v>
+        <v>0.20354</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40756</v>
+        <v>0.408355</v>
       </c>
       <c r="E91" t="n">
-        <v>0.23791</v>
+        <v>0.240503</v>
       </c>
       <c r="F91" t="n">
-        <v>0.194593</v>
+        <v>0.195665</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376719</v>
+        <v>0.380649</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208999</v>
+        <v>0.214899</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358165</v>
+        <v>0.357923</v>
       </c>
       <c r="E92" t="n">
-        <v>0.240837</v>
+        <v>0.241978</v>
       </c>
       <c r="F92" t="n">
-        <v>0.202382</v>
+        <v>0.206418</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381148</v>
+        <v>0.381104</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215895</v>
+        <v>0.216878</v>
       </c>
       <c r="D93" t="n">
-        <v>0.367928</v>
+        <v>0.368247</v>
       </c>
       <c r="E93" t="n">
-        <v>0.243188</v>
+        <v>0.244906</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209147</v>
+        <v>0.209437</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387318</v>
+        <v>0.388064</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229252</v>
+        <v>0.229566</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378156</v>
+        <v>0.377067</v>
       </c>
       <c r="E94" t="n">
-        <v>0.398785</v>
+        <v>0.404229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.270785</v>
+        <v>0.275092</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.525778</v>
+        <v>0.528255</v>
       </c>
       <c r="C95" t="n">
-        <v>0.297152</v>
+        <v>0.291517</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394996</v>
+        <v>0.393792</v>
       </c>
       <c r="E95" t="n">
-        <v>0.397735</v>
+        <v>0.399386</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270985</v>
+        <v>0.276549</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.525817</v>
+        <v>0.527602</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295936</v>
+        <v>0.297591</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408013</v>
+        <v>0.408686</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398402</v>
+        <v>0.398209</v>
       </c>
       <c r="F96" t="n">
-        <v>0.274198</v>
+        <v>0.278462</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.528024</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299625</v>
+        <v>0.297872</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419721</v>
+        <v>0.42034</v>
       </c>
       <c r="E97" t="n">
-        <v>0.397559</v>
+        <v>0.39854</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2771</v>
+        <v>0.282943</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526448</v>
+        <v>0.5289779999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.295845</v>
+        <v>0.301934</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435573</v>
+        <v>0.433369</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397483</v>
+        <v>0.397744</v>
       </c>
       <c r="F98" t="n">
-        <v>0.27241</v>
+        <v>0.280831</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526191</v>
+        <v>0.528276</v>
       </c>
       <c r="C99" t="n">
-        <v>0.300638</v>
+        <v>0.303679</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449081</v>
+        <v>0.450981</v>
       </c>
       <c r="E99" t="n">
-        <v>0.396962</v>
+        <v>0.397813</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278921</v>
+        <v>0.282314</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5286380000000001</v>
+        <v>0.529477</v>
       </c>
       <c r="C100" t="n">
-        <v>0.29961</v>
+        <v>0.304431</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464069</v>
+        <v>0.464747</v>
       </c>
       <c r="E100" t="n">
-        <v>0.396061</v>
+        <v>0.397693</v>
       </c>
       <c r="F100" t="n">
-        <v>0.279136</v>
+        <v>0.283263</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5286960000000001</v>
+        <v>0.53034</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300164</v>
+        <v>0.301354</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477234</v>
+        <v>0.476899</v>
       </c>
       <c r="E101" t="n">
-        <v>0.395577</v>
+        <v>0.398841</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278982</v>
+        <v>0.281601</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529663</v>
+        <v>0.5317730000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302656</v>
+        <v>0.301338</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495379</v>
+        <v>0.495405</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397212</v>
+        <v>0.398268</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279839</v>
+        <v>0.282027</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530756</v>
+        <v>0.531938</v>
       </c>
       <c r="C103" t="n">
-        <v>0.308322</v>
+        <v>0.30777</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512506</v>
+        <v>0.5137890000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.39774</v>
+        <v>0.398953</v>
       </c>
       <c r="F103" t="n">
-        <v>0.286833</v>
+        <v>0.285757</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.533928</v>
+        <v>0.536173</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310948</v>
+        <v>0.307893</v>
       </c>
       <c r="D104" t="n">
-        <v>0.527523</v>
+        <v>0.529137</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398488</v>
+        <v>0.400556</v>
       </c>
       <c r="F104" t="n">
-        <v>0.282561</v>
+        <v>0.287594</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.537833</v>
+        <v>0.538455</v>
       </c>
       <c r="C105" t="n">
-        <v>0.310439</v>
+        <v>0.3115</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544058</v>
+        <v>0.545004</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402138</v>
+        <v>0.402909</v>
       </c>
       <c r="F105" t="n">
-        <v>0.292772</v>
+        <v>0.290688</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.540838</v>
+        <v>0.543357</v>
       </c>
       <c r="C106" t="n">
-        <v>0.321713</v>
+        <v>0.318284</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563991</v>
+        <v>0.561549</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4048</v>
+        <v>0.406507</v>
       </c>
       <c r="F106" t="n">
-        <v>0.294313</v>
+        <v>0.29525</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.546463</v>
+        <v>0.547866</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328601</v>
+        <v>0.322672</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52832</v>
+        <v>0.531365</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41013</v>
+        <v>0.411603</v>
       </c>
       <c r="F107" t="n">
-        <v>0.298938</v>
+        <v>0.30131</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553751</v>
+        <v>0.5557879999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.334467</v>
+        <v>0.332393</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54216</v>
+        <v>0.542353</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533094</v>
+        <v>0.536656</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492495</v>
+        <v>0.498719</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.565084</v>
+        <v>0.566863</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351107</v>
+        <v>0.356345</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548195</v>
+        <v>0.549777</v>
       </c>
       <c r="E109" t="n">
-        <v>0.531732</v>
+        <v>0.532301</v>
       </c>
       <c r="F109" t="n">
-        <v>0.495739</v>
+        <v>0.496725</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602454</v>
+        <v>0.603193</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5231789999999999</v>
+        <v>0.527852</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5636949999999999</v>
+        <v>0.564149</v>
       </c>
       <c r="E110" t="n">
-        <v>0.532884</v>
+        <v>0.534038</v>
       </c>
       <c r="F110" t="n">
-        <v>0.493992</v>
+        <v>0.496348</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.602272</v>
+        <v>0.603811</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528342</v>
+        <v>0.526257</v>
       </c>
       <c r="D111" t="n">
-        <v>0.575986</v>
+        <v>0.579099</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534311</v>
+        <v>0.534143</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4953</v>
+        <v>0.496755</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.602342</v>
+        <v>0.606301</v>
       </c>
       <c r="C112" t="n">
-        <v>0.52717</v>
+        <v>0.528971</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587359</v>
+        <v>0.588826</v>
       </c>
       <c r="E112" t="n">
-        <v>0.535184</v>
+        <v>0.535457</v>
       </c>
       <c r="F112" t="n">
-        <v>0.497898</v>
+        <v>0.497801</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607206</v>
+        <v>0.606925</v>
       </c>
       <c r="C113" t="n">
-        <v>0.525103</v>
+        <v>0.5291090000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60295</v>
+        <v>0.60389</v>
       </c>
       <c r="E113" t="n">
-        <v>0.535658</v>
+        <v>0.534689</v>
       </c>
       <c r="F113" t="n">
-        <v>0.49861</v>
+        <v>0.50152</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608392</v>
+        <v>0.606618</v>
       </c>
       <c r="C114" t="n">
-        <v>0.528474</v>
+        <v>0.5311129999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617445</v>
+        <v>0.618551</v>
       </c>
       <c r="E114" t="n">
-        <v>0.533491</v>
+        <v>0.5352980000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>0.497215</v>
+        <v>0.49993</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608824</v>
+        <v>0.607687</v>
       </c>
       <c r="C115" t="n">
-        <v>0.529053</v>
+        <v>0.53095</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634076</v>
+        <v>0.635543</v>
       </c>
       <c r="E115" t="n">
-        <v>0.536362</v>
+        <v>0.537446</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500038</v>
+        <v>0.500474</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.608325</v>
+        <v>0.6105660000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.533856</v>
+        <v>0.534653</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646172</v>
+        <v>0.647765</v>
       </c>
       <c r="E116" t="n">
-        <v>0.536752</v>
+        <v>0.539276</v>
       </c>
       <c r="F116" t="n">
-        <v>0.501494</v>
+        <v>0.506408</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.60925</v>
+        <v>0.612822</v>
       </c>
       <c r="C117" t="n">
-        <v>0.536388</v>
+        <v>0.53574</v>
       </c>
       <c r="D117" t="n">
-        <v>0.667424</v>
+        <v>0.668507</v>
       </c>
       <c r="E117" t="n">
-        <v>0.538861</v>
+        <v>0.539728</v>
       </c>
       <c r="F117" t="n">
-        <v>0.505754</v>
+        <v>0.504816</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613963</v>
+        <v>0.614266</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540439</v>
+        <v>0.539229</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676881</v>
+        <v>0.67853</v>
       </c>
       <c r="E118" t="n">
-        <v>0.541365</v>
+        <v>0.5415</v>
       </c>
       <c r="F118" t="n">
-        <v>0.508664</v>
+        <v>0.511893</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.621978</v>
+        <v>0.618846</v>
       </c>
       <c r="C119" t="n">
-        <v>0.542264</v>
+        <v>0.549983</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6968760000000001</v>
+        <v>0.700375</v>
       </c>
       <c r="E119" t="n">
-        <v>0.545705</v>
+        <v>0.546235</v>
       </c>
       <c r="F119" t="n">
-        <v>0.508023</v>
+        <v>0.511969</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625772</v>
+        <v>0.626021</v>
       </c>
       <c r="C120" t="n">
-        <v>0.548561</v>
+        <v>0.550557</v>
       </c>
       <c r="D120" t="n">
-        <v>0.718041</v>
+        <v>0.720436</v>
       </c>
       <c r="E120" t="n">
-        <v>0.547894</v>
+        <v>0.550138</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5137119999999999</v>
+        <v>0.515668</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6288629999999999</v>
+        <v>0.629231</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5563</v>
+        <v>0.556627</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63346</v>
+        <v>0.63493</v>
       </c>
       <c r="E121" t="n">
-        <v>0.553897</v>
+        <v>0.558514</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520931</v>
+        <v>0.5267770000000001</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.637761</v>
+        <v>0.639778</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572779</v>
+        <v>0.565827</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6447040000000001</v>
+        <v>0.646463</v>
       </c>
       <c r="E122" t="n">
-        <v>0.562763</v>
+        <v>0.562547</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5308929999999999</v>
+        <v>0.532913</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.64929</v>
+        <v>0.651298</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580387</v>
+        <v>0.581748</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6573329999999999</v>
+        <v>0.659498</v>
       </c>
       <c r="E123" t="n">
-        <v>0.69092</v>
+        <v>0.689831</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7046480000000001</v>
+        <v>0.707203</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739303</v>
+        <v>0.742484</v>
       </c>
       <c r="C124" t="n">
-        <v>0.732291</v>
+        <v>0.73441</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6695179999999999</v>
+        <v>0.6707959999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.689592</v>
+        <v>0.690432</v>
       </c>
       <c r="F124" t="n">
-        <v>0.706144</v>
+        <v>0.707032</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740434</v>
+        <v>0.743578</v>
       </c>
       <c r="C125" t="n">
-        <v>0.733552</v>
+        <v>0.735943</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680804</v>
+        <v>0.682522</v>
       </c>
       <c r="E125" t="n">
-        <v>0.691448</v>
+        <v>0.691652</v>
       </c>
       <c r="F125" t="n">
-        <v>0.707026</v>
+        <v>0.708999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7423070000000001</v>
+        <v>0.742915</v>
       </c>
       <c r="C126" t="n">
-        <v>0.735493</v>
+        <v>0.735409</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695641</v>
+        <v>0.696704</v>
       </c>
       <c r="E126" t="n">
-        <v>0.691441</v>
+        <v>0.691249</v>
       </c>
       <c r="F126" t="n">
-        <v>0.70783</v>
+        <v>0.7103930000000001</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742357</v>
+        <v>0.742918</v>
       </c>
       <c r="C127" t="n">
-        <v>0.736726</v>
+        <v>0.740173</v>
       </c>
       <c r="D127" t="n">
-        <v>0.710989</v>
+        <v>0.713385</v>
       </c>
       <c r="E127" t="n">
-        <v>0.693381</v>
+        <v>0.69469</v>
       </c>
       <c r="F127" t="n">
-        <v>0.709386</v>
+        <v>0.712465</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743708</v>
+        <v>0.743248</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738978</v>
+        <v>0.740228</v>
       </c>
       <c r="D128" t="n">
-        <v>0.724627</v>
+        <v>0.727502</v>
       </c>
       <c r="E128" t="n">
-        <v>0.693404</v>
+        <v>0.696286</v>
       </c>
       <c r="F128" t="n">
-        <v>0.711085</v>
+        <v>0.713363</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746796</v>
+        <v>0.748404</v>
       </c>
       <c r="C129" t="n">
-        <v>0.740936</v>
+        <v>0.7408670000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.73933</v>
+        <v>0.741017</v>
       </c>
       <c r="E129" t="n">
-        <v>0.693908</v>
+        <v>0.694727</v>
       </c>
       <c r="F129" t="n">
-        <v>0.713056</v>
+        <v>0.7156709999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745599</v>
+        <v>0.746932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.742287</v>
+        <v>0.746404</v>
       </c>
       <c r="D130" t="n">
-        <v>0.75209</v>
+        <v>0.754601</v>
       </c>
       <c r="E130" t="n">
-        <v>0.697155</v>
+        <v>0.696124</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7162849999999999</v>
+        <v>0.717325</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748243</v>
+        <v>0.7479</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745635</v>
+        <v>0.747844</v>
       </c>
       <c r="D131" t="n">
-        <v>0.769136</v>
+        <v>0.770881</v>
       </c>
       <c r="E131" t="n">
-        <v>0.697565</v>
+        <v>0.6979300000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.717141</v>
+        <v>0.719626</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751685</v>
+        <v>0.751329</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7491719999999999</v>
+        <v>0.754344</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784218</v>
+        <v>0.785906</v>
       </c>
       <c r="E132" t="n">
-        <v>0.700518</v>
+        <v>0.70164</v>
       </c>
       <c r="F132" t="n">
-        <v>0.722462</v>
+        <v>0.723108</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755555</v>
+        <v>0.756874</v>
       </c>
       <c r="C133" t="n">
-        <v>0.753846</v>
+        <v>0.755791</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80088</v>
+        <v>0.803361</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7030729999999999</v>
+        <v>0.702727</v>
       </c>
       <c r="F133" t="n">
-        <v>0.724285</v>
+        <v>0.727164</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761684</v>
+        <v>0.761377</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761358</v>
+        <v>0.761653</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815626</v>
+        <v>0.817846</v>
       </c>
       <c r="E134" t="n">
-        <v>0.706933</v>
+        <v>0.708564</v>
       </c>
       <c r="F134" t="n">
-        <v>0.731588</v>
+        <v>0.732804</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.76786</v>
+        <v>0.768353</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766741</v>
+        <v>0.769767</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690037</v>
+        <v>0.69075</v>
       </c>
       <c r="E135" t="n">
-        <v>0.711933</v>
+        <v>0.7130919999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>0.737115</v>
+        <v>0.7400910000000001</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77646</v>
+        <v>0.775328</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778826</v>
+        <v>0.779253</v>
       </c>
       <c r="D136" t="n">
-        <v>0.699977</v>
+        <v>0.700669</v>
       </c>
       <c r="E136" t="n">
-        <v>0.721002</v>
+        <v>0.719369</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750738</v>
+        <v>0.750986</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786851</v>
+        <v>0.787705</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7938809999999999</v>
+        <v>0.795963</v>
       </c>
       <c r="D137" t="n">
-        <v>0.710944</v>
+        <v>0.711248</v>
       </c>
       <c r="E137" t="n">
-        <v>0.823825</v>
+        <v>0.824437</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835658</v>
+        <v>0.835757</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864676</v>
+        <v>0.864263</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862256</v>
+        <v>0.86182</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722477</v>
+        <v>0.724333</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825065</v>
+        <v>0.824443</v>
       </c>
       <c r="F138" t="n">
-        <v>0.836306</v>
+        <v>0.83707</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864545</v>
+        <v>0.864482</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863408</v>
+        <v>0.863031</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73433</v>
+        <v>0.735375</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825418</v>
+        <v>0.825767</v>
       </c>
       <c r="F139" t="n">
-        <v>0.837939</v>
+        <v>0.837292</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865549</v>
+        <v>0.865544</v>
       </c>
       <c r="C140" t="n">
-        <v>0.865042</v>
+        <v>0.864538</v>
       </c>
       <c r="D140" t="n">
-        <v>0.747776</v>
+        <v>0.748744</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8260420000000001</v>
+        <v>0.826824</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839144</v>
+        <v>0.839594</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865936</v>
+        <v>0.867439</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8662530000000001</v>
+        <v>0.866906</v>
       </c>
       <c r="D141" t="n">
-        <v>0.761143</v>
+        <v>0.762078</v>
       </c>
       <c r="E141" t="n">
-        <v>0.827639</v>
+        <v>0.826819</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840122</v>
+        <v>0.840738</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864533</v>
+        <v>0.865424</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866314</v>
+        <v>0.867187</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774017</v>
+        <v>0.7752830000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>0.826539</v>
+        <v>0.827367</v>
       </c>
       <c r="F142" t="n">
-        <v>0.841458</v>
+        <v>0.8420069999999999</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867157</v>
+        <v>0.868361</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8683689999999999</v>
+        <v>0.86993</v>
       </c>
       <c r="D143" t="n">
-        <v>0.789529</v>
+        <v>0.790631</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827473</v>
+        <v>0.828097</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844963</v>
+        <v>0.844682</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116953</v>
+        <v>0.11569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.123806</v>
+        <v>0.112477</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132349</v>
+        <v>0.132422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110859</v>
+        <v>0.111026</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1089</v>
+        <v>0.108414</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.124581</v>
+        <v>0.115449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.124573</v>
+        <v>0.113897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140837</v>
+        <v>0.140003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.111024</v>
+        <v>0.111483</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108597</v>
+        <v>0.10855</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.125686</v>
+        <v>0.11622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.115388</v>
+        <v>0.115196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147419</v>
+        <v>0.146554</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111301</v>
+        <v>0.111748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.10907</v>
+        <v>0.108875</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.128557</v>
+        <v>0.117746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.126994</v>
+        <v>0.115965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155996</v>
+        <v>0.153653</v>
       </c>
       <c r="E5" t="n">
-        <v>0.111619</v>
+        <v>0.112111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109543</v>
+        <v>0.109257</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.127487</v>
+        <v>0.120095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.128979</v>
+        <v>0.119234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163091</v>
+        <v>0.161423</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11219</v>
+        <v>0.112327</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110704</v>
+        <v>0.110143</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.140724</v>
+        <v>0.122382</v>
       </c>
       <c r="C7" t="n">
-        <v>0.127115</v>
+        <v>0.121793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127825</v>
+        <v>0.128165</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113829</v>
+        <v>0.113107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.111932</v>
+        <v>0.111086</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128237</v>
+        <v>0.128765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131397</v>
+        <v>0.130636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131381</v>
+        <v>0.131374</v>
       </c>
       <c r="E8" t="n">
-        <v>0.115384</v>
+        <v>0.114861</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113914</v>
+        <v>0.112946</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.151882</v>
+        <v>0.138648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142244</v>
+        <v>0.137334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136364</v>
+        <v>0.135776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.116245</v>
+        <v>0.116144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.110084</v>
+        <v>0.109527</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125623</v>
+        <v>0.125741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.119267</v>
+        <v>0.117629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.141018</v>
+        <v>0.140237</v>
       </c>
       <c r="E10" t="n">
-        <v>0.11687</v>
+        <v>0.11638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11092</v>
+        <v>0.109829</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126512</v>
+        <v>0.124234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.126867</v>
+        <v>0.117031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145177</v>
+        <v>0.144689</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116435</v>
+        <v>0.119162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.111215</v>
+        <v>0.110077</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124794</v>
+        <v>0.125918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.122649</v>
+        <v>0.123057</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149827</v>
+        <v>0.149771</v>
       </c>
       <c r="E12" t="n">
-        <v>0.116856</v>
+        <v>0.118622</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110537</v>
+        <v>0.110423</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124716</v>
+        <v>0.129738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.127836</v>
+        <v>0.118656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.155879</v>
+        <v>0.155294</v>
       </c>
       <c r="E13" t="n">
-        <v>0.117082</v>
+        <v>0.118835</v>
       </c>
       <c r="F13" t="n">
-        <v>0.110936</v>
+        <v>0.110491</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125875</v>
+        <v>0.127762</v>
       </c>
       <c r="C14" t="n">
-        <v>0.123399</v>
+        <v>0.124326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16183</v>
+        <v>0.160946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.117453</v>
+        <v>0.117121</v>
       </c>
       <c r="F14" t="n">
-        <v>0.110857</v>
+        <v>0.111107</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126114</v>
+        <v>0.127141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.133768</v>
+        <v>0.123383</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16778</v>
+        <v>0.1673</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117107</v>
+        <v>0.120398</v>
       </c>
       <c r="F15" t="n">
-        <v>0.114035</v>
+        <v>0.11078</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.125801</v>
+        <v>0.129276</v>
       </c>
       <c r="C16" t="n">
-        <v>0.123052</v>
+        <v>0.126986</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174457</v>
+        <v>0.173842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.117663</v>
+        <v>0.117836</v>
       </c>
       <c r="F16" t="n">
-        <v>0.113859</v>
+        <v>0.111161</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.127641</v>
+        <v>0.128884</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127498</v>
+        <v>0.125834</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180934</v>
+        <v>0.180455</v>
       </c>
       <c r="E17" t="n">
-        <v>0.117664</v>
+        <v>0.123556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.111603</v>
+        <v>0.111267</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128744</v>
+        <v>0.139034</v>
       </c>
       <c r="C18" t="n">
-        <v>0.130673</v>
+        <v>0.131113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187099</v>
+        <v>0.186037</v>
       </c>
       <c r="E18" t="n">
-        <v>0.118325</v>
+        <v>0.118459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.113175</v>
+        <v>0.111743</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.130706</v>
+        <v>0.139208</v>
       </c>
       <c r="C19" t="n">
-        <v>0.134837</v>
+        <v>0.134152</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191347</v>
+        <v>0.191011</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118709</v>
+        <v>0.121376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11249</v>
+        <v>0.112051</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.134306</v>
+        <v>0.137804</v>
       </c>
       <c r="C20" t="n">
-        <v>0.144269</v>
+        <v>0.128337</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197231</v>
+        <v>0.196245</v>
       </c>
       <c r="E20" t="n">
-        <v>0.119644</v>
+        <v>0.125402</v>
       </c>
       <c r="F20" t="n">
-        <v>0.118944</v>
+        <v>0.11285</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140902</v>
+        <v>0.142022</v>
       </c>
       <c r="C21" t="n">
-        <v>0.142822</v>
+        <v>0.133992</v>
       </c>
       <c r="D21" t="n">
-        <v>0.14872</v>
+        <v>0.148793</v>
       </c>
       <c r="E21" t="n">
-        <v>0.128805</v>
+        <v>0.120693</v>
       </c>
       <c r="F21" t="n">
-        <v>0.114966</v>
+        <v>0.114308</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147899</v>
+        <v>0.151999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.156838</v>
+        <v>0.14349</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153759</v>
+        <v>0.153342</v>
       </c>
       <c r="E22" t="n">
-        <v>0.132163</v>
+        <v>0.124585</v>
       </c>
       <c r="F22" t="n">
-        <v>0.118736</v>
+        <v>0.118637</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15917</v>
+        <v>0.168513</v>
       </c>
       <c r="C23" t="n">
-        <v>0.164997</v>
+        <v>0.16589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159061</v>
+        <v>0.158222</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125425</v>
+        <v>0.125033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1299</v>
+        <v>0.118821</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134822</v>
+        <v>0.134588</v>
       </c>
       <c r="C24" t="n">
-        <v>0.136931</v>
+        <v>0.13721</v>
       </c>
       <c r="D24" t="n">
-        <v>0.163427</v>
+        <v>0.164411</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125499</v>
+        <v>0.125392</v>
       </c>
       <c r="F24" t="n">
-        <v>0.121285</v>
+        <v>0.120886</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134819</v>
+        <v>0.134188</v>
       </c>
       <c r="C25" t="n">
-        <v>0.134834</v>
+        <v>0.136248</v>
       </c>
       <c r="D25" t="n">
-        <v>0.168331</v>
+        <v>0.167843</v>
       </c>
       <c r="E25" t="n">
-        <v>0.126438</v>
+        <v>0.124926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.121753</v>
+        <v>0.120202</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135111</v>
+        <v>0.135281</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128724</v>
+        <v>0.137296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172695</v>
+        <v>0.17203</v>
       </c>
       <c r="E26" t="n">
-        <v>0.132415</v>
+        <v>0.126331</v>
       </c>
       <c r="F26" t="n">
-        <v>0.120836</v>
+        <v>0.121416</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137037</v>
+        <v>0.135679</v>
       </c>
       <c r="C27" t="n">
-        <v>0.134061</v>
+        <v>0.136551</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177176</v>
+        <v>0.177013</v>
       </c>
       <c r="E27" t="n">
-        <v>0.126206</v>
+        <v>0.125863</v>
       </c>
       <c r="F27" t="n">
-        <v>0.123127</v>
+        <v>0.124363</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136235</v>
+        <v>0.138204</v>
       </c>
       <c r="C28" t="n">
-        <v>0.138293</v>
+        <v>0.134737</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182375</v>
+        <v>0.183166</v>
       </c>
       <c r="E28" t="n">
-        <v>0.125801</v>
+        <v>0.125818</v>
       </c>
       <c r="F28" t="n">
-        <v>0.126832</v>
+        <v>0.125933</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136083</v>
+        <v>0.137281</v>
       </c>
       <c r="C29" t="n">
-        <v>0.147681</v>
+        <v>0.133558</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187953</v>
+        <v>0.18766</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12611</v>
+        <v>0.12644</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132841</v>
+        <v>0.12277</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138375</v>
+        <v>0.137845</v>
       </c>
       <c r="C30" t="n">
-        <v>0.144964</v>
+        <v>0.14019</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192874</v>
+        <v>0.192813</v>
       </c>
       <c r="E30" t="n">
-        <v>0.127394</v>
+        <v>0.126313</v>
       </c>
       <c r="F30" t="n">
-        <v>0.128254</v>
+        <v>0.120544</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139414</v>
+        <v>0.139807</v>
       </c>
       <c r="C31" t="n">
-        <v>0.14134</v>
+        <v>0.138416</v>
       </c>
       <c r="D31" t="n">
-        <v>0.19749</v>
+        <v>0.197522</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127024</v>
+        <v>0.126891</v>
       </c>
       <c r="F31" t="n">
-        <v>0.122903</v>
+        <v>0.121911</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.142802</v>
+        <v>0.141799</v>
       </c>
       <c r="C32" t="n">
-        <v>0.147255</v>
+        <v>0.145059</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203793</v>
+        <v>0.203895</v>
       </c>
       <c r="E32" t="n">
-        <v>0.127286</v>
+        <v>0.127717</v>
       </c>
       <c r="F32" t="n">
-        <v>0.123507</v>
+        <v>0.11987</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144161</v>
+        <v>0.145987</v>
       </c>
       <c r="C33" t="n">
-        <v>0.146323</v>
+        <v>0.137542</v>
       </c>
       <c r="D33" t="n">
-        <v>0.21009</v>
+        <v>0.209469</v>
       </c>
       <c r="E33" t="n">
-        <v>0.133228</v>
+        <v>0.128376</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129694</v>
+        <v>0.123122</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148314</v>
+        <v>0.148945</v>
       </c>
       <c r="C34" t="n">
-        <v>0.151567</v>
+        <v>0.152364</v>
       </c>
       <c r="D34" t="n">
-        <v>0.214192</v>
+        <v>0.213845</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129332</v>
+        <v>0.128633</v>
       </c>
       <c r="F34" t="n">
-        <v>0.128521</v>
+        <v>0.122153</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153348</v>
+        <v>0.152947</v>
       </c>
       <c r="C35" t="n">
-        <v>0.151655</v>
+        <v>0.155355</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16526</v>
+        <v>0.165665</v>
       </c>
       <c r="E35" t="n">
-        <v>0.13332</v>
+        <v>0.135202</v>
       </c>
       <c r="F35" t="n">
-        <v>0.133063</v>
+        <v>0.131957</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160409</v>
+        <v>0.159975</v>
       </c>
       <c r="C36" t="n">
-        <v>0.164175</v>
+        <v>0.162382</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169532</v>
+        <v>0.169467</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141643</v>
+        <v>0.142196</v>
       </c>
       <c r="F36" t="n">
-        <v>0.136966</v>
+        <v>0.134726</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170458</v>
+        <v>0.166969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.174569</v>
+        <v>0.167247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173383</v>
+        <v>0.174162</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137372</v>
+        <v>0.138858</v>
       </c>
       <c r="F37" t="n">
-        <v>0.144589</v>
+        <v>0.143375</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.148129</v>
+        <v>0.147954</v>
       </c>
       <c r="C38" t="n">
-        <v>0.154526</v>
+        <v>0.152831</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17767</v>
+        <v>0.178017</v>
       </c>
       <c r="E38" t="n">
-        <v>0.138721</v>
+        <v>0.13767</v>
       </c>
       <c r="F38" t="n">
-        <v>0.136836</v>
+        <v>0.138806</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148025</v>
+        <v>0.147632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15554</v>
+        <v>0.146853</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182831</v>
+        <v>0.182197</v>
       </c>
       <c r="E39" t="n">
-        <v>0.140765</v>
+        <v>0.13831</v>
       </c>
       <c r="F39" t="n">
-        <v>0.139689</v>
+        <v>0.137756</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147979</v>
+        <v>0.146952</v>
       </c>
       <c r="C40" t="n">
-        <v>0.155912</v>
+        <v>0.153767</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186423</v>
+        <v>0.186232</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137356</v>
+        <v>0.136971</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139257</v>
+        <v>0.14127</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148955</v>
+        <v>0.148002</v>
       </c>
       <c r="C41" t="n">
-        <v>0.149561</v>
+        <v>0.15395</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191753</v>
+        <v>0.191445</v>
       </c>
       <c r="E41" t="n">
-        <v>0.140549</v>
+        <v>0.138266</v>
       </c>
       <c r="F41" t="n">
-        <v>0.147025</v>
+        <v>0.147302</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148707</v>
+        <v>0.14843</v>
       </c>
       <c r="C42" t="n">
-        <v>0.154267</v>
+        <v>0.150765</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196495</v>
+        <v>0.196438</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141955</v>
+        <v>0.138653</v>
       </c>
       <c r="F42" t="n">
-        <v>0.139453</v>
+        <v>0.144714</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.149522</v>
+        <v>0.150282</v>
       </c>
       <c r="C43" t="n">
-        <v>0.148982</v>
+        <v>0.15646</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201404</v>
+        <v>0.201142</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1441</v>
+        <v>0.138434</v>
       </c>
       <c r="F43" t="n">
-        <v>0.144445</v>
+        <v>0.13784</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151671</v>
+        <v>0.154492</v>
       </c>
       <c r="C44" t="n">
-        <v>0.151003</v>
+        <v>0.158765</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20673</v>
+        <v>0.206457</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143443</v>
+        <v>0.138305</v>
       </c>
       <c r="F44" t="n">
-        <v>0.149307</v>
+        <v>0.139062</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.15277</v>
+        <v>0.151496</v>
       </c>
       <c r="C45" t="n">
-        <v>0.151132</v>
+        <v>0.151555</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211594</v>
+        <v>0.21159</v>
       </c>
       <c r="E45" t="n">
-        <v>0.140371</v>
+        <v>0.139166</v>
       </c>
       <c r="F45" t="n">
-        <v>0.139928</v>
+        <v>0.146302</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.154914</v>
+        <v>0.154144</v>
       </c>
       <c r="C46" t="n">
-        <v>0.154664</v>
+        <v>0.154183</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216588</v>
+        <v>0.216438</v>
       </c>
       <c r="E46" t="n">
-        <v>0.146379</v>
+        <v>0.140385</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152693</v>
+        <v>0.137709</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156808</v>
+        <v>0.157797</v>
       </c>
       <c r="C47" t="n">
-        <v>0.167094</v>
+        <v>0.164789</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222752</v>
+        <v>0.222347</v>
       </c>
       <c r="E47" t="n">
-        <v>0.141569</v>
+        <v>0.141307</v>
       </c>
       <c r="F47" t="n">
-        <v>0.142745</v>
+        <v>0.151273</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.163214</v>
+        <v>0.160792</v>
       </c>
       <c r="C48" t="n">
-        <v>0.162154</v>
+        <v>0.161839</v>
       </c>
       <c r="D48" t="n">
-        <v>0.226978</v>
+        <v>0.226676</v>
       </c>
       <c r="E48" t="n">
-        <v>0.14426</v>
+        <v>0.145128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.146929</v>
+        <v>0.145586</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.170065</v>
+        <v>0.164318</v>
       </c>
       <c r="C49" t="n">
-        <v>0.164879</v>
+        <v>0.164898</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231926</v>
+        <v>0.231629</v>
       </c>
       <c r="E49" t="n">
-        <v>0.148667</v>
+        <v>0.149193</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148886</v>
+        <v>0.146362</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.172365</v>
+        <v>0.170083</v>
       </c>
       <c r="C50" t="n">
-        <v>0.18333</v>
+        <v>0.170716</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171531</v>
+        <v>0.171317</v>
       </c>
       <c r="E50" t="n">
-        <v>0.155331</v>
+        <v>0.151588</v>
       </c>
       <c r="F50" t="n">
-        <v>0.157127</v>
+        <v>0.15535</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.187775</v>
+        <v>0.177397</v>
       </c>
       <c r="C51" t="n">
-        <v>0.184577</v>
+        <v>0.178553</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175464</v>
+        <v>0.17494</v>
       </c>
       <c r="E51" t="n">
-        <v>0.149467</v>
+        <v>0.14976</v>
       </c>
       <c r="F51" t="n">
-        <v>0.159927</v>
+        <v>0.15293</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.184635</v>
+        <v>0.187244</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190096</v>
+        <v>0.188291</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178927</v>
+        <v>0.178397</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150176</v>
+        <v>0.159284</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153156</v>
+        <v>0.161164</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158827</v>
+        <v>0.159697</v>
       </c>
       <c r="C53" t="n">
-        <v>0.165239</v>
+        <v>0.165885</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183326</v>
+        <v>0.182902</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150247</v>
+        <v>0.151177</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153066</v>
+        <v>0.152876</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.15992</v>
+        <v>0.160595</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166755</v>
+        <v>0.166814</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187649</v>
+        <v>0.187547</v>
       </c>
       <c r="E54" t="n">
-        <v>0.151629</v>
+        <v>0.150641</v>
       </c>
       <c r="F54" t="n">
-        <v>0.163639</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160802</v>
+        <v>0.159749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166927</v>
+        <v>0.166304</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192117</v>
+        <v>0.192134</v>
       </c>
       <c r="E55" t="n">
-        <v>0.150542</v>
+        <v>0.15037</v>
       </c>
       <c r="F55" t="n">
-        <v>0.154053</v>
+        <v>0.154316</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.160234</v>
+        <v>0.161763</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168372</v>
+        <v>0.175589</v>
       </c>
       <c r="D56" t="n">
         <v>0.197197</v>
       </c>
       <c r="E56" t="n">
-        <v>0.150653</v>
+        <v>0.151293</v>
       </c>
       <c r="F56" t="n">
-        <v>0.155134</v>
+        <v>0.15725</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162101</v>
+        <v>0.16229</v>
       </c>
       <c r="C57" t="n">
-        <v>0.173418</v>
+        <v>0.172728</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202312</v>
+        <v>0.202162</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151127</v>
+        <v>0.152128</v>
       </c>
       <c r="F57" t="n">
-        <v>0.160293</v>
+        <v>0.155449</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163056</v>
+        <v>0.162542</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177004</v>
+        <v>0.170917</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207633</v>
+        <v>0.207186</v>
       </c>
       <c r="E58" t="n">
-        <v>0.156693</v>
+        <v>0.152555</v>
       </c>
       <c r="F58" t="n">
-        <v>0.156831</v>
+        <v>0.156294</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.164814</v>
+        <v>0.165713</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172659</v>
+        <v>0.178424</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2137</v>
+        <v>0.21187</v>
       </c>
       <c r="E59" t="n">
-        <v>0.15202</v>
+        <v>0.151752</v>
       </c>
       <c r="F59" t="n">
-        <v>0.158832</v>
+        <v>0.157005</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.165897</v>
+        <v>0.166588</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173915</v>
+        <v>0.177729</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218358</v>
+        <v>0.217532</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15501</v>
+        <v>0.154011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.164901</v>
+        <v>0.161183</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168092</v>
+        <v>0.167938</v>
       </c>
       <c r="C61" t="n">
-        <v>0.176717</v>
+        <v>0.174616</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223035</v>
+        <v>0.222686</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155728</v>
+        <v>0.155097</v>
       </c>
       <c r="F61" t="n">
-        <v>0.15893</v>
+        <v>0.166213</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172077</v>
+        <v>0.171418</v>
       </c>
       <c r="C62" t="n">
-        <v>0.186371</v>
+        <v>0.179228</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228266</v>
+        <v>0.228298</v>
       </c>
       <c r="E62" t="n">
-        <v>0.157683</v>
+        <v>0.1766</v>
       </c>
       <c r="F62" t="n">
-        <v>0.163582</v>
+        <v>0.161118</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17585</v>
+        <v>0.174793</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183674</v>
+        <v>0.181399</v>
       </c>
       <c r="D63" t="n">
-        <v>0.233727</v>
+        <v>0.23254</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161589</v>
+        <v>0.160938</v>
       </c>
       <c r="F63" t="n">
-        <v>0.166818</v>
+        <v>0.16539</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181275</v>
+        <v>0.179668</v>
       </c>
       <c r="C64" t="n">
-        <v>0.188475</v>
+        <v>0.197347</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177038</v>
+        <v>0.176842</v>
       </c>
       <c r="E64" t="n">
-        <v>0.165738</v>
+        <v>0.165272</v>
       </c>
       <c r="F64" t="n">
-        <v>0.170691</v>
+        <v>0.170832</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.186166</v>
+        <v>0.186372</v>
       </c>
       <c r="C65" t="n">
-        <v>0.195568</v>
+        <v>0.202358</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181464</v>
+        <v>0.180453</v>
       </c>
       <c r="E65" t="n">
-        <v>0.174259</v>
+        <v>0.172481</v>
       </c>
       <c r="F65" t="n">
-        <v>0.177126</v>
+        <v>0.17735</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19524</v>
+        <v>0.195551</v>
       </c>
       <c r="C66" t="n">
-        <v>0.208312</v>
+        <v>0.216606</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186691</v>
+        <v>0.185567</v>
       </c>
       <c r="E66" t="n">
-        <v>0.161536</v>
+        <v>0.161922</v>
       </c>
       <c r="F66" t="n">
-        <v>0.163246</v>
+        <v>0.165006</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.17971</v>
+        <v>0.18074</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174595</v>
+        <v>0.175054</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190851</v>
+        <v>0.190826</v>
       </c>
       <c r="E67" t="n">
-        <v>0.162135</v>
+        <v>0.16854</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1636</v>
+        <v>0.163175</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.180471</v>
+        <v>0.181355</v>
       </c>
       <c r="C68" t="n">
-        <v>0.175106</v>
+        <v>0.175363</v>
       </c>
       <c r="D68" t="n">
-        <v>0.199542</v>
+        <v>0.196979</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162362</v>
+        <v>0.162339</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162337</v>
+        <v>0.162637</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180344</v>
+        <v>0.18114</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175343</v>
+        <v>0.176948</v>
       </c>
       <c r="D69" t="n">
-        <v>0.204025</v>
+        <v>0.202764</v>
       </c>
       <c r="E69" t="n">
-        <v>0.163594</v>
+        <v>0.162984</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164566</v>
+        <v>0.16461</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181968</v>
+        <v>0.182812</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176586</v>
+        <v>0.176745</v>
       </c>
       <c r="D70" t="n">
-        <v>0.211505</v>
+        <v>0.20971</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163372</v>
+        <v>0.163645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.165413</v>
+        <v>0.164787</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.18453</v>
+        <v>0.184271</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177863</v>
+        <v>0.177651</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217706</v>
+        <v>0.216993</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163292</v>
+        <v>0.164497</v>
       </c>
       <c r="F71" t="n">
-        <v>0.165837</v>
+        <v>0.166701</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.183598</v>
+        <v>0.188061</v>
       </c>
       <c r="C72" t="n">
-        <v>0.17906</v>
+        <v>0.178946</v>
       </c>
       <c r="D72" t="n">
-        <v>0.225277</v>
+        <v>0.223508</v>
       </c>
       <c r="E72" t="n">
-        <v>0.170148</v>
+        <v>0.164213</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166655</v>
+        <v>0.16856</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184678</v>
+        <v>0.187615</v>
       </c>
       <c r="C73" t="n">
-        <v>0.18025</v>
+        <v>0.18625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.233617</v>
+        <v>0.232136</v>
       </c>
       <c r="E73" t="n">
-        <v>0.165444</v>
+        <v>0.165833</v>
       </c>
       <c r="F73" t="n">
-        <v>0.167816</v>
+        <v>0.173316</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.187211</v>
+        <v>0.188793</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182355</v>
+        <v>0.182356</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242983</v>
+        <v>0.241796</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166162</v>
+        <v>0.166166</v>
       </c>
       <c r="F74" t="n">
-        <v>0.169717</v>
+        <v>0.169351</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189552</v>
+        <v>0.192415</v>
       </c>
       <c r="C75" t="n">
-        <v>0.184616</v>
+        <v>0.188624</v>
       </c>
       <c r="D75" t="n">
-        <v>0.25253</v>
+        <v>0.250044</v>
       </c>
       <c r="E75" t="n">
-        <v>0.167761</v>
+        <v>0.168017</v>
       </c>
       <c r="F75" t="n">
-        <v>0.171728</v>
+        <v>0.171393</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193023</v>
+        <v>0.193589</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189452</v>
+        <v>0.187886</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262356</v>
+        <v>0.257684</v>
       </c>
       <c r="E76" t="n">
-        <v>0.17151</v>
+        <v>0.1696</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173767</v>
+        <v>0.173355</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197082</v>
+        <v>0.196055</v>
       </c>
       <c r="C77" t="n">
-        <v>0.196661</v>
+        <v>0.192691</v>
       </c>
       <c r="D77" t="n">
-        <v>0.274233</v>
+        <v>0.267608</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17207</v>
+        <v>0.173296</v>
       </c>
       <c r="F77" t="n">
-        <v>0.178166</v>
+        <v>0.178843</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200355</v>
+        <v>0.198215</v>
       </c>
       <c r="C78" t="n">
-        <v>0.19663</v>
+        <v>0.196265</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223004</v>
+        <v>0.221451</v>
       </c>
       <c r="E78" t="n">
-        <v>0.176242</v>
+        <v>0.176871</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181359</v>
+        <v>0.181264</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.205569</v>
+        <v>0.208375</v>
       </c>
       <c r="C79" t="n">
-        <v>0.20346</v>
+        <v>0.203111</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234415</v>
+        <v>0.232599</v>
       </c>
       <c r="E79" t="n">
-        <v>0.182273</v>
+        <v>0.182625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.190024</v>
+        <v>0.188671</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215702</v>
+        <v>0.2141</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21249</v>
+        <v>0.219281</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243083</v>
+        <v>0.242903</v>
       </c>
       <c r="E80" t="n">
-        <v>0.242357</v>
+        <v>0.242054</v>
       </c>
       <c r="F80" t="n">
-        <v>0.177944</v>
+        <v>0.174568</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.359079</v>
+        <v>0.357546</v>
       </c>
       <c r="C81" t="n">
-        <v>0.185012</v>
+        <v>0.187518</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25521</v>
+        <v>0.256473</v>
       </c>
       <c r="E81" t="n">
-        <v>0.244894</v>
+        <v>0.241389</v>
       </c>
       <c r="F81" t="n">
-        <v>0.177215</v>
+        <v>0.175154</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.360331</v>
+        <v>0.361382</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182683</v>
+        <v>0.184264</v>
       </c>
       <c r="D82" t="n">
-        <v>0.269653</v>
+        <v>0.268792</v>
       </c>
       <c r="E82" t="n">
-        <v>0.246047</v>
+        <v>0.239921</v>
       </c>
       <c r="F82" t="n">
-        <v>0.184872</v>
+        <v>0.177782</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.361321</v>
+        <v>0.362783</v>
       </c>
       <c r="C83" t="n">
-        <v>0.185164</v>
+        <v>0.184634</v>
       </c>
       <c r="D83" t="n">
-        <v>0.283274</v>
+        <v>0.28236</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242011</v>
+        <v>0.245213</v>
       </c>
       <c r="F83" t="n">
-        <v>0.177347</v>
+        <v>0.177785</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.361217</v>
+        <v>0.36232</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184836</v>
+        <v>0.184844</v>
       </c>
       <c r="D84" t="n">
-        <v>0.297679</v>
+        <v>0.298109</v>
       </c>
       <c r="E84" t="n">
-        <v>0.243684</v>
+        <v>0.245975</v>
       </c>
       <c r="F84" t="n">
-        <v>0.178541</v>
+        <v>0.178443</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363037</v>
+        <v>0.366554</v>
       </c>
       <c r="C85" t="n">
-        <v>0.186186</v>
+        <v>0.186136</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313459</v>
+        <v>0.313626</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243358</v>
+        <v>0.244512</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180358</v>
+        <v>0.179617</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.365926</v>
+        <v>0.368176</v>
       </c>
       <c r="C86" t="n">
-        <v>0.187546</v>
+        <v>0.187237</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328158</v>
+        <v>0.327535</v>
       </c>
       <c r="E86" t="n">
-        <v>0.243216</v>
+        <v>0.241502</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181476</v>
+        <v>0.187948</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367841</v>
+        <v>0.367286</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1909</v>
+        <v>0.19062</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343408</v>
+        <v>0.343301</v>
       </c>
       <c r="E87" t="n">
-        <v>0.239361</v>
+        <v>0.241117</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183532</v>
+        <v>0.183458</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.367018</v>
+        <v>0.367684</v>
       </c>
       <c r="C88" t="n">
-        <v>0.192748</v>
+        <v>0.192183</v>
       </c>
       <c r="D88" t="n">
-        <v>0.359515</v>
+        <v>0.360793</v>
       </c>
       <c r="E88" t="n">
-        <v>0.24313</v>
+        <v>0.241978</v>
       </c>
       <c r="F88" t="n">
-        <v>0.186883</v>
+        <v>0.188107</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36847</v>
+        <v>0.370546</v>
       </c>
       <c r="C89" t="n">
-        <v>0.193955</v>
+        <v>0.193817</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375243</v>
+        <v>0.375767</v>
       </c>
       <c r="E89" t="n">
-        <v>0.239329</v>
+        <v>0.239927</v>
       </c>
       <c r="F89" t="n">
-        <v>0.189151</v>
+        <v>0.18771</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.370746</v>
+        <v>0.373383</v>
       </c>
       <c r="C90" t="n">
-        <v>0.19953</v>
+        <v>0.197684</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392698</v>
+        <v>0.393281</v>
       </c>
       <c r="E90" t="n">
-        <v>0.238144</v>
+        <v>0.240518</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191496</v>
+        <v>0.190889</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370703</v>
+        <v>0.374577</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20354</v>
+        <v>0.203485</v>
       </c>
       <c r="D91" t="n">
-        <v>0.408355</v>
+        <v>0.40818</v>
       </c>
       <c r="E91" t="n">
-        <v>0.240503</v>
+        <v>0.239022</v>
       </c>
       <c r="F91" t="n">
-        <v>0.195665</v>
+        <v>0.195273</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.380649</v>
+        <v>0.378198</v>
       </c>
       <c r="C92" t="n">
-        <v>0.214899</v>
+        <v>0.208526</v>
       </c>
       <c r="D92" t="n">
-        <v>0.357923</v>
+        <v>0.359286</v>
       </c>
       <c r="E92" t="n">
-        <v>0.241978</v>
+        <v>0.245284</v>
       </c>
       <c r="F92" t="n">
-        <v>0.206418</v>
+        <v>0.201738</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381104</v>
+        <v>0.385033</v>
       </c>
       <c r="C93" t="n">
-        <v>0.216878</v>
+        <v>0.216854</v>
       </c>
       <c r="D93" t="n">
-        <v>0.368247</v>
+        <v>0.371053</v>
       </c>
       <c r="E93" t="n">
-        <v>0.244906</v>
+        <v>0.245807</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209437</v>
+        <v>0.209659</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.388064</v>
+        <v>0.387651</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229566</v>
+        <v>0.230749</v>
       </c>
       <c r="D94" t="n">
-        <v>0.377067</v>
+        <v>0.379266</v>
       </c>
       <c r="E94" t="n">
-        <v>0.404229</v>
+        <v>0.39971</v>
       </c>
       <c r="F94" t="n">
-        <v>0.275092</v>
+        <v>0.272108</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.528255</v>
+        <v>0.528524</v>
       </c>
       <c r="C95" t="n">
-        <v>0.291517</v>
+        <v>0.295618</v>
       </c>
       <c r="D95" t="n">
-        <v>0.393792</v>
+        <v>0.397042</v>
       </c>
       <c r="E95" t="n">
-        <v>0.399386</v>
+        <v>0.399469</v>
       </c>
       <c r="F95" t="n">
-        <v>0.276549</v>
+        <v>0.275231</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.527602</v>
+        <v>0.528133</v>
       </c>
       <c r="C96" t="n">
-        <v>0.297591</v>
+        <v>0.298856</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408686</v>
+        <v>0.409718</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398209</v>
+        <v>0.398507</v>
       </c>
       <c r="F96" t="n">
-        <v>0.278462</v>
+        <v>0.271881</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.528024</v>
+        <v>0.528064</v>
       </c>
       <c r="C97" t="n">
-        <v>0.297872</v>
+        <v>0.300781</v>
       </c>
       <c r="D97" t="n">
-        <v>0.42034</v>
+        <v>0.421068</v>
       </c>
       <c r="E97" t="n">
-        <v>0.39854</v>
+        <v>0.398829</v>
       </c>
       <c r="F97" t="n">
-        <v>0.282943</v>
+        <v>0.277588</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5289779999999999</v>
+        <v>0.529817</v>
       </c>
       <c r="C98" t="n">
-        <v>0.301934</v>
+        <v>0.295337</v>
       </c>
       <c r="D98" t="n">
-        <v>0.433369</v>
+        <v>0.434389</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397744</v>
+        <v>0.398296</v>
       </c>
       <c r="F98" t="n">
-        <v>0.280831</v>
+        <v>0.274308</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528276</v>
+        <v>0.5283409999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.303679</v>
+        <v>0.294927</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450981</v>
+        <v>0.450429</v>
       </c>
       <c r="E99" t="n">
-        <v>0.397813</v>
+        <v>0.396962</v>
       </c>
       <c r="F99" t="n">
-        <v>0.282314</v>
+        <v>0.278389</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.529477</v>
+        <v>0.531224</v>
       </c>
       <c r="C100" t="n">
-        <v>0.304431</v>
+        <v>0.299982</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464747</v>
+        <v>0.462865</v>
       </c>
       <c r="E100" t="n">
-        <v>0.397693</v>
+        <v>0.397763</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283263</v>
+        <v>0.273212</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.53034</v>
+        <v>0.531366</v>
       </c>
       <c r="C101" t="n">
-        <v>0.301354</v>
+        <v>0.296579</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476899</v>
+        <v>0.476103</v>
       </c>
       <c r="E101" t="n">
-        <v>0.398841</v>
+        <v>0.39863</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281601</v>
+        <v>0.285486</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5317730000000001</v>
+        <v>0.535375</v>
       </c>
       <c r="C102" t="n">
-        <v>0.301338</v>
+        <v>0.303879</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495405</v>
+        <v>0.497163</v>
       </c>
       <c r="E102" t="n">
-        <v>0.398268</v>
+        <v>0.399271</v>
       </c>
       <c r="F102" t="n">
-        <v>0.282027</v>
+        <v>0.28211</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.531938</v>
+        <v>0.532846</v>
       </c>
       <c r="C103" t="n">
-        <v>0.30777</v>
+        <v>0.313099</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5137890000000001</v>
+        <v>0.515672</v>
       </c>
       <c r="E103" t="n">
-        <v>0.398953</v>
+        <v>0.400161</v>
       </c>
       <c r="F103" t="n">
-        <v>0.285757</v>
+        <v>0.284056</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.536173</v>
+        <v>0.536375</v>
       </c>
       <c r="C104" t="n">
-        <v>0.307893</v>
+        <v>0.304188</v>
       </c>
       <c r="D104" t="n">
-        <v>0.529137</v>
+        <v>0.529953</v>
       </c>
       <c r="E104" t="n">
-        <v>0.400556</v>
+        <v>0.401334</v>
       </c>
       <c r="F104" t="n">
-        <v>0.287594</v>
+        <v>0.290998</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.538455</v>
+        <v>0.53949</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3115</v>
+        <v>0.309946</v>
       </c>
       <c r="D105" t="n">
-        <v>0.545004</v>
+        <v>0.544283</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402909</v>
+        <v>0.402824</v>
       </c>
       <c r="F105" t="n">
-        <v>0.290688</v>
+        <v>0.29592</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543357</v>
+        <v>0.544059</v>
       </c>
       <c r="C106" t="n">
-        <v>0.318284</v>
+        <v>0.318466</v>
       </c>
       <c r="D106" t="n">
-        <v>0.561549</v>
+        <v>0.563557</v>
       </c>
       <c r="E106" t="n">
-        <v>0.406507</v>
+        <v>0.406015</v>
       </c>
       <c r="F106" t="n">
-        <v>0.29525</v>
+        <v>0.292471</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.547866</v>
+        <v>0.549117</v>
       </c>
       <c r="C107" t="n">
-        <v>0.322672</v>
+        <v>0.328624</v>
       </c>
       <c r="D107" t="n">
-        <v>0.531365</v>
+        <v>0.531114</v>
       </c>
       <c r="E107" t="n">
-        <v>0.411603</v>
+        <v>0.411575</v>
       </c>
       <c r="F107" t="n">
-        <v>0.30131</v>
+        <v>0.302932</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5557879999999999</v>
+        <v>0.555612</v>
       </c>
       <c r="C108" t="n">
-        <v>0.332393</v>
+        <v>0.338338</v>
       </c>
       <c r="D108" t="n">
-        <v>0.542353</v>
+        <v>0.544856</v>
       </c>
       <c r="E108" t="n">
-        <v>0.536656</v>
+        <v>0.5348889999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>0.498719</v>
+        <v>0.497548</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.566863</v>
+        <v>0.56775</v>
       </c>
       <c r="C109" t="n">
-        <v>0.356345</v>
+        <v>0.352219</v>
       </c>
       <c r="D109" t="n">
-        <v>0.549777</v>
+        <v>0.5515949999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.532301</v>
+        <v>0.532968</v>
       </c>
       <c r="F109" t="n">
-        <v>0.496725</v>
+        <v>0.498501</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.603193</v>
+        <v>0.603752</v>
       </c>
       <c r="C110" t="n">
-        <v>0.527852</v>
+        <v>0.523555</v>
       </c>
       <c r="D110" t="n">
-        <v>0.564149</v>
+        <v>0.565055</v>
       </c>
       <c r="E110" t="n">
-        <v>0.534038</v>
+        <v>0.536099</v>
       </c>
       <c r="F110" t="n">
-        <v>0.496348</v>
+        <v>0.497748</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.603811</v>
+        <v>0.605307</v>
       </c>
       <c r="C111" t="n">
-        <v>0.526257</v>
+        <v>0.531298</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579099</v>
+        <v>0.581525</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534143</v>
+        <v>0.538391</v>
       </c>
       <c r="F111" t="n">
-        <v>0.496755</v>
+        <v>0.499115</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.606301</v>
+        <v>0.604982</v>
       </c>
       <c r="C112" t="n">
-        <v>0.528971</v>
+        <v>0.528991</v>
       </c>
       <c r="D112" t="n">
-        <v>0.588826</v>
+        <v>0.591463</v>
       </c>
       <c r="E112" t="n">
-        <v>0.535457</v>
+        <v>0.535949</v>
       </c>
       <c r="F112" t="n">
-        <v>0.497801</v>
+        <v>0.497343</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.606925</v>
+        <v>0.607363</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5291090000000001</v>
+        <v>0.529899</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60389</v>
+        <v>0.606841</v>
       </c>
       <c r="E113" t="n">
-        <v>0.534689</v>
+        <v>0.539131</v>
       </c>
       <c r="F113" t="n">
-        <v>0.50152</v>
+        <v>0.501885</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.606618</v>
+        <v>0.608827</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5311129999999999</v>
+        <v>0.531177</v>
       </c>
       <c r="D114" t="n">
-        <v>0.618551</v>
+        <v>0.620161</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5352980000000001</v>
+        <v>0.537662</v>
       </c>
       <c r="F114" t="n">
-        <v>0.49993</v>
+        <v>0.5011679999999999</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.607687</v>
+        <v>0.610851</v>
       </c>
       <c r="C115" t="n">
-        <v>0.53095</v>
+        <v>0.534965</v>
       </c>
       <c r="D115" t="n">
-        <v>0.635543</v>
+        <v>0.636218</v>
       </c>
       <c r="E115" t="n">
-        <v>0.537446</v>
+        <v>0.538555</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500474</v>
+        <v>0.505016</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6105660000000001</v>
+        <v>0.6106549999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.534653</v>
+        <v>0.5381</v>
       </c>
       <c r="D116" t="n">
-        <v>0.647765</v>
+        <v>0.649748</v>
       </c>
       <c r="E116" t="n">
-        <v>0.539276</v>
+        <v>0.542234</v>
       </c>
       <c r="F116" t="n">
-        <v>0.506408</v>
+        <v>0.506833</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.612822</v>
+        <v>0.614316</v>
       </c>
       <c r="C117" t="n">
-        <v>0.53574</v>
+        <v>0.539976</v>
       </c>
       <c r="D117" t="n">
-        <v>0.668507</v>
+        <v>0.6721819999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.539728</v>
+        <v>0.542596</v>
       </c>
       <c r="F117" t="n">
-        <v>0.504816</v>
+        <v>0.511203</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.614266</v>
+        <v>0.615428</v>
       </c>
       <c r="C118" t="n">
-        <v>0.539229</v>
+        <v>0.541007</v>
       </c>
       <c r="D118" t="n">
-        <v>0.67853</v>
+        <v>0.681015</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5415</v>
+        <v>0.543558</v>
       </c>
       <c r="F118" t="n">
-        <v>0.511893</v>
+        <v>0.511682</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.618846</v>
+        <v>0.622039</v>
       </c>
       <c r="C119" t="n">
-        <v>0.549983</v>
+        <v>0.547292</v>
       </c>
       <c r="D119" t="n">
-        <v>0.700375</v>
+        <v>0.701892</v>
       </c>
       <c r="E119" t="n">
-        <v>0.546235</v>
+        <v>0.547338</v>
       </c>
       <c r="F119" t="n">
-        <v>0.511969</v>
+        <v>0.512896</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.626021</v>
+        <v>0.6252760000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.550557</v>
+        <v>0.550275</v>
       </c>
       <c r="D120" t="n">
-        <v>0.720436</v>
+        <v>0.72257</v>
       </c>
       <c r="E120" t="n">
-        <v>0.550138</v>
+        <v>0.55374</v>
       </c>
       <c r="F120" t="n">
-        <v>0.515668</v>
+        <v>0.517279</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.629231</v>
+        <v>0.630057</v>
       </c>
       <c r="C121" t="n">
-        <v>0.556627</v>
+        <v>0.559891</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63493</v>
+        <v>0.639002</v>
       </c>
       <c r="E121" t="n">
-        <v>0.558514</v>
+        <v>0.557181</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5267770000000001</v>
+        <v>0.520932</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.639778</v>
+        <v>0.641353</v>
       </c>
       <c r="C122" t="n">
-        <v>0.565827</v>
+        <v>0.567738</v>
       </c>
       <c r="D122" t="n">
-        <v>0.646463</v>
+        <v>0.648641</v>
       </c>
       <c r="E122" t="n">
-        <v>0.562547</v>
+        <v>0.565778</v>
       </c>
       <c r="F122" t="n">
-        <v>0.532913</v>
+        <v>0.535868</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.651298</v>
+        <v>0.654764</v>
       </c>
       <c r="C123" t="n">
-        <v>0.581748</v>
+        <v>0.5825360000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.659498</v>
+        <v>0.662181</v>
       </c>
       <c r="E123" t="n">
-        <v>0.689831</v>
+        <v>0.694596</v>
       </c>
       <c r="F123" t="n">
-        <v>0.707203</v>
+        <v>0.708628</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.742484</v>
+        <v>0.742706</v>
       </c>
       <c r="C124" t="n">
-        <v>0.73441</v>
+        <v>0.740935</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6707959999999999</v>
+        <v>0.674769</v>
       </c>
       <c r="E124" t="n">
-        <v>0.690432</v>
+        <v>0.6932739999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.707032</v>
+        <v>0.710714</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.743578</v>
+        <v>0.744227</v>
       </c>
       <c r="C125" t="n">
-        <v>0.735943</v>
+        <v>0.737992</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682522</v>
+        <v>0.6861159999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.691652</v>
+        <v>0.697271</v>
       </c>
       <c r="F125" t="n">
-        <v>0.708999</v>
+        <v>0.714369</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.742915</v>
+        <v>0.743889</v>
       </c>
       <c r="C126" t="n">
-        <v>0.735409</v>
+        <v>0.74076</v>
       </c>
       <c r="D126" t="n">
-        <v>0.696704</v>
+        <v>0.700505</v>
       </c>
       <c r="E126" t="n">
-        <v>0.691249</v>
+        <v>0.698027</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7103930000000001</v>
+        <v>0.714409</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742918</v>
+        <v>0.746418</v>
       </c>
       <c r="C127" t="n">
-        <v>0.740173</v>
+        <v>0.742634</v>
       </c>
       <c r="D127" t="n">
-        <v>0.713385</v>
+        <v>0.716842</v>
       </c>
       <c r="E127" t="n">
-        <v>0.69469</v>
+        <v>0.696479</v>
       </c>
       <c r="F127" t="n">
-        <v>0.712465</v>
+        <v>0.714691</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743248</v>
+        <v>0.74588</v>
       </c>
       <c r="C128" t="n">
-        <v>0.740228</v>
+        <v>0.743358</v>
       </c>
       <c r="D128" t="n">
-        <v>0.727502</v>
+        <v>0.7299</v>
       </c>
       <c r="E128" t="n">
-        <v>0.696286</v>
+        <v>0.6980460000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713363</v>
+        <v>0.717932</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.748404</v>
+        <v>0.748966</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7408670000000001</v>
+        <v>0.745903</v>
       </c>
       <c r="D129" t="n">
-        <v>0.741017</v>
+        <v>0.744761</v>
       </c>
       <c r="E129" t="n">
-        <v>0.694727</v>
+        <v>0.6979</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7156709999999999</v>
+        <v>0.719086</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.746932</v>
+        <v>0.75045</v>
       </c>
       <c r="C130" t="n">
-        <v>0.746404</v>
+        <v>0.748576</v>
       </c>
       <c r="D130" t="n">
-        <v>0.754601</v>
+        <v>0.7574610000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.696124</v>
+        <v>0.70157</v>
       </c>
       <c r="F130" t="n">
-        <v>0.717325</v>
+        <v>0.720519</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7479</v>
+        <v>0.7516080000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>0.747844</v>
+        <v>0.7508550000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.770881</v>
+        <v>0.774551</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6979300000000001</v>
+        <v>0.703014</v>
       </c>
       <c r="F131" t="n">
-        <v>0.719626</v>
+        <v>0.725185</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751329</v>
+        <v>0.754757</v>
       </c>
       <c r="C132" t="n">
-        <v>0.754344</v>
+        <v>0.752565</v>
       </c>
       <c r="D132" t="n">
-        <v>0.785906</v>
+        <v>0.789663</v>
       </c>
       <c r="E132" t="n">
-        <v>0.70164</v>
+        <v>0.704835</v>
       </c>
       <c r="F132" t="n">
-        <v>0.723108</v>
+        <v>0.726613</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.756874</v>
+        <v>0.759584</v>
       </c>
       <c r="C133" t="n">
-        <v>0.755791</v>
+        <v>0.759243</v>
       </c>
       <c r="D133" t="n">
-        <v>0.803361</v>
+        <v>0.806847</v>
       </c>
       <c r="E133" t="n">
-        <v>0.702727</v>
+        <v>0.707341</v>
       </c>
       <c r="F133" t="n">
-        <v>0.727164</v>
+        <v>0.730819</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761377</v>
+        <v>0.764139</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761653</v>
+        <v>0.762988</v>
       </c>
       <c r="D134" t="n">
-        <v>0.817846</v>
+        <v>0.821344</v>
       </c>
       <c r="E134" t="n">
-        <v>0.708564</v>
+        <v>0.711489</v>
       </c>
       <c r="F134" t="n">
-        <v>0.732804</v>
+        <v>0.736585</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.768353</v>
+        <v>0.768216</v>
       </c>
       <c r="C135" t="n">
-        <v>0.769767</v>
+        <v>0.776454</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69075</v>
+        <v>0.6939920000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7130919999999999</v>
+        <v>0.719261</v>
       </c>
       <c r="F135" t="n">
-        <v>0.7400910000000001</v>
+        <v>0.745413</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.775328</v>
+        <v>0.7800589999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.779253</v>
+        <v>0.785617</v>
       </c>
       <c r="D136" t="n">
-        <v>0.700669</v>
+        <v>0.704143</v>
       </c>
       <c r="E136" t="n">
-        <v>0.719369</v>
+        <v>0.725074</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750986</v>
+        <v>0.755842</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.787705</v>
+        <v>0.792396</v>
       </c>
       <c r="C137" t="n">
-        <v>0.795963</v>
+        <v>0.799754</v>
       </c>
       <c r="D137" t="n">
-        <v>0.711248</v>
+        <v>0.715186</v>
       </c>
       <c r="E137" t="n">
-        <v>0.824437</v>
+        <v>0.827943</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835757</v>
+        <v>0.839661</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864263</v>
+        <v>0.8677280000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>0.86182</v>
+        <v>0.867476</v>
       </c>
       <c r="D138" t="n">
-        <v>0.724333</v>
+        <v>0.727474</v>
       </c>
       <c r="E138" t="n">
-        <v>0.824443</v>
+        <v>0.826592</v>
       </c>
       <c r="F138" t="n">
-        <v>0.83707</v>
+        <v>0.841984</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864482</v>
+        <v>0.8675</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863031</v>
+        <v>0.871438</v>
       </c>
       <c r="D139" t="n">
-        <v>0.735375</v>
+        <v>0.73866</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825767</v>
+        <v>0.828379</v>
       </c>
       <c r="F139" t="n">
-        <v>0.837292</v>
+        <v>0.842777</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865544</v>
+        <v>0.867694</v>
       </c>
       <c r="C140" t="n">
-        <v>0.864538</v>
+        <v>0.869095</v>
       </c>
       <c r="D140" t="n">
-        <v>0.748744</v>
+        <v>0.75201</v>
       </c>
       <c r="E140" t="n">
-        <v>0.826824</v>
+        <v>0.828111</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839594</v>
+        <v>0.844664</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.867439</v>
+        <v>0.867762</v>
       </c>
       <c r="C141" t="n">
-        <v>0.866906</v>
+        <v>0.869794</v>
       </c>
       <c r="D141" t="n">
-        <v>0.762078</v>
+        <v>0.765347</v>
       </c>
       <c r="E141" t="n">
-        <v>0.826819</v>
+        <v>0.829477</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840738</v>
+        <v>0.8474739999999999</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865424</v>
+        <v>0.870443</v>
       </c>
       <c r="C142" t="n">
-        <v>0.867187</v>
+        <v>0.873051</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7752830000000001</v>
+        <v>0.778435</v>
       </c>
       <c r="E142" t="n">
-        <v>0.827367</v>
+        <v>0.828898</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8420069999999999</v>
+        <v>0.846924</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.868361</v>
+        <v>0.871281</v>
       </c>
       <c r="C143" t="n">
-        <v>0.86993</v>
+        <v>0.8755500000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.790631</v>
+        <v>0.793896</v>
       </c>
       <c r="E143" t="n">
-        <v>0.828097</v>
+        <v>0.830599</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844682</v>
+        <v>0.849641</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115037</v>
+        <v>0.115212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112385</v>
+        <v>0.113103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132202</v>
+        <v>0.132085</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110646</v>
+        <v>0.11088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108485</v>
+        <v>0.108509</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11548</v>
+        <v>0.116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117346</v>
+        <v>0.12419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140561</v>
+        <v>0.139808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.110985</v>
+        <v>0.111061</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108591</v>
+        <v>0.108507</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1157</v>
+        <v>0.116197</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130994</v>
+        <v>0.117597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147091</v>
+        <v>0.146553</v>
       </c>
       <c r="E4" t="n">
         <v>0.111294</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108925</v>
+        <v>0.108961</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117272</v>
+        <v>0.117584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125819</v>
+        <v>0.127617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15471</v>
+        <v>0.154585</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11164</v>
+        <v>0.111666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109572</v>
+        <v>0.109473</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119556</v>
+        <v>0.119917</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134693</v>
+        <v>0.134984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161979</v>
+        <v>0.160802</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112001</v>
+        <v>0.112202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110438</v>
+        <v>0.110148</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122497</v>
+        <v>0.122931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130951</v>
+        <v>0.126392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12855</v>
+        <v>0.127992</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113531</v>
+        <v>0.112989</v>
       </c>
       <c r="F7" t="n">
-        <v>0.113401</v>
+        <v>0.111109</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128126</v>
+        <v>0.128112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.128863</v>
+        <v>0.137812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131579</v>
+        <v>0.1308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114879</v>
+        <v>0.114658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113408</v>
+        <v>0.113482</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138351</v>
+        <v>0.138204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138106</v>
+        <v>0.138393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136506</v>
+        <v>0.136</v>
       </c>
       <c r="E9" t="n">
-        <v>0.115886</v>
+        <v>0.117351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.110451</v>
+        <v>0.109604</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123823</v>
+        <v>0.125137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116193</v>
+        <v>0.117642</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140166</v>
+        <v>0.140093</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116279</v>
+        <v>0.116839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.110308</v>
+        <v>0.109875</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124224</v>
+        <v>0.124787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123033</v>
+        <v>0.124957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145</v>
+        <v>0.144291</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116266</v>
+        <v>0.116941</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110571</v>
+        <v>0.110096</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124121</v>
+        <v>0.126619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121384</v>
+        <v>0.121291</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150225</v>
+        <v>0.149216</v>
       </c>
       <c r="E12" t="n">
-        <v>0.116496</v>
+        <v>0.119932</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110604</v>
+        <v>0.111188</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124529</v>
+        <v>0.127288</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12649</v>
+        <v>0.131065</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1554</v>
+        <v>0.154996</v>
       </c>
       <c r="E13" t="n">
-        <v>0.116611</v>
+        <v>0.117136</v>
       </c>
       <c r="F13" t="n">
-        <v>0.110812</v>
+        <v>0.111676</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125389</v>
+        <v>0.126058</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125974</v>
+        <v>0.120812</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160975</v>
+        <v>0.159854</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116912</v>
+        <v>0.117359</v>
       </c>
       <c r="F14" t="n">
-        <v>0.111843</v>
+        <v>0.111432</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126451</v>
+        <v>0.133358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.118536</v>
+        <v>0.136375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167213</v>
+        <v>0.166823</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117496</v>
+        <v>0.124721</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112726</v>
+        <v>0.110976</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126418</v>
+        <v>0.13852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122334</v>
+        <v>0.125196</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174097</v>
+        <v>0.173927</v>
       </c>
       <c r="E16" t="n">
-        <v>0.119265</v>
+        <v>0.118255</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111142</v>
+        <v>0.112308</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128231</v>
+        <v>0.131512</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119919</v>
+        <v>0.125871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180773</v>
+        <v>0.179803</v>
       </c>
       <c r="E17" t="n">
-        <v>0.117866</v>
+        <v>0.118296</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117045</v>
+        <v>0.111754</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128972</v>
+        <v>0.137026</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123192</v>
+        <v>0.137001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18609</v>
+        <v>0.185934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11803</v>
+        <v>0.126395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.113129</v>
+        <v>0.11228</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13102</v>
+        <v>0.13408</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127615</v>
+        <v>0.133751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191112</v>
+        <v>0.191092</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118566</v>
+        <v>0.120273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113006</v>
+        <v>0.112256</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136549</v>
+        <v>0.136446</v>
       </c>
       <c r="C20" t="n">
-        <v>0.13663</v>
+        <v>0.134815</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197288</v>
+        <v>0.196054</v>
       </c>
       <c r="E20" t="n">
-        <v>0.119595</v>
+        <v>0.127542</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113409</v>
+        <v>0.113747</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140753</v>
+        <v>0.143891</v>
       </c>
       <c r="C21" t="n">
-        <v>0.144715</v>
+        <v>0.141063</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149212</v>
+        <v>0.148526</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120297</v>
+        <v>0.12338</v>
       </c>
       <c r="F21" t="n">
-        <v>0.115083</v>
+        <v>0.114885</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148949</v>
+        <v>0.151859</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157841</v>
+        <v>0.151486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153382</v>
+        <v>0.154349</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124014</v>
+        <v>0.132263</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120579</v>
+        <v>0.118896</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158428</v>
+        <v>0.166398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.153103</v>
+        <v>0.152732</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157449</v>
+        <v>0.158426</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125102</v>
+        <v>0.125557</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123882</v>
+        <v>0.121628</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134416</v>
+        <v>0.134066</v>
       </c>
       <c r="C24" t="n">
-        <v>0.130246</v>
+        <v>0.134536</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164401</v>
+        <v>0.163698</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125609</v>
+        <v>0.125321</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12095</v>
+        <v>0.120735</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134527</v>
+        <v>0.134806</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136332</v>
+        <v>0.136691</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167578</v>
+        <v>0.167922</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125823</v>
+        <v>0.125842</v>
       </c>
       <c r="F25" t="n">
-        <v>0.124603</v>
+        <v>0.11988</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136991</v>
+        <v>0.136397</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128638</v>
+        <v>0.134072</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172177</v>
+        <v>0.171591</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125445</v>
+        <v>0.127129</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121079</v>
+        <v>0.119755</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135245</v>
+        <v>0.137715</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129319</v>
+        <v>0.130192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177281</v>
+        <v>0.176765</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125721</v>
+        <v>0.127433</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126953</v>
+        <v>0.126406</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135775</v>
+        <v>0.1369</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137318</v>
+        <v>0.140447</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181593</v>
+        <v>0.182055</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126021</v>
+        <v>0.12625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120698</v>
+        <v>0.127324</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135975</v>
+        <v>0.139517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.129497</v>
+        <v>0.138578</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187832</v>
+        <v>0.187688</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125998</v>
+        <v>0.126541</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132558</v>
+        <v>0.124867</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137785</v>
+        <v>0.14148</v>
       </c>
       <c r="C30" t="n">
-        <v>0.139544</v>
+        <v>0.137083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192284</v>
+        <v>0.192774</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126167</v>
+        <v>0.126419</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122809</v>
+        <v>0.122757</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139343</v>
+        <v>0.13911</v>
       </c>
       <c r="C31" t="n">
-        <v>0.140719</v>
+        <v>0.147451</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197419</v>
+        <v>0.197766</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127032</v>
+        <v>0.126378</v>
       </c>
       <c r="F31" t="n">
-        <v>0.127203</v>
+        <v>0.12858</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141446</v>
+        <v>0.141528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13703</v>
+        <v>0.14624</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203893</v>
+        <v>0.203961</v>
       </c>
       <c r="E32" t="n">
-        <v>0.128425</v>
+        <v>0.127571</v>
       </c>
       <c r="F32" t="n">
-        <v>0.121644</v>
+        <v>0.125281</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144574</v>
+        <v>0.144376</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145112</v>
+        <v>0.146528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209929</v>
+        <v>0.209733</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127605</v>
+        <v>0.128346</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12507</v>
+        <v>0.124394</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147722</v>
+        <v>0.147805</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152363</v>
+        <v>0.152719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213633</v>
+        <v>0.214125</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129797</v>
+        <v>0.129462</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12303</v>
+        <v>0.123343</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153516</v>
+        <v>0.152772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148261</v>
+        <v>0.149482</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165454</v>
+        <v>0.166062</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133756</v>
+        <v>0.134122</v>
       </c>
       <c r="F35" t="n">
-        <v>0.131586</v>
+        <v>0.130035</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159244</v>
+        <v>0.159364</v>
       </c>
       <c r="C36" t="n">
-        <v>0.156009</v>
+        <v>0.161887</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169511</v>
+        <v>0.169564</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141235</v>
+        <v>0.14222</v>
       </c>
       <c r="F36" t="n">
-        <v>0.142288</v>
+        <v>0.141397</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167043</v>
+        <v>0.167325</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17953</v>
+        <v>0.164523</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173433</v>
+        <v>0.173215</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137058</v>
+        <v>0.135135</v>
       </c>
       <c r="F37" t="n">
-        <v>0.141315</v>
+        <v>0.139786</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147371</v>
+        <v>0.144751</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146231</v>
+        <v>0.146023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177846</v>
+        <v>0.17826</v>
       </c>
       <c r="E38" t="n">
-        <v>0.134325</v>
+        <v>0.137752</v>
       </c>
       <c r="F38" t="n">
-        <v>0.141125</v>
+        <v>0.139193</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148256</v>
+        <v>0.14754</v>
       </c>
       <c r="C39" t="n">
-        <v>0.148246</v>
+        <v>0.155619</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183138</v>
+        <v>0.182578</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137829</v>
+        <v>0.139378</v>
       </c>
       <c r="F39" t="n">
-        <v>0.139794</v>
+        <v>0.145059</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147428</v>
+        <v>0.147292</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14695</v>
+        <v>0.148575</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186485</v>
+        <v>0.187517</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137731</v>
+        <v>0.136509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139928</v>
+        <v>0.144682</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147427</v>
+        <v>0.147568</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146466</v>
+        <v>0.150771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191535</v>
+        <v>0.191427</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138055</v>
+        <v>0.138651</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141192</v>
+        <v>0.141691</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148914</v>
+        <v>0.151398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152833</v>
+        <v>0.150455</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196337</v>
+        <v>0.196415</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139492</v>
+        <v>0.139604</v>
       </c>
       <c r="F42" t="n">
-        <v>0.143322</v>
+        <v>0.141167</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150923</v>
+        <v>0.148534</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14999</v>
+        <v>0.153349</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20111</v>
+        <v>0.201547</v>
       </c>
       <c r="E43" t="n">
-        <v>0.138108</v>
+        <v>0.138906</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14266</v>
+        <v>0.14478</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151062</v>
+        <v>0.150381</v>
       </c>
       <c r="C44" t="n">
-        <v>0.154139</v>
+        <v>0.150998</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206205</v>
+        <v>0.206676</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138629</v>
+        <v>0.138721</v>
       </c>
       <c r="F44" t="n">
-        <v>0.139821</v>
+        <v>0.141026</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152738</v>
+        <v>0.15424</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152699</v>
+        <v>0.153793</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211492</v>
+        <v>0.212161</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138178</v>
+        <v>0.139347</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13939</v>
+        <v>0.142372</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155041</v>
+        <v>0.153894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153992</v>
+        <v>0.162066</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216572</v>
+        <v>0.21669</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139362</v>
+        <v>0.139354</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151294</v>
+        <v>0.141961</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158835</v>
+        <v>0.161505</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157755</v>
+        <v>0.157349</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222227</v>
+        <v>0.222388</v>
       </c>
       <c r="E47" t="n">
-        <v>0.14155</v>
+        <v>0.141707</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14645</v>
+        <v>0.141765</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160836</v>
+        <v>0.161695</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161785</v>
+        <v>0.162526</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227282</v>
+        <v>0.22674</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144632</v>
+        <v>0.144046</v>
       </c>
       <c r="F48" t="n">
-        <v>0.148715</v>
+        <v>0.143974</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164489</v>
+        <v>0.164319</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17315</v>
+        <v>0.166113</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231843</v>
+        <v>0.232388</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151551</v>
+        <v>0.148264</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149551</v>
+        <v>0.150013</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169504</v>
+        <v>0.170845</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174235</v>
+        <v>0.169545</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171388</v>
+        <v>0.171635</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153825</v>
+        <v>0.154525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154973</v>
+        <v>0.160468</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177274</v>
+        <v>0.177271</v>
       </c>
       <c r="C51" t="n">
-        <v>0.183341</v>
+        <v>0.17834</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174994</v>
+        <v>0.175265</v>
       </c>
       <c r="E51" t="n">
-        <v>0.151302</v>
+        <v>0.149429</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152244</v>
+        <v>0.153954</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186953</v>
+        <v>0.187393</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188645</v>
+        <v>0.199869</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17883</v>
+        <v>0.17874</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150459</v>
+        <v>0.150954</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153242</v>
+        <v>0.154294</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159398</v>
+        <v>0.159896</v>
       </c>
       <c r="C53" t="n">
-        <v>0.175918</v>
+        <v>0.165781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.18323</v>
+        <v>0.183367</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150823</v>
+        <v>0.149803</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153526</v>
+        <v>0.157838</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160516</v>
+        <v>0.160472</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169102</v>
+        <v>0.173635</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187037</v>
+        <v>0.187463</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150782</v>
+        <v>0.150294</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156409</v>
+        <v>0.153705</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160734</v>
+        <v>0.159634</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167338</v>
+        <v>0.173999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192448</v>
+        <v>0.192108</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151474</v>
+        <v>0.150957</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155198</v>
+        <v>0.15486</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162178</v>
+        <v>0.161578</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167695</v>
+        <v>0.167269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19737</v>
+        <v>0.197168</v>
       </c>
       <c r="E56" t="n">
-        <v>0.152625</v>
+        <v>0.151716</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154512</v>
+        <v>0.154033</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162296</v>
+        <v>0.162864</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169685</v>
+        <v>0.168314</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201898</v>
+        <v>0.202053</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151315</v>
+        <v>0.151337</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155865</v>
+        <v>0.155474</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163847</v>
+        <v>0.163295</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170634</v>
+        <v>0.169329</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207534</v>
+        <v>0.207314</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152563</v>
+        <v>0.152108</v>
       </c>
       <c r="F58" t="n">
-        <v>0.156195</v>
+        <v>0.160394</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165132</v>
+        <v>0.165778</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18085</v>
+        <v>0.172479</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212167</v>
+        <v>0.212173</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152623</v>
+        <v>0.153313</v>
       </c>
       <c r="F59" t="n">
-        <v>0.156024</v>
+        <v>0.157047</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167057</v>
+        <v>0.167228</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174066</v>
+        <v>0.178218</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21785</v>
+        <v>0.217604</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15421</v>
+        <v>0.153169</v>
       </c>
       <c r="F60" t="n">
-        <v>0.163263</v>
+        <v>0.156882</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169253</v>
+        <v>0.169321</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183956</v>
+        <v>0.177149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222902</v>
+        <v>0.223034</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155271</v>
+        <v>0.155166</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16021</v>
+        <v>0.159125</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173022</v>
+        <v>0.171539</v>
       </c>
       <c r="C62" t="n">
-        <v>0.188518</v>
+        <v>0.18042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228409</v>
+        <v>0.228191</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15837</v>
+        <v>0.15809</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164974</v>
+        <v>0.162587</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175717</v>
+        <v>0.174766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183423</v>
+        <v>0.183821</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232737</v>
+        <v>0.234099</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161351</v>
+        <v>0.161417</v>
       </c>
       <c r="F63" t="n">
-        <v>0.172965</v>
+        <v>0.165873</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185641</v>
+        <v>0.186892</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189136</v>
+        <v>0.188683</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177194</v>
+        <v>0.177868</v>
       </c>
       <c r="E64" t="n">
-        <v>0.166107</v>
+        <v>0.16543</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169264</v>
+        <v>0.175782</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187332</v>
+        <v>0.18746</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204619</v>
+        <v>0.206267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181002</v>
+        <v>0.181346</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172243</v>
+        <v>0.172185</v>
       </c>
       <c r="F65" t="n">
-        <v>0.181677</v>
+        <v>0.178079</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204972</v>
+        <v>0.197102</v>
       </c>
       <c r="C66" t="n">
-        <v>0.207048</v>
+        <v>0.213599</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18597</v>
+        <v>0.186126</v>
       </c>
       <c r="E66" t="n">
-        <v>0.162309</v>
+        <v>0.161765</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162995</v>
+        <v>0.163256</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179288</v>
+        <v>0.181092</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174452</v>
+        <v>0.174952</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190921</v>
+        <v>0.19239</v>
       </c>
       <c r="E67" t="n">
-        <v>0.161715</v>
+        <v>0.161255</v>
       </c>
       <c r="F67" t="n">
-        <v>0.163886</v>
+        <v>0.169109</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179988</v>
+        <v>0.18204</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18115</v>
+        <v>0.175775</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197924</v>
+        <v>0.198994</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162342</v>
+        <v>0.16234</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162345</v>
+        <v>0.162615</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180708</v>
+        <v>0.186892</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175804</v>
+        <v>0.180747</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203869</v>
+        <v>0.205172</v>
       </c>
       <c r="E69" t="n">
-        <v>0.162164</v>
+        <v>0.161864</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164405</v>
+        <v>0.16707</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187122</v>
+        <v>0.181122</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182459</v>
+        <v>0.176624</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209987</v>
+        <v>0.212444</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163726</v>
+        <v>0.165213</v>
       </c>
       <c r="F70" t="n">
-        <v>0.16507</v>
+        <v>0.165292</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1841</v>
+        <v>0.182539</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177866</v>
+        <v>0.177786</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217078</v>
+        <v>0.219108</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163898</v>
+        <v>0.163353</v>
       </c>
       <c r="F71" t="n">
-        <v>0.16632</v>
+        <v>0.166059</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185654</v>
+        <v>0.182917</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178573</v>
+        <v>0.178558</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224598</v>
+        <v>0.22593</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164093</v>
+        <v>0.164198</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166749</v>
+        <v>0.166861</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18599</v>
+        <v>0.184602</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179914</v>
+        <v>0.180671</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232906</v>
+        <v>0.234101</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16475</v>
+        <v>0.164681</v>
       </c>
       <c r="F73" t="n">
-        <v>0.169657</v>
+        <v>0.169399</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188697</v>
+        <v>0.185936</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183457</v>
+        <v>0.182488</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242872</v>
+        <v>0.243171</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166195</v>
+        <v>0.166684</v>
       </c>
       <c r="F74" t="n">
-        <v>0.177223</v>
+        <v>0.169728</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187285</v>
+        <v>0.18767</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193246</v>
+        <v>0.184693</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250605</v>
+        <v>0.252796</v>
       </c>
       <c r="E75" t="n">
-        <v>0.169566</v>
+        <v>0.167517</v>
       </c>
       <c r="F75" t="n">
-        <v>0.172666</v>
+        <v>0.172664</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19289</v>
+        <v>0.193592</v>
       </c>
       <c r="C76" t="n">
-        <v>0.187874</v>
+        <v>0.189546</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261741</v>
+        <v>0.260536</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169423</v>
+        <v>0.169577</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173509</v>
+        <v>0.175552</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202239</v>
+        <v>0.193756</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192436</v>
+        <v>0.193093</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271563</v>
+        <v>0.271285</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17216</v>
+        <v>0.172298</v>
       </c>
       <c r="F77" t="n">
-        <v>0.179506</v>
+        <v>0.176775</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201953</v>
+        <v>0.199608</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206365</v>
+        <v>0.197482</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224349</v>
+        <v>0.223765</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175893</v>
+        <v>0.175839</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181452</v>
+        <v>0.181358</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206564</v>
+        <v>0.203538</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202976</v>
+        <v>0.204219</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23526</v>
+        <v>0.235666</v>
       </c>
       <c r="E79" t="n">
-        <v>0.188273</v>
+        <v>0.184565</v>
       </c>
       <c r="F79" t="n">
-        <v>0.189043</v>
+        <v>0.190049</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213196</v>
+        <v>0.215002</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215067</v>
+        <v>0.215061</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243333</v>
+        <v>0.24406</v>
       </c>
       <c r="E80" t="n">
-        <v>0.241946</v>
+        <v>0.244221</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174482</v>
+        <v>0.174921</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362828</v>
+        <v>0.361507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181105</v>
+        <v>0.182073</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257664</v>
+        <v>0.25828</v>
       </c>
       <c r="E81" t="n">
-        <v>0.244272</v>
+        <v>0.242009</v>
       </c>
       <c r="F81" t="n">
-        <v>0.175575</v>
+        <v>0.176884</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362371</v>
+        <v>0.360528</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188687</v>
+        <v>0.182725</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271982</v>
+        <v>0.270967</v>
       </c>
       <c r="E82" t="n">
-        <v>0.24163</v>
+        <v>0.242496</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176245</v>
+        <v>0.176287</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366156</v>
+        <v>0.367309</v>
       </c>
       <c r="C83" t="n">
-        <v>0.184775</v>
+        <v>0.183887</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284397</v>
+        <v>0.28465</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242312</v>
+        <v>0.24416</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17702</v>
+        <v>0.177122</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364028</v>
+        <v>0.367875</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184774</v>
+        <v>0.184265</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298869</v>
+        <v>0.297702</v>
       </c>
       <c r="E84" t="n">
-        <v>0.242725</v>
+        <v>0.241886</v>
       </c>
       <c r="F84" t="n">
-        <v>0.178291</v>
+        <v>0.177735</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363927</v>
+        <v>0.366314</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18724</v>
+        <v>0.18592</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313746</v>
+        <v>0.313455</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241648</v>
+        <v>0.243328</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180589</v>
+        <v>0.179613</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.363563</v>
+        <v>0.367354</v>
       </c>
       <c r="C86" t="n">
-        <v>0.186806</v>
+        <v>0.186604</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328828</v>
+        <v>0.328513</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24203</v>
+        <v>0.2414</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181104</v>
+        <v>0.180852</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.366219</v>
+        <v>0.370344</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188687</v>
+        <v>0.188916</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343653</v>
+        <v>0.342813</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24131</v>
+        <v>0.238101</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183364</v>
+        <v>0.1835</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369752</v>
+        <v>0.368361</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191245</v>
+        <v>0.191745</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360016</v>
+        <v>0.361527</v>
       </c>
       <c r="E88" t="n">
-        <v>0.242178</v>
+        <v>0.240637</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18603</v>
+        <v>0.185842</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36975</v>
+        <v>0.372792</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194319</v>
+        <v>0.194479</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375678</v>
+        <v>0.376197</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237983</v>
+        <v>0.241521</v>
       </c>
       <c r="F89" t="n">
-        <v>0.187499</v>
+        <v>0.188625</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372034</v>
+        <v>0.374361</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198879</v>
+        <v>0.197984</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392876</v>
+        <v>0.392701</v>
       </c>
       <c r="E90" t="n">
-        <v>0.241161</v>
+        <v>0.238311</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191212</v>
+        <v>0.190521</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37372</v>
+        <v>0.375612</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202506</v>
+        <v>0.202555</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40756</v>
+        <v>0.408398</v>
       </c>
       <c r="E91" t="n">
-        <v>0.23791</v>
+        <v>0.239924</v>
       </c>
       <c r="F91" t="n">
-        <v>0.194593</v>
+        <v>0.195299</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376719</v>
+        <v>0.378306</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208999</v>
+        <v>0.208595</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358165</v>
+        <v>0.358107</v>
       </c>
       <c r="E92" t="n">
-        <v>0.240837</v>
+        <v>0.241862</v>
       </c>
       <c r="F92" t="n">
-        <v>0.202382</v>
+        <v>0.200826</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381148</v>
+        <v>0.380226</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215895</v>
+        <v>0.2159</v>
       </c>
       <c r="D93" t="n">
-        <v>0.367928</v>
+        <v>0.370439</v>
       </c>
       <c r="E93" t="n">
-        <v>0.243188</v>
+        <v>0.245298</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209147</v>
+        <v>0.209055</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387318</v>
+        <v>0.386989</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229252</v>
+        <v>0.227025</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378156</v>
+        <v>0.378688</v>
       </c>
       <c r="E94" t="n">
-        <v>0.398785</v>
+        <v>0.40007</v>
       </c>
       <c r="F94" t="n">
-        <v>0.270785</v>
+        <v>0.270062</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.525778</v>
+        <v>0.527213</v>
       </c>
       <c r="C95" t="n">
-        <v>0.297152</v>
+        <v>0.295526</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394996</v>
+        <v>0.395818</v>
       </c>
       <c r="E95" t="n">
-        <v>0.397735</v>
+        <v>0.399094</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270985</v>
+        <v>0.273169</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.525817</v>
+        <v>0.527187</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295936</v>
+        <v>0.292813</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408013</v>
+        <v>0.406352</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398402</v>
+        <v>0.399036</v>
       </c>
       <c r="F96" t="n">
-        <v>0.274198</v>
+        <v>0.273279</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.526988</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299625</v>
+        <v>0.299197</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419721</v>
+        <v>0.420333</v>
       </c>
       <c r="E97" t="n">
-        <v>0.397559</v>
+        <v>0.399881</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2771</v>
+        <v>0.277295</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526448</v>
+        <v>0.528434</v>
       </c>
       <c r="C98" t="n">
-        <v>0.295845</v>
+        <v>0.296189</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435573</v>
+        <v>0.435093</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397483</v>
+        <v>0.397994</v>
       </c>
       <c r="F98" t="n">
-        <v>0.27241</v>
+        <v>0.276518</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526191</v>
+        <v>0.5279470000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.300638</v>
+        <v>0.292554</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449081</v>
+        <v>0.448526</v>
       </c>
       <c r="E99" t="n">
-        <v>0.396962</v>
+        <v>0.398521</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278921</v>
+        <v>0.278032</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5286380000000001</v>
+        <v>0.530197</v>
       </c>
       <c r="C100" t="n">
-        <v>0.29961</v>
+        <v>0.292203</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464069</v>
+        <v>0.461821</v>
       </c>
       <c r="E100" t="n">
-        <v>0.396061</v>
+        <v>0.39851</v>
       </c>
       <c r="F100" t="n">
-        <v>0.279136</v>
+        <v>0.282586</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5286960000000001</v>
+        <v>0.531133</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300164</v>
+        <v>0.297819</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477234</v>
+        <v>0.476886</v>
       </c>
       <c r="E101" t="n">
-        <v>0.395577</v>
+        <v>0.397926</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278982</v>
+        <v>0.276334</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529663</v>
+        <v>0.5318850000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302656</v>
+        <v>0.300677</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495379</v>
+        <v>0.495274</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397212</v>
+        <v>0.397445</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279839</v>
+        <v>0.281868</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530756</v>
+        <v>0.531984</v>
       </c>
       <c r="C103" t="n">
-        <v>0.308322</v>
+        <v>0.30569</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512506</v>
+        <v>0.5151790000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.39774</v>
+        <v>0.399079</v>
       </c>
       <c r="F103" t="n">
-        <v>0.286833</v>
+        <v>0.285202</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.533928</v>
+        <v>0.53562</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310948</v>
+        <v>0.305871</v>
       </c>
       <c r="D104" t="n">
-        <v>0.527523</v>
+        <v>0.5288659999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398488</v>
+        <v>0.401201</v>
       </c>
       <c r="F104" t="n">
-        <v>0.282561</v>
+        <v>0.288094</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.537833</v>
+        <v>0.538538</v>
       </c>
       <c r="C105" t="n">
-        <v>0.310439</v>
+        <v>0.309418</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544058</v>
+        <v>0.5425720000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402138</v>
+        <v>0.402315</v>
       </c>
       <c r="F105" t="n">
-        <v>0.292772</v>
+        <v>0.286964</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.540838</v>
+        <v>0.543118</v>
       </c>
       <c r="C106" t="n">
-        <v>0.321713</v>
+        <v>0.315234</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563991</v>
+        <v>0.563059</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4048</v>
+        <v>0.407015</v>
       </c>
       <c r="F106" t="n">
-        <v>0.294313</v>
+        <v>0.291097</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.546463</v>
+        <v>0.5475680000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328601</v>
+        <v>0.324447</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52832</v>
+        <v>0.528975</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41013</v>
+        <v>0.411475</v>
       </c>
       <c r="F107" t="n">
-        <v>0.298938</v>
+        <v>0.296049</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553751</v>
+        <v>0.553589</v>
       </c>
       <c r="C108" t="n">
-        <v>0.334467</v>
+        <v>0.333891</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54216</v>
+        <v>0.543655</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533094</v>
+        <v>0.535455</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492495</v>
+        <v>0.492791</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.565084</v>
+        <v>0.56652</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351107</v>
+        <v>0.348402</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548195</v>
+        <v>0.54898</v>
       </c>
       <c r="E109" t="n">
-        <v>0.531732</v>
+        <v>0.533063</v>
       </c>
       <c r="F109" t="n">
-        <v>0.495739</v>
+        <v>0.494729</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602454</v>
+        <v>0.603378</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5231789999999999</v>
+        <v>0.524636</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5636949999999999</v>
+        <v>0.563199</v>
       </c>
       <c r="E110" t="n">
-        <v>0.532884</v>
+        <v>0.533898</v>
       </c>
       <c r="F110" t="n">
-        <v>0.493992</v>
+        <v>0.496052</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.602272</v>
+        <v>0.602537</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528342</v>
+        <v>0.528579</v>
       </c>
       <c r="D111" t="n">
-        <v>0.575986</v>
+        <v>0.578527</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534311</v>
+        <v>0.534852</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4953</v>
+        <v>0.498168</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.602342</v>
+        <v>0.602904</v>
       </c>
       <c r="C112" t="n">
-        <v>0.52717</v>
+        <v>0.530522</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587359</v>
+        <v>0.588309</v>
       </c>
       <c r="E112" t="n">
-        <v>0.535184</v>
+        <v>0.534919</v>
       </c>
       <c r="F112" t="n">
-        <v>0.497898</v>
+        <v>0.495462</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607206</v>
+        <v>0.606031</v>
       </c>
       <c r="C113" t="n">
-        <v>0.525103</v>
+        <v>0.530334</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60295</v>
+        <v>0.604841</v>
       </c>
       <c r="E113" t="n">
-        <v>0.535658</v>
+        <v>0.533936</v>
       </c>
       <c r="F113" t="n">
-        <v>0.49861</v>
+        <v>0.499531</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608392</v>
+        <v>0.608344</v>
       </c>
       <c r="C114" t="n">
-        <v>0.528474</v>
+        <v>0.529771</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617445</v>
+        <v>0.618489</v>
       </c>
       <c r="E114" t="n">
-        <v>0.533491</v>
+        <v>0.5391629999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.497215</v>
+        <v>0.504485</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608824</v>
+        <v>0.606827</v>
       </c>
       <c r="C115" t="n">
-        <v>0.529053</v>
+        <v>0.533592</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634076</v>
+        <v>0.635516</v>
       </c>
       <c r="E115" t="n">
-        <v>0.536362</v>
+        <v>0.5393829999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500038</v>
+        <v>0.502881</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.608325</v>
+        <v>0.610707</v>
       </c>
       <c r="C116" t="n">
-        <v>0.533856</v>
+        <v>0.5320279999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646172</v>
+        <v>0.647193</v>
       </c>
       <c r="E116" t="n">
-        <v>0.536752</v>
+        <v>0.540061</v>
       </c>
       <c r="F116" t="n">
-        <v>0.501494</v>
+        <v>0.504248</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.60925</v>
+        <v>0.6120139999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.536388</v>
+        <v>0.535416</v>
       </c>
       <c r="D117" t="n">
-        <v>0.667424</v>
+        <v>0.669384</v>
       </c>
       <c r="E117" t="n">
-        <v>0.538861</v>
+        <v>0.5417149999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.505754</v>
+        <v>0.508927</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613963</v>
+        <v>0.614056</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540439</v>
+        <v>0.5417689999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676881</v>
+        <v>0.679091</v>
       </c>
       <c r="E118" t="n">
-        <v>0.541365</v>
+        <v>0.544949</v>
       </c>
       <c r="F118" t="n">
-        <v>0.508664</v>
+        <v>0.5090980000000001</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.621978</v>
+        <v>0.622458</v>
       </c>
       <c r="C119" t="n">
-        <v>0.542264</v>
+        <v>0.548159</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6968760000000001</v>
+        <v>0.699825</v>
       </c>
       <c r="E119" t="n">
-        <v>0.545705</v>
+        <v>0.545062</v>
       </c>
       <c r="F119" t="n">
-        <v>0.508023</v>
+        <v>0.510406</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625772</v>
+        <v>0.625954</v>
       </c>
       <c r="C120" t="n">
-        <v>0.548561</v>
+        <v>0.551282</v>
       </c>
       <c r="D120" t="n">
-        <v>0.718041</v>
+        <v>0.720098</v>
       </c>
       <c r="E120" t="n">
-        <v>0.547894</v>
+        <v>0.549387</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5137119999999999</v>
+        <v>0.514683</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6288629999999999</v>
+        <v>0.627615</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5563</v>
+        <v>0.558078</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63346</v>
+        <v>0.634742</v>
       </c>
       <c r="E121" t="n">
-        <v>0.553897</v>
+        <v>0.555105</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520931</v>
+        <v>0.521624</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.637761</v>
+        <v>0.638184</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572779</v>
+        <v>0.567786</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6447040000000001</v>
+        <v>0.64617</v>
       </c>
       <c r="E122" t="n">
-        <v>0.562763</v>
+        <v>0.564445</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5308929999999999</v>
+        <v>0.537837</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.64929</v>
+        <v>0.6503139999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580387</v>
+        <v>0.582435</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6573329999999999</v>
+        <v>0.659209</v>
       </c>
       <c r="E123" t="n">
-        <v>0.69092</v>
+        <v>0.69034</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7046480000000001</v>
+        <v>0.709555</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739303</v>
+        <v>0.74209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.732291</v>
+        <v>0.735338</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6695179999999999</v>
+        <v>0.671138</v>
       </c>
       <c r="E124" t="n">
-        <v>0.689592</v>
+        <v>0.691265</v>
       </c>
       <c r="F124" t="n">
-        <v>0.706144</v>
+        <v>0.708352</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740434</v>
+        <v>0.739162</v>
       </c>
       <c r="C125" t="n">
-        <v>0.733552</v>
+        <v>0.7351839999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680804</v>
+        <v>0.68287</v>
       </c>
       <c r="E125" t="n">
-        <v>0.691448</v>
+        <v>0.692797</v>
       </c>
       <c r="F125" t="n">
-        <v>0.707026</v>
+        <v>0.710159</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7423070000000001</v>
+        <v>0.742734</v>
       </c>
       <c r="C126" t="n">
-        <v>0.735493</v>
+        <v>0.73725</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695641</v>
+        <v>0.697316</v>
       </c>
       <c r="E126" t="n">
-        <v>0.691441</v>
+        <v>0.692492</v>
       </c>
       <c r="F126" t="n">
-        <v>0.70783</v>
+        <v>0.7113350000000001</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742357</v>
+        <v>0.744043</v>
       </c>
       <c r="C127" t="n">
-        <v>0.736726</v>
+        <v>0.739179</v>
       </c>
       <c r="D127" t="n">
-        <v>0.710989</v>
+        <v>0.713325</v>
       </c>
       <c r="E127" t="n">
-        <v>0.693381</v>
+        <v>0.693978</v>
       </c>
       <c r="F127" t="n">
-        <v>0.709386</v>
+        <v>0.7128</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743708</v>
+        <v>0.745163</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738978</v>
+        <v>0.741758</v>
       </c>
       <c r="D128" t="n">
-        <v>0.724627</v>
+        <v>0.726724</v>
       </c>
       <c r="E128" t="n">
-        <v>0.693404</v>
+        <v>0.694383</v>
       </c>
       <c r="F128" t="n">
-        <v>0.711085</v>
+        <v>0.713315</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746796</v>
+        <v>0.744208</v>
       </c>
       <c r="C129" t="n">
-        <v>0.740936</v>
+        <v>0.742426</v>
       </c>
       <c r="D129" t="n">
-        <v>0.73933</v>
+        <v>0.74053</v>
       </c>
       <c r="E129" t="n">
-        <v>0.693908</v>
+        <v>0.696561</v>
       </c>
       <c r="F129" t="n">
-        <v>0.713056</v>
+        <v>0.717174</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745599</v>
+        <v>0.746824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.742287</v>
+        <v>0.7452569999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.75209</v>
+        <v>0.754066</v>
       </c>
       <c r="E130" t="n">
-        <v>0.697155</v>
+        <v>0.6973279999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7162849999999999</v>
+        <v>0.716535</v>
       </c>
     </row>
     <row r="131">
@@ -7667,16 +7667,16 @@
         <v>0.748243</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745635</v>
+        <v>0.745078</v>
       </c>
       <c r="D131" t="n">
-        <v>0.769136</v>
+        <v>0.771281</v>
       </c>
       <c r="E131" t="n">
-        <v>0.697565</v>
+        <v>0.699244</v>
       </c>
       <c r="F131" t="n">
-        <v>0.717141</v>
+        <v>0.720766</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751685</v>
+        <v>0.751281</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7491719999999999</v>
+        <v>0.750676</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784218</v>
+        <v>0.786073</v>
       </c>
       <c r="E132" t="n">
-        <v>0.700518</v>
+        <v>0.700649</v>
       </c>
       <c r="F132" t="n">
-        <v>0.722462</v>
+        <v>0.7228830000000001</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755555</v>
+        <v>0.75419</v>
       </c>
       <c r="C133" t="n">
-        <v>0.753846</v>
+        <v>0.756652</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80088</v>
+        <v>0.803083</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7030729999999999</v>
+        <v>0.703597</v>
       </c>
       <c r="F133" t="n">
-        <v>0.724285</v>
+        <v>0.726419</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761684</v>
+        <v>0.760919</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761358</v>
+        <v>0.762069</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815626</v>
+        <v>0.817224</v>
       </c>
       <c r="E134" t="n">
-        <v>0.706933</v>
+        <v>0.708883</v>
       </c>
       <c r="F134" t="n">
-        <v>0.731588</v>
+        <v>0.73162</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.76786</v>
+        <v>0.766063</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766741</v>
+        <v>0.768493</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690037</v>
+        <v>0.690899</v>
       </c>
       <c r="E135" t="n">
-        <v>0.711933</v>
+        <v>0.714166</v>
       </c>
       <c r="F135" t="n">
-        <v>0.737115</v>
+        <v>0.739232</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77646</v>
+        <v>0.774328</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778826</v>
+        <v>0.7798850000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.699977</v>
+        <v>0.701176</v>
       </c>
       <c r="E136" t="n">
-        <v>0.721002</v>
+        <v>0.723612</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750738</v>
+        <v>0.750019</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786851</v>
+        <v>0.78734</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7938809999999999</v>
+        <v>0.7940700000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.710944</v>
+        <v>0.7115669999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.823825</v>
+        <v>0.8255439999999999</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835658</v>
+        <v>0.837044</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864676</v>
+        <v>0.863226</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862256</v>
+        <v>0.862558</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722477</v>
+        <v>0.723948</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825065</v>
+        <v>0.822833</v>
       </c>
       <c r="F138" t="n">
-        <v>0.836306</v>
+        <v>0.836886</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864545</v>
+        <v>0.862916</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863408</v>
+        <v>0.8629790000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73433</v>
+        <v>0.735276</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825418</v>
+        <v>0.825784</v>
       </c>
       <c r="F139" t="n">
-        <v>0.837939</v>
+        <v>0.839035</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865549</v>
+        <v>0.865901</v>
       </c>
       <c r="C140" t="n">
-        <v>0.865042</v>
+        <v>0.865751</v>
       </c>
       <c r="D140" t="n">
-        <v>0.747776</v>
+        <v>0.748997</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8260420000000001</v>
+        <v>0.824119</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839144</v>
+        <v>0.840234</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865936</v>
+        <v>0.863833</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8662530000000001</v>
+        <v>0.867545</v>
       </c>
       <c r="D141" t="n">
-        <v>0.761143</v>
+        <v>0.762568</v>
       </c>
       <c r="E141" t="n">
-        <v>0.827639</v>
+        <v>0.825478</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840122</v>
+        <v>0.842791</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864533</v>
+        <v>0.866455</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866314</v>
+        <v>0.869357</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774017</v>
+        <v>0.775197</v>
       </c>
       <c r="E142" t="n">
-        <v>0.826539</v>
+        <v>0.825782</v>
       </c>
       <c r="F142" t="n">
-        <v>0.841458</v>
+        <v>0.843767</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867157</v>
+        <v>0.866884</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8683689999999999</v>
+        <v>0.869275</v>
       </c>
       <c r="D143" t="n">
-        <v>0.789529</v>
+        <v>0.791377</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827473</v>
+        <v>0.827576</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844963</v>
+        <v>0.8446939999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115212</v>
+        <v>0.130006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113103</v>
+        <v>0.113475</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132085</v>
+        <v>0.133472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11088</v>
+        <v>0.111432</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108509</v>
+        <v>0.108143</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.116</v>
+        <v>0.122298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12419</v>
+        <v>0.11495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.139808</v>
+        <v>0.141499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.111061</v>
+        <v>0.118387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108507</v>
+        <v>0.108333</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116197</v>
+        <v>0.12909</v>
       </c>
       <c r="C4" t="n">
-        <v>0.117597</v>
+        <v>0.11619</v>
       </c>
       <c r="D4" t="n">
-        <v>0.146553</v>
+        <v>0.147965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111294</v>
+        <v>0.115637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108961</v>
+        <v>0.10865</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117584</v>
+        <v>0.129771</v>
       </c>
       <c r="C5" t="n">
-        <v>0.127617</v>
+        <v>0.116935</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154585</v>
+        <v>0.155268</v>
       </c>
       <c r="E5" t="n">
-        <v>0.111666</v>
+        <v>0.113632</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109473</v>
+        <v>0.109224</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119917</v>
+        <v>0.127515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134984</v>
+        <v>0.119883</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160802</v>
+        <v>0.161741</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112202</v>
+        <v>0.115803</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110148</v>
+        <v>0.110126</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122931</v>
+        <v>0.132858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.126392</v>
+        <v>0.135695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127992</v>
+        <v>0.128654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.112989</v>
+        <v>0.114204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.111109</v>
+        <v>0.110971</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128112</v>
+        <v>0.127981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.137812</v>
+        <v>0.134025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1308</v>
+        <v>0.131711</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114658</v>
+        <v>0.115885</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113482</v>
+        <v>0.112928</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138204</v>
+        <v>0.148632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138393</v>
+        <v>0.152713</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136</v>
+        <v>0.13681</v>
       </c>
       <c r="E9" t="n">
-        <v>0.117351</v>
+        <v>0.116234</v>
       </c>
       <c r="F9" t="n">
-        <v>0.109604</v>
+        <v>0.111351</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125137</v>
+        <v>0.123089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117642</v>
+        <v>0.130926</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140093</v>
+        <v>0.1413</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116839</v>
+        <v>0.116168</v>
       </c>
       <c r="F10" t="n">
-        <v>0.109875</v>
+        <v>0.110276</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124787</v>
+        <v>0.124914</v>
       </c>
       <c r="C11" t="n">
-        <v>0.124957</v>
+        <v>0.127977</v>
       </c>
       <c r="D11" t="n">
-        <v>0.144291</v>
+        <v>0.146048</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116941</v>
+        <v>0.116542</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110096</v>
+        <v>0.110997</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126619</v>
+        <v>0.124727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121291</v>
+        <v>0.12718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149216</v>
+        <v>0.151057</v>
       </c>
       <c r="E12" t="n">
-        <v>0.119932</v>
+        <v>0.117572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.111188</v>
+        <v>0.111391</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127288</v>
+        <v>0.125931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.131065</v>
+        <v>0.121014</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154996</v>
+        <v>0.156457</v>
       </c>
       <c r="E13" t="n">
-        <v>0.117136</v>
+        <v>0.117202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.111676</v>
+        <v>0.110322</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.126058</v>
+        <v>0.127236</v>
       </c>
       <c r="C14" t="n">
-        <v>0.120812</v>
+        <v>0.127843</v>
       </c>
       <c r="D14" t="n">
-        <v>0.159854</v>
+        <v>0.161013</v>
       </c>
       <c r="E14" t="n">
-        <v>0.117359</v>
+        <v>0.119144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.111432</v>
+        <v>0.110589</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.133358</v>
+        <v>0.129546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.136375</v>
+        <v>0.128745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166823</v>
+        <v>0.167959</v>
       </c>
       <c r="E15" t="n">
-        <v>0.124721</v>
+        <v>0.11767</v>
       </c>
       <c r="F15" t="n">
-        <v>0.110976</v>
+        <v>0.11663</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13852</v>
+        <v>0.136034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125196</v>
+        <v>0.128617</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173927</v>
+        <v>0.174137</v>
       </c>
       <c r="E16" t="n">
-        <v>0.118255</v>
+        <v>0.125793</v>
       </c>
       <c r="F16" t="n">
-        <v>0.112308</v>
+        <v>0.112201</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131512</v>
+        <v>0.136188</v>
       </c>
       <c r="C17" t="n">
-        <v>0.125871</v>
+        <v>0.129957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179803</v>
+        <v>0.180551</v>
       </c>
       <c r="E17" t="n">
-        <v>0.118296</v>
+        <v>0.120717</v>
       </c>
       <c r="F17" t="n">
-        <v>0.111754</v>
+        <v>0.112839</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.137026</v>
+        <v>0.138824</v>
       </c>
       <c r="C18" t="n">
-        <v>0.137001</v>
+        <v>0.132186</v>
       </c>
       <c r="D18" t="n">
-        <v>0.185934</v>
+        <v>0.18626</v>
       </c>
       <c r="E18" t="n">
-        <v>0.126395</v>
+        <v>0.121311</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11228</v>
+        <v>0.111853</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13408</v>
+        <v>0.134152</v>
       </c>
       <c r="C19" t="n">
-        <v>0.133751</v>
+        <v>0.141533</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191092</v>
+        <v>0.191574</v>
       </c>
       <c r="E19" t="n">
-        <v>0.120273</v>
+        <v>0.118659</v>
       </c>
       <c r="F19" t="n">
-        <v>0.112256</v>
+        <v>0.11424</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136446</v>
+        <v>0.138179</v>
       </c>
       <c r="C20" t="n">
-        <v>0.134815</v>
+        <v>0.133757</v>
       </c>
       <c r="D20" t="n">
-        <v>0.196054</v>
+        <v>0.19644</v>
       </c>
       <c r="E20" t="n">
-        <v>0.127542</v>
+        <v>0.119399</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113747</v>
+        <v>0.114184</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.143891</v>
+        <v>0.143419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.141063</v>
+        <v>0.135547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.148526</v>
+        <v>0.148694</v>
       </c>
       <c r="E21" t="n">
-        <v>0.12338</v>
+        <v>0.121345</v>
       </c>
       <c r="F21" t="n">
-        <v>0.114885</v>
+        <v>0.116833</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.151859</v>
+        <v>0.151595</v>
       </c>
       <c r="C22" t="n">
-        <v>0.151486</v>
+        <v>0.15533</v>
       </c>
       <c r="D22" t="n">
-        <v>0.154349</v>
+        <v>0.153664</v>
       </c>
       <c r="E22" t="n">
-        <v>0.132263</v>
+        <v>0.125065</v>
       </c>
       <c r="F22" t="n">
-        <v>0.118896</v>
+        <v>0.118689</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166398</v>
+        <v>0.159475</v>
       </c>
       <c r="C23" t="n">
-        <v>0.152732</v>
+        <v>0.154353</v>
       </c>
       <c r="D23" t="n">
-        <v>0.158426</v>
+        <v>0.158184</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125557</v>
+        <v>0.124757</v>
       </c>
       <c r="F23" t="n">
-        <v>0.121628</v>
+        <v>0.118651</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134066</v>
+        <v>0.1345</v>
       </c>
       <c r="C24" t="n">
-        <v>0.134536</v>
+        <v>0.129799</v>
       </c>
       <c r="D24" t="n">
-        <v>0.163698</v>
+        <v>0.16344</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125321</v>
+        <v>0.12567</v>
       </c>
       <c r="F24" t="n">
-        <v>0.120735</v>
+        <v>0.119794</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134806</v>
+        <v>0.134644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136691</v>
+        <v>0.129562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167922</v>
+        <v>0.166908</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125842</v>
+        <v>0.126026</v>
       </c>
       <c r="F25" t="n">
-        <v>0.11988</v>
+        <v>0.120158</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136397</v>
+        <v>0.135473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.134072</v>
+        <v>0.136286</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171591</v>
+        <v>0.171165</v>
       </c>
       <c r="E26" t="n">
-        <v>0.127129</v>
+        <v>0.125565</v>
       </c>
       <c r="F26" t="n">
-        <v>0.119755</v>
+        <v>0.121035</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137715</v>
+        <v>0.136488</v>
       </c>
       <c r="C27" t="n">
-        <v>0.130192</v>
+        <v>0.140565</v>
       </c>
       <c r="D27" t="n">
-        <v>0.176765</v>
+        <v>0.17661</v>
       </c>
       <c r="E27" t="n">
-        <v>0.127433</v>
+        <v>0.126386</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126406</v>
+        <v>0.125671</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1369</v>
+        <v>0.136702</v>
       </c>
       <c r="C28" t="n">
-        <v>0.140447</v>
+        <v>0.130754</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182055</v>
+        <v>0.182007</v>
       </c>
       <c r="E28" t="n">
-        <v>0.12625</v>
+        <v>0.126121</v>
       </c>
       <c r="F28" t="n">
-        <v>0.127324</v>
+        <v>0.12238</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.139517</v>
+        <v>0.136662</v>
       </c>
       <c r="C29" t="n">
-        <v>0.138578</v>
+        <v>0.137235</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187688</v>
+        <v>0.188466</v>
       </c>
       <c r="E29" t="n">
-        <v>0.126541</v>
+        <v>0.125988</v>
       </c>
       <c r="F29" t="n">
-        <v>0.124867</v>
+        <v>0.123486</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.14148</v>
+        <v>0.13835</v>
       </c>
       <c r="C30" t="n">
-        <v>0.137083</v>
+        <v>0.143083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192774</v>
+        <v>0.192875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126419</v>
+        <v>0.127017</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122757</v>
+        <v>0.120747</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.13911</v>
+        <v>0.139607</v>
       </c>
       <c r="C31" t="n">
-        <v>0.147451</v>
+        <v>0.139933</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197766</v>
+        <v>0.1974</v>
       </c>
       <c r="E31" t="n">
-        <v>0.126378</v>
+        <v>0.126585</v>
       </c>
       <c r="F31" t="n">
-        <v>0.12858</v>
+        <v>0.120666</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141528</v>
+        <v>0.141387</v>
       </c>
       <c r="C32" t="n">
-        <v>0.14624</v>
+        <v>0.151451</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203961</v>
+        <v>0.203605</v>
       </c>
       <c r="E32" t="n">
-        <v>0.127571</v>
+        <v>0.12671</v>
       </c>
       <c r="F32" t="n">
-        <v>0.125281</v>
+        <v>0.126552</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144376</v>
+        <v>0.143918</v>
       </c>
       <c r="C33" t="n">
-        <v>0.146528</v>
+        <v>0.140328</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209733</v>
+        <v>0.209025</v>
       </c>
       <c r="E33" t="n">
-        <v>0.128346</v>
+        <v>0.127748</v>
       </c>
       <c r="F33" t="n">
-        <v>0.124394</v>
+        <v>0.122651</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147805</v>
+        <v>0.148085</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152719</v>
+        <v>0.146102</v>
       </c>
       <c r="D34" t="n">
-        <v>0.214125</v>
+        <v>0.213809</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129462</v>
+        <v>0.129273</v>
       </c>
       <c r="F34" t="n">
-        <v>0.123343</v>
+        <v>0.127647</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152772</v>
+        <v>0.153973</v>
       </c>
       <c r="C35" t="n">
-        <v>0.149482</v>
+        <v>0.15793</v>
       </c>
       <c r="D35" t="n">
-        <v>0.166062</v>
+        <v>0.16586</v>
       </c>
       <c r="E35" t="n">
-        <v>0.134122</v>
+        <v>0.134591</v>
       </c>
       <c r="F35" t="n">
-        <v>0.130035</v>
+        <v>0.131547</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159364</v>
+        <v>0.159578</v>
       </c>
       <c r="C36" t="n">
-        <v>0.161887</v>
+        <v>0.166651</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169564</v>
+        <v>0.169281</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14222</v>
+        <v>0.141558</v>
       </c>
       <c r="F36" t="n">
-        <v>0.141397</v>
+        <v>0.134597</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167325</v>
+        <v>0.168689</v>
       </c>
       <c r="C37" t="n">
-        <v>0.164523</v>
+        <v>0.17611</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173215</v>
+        <v>0.173333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.135135</v>
+        <v>0.136784</v>
       </c>
       <c r="F37" t="n">
-        <v>0.139786</v>
+        <v>0.138102</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.144751</v>
+        <v>0.145889</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146023</v>
+        <v>0.145454</v>
       </c>
       <c r="D38" t="n">
-        <v>0.17826</v>
+        <v>0.177862</v>
       </c>
       <c r="E38" t="n">
-        <v>0.137752</v>
+        <v>0.135879</v>
       </c>
       <c r="F38" t="n">
-        <v>0.139193</v>
+        <v>0.149436</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.14754</v>
+        <v>0.148075</v>
       </c>
       <c r="C39" t="n">
-        <v>0.155619</v>
+        <v>0.155354</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182578</v>
+        <v>0.182328</v>
       </c>
       <c r="E39" t="n">
-        <v>0.139378</v>
+        <v>0.138829</v>
       </c>
       <c r="F39" t="n">
-        <v>0.145059</v>
+        <v>0.136729</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147292</v>
+        <v>0.148333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.148575</v>
+        <v>0.146986</v>
       </c>
       <c r="D40" t="n">
-        <v>0.187517</v>
+        <v>0.186583</v>
       </c>
       <c r="E40" t="n">
-        <v>0.136509</v>
+        <v>0.136814</v>
       </c>
       <c r="F40" t="n">
-        <v>0.144682</v>
+        <v>0.142677</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147568</v>
+        <v>0.14897</v>
       </c>
       <c r="C41" t="n">
-        <v>0.150771</v>
+        <v>0.147137</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191427</v>
+        <v>0.191254</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138651</v>
+        <v>0.13839</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141691</v>
+        <v>0.146836</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.151398</v>
+        <v>0.148818</v>
       </c>
       <c r="C42" t="n">
-        <v>0.150455</v>
+        <v>0.149654</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196415</v>
+        <v>0.196013</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139604</v>
+        <v>0.138643</v>
       </c>
       <c r="F42" t="n">
-        <v>0.141167</v>
+        <v>0.14874</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.148534</v>
+        <v>0.15009</v>
       </c>
       <c r="C43" t="n">
-        <v>0.153349</v>
+        <v>0.152234</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201547</v>
+        <v>0.201264</v>
       </c>
       <c r="E43" t="n">
-        <v>0.138906</v>
+        <v>0.138461</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14478</v>
+        <v>0.145809</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150381</v>
+        <v>0.150616</v>
       </c>
       <c r="C44" t="n">
-        <v>0.150998</v>
+        <v>0.152981</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206676</v>
+        <v>0.206443</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138721</v>
+        <v>0.137788</v>
       </c>
       <c r="F44" t="n">
-        <v>0.141026</v>
+        <v>0.139623</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.15424</v>
+        <v>0.152574</v>
       </c>
       <c r="C45" t="n">
-        <v>0.153793</v>
+        <v>0.164409</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212161</v>
+        <v>0.211678</v>
       </c>
       <c r="E45" t="n">
-        <v>0.139347</v>
+        <v>0.137185</v>
       </c>
       <c r="F45" t="n">
-        <v>0.142372</v>
+        <v>0.138862</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.153894</v>
+        <v>0.154628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.162066</v>
+        <v>0.155089</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21669</v>
+        <v>0.216138</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139354</v>
+        <v>0.139601</v>
       </c>
       <c r="F46" t="n">
-        <v>0.141961</v>
+        <v>0.140193</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.161505</v>
+        <v>0.158642</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157349</v>
+        <v>0.156867</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222388</v>
+        <v>0.222158</v>
       </c>
       <c r="E47" t="n">
-        <v>0.141707</v>
+        <v>0.141488</v>
       </c>
       <c r="F47" t="n">
-        <v>0.141765</v>
+        <v>0.145613</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161695</v>
+        <v>0.160059</v>
       </c>
       <c r="C48" t="n">
-        <v>0.162526</v>
+        <v>0.160524</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22674</v>
+        <v>0.226684</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144046</v>
+        <v>0.144579</v>
       </c>
       <c r="F48" t="n">
-        <v>0.143974</v>
+        <v>0.144775</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164319</v>
+        <v>0.165076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.166113</v>
+        <v>0.166282</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232388</v>
+        <v>0.231544</v>
       </c>
       <c r="E49" t="n">
-        <v>0.148264</v>
+        <v>0.148846</v>
       </c>
       <c r="F49" t="n">
-        <v>0.150013</v>
+        <v>0.149672</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170845</v>
+        <v>0.171222</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169545</v>
+        <v>0.17319</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171635</v>
+        <v>0.171246</v>
       </c>
       <c r="E50" t="n">
-        <v>0.154525</v>
+        <v>0.153818</v>
       </c>
       <c r="F50" t="n">
-        <v>0.160468</v>
+        <v>0.156399</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177271</v>
+        <v>0.178086</v>
       </c>
       <c r="C51" t="n">
-        <v>0.17834</v>
+        <v>0.179589</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175265</v>
+        <v>0.175105</v>
       </c>
       <c r="E51" t="n">
-        <v>0.149429</v>
+        <v>0.149475</v>
       </c>
       <c r="F51" t="n">
-        <v>0.153954</v>
+        <v>0.156805</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187393</v>
+        <v>0.185507</v>
       </c>
       <c r="C52" t="n">
-        <v>0.199869</v>
+        <v>0.196473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17874</v>
+        <v>0.178557</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150954</v>
+        <v>0.149982</v>
       </c>
       <c r="F52" t="n">
-        <v>0.154294</v>
+        <v>0.151899</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159896</v>
+        <v>0.159643</v>
       </c>
       <c r="C53" t="n">
-        <v>0.165781</v>
+        <v>0.165986</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183367</v>
+        <v>0.182899</v>
       </c>
       <c r="E53" t="n">
-        <v>0.149803</v>
+        <v>0.150668</v>
       </c>
       <c r="F53" t="n">
-        <v>0.157838</v>
+        <v>0.153741</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160472</v>
+        <v>0.159731</v>
       </c>
       <c r="C54" t="n">
-        <v>0.173635</v>
+        <v>0.167127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187463</v>
+        <v>0.186842</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150294</v>
+        <v>0.150645</v>
       </c>
       <c r="F54" t="n">
-        <v>0.153705</v>
+        <v>0.153433</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.159634</v>
+        <v>0.161062</v>
       </c>
       <c r="C55" t="n">
-        <v>0.173999</v>
+        <v>0.167349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192108</v>
+        <v>0.191892</v>
       </c>
       <c r="E55" t="n">
-        <v>0.150957</v>
+        <v>0.150928</v>
       </c>
       <c r="F55" t="n">
-        <v>0.15486</v>
+        <v>0.153977</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161578</v>
+        <v>0.161863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167269</v>
+        <v>0.16914</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197168</v>
+        <v>0.19718</v>
       </c>
       <c r="E56" t="n">
-        <v>0.151716</v>
+        <v>0.15131</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154033</v>
+        <v>0.155043</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162864</v>
+        <v>0.161874</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168314</v>
+        <v>0.169436</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202053</v>
+        <v>0.201806</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151337</v>
+        <v>0.150853</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155474</v>
+        <v>0.154863</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163295</v>
+        <v>0.163056</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169329</v>
+        <v>0.170888</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207314</v>
+        <v>0.207351</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152108</v>
+        <v>0.15115</v>
       </c>
       <c r="F58" t="n">
-        <v>0.160394</v>
+        <v>0.154778</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165778</v>
+        <v>0.165555</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172479</v>
+        <v>0.173273</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212173</v>
+        <v>0.212079</v>
       </c>
       <c r="E59" t="n">
-        <v>0.153313</v>
+        <v>0.152598</v>
       </c>
       <c r="F59" t="n">
-        <v>0.157047</v>
+        <v>0.156427</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167228</v>
+        <v>0.166581</v>
       </c>
       <c r="C60" t="n">
-        <v>0.178218</v>
+        <v>0.175301</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217604</v>
+        <v>0.217199</v>
       </c>
       <c r="E60" t="n">
-        <v>0.153169</v>
+        <v>0.153527</v>
       </c>
       <c r="F60" t="n">
-        <v>0.156882</v>
+        <v>0.158644</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169321</v>
+        <v>0.169366</v>
       </c>
       <c r="C61" t="n">
-        <v>0.177149</v>
+        <v>0.175951</v>
       </c>
       <c r="D61" t="n">
-        <v>0.223034</v>
+        <v>0.223282</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155166</v>
+        <v>0.155628</v>
       </c>
       <c r="F61" t="n">
-        <v>0.159125</v>
+        <v>0.160712</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171539</v>
+        <v>0.172578</v>
       </c>
       <c r="C62" t="n">
-        <v>0.18042</v>
+        <v>0.18</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228191</v>
+        <v>0.227808</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15809</v>
+        <v>0.159316</v>
       </c>
       <c r="F62" t="n">
-        <v>0.162587</v>
+        <v>0.162566</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.174766</v>
+        <v>0.176259</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183821</v>
+        <v>0.183239</v>
       </c>
       <c r="D63" t="n">
-        <v>0.234099</v>
+        <v>0.232525</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161417</v>
+        <v>0.160951</v>
       </c>
       <c r="F63" t="n">
-        <v>0.165873</v>
+        <v>0.164851</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186892</v>
+        <v>0.181273</v>
       </c>
       <c r="C64" t="n">
-        <v>0.188683</v>
+        <v>0.188777</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177868</v>
+        <v>0.176846</v>
       </c>
       <c r="E64" t="n">
-        <v>0.16543</v>
+        <v>0.165114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.175782</v>
+        <v>0.1696</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18746</v>
+        <v>0.187246</v>
       </c>
       <c r="C65" t="n">
-        <v>0.206267</v>
+        <v>0.204761</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181346</v>
+        <v>0.181032</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172185</v>
+        <v>0.172701</v>
       </c>
       <c r="F65" t="n">
-        <v>0.178079</v>
+        <v>0.176674</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197102</v>
+        <v>0.196776</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213599</v>
+        <v>0.206169</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186126</v>
+        <v>0.186171</v>
       </c>
       <c r="E66" t="n">
-        <v>0.161765</v>
+        <v>0.161992</v>
       </c>
       <c r="F66" t="n">
-        <v>0.163256</v>
+        <v>0.163019</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.181092</v>
+        <v>0.181119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174952</v>
+        <v>0.174157</v>
       </c>
       <c r="D67" t="n">
-        <v>0.19239</v>
+        <v>0.191965</v>
       </c>
       <c r="E67" t="n">
-        <v>0.161255</v>
+        <v>0.162245</v>
       </c>
       <c r="F67" t="n">
-        <v>0.169109</v>
+        <v>0.163661</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18204</v>
+        <v>0.183017</v>
       </c>
       <c r="C68" t="n">
-        <v>0.175775</v>
+        <v>0.175526</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198994</v>
+        <v>0.19893</v>
       </c>
       <c r="E68" t="n">
-        <v>0.16234</v>
+        <v>0.162636</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162615</v>
+        <v>0.16235</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186892</v>
+        <v>0.182149</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180747</v>
+        <v>0.17788</v>
       </c>
       <c r="D69" t="n">
-        <v>0.205172</v>
+        <v>0.203635</v>
       </c>
       <c r="E69" t="n">
-        <v>0.161864</v>
+        <v>0.166943</v>
       </c>
       <c r="F69" t="n">
-        <v>0.16707</v>
+        <v>0.168883</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.181122</v>
+        <v>0.182424</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176624</v>
+        <v>0.17665</v>
       </c>
       <c r="D70" t="n">
-        <v>0.212444</v>
+        <v>0.210088</v>
       </c>
       <c r="E70" t="n">
-        <v>0.165213</v>
+        <v>0.165044</v>
       </c>
       <c r="F70" t="n">
-        <v>0.165292</v>
+        <v>0.165321</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182539</v>
+        <v>0.184</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177786</v>
+        <v>0.177423</v>
       </c>
       <c r="D71" t="n">
-        <v>0.219108</v>
+        <v>0.217646</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163353</v>
+        <v>0.16454</v>
       </c>
       <c r="F71" t="n">
-        <v>0.166059</v>
+        <v>0.165763</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.182917</v>
+        <v>0.185277</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178558</v>
+        <v>0.184057</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22593</v>
+        <v>0.225439</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164198</v>
+        <v>0.163726</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166861</v>
+        <v>0.166843</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.184602</v>
+        <v>0.185276</v>
       </c>
       <c r="C73" t="n">
-        <v>0.180671</v>
+        <v>0.17978</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234101</v>
+        <v>0.232407</v>
       </c>
       <c r="E73" t="n">
-        <v>0.164681</v>
+        <v>0.164492</v>
       </c>
       <c r="F73" t="n">
-        <v>0.169399</v>
+        <v>0.174913</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.185936</v>
+        <v>0.189311</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182488</v>
+        <v>0.186079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243171</v>
+        <v>0.240696</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166684</v>
+        <v>0.166509</v>
       </c>
       <c r="F74" t="n">
-        <v>0.169728</v>
+        <v>0.169649</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.18767</v>
+        <v>0.187455</v>
       </c>
       <c r="C75" t="n">
-        <v>0.184693</v>
+        <v>0.184378</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252796</v>
+        <v>0.252154</v>
       </c>
       <c r="E75" t="n">
-        <v>0.167517</v>
+        <v>0.167812</v>
       </c>
       <c r="F75" t="n">
-        <v>0.172664</v>
+        <v>0.171636</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193592</v>
+        <v>0.191895</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189546</v>
+        <v>0.18752</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260536</v>
+        <v>0.260687</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169577</v>
+        <v>0.172241</v>
       </c>
       <c r="F76" t="n">
-        <v>0.175552</v>
+        <v>0.173412</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193756</v>
+        <v>0.196477</v>
       </c>
       <c r="C77" t="n">
-        <v>0.193093</v>
+        <v>0.191805</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271285</v>
+        <v>0.270449</v>
       </c>
       <c r="E77" t="n">
-        <v>0.172298</v>
+        <v>0.172293</v>
       </c>
       <c r="F77" t="n">
-        <v>0.176775</v>
+        <v>0.176777</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.199608</v>
+        <v>0.199493</v>
       </c>
       <c r="C78" t="n">
-        <v>0.197482</v>
+        <v>0.1966</v>
       </c>
       <c r="D78" t="n">
-        <v>0.223765</v>
+        <v>0.224095</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175839</v>
+        <v>0.17605</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181358</v>
+        <v>0.181438</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.203538</v>
+        <v>0.203703</v>
       </c>
       <c r="C79" t="n">
-        <v>0.204219</v>
+        <v>0.207868</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235666</v>
+        <v>0.23561</v>
       </c>
       <c r="E79" t="n">
-        <v>0.184565</v>
+        <v>0.19161</v>
       </c>
       <c r="F79" t="n">
-        <v>0.190049</v>
+        <v>0.188368</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215002</v>
+        <v>0.212945</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215061</v>
+        <v>0.212378</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24406</v>
+        <v>0.245073</v>
       </c>
       <c r="E80" t="n">
-        <v>0.244221</v>
+        <v>0.241792</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174921</v>
+        <v>0.176051</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.361507</v>
+        <v>0.35921</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182073</v>
+        <v>0.181566</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25828</v>
+        <v>0.257652</v>
       </c>
       <c r="E81" t="n">
-        <v>0.242009</v>
+        <v>0.242391</v>
       </c>
       <c r="F81" t="n">
-        <v>0.176884</v>
+        <v>0.176196</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.360528</v>
+        <v>0.358619</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182725</v>
+        <v>0.182853</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270967</v>
+        <v>0.269634</v>
       </c>
       <c r="E82" t="n">
-        <v>0.242496</v>
+        <v>0.243471</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176287</v>
+        <v>0.177004</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.367309</v>
+        <v>0.361274</v>
       </c>
       <c r="C83" t="n">
-        <v>0.183887</v>
+        <v>0.183374</v>
       </c>
       <c r="D83" t="n">
-        <v>0.28465</v>
+        <v>0.285236</v>
       </c>
       <c r="E83" t="n">
-        <v>0.24416</v>
+        <v>0.242644</v>
       </c>
       <c r="F83" t="n">
-        <v>0.177122</v>
+        <v>0.177406</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.367875</v>
+        <v>0.366227</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184265</v>
+        <v>0.184611</v>
       </c>
       <c r="D84" t="n">
-        <v>0.297702</v>
+        <v>0.300075</v>
       </c>
       <c r="E84" t="n">
-        <v>0.241886</v>
+        <v>0.241584</v>
       </c>
       <c r="F84" t="n">
-        <v>0.177735</v>
+        <v>0.178656</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.366314</v>
+        <v>0.365655</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18592</v>
+        <v>0.185895</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313455</v>
+        <v>0.314392</v>
       </c>
       <c r="E85" t="n">
-        <v>0.243328</v>
+        <v>0.240498</v>
       </c>
       <c r="F85" t="n">
-        <v>0.179613</v>
+        <v>0.180489</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367354</v>
+        <v>0.363188</v>
       </c>
       <c r="C86" t="n">
-        <v>0.186604</v>
+        <v>0.187736</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328513</v>
+        <v>0.328331</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2414</v>
+        <v>0.238712</v>
       </c>
       <c r="F86" t="n">
-        <v>0.180852</v>
+        <v>0.181202</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.370344</v>
+        <v>0.363672</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188916</v>
+        <v>0.190527</v>
       </c>
       <c r="D87" t="n">
-        <v>0.342813</v>
+        <v>0.342989</v>
       </c>
       <c r="E87" t="n">
-        <v>0.238101</v>
+        <v>0.240082</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1835</v>
+        <v>0.18346</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.368361</v>
+        <v>0.369302</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191745</v>
+        <v>0.196158</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361527</v>
+        <v>0.35935</v>
       </c>
       <c r="E88" t="n">
-        <v>0.240637</v>
+        <v>0.238906</v>
       </c>
       <c r="F88" t="n">
-        <v>0.185842</v>
+        <v>0.1857</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.372792</v>
+        <v>0.36697</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194479</v>
+        <v>0.200691</v>
       </c>
       <c r="D89" t="n">
-        <v>0.376197</v>
+        <v>0.375132</v>
       </c>
       <c r="E89" t="n">
-        <v>0.241521</v>
+        <v>0.24133</v>
       </c>
       <c r="F89" t="n">
-        <v>0.188625</v>
+        <v>0.187721</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.374361</v>
+        <v>0.370124</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197984</v>
+        <v>0.204328</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392701</v>
+        <v>0.392278</v>
       </c>
       <c r="E90" t="n">
-        <v>0.238311</v>
+        <v>0.239244</v>
       </c>
       <c r="F90" t="n">
-        <v>0.190521</v>
+        <v>0.19027</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.375612</v>
+        <v>0.373515</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202555</v>
+        <v>0.201896</v>
       </c>
       <c r="D91" t="n">
-        <v>0.408398</v>
+        <v>0.407778</v>
       </c>
       <c r="E91" t="n">
-        <v>0.239924</v>
+        <v>0.237186</v>
       </c>
       <c r="F91" t="n">
-        <v>0.195299</v>
+        <v>0.195068</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.378306</v>
+        <v>0.377632</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208595</v>
+        <v>0.212319</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358107</v>
+        <v>0.357453</v>
       </c>
       <c r="E92" t="n">
-        <v>0.241862</v>
+        <v>0.241308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.200826</v>
+        <v>0.201764</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.380226</v>
+        <v>0.382908</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2159</v>
+        <v>0.21751</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370439</v>
+        <v>0.368863</v>
       </c>
       <c r="E93" t="n">
-        <v>0.245298</v>
+        <v>0.24497</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209055</v>
+        <v>0.208995</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.386989</v>
+        <v>0.387007</v>
       </c>
       <c r="C94" t="n">
-        <v>0.227025</v>
+        <v>0.22742</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378688</v>
+        <v>0.379166</v>
       </c>
       <c r="E94" t="n">
-        <v>0.40007</v>
+        <v>0.399932</v>
       </c>
       <c r="F94" t="n">
-        <v>0.270062</v>
+        <v>0.26544</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.527213</v>
+        <v>0.527346</v>
       </c>
       <c r="C95" t="n">
-        <v>0.295526</v>
+        <v>0.293083</v>
       </c>
       <c r="D95" t="n">
-        <v>0.395818</v>
+        <v>0.394012</v>
       </c>
       <c r="E95" t="n">
-        <v>0.399094</v>
+        <v>0.399358</v>
       </c>
       <c r="F95" t="n">
-        <v>0.273169</v>
+        <v>0.26926</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.527187</v>
+        <v>0.52799</v>
       </c>
       <c r="C96" t="n">
-        <v>0.292813</v>
+        <v>0.295455</v>
       </c>
       <c r="D96" t="n">
-        <v>0.406352</v>
+        <v>0.407969</v>
       </c>
       <c r="E96" t="n">
-        <v>0.399036</v>
+        <v>0.39939</v>
       </c>
       <c r="F96" t="n">
-        <v>0.273279</v>
+        <v>0.273495</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.526988</v>
+        <v>0.5281670000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299197</v>
+        <v>0.299515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.420333</v>
+        <v>0.421417</v>
       </c>
       <c r="E97" t="n">
-        <v>0.399881</v>
+        <v>0.398011</v>
       </c>
       <c r="F97" t="n">
-        <v>0.277295</v>
+        <v>0.276618</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.528434</v>
+        <v>0.528088</v>
       </c>
       <c r="C98" t="n">
-        <v>0.296189</v>
+        <v>0.291685</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435093</v>
+        <v>0.434107</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397994</v>
+        <v>0.397661</v>
       </c>
       <c r="F98" t="n">
-        <v>0.276518</v>
+        <v>0.275738</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5279470000000001</v>
+        <v>0.527946</v>
       </c>
       <c r="C99" t="n">
-        <v>0.292554</v>
+        <v>0.297934</v>
       </c>
       <c r="D99" t="n">
-        <v>0.448526</v>
+        <v>0.450949</v>
       </c>
       <c r="E99" t="n">
-        <v>0.398521</v>
+        <v>0.398808</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278032</v>
+        <v>0.280632</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.530197</v>
+        <v>0.5303369999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292203</v>
+        <v>0.295229</v>
       </c>
       <c r="D100" t="n">
-        <v>0.461821</v>
+        <v>0.462221</v>
       </c>
       <c r="E100" t="n">
-        <v>0.39851</v>
+        <v>0.398089</v>
       </c>
       <c r="F100" t="n">
-        <v>0.282586</v>
+        <v>0.28236</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531133</v>
+        <v>0.5314140000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.297819</v>
+        <v>0.304169</v>
       </c>
       <c r="D101" t="n">
-        <v>0.476886</v>
+        <v>0.477931</v>
       </c>
       <c r="E101" t="n">
-        <v>0.397926</v>
+        <v>0.399343</v>
       </c>
       <c r="F101" t="n">
-        <v>0.276334</v>
+        <v>0.281133</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5318850000000001</v>
+        <v>0.531929</v>
       </c>
       <c r="C102" t="n">
-        <v>0.300677</v>
+        <v>0.301525</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495274</v>
+        <v>0.495188</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397445</v>
+        <v>0.399612</v>
       </c>
       <c r="F102" t="n">
-        <v>0.281868</v>
+        <v>0.280508</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.531984</v>
+        <v>0.532406</v>
       </c>
       <c r="C103" t="n">
-        <v>0.30569</v>
+        <v>0.306284</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5151790000000001</v>
+        <v>0.513579</v>
       </c>
       <c r="E103" t="n">
-        <v>0.399079</v>
+        <v>0.397302</v>
       </c>
       <c r="F103" t="n">
-        <v>0.285202</v>
+        <v>0.288918</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.53562</v>
+        <v>0.5356300000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.305871</v>
+        <v>0.310818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5288659999999999</v>
+        <v>0.530467</v>
       </c>
       <c r="E104" t="n">
-        <v>0.401201</v>
+        <v>0.400503</v>
       </c>
       <c r="F104" t="n">
-        <v>0.288094</v>
+        <v>0.285352</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.538538</v>
+        <v>0.539683</v>
       </c>
       <c r="C105" t="n">
-        <v>0.309418</v>
+        <v>0.315825</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5425720000000001</v>
+        <v>0.545027</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402315</v>
+        <v>0.401771</v>
       </c>
       <c r="F105" t="n">
-        <v>0.286964</v>
+        <v>0.283617</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543118</v>
+        <v>0.542787</v>
       </c>
       <c r="C106" t="n">
-        <v>0.315234</v>
+        <v>0.32231</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563059</v>
+        <v>0.563964</v>
       </c>
       <c r="E106" t="n">
-        <v>0.407015</v>
+        <v>0.404779</v>
       </c>
       <c r="F106" t="n">
-        <v>0.291097</v>
+        <v>0.294817</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5475680000000001</v>
+        <v>0.548441</v>
       </c>
       <c r="C107" t="n">
-        <v>0.324447</v>
+        <v>0.332146</v>
       </c>
       <c r="D107" t="n">
-        <v>0.528975</v>
+        <v>0.530294</v>
       </c>
       <c r="E107" t="n">
-        <v>0.411475</v>
+        <v>0.410069</v>
       </c>
       <c r="F107" t="n">
-        <v>0.296049</v>
+        <v>0.300146</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553589</v>
+        <v>0.555387</v>
       </c>
       <c r="C108" t="n">
-        <v>0.333891</v>
+        <v>0.334907</v>
       </c>
       <c r="D108" t="n">
-        <v>0.543655</v>
+        <v>0.543787</v>
       </c>
       <c r="E108" t="n">
-        <v>0.535455</v>
+        <v>0.533245</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492791</v>
+        <v>0.493377</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.56652</v>
+        <v>0.566843</v>
       </c>
       <c r="C109" t="n">
-        <v>0.348402</v>
+        <v>0.350606</v>
       </c>
       <c r="D109" t="n">
-        <v>0.54898</v>
+        <v>0.549669</v>
       </c>
       <c r="E109" t="n">
-        <v>0.533063</v>
+        <v>0.533674</v>
       </c>
       <c r="F109" t="n">
-        <v>0.494729</v>
+        <v>0.498489</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.603378</v>
+        <v>0.602865</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524636</v>
+        <v>0.5258</v>
       </c>
       <c r="D110" t="n">
-        <v>0.563199</v>
+        <v>0.563727</v>
       </c>
       <c r="E110" t="n">
-        <v>0.533898</v>
+        <v>0.537228</v>
       </c>
       <c r="F110" t="n">
-        <v>0.496052</v>
+        <v>0.500095</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.602537</v>
+        <v>0.6041879999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528579</v>
+        <v>0.5274</v>
       </c>
       <c r="D111" t="n">
-        <v>0.578527</v>
+        <v>0.578066</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534852</v>
+        <v>0.5348810000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>0.498168</v>
+        <v>0.498366</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.602904</v>
+        <v>0.606001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.530522</v>
+        <v>0.525791</v>
       </c>
       <c r="D112" t="n">
-        <v>0.588309</v>
+        <v>0.58866</v>
       </c>
       <c r="E112" t="n">
-        <v>0.534919</v>
+        <v>0.538749</v>
       </c>
       <c r="F112" t="n">
-        <v>0.495462</v>
+        <v>0.499712</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.606031</v>
+        <v>0.608695</v>
       </c>
       <c r="C113" t="n">
-        <v>0.530334</v>
+        <v>0.528487</v>
       </c>
       <c r="D113" t="n">
-        <v>0.604841</v>
+        <v>0.6037090000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.533936</v>
+        <v>0.5344989999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>0.499531</v>
+        <v>0.499181</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608344</v>
+        <v>0.609287</v>
       </c>
       <c r="C114" t="n">
-        <v>0.529771</v>
+        <v>0.528992</v>
       </c>
       <c r="D114" t="n">
-        <v>0.618489</v>
+        <v>0.6187319999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5391629999999999</v>
+        <v>0.537541</v>
       </c>
       <c r="F114" t="n">
-        <v>0.504485</v>
+        <v>0.500124</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.606827</v>
+        <v>0.60781</v>
       </c>
       <c r="C115" t="n">
-        <v>0.533592</v>
+        <v>0.5289740000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.635516</v>
+        <v>0.634686</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5393829999999999</v>
+        <v>0.536818</v>
       </c>
       <c r="F115" t="n">
-        <v>0.502881</v>
+        <v>0.506477</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.610707</v>
+        <v>0.61015</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5320279999999999</v>
+        <v>0.5327730000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.647193</v>
+        <v>0.646809</v>
       </c>
       <c r="E116" t="n">
-        <v>0.540061</v>
+        <v>0.53799</v>
       </c>
       <c r="F116" t="n">
-        <v>0.504248</v>
+        <v>0.503189</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6120139999999999</v>
+        <v>0.613999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.535416</v>
+        <v>0.538147</v>
       </c>
       <c r="D117" t="n">
-        <v>0.669384</v>
+        <v>0.668839</v>
       </c>
       <c r="E117" t="n">
-        <v>0.5417149999999999</v>
+        <v>0.539834</v>
       </c>
       <c r="F117" t="n">
-        <v>0.508927</v>
+        <v>0.507317</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.614056</v>
+        <v>0.617054</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5417689999999999</v>
+        <v>0.548518</v>
       </c>
       <c r="D118" t="n">
-        <v>0.679091</v>
+        <v>0.678819</v>
       </c>
       <c r="E118" t="n">
-        <v>0.544949</v>
+        <v>0.541851</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5090980000000001</v>
+        <v>0.509343</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622458</v>
+        <v>0.622641</v>
       </c>
       <c r="C119" t="n">
-        <v>0.548159</v>
+        <v>0.5462669999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.699825</v>
+        <v>0.7001309999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.545062</v>
+        <v>0.545216</v>
       </c>
       <c r="F119" t="n">
-        <v>0.510406</v>
+        <v>0.514875</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625954</v>
+        <v>0.623849</v>
       </c>
       <c r="C120" t="n">
-        <v>0.551282</v>
+        <v>0.551368</v>
       </c>
       <c r="D120" t="n">
-        <v>0.720098</v>
+        <v>0.721559</v>
       </c>
       <c r="E120" t="n">
-        <v>0.549387</v>
+        <v>0.550861</v>
       </c>
       <c r="F120" t="n">
-        <v>0.514683</v>
+        <v>0.520753</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.627615</v>
+        <v>0.632683</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558078</v>
+        <v>0.557804</v>
       </c>
       <c r="D121" t="n">
-        <v>0.634742</v>
+        <v>0.635713</v>
       </c>
       <c r="E121" t="n">
-        <v>0.555105</v>
+        <v>0.557975</v>
       </c>
       <c r="F121" t="n">
-        <v>0.521624</v>
+        <v>0.524027</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.638184</v>
+        <v>0.639694</v>
       </c>
       <c r="C122" t="n">
-        <v>0.567786</v>
+        <v>0.569846</v>
       </c>
       <c r="D122" t="n">
-        <v>0.64617</v>
+        <v>0.646579</v>
       </c>
       <c r="E122" t="n">
-        <v>0.564445</v>
+        <v>0.563699</v>
       </c>
       <c r="F122" t="n">
-        <v>0.537837</v>
+        <v>0.532349</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6503139999999999</v>
+        <v>0.654025</v>
       </c>
       <c r="C123" t="n">
-        <v>0.582435</v>
+        <v>0.5789260000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.659209</v>
+        <v>0.659846</v>
       </c>
       <c r="E123" t="n">
-        <v>0.69034</v>
+        <v>0.6920809999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>0.709555</v>
+        <v>0.70839</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.74209</v>
+        <v>0.740706</v>
       </c>
       <c r="C124" t="n">
-        <v>0.735338</v>
+        <v>0.736341</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671138</v>
+        <v>0.671964</v>
       </c>
       <c r="E124" t="n">
-        <v>0.691265</v>
+        <v>0.69149</v>
       </c>
       <c r="F124" t="n">
-        <v>0.708352</v>
+        <v>0.709851</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.739162</v>
+        <v>0.743249</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7351839999999999</v>
+        <v>0.737054</v>
       </c>
       <c r="D125" t="n">
-        <v>0.68287</v>
+        <v>0.68341</v>
       </c>
       <c r="E125" t="n">
-        <v>0.692797</v>
+        <v>0.69192</v>
       </c>
       <c r="F125" t="n">
-        <v>0.710159</v>
+        <v>0.711386</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.742734</v>
+        <v>0.742644</v>
       </c>
       <c r="C126" t="n">
-        <v>0.73725</v>
+        <v>0.737327</v>
       </c>
       <c r="D126" t="n">
-        <v>0.697316</v>
+        <v>0.699163</v>
       </c>
       <c r="E126" t="n">
-        <v>0.692492</v>
+        <v>0.694125</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7113350000000001</v>
+        <v>0.712089</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.744043</v>
+        <v>0.745241</v>
       </c>
       <c r="C127" t="n">
-        <v>0.739179</v>
+        <v>0.737846</v>
       </c>
       <c r="D127" t="n">
-        <v>0.713325</v>
+        <v>0.71394</v>
       </c>
       <c r="E127" t="n">
-        <v>0.693978</v>
+        <v>0.693882</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7128</v>
+        <v>0.712971</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.745163</v>
+        <v>0.745536</v>
       </c>
       <c r="C128" t="n">
-        <v>0.741758</v>
+        <v>0.741625</v>
       </c>
       <c r="D128" t="n">
-        <v>0.726724</v>
+        <v>0.7278829999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.694383</v>
+        <v>0.694959</v>
       </c>
       <c r="F128" t="n">
-        <v>0.713315</v>
+        <v>0.714991</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.744208</v>
+        <v>0.746025</v>
       </c>
       <c r="C129" t="n">
-        <v>0.742426</v>
+        <v>0.7424269999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.74053</v>
+        <v>0.742023</v>
       </c>
       <c r="E129" t="n">
-        <v>0.696561</v>
+        <v>0.69343</v>
       </c>
       <c r="F129" t="n">
-        <v>0.717174</v>
+        <v>0.715817</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.746824</v>
+        <v>0.746885</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7452569999999999</v>
+        <v>0.744829</v>
       </c>
       <c r="D130" t="n">
-        <v>0.754066</v>
+        <v>0.755434</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6973279999999999</v>
+        <v>0.697292</v>
       </c>
       <c r="F130" t="n">
-        <v>0.716535</v>
+        <v>0.717292</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748243</v>
+        <v>0.749851</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745078</v>
+        <v>0.747177</v>
       </c>
       <c r="D131" t="n">
-        <v>0.771281</v>
+        <v>0.772296</v>
       </c>
       <c r="E131" t="n">
-        <v>0.699244</v>
+        <v>0.701407</v>
       </c>
       <c r="F131" t="n">
-        <v>0.720766</v>
+        <v>0.720591</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751281</v>
+        <v>0.7562720000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.750676</v>
+        <v>0.752804</v>
       </c>
       <c r="D132" t="n">
-        <v>0.786073</v>
+        <v>0.787128</v>
       </c>
       <c r="E132" t="n">
-        <v>0.700649</v>
+        <v>0.702725</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7228830000000001</v>
+        <v>0.72344</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.75419</v>
+        <v>0.758169</v>
       </c>
       <c r="C133" t="n">
-        <v>0.756652</v>
+        <v>0.758531</v>
       </c>
       <c r="D133" t="n">
-        <v>0.803083</v>
+        <v>0.804327</v>
       </c>
       <c r="E133" t="n">
-        <v>0.703597</v>
+        <v>0.704935</v>
       </c>
       <c r="F133" t="n">
-        <v>0.726419</v>
+        <v>0.728434</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.760919</v>
+        <v>0.7618780000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.762069</v>
+        <v>0.7621869999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.817224</v>
+        <v>0.818584</v>
       </c>
       <c r="E134" t="n">
-        <v>0.708883</v>
+        <v>0.708033</v>
       </c>
       <c r="F134" t="n">
-        <v>0.73162</v>
+        <v>0.734728</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.766063</v>
+        <v>0.770441</v>
       </c>
       <c r="C135" t="n">
-        <v>0.768493</v>
+        <v>0.771597</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690899</v>
+        <v>0.6913</v>
       </c>
       <c r="E135" t="n">
-        <v>0.714166</v>
+        <v>0.71317</v>
       </c>
       <c r="F135" t="n">
-        <v>0.739232</v>
+        <v>0.741406</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.774328</v>
+        <v>0.777149</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7798850000000001</v>
+        <v>0.780708</v>
       </c>
       <c r="D136" t="n">
-        <v>0.701176</v>
+        <v>0.701591</v>
       </c>
       <c r="E136" t="n">
-        <v>0.723612</v>
+        <v>0.72328</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750019</v>
+        <v>0.751723</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.78734</v>
+        <v>0.789782</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7940700000000001</v>
+        <v>0.797125</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7115669999999999</v>
+        <v>0.710151</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8255439999999999</v>
+        <v>0.82579</v>
       </c>
       <c r="F137" t="n">
-        <v>0.837044</v>
+        <v>0.833846</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.863226</v>
+        <v>0.853671</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862558</v>
+        <v>0.863676</v>
       </c>
       <c r="D138" t="n">
-        <v>0.723948</v>
+        <v>0.721485</v>
       </c>
       <c r="E138" t="n">
-        <v>0.822833</v>
+        <v>0.825395</v>
       </c>
       <c r="F138" t="n">
-        <v>0.836886</v>
+        <v>0.837848</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.862916</v>
+        <v>0.866138</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8629790000000001</v>
+        <v>0.864388</v>
       </c>
       <c r="D139" t="n">
-        <v>0.735276</v>
+        <v>0.735773</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825784</v>
+        <v>0.8269879999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>0.839035</v>
+        <v>0.838309</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865901</v>
+        <v>0.866072</v>
       </c>
       <c r="C140" t="n">
-        <v>0.865751</v>
+        <v>0.865253</v>
       </c>
       <c r="D140" t="n">
-        <v>0.748997</v>
+        <v>0.748841</v>
       </c>
       <c r="E140" t="n">
-        <v>0.824119</v>
+        <v>0.814324</v>
       </c>
       <c r="F140" t="n">
-        <v>0.840234</v>
+        <v>0.840275</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.863833</v>
+        <v>0.866747</v>
       </c>
       <c r="C141" t="n">
-        <v>0.867545</v>
+        <v>0.8668670000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.762568</v>
+        <v>0.762935</v>
       </c>
       <c r="E141" t="n">
-        <v>0.825478</v>
+        <v>0.826994</v>
       </c>
       <c r="F141" t="n">
-        <v>0.842791</v>
+        <v>0.839503</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.866455</v>
+        <v>0.867032</v>
       </c>
       <c r="C142" t="n">
-        <v>0.869357</v>
+        <v>0.868402</v>
       </c>
       <c r="D142" t="n">
-        <v>0.775197</v>
+        <v>0.775944</v>
       </c>
       <c r="E142" t="n">
-        <v>0.825782</v>
+        <v>0.828524</v>
       </c>
       <c r="F142" t="n">
-        <v>0.843767</v>
+        <v>0.844552</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.866884</v>
+        <v>0.858658</v>
       </c>
       <c r="C143" t="n">
-        <v>0.869275</v>
+        <v>0.871984</v>
       </c>
       <c r="D143" t="n">
-        <v>0.791377</v>
+        <v>0.791671</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827576</v>
+        <v>0.829375</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8446939999999999</v>
+        <v>0.8438600000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115037</v>
+        <v>0.114942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112385</v>
+        <v>0.113008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132202</v>
+        <v>0.132255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110646</v>
+        <v>0.110792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108485</v>
+        <v>0.108131</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11548</v>
+        <v>0.11561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117346</v>
+        <v>0.114345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140561</v>
+        <v>0.139116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.110985</v>
+        <v>0.110977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108591</v>
+        <v>0.108505</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1157</v>
+        <v>0.115693</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130994</v>
+        <v>0.114853</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147091</v>
+        <v>0.145557</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111294</v>
+        <v>0.111232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108925</v>
+        <v>0.108888</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117272</v>
+        <v>0.117091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125819</v>
+        <v>0.115789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15471</v>
+        <v>0.153515</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11164</v>
+        <v>0.111604</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109572</v>
+        <v>0.109278</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119556</v>
+        <v>0.119565</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134693</v>
+        <v>0.118773</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161979</v>
+        <v>0.160034</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112001</v>
+        <v>0.112337</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110438</v>
+        <v>0.109962</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122497</v>
+        <v>0.12245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130951</v>
+        <v>0.121236</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12855</v>
+        <v>0.128402</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113531</v>
+        <v>0.113426</v>
       </c>
       <c r="F7" t="n">
-        <v>0.113401</v>
+        <v>0.110991</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128126</v>
+        <v>0.1275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.128863</v>
+        <v>0.126736</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131579</v>
+        <v>0.132041</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114879</v>
+        <v>0.114705</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113408</v>
+        <v>0.112867</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138351</v>
+        <v>0.138601</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138106</v>
+        <v>0.137418</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136506</v>
+        <v>0.137234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.115886</v>
+        <v>0.11893</v>
       </c>
       <c r="F9" t="n">
-        <v>0.110451</v>
+        <v>0.112182</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123823</v>
+        <v>0.124307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116193</v>
+        <v>0.116934</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140166</v>
+        <v>0.141279</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116279</v>
+        <v>0.116003</v>
       </c>
       <c r="F10" t="n">
-        <v>0.110308</v>
+        <v>0.110682</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124224</v>
+        <v>0.132363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123033</v>
+        <v>0.116668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145</v>
+        <v>0.144646</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116266</v>
+        <v>0.116218</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110571</v>
+        <v>0.110952</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124121</v>
+        <v>0.126134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121384</v>
+        <v>0.116945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150225</v>
+        <v>0.150075</v>
       </c>
       <c r="E12" t="n">
-        <v>0.116496</v>
+        <v>0.116876</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110604</v>
+        <v>0.110487</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124529</v>
+        <v>0.125581</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12649</v>
+        <v>0.119369</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1554</v>
+        <v>0.156911</v>
       </c>
       <c r="E13" t="n">
-        <v>0.116611</v>
+        <v>0.119116</v>
       </c>
       <c r="F13" t="n">
-        <v>0.110812</v>
+        <v>0.110526</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125389</v>
+        <v>0.126263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125974</v>
+        <v>0.118598</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160975</v>
+        <v>0.161734</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116912</v>
+        <v>0.125598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.111843</v>
+        <v>0.111347</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126451</v>
+        <v>0.130838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.118536</v>
+        <v>0.124586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167213</v>
+        <v>0.168621</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117496</v>
+        <v>0.117699</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112726</v>
+        <v>0.112609</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126418</v>
+        <v>0.129121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122334</v>
+        <v>0.122508</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174097</v>
+        <v>0.174513</v>
       </c>
       <c r="E16" t="n">
-        <v>0.119265</v>
+        <v>0.118416</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111142</v>
+        <v>0.111855</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128231</v>
+        <v>0.128285</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119919</v>
+        <v>0.128475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180773</v>
+        <v>0.180977</v>
       </c>
       <c r="E17" t="n">
-        <v>0.117866</v>
+        <v>0.119573</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117045</v>
+        <v>0.111573</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128972</v>
+        <v>0.134596</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123192</v>
+        <v>0.12139</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18609</v>
+        <v>0.186654</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11803</v>
+        <v>0.118512</v>
       </c>
       <c r="F18" t="n">
-        <v>0.113129</v>
+        <v>0.112046</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13102</v>
+        <v>0.133354</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127615</v>
+        <v>0.125342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191112</v>
+        <v>0.191279</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118566</v>
+        <v>0.119852</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113006</v>
+        <v>0.112867</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136549</v>
+        <v>0.146316</v>
       </c>
       <c r="C20" t="n">
-        <v>0.13663</v>
+        <v>0.135733</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197288</v>
+        <v>0.196793</v>
       </c>
       <c r="E20" t="n">
-        <v>0.119595</v>
+        <v>0.123735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113409</v>
+        <v>0.113373</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140753</v>
+        <v>0.140711</v>
       </c>
       <c r="C21" t="n">
-        <v>0.144715</v>
+        <v>0.133789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149212</v>
+        <v>0.150174</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120297</v>
+        <v>0.120964</v>
       </c>
       <c r="F21" t="n">
-        <v>0.115083</v>
+        <v>0.115986</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148949</v>
+        <v>0.149099</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157841</v>
+        <v>0.143517</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153382</v>
+        <v>0.153319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124014</v>
+        <v>0.123975</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120579</v>
+        <v>0.119476</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158428</v>
+        <v>0.160152</v>
       </c>
       <c r="C23" t="n">
-        <v>0.153103</v>
+        <v>0.160389</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157449</v>
+        <v>0.157662</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125102</v>
+        <v>0.125119</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123882</v>
+        <v>0.119461</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134416</v>
+        <v>0.135118</v>
       </c>
       <c r="C24" t="n">
-        <v>0.130246</v>
+        <v>0.129046</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164401</v>
+        <v>0.163359</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125609</v>
+        <v>0.125627</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12095</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134527</v>
+        <v>0.134751</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136332</v>
+        <v>0.134814</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167578</v>
+        <v>0.168</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125823</v>
+        <v>0.125771</v>
       </c>
       <c r="F25" t="n">
-        <v>0.124603</v>
+        <v>0.124995</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136991</v>
+        <v>0.134945</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128638</v>
+        <v>0.138048</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172177</v>
+        <v>0.172185</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125445</v>
+        <v>0.12565</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121079</v>
+        <v>0.122309</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135245</v>
+        <v>0.137646</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129319</v>
+        <v>0.134248</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177281</v>
+        <v>0.177315</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125721</v>
+        <v>0.125911</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126953</v>
+        <v>0.127511</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135775</v>
+        <v>0.135902</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137318</v>
+        <v>0.130125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181593</v>
+        <v>0.182316</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126021</v>
+        <v>0.126059</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120698</v>
+        <v>0.124519</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135975</v>
+        <v>0.137085</v>
       </c>
       <c r="C29" t="n">
-        <v>0.129497</v>
+        <v>0.141465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187832</v>
+        <v>0.188753</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125998</v>
+        <v>0.126684</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132558</v>
+        <v>0.120724</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137785</v>
+        <v>0.137754</v>
       </c>
       <c r="C30" t="n">
-        <v>0.139544</v>
+        <v>0.138658</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192284</v>
+        <v>0.192845</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126167</v>
+        <v>0.126175</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122809</v>
+        <v>0.121096</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139343</v>
+        <v>0.13996</v>
       </c>
       <c r="C31" t="n">
-        <v>0.140719</v>
+        <v>0.134684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197419</v>
+        <v>0.198198</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127032</v>
+        <v>0.126183</v>
       </c>
       <c r="F31" t="n">
-        <v>0.127203</v>
+        <v>0.122832</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141446</v>
+        <v>0.14788</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13703</v>
+        <v>0.135446</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203893</v>
+        <v>0.204316</v>
       </c>
       <c r="E32" t="n">
-        <v>0.128425</v>
+        <v>0.127532</v>
       </c>
       <c r="F32" t="n">
-        <v>0.121644</v>
+        <v>0.123394</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144574</v>
+        <v>0.147552</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145112</v>
+        <v>0.13838</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209929</v>
+        <v>0.209494</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127605</v>
+        <v>0.127719</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12507</v>
+        <v>0.121872</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147722</v>
+        <v>0.155405</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152363</v>
+        <v>0.148991</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213633</v>
+        <v>0.213937</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129797</v>
+        <v>0.128914</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12303</v>
+        <v>0.123346</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153516</v>
+        <v>0.152041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148261</v>
+        <v>0.155116</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165454</v>
+        <v>0.166126</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133756</v>
+        <v>0.134243</v>
       </c>
       <c r="F35" t="n">
-        <v>0.131586</v>
+        <v>0.130915</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159244</v>
+        <v>0.165609</v>
       </c>
       <c r="C36" t="n">
-        <v>0.156009</v>
+        <v>0.168915</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169511</v>
+        <v>0.169813</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141235</v>
+        <v>0.141296</v>
       </c>
       <c r="F36" t="n">
-        <v>0.142288</v>
+        <v>0.137792</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167043</v>
+        <v>0.167307</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17953</v>
+        <v>0.168045</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173433</v>
+        <v>0.173374</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137058</v>
+        <v>0.141384</v>
       </c>
       <c r="F37" t="n">
-        <v>0.141315</v>
+        <v>0.139485</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147371</v>
+        <v>0.149465</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146231</v>
+        <v>0.156589</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177846</v>
+        <v>0.178245</v>
       </c>
       <c r="E38" t="n">
-        <v>0.134325</v>
+        <v>0.140518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.141125</v>
+        <v>0.138255</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148256</v>
+        <v>0.14667</v>
       </c>
       <c r="C39" t="n">
-        <v>0.148246</v>
+        <v>0.147691</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183138</v>
+        <v>0.182495</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137829</v>
+        <v>0.137747</v>
       </c>
       <c r="F39" t="n">
-        <v>0.139794</v>
+        <v>0.147612</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147428</v>
+        <v>0.148164</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14695</v>
+        <v>0.149496</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186485</v>
+        <v>0.186559</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137731</v>
+        <v>0.137428</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139928</v>
+        <v>0.13943</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147427</v>
+        <v>0.149206</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146466</v>
+        <v>0.155224</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191535</v>
+        <v>0.19151</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138055</v>
+        <v>0.136185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141192</v>
+        <v>0.143609</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148914</v>
+        <v>0.147295</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152833</v>
+        <v>0.147196</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196337</v>
+        <v>0.196269</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139492</v>
+        <v>0.135846</v>
       </c>
       <c r="F42" t="n">
-        <v>0.143322</v>
+        <v>0.140426</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150923</v>
+        <v>0.147429</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14999</v>
+        <v>0.148891</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20111</v>
+        <v>0.201369</v>
       </c>
       <c r="E43" t="n">
-        <v>0.138108</v>
+        <v>0.138869</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14266</v>
+        <v>0.138647</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151062</v>
+        <v>0.151396</v>
       </c>
       <c r="C44" t="n">
-        <v>0.154139</v>
+        <v>0.151328</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206205</v>
+        <v>0.206656</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138629</v>
+        <v>0.13986</v>
       </c>
       <c r="F44" t="n">
-        <v>0.139821</v>
+        <v>0.139764</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152738</v>
+        <v>0.152626</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152699</v>
+        <v>0.154758</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211492</v>
+        <v>0.211946</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138178</v>
+        <v>0.136681</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13939</v>
+        <v>0.139827</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155041</v>
+        <v>0.154522</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153992</v>
+        <v>0.158683</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216572</v>
+        <v>0.216538</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139362</v>
+        <v>0.137038</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151294</v>
+        <v>0.14202</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158835</v>
+        <v>0.157734</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157755</v>
+        <v>0.165326</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222227</v>
+        <v>0.222404</v>
       </c>
       <c r="E47" t="n">
-        <v>0.14155</v>
+        <v>0.13932</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14645</v>
+        <v>0.147167</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160836</v>
+        <v>0.16006</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161785</v>
+        <v>0.159926</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227282</v>
+        <v>0.226845</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144632</v>
+        <v>0.145682</v>
       </c>
       <c r="F48" t="n">
-        <v>0.148715</v>
+        <v>0.151084</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164489</v>
+        <v>0.16513</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17315</v>
+        <v>0.165512</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231843</v>
+        <v>0.231486</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151551</v>
+        <v>0.148466</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149551</v>
+        <v>0.152949</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169504</v>
+        <v>0.167659</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174235</v>
+        <v>0.171832</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171388</v>
+        <v>0.171435</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153825</v>
+        <v>0.154727</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154973</v>
+        <v>0.160551</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177274</v>
+        <v>0.1775</v>
       </c>
       <c r="C51" t="n">
-        <v>0.183341</v>
+        <v>0.177508</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174994</v>
+        <v>0.175332</v>
       </c>
       <c r="E51" t="n">
-        <v>0.151302</v>
+        <v>0.150398</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152244</v>
+        <v>0.153331</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186953</v>
+        <v>0.186997</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188645</v>
+        <v>0.192228</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17883</v>
+        <v>0.178729</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150459</v>
+        <v>0.149369</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153242</v>
+        <v>0.155688</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159398</v>
+        <v>0.159999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.175918</v>
+        <v>0.168076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.18323</v>
+        <v>0.183202</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150823</v>
+        <v>0.151103</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153526</v>
+        <v>0.15424</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160516</v>
+        <v>0.159901</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169102</v>
+        <v>0.167463</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187037</v>
+        <v>0.187394</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150782</v>
+        <v>0.150949</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156409</v>
+        <v>0.158943</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160734</v>
+        <v>0.160977</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167338</v>
+        <v>0.167327</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192448</v>
+        <v>0.192102</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151474</v>
+        <v>0.150364</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155198</v>
+        <v>0.15483</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162178</v>
+        <v>0.161346</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167695</v>
+        <v>0.167361</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19737</v>
+        <v>0.197093</v>
       </c>
       <c r="E56" t="n">
-        <v>0.152625</v>
+        <v>0.151396</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154512</v>
+        <v>0.154708</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162296</v>
+        <v>0.162478</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169685</v>
+        <v>0.168636</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201898</v>
+        <v>0.202117</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151315</v>
+        <v>0.151436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155865</v>
+        <v>0.155837</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163847</v>
+        <v>0.162514</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170634</v>
+        <v>0.169693</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207534</v>
+        <v>0.207494</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152563</v>
+        <v>0.153178</v>
       </c>
       <c r="F58" t="n">
-        <v>0.156195</v>
+        <v>0.155852</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165132</v>
+        <v>0.164871</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18085</v>
+        <v>0.172402</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212167</v>
+        <v>0.212268</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152623</v>
+        <v>0.1534</v>
       </c>
       <c r="F59" t="n">
-        <v>0.156024</v>
+        <v>0.160759</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167057</v>
+        <v>0.171474</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174066</v>
+        <v>0.174078</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21785</v>
+        <v>0.217464</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15421</v>
+        <v>0.154131</v>
       </c>
       <c r="F60" t="n">
-        <v>0.163263</v>
+        <v>0.158423</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169253</v>
+        <v>0.168202</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183956</v>
+        <v>0.176531</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222902</v>
+        <v>0.222672</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155271</v>
+        <v>0.158105</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16021</v>
+        <v>0.160845</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173022</v>
+        <v>0.171844</v>
       </c>
       <c r="C62" t="n">
-        <v>0.188518</v>
+        <v>0.180182</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228409</v>
+        <v>0.228393</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15837</v>
+        <v>0.158312</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164974</v>
+        <v>0.162788</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175717</v>
+        <v>0.174716</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183423</v>
+        <v>0.185661</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232737</v>
+        <v>0.232609</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161351</v>
+        <v>0.161833</v>
       </c>
       <c r="F63" t="n">
-        <v>0.172965</v>
+        <v>0.165128</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185641</v>
+        <v>0.182201</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189136</v>
+        <v>0.199943</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177194</v>
+        <v>0.176933</v>
       </c>
       <c r="E64" t="n">
-        <v>0.166107</v>
+        <v>0.165803</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169264</v>
+        <v>0.169258</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187332</v>
+        <v>0.193264</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204619</v>
+        <v>0.205522</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181002</v>
+        <v>0.180816</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172243</v>
+        <v>0.173279</v>
       </c>
       <c r="F65" t="n">
-        <v>0.181677</v>
+        <v>0.183353</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204972</v>
+        <v>0.195834</v>
       </c>
       <c r="C66" t="n">
-        <v>0.207048</v>
+        <v>0.205047</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18597</v>
+        <v>0.18553</v>
       </c>
       <c r="E66" t="n">
-        <v>0.162309</v>
+        <v>0.170921</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162995</v>
+        <v>0.164457</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179288</v>
+        <v>0.17879</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174452</v>
+        <v>0.179596</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190921</v>
+        <v>0.19109</v>
       </c>
       <c r="E67" t="n">
-        <v>0.161715</v>
+        <v>0.161562</v>
       </c>
       <c r="F67" t="n">
-        <v>0.163886</v>
+        <v>0.163602</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179988</v>
+        <v>0.180097</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18115</v>
+        <v>0.175173</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197924</v>
+        <v>0.197644</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162342</v>
+        <v>0.162345</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162345</v>
+        <v>0.162575</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180708</v>
+        <v>0.179562</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175804</v>
+        <v>0.176878</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203869</v>
+        <v>0.202968</v>
       </c>
       <c r="E69" t="n">
-        <v>0.162164</v>
+        <v>0.162955</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164405</v>
+        <v>0.164393</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187122</v>
+        <v>0.182922</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182459</v>
+        <v>0.183411</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209987</v>
+        <v>0.209334</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163726</v>
+        <v>0.163396</v>
       </c>
       <c r="F70" t="n">
-        <v>0.16507</v>
+        <v>0.16494</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1841</v>
+        <v>0.182976</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177866</v>
+        <v>0.177578</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217078</v>
+        <v>0.215906</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163898</v>
+        <v>0.163658</v>
       </c>
       <c r="F71" t="n">
-        <v>0.16632</v>
+        <v>0.165599</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185654</v>
+        <v>0.186744</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178573</v>
+        <v>0.178334</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224598</v>
+        <v>0.226196</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164093</v>
+        <v>0.16389</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166749</v>
+        <v>0.166571</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18599</v>
+        <v>0.183341</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179914</v>
+        <v>0.188584</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232906</v>
+        <v>0.233413</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16475</v>
+        <v>0.165488</v>
       </c>
       <c r="F73" t="n">
-        <v>0.169657</v>
+        <v>0.174617</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188697</v>
+        <v>0.186194</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183457</v>
+        <v>0.182076</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242872</v>
+        <v>0.242129</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166195</v>
+        <v>0.167406</v>
       </c>
       <c r="F74" t="n">
-        <v>0.177223</v>
+        <v>0.169482</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187285</v>
+        <v>0.189764</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193246</v>
+        <v>0.184356</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250605</v>
+        <v>0.250638</v>
       </c>
       <c r="E75" t="n">
-        <v>0.169566</v>
+        <v>0.167935</v>
       </c>
       <c r="F75" t="n">
-        <v>0.172666</v>
+        <v>0.171788</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19289</v>
+        <v>0.19303</v>
       </c>
       <c r="C76" t="n">
-        <v>0.187874</v>
+        <v>0.188648</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261741</v>
+        <v>0.259619</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169423</v>
+        <v>0.174846</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173509</v>
+        <v>0.183263</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202239</v>
+        <v>0.195248</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192436</v>
+        <v>0.196433</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271563</v>
+        <v>0.270035</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17216</v>
+        <v>0.172354</v>
       </c>
       <c r="F77" t="n">
-        <v>0.179506</v>
+        <v>0.176865</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201953</v>
+        <v>0.198486</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206365</v>
+        <v>0.196533</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224349</v>
+        <v>0.221789</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175893</v>
+        <v>0.176164</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181452</v>
+        <v>0.189299</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206564</v>
+        <v>0.206836</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202976</v>
+        <v>0.204417</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23526</v>
+        <v>0.235243</v>
       </c>
       <c r="E79" t="n">
-        <v>0.188273</v>
+        <v>0.182139</v>
       </c>
       <c r="F79" t="n">
-        <v>0.189043</v>
+        <v>0.189798</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213196</v>
+        <v>0.219277</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215067</v>
+        <v>0.213261</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243333</v>
+        <v>0.243353</v>
       </c>
       <c r="E80" t="n">
-        <v>0.241946</v>
+        <v>0.239823</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174482</v>
+        <v>0.174685</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362828</v>
+        <v>0.359901</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181105</v>
+        <v>0.18221</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257664</v>
+        <v>0.256115</v>
       </c>
       <c r="E81" t="n">
-        <v>0.244272</v>
+        <v>0.241687</v>
       </c>
       <c r="F81" t="n">
-        <v>0.175575</v>
+        <v>0.175044</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362371</v>
+        <v>0.36007</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188687</v>
+        <v>0.182197</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271982</v>
+        <v>0.269459</v>
       </c>
       <c r="E82" t="n">
-        <v>0.24163</v>
+        <v>0.242071</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176245</v>
+        <v>0.176859</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366156</v>
+        <v>0.362151</v>
       </c>
       <c r="C83" t="n">
-        <v>0.184775</v>
+        <v>0.183611</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284397</v>
+        <v>0.283195</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242312</v>
+        <v>0.243357</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17702</v>
+        <v>0.177032</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364028</v>
+        <v>0.362946</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184774</v>
+        <v>0.18683</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298869</v>
+        <v>0.298112</v>
       </c>
       <c r="E84" t="n">
-        <v>0.242725</v>
+        <v>0.242687</v>
       </c>
       <c r="F84" t="n">
-        <v>0.178291</v>
+        <v>0.178752</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363927</v>
+        <v>0.364924</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18724</v>
+        <v>0.186807</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313746</v>
+        <v>0.313922</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241648</v>
+        <v>0.242357</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180589</v>
+        <v>0.179689</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.363563</v>
+        <v>0.365316</v>
       </c>
       <c r="C86" t="n">
-        <v>0.186806</v>
+        <v>0.187933</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328828</v>
+        <v>0.328939</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24203</v>
+        <v>0.241266</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181104</v>
+        <v>0.182099</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.366219</v>
+        <v>0.363457</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188687</v>
+        <v>0.193007</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343653</v>
+        <v>0.343542</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24131</v>
+        <v>0.245408</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183364</v>
+        <v>0.183684</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369752</v>
+        <v>0.370062</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191245</v>
+        <v>0.191504</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360016</v>
+        <v>0.359117</v>
       </c>
       <c r="E88" t="n">
-        <v>0.242178</v>
+        <v>0.240977</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18603</v>
+        <v>0.188703</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36975</v>
+        <v>0.367797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194319</v>
+        <v>0.196452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375678</v>
+        <v>0.374672</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237983</v>
+        <v>0.242009</v>
       </c>
       <c r="F89" t="n">
-        <v>0.187499</v>
+        <v>0.187498</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372034</v>
+        <v>0.36992</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198879</v>
+        <v>0.196849</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392876</v>
+        <v>0.391805</v>
       </c>
       <c r="E90" t="n">
-        <v>0.241161</v>
+        <v>0.238907</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191212</v>
+        <v>0.190665</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37372</v>
+        <v>0.375213</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202506</v>
+        <v>0.202445</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40756</v>
+        <v>0.407209</v>
       </c>
       <c r="E91" t="n">
-        <v>0.23791</v>
+        <v>0.241403</v>
       </c>
       <c r="F91" t="n">
-        <v>0.194593</v>
+        <v>0.197418</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376719</v>
+        <v>0.377728</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208999</v>
+        <v>0.209133</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358165</v>
+        <v>0.357091</v>
       </c>
       <c r="E92" t="n">
-        <v>0.240837</v>
+        <v>0.242504</v>
       </c>
       <c r="F92" t="n">
-        <v>0.202382</v>
+        <v>0.201717</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381148</v>
+        <v>0.378222</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215895</v>
+        <v>0.21624</v>
       </c>
       <c r="D93" t="n">
-        <v>0.367928</v>
+        <v>0.370101</v>
       </c>
       <c r="E93" t="n">
-        <v>0.243188</v>
+        <v>0.243695</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209147</v>
+        <v>0.209176</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387318</v>
+        <v>0.389676</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229252</v>
+        <v>0.234941</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378156</v>
+        <v>0.377576</v>
       </c>
       <c r="E94" t="n">
-        <v>0.398785</v>
+        <v>0.399283</v>
       </c>
       <c r="F94" t="n">
-        <v>0.270785</v>
+        <v>0.277191</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.525778</v>
+        <v>0.52654</v>
       </c>
       <c r="C95" t="n">
-        <v>0.297152</v>
+        <v>0.295147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394996</v>
+        <v>0.395191</v>
       </c>
       <c r="E95" t="n">
-        <v>0.397735</v>
+        <v>0.398249</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270985</v>
+        <v>0.270733</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.525817</v>
+        <v>0.527664</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295936</v>
+        <v>0.295655</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408013</v>
+        <v>0.408462</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398402</v>
+        <v>0.397563</v>
       </c>
       <c r="F96" t="n">
-        <v>0.274198</v>
+        <v>0.271534</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.527366</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299625</v>
+        <v>0.29476</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419721</v>
+        <v>0.420133</v>
       </c>
       <c r="E97" t="n">
-        <v>0.397559</v>
+        <v>0.398329</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2771</v>
+        <v>0.274369</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526448</v>
+        <v>0.528637</v>
       </c>
       <c r="C98" t="n">
-        <v>0.295845</v>
+        <v>0.29461</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435573</v>
+        <v>0.434254</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397483</v>
+        <v>0.397534</v>
       </c>
       <c r="F98" t="n">
-        <v>0.27241</v>
+        <v>0.272669</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526191</v>
+        <v>0.527691</v>
       </c>
       <c r="C99" t="n">
-        <v>0.300638</v>
+        <v>0.296663</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449081</v>
+        <v>0.449691</v>
       </c>
       <c r="E99" t="n">
-        <v>0.396962</v>
+        <v>0.397494</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278921</v>
+        <v>0.274703</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5286380000000001</v>
+        <v>0.530137</v>
       </c>
       <c r="C100" t="n">
-        <v>0.29961</v>
+        <v>0.300154</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464069</v>
+        <v>0.461607</v>
       </c>
       <c r="E100" t="n">
-        <v>0.396061</v>
+        <v>0.396315</v>
       </c>
       <c r="F100" t="n">
-        <v>0.279136</v>
+        <v>0.279872</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5286960000000001</v>
+        <v>0.530688</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300164</v>
+        <v>0.299815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477234</v>
+        <v>0.475186</v>
       </c>
       <c r="E101" t="n">
-        <v>0.395577</v>
+        <v>0.397934</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278982</v>
+        <v>0.277411</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529663</v>
+        <v>0.532386</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302656</v>
+        <v>0.301069</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495379</v>
+        <v>0.495141</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397212</v>
+        <v>0.39769</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279839</v>
+        <v>0.282892</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530756</v>
+        <v>0.531861</v>
       </c>
       <c r="C103" t="n">
-        <v>0.308322</v>
+        <v>0.307583</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512506</v>
+        <v>0.5134069999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.39774</v>
+        <v>0.398772</v>
       </c>
       <c r="F103" t="n">
-        <v>0.286833</v>
+        <v>0.281666</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.533928</v>
+        <v>0.536952</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310948</v>
+        <v>0.305726</v>
       </c>
       <c r="D104" t="n">
-        <v>0.527523</v>
+        <v>0.528192</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398488</v>
+        <v>0.398924</v>
       </c>
       <c r="F104" t="n">
-        <v>0.282561</v>
+        <v>0.289099</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.537833</v>
+        <v>0.538029</v>
       </c>
       <c r="C105" t="n">
-        <v>0.310439</v>
+        <v>0.313083</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544058</v>
+        <v>0.544741</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402138</v>
+        <v>0.402382</v>
       </c>
       <c r="F105" t="n">
-        <v>0.292772</v>
+        <v>0.295236</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.540838</v>
+        <v>0.542144</v>
       </c>
       <c r="C106" t="n">
-        <v>0.321713</v>
+        <v>0.318925</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563991</v>
+        <v>0.5622549999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4048</v>
+        <v>0.406287</v>
       </c>
       <c r="F106" t="n">
-        <v>0.294313</v>
+        <v>0.29317</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.546463</v>
+        <v>0.547642</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328601</v>
+        <v>0.323368</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52832</v>
+        <v>0.5301630000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41013</v>
+        <v>0.411232</v>
       </c>
       <c r="F107" t="n">
-        <v>0.298938</v>
+        <v>0.29797</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553751</v>
+        <v>0.554666</v>
       </c>
       <c r="C108" t="n">
-        <v>0.334467</v>
+        <v>0.338616</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54216</v>
+        <v>0.543945</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533094</v>
+        <v>0.534923</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492495</v>
+        <v>0.491274</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.565084</v>
+        <v>0.566416</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351107</v>
+        <v>0.349628</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548195</v>
+        <v>0.548648</v>
       </c>
       <c r="E109" t="n">
-        <v>0.531732</v>
+        <v>0.533032</v>
       </c>
       <c r="F109" t="n">
-        <v>0.495739</v>
+        <v>0.494334</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602454</v>
+        <v>0.60317</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5231789999999999</v>
+        <v>0.525549</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5636949999999999</v>
+        <v>0.564282</v>
       </c>
       <c r="E110" t="n">
-        <v>0.532884</v>
+        <v>0.532936</v>
       </c>
       <c r="F110" t="n">
-        <v>0.493992</v>
+        <v>0.496052</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.602272</v>
+        <v>0.602093</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528342</v>
+        <v>0.527769</v>
       </c>
       <c r="D111" t="n">
-        <v>0.575986</v>
+        <v>0.57845</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534311</v>
+        <v>0.534795</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4953</v>
+        <v>0.496465</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.602342</v>
+        <v>0.604437</v>
       </c>
       <c r="C112" t="n">
-        <v>0.52717</v>
+        <v>0.526389</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587359</v>
+        <v>0.590188</v>
       </c>
       <c r="E112" t="n">
-        <v>0.535184</v>
+        <v>0.535002</v>
       </c>
       <c r="F112" t="n">
-        <v>0.497898</v>
+        <v>0.498425</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607206</v>
+        <v>0.604271</v>
       </c>
       <c r="C113" t="n">
-        <v>0.525103</v>
+        <v>0.529434</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60295</v>
+        <v>0.6036550000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.535658</v>
+        <v>0.534411</v>
       </c>
       <c r="F113" t="n">
-        <v>0.49861</v>
+        <v>0.499299</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608392</v>
+        <v>0.605721</v>
       </c>
       <c r="C114" t="n">
-        <v>0.528474</v>
+        <v>0.528998</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617445</v>
+        <v>0.617702</v>
       </c>
       <c r="E114" t="n">
-        <v>0.533491</v>
+        <v>0.535174</v>
       </c>
       <c r="F114" t="n">
-        <v>0.497215</v>
+        <v>0.500515</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608824</v>
+        <v>0.61053</v>
       </c>
       <c r="C115" t="n">
-        <v>0.529053</v>
+        <v>0.530693</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634076</v>
+        <v>0.633467</v>
       </c>
       <c r="E115" t="n">
-        <v>0.536362</v>
+        <v>0.5349699999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500038</v>
+        <v>0.500354</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.608325</v>
+        <v>0.609253</v>
       </c>
       <c r="C116" t="n">
-        <v>0.533856</v>
+        <v>0.53247</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646172</v>
+        <v>0.647466</v>
       </c>
       <c r="E116" t="n">
-        <v>0.536752</v>
+        <v>0.541516</v>
       </c>
       <c r="F116" t="n">
-        <v>0.501494</v>
+        <v>0.504478</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.60925</v>
+        <v>0.611325</v>
       </c>
       <c r="C117" t="n">
-        <v>0.536388</v>
+        <v>0.535496</v>
       </c>
       <c r="D117" t="n">
-        <v>0.667424</v>
+        <v>0.668839</v>
       </c>
       <c r="E117" t="n">
-        <v>0.538861</v>
+        <v>0.540247</v>
       </c>
       <c r="F117" t="n">
-        <v>0.505754</v>
+        <v>0.506773</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613963</v>
+        <v>0.615202</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540439</v>
+        <v>0.540814</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676881</v>
+        <v>0.6777339999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.541365</v>
+        <v>0.541475</v>
       </c>
       <c r="F118" t="n">
-        <v>0.508664</v>
+        <v>0.508058</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.621978</v>
+        <v>0.620288</v>
       </c>
       <c r="C119" t="n">
-        <v>0.542264</v>
+        <v>0.5435410000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6968760000000001</v>
+        <v>0.698672</v>
       </c>
       <c r="E119" t="n">
-        <v>0.545705</v>
+        <v>0.544847</v>
       </c>
       <c r="F119" t="n">
-        <v>0.508023</v>
+        <v>0.510397</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625772</v>
+        <v>0.624128</v>
       </c>
       <c r="C120" t="n">
-        <v>0.548561</v>
+        <v>0.548122</v>
       </c>
       <c r="D120" t="n">
-        <v>0.718041</v>
+        <v>0.719908</v>
       </c>
       <c r="E120" t="n">
-        <v>0.547894</v>
+        <v>0.54892</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5137119999999999</v>
+        <v>0.513714</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6288629999999999</v>
+        <v>0.629753</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5563</v>
+        <v>0.558721</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63346</v>
+        <v>0.634849</v>
       </c>
       <c r="E121" t="n">
-        <v>0.553897</v>
+        <v>0.556298</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520931</v>
+        <v>0.525907</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.637761</v>
+        <v>0.638989</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572779</v>
+        <v>0.570254</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6447040000000001</v>
+        <v>0.646589</v>
       </c>
       <c r="E122" t="n">
-        <v>0.562763</v>
+        <v>0.5635289999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5308929999999999</v>
+        <v>0.534841</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.64929</v>
+        <v>0.653463</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580387</v>
+        <v>0.58377</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6573329999999999</v>
+        <v>0.659172</v>
       </c>
       <c r="E123" t="n">
-        <v>0.69092</v>
+        <v>0.691074</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7046480000000001</v>
+        <v>0.708728</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739303</v>
+        <v>0.742359</v>
       </c>
       <c r="C124" t="n">
-        <v>0.732291</v>
+        <v>0.733194</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6695179999999999</v>
+        <v>0.670947</v>
       </c>
       <c r="E124" t="n">
-        <v>0.689592</v>
+        <v>0.692181</v>
       </c>
       <c r="F124" t="n">
-        <v>0.706144</v>
+        <v>0.708819</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740434</v>
+        <v>0.7415079999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.733552</v>
+        <v>0.736241</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680804</v>
+        <v>0.6826719999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.691448</v>
+        <v>0.689665</v>
       </c>
       <c r="F125" t="n">
-        <v>0.707026</v>
+        <v>0.711274</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7423070000000001</v>
+        <v>0.740877</v>
       </c>
       <c r="C126" t="n">
-        <v>0.735493</v>
+        <v>0.736497</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695641</v>
+        <v>0.698152</v>
       </c>
       <c r="E126" t="n">
-        <v>0.691441</v>
+        <v>0.692053</v>
       </c>
       <c r="F126" t="n">
-        <v>0.70783</v>
+        <v>0.710541</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742357</v>
+        <v>0.743627</v>
       </c>
       <c r="C127" t="n">
-        <v>0.736726</v>
+        <v>0.74105</v>
       </c>
       <c r="D127" t="n">
-        <v>0.710989</v>
+        <v>0.712975</v>
       </c>
       <c r="E127" t="n">
-        <v>0.693381</v>
+        <v>0.694391</v>
       </c>
       <c r="F127" t="n">
-        <v>0.709386</v>
+        <v>0.712009</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743708</v>
+        <v>0.746143</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738978</v>
+        <v>0.740086</v>
       </c>
       <c r="D128" t="n">
-        <v>0.724627</v>
+        <v>0.727222</v>
       </c>
       <c r="E128" t="n">
-        <v>0.693404</v>
+        <v>0.695218</v>
       </c>
       <c r="F128" t="n">
-        <v>0.711085</v>
+        <v>0.714621</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746796</v>
+        <v>0.747124</v>
       </c>
       <c r="C129" t="n">
-        <v>0.740936</v>
+        <v>0.742754</v>
       </c>
       <c r="D129" t="n">
-        <v>0.73933</v>
+        <v>0.741584</v>
       </c>
       <c r="E129" t="n">
-        <v>0.693908</v>
+        <v>0.694444</v>
       </c>
       <c r="F129" t="n">
-        <v>0.713056</v>
+        <v>0.713947</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745599</v>
+        <v>0.749876</v>
       </c>
       <c r="C130" t="n">
-        <v>0.742287</v>
+        <v>0.744499</v>
       </c>
       <c r="D130" t="n">
-        <v>0.75209</v>
+        <v>0.754618</v>
       </c>
       <c r="E130" t="n">
-        <v>0.697155</v>
+        <v>0.697425</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7162849999999999</v>
+        <v>0.716716</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748243</v>
+        <v>0.749358</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745635</v>
+        <v>0.748844</v>
       </c>
       <c r="D131" t="n">
-        <v>0.769136</v>
+        <v>0.771151</v>
       </c>
       <c r="E131" t="n">
-        <v>0.697565</v>
+        <v>0.698889</v>
       </c>
       <c r="F131" t="n">
-        <v>0.717141</v>
+        <v>0.722024</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751685</v>
+        <v>0.751447</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7491719999999999</v>
+        <v>0.751783</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784218</v>
+        <v>0.786336</v>
       </c>
       <c r="E132" t="n">
-        <v>0.700518</v>
+        <v>0.703041</v>
       </c>
       <c r="F132" t="n">
-        <v>0.722462</v>
+        <v>0.723629</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755555</v>
+        <v>0.757005</v>
       </c>
       <c r="C133" t="n">
-        <v>0.753846</v>
+        <v>0.754178</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80088</v>
+        <v>0.803875</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7030729999999999</v>
+        <v>0.703976</v>
       </c>
       <c r="F133" t="n">
-        <v>0.724285</v>
+        <v>0.725844</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761684</v>
+        <v>0.7617969999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761358</v>
+        <v>0.765248</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815626</v>
+        <v>0.817781</v>
       </c>
       <c r="E134" t="n">
-        <v>0.706933</v>
+        <v>0.708253</v>
       </c>
       <c r="F134" t="n">
-        <v>0.731588</v>
+        <v>0.7320990000000001</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.76786</v>
+        <v>0.770373</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766741</v>
+        <v>0.773004</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690037</v>
+        <v>0.690698</v>
       </c>
       <c r="E135" t="n">
-        <v>0.711933</v>
+        <v>0.71494</v>
       </c>
       <c r="F135" t="n">
-        <v>0.737115</v>
+        <v>0.741254</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77646</v>
+        <v>0.776324</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778826</v>
+        <v>0.780926</v>
       </c>
       <c r="D136" t="n">
-        <v>0.699977</v>
+        <v>0.701066</v>
       </c>
       <c r="E136" t="n">
-        <v>0.721002</v>
+        <v>0.722576</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750738</v>
+        <v>0.752772</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786851</v>
+        <v>0.790382</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7938809999999999</v>
+        <v>0.796339</v>
       </c>
       <c r="D137" t="n">
-        <v>0.710944</v>
+        <v>0.711365</v>
       </c>
       <c r="E137" t="n">
-        <v>0.823825</v>
+        <v>0.82604</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835658</v>
+        <v>0.836005</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864676</v>
+        <v>0.867007</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862256</v>
+        <v>0.863141</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722477</v>
+        <v>0.7245549999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825065</v>
+        <v>0.8259</v>
       </c>
       <c r="F138" t="n">
-        <v>0.836306</v>
+        <v>0.836298</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864545</v>
+        <v>0.86654</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863408</v>
+        <v>0.863314</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73433</v>
+        <v>0.735453</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825418</v>
+        <v>0.826336</v>
       </c>
       <c r="F139" t="n">
-        <v>0.837939</v>
+        <v>0.838271</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865549</v>
+        <v>0.867814</v>
       </c>
       <c r="C140" t="n">
-        <v>0.865042</v>
+        <v>0.864962</v>
       </c>
       <c r="D140" t="n">
-        <v>0.747776</v>
+        <v>0.749014</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8260420000000001</v>
+        <v>0.826894</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839144</v>
+        <v>0.838234</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865936</v>
+        <v>0.867969</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8662530000000001</v>
+        <v>0.8656470000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.761143</v>
+        <v>0.762496</v>
       </c>
       <c r="E141" t="n">
-        <v>0.827639</v>
+        <v>0.827633</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840122</v>
+        <v>0.84052</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864533</v>
+        <v>0.867544</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866314</v>
+        <v>0.866953</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774017</v>
+        <v>0.7748699999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.826539</v>
+        <v>0.816818</v>
       </c>
       <c r="F142" t="n">
-        <v>0.841458</v>
+        <v>0.841511</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867157</v>
+        <v>0.871115</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8683689999999999</v>
+        <v>0.8695619999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.789529</v>
+        <v>0.7907149999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827473</v>
+        <v>0.818211</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844963</v>
+        <v>0.844901</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115037</v>
+        <v>0.11524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112385</v>
+        <v>0.119221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132202</v>
+        <v>0.132175</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110646</v>
+        <v>0.107868</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108485</v>
+        <v>0.106468</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11548</v>
+        <v>0.115227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117346</v>
+        <v>0.123841</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140561</v>
+        <v>0.138509</v>
       </c>
       <c r="E3" t="n">
-        <v>0.110985</v>
+        <v>0.108245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108591</v>
+        <v>0.106649</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1157</v>
+        <v>0.116155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130994</v>
+        <v>0.121903</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147091</v>
+        <v>0.145597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111294</v>
+        <v>0.108561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108925</v>
+        <v>0.106895</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117272</v>
+        <v>0.126818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125819</v>
+        <v>0.118816</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15471</v>
+        <v>0.154276</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11164</v>
+        <v>0.109068</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109572</v>
+        <v>0.107484</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119556</v>
+        <v>0.129316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134693</v>
+        <v>0.134389</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161979</v>
+        <v>0.161055</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112001</v>
+        <v>0.109475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110438</v>
+        <v>0.108215</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122497</v>
+        <v>0.124877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130951</v>
+        <v>0.131157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12855</v>
+        <v>0.127912</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113531</v>
+        <v>0.110055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.113401</v>
+        <v>0.109306</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128126</v>
+        <v>0.128374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.128863</v>
+        <v>0.131116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131579</v>
+        <v>0.131425</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114879</v>
+        <v>0.112184</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113408</v>
+        <v>0.111139</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138351</v>
+        <v>0.149849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138106</v>
+        <v>0.142875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136506</v>
+        <v>0.136152</v>
       </c>
       <c r="E9" t="n">
-        <v>0.115886</v>
+        <v>0.113451</v>
       </c>
       <c r="F9" t="n">
-        <v>0.110451</v>
+        <v>0.108269</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123823</v>
+        <v>0.125008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116193</v>
+        <v>0.1277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140166</v>
+        <v>0.140992</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116279</v>
+        <v>0.113813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.110308</v>
+        <v>0.107945</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124224</v>
+        <v>0.126365</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123033</v>
+        <v>0.125002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145</v>
+        <v>0.145949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116266</v>
+        <v>0.114156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110571</v>
+        <v>0.108232</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124121</v>
+        <v>0.125578</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121384</v>
+        <v>0.127534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150225</v>
+        <v>0.151175</v>
       </c>
       <c r="E12" t="n">
-        <v>0.116496</v>
+        <v>0.114501</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110604</v>
+        <v>0.108247</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124529</v>
+        <v>0.130968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12649</v>
+        <v>0.127239</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1554</v>
+        <v>0.156527</v>
       </c>
       <c r="E13" t="n">
-        <v>0.116611</v>
+        <v>0.11642</v>
       </c>
       <c r="F13" t="n">
-        <v>0.110812</v>
+        <v>0.108433</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125389</v>
+        <v>0.127742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125974</v>
+        <v>0.118727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160975</v>
+        <v>0.160386</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116912</v>
+        <v>0.115535</v>
       </c>
       <c r="F14" t="n">
-        <v>0.111843</v>
+        <v>0.108583</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126451</v>
+        <v>0.126983</v>
       </c>
       <c r="C15" t="n">
-        <v>0.118536</v>
+        <v>0.132582</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167213</v>
+        <v>0.167435</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117496</v>
+        <v>0.115128</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112726</v>
+        <v>0.112185</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126418</v>
+        <v>0.126474</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122334</v>
+        <v>0.133927</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174097</v>
+        <v>0.17409</v>
       </c>
       <c r="E16" t="n">
-        <v>0.119265</v>
+        <v>0.115377</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111142</v>
+        <v>0.111847</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128231</v>
+        <v>0.129121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119919</v>
+        <v>0.127917</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180773</v>
+        <v>0.180564</v>
       </c>
       <c r="E17" t="n">
-        <v>0.117866</v>
+        <v>0.115714</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117045</v>
+        <v>0.109377</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128972</v>
+        <v>0.137622</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123192</v>
+        <v>0.133791</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18609</v>
+        <v>0.186357</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11803</v>
+        <v>0.116038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.113129</v>
+        <v>0.109969</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13102</v>
+        <v>0.136389</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127615</v>
+        <v>0.128571</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191112</v>
+        <v>0.191184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118566</v>
+        <v>0.116547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113006</v>
+        <v>0.111282</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136549</v>
+        <v>0.140749</v>
       </c>
       <c r="C20" t="n">
-        <v>0.13663</v>
+        <v>0.140551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197288</v>
+        <v>0.196119</v>
       </c>
       <c r="E20" t="n">
-        <v>0.119595</v>
+        <v>0.116643</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113409</v>
+        <v>0.111449</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140753</v>
+        <v>0.149316</v>
       </c>
       <c r="C21" t="n">
-        <v>0.144715</v>
+        <v>0.147514</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149212</v>
+        <v>0.149037</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120297</v>
+        <v>0.117569</v>
       </c>
       <c r="F21" t="n">
-        <v>0.115083</v>
+        <v>0.112577</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148949</v>
+        <v>0.152423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157841</v>
+        <v>0.15775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153382</v>
+        <v>0.153639</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124014</v>
+        <v>0.122339</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120579</v>
+        <v>0.117922</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158428</v>
+        <v>0.170956</v>
       </c>
       <c r="C23" t="n">
-        <v>0.153103</v>
+        <v>0.165465</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157449</v>
+        <v>0.157675</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125102</v>
+        <v>0.125946</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123882</v>
+        <v>0.118575</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134416</v>
+        <v>0.134764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.130246</v>
+        <v>0.135874</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164401</v>
+        <v>0.163838</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125609</v>
+        <v>0.125582</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12095</v>
+        <v>0.120926</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134527</v>
+        <v>0.13639</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136332</v>
+        <v>0.128454</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167578</v>
+        <v>0.167902</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125823</v>
+        <v>0.125386</v>
       </c>
       <c r="F25" t="n">
-        <v>0.124603</v>
+        <v>0.117654</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136991</v>
+        <v>0.135308</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128638</v>
+        <v>0.132861</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172177</v>
+        <v>0.172279</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125445</v>
+        <v>0.1253</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121079</v>
+        <v>0.117413</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135245</v>
+        <v>0.135363</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129319</v>
+        <v>0.142155</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177281</v>
+        <v>0.177297</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125721</v>
+        <v>0.123912</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126953</v>
+        <v>0.121258</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135775</v>
+        <v>0.137854</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137318</v>
+        <v>0.137752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181593</v>
+        <v>0.182551</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126021</v>
+        <v>0.126643</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120698</v>
+        <v>0.119475</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135975</v>
+        <v>0.136665</v>
       </c>
       <c r="C29" t="n">
-        <v>0.129497</v>
+        <v>0.138269</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187832</v>
+        <v>0.188106</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125998</v>
+        <v>0.126315</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132558</v>
+        <v>0.117911</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137785</v>
+        <v>0.13913</v>
       </c>
       <c r="C30" t="n">
-        <v>0.139544</v>
+        <v>0.132319</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192284</v>
+        <v>0.192966</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126167</v>
+        <v>0.1246</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122809</v>
+        <v>0.122037</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139343</v>
+        <v>0.141106</v>
       </c>
       <c r="C31" t="n">
-        <v>0.140719</v>
+        <v>0.134768</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197419</v>
+        <v>0.198117</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127032</v>
+        <v>0.125355</v>
       </c>
       <c r="F31" t="n">
-        <v>0.127203</v>
+        <v>0.123004</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141446</v>
+        <v>0.141572</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13703</v>
+        <v>0.152713</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203893</v>
+        <v>0.204385</v>
       </c>
       <c r="E32" t="n">
-        <v>0.128425</v>
+        <v>0.12567</v>
       </c>
       <c r="F32" t="n">
-        <v>0.121644</v>
+        <v>0.121054</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144574</v>
+        <v>0.150933</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145112</v>
+        <v>0.146339</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209929</v>
+        <v>0.210053</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127605</v>
+        <v>0.126266</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12507</v>
+        <v>0.120661</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147722</v>
+        <v>0.154922</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152363</v>
+        <v>0.157356</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213633</v>
+        <v>0.214181</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129797</v>
+        <v>0.129041</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12303</v>
+        <v>0.121722</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153516</v>
+        <v>0.152439</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148261</v>
+        <v>0.159825</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165454</v>
+        <v>0.16624</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133756</v>
+        <v>0.132495</v>
       </c>
       <c r="F35" t="n">
-        <v>0.131586</v>
+        <v>0.125883</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159244</v>
+        <v>0.159656</v>
       </c>
       <c r="C36" t="n">
-        <v>0.156009</v>
+        <v>0.161933</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169511</v>
+        <v>0.169522</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141235</v>
+        <v>0.14106</v>
       </c>
       <c r="F36" t="n">
-        <v>0.142288</v>
+        <v>0.133717</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167043</v>
+        <v>0.168311</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17953</v>
+        <v>0.171675</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173433</v>
+        <v>0.173381</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137058</v>
+        <v>0.136975</v>
       </c>
       <c r="F37" t="n">
-        <v>0.141315</v>
+        <v>0.13735</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147371</v>
+        <v>0.146922</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146231</v>
+        <v>0.147222</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177846</v>
+        <v>0.178018</v>
       </c>
       <c r="E38" t="n">
-        <v>0.134325</v>
+        <v>0.137167</v>
       </c>
       <c r="F38" t="n">
-        <v>0.141125</v>
+        <v>0.137815</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148256</v>
+        <v>0.148391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.148246</v>
+        <v>0.15471</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183138</v>
+        <v>0.182853</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137829</v>
+        <v>0.136829</v>
       </c>
       <c r="F39" t="n">
-        <v>0.139794</v>
+        <v>0.135723</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147428</v>
+        <v>0.148811</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14695</v>
+        <v>0.14773</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186485</v>
+        <v>0.186573</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137731</v>
+        <v>0.137138</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139928</v>
+        <v>0.13845</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147427</v>
+        <v>0.148482</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146466</v>
+        <v>0.147865</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191535</v>
+        <v>0.191588</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138055</v>
+        <v>0.138996</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141192</v>
+        <v>0.137071</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148914</v>
+        <v>0.148704</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152833</v>
+        <v>0.149478</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196337</v>
+        <v>0.196611</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139492</v>
+        <v>0.138402</v>
       </c>
       <c r="F42" t="n">
-        <v>0.143322</v>
+        <v>0.140243</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150923</v>
+        <v>0.150047</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14999</v>
+        <v>0.155039</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20111</v>
+        <v>0.201397</v>
       </c>
       <c r="E43" t="n">
-        <v>0.138108</v>
+        <v>0.147205</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14266</v>
+        <v>0.141088</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151062</v>
+        <v>0.150492</v>
       </c>
       <c r="C44" t="n">
-        <v>0.154139</v>
+        <v>0.152192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206205</v>
+        <v>0.20685</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138629</v>
+        <v>0.139502</v>
       </c>
       <c r="F44" t="n">
-        <v>0.139821</v>
+        <v>0.145104</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152738</v>
+        <v>0.154457</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152699</v>
+        <v>0.160468</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211492</v>
+        <v>0.212212</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138178</v>
+        <v>0.138668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13939</v>
+        <v>0.138251</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155041</v>
+        <v>0.156291</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153992</v>
+        <v>0.155709</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216572</v>
+        <v>0.216612</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139362</v>
+        <v>0.139193</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151294</v>
+        <v>0.138785</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158835</v>
+        <v>0.157244</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157755</v>
+        <v>0.157903</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222227</v>
+        <v>0.222467</v>
       </c>
       <c r="E47" t="n">
-        <v>0.14155</v>
+        <v>0.140052</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14645</v>
+        <v>0.141448</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160836</v>
+        <v>0.158837</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161785</v>
+        <v>0.160015</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227282</v>
+        <v>0.227082</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144632</v>
+        <v>0.145689</v>
       </c>
       <c r="F48" t="n">
-        <v>0.148715</v>
+        <v>0.1435</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164489</v>
+        <v>0.166021</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17315</v>
+        <v>0.164541</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231843</v>
+        <v>0.231826</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151551</v>
+        <v>0.147162</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149551</v>
+        <v>0.148034</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169504</v>
+        <v>0.169881</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174235</v>
+        <v>0.179088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171388</v>
+        <v>0.171499</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153825</v>
+        <v>0.153032</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154973</v>
+        <v>0.153936</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177274</v>
+        <v>0.176252</v>
       </c>
       <c r="C51" t="n">
-        <v>0.183341</v>
+        <v>0.185218</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174994</v>
+        <v>0.17573</v>
       </c>
       <c r="E51" t="n">
-        <v>0.151302</v>
+        <v>0.150512</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152244</v>
+        <v>0.154535</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186953</v>
+        <v>0.187564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188645</v>
+        <v>0.205284</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17883</v>
+        <v>0.17861</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150459</v>
+        <v>0.149709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153242</v>
+        <v>0.153297</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159398</v>
+        <v>0.160682</v>
       </c>
       <c r="C53" t="n">
-        <v>0.175918</v>
+        <v>0.174986</v>
       </c>
       <c r="D53" t="n">
-        <v>0.18323</v>
+        <v>0.183115</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150823</v>
+        <v>0.14989</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153526</v>
+        <v>0.151472</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160516</v>
+        <v>0.161877</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169102</v>
+        <v>0.166037</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187037</v>
+        <v>0.187649</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150782</v>
+        <v>0.149654</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156409</v>
+        <v>0.153109</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160734</v>
+        <v>0.160292</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167338</v>
+        <v>0.167105</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192448</v>
+        <v>0.192379</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151474</v>
+        <v>0.15146</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155198</v>
+        <v>0.152741</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162178</v>
+        <v>0.162537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167695</v>
+        <v>0.167837</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19737</v>
+        <v>0.197193</v>
       </c>
       <c r="E56" t="n">
-        <v>0.152625</v>
+        <v>0.151407</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154512</v>
+        <v>0.160042</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162296</v>
+        <v>0.163191</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169685</v>
+        <v>0.168858</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201898</v>
+        <v>0.202192</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151315</v>
+        <v>0.150802</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155865</v>
+        <v>0.159945</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163847</v>
+        <v>0.166806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170634</v>
+        <v>0.169644</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207534</v>
+        <v>0.206888</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152563</v>
+        <v>0.151483</v>
       </c>
       <c r="F58" t="n">
-        <v>0.156195</v>
+        <v>0.153939</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165132</v>
+        <v>0.166672</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18085</v>
+        <v>0.175721</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212167</v>
+        <v>0.212196</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152623</v>
+        <v>0.152259</v>
       </c>
       <c r="F59" t="n">
-        <v>0.156024</v>
+        <v>0.155676</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167057</v>
+        <v>0.170172</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174066</v>
+        <v>0.174355</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21785</v>
+        <v>0.217682</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15421</v>
+        <v>0.153113</v>
       </c>
       <c r="F60" t="n">
-        <v>0.163263</v>
+        <v>0.155213</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169253</v>
+        <v>0.16845</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183956</v>
+        <v>0.175889</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222902</v>
+        <v>0.222305</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155271</v>
+        <v>0.155233</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16021</v>
+        <v>0.157975</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173022</v>
+        <v>0.172599</v>
       </c>
       <c r="C62" t="n">
-        <v>0.188518</v>
+        <v>0.179727</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228409</v>
+        <v>0.228607</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15837</v>
+        <v>0.160878</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164974</v>
+        <v>0.161273</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175717</v>
+        <v>0.175286</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183423</v>
+        <v>0.183565</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232737</v>
+        <v>0.232593</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161351</v>
+        <v>0.161081</v>
       </c>
       <c r="F63" t="n">
-        <v>0.172965</v>
+        <v>0.163763</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185641</v>
+        <v>0.181032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189136</v>
+        <v>0.189076</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177194</v>
+        <v>0.176947</v>
       </c>
       <c r="E64" t="n">
-        <v>0.166107</v>
+        <v>0.165577</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169264</v>
+        <v>0.168414</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187332</v>
+        <v>0.187074</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204619</v>
+        <v>0.196945</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181002</v>
+        <v>0.180836</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172243</v>
+        <v>0.172205</v>
       </c>
       <c r="F65" t="n">
-        <v>0.181677</v>
+        <v>0.175343</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204972</v>
+        <v>0.197844</v>
       </c>
       <c r="C66" t="n">
-        <v>0.207048</v>
+        <v>0.205908</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18597</v>
+        <v>0.185781</v>
       </c>
       <c r="E66" t="n">
-        <v>0.162309</v>
+        <v>0.161743</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162995</v>
+        <v>0.162546</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179288</v>
+        <v>0.179274</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174452</v>
+        <v>0.175076</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190921</v>
+        <v>0.191889</v>
       </c>
       <c r="E67" t="n">
-        <v>0.161715</v>
+        <v>0.162313</v>
       </c>
       <c r="F67" t="n">
-        <v>0.163886</v>
+        <v>0.162963</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179988</v>
+        <v>0.178753</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18115</v>
+        <v>0.180309</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197924</v>
+        <v>0.19942</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162342</v>
+        <v>0.162338</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162345</v>
+        <v>0.162343</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180708</v>
+        <v>0.181831</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175804</v>
+        <v>0.180295</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203869</v>
+        <v>0.202912</v>
       </c>
       <c r="E69" t="n">
-        <v>0.162164</v>
+        <v>0.163358</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164405</v>
+        <v>0.163753</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187122</v>
+        <v>0.182148</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182459</v>
+        <v>0.177234</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209987</v>
+        <v>0.210389</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163726</v>
+        <v>0.163043</v>
       </c>
       <c r="F70" t="n">
-        <v>0.16507</v>
+        <v>0.163736</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1841</v>
+        <v>0.182556</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177866</v>
+        <v>0.177811</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217078</v>
+        <v>0.217392</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163898</v>
+        <v>0.16495</v>
       </c>
       <c r="F71" t="n">
-        <v>0.16632</v>
+        <v>0.164849</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185654</v>
+        <v>0.185806</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178573</v>
+        <v>0.179143</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224598</v>
+        <v>0.226169</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164093</v>
+        <v>0.16434</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166749</v>
+        <v>0.165455</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18599</v>
+        <v>0.188641</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179914</v>
+        <v>0.181003</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232906</v>
+        <v>0.234988</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16475</v>
+        <v>0.165083</v>
       </c>
       <c r="F73" t="n">
-        <v>0.169657</v>
+        <v>0.167085</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188697</v>
+        <v>0.193932</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183457</v>
+        <v>0.183262</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242872</v>
+        <v>0.242507</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166195</v>
+        <v>0.165888</v>
       </c>
       <c r="F74" t="n">
-        <v>0.177223</v>
+        <v>0.168669</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187285</v>
+        <v>0.189915</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193246</v>
+        <v>0.184458</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250605</v>
+        <v>0.252056</v>
       </c>
       <c r="E75" t="n">
-        <v>0.169566</v>
+        <v>0.167013</v>
       </c>
       <c r="F75" t="n">
-        <v>0.172666</v>
+        <v>0.170741</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19289</v>
+        <v>0.19122</v>
       </c>
       <c r="C76" t="n">
-        <v>0.187874</v>
+        <v>0.191728</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261741</v>
+        <v>0.261947</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169423</v>
+        <v>0.16894</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173509</v>
+        <v>0.172694</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202239</v>
+        <v>0.19938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192436</v>
+        <v>0.191743</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271563</v>
+        <v>0.272404</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17216</v>
+        <v>0.171756</v>
       </c>
       <c r="F77" t="n">
-        <v>0.179506</v>
+        <v>0.175853</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201953</v>
+        <v>0.200676</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206365</v>
+        <v>0.196589</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224349</v>
+        <v>0.224051</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175893</v>
+        <v>0.175416</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181452</v>
+        <v>0.180194</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206564</v>
+        <v>0.205825</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202976</v>
+        <v>0.212787</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23526</v>
+        <v>0.235255</v>
       </c>
       <c r="E79" t="n">
-        <v>0.188273</v>
+        <v>0.181523</v>
       </c>
       <c r="F79" t="n">
-        <v>0.189043</v>
+        <v>0.188037</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213196</v>
+        <v>0.216529</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215067</v>
+        <v>0.212633</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243333</v>
+        <v>0.242988</v>
       </c>
       <c r="E80" t="n">
-        <v>0.241946</v>
+        <v>0.241276</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174482</v>
+        <v>0.173746</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362828</v>
+        <v>0.362789</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181105</v>
+        <v>0.183199</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257664</v>
+        <v>0.255905</v>
       </c>
       <c r="E81" t="n">
-        <v>0.244272</v>
+        <v>0.243586</v>
       </c>
       <c r="F81" t="n">
-        <v>0.175575</v>
+        <v>0.174056</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362371</v>
+        <v>0.364187</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188687</v>
+        <v>0.183765</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271982</v>
+        <v>0.270637</v>
       </c>
       <c r="E82" t="n">
-        <v>0.24163</v>
+        <v>0.241846</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176245</v>
+        <v>0.175542</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366156</v>
+        <v>0.358777</v>
       </c>
       <c r="C83" t="n">
-        <v>0.184775</v>
+        <v>0.185302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284397</v>
+        <v>0.282796</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242312</v>
+        <v>0.240451</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17702</v>
+        <v>0.176629</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364028</v>
+        <v>0.360949</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184774</v>
+        <v>0.185881</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298869</v>
+        <v>0.296938</v>
       </c>
       <c r="E84" t="n">
-        <v>0.242725</v>
+        <v>0.243931</v>
       </c>
       <c r="F84" t="n">
-        <v>0.178291</v>
+        <v>0.176997</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363927</v>
+        <v>0.36238</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18724</v>
+        <v>0.185274</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313746</v>
+        <v>0.311879</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241648</v>
+        <v>0.244301</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180589</v>
+        <v>0.178056</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.363563</v>
+        <v>0.36475</v>
       </c>
       <c r="C86" t="n">
-        <v>0.186806</v>
+        <v>0.187643</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328828</v>
+        <v>0.327197</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24203</v>
+        <v>0.241062</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181104</v>
+        <v>0.179811</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.366219</v>
+        <v>0.367826</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188687</v>
+        <v>0.188832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343653</v>
+        <v>0.342844</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24131</v>
+        <v>0.240385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183364</v>
+        <v>0.18163</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369752</v>
+        <v>0.368026</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191245</v>
+        <v>0.192483</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360016</v>
+        <v>0.360309</v>
       </c>
       <c r="E88" t="n">
-        <v>0.242178</v>
+        <v>0.238107</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18603</v>
+        <v>0.184641</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36975</v>
+        <v>0.366331</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194319</v>
+        <v>0.195596</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375678</v>
+        <v>0.375639</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237983</v>
+        <v>0.236897</v>
       </c>
       <c r="F89" t="n">
-        <v>0.187499</v>
+        <v>0.186089</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372034</v>
+        <v>0.370763</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198879</v>
+        <v>0.197296</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392876</v>
+        <v>0.391938</v>
       </c>
       <c r="E90" t="n">
-        <v>0.241161</v>
+        <v>0.238033</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191212</v>
+        <v>0.189427</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37372</v>
+        <v>0.370038</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202506</v>
+        <v>0.206713</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40756</v>
+        <v>0.406902</v>
       </c>
       <c r="E91" t="n">
-        <v>0.23791</v>
+        <v>0.237108</v>
       </c>
       <c r="F91" t="n">
-        <v>0.194593</v>
+        <v>0.193641</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376719</v>
+        <v>0.375516</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208999</v>
+        <v>0.217179</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358165</v>
+        <v>0.356291</v>
       </c>
       <c r="E92" t="n">
-        <v>0.240837</v>
+        <v>0.23831</v>
       </c>
       <c r="F92" t="n">
-        <v>0.202382</v>
+        <v>0.199054</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381148</v>
+        <v>0.379597</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215895</v>
+        <v>0.216079</v>
       </c>
       <c r="D93" t="n">
-        <v>0.367928</v>
+        <v>0.369259</v>
       </c>
       <c r="E93" t="n">
-        <v>0.243188</v>
+        <v>0.24291</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209147</v>
+        <v>0.207597</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387318</v>
+        <v>0.385459</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229252</v>
+        <v>0.227522</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378156</v>
+        <v>0.378006</v>
       </c>
       <c r="E94" t="n">
-        <v>0.398785</v>
+        <v>0.398326</v>
       </c>
       <c r="F94" t="n">
-        <v>0.270785</v>
+        <v>0.264927</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.525778</v>
+        <v>0.5267039999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>0.297152</v>
+        <v>0.294529</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394996</v>
+        <v>0.394463</v>
       </c>
       <c r="E95" t="n">
-        <v>0.397735</v>
+        <v>0.398629</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270985</v>
+        <v>0.262836</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.525817</v>
+        <v>0.527733</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295936</v>
+        <v>0.299858</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408013</v>
+        <v>0.411862</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398402</v>
+        <v>0.398033</v>
       </c>
       <c r="F96" t="n">
-        <v>0.274198</v>
+        <v>0.262684</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.526954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299625</v>
+        <v>0.294803</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419721</v>
+        <v>0.419844</v>
       </c>
       <c r="E97" t="n">
-        <v>0.397559</v>
+        <v>0.397041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2771</v>
+        <v>0.270075</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526448</v>
+        <v>0.527605</v>
       </c>
       <c r="C98" t="n">
-        <v>0.295845</v>
+        <v>0.294608</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435573</v>
+        <v>0.433547</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397483</v>
+        <v>0.398863</v>
       </c>
       <c r="F98" t="n">
-        <v>0.27241</v>
+        <v>0.269984</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526191</v>
+        <v>0.5288119999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.300638</v>
+        <v>0.301506</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449081</v>
+        <v>0.45023</v>
       </c>
       <c r="E99" t="n">
-        <v>0.396962</v>
+        <v>0.398116</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278921</v>
+        <v>0.27501</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5286380000000001</v>
+        <v>0.530737</v>
       </c>
       <c r="C100" t="n">
-        <v>0.29961</v>
+        <v>0.304283</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464069</v>
+        <v>0.461713</v>
       </c>
       <c r="E100" t="n">
-        <v>0.396061</v>
+        <v>0.397693</v>
       </c>
       <c r="F100" t="n">
-        <v>0.279136</v>
+        <v>0.268089</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5286960000000001</v>
+        <v>0.530618</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300164</v>
+        <v>0.30117</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477234</v>
+        <v>0.477605</v>
       </c>
       <c r="E101" t="n">
-        <v>0.395577</v>
+        <v>0.396916</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278982</v>
+        <v>0.271641</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529663</v>
+        <v>0.531482</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302656</v>
+        <v>0.302919</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495379</v>
+        <v>0.495369</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397212</v>
+        <v>0.397246</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279839</v>
+        <v>0.276441</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530756</v>
+        <v>0.532178</v>
       </c>
       <c r="C103" t="n">
-        <v>0.308322</v>
+        <v>0.305969</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512506</v>
+        <v>0.514229</v>
       </c>
       <c r="E103" t="n">
-        <v>0.39774</v>
+        <v>0.398445</v>
       </c>
       <c r="F103" t="n">
-        <v>0.286833</v>
+        <v>0.278542</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.533928</v>
+        <v>0.535825</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310948</v>
+        <v>0.309989</v>
       </c>
       <c r="D104" t="n">
-        <v>0.527523</v>
+        <v>0.530179</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398488</v>
+        <v>0.399179</v>
       </c>
       <c r="F104" t="n">
-        <v>0.282561</v>
+        <v>0.278859</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.537833</v>
+        <v>0.538584</v>
       </c>
       <c r="C105" t="n">
-        <v>0.310439</v>
+        <v>0.313375</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544058</v>
+        <v>0.5444</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402138</v>
+        <v>0.401504</v>
       </c>
       <c r="F105" t="n">
-        <v>0.292772</v>
+        <v>0.281423</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.540838</v>
+        <v>0.54236</v>
       </c>
       <c r="C106" t="n">
-        <v>0.321713</v>
+        <v>0.319566</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563991</v>
+        <v>0.5623590000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4048</v>
+        <v>0.405524</v>
       </c>
       <c r="F106" t="n">
-        <v>0.294313</v>
+        <v>0.288071</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.546463</v>
+        <v>0.547531</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328601</v>
+        <v>0.32632</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52832</v>
+        <v>0.530318</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41013</v>
+        <v>0.412471</v>
       </c>
       <c r="F107" t="n">
-        <v>0.298938</v>
+        <v>0.292521</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553751</v>
+        <v>0.55364</v>
       </c>
       <c r="C108" t="n">
-        <v>0.334467</v>
+        <v>0.336138</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54216</v>
+        <v>0.543589</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533094</v>
+        <v>0.533372</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492495</v>
+        <v>0.484361</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.565084</v>
+        <v>0.56643</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351107</v>
+        <v>0.354482</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548195</v>
+        <v>0.549605</v>
       </c>
       <c r="E109" t="n">
-        <v>0.531732</v>
+        <v>0.533261</v>
       </c>
       <c r="F109" t="n">
-        <v>0.495739</v>
+        <v>0.485356</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602454</v>
+        <v>0.601508</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5231789999999999</v>
+        <v>0.524791</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5636949999999999</v>
+        <v>0.56357</v>
       </c>
       <c r="E110" t="n">
-        <v>0.532884</v>
+        <v>0.532096</v>
       </c>
       <c r="F110" t="n">
-        <v>0.493992</v>
+        <v>0.485581</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.602272</v>
+        <v>0.603187</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528342</v>
+        <v>0.525715</v>
       </c>
       <c r="D111" t="n">
-        <v>0.575986</v>
+        <v>0.579047</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534311</v>
+        <v>0.533978</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4953</v>
+        <v>0.485734</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.602342</v>
+        <v>0.603992</v>
       </c>
       <c r="C112" t="n">
-        <v>0.52717</v>
+        <v>0.525945</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587359</v>
+        <v>0.588052</v>
       </c>
       <c r="E112" t="n">
-        <v>0.535184</v>
+        <v>0.534169</v>
       </c>
       <c r="F112" t="n">
-        <v>0.497898</v>
+        <v>0.490167</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607206</v>
+        <v>0.605021</v>
       </c>
       <c r="C113" t="n">
-        <v>0.525103</v>
+        <v>0.5273640000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60295</v>
+        <v>0.603689</v>
       </c>
       <c r="E113" t="n">
-        <v>0.535658</v>
+        <v>0.533978</v>
       </c>
       <c r="F113" t="n">
-        <v>0.49861</v>
+        <v>0.490731</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608392</v>
+        <v>0.607558</v>
       </c>
       <c r="C114" t="n">
-        <v>0.528474</v>
+        <v>0.528356</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617445</v>
+        <v>0.617947</v>
       </c>
       <c r="E114" t="n">
-        <v>0.533491</v>
+        <v>0.534199</v>
       </c>
       <c r="F114" t="n">
-        <v>0.497215</v>
+        <v>0.489432</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608824</v>
+        <v>0.60594</v>
       </c>
       <c r="C115" t="n">
-        <v>0.529053</v>
+        <v>0.5311090000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634076</v>
+        <v>0.635163</v>
       </c>
       <c r="E115" t="n">
-        <v>0.536362</v>
+        <v>0.537128</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500038</v>
+        <v>0.49139</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.608325</v>
+        <v>0.6097</v>
       </c>
       <c r="C116" t="n">
-        <v>0.533856</v>
+        <v>0.53456</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646172</v>
+        <v>0.648447</v>
       </c>
       <c r="E116" t="n">
-        <v>0.536752</v>
+        <v>0.537972</v>
       </c>
       <c r="F116" t="n">
-        <v>0.501494</v>
+        <v>0.496761</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.60925</v>
+        <v>0.615299</v>
       </c>
       <c r="C117" t="n">
-        <v>0.536388</v>
+        <v>0.535725</v>
       </c>
       <c r="D117" t="n">
-        <v>0.667424</v>
+        <v>0.668804</v>
       </c>
       <c r="E117" t="n">
-        <v>0.538861</v>
+        <v>0.540279</v>
       </c>
       <c r="F117" t="n">
-        <v>0.505754</v>
+        <v>0.494307</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613963</v>
+        <v>0.614714</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540439</v>
+        <v>0.5368309999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676881</v>
+        <v>0.677011</v>
       </c>
       <c r="E118" t="n">
-        <v>0.541365</v>
+        <v>0.540801</v>
       </c>
       <c r="F118" t="n">
-        <v>0.508664</v>
+        <v>0.5000830000000001</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.621978</v>
+        <v>0.619221</v>
       </c>
       <c r="C119" t="n">
-        <v>0.542264</v>
+        <v>0.544328</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6968760000000001</v>
+        <v>0.699767</v>
       </c>
       <c r="E119" t="n">
-        <v>0.545705</v>
+        <v>0.547001</v>
       </c>
       <c r="F119" t="n">
-        <v>0.508023</v>
+        <v>0.50227</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625772</v>
+        <v>0.624638</v>
       </c>
       <c r="C120" t="n">
-        <v>0.548561</v>
+        <v>0.551789</v>
       </c>
       <c r="D120" t="n">
-        <v>0.718041</v>
+        <v>0.719284</v>
       </c>
       <c r="E120" t="n">
-        <v>0.547894</v>
+        <v>0.548753</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5137119999999999</v>
+        <v>0.507188</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6288629999999999</v>
+        <v>0.6317120000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5563</v>
+        <v>0.555315</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63346</v>
+        <v>0.634822</v>
       </c>
       <c r="E121" t="n">
-        <v>0.553897</v>
+        <v>0.556383</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520931</v>
+        <v>0.512449</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.637761</v>
+        <v>0.638023</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572779</v>
+        <v>0.56514</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6447040000000001</v>
+        <v>0.645831</v>
       </c>
       <c r="E122" t="n">
-        <v>0.562763</v>
+        <v>0.5614980000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5308929999999999</v>
+        <v>0.52441</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.64929</v>
+        <v>0.650694</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580387</v>
+        <v>0.582798</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6573329999999999</v>
+        <v>0.659015</v>
       </c>
       <c r="E123" t="n">
-        <v>0.69092</v>
+        <v>0.691184</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7046480000000001</v>
+        <v>0.699281</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739303</v>
+        <v>0.740228</v>
       </c>
       <c r="C124" t="n">
-        <v>0.732291</v>
+        <v>0.735464</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6695179999999999</v>
+        <v>0.671053</v>
       </c>
       <c r="E124" t="n">
-        <v>0.689592</v>
+        <v>0.691179</v>
       </c>
       <c r="F124" t="n">
-        <v>0.706144</v>
+        <v>0.701036</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740434</v>
+        <v>0.741879</v>
       </c>
       <c r="C125" t="n">
-        <v>0.733552</v>
+        <v>0.7353690000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680804</v>
+        <v>0.682159</v>
       </c>
       <c r="E125" t="n">
-        <v>0.691448</v>
+        <v>0.690843</v>
       </c>
       <c r="F125" t="n">
-        <v>0.707026</v>
+        <v>0.700643</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7423070000000001</v>
+        <v>0.744619</v>
       </c>
       <c r="C126" t="n">
-        <v>0.735493</v>
+        <v>0.73848</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695641</v>
+        <v>0.696773</v>
       </c>
       <c r="E126" t="n">
-        <v>0.691441</v>
+        <v>0.690963</v>
       </c>
       <c r="F126" t="n">
-        <v>0.70783</v>
+        <v>0.704449</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742357</v>
+        <v>0.743978</v>
       </c>
       <c r="C127" t="n">
-        <v>0.736726</v>
+        <v>0.738837</v>
       </c>
       <c r="D127" t="n">
-        <v>0.710989</v>
+        <v>0.712963</v>
       </c>
       <c r="E127" t="n">
-        <v>0.693381</v>
+        <v>0.692882</v>
       </c>
       <c r="F127" t="n">
-        <v>0.709386</v>
+        <v>0.703546</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743708</v>
+        <v>0.742752</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738978</v>
+        <v>0.739296</v>
       </c>
       <c r="D128" t="n">
-        <v>0.724627</v>
+        <v>0.72604</v>
       </c>
       <c r="E128" t="n">
-        <v>0.693404</v>
+        <v>0.694605</v>
       </c>
       <c r="F128" t="n">
-        <v>0.711085</v>
+        <v>0.706041</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746796</v>
+        <v>0.746269</v>
       </c>
       <c r="C129" t="n">
-        <v>0.740936</v>
+        <v>0.743055</v>
       </c>
       <c r="D129" t="n">
-        <v>0.73933</v>
+        <v>0.740567</v>
       </c>
       <c r="E129" t="n">
-        <v>0.693908</v>
+        <v>0.696165</v>
       </c>
       <c r="F129" t="n">
-        <v>0.713056</v>
+        <v>0.707748</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745599</v>
+        <v>0.746642</v>
       </c>
       <c r="C130" t="n">
-        <v>0.742287</v>
+        <v>0.743768</v>
       </c>
       <c r="D130" t="n">
-        <v>0.75209</v>
+        <v>0.754072</v>
       </c>
       <c r="E130" t="n">
-        <v>0.697155</v>
+        <v>0.698346</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7162849999999999</v>
+        <v>0.709266</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748243</v>
+        <v>0.748596</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745635</v>
+        <v>0.748304</v>
       </c>
       <c r="D131" t="n">
-        <v>0.769136</v>
+        <v>0.771169</v>
       </c>
       <c r="E131" t="n">
-        <v>0.697565</v>
+        <v>0.6986790000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>0.717141</v>
+        <v>0.713277</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751685</v>
+        <v>0.751015</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7491719999999999</v>
+        <v>0.7509980000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784218</v>
+        <v>0.785543</v>
       </c>
       <c r="E132" t="n">
-        <v>0.700518</v>
+        <v>0.702242</v>
       </c>
       <c r="F132" t="n">
-        <v>0.722462</v>
+        <v>0.714969</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755555</v>
+        <v>0.75598</v>
       </c>
       <c r="C133" t="n">
-        <v>0.753846</v>
+        <v>0.756452</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80088</v>
+        <v>0.803196</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7030729999999999</v>
+        <v>0.705243</v>
       </c>
       <c r="F133" t="n">
-        <v>0.724285</v>
+        <v>0.7193310000000001</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761684</v>
+        <v>0.761616</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761358</v>
+        <v>0.762025</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815626</v>
+        <v>0.817519</v>
       </c>
       <c r="E134" t="n">
-        <v>0.706933</v>
+        <v>0.706705</v>
       </c>
       <c r="F134" t="n">
-        <v>0.731588</v>
+        <v>0.725599</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.76786</v>
+        <v>0.766222</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766741</v>
+        <v>0.770447</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690037</v>
+        <v>0.690157</v>
       </c>
       <c r="E135" t="n">
-        <v>0.711933</v>
+        <v>0.714122</v>
       </c>
       <c r="F135" t="n">
-        <v>0.737115</v>
+        <v>0.73239</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77646</v>
+        <v>0.777233</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778826</v>
+        <v>0.781622</v>
       </c>
       <c r="D136" t="n">
-        <v>0.699977</v>
+        <v>0.700614</v>
       </c>
       <c r="E136" t="n">
-        <v>0.721002</v>
+        <v>0.7216089999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750738</v>
+        <v>0.743069</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786851</v>
+        <v>0.788952</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7938809999999999</v>
+        <v>0.7959850000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.710944</v>
+        <v>0.711303</v>
       </c>
       <c r="E137" t="n">
-        <v>0.823825</v>
+        <v>0.825669</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835658</v>
+        <v>0.832013</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864676</v>
+        <v>0.864899</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862256</v>
+        <v>0.862141</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722477</v>
+        <v>0.7237440000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825065</v>
+        <v>0.825147</v>
       </c>
       <c r="F138" t="n">
-        <v>0.836306</v>
+        <v>0.832404</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864545</v>
+        <v>0.864543</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863408</v>
+        <v>0.864523</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73433</v>
+        <v>0.735368</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825418</v>
+        <v>0.82543</v>
       </c>
       <c r="F139" t="n">
-        <v>0.837939</v>
+        <v>0.834174</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865549</v>
+        <v>0.865428</v>
       </c>
       <c r="C140" t="n">
-        <v>0.865042</v>
+        <v>0.864951</v>
       </c>
       <c r="D140" t="n">
-        <v>0.747776</v>
+        <v>0.748036</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8260420000000001</v>
+        <v>0.826601</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839144</v>
+        <v>0.835504</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865936</v>
+        <v>0.866907</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8662530000000001</v>
+        <v>0.867103</v>
       </c>
       <c r="D141" t="n">
-        <v>0.761143</v>
+        <v>0.762055</v>
       </c>
       <c r="E141" t="n">
-        <v>0.827639</v>
+        <v>0.826478</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840122</v>
+        <v>0.836211</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864533</v>
+        <v>0.865618</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866314</v>
+        <v>0.868517</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774017</v>
+        <v>0.774263</v>
       </c>
       <c r="E142" t="n">
-        <v>0.826539</v>
+        <v>0.826438</v>
       </c>
       <c r="F142" t="n">
-        <v>0.841458</v>
+        <v>0.838233</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867157</v>
+        <v>0.868266</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8683689999999999</v>
+        <v>0.869911</v>
       </c>
       <c r="D143" t="n">
-        <v>0.789529</v>
+        <v>0.790224</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827473</v>
+        <v>0.827697</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844963</v>
+        <v>0.839697</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11524</v>
+        <v>0.115389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.119221</v>
+        <v>0.11312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132175</v>
+        <v>0.131498</v>
       </c>
       <c r="E2" t="n">
-        <v>0.107868</v>
+        <v>0.108314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106468</v>
+        <v>0.106467</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.115227</v>
+        <v>0.117315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.123841</v>
+        <v>0.114875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.138509</v>
+        <v>0.140008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.108245</v>
+        <v>0.108248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.106649</v>
+        <v>0.10668</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.116155</v>
+        <v>0.117678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.121903</v>
+        <v>0.123565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145597</v>
+        <v>0.145816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.108561</v>
+        <v>0.108642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.106895</v>
+        <v>0.106932</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.126818</v>
+        <v>0.119093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.118816</v>
+        <v>0.117829</v>
       </c>
       <c r="D5" t="n">
-        <v>0.154276</v>
+        <v>0.153721</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109068</v>
+        <v>0.109009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.107484</v>
+        <v>0.107458</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.129316</v>
+        <v>0.121432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134389</v>
+        <v>0.131177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161055</v>
+        <v>0.16088</v>
       </c>
       <c r="E6" t="n">
-        <v>0.109475</v>
+        <v>0.109595</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108215</v>
+        <v>0.108091</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124877</v>
+        <v>0.124085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.131157</v>
+        <v>0.134245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.127912</v>
+        <v>0.128034</v>
       </c>
       <c r="E7" t="n">
-        <v>0.110055</v>
+        <v>0.110226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.109306</v>
+        <v>0.109276</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128374</v>
+        <v>0.129141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.131116</v>
+        <v>0.135917</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131425</v>
+        <v>0.130722</v>
       </c>
       <c r="E8" t="n">
-        <v>0.112184</v>
+        <v>0.111773</v>
       </c>
       <c r="F8" t="n">
-        <v>0.111139</v>
+        <v>0.111201</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149849</v>
+        <v>0.139604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.142875</v>
+        <v>0.145158</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136152</v>
+        <v>0.135917</v>
       </c>
       <c r="E9" t="n">
-        <v>0.113451</v>
+        <v>0.11355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.108269</v>
+        <v>0.109061</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125008</v>
+        <v>0.125217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1277</v>
+        <v>0.117727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140992</v>
+        <v>0.140029</v>
       </c>
       <c r="E10" t="n">
-        <v>0.113813</v>
+        <v>0.113954</v>
       </c>
       <c r="F10" t="n">
-        <v>0.107945</v>
+        <v>0.10869</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126365</v>
+        <v>0.125043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.125002</v>
+        <v>0.123326</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145949</v>
+        <v>0.144822</v>
       </c>
       <c r="E11" t="n">
-        <v>0.114156</v>
+        <v>0.114396</v>
       </c>
       <c r="F11" t="n">
-        <v>0.108232</v>
+        <v>0.110003</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125578</v>
+        <v>0.127513</v>
       </c>
       <c r="C12" t="n">
-        <v>0.127534</v>
+        <v>0.117687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151175</v>
+        <v>0.149889</v>
       </c>
       <c r="E12" t="n">
-        <v>0.114501</v>
+        <v>0.114197</v>
       </c>
       <c r="F12" t="n">
-        <v>0.108247</v>
+        <v>0.110692</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.130968</v>
+        <v>0.127099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.127239</v>
+        <v>0.126118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156527</v>
+        <v>0.154814</v>
       </c>
       <c r="E13" t="n">
-        <v>0.11642</v>
+        <v>0.114505</v>
       </c>
       <c r="F13" t="n">
-        <v>0.108433</v>
+        <v>0.111779</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.127742</v>
+        <v>0.128019</v>
       </c>
       <c r="C14" t="n">
-        <v>0.118727</v>
+        <v>0.126682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160386</v>
+        <v>0.160896</v>
       </c>
       <c r="E14" t="n">
-        <v>0.115535</v>
+        <v>0.114789</v>
       </c>
       <c r="F14" t="n">
-        <v>0.108583</v>
+        <v>0.112019</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126983</v>
+        <v>0.126376</v>
       </c>
       <c r="C15" t="n">
-        <v>0.132582</v>
+        <v>0.121293</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167435</v>
+        <v>0.167216</v>
       </c>
       <c r="E15" t="n">
-        <v>0.115128</v>
+        <v>0.114629</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112185</v>
+        <v>0.109976</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126474</v>
+        <v>0.133517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.133927</v>
+        <v>0.122035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17409</v>
+        <v>0.173888</v>
       </c>
       <c r="E16" t="n">
-        <v>0.115377</v>
+        <v>0.11538</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111847</v>
+        <v>0.111825</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129121</v>
+        <v>0.129454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127917</v>
+        <v>0.121271</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180564</v>
+        <v>0.179795</v>
       </c>
       <c r="E17" t="n">
-        <v>0.115714</v>
+        <v>0.114966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.109377</v>
+        <v>0.113048</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.137622</v>
+        <v>0.129394</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133791</v>
+        <v>0.125411</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186357</v>
+        <v>0.186071</v>
       </c>
       <c r="E18" t="n">
-        <v>0.116038</v>
+        <v>0.115379</v>
       </c>
       <c r="F18" t="n">
-        <v>0.109969</v>
+        <v>0.110731</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136389</v>
+        <v>0.132242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.128571</v>
+        <v>0.13858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191184</v>
+        <v>0.190751</v>
       </c>
       <c r="E19" t="n">
-        <v>0.116547</v>
+        <v>0.116518</v>
       </c>
       <c r="F19" t="n">
-        <v>0.111282</v>
+        <v>0.111415</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.140749</v>
+        <v>0.138376</v>
       </c>
       <c r="C20" t="n">
-        <v>0.140551</v>
+        <v>0.128119</v>
       </c>
       <c r="D20" t="n">
-        <v>0.196119</v>
+        <v>0.19647</v>
       </c>
       <c r="E20" t="n">
-        <v>0.116643</v>
+        <v>0.117086</v>
       </c>
       <c r="F20" t="n">
-        <v>0.111449</v>
+        <v>0.111583</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.149316</v>
+        <v>0.143715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.147514</v>
+        <v>0.134714</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149037</v>
+        <v>0.149074</v>
       </c>
       <c r="E21" t="n">
-        <v>0.117569</v>
+        <v>0.118214</v>
       </c>
       <c r="F21" t="n">
-        <v>0.112577</v>
+        <v>0.113513</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.152423</v>
+        <v>0.148434</v>
       </c>
       <c r="C22" t="n">
-        <v>0.15775</v>
+        <v>0.148752</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153639</v>
+        <v>0.153623</v>
       </c>
       <c r="E22" t="n">
-        <v>0.122339</v>
+        <v>0.128139</v>
       </c>
       <c r="F22" t="n">
-        <v>0.117922</v>
+        <v>0.11653</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170956</v>
+        <v>0.164739</v>
       </c>
       <c r="C23" t="n">
-        <v>0.165465</v>
+        <v>0.158154</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157675</v>
+        <v>0.157452</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125946</v>
+        <v>0.122972</v>
       </c>
       <c r="F23" t="n">
-        <v>0.118575</v>
+        <v>0.122736</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134764</v>
+        <v>0.13604</v>
       </c>
       <c r="C24" t="n">
-        <v>0.135874</v>
+        <v>0.130134</v>
       </c>
       <c r="D24" t="n">
-        <v>0.163838</v>
+        <v>0.163077</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125582</v>
+        <v>0.123763</v>
       </c>
       <c r="F24" t="n">
-        <v>0.120926</v>
+        <v>0.119047</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13639</v>
+        <v>0.134033</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128454</v>
+        <v>0.129753</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167902</v>
+        <v>0.169407</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125386</v>
+        <v>0.124281</v>
       </c>
       <c r="F25" t="n">
-        <v>0.117654</v>
+        <v>0.118287</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135308</v>
+        <v>0.134667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.132861</v>
+        <v>0.130545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172279</v>
+        <v>0.172056</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1253</v>
+        <v>0.124398</v>
       </c>
       <c r="F26" t="n">
-        <v>0.117413</v>
+        <v>0.11865</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135363</v>
+        <v>0.136128</v>
       </c>
       <c r="C27" t="n">
-        <v>0.142155</v>
+        <v>0.128213</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177297</v>
+        <v>0.177389</v>
       </c>
       <c r="E27" t="n">
-        <v>0.123912</v>
+        <v>0.124036</v>
       </c>
       <c r="F27" t="n">
-        <v>0.121258</v>
+        <v>0.121192</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137854</v>
+        <v>0.136375</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137752</v>
+        <v>0.141305</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182551</v>
+        <v>0.182952</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126643</v>
+        <v>0.124567</v>
       </c>
       <c r="F28" t="n">
-        <v>0.119475</v>
+        <v>0.124512</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.136665</v>
+        <v>0.137235</v>
       </c>
       <c r="C29" t="n">
-        <v>0.138269</v>
+        <v>0.131519</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188106</v>
+        <v>0.188425</v>
       </c>
       <c r="E29" t="n">
-        <v>0.126315</v>
+        <v>0.124839</v>
       </c>
       <c r="F29" t="n">
-        <v>0.117911</v>
+        <v>0.119013</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.13913</v>
+        <v>0.137489</v>
       </c>
       <c r="C30" t="n">
-        <v>0.132319</v>
+        <v>0.137363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192966</v>
+        <v>0.19355</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1246</v>
+        <v>0.124797</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122037</v>
+        <v>0.123285</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141106</v>
+        <v>0.138869</v>
       </c>
       <c r="C31" t="n">
-        <v>0.134768</v>
+        <v>0.135476</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198117</v>
+        <v>0.198525</v>
       </c>
       <c r="E31" t="n">
-        <v>0.125355</v>
+        <v>0.124688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.123004</v>
+        <v>0.12389</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141572</v>
+        <v>0.141565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.152713</v>
+        <v>0.137322</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204385</v>
+        <v>0.205281</v>
       </c>
       <c r="E32" t="n">
-        <v>0.12567</v>
+        <v>0.126104</v>
       </c>
       <c r="F32" t="n">
-        <v>0.121054</v>
+        <v>0.12541</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150933</v>
+        <v>0.14532</v>
       </c>
       <c r="C33" t="n">
-        <v>0.146339</v>
+        <v>0.147978</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210053</v>
+        <v>0.209471</v>
       </c>
       <c r="E33" t="n">
-        <v>0.126266</v>
+        <v>0.126301</v>
       </c>
       <c r="F33" t="n">
-        <v>0.120661</v>
+        <v>0.125051</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.154922</v>
+        <v>0.149456</v>
       </c>
       <c r="C34" t="n">
-        <v>0.157356</v>
+        <v>0.153255</v>
       </c>
       <c r="D34" t="n">
-        <v>0.214181</v>
+        <v>0.213169</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129041</v>
+        <v>0.1282</v>
       </c>
       <c r="F34" t="n">
-        <v>0.121722</v>
+        <v>0.125695</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152439</v>
+        <v>0.153556</v>
       </c>
       <c r="C35" t="n">
-        <v>0.159825</v>
+        <v>0.148742</v>
       </c>
       <c r="D35" t="n">
-        <v>0.16624</v>
+        <v>0.165722</v>
       </c>
       <c r="E35" t="n">
-        <v>0.132495</v>
+        <v>0.131933</v>
       </c>
       <c r="F35" t="n">
-        <v>0.125883</v>
+        <v>0.130782</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159656</v>
+        <v>0.159069</v>
       </c>
       <c r="C36" t="n">
-        <v>0.161933</v>
+        <v>0.166836</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169522</v>
+        <v>0.169143</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14106</v>
+        <v>0.139938</v>
       </c>
       <c r="F36" t="n">
-        <v>0.133717</v>
+        <v>0.136847</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.168311</v>
+        <v>0.166225</v>
       </c>
       <c r="C37" t="n">
-        <v>0.171675</v>
+        <v>0.165823</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173381</v>
+        <v>0.172951</v>
       </c>
       <c r="E37" t="n">
-        <v>0.136975</v>
+        <v>0.136634</v>
       </c>
       <c r="F37" t="n">
-        <v>0.13735</v>
+        <v>0.14165</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.146922</v>
+        <v>0.147966</v>
       </c>
       <c r="C38" t="n">
-        <v>0.147222</v>
+        <v>0.154659</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178018</v>
+        <v>0.178658</v>
       </c>
       <c r="E38" t="n">
-        <v>0.137167</v>
+        <v>0.137097</v>
       </c>
       <c r="F38" t="n">
-        <v>0.137815</v>
+        <v>0.136304</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148391</v>
+        <v>0.147585</v>
       </c>
       <c r="C39" t="n">
-        <v>0.15471</v>
+        <v>0.146551</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182853</v>
+        <v>0.182619</v>
       </c>
       <c r="E39" t="n">
-        <v>0.136829</v>
+        <v>0.136481</v>
       </c>
       <c r="F39" t="n">
-        <v>0.135723</v>
+        <v>0.140583</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148811</v>
+        <v>0.150075</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14773</v>
+        <v>0.158366</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186573</v>
+        <v>0.186814</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137138</v>
+        <v>0.136122</v>
       </c>
       <c r="F40" t="n">
-        <v>0.13845</v>
+        <v>0.138055</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.148482</v>
+        <v>0.149111</v>
       </c>
       <c r="C41" t="n">
-        <v>0.147865</v>
+        <v>0.147758</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191588</v>
+        <v>0.191141</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138996</v>
+        <v>0.136403</v>
       </c>
       <c r="F41" t="n">
-        <v>0.137071</v>
+        <v>0.137537</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148704</v>
+        <v>0.146955</v>
       </c>
       <c r="C42" t="n">
-        <v>0.149478</v>
+        <v>0.149847</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196611</v>
+        <v>0.196369</v>
       </c>
       <c r="E42" t="n">
-        <v>0.138402</v>
+        <v>0.136554</v>
       </c>
       <c r="F42" t="n">
-        <v>0.140243</v>
+        <v>0.13842</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150047</v>
+        <v>0.147141</v>
       </c>
       <c r="C43" t="n">
-        <v>0.155039</v>
+        <v>0.148971</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201397</v>
+        <v>0.201432</v>
       </c>
       <c r="E43" t="n">
-        <v>0.147205</v>
+        <v>0.134038</v>
       </c>
       <c r="F43" t="n">
-        <v>0.141088</v>
+        <v>0.139327</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150492</v>
+        <v>0.150653</v>
       </c>
       <c r="C44" t="n">
-        <v>0.152192</v>
+        <v>0.161421</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20685</v>
+        <v>0.206467</v>
       </c>
       <c r="E44" t="n">
-        <v>0.139502</v>
+        <v>0.13739</v>
       </c>
       <c r="F44" t="n">
-        <v>0.145104</v>
+        <v>0.144368</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154457</v>
+        <v>0.152197</v>
       </c>
       <c r="C45" t="n">
-        <v>0.160468</v>
+        <v>0.152647</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212212</v>
+        <v>0.211382</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138668</v>
+        <v>0.138461</v>
       </c>
       <c r="F45" t="n">
-        <v>0.138251</v>
+        <v>0.137946</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.156291</v>
+        <v>0.159106</v>
       </c>
       <c r="C46" t="n">
-        <v>0.155709</v>
+        <v>0.15439</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216612</v>
+        <v>0.216773</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139193</v>
+        <v>0.138732</v>
       </c>
       <c r="F46" t="n">
-        <v>0.138785</v>
+        <v>0.139116</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157244</v>
+        <v>0.159463</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157903</v>
+        <v>0.164877</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222467</v>
+        <v>0.222634</v>
       </c>
       <c r="E47" t="n">
-        <v>0.140052</v>
+        <v>0.140778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.141448</v>
+        <v>0.140478</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.158837</v>
+        <v>0.161129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160015</v>
+        <v>0.160277</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227082</v>
+        <v>0.22688</v>
       </c>
       <c r="E48" t="n">
-        <v>0.145689</v>
+        <v>0.142925</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1435</v>
+        <v>0.145041</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166021</v>
+        <v>0.166047</v>
       </c>
       <c r="C49" t="n">
-        <v>0.164541</v>
+        <v>0.165216</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231826</v>
+        <v>0.232009</v>
       </c>
       <c r="E49" t="n">
-        <v>0.147162</v>
+        <v>0.14672</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148034</v>
+        <v>0.153053</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169881</v>
+        <v>0.170102</v>
       </c>
       <c r="C50" t="n">
-        <v>0.179088</v>
+        <v>0.183458</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171499</v>
+        <v>0.171166</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153032</v>
+        <v>0.151565</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153936</v>
+        <v>0.153197</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.176252</v>
+        <v>0.175166</v>
       </c>
       <c r="C51" t="n">
-        <v>0.185218</v>
+        <v>0.180306</v>
       </c>
       <c r="D51" t="n">
-        <v>0.17573</v>
+        <v>0.174871</v>
       </c>
       <c r="E51" t="n">
-        <v>0.150512</v>
+        <v>0.149574</v>
       </c>
       <c r="F51" t="n">
-        <v>0.154535</v>
+        <v>0.15319</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187564</v>
+        <v>0.184966</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205284</v>
+        <v>0.200474</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17861</v>
+        <v>0.179015</v>
       </c>
       <c r="E52" t="n">
-        <v>0.149709</v>
+        <v>0.149726</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153297</v>
+        <v>0.153502</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160682</v>
+        <v>0.16097</v>
       </c>
       <c r="C53" t="n">
-        <v>0.174986</v>
+        <v>0.165547</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183115</v>
+        <v>0.183256</v>
       </c>
       <c r="E53" t="n">
-        <v>0.14989</v>
+        <v>0.149994</v>
       </c>
       <c r="F53" t="n">
-        <v>0.151472</v>
+        <v>0.153002</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161877</v>
+        <v>0.161585</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166037</v>
+        <v>0.166586</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187649</v>
+        <v>0.187474</v>
       </c>
       <c r="E54" t="n">
-        <v>0.149654</v>
+        <v>0.150865</v>
       </c>
       <c r="F54" t="n">
-        <v>0.153109</v>
+        <v>0.153747</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160292</v>
+        <v>0.166102</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167105</v>
+        <v>0.167822</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192379</v>
+        <v>0.192047</v>
       </c>
       <c r="E55" t="n">
-        <v>0.15146</v>
+        <v>0.150922</v>
       </c>
       <c r="F55" t="n">
-        <v>0.152741</v>
+        <v>0.157952</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162537</v>
+        <v>0.161652</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167837</v>
+        <v>0.167308</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197193</v>
+        <v>0.197121</v>
       </c>
       <c r="E56" t="n">
-        <v>0.151407</v>
+        <v>0.150651</v>
       </c>
       <c r="F56" t="n">
-        <v>0.160042</v>
+        <v>0.153848</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163191</v>
+        <v>0.163743</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168858</v>
+        <v>0.169703</v>
       </c>
       <c r="D57" t="n">
-        <v>0.202192</v>
+        <v>0.201711</v>
       </c>
       <c r="E57" t="n">
-        <v>0.150802</v>
+        <v>0.151739</v>
       </c>
       <c r="F57" t="n">
-        <v>0.159945</v>
+        <v>0.156858</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.166806</v>
+        <v>0.170362</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169644</v>
+        <v>0.170258</v>
       </c>
       <c r="D58" t="n">
-        <v>0.206888</v>
+        <v>0.207094</v>
       </c>
       <c r="E58" t="n">
-        <v>0.151483</v>
+        <v>0.151508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.153939</v>
+        <v>0.154972</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.166672</v>
+        <v>0.165943</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175721</v>
+        <v>0.172887</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212196</v>
+        <v>0.212861</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152259</v>
+        <v>0.152561</v>
       </c>
       <c r="F59" t="n">
-        <v>0.155676</v>
+        <v>0.155461</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.170172</v>
+        <v>0.171142</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174355</v>
+        <v>0.173619</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217682</v>
+        <v>0.217218</v>
       </c>
       <c r="E60" t="n">
-        <v>0.153113</v>
+        <v>0.152741</v>
       </c>
       <c r="F60" t="n">
-        <v>0.155213</v>
+        <v>0.156136</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.16845</v>
+        <v>0.168972</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175889</v>
+        <v>0.176755</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222305</v>
+        <v>0.222944</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155233</v>
+        <v>0.15476</v>
       </c>
       <c r="F61" t="n">
-        <v>0.157975</v>
+        <v>0.158565</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172599</v>
+        <v>0.172194</v>
       </c>
       <c r="C62" t="n">
-        <v>0.179727</v>
+        <v>0.188083</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228607</v>
+        <v>0.227995</v>
       </c>
       <c r="E62" t="n">
-        <v>0.160878</v>
+        <v>0.157698</v>
       </c>
       <c r="F62" t="n">
-        <v>0.161273</v>
+        <v>0.161705</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175286</v>
+        <v>0.178655</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183565</v>
+        <v>0.183238</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232593</v>
+        <v>0.232459</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161081</v>
+        <v>0.161104</v>
       </c>
       <c r="F63" t="n">
-        <v>0.163763</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.181032</v>
+        <v>0.183692</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189076</v>
+        <v>0.188719</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176947</v>
+        <v>0.176875</v>
       </c>
       <c r="E64" t="n">
-        <v>0.165577</v>
+        <v>0.165667</v>
       </c>
       <c r="F64" t="n">
-        <v>0.168414</v>
+        <v>0.169637</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187074</v>
+        <v>0.193596</v>
       </c>
       <c r="C65" t="n">
-        <v>0.196945</v>
+        <v>0.197198</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180836</v>
+        <v>0.180413</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172205</v>
+        <v>0.171131</v>
       </c>
       <c r="F65" t="n">
-        <v>0.175343</v>
+        <v>0.178449</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197844</v>
+        <v>0.196991</v>
       </c>
       <c r="C66" t="n">
-        <v>0.205908</v>
+        <v>0.215976</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185781</v>
+        <v>0.185251</v>
       </c>
       <c r="E66" t="n">
-        <v>0.161743</v>
+        <v>0.161592</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162546</v>
+        <v>0.162668</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179274</v>
+        <v>0.182223</v>
       </c>
       <c r="C67" t="n">
-        <v>0.175076</v>
+        <v>0.174151</v>
       </c>
       <c r="D67" t="n">
-        <v>0.191889</v>
+        <v>0.191486</v>
       </c>
       <c r="E67" t="n">
-        <v>0.162313</v>
+        <v>0.162553</v>
       </c>
       <c r="F67" t="n">
-        <v>0.162963</v>
+        <v>0.163313</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.178753</v>
+        <v>0.183647</v>
       </c>
       <c r="C68" t="n">
-        <v>0.180309</v>
+        <v>0.17545</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19942</v>
+        <v>0.198006</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162338</v>
+        <v>0.162347</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162343</v>
+        <v>0.162341</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.181831</v>
+        <v>0.182658</v>
       </c>
       <c r="C69" t="n">
-        <v>0.180295</v>
+        <v>0.17605</v>
       </c>
       <c r="D69" t="n">
-        <v>0.202912</v>
+        <v>0.203403</v>
       </c>
       <c r="E69" t="n">
-        <v>0.163358</v>
+        <v>0.163334</v>
       </c>
       <c r="F69" t="n">
-        <v>0.163753</v>
+        <v>0.164357</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.182148</v>
+        <v>0.185543</v>
       </c>
       <c r="C70" t="n">
-        <v>0.177234</v>
+        <v>0.176533</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210389</v>
+        <v>0.209671</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163043</v>
+        <v>0.162963</v>
       </c>
       <c r="F70" t="n">
-        <v>0.163736</v>
+        <v>0.164761</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.182556</v>
+        <v>0.185044</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177811</v>
+        <v>0.177781</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217392</v>
+        <v>0.215624</v>
       </c>
       <c r="E71" t="n">
-        <v>0.16495</v>
+        <v>0.163556</v>
       </c>
       <c r="F71" t="n">
-        <v>0.164849</v>
+        <v>0.165745</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185806</v>
+        <v>0.18348</v>
       </c>
       <c r="C72" t="n">
-        <v>0.179143</v>
+        <v>0.178587</v>
       </c>
       <c r="D72" t="n">
-        <v>0.226169</v>
+        <v>0.223745</v>
       </c>
       <c r="E72" t="n">
-        <v>0.16434</v>
+        <v>0.164526</v>
       </c>
       <c r="F72" t="n">
-        <v>0.165455</v>
+        <v>0.166818</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.188641</v>
+        <v>0.185849</v>
       </c>
       <c r="C73" t="n">
-        <v>0.181003</v>
+        <v>0.185125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234988</v>
+        <v>0.232591</v>
       </c>
       <c r="E73" t="n">
-        <v>0.165083</v>
+        <v>0.164687</v>
       </c>
       <c r="F73" t="n">
-        <v>0.167085</v>
+        <v>0.167536</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.193932</v>
+        <v>0.189354</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183262</v>
+        <v>0.182552</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242507</v>
+        <v>0.241079</v>
       </c>
       <c r="E74" t="n">
-        <v>0.165888</v>
+        <v>0.165812</v>
       </c>
       <c r="F74" t="n">
-        <v>0.168669</v>
+        <v>0.169091</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189915</v>
+        <v>0.189031</v>
       </c>
       <c r="C75" t="n">
-        <v>0.184458</v>
+        <v>0.184208</v>
       </c>
       <c r="D75" t="n">
-        <v>0.252056</v>
+        <v>0.250865</v>
       </c>
       <c r="E75" t="n">
-        <v>0.167013</v>
+        <v>0.16741</v>
       </c>
       <c r="F75" t="n">
-        <v>0.170741</v>
+        <v>0.171595</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19122</v>
+        <v>0.190496</v>
       </c>
       <c r="C76" t="n">
-        <v>0.191728</v>
+        <v>0.188804</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261947</v>
+        <v>0.260973</v>
       </c>
       <c r="E76" t="n">
-        <v>0.16894</v>
+        <v>0.168567</v>
       </c>
       <c r="F76" t="n">
-        <v>0.172694</v>
+        <v>0.172525</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19938</v>
+        <v>0.195938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.191743</v>
+        <v>0.19085</v>
       </c>
       <c r="D77" t="n">
-        <v>0.272404</v>
+        <v>0.273793</v>
       </c>
       <c r="E77" t="n">
-        <v>0.171756</v>
+        <v>0.172321</v>
       </c>
       <c r="F77" t="n">
-        <v>0.175853</v>
+        <v>0.176674</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200676</v>
+        <v>0.200522</v>
       </c>
       <c r="C78" t="n">
-        <v>0.196589</v>
+        <v>0.201739</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224051</v>
+        <v>0.224532</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175416</v>
+        <v>0.175923</v>
       </c>
       <c r="F78" t="n">
-        <v>0.180194</v>
+        <v>0.18053</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.205825</v>
+        <v>0.208578</v>
       </c>
       <c r="C79" t="n">
-        <v>0.212787</v>
+        <v>0.208262</v>
       </c>
       <c r="D79" t="n">
-        <v>0.235255</v>
+        <v>0.234724</v>
       </c>
       <c r="E79" t="n">
-        <v>0.181523</v>
+        <v>0.183087</v>
       </c>
       <c r="F79" t="n">
-        <v>0.188037</v>
+        <v>0.188813</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216529</v>
+        <v>0.212295</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212633</v>
+        <v>0.212566</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242988</v>
+        <v>0.245376</v>
       </c>
       <c r="E80" t="n">
-        <v>0.241276</v>
+        <v>0.240238</v>
       </c>
       <c r="F80" t="n">
-        <v>0.173746</v>
+        <v>0.173469</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362789</v>
+        <v>0.359891</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183199</v>
+        <v>0.182045</v>
       </c>
       <c r="D81" t="n">
-        <v>0.255905</v>
+        <v>0.258296</v>
       </c>
       <c r="E81" t="n">
-        <v>0.243586</v>
+        <v>0.242063</v>
       </c>
       <c r="F81" t="n">
-        <v>0.174056</v>
+        <v>0.174532</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.364187</v>
+        <v>0.361085</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183765</v>
+        <v>0.182713</v>
       </c>
       <c r="D82" t="n">
-        <v>0.270637</v>
+        <v>0.271936</v>
       </c>
       <c r="E82" t="n">
-        <v>0.241846</v>
+        <v>0.243288</v>
       </c>
       <c r="F82" t="n">
-        <v>0.175542</v>
+        <v>0.175281</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.358777</v>
+        <v>0.362321</v>
       </c>
       <c r="C83" t="n">
-        <v>0.185302</v>
+        <v>0.183881</v>
       </c>
       <c r="D83" t="n">
-        <v>0.282796</v>
+        <v>0.284177</v>
       </c>
       <c r="E83" t="n">
-        <v>0.240451</v>
+        <v>0.243316</v>
       </c>
       <c r="F83" t="n">
-        <v>0.176629</v>
+        <v>0.176984</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.360949</v>
+        <v>0.368154</v>
       </c>
       <c r="C84" t="n">
-        <v>0.185881</v>
+        <v>0.184828</v>
       </c>
       <c r="D84" t="n">
-        <v>0.296938</v>
+        <v>0.298603</v>
       </c>
       <c r="E84" t="n">
-        <v>0.243931</v>
+        <v>0.243539</v>
       </c>
       <c r="F84" t="n">
-        <v>0.176997</v>
+        <v>0.177838</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.36238</v>
+        <v>0.36532</v>
       </c>
       <c r="C85" t="n">
-        <v>0.185274</v>
+        <v>0.186015</v>
       </c>
       <c r="D85" t="n">
-        <v>0.311879</v>
+        <v>0.315679</v>
       </c>
       <c r="E85" t="n">
-        <v>0.244301</v>
+        <v>0.242929</v>
       </c>
       <c r="F85" t="n">
-        <v>0.178056</v>
+        <v>0.178426</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.36475</v>
+        <v>0.366594</v>
       </c>
       <c r="C86" t="n">
-        <v>0.187643</v>
+        <v>0.187503</v>
       </c>
       <c r="D86" t="n">
-        <v>0.327197</v>
+        <v>0.329165</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241062</v>
+        <v>0.241503</v>
       </c>
       <c r="F86" t="n">
-        <v>0.179811</v>
+        <v>0.180168</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.367826</v>
+        <v>0.368013</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188832</v>
+        <v>0.191644</v>
       </c>
       <c r="D87" t="n">
-        <v>0.342844</v>
+        <v>0.345265</v>
       </c>
       <c r="E87" t="n">
-        <v>0.240385</v>
+        <v>0.24128</v>
       </c>
       <c r="F87" t="n">
-        <v>0.18163</v>
+        <v>0.183505</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.368026</v>
+        <v>0.369578</v>
       </c>
       <c r="C88" t="n">
-        <v>0.192483</v>
+        <v>0.192142</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360309</v>
+        <v>0.362191</v>
       </c>
       <c r="E88" t="n">
-        <v>0.238107</v>
+        <v>0.240434</v>
       </c>
       <c r="F88" t="n">
-        <v>0.184641</v>
+        <v>0.184539</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.366331</v>
+        <v>0.368497</v>
       </c>
       <c r="C89" t="n">
-        <v>0.195596</v>
+        <v>0.194536</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375639</v>
+        <v>0.377017</v>
       </c>
       <c r="E89" t="n">
-        <v>0.236897</v>
+        <v>0.237769</v>
       </c>
       <c r="F89" t="n">
-        <v>0.186089</v>
+        <v>0.186866</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.370763</v>
+        <v>0.376974</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197296</v>
+        <v>0.198636</v>
       </c>
       <c r="D90" t="n">
-        <v>0.391938</v>
+        <v>0.393775</v>
       </c>
       <c r="E90" t="n">
-        <v>0.238033</v>
+        <v>0.237597</v>
       </c>
       <c r="F90" t="n">
-        <v>0.189427</v>
+        <v>0.190231</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.370038</v>
+        <v>0.374799</v>
       </c>
       <c r="C91" t="n">
-        <v>0.206713</v>
+        <v>0.202506</v>
       </c>
       <c r="D91" t="n">
-        <v>0.406902</v>
+        <v>0.409561</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237108</v>
+        <v>0.238064</v>
       </c>
       <c r="F91" t="n">
-        <v>0.193641</v>
+        <v>0.195452</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.375516</v>
+        <v>0.378196</v>
       </c>
       <c r="C92" t="n">
-        <v>0.217179</v>
+        <v>0.208036</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356291</v>
+        <v>0.359518</v>
       </c>
       <c r="E92" t="n">
-        <v>0.23831</v>
+        <v>0.23934</v>
       </c>
       <c r="F92" t="n">
-        <v>0.199054</v>
+        <v>0.199911</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.379597</v>
+        <v>0.379721</v>
       </c>
       <c r="C93" t="n">
-        <v>0.216079</v>
+        <v>0.21822</v>
       </c>
       <c r="D93" t="n">
-        <v>0.369259</v>
+        <v>0.370007</v>
       </c>
       <c r="E93" t="n">
-        <v>0.24291</v>
+        <v>0.243289</v>
       </c>
       <c r="F93" t="n">
-        <v>0.207597</v>
+        <v>0.20846</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.385459</v>
+        <v>0.390235</v>
       </c>
       <c r="C94" t="n">
-        <v>0.227522</v>
+        <v>0.237225</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378006</v>
+        <v>0.377128</v>
       </c>
       <c r="E94" t="n">
-        <v>0.398326</v>
+        <v>0.401219</v>
       </c>
       <c r="F94" t="n">
-        <v>0.264927</v>
+        <v>0.264505</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5267039999999999</v>
+        <v>0.527415</v>
       </c>
       <c r="C95" t="n">
-        <v>0.294529</v>
+        <v>0.294396</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394463</v>
+        <v>0.394281</v>
       </c>
       <c r="E95" t="n">
-        <v>0.398629</v>
+        <v>0.39938</v>
       </c>
       <c r="F95" t="n">
-        <v>0.262836</v>
+        <v>0.270275</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.527733</v>
+        <v>0.527485</v>
       </c>
       <c r="C96" t="n">
-        <v>0.299858</v>
+        <v>0.29417</v>
       </c>
       <c r="D96" t="n">
-        <v>0.411862</v>
+        <v>0.408839</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398033</v>
+        <v>0.39898</v>
       </c>
       <c r="F96" t="n">
-        <v>0.262684</v>
+        <v>0.266701</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.526954</v>
+        <v>0.528166</v>
       </c>
       <c r="C97" t="n">
-        <v>0.294803</v>
+        <v>0.297486</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419844</v>
+        <v>0.419543</v>
       </c>
       <c r="E97" t="n">
-        <v>0.397041</v>
+        <v>0.399294</v>
       </c>
       <c r="F97" t="n">
-        <v>0.270075</v>
+        <v>0.268597</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.527605</v>
+        <v>0.528836</v>
       </c>
       <c r="C98" t="n">
-        <v>0.294608</v>
+        <v>0.293959</v>
       </c>
       <c r="D98" t="n">
-        <v>0.433547</v>
+        <v>0.433279</v>
       </c>
       <c r="E98" t="n">
-        <v>0.398863</v>
+        <v>0.398937</v>
       </c>
       <c r="F98" t="n">
-        <v>0.269984</v>
+        <v>0.268279</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5288119999999999</v>
+        <v>0.528074</v>
       </c>
       <c r="C99" t="n">
-        <v>0.301506</v>
+        <v>0.298225</v>
       </c>
       <c r="D99" t="n">
-        <v>0.45023</v>
+        <v>0.450485</v>
       </c>
       <c r="E99" t="n">
-        <v>0.398116</v>
+        <v>0.398566</v>
       </c>
       <c r="F99" t="n">
-        <v>0.27501</v>
+        <v>0.272039</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.530737</v>
+        <v>0.5318889999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.304283</v>
+        <v>0.300615</v>
       </c>
       <c r="D100" t="n">
-        <v>0.461713</v>
+        <v>0.462565</v>
       </c>
       <c r="E100" t="n">
-        <v>0.397693</v>
+        <v>0.398428</v>
       </c>
       <c r="F100" t="n">
-        <v>0.268089</v>
+        <v>0.270305</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.530618</v>
+        <v>0.531196</v>
       </c>
       <c r="C101" t="n">
-        <v>0.30117</v>
+        <v>0.30303</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477605</v>
+        <v>0.477065</v>
       </c>
       <c r="E101" t="n">
-        <v>0.396916</v>
+        <v>0.400227</v>
       </c>
       <c r="F101" t="n">
-        <v>0.271641</v>
+        <v>0.275768</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.531482</v>
+        <v>0.5331090000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302919</v>
+        <v>0.309063</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495369</v>
+        <v>0.495936</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397246</v>
+        <v>0.39864</v>
       </c>
       <c r="F102" t="n">
-        <v>0.276441</v>
+        <v>0.277516</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.532178</v>
+        <v>0.534164</v>
       </c>
       <c r="C103" t="n">
-        <v>0.305969</v>
+        <v>0.304312</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514229</v>
+        <v>0.514225</v>
       </c>
       <c r="E103" t="n">
-        <v>0.398445</v>
+        <v>0.401047</v>
       </c>
       <c r="F103" t="n">
-        <v>0.278542</v>
+        <v>0.278263</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.535825</v>
+        <v>0.536365</v>
       </c>
       <c r="C104" t="n">
-        <v>0.309989</v>
+        <v>0.308595</v>
       </c>
       <c r="D104" t="n">
-        <v>0.530179</v>
+        <v>0.529411</v>
       </c>
       <c r="E104" t="n">
-        <v>0.399179</v>
+        <v>0.401032</v>
       </c>
       <c r="F104" t="n">
-        <v>0.278859</v>
+        <v>0.280119</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.538584</v>
+        <v>0.539161</v>
       </c>
       <c r="C105" t="n">
-        <v>0.313375</v>
+        <v>0.312445</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5444</v>
+        <v>0.545184</v>
       </c>
       <c r="E105" t="n">
-        <v>0.401504</v>
+        <v>0.402759</v>
       </c>
       <c r="F105" t="n">
-        <v>0.281423</v>
+        <v>0.286599</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.54236</v>
+        <v>0.543857</v>
       </c>
       <c r="C106" t="n">
-        <v>0.319566</v>
+        <v>0.318805</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5623590000000001</v>
+        <v>0.563658</v>
       </c>
       <c r="E106" t="n">
-        <v>0.405524</v>
+        <v>0.407915</v>
       </c>
       <c r="F106" t="n">
-        <v>0.288071</v>
+        <v>0.285592</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.547531</v>
+        <v>0.548592</v>
       </c>
       <c r="C107" t="n">
-        <v>0.32632</v>
+        <v>0.326977</v>
       </c>
       <c r="D107" t="n">
-        <v>0.530318</v>
+        <v>0.5320780000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.412471</v>
+        <v>0.412435</v>
       </c>
       <c r="F107" t="n">
-        <v>0.292521</v>
+        <v>0.293469</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.55364</v>
+        <v>0.555042</v>
       </c>
       <c r="C108" t="n">
-        <v>0.336138</v>
+        <v>0.345154</v>
       </c>
       <c r="D108" t="n">
-        <v>0.543589</v>
+        <v>0.544768</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533372</v>
+        <v>0.535721</v>
       </c>
       <c r="F108" t="n">
-        <v>0.484361</v>
+        <v>0.484679</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.56643</v>
+        <v>0.568132</v>
       </c>
       <c r="C109" t="n">
-        <v>0.354482</v>
+        <v>0.34981</v>
       </c>
       <c r="D109" t="n">
-        <v>0.549605</v>
+        <v>0.551943</v>
       </c>
       <c r="E109" t="n">
-        <v>0.533261</v>
+        <v>0.53315</v>
       </c>
       <c r="F109" t="n">
-        <v>0.485356</v>
+        <v>0.486916</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.601508</v>
+        <v>0.603421</v>
       </c>
       <c r="C110" t="n">
-        <v>0.524791</v>
+        <v>0.527886</v>
       </c>
       <c r="D110" t="n">
-        <v>0.56357</v>
+        <v>0.565541</v>
       </c>
       <c r="E110" t="n">
-        <v>0.532096</v>
+        <v>0.533918</v>
       </c>
       <c r="F110" t="n">
-        <v>0.485581</v>
+        <v>0.485568</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.603187</v>
+        <v>0.604285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.525715</v>
+        <v>0.529386</v>
       </c>
       <c r="D111" t="n">
-        <v>0.579047</v>
+        <v>0.580233</v>
       </c>
       <c r="E111" t="n">
-        <v>0.533978</v>
+        <v>0.535379</v>
       </c>
       <c r="F111" t="n">
-        <v>0.485734</v>
+        <v>0.485943</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.603992</v>
+        <v>0.60638</v>
       </c>
       <c r="C112" t="n">
-        <v>0.525945</v>
+        <v>0.531897</v>
       </c>
       <c r="D112" t="n">
-        <v>0.588052</v>
+        <v>0.592023</v>
       </c>
       <c r="E112" t="n">
-        <v>0.534169</v>
+        <v>0.536195</v>
       </c>
       <c r="F112" t="n">
-        <v>0.490167</v>
+        <v>0.487753</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.605021</v>
+        <v>0.607138</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5273640000000001</v>
+        <v>0.531011</v>
       </c>
       <c r="D113" t="n">
-        <v>0.603689</v>
+        <v>0.605912</v>
       </c>
       <c r="E113" t="n">
-        <v>0.533978</v>
+        <v>0.539126</v>
       </c>
       <c r="F113" t="n">
-        <v>0.490731</v>
+        <v>0.489192</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.607558</v>
+        <v>0.608854</v>
       </c>
       <c r="C114" t="n">
-        <v>0.528356</v>
+        <v>0.531362</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617947</v>
+        <v>0.621391</v>
       </c>
       <c r="E114" t="n">
-        <v>0.534199</v>
+        <v>0.53707</v>
       </c>
       <c r="F114" t="n">
-        <v>0.489432</v>
+        <v>0.490845</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.60594</v>
+        <v>0.608025</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5311090000000001</v>
+        <v>0.532267</v>
       </c>
       <c r="D115" t="n">
-        <v>0.635163</v>
+        <v>0.636116</v>
       </c>
       <c r="E115" t="n">
-        <v>0.537128</v>
+        <v>0.539485</v>
       </c>
       <c r="F115" t="n">
-        <v>0.49139</v>
+        <v>0.493488</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6097</v>
+        <v>0.612409</v>
       </c>
       <c r="C116" t="n">
-        <v>0.53456</v>
+        <v>0.536439</v>
       </c>
       <c r="D116" t="n">
-        <v>0.648447</v>
+        <v>0.649556</v>
       </c>
       <c r="E116" t="n">
-        <v>0.537972</v>
+        <v>0.541264</v>
       </c>
       <c r="F116" t="n">
-        <v>0.496761</v>
+        <v>0.498704</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.615299</v>
+        <v>0.615287</v>
       </c>
       <c r="C117" t="n">
-        <v>0.535725</v>
+        <v>0.538451</v>
       </c>
       <c r="D117" t="n">
-        <v>0.668804</v>
+        <v>0.671064</v>
       </c>
       <c r="E117" t="n">
-        <v>0.540279</v>
+        <v>0.541183</v>
       </c>
       <c r="F117" t="n">
-        <v>0.494307</v>
+        <v>0.496498</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.614714</v>
+        <v>0.617717</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5368309999999999</v>
+        <v>0.541855</v>
       </c>
       <c r="D118" t="n">
-        <v>0.677011</v>
+        <v>0.680938</v>
       </c>
       <c r="E118" t="n">
-        <v>0.540801</v>
+        <v>0.542515</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5000830000000001</v>
+        <v>0.499401</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.619221</v>
+        <v>0.622518</v>
       </c>
       <c r="C119" t="n">
-        <v>0.544328</v>
+        <v>0.546384</v>
       </c>
       <c r="D119" t="n">
-        <v>0.699767</v>
+        <v>0.7014049999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.547001</v>
+        <v>0.544472</v>
       </c>
       <c r="F119" t="n">
-        <v>0.50227</v>
+        <v>0.504486</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.624638</v>
+        <v>0.625922</v>
       </c>
       <c r="C120" t="n">
-        <v>0.551789</v>
+        <v>0.551575</v>
       </c>
       <c r="D120" t="n">
-        <v>0.719284</v>
+        <v>0.722499</v>
       </c>
       <c r="E120" t="n">
-        <v>0.548753</v>
+        <v>0.551414</v>
       </c>
       <c r="F120" t="n">
-        <v>0.507188</v>
+        <v>0.50903</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6317120000000001</v>
+        <v>0.633451</v>
       </c>
       <c r="C121" t="n">
-        <v>0.555315</v>
+        <v>0.55768</v>
       </c>
       <c r="D121" t="n">
-        <v>0.634822</v>
+        <v>0.637776</v>
       </c>
       <c r="E121" t="n">
-        <v>0.556383</v>
+        <v>0.5546219999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>0.512449</v>
+        <v>0.512806</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.638023</v>
+        <v>0.639446</v>
       </c>
       <c r="C122" t="n">
-        <v>0.56514</v>
+        <v>0.569319</v>
       </c>
       <c r="D122" t="n">
-        <v>0.645831</v>
+        <v>0.649062</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5614980000000001</v>
+        <v>0.56485</v>
       </c>
       <c r="F122" t="n">
-        <v>0.52441</v>
+        <v>0.5226730000000001</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.650694</v>
+        <v>0.65266</v>
       </c>
       <c r="C123" t="n">
-        <v>0.582798</v>
+        <v>0.585963</v>
       </c>
       <c r="D123" t="n">
-        <v>0.659015</v>
+        <v>0.661914</v>
       </c>
       <c r="E123" t="n">
-        <v>0.691184</v>
+        <v>0.693794</v>
       </c>
       <c r="F123" t="n">
-        <v>0.699281</v>
+        <v>0.703236</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.740228</v>
+        <v>0.745737</v>
       </c>
       <c r="C124" t="n">
-        <v>0.735464</v>
+        <v>0.736515</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671053</v>
+        <v>0.673563</v>
       </c>
       <c r="E124" t="n">
-        <v>0.691179</v>
+        <v>0.694277</v>
       </c>
       <c r="F124" t="n">
-        <v>0.701036</v>
+        <v>0.704189</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.741879</v>
+        <v>0.745139</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7353690000000001</v>
+        <v>0.74021</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682159</v>
+        <v>0.685205</v>
       </c>
       <c r="E125" t="n">
-        <v>0.690843</v>
+        <v>0.69469</v>
       </c>
       <c r="F125" t="n">
-        <v>0.700643</v>
+        <v>0.7047639999999999</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.744619</v>
+        <v>0.744771</v>
       </c>
       <c r="C126" t="n">
-        <v>0.73848</v>
+        <v>0.74038</v>
       </c>
       <c r="D126" t="n">
-        <v>0.696773</v>
+        <v>0.6996599999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.690963</v>
+        <v>0.695674</v>
       </c>
       <c r="F126" t="n">
-        <v>0.704449</v>
+        <v>0.7057369999999999</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.743978</v>
+        <v>0.745555</v>
       </c>
       <c r="C127" t="n">
-        <v>0.738837</v>
+        <v>0.743579</v>
       </c>
       <c r="D127" t="n">
-        <v>0.712963</v>
+        <v>0.715322</v>
       </c>
       <c r="E127" t="n">
-        <v>0.692882</v>
+        <v>0.697083</v>
       </c>
       <c r="F127" t="n">
-        <v>0.703546</v>
+        <v>0.708047</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.742752</v>
+        <v>0.7473919999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.739296</v>
+        <v>0.744259</v>
       </c>
       <c r="D128" t="n">
-        <v>0.72604</v>
+        <v>0.729942</v>
       </c>
       <c r="E128" t="n">
-        <v>0.694605</v>
+        <v>0.695465</v>
       </c>
       <c r="F128" t="n">
-        <v>0.706041</v>
+        <v>0.708992</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746269</v>
+        <v>0.748261</v>
       </c>
       <c r="C129" t="n">
-        <v>0.743055</v>
+        <v>0.747468</v>
       </c>
       <c r="D129" t="n">
-        <v>0.740567</v>
+        <v>0.74382</v>
       </c>
       <c r="E129" t="n">
-        <v>0.696165</v>
+        <v>0.698395</v>
       </c>
       <c r="F129" t="n">
-        <v>0.707748</v>
+        <v>0.71104</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.746642</v>
+        <v>0.750306</v>
       </c>
       <c r="C130" t="n">
-        <v>0.743768</v>
+        <v>0.74875</v>
       </c>
       <c r="D130" t="n">
-        <v>0.754072</v>
+        <v>0.7572680000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.698346</v>
+        <v>0.698966</v>
       </c>
       <c r="F130" t="n">
-        <v>0.709266</v>
+        <v>0.713006</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748596</v>
+        <v>0.751905</v>
       </c>
       <c r="C131" t="n">
-        <v>0.748304</v>
+        <v>0.750722</v>
       </c>
       <c r="D131" t="n">
-        <v>0.771169</v>
+        <v>0.773935</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6986790000000001</v>
+        <v>0.7002119999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>0.713277</v>
+        <v>0.713579</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751015</v>
+        <v>0.755224</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7509980000000001</v>
+        <v>0.754667</v>
       </c>
       <c r="D132" t="n">
-        <v>0.785543</v>
+        <v>0.788434</v>
       </c>
       <c r="E132" t="n">
-        <v>0.702242</v>
+        <v>0.702883</v>
       </c>
       <c r="F132" t="n">
-        <v>0.714969</v>
+        <v>0.717656</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.75598</v>
+        <v>0.756911</v>
       </c>
       <c r="C133" t="n">
-        <v>0.756452</v>
+        <v>0.75898</v>
       </c>
       <c r="D133" t="n">
-        <v>0.803196</v>
+        <v>0.806017</v>
       </c>
       <c r="E133" t="n">
-        <v>0.705243</v>
+        <v>0.706788</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7193310000000001</v>
+        <v>0.721526</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761616</v>
+        <v>0.765815</v>
       </c>
       <c r="C134" t="n">
-        <v>0.762025</v>
+        <v>0.764642</v>
       </c>
       <c r="D134" t="n">
-        <v>0.817519</v>
+        <v>0.82041</v>
       </c>
       <c r="E134" t="n">
-        <v>0.706705</v>
+        <v>0.709835</v>
       </c>
       <c r="F134" t="n">
-        <v>0.725599</v>
+        <v>0.727971</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.766222</v>
+        <v>0.770124</v>
       </c>
       <c r="C135" t="n">
-        <v>0.770447</v>
+        <v>0.77352</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690157</v>
+        <v>0.692935</v>
       </c>
       <c r="E135" t="n">
-        <v>0.714122</v>
+        <v>0.717191</v>
       </c>
       <c r="F135" t="n">
-        <v>0.73239</v>
+        <v>0.735397</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.777233</v>
+        <v>0.778175</v>
       </c>
       <c r="C136" t="n">
-        <v>0.781622</v>
+        <v>0.78255</v>
       </c>
       <c r="D136" t="n">
-        <v>0.700614</v>
+        <v>0.703366</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7216089999999999</v>
+        <v>0.723033</v>
       </c>
       <c r="F136" t="n">
-        <v>0.743069</v>
+        <v>0.746441</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.788952</v>
+        <v>0.791621</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7959850000000001</v>
+        <v>0.799019</v>
       </c>
       <c r="D137" t="n">
-        <v>0.711303</v>
+        <v>0.714274</v>
       </c>
       <c r="E137" t="n">
-        <v>0.825669</v>
+        <v>0.828501</v>
       </c>
       <c r="F137" t="n">
-        <v>0.832013</v>
+        <v>0.835449</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864899</v>
+        <v>0.871179</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862141</v>
+        <v>0.867482</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7237440000000001</v>
+        <v>0.726307</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825147</v>
+        <v>0.829842</v>
       </c>
       <c r="F138" t="n">
-        <v>0.832404</v>
+        <v>0.837008</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864543</v>
+        <v>0.872935</v>
       </c>
       <c r="C139" t="n">
-        <v>0.864523</v>
+        <v>0.869011</v>
       </c>
       <c r="D139" t="n">
-        <v>0.735368</v>
+        <v>0.73768</v>
       </c>
       <c r="E139" t="n">
-        <v>0.82543</v>
+        <v>0.830167</v>
       </c>
       <c r="F139" t="n">
-        <v>0.834174</v>
+        <v>0.839211</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865428</v>
+        <v>0.870719</v>
       </c>
       <c r="C140" t="n">
-        <v>0.864951</v>
+        <v>0.869444</v>
       </c>
       <c r="D140" t="n">
-        <v>0.748036</v>
+        <v>0.750803</v>
       </c>
       <c r="E140" t="n">
-        <v>0.826601</v>
+        <v>0.832259</v>
       </c>
       <c r="F140" t="n">
-        <v>0.835504</v>
+        <v>0.839174</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.866907</v>
+        <v>0.871905</v>
       </c>
       <c r="C141" t="n">
-        <v>0.867103</v>
+        <v>0.87086</v>
       </c>
       <c r="D141" t="n">
-        <v>0.762055</v>
+        <v>0.765188</v>
       </c>
       <c r="E141" t="n">
-        <v>0.826478</v>
+        <v>0.832345</v>
       </c>
       <c r="F141" t="n">
-        <v>0.836211</v>
+        <v>0.841092</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.865618</v>
+        <v>0.870387</v>
       </c>
       <c r="C142" t="n">
-        <v>0.868517</v>
+        <v>0.8722760000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774263</v>
+        <v>0.777624</v>
       </c>
       <c r="E142" t="n">
-        <v>0.826438</v>
+        <v>0.832807</v>
       </c>
       <c r="F142" t="n">
-        <v>0.838233</v>
+        <v>0.843046</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.868266</v>
+        <v>0.874204</v>
       </c>
       <c r="C143" t="n">
-        <v>0.869911</v>
+        <v>0.87412</v>
       </c>
       <c r="D143" t="n">
-        <v>0.790224</v>
+        <v>0.7931319999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827697</v>
+        <v>0.8336519999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.839697</v>
+        <v>0.844406</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115389</v>
+        <v>0.118832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11312</v>
+        <v>0.112513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.131498</v>
+        <v>0.13281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.108314</v>
+        <v>0.109264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106467</v>
+        <v>0.106386</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117315</v>
+        <v>0.120453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114875</v>
+        <v>0.113731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140008</v>
+        <v>0.142031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.108248</v>
+        <v>0.109973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10668</v>
+        <v>0.10634</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117678</v>
+        <v>0.120534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.123565</v>
+        <v>0.114943</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145816</v>
+        <v>0.147709</v>
       </c>
       <c r="E4" t="n">
-        <v>0.108642</v>
+        <v>0.11056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.106932</v>
+        <v>0.106643</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.119093</v>
+        <v>0.121791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.117829</v>
+        <v>0.115827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.153721</v>
+        <v>0.155161</v>
       </c>
       <c r="E5" t="n">
-        <v>0.109009</v>
+        <v>0.110642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.107458</v>
+        <v>0.106969</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.121432</v>
+        <v>0.123821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.131177</v>
+        <v>0.119735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16088</v>
+        <v>0.162299</v>
       </c>
       <c r="E6" t="n">
-        <v>0.109595</v>
+        <v>0.110728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.108091</v>
+        <v>0.10796</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.124085</v>
+        <v>0.126841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.134245</v>
+        <v>0.121837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.128034</v>
+        <v>0.131293</v>
       </c>
       <c r="E7" t="n">
-        <v>0.110226</v>
+        <v>0.112104</v>
       </c>
       <c r="F7" t="n">
-        <v>0.109276</v>
+        <v>0.108927</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.129141</v>
+        <v>0.132313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.135917</v>
+        <v>0.12732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.130722</v>
+        <v>0.134246</v>
       </c>
       <c r="E8" t="n">
-        <v>0.111773</v>
+        <v>0.114218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.111201</v>
+        <v>0.110889</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.139604</v>
+        <v>0.142131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.145158</v>
+        <v>0.137522</v>
       </c>
       <c r="D9" t="n">
-        <v>0.135917</v>
+        <v>0.13874</v>
       </c>
       <c r="E9" t="n">
-        <v>0.11355</v>
+        <v>0.114687</v>
       </c>
       <c r="F9" t="n">
-        <v>0.109061</v>
+        <v>0.111292</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.125217</v>
+        <v>0.12698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.117727</v>
+        <v>0.119448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140029</v>
+        <v>0.142632</v>
       </c>
       <c r="E10" t="n">
-        <v>0.113954</v>
+        <v>0.114235</v>
       </c>
       <c r="F10" t="n">
-        <v>0.10869</v>
+        <v>0.112088</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125043</v>
+        <v>0.126775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123326</v>
+        <v>0.119852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.144822</v>
+        <v>0.147823</v>
       </c>
       <c r="E11" t="n">
-        <v>0.114396</v>
+        <v>0.114471</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110003</v>
+        <v>0.112354</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.127513</v>
+        <v>0.125356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.117687</v>
+        <v>0.120894</v>
       </c>
       <c r="D12" t="n">
-        <v>0.149889</v>
+        <v>0.152787</v>
       </c>
       <c r="E12" t="n">
-        <v>0.114197</v>
+        <v>0.114596</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110692</v>
+        <v>0.112564</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.127099</v>
+        <v>0.124719</v>
       </c>
       <c r="C13" t="n">
-        <v>0.126118</v>
+        <v>0.121545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.154814</v>
+        <v>0.158599</v>
       </c>
       <c r="E13" t="n">
-        <v>0.114505</v>
+        <v>0.114609</v>
       </c>
       <c r="F13" t="n">
-        <v>0.111779</v>
+        <v>0.112178</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128019</v>
+        <v>0.125318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.126682</v>
+        <v>0.12222</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160896</v>
+        <v>0.164663</v>
       </c>
       <c r="E14" t="n">
-        <v>0.114789</v>
+        <v>0.115213</v>
       </c>
       <c r="F14" t="n">
-        <v>0.112019</v>
+        <v>0.112497</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126376</v>
+        <v>0.125995</v>
       </c>
       <c r="C15" t="n">
-        <v>0.121293</v>
+        <v>0.123534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167216</v>
+        <v>0.171751</v>
       </c>
       <c r="E15" t="n">
-        <v>0.114629</v>
+        <v>0.115153</v>
       </c>
       <c r="F15" t="n">
-        <v>0.109976</v>
+        <v>0.112031</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.133517</v>
+        <v>0.127165</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122035</v>
+        <v>0.121401</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173888</v>
+        <v>0.177591</v>
       </c>
       <c r="E16" t="n">
-        <v>0.11538</v>
+        <v>0.115129</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111825</v>
+        <v>0.113136</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129454</v>
+        <v>0.128332</v>
       </c>
       <c r="C17" t="n">
-        <v>0.121271</v>
+        <v>0.122974</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179795</v>
+        <v>0.184801</v>
       </c>
       <c r="E17" t="n">
-        <v>0.114966</v>
+        <v>0.115394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.113048</v>
+        <v>0.112951</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129394</v>
+        <v>0.129025</v>
       </c>
       <c r="C18" t="n">
-        <v>0.125411</v>
+        <v>0.12627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.186071</v>
+        <v>0.189779</v>
       </c>
       <c r="E18" t="n">
-        <v>0.115379</v>
+        <v>0.115977</v>
       </c>
       <c r="F18" t="n">
-        <v>0.110731</v>
+        <v>0.109718</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.132242</v>
+        <v>0.131042</v>
       </c>
       <c r="C19" t="n">
-        <v>0.13858</v>
+        <v>0.127079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.190751</v>
+        <v>0.193089</v>
       </c>
       <c r="E19" t="n">
-        <v>0.116518</v>
+        <v>0.116118</v>
       </c>
       <c r="F19" t="n">
-        <v>0.111415</v>
+        <v>0.115336</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.138376</v>
+        <v>0.135399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128119</v>
+        <v>0.130953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19647</v>
+        <v>0.200759</v>
       </c>
       <c r="E20" t="n">
-        <v>0.117086</v>
+        <v>0.116882</v>
       </c>
       <c r="F20" t="n">
-        <v>0.111583</v>
+        <v>0.114081</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.143715</v>
+        <v>0.140039</v>
       </c>
       <c r="C21" t="n">
-        <v>0.134714</v>
+        <v>0.136773</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149074</v>
+        <v>0.150398</v>
       </c>
       <c r="E21" t="n">
-        <v>0.118214</v>
+        <v>0.117829</v>
       </c>
       <c r="F21" t="n">
-        <v>0.113513</v>
+        <v>0.117132</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148434</v>
+        <v>0.147919</v>
       </c>
       <c r="C22" t="n">
-        <v>0.148752</v>
+        <v>0.149922</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153623</v>
+        <v>0.154711</v>
       </c>
       <c r="E22" t="n">
-        <v>0.128139</v>
+        <v>0.121716</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11653</v>
+        <v>0.119216</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.164739</v>
+        <v>0.159217</v>
       </c>
       <c r="C23" t="n">
-        <v>0.158154</v>
+        <v>0.15688</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157452</v>
+        <v>0.158823</v>
       </c>
       <c r="E23" t="n">
-        <v>0.122972</v>
+        <v>0.123538</v>
       </c>
       <c r="F23" t="n">
-        <v>0.122736</v>
+        <v>0.11789</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13604</v>
+        <v>0.138517</v>
       </c>
       <c r="C24" t="n">
-        <v>0.130134</v>
+        <v>0.136183</v>
       </c>
       <c r="D24" t="n">
-        <v>0.163077</v>
+        <v>0.164577</v>
       </c>
       <c r="E24" t="n">
-        <v>0.123763</v>
+        <v>0.12438</v>
       </c>
       <c r="F24" t="n">
-        <v>0.119047</v>
+        <v>0.119649</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134033</v>
+        <v>0.134804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.129753</v>
+        <v>0.128415</v>
       </c>
       <c r="D25" t="n">
-        <v>0.169407</v>
+        <v>0.167628</v>
       </c>
       <c r="E25" t="n">
-        <v>0.124281</v>
+        <v>0.124674</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118287</v>
+        <v>0.117486</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.134667</v>
+        <v>0.135947</v>
       </c>
       <c r="C26" t="n">
-        <v>0.130545</v>
+        <v>0.12822</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172056</v>
+        <v>0.171815</v>
       </c>
       <c r="E26" t="n">
-        <v>0.124398</v>
+        <v>0.12537</v>
       </c>
       <c r="F26" t="n">
-        <v>0.11865</v>
+        <v>0.117646</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.136128</v>
+        <v>0.138076</v>
       </c>
       <c r="C27" t="n">
-        <v>0.128213</v>
+        <v>0.128417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177389</v>
+        <v>0.177698</v>
       </c>
       <c r="E27" t="n">
-        <v>0.124036</v>
+        <v>0.125074</v>
       </c>
       <c r="F27" t="n">
-        <v>0.121192</v>
+        <v>0.121749</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136375</v>
+        <v>0.137209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.141305</v>
+        <v>0.133474</v>
       </c>
       <c r="D28" t="n">
-        <v>0.182952</v>
+        <v>0.183188</v>
       </c>
       <c r="E28" t="n">
-        <v>0.124567</v>
+        <v>0.124649</v>
       </c>
       <c r="F28" t="n">
-        <v>0.124512</v>
+        <v>0.128619</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.137235</v>
+        <v>0.13783</v>
       </c>
       <c r="C29" t="n">
-        <v>0.131519</v>
+        <v>0.13031</v>
       </c>
       <c r="D29" t="n">
-        <v>0.188425</v>
+        <v>0.192347</v>
       </c>
       <c r="E29" t="n">
-        <v>0.124839</v>
+        <v>0.12634</v>
       </c>
       <c r="F29" t="n">
-        <v>0.119013</v>
+        <v>0.119404</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137489</v>
+        <v>0.138948</v>
       </c>
       <c r="C30" t="n">
-        <v>0.137363</v>
+        <v>0.139443</v>
       </c>
       <c r="D30" t="n">
-        <v>0.19355</v>
+        <v>0.193877</v>
       </c>
       <c r="E30" t="n">
-        <v>0.124797</v>
+        <v>0.124946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.123285</v>
+        <v>0.127898</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.138869</v>
+        <v>0.141298</v>
       </c>
       <c r="C31" t="n">
-        <v>0.135476</v>
+        <v>0.143153</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198525</v>
+        <v>0.198448</v>
       </c>
       <c r="E31" t="n">
-        <v>0.124688</v>
+        <v>0.125015</v>
       </c>
       <c r="F31" t="n">
-        <v>0.12389</v>
+        <v>0.123161</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141565</v>
+        <v>0.140961</v>
       </c>
       <c r="C32" t="n">
-        <v>0.137322</v>
+        <v>0.141096</v>
       </c>
       <c r="D32" t="n">
-        <v>0.205281</v>
+        <v>0.204761</v>
       </c>
       <c r="E32" t="n">
-        <v>0.126104</v>
+        <v>0.126136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.12541</v>
+        <v>0.124192</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14532</v>
+        <v>0.144756</v>
       </c>
       <c r="C33" t="n">
-        <v>0.147978</v>
+        <v>0.141463</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209471</v>
+        <v>0.212358</v>
       </c>
       <c r="E33" t="n">
-        <v>0.126301</v>
+        <v>0.126839</v>
       </c>
       <c r="F33" t="n">
-        <v>0.125051</v>
+        <v>0.125159</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.149456</v>
+        <v>0.148463</v>
       </c>
       <c r="C34" t="n">
-        <v>0.153255</v>
+        <v>0.14801</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213169</v>
+        <v>0.217493</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1282</v>
+        <v>0.127195</v>
       </c>
       <c r="F34" t="n">
-        <v>0.125695</v>
+        <v>0.123845</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153556</v>
+        <v>0.152386</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148742</v>
+        <v>0.160396</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165722</v>
+        <v>0.164996</v>
       </c>
       <c r="E35" t="n">
-        <v>0.131933</v>
+        <v>0.132187</v>
       </c>
       <c r="F35" t="n">
-        <v>0.130782</v>
+        <v>0.127444</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159069</v>
+        <v>0.160055</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166836</v>
+        <v>0.165276</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169143</v>
+        <v>0.169404</v>
       </c>
       <c r="E36" t="n">
-        <v>0.139938</v>
+        <v>0.140257</v>
       </c>
       <c r="F36" t="n">
-        <v>0.136847</v>
+        <v>0.135779</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166225</v>
+        <v>0.179517</v>
       </c>
       <c r="C37" t="n">
-        <v>0.165823</v>
+        <v>0.175131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.172951</v>
+        <v>0.173043</v>
       </c>
       <c r="E37" t="n">
-        <v>0.136634</v>
+        <v>0.132835</v>
       </c>
       <c r="F37" t="n">
-        <v>0.14165</v>
+        <v>0.142777</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147966</v>
+        <v>0.14931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.154659</v>
+        <v>0.153834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.178658</v>
+        <v>0.177911</v>
       </c>
       <c r="E38" t="n">
-        <v>0.137097</v>
+        <v>0.136115</v>
       </c>
       <c r="F38" t="n">
-        <v>0.136304</v>
+        <v>0.136233</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147585</v>
+        <v>0.146008</v>
       </c>
       <c r="C39" t="n">
-        <v>0.146551</v>
+        <v>0.147163</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182619</v>
+        <v>0.182173</v>
       </c>
       <c r="E39" t="n">
-        <v>0.136481</v>
+        <v>0.136423</v>
       </c>
       <c r="F39" t="n">
-        <v>0.140583</v>
+        <v>0.137802</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150075</v>
+        <v>0.147368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.158366</v>
+        <v>0.152654</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186814</v>
+        <v>0.186593</v>
       </c>
       <c r="E40" t="n">
-        <v>0.136122</v>
+        <v>0.135013</v>
       </c>
       <c r="F40" t="n">
-        <v>0.138055</v>
+        <v>0.139274</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149111</v>
+        <v>0.15115</v>
       </c>
       <c r="C41" t="n">
-        <v>0.147758</v>
+        <v>0.150401</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191141</v>
+        <v>0.191717</v>
       </c>
       <c r="E41" t="n">
-        <v>0.136403</v>
+        <v>0.136604</v>
       </c>
       <c r="F41" t="n">
-        <v>0.137537</v>
+        <v>0.136805</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146955</v>
+        <v>0.148228</v>
       </c>
       <c r="C42" t="n">
-        <v>0.149847</v>
+        <v>0.152554</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196369</v>
+        <v>0.196124</v>
       </c>
       <c r="E42" t="n">
-        <v>0.136554</v>
+        <v>0.137744</v>
       </c>
       <c r="F42" t="n">
-        <v>0.13842</v>
+        <v>0.136969</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.147141</v>
+        <v>0.151</v>
       </c>
       <c r="C43" t="n">
-        <v>0.148971</v>
+        <v>0.148174</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201432</v>
+        <v>0.201405</v>
       </c>
       <c r="E43" t="n">
-        <v>0.134038</v>
+        <v>0.136761</v>
       </c>
       <c r="F43" t="n">
-        <v>0.139327</v>
+        <v>0.140903</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.150653</v>
+        <v>0.151888</v>
       </c>
       <c r="C44" t="n">
-        <v>0.161421</v>
+        <v>0.149969</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206467</v>
+        <v>0.206014</v>
       </c>
       <c r="E44" t="n">
-        <v>0.13739</v>
+        <v>0.134543</v>
       </c>
       <c r="F44" t="n">
-        <v>0.144368</v>
+        <v>0.139637</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152197</v>
+        <v>0.152873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152647</v>
+        <v>0.1578</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211382</v>
+        <v>0.211724</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138461</v>
+        <v>0.137653</v>
       </c>
       <c r="F45" t="n">
-        <v>0.137946</v>
+        <v>0.139639</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.159106</v>
+        <v>0.153886</v>
       </c>
       <c r="C46" t="n">
-        <v>0.15439</v>
+        <v>0.153315</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216773</v>
+        <v>0.21721</v>
       </c>
       <c r="E46" t="n">
-        <v>0.138732</v>
+        <v>0.135192</v>
       </c>
       <c r="F46" t="n">
-        <v>0.139116</v>
+        <v>0.140754</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159463</v>
+        <v>0.15742</v>
       </c>
       <c r="C47" t="n">
-        <v>0.164877</v>
+        <v>0.157366</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222634</v>
+        <v>0.222641</v>
       </c>
       <c r="E47" t="n">
-        <v>0.140778</v>
+        <v>0.137703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.140478</v>
+        <v>0.142558</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.161129</v>
+        <v>0.160752</v>
       </c>
       <c r="C48" t="n">
-        <v>0.160277</v>
+        <v>0.16016</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22688</v>
+        <v>0.226767</v>
       </c>
       <c r="E48" t="n">
-        <v>0.142925</v>
+        <v>0.144304</v>
       </c>
       <c r="F48" t="n">
-        <v>0.145041</v>
+        <v>0.143636</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.166047</v>
+        <v>0.161779</v>
       </c>
       <c r="C49" t="n">
-        <v>0.165216</v>
+        <v>0.175857</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232009</v>
+        <v>0.232644</v>
       </c>
       <c r="E49" t="n">
-        <v>0.14672</v>
+        <v>0.148531</v>
       </c>
       <c r="F49" t="n">
-        <v>0.153053</v>
+        <v>0.149815</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.170102</v>
+        <v>0.173392</v>
       </c>
       <c r="C50" t="n">
-        <v>0.183458</v>
+        <v>0.17269</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171166</v>
+        <v>0.171377</v>
       </c>
       <c r="E50" t="n">
-        <v>0.151565</v>
+        <v>0.153384</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153197</v>
+        <v>0.155471</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175166</v>
+        <v>0.178105</v>
       </c>
       <c r="C51" t="n">
-        <v>0.180306</v>
+        <v>0.18123</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174871</v>
+        <v>0.175271</v>
       </c>
       <c r="E51" t="n">
-        <v>0.149574</v>
+        <v>0.149443</v>
       </c>
       <c r="F51" t="n">
-        <v>0.15319</v>
+        <v>0.15113</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.184966</v>
+        <v>0.186278</v>
       </c>
       <c r="C52" t="n">
-        <v>0.200474</v>
+        <v>0.190533</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179015</v>
+        <v>0.178534</v>
       </c>
       <c r="E52" t="n">
-        <v>0.149726</v>
+        <v>0.150373</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153502</v>
+        <v>0.151796</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.16097</v>
+        <v>0.159317</v>
       </c>
       <c r="C53" t="n">
-        <v>0.165547</v>
+        <v>0.166286</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183256</v>
+        <v>0.182759</v>
       </c>
       <c r="E53" t="n">
-        <v>0.149994</v>
+        <v>0.149954</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153002</v>
+        <v>0.151644</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.161585</v>
+        <v>0.161465</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166586</v>
+        <v>0.166179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187474</v>
+        <v>0.187101</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150865</v>
+        <v>0.151133</v>
       </c>
       <c r="F54" t="n">
-        <v>0.153747</v>
+        <v>0.151863</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.166102</v>
+        <v>0.161131</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167822</v>
+        <v>0.167356</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192047</v>
+        <v>0.191727</v>
       </c>
       <c r="E55" t="n">
-        <v>0.150922</v>
+        <v>0.151061</v>
       </c>
       <c r="F55" t="n">
-        <v>0.157952</v>
+        <v>0.152596</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.161652</v>
+        <v>0.16272</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167308</v>
+        <v>0.168436</v>
       </c>
       <c r="D56" t="n">
-        <v>0.197121</v>
+        <v>0.197009</v>
       </c>
       <c r="E56" t="n">
-        <v>0.150651</v>
+        <v>0.151523</v>
       </c>
       <c r="F56" t="n">
-        <v>0.153848</v>
+        <v>0.152775</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.163743</v>
+        <v>0.162909</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169703</v>
+        <v>0.169559</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201711</v>
+        <v>0.201869</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151739</v>
+        <v>0.151213</v>
       </c>
       <c r="F57" t="n">
-        <v>0.156858</v>
+        <v>0.152826</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.170362</v>
+        <v>0.164121</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170258</v>
+        <v>0.168962</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207094</v>
+        <v>0.206847</v>
       </c>
       <c r="E58" t="n">
-        <v>0.151508</v>
+        <v>0.151532</v>
       </c>
       <c r="F58" t="n">
-        <v>0.154972</v>
+        <v>0.15357</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165943</v>
+        <v>0.164858</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172887</v>
+        <v>0.171845</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212861</v>
+        <v>0.21208</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152561</v>
+        <v>0.151996</v>
       </c>
       <c r="F59" t="n">
-        <v>0.155461</v>
+        <v>0.154736</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.171142</v>
+        <v>0.166589</v>
       </c>
       <c r="C60" t="n">
-        <v>0.173619</v>
+        <v>0.173305</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217218</v>
+        <v>0.217437</v>
       </c>
       <c r="E60" t="n">
-        <v>0.152741</v>
+        <v>0.153258</v>
       </c>
       <c r="F60" t="n">
-        <v>0.156136</v>
+        <v>0.155801</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.168972</v>
+        <v>0.168967</v>
       </c>
       <c r="C61" t="n">
-        <v>0.176755</v>
+        <v>0.175552</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222944</v>
+        <v>0.222234</v>
       </c>
       <c r="E61" t="n">
-        <v>0.15476</v>
+        <v>0.155065</v>
       </c>
       <c r="F61" t="n">
-        <v>0.158565</v>
+        <v>0.158052</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172194</v>
+        <v>0.17237</v>
       </c>
       <c r="C62" t="n">
-        <v>0.188083</v>
+        <v>0.185512</v>
       </c>
       <c r="D62" t="n">
-        <v>0.227995</v>
+        <v>0.227882</v>
       </c>
       <c r="E62" t="n">
-        <v>0.157698</v>
+        <v>0.157719</v>
       </c>
       <c r="F62" t="n">
-        <v>0.161705</v>
+        <v>0.160719</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.178655</v>
+        <v>0.174303</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183238</v>
+        <v>0.182037</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232459</v>
+        <v>0.233573</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161104</v>
+        <v>0.160861</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1641</v>
+        <v>0.163793</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183692</v>
+        <v>0.179828</v>
       </c>
       <c r="C64" t="n">
-        <v>0.188719</v>
+        <v>0.186708</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176875</v>
+        <v>0.177795</v>
       </c>
       <c r="E64" t="n">
-        <v>0.165667</v>
+        <v>0.164838</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169637</v>
+        <v>0.169312</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193596</v>
+        <v>0.185955</v>
       </c>
       <c r="C65" t="n">
-        <v>0.197198</v>
+        <v>0.194751</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180413</v>
+        <v>0.180558</v>
       </c>
       <c r="E65" t="n">
-        <v>0.171131</v>
+        <v>0.172181</v>
       </c>
       <c r="F65" t="n">
-        <v>0.178449</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196991</v>
+        <v>0.196458</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215976</v>
+        <v>0.216551</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185251</v>
+        <v>0.186489</v>
       </c>
       <c r="E66" t="n">
-        <v>0.161592</v>
+        <v>0.161212</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162668</v>
+        <v>0.162447</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.182223</v>
+        <v>0.18735</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174151</v>
+        <v>0.174585</v>
       </c>
       <c r="D67" t="n">
-        <v>0.191486</v>
+        <v>0.191066</v>
       </c>
       <c r="E67" t="n">
-        <v>0.162553</v>
+        <v>0.162562</v>
       </c>
       <c r="F67" t="n">
-        <v>0.163313</v>
+        <v>0.162766</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.183647</v>
+        <v>0.182302</v>
       </c>
       <c r="C68" t="n">
-        <v>0.17545</v>
+        <v>0.174615</v>
       </c>
       <c r="D68" t="n">
-        <v>0.198006</v>
+        <v>0.198515</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162347</v>
+        <v>0.162342</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162341</v>
+        <v>0.162337</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.182658</v>
+        <v>0.181264</v>
       </c>
       <c r="C69" t="n">
-        <v>0.17605</v>
+        <v>0.175706</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203403</v>
+        <v>0.204327</v>
       </c>
       <c r="E69" t="n">
-        <v>0.163334</v>
+        <v>0.163238</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164357</v>
+        <v>0.163526</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.185543</v>
+        <v>0.181184</v>
       </c>
       <c r="C70" t="n">
-        <v>0.176533</v>
+        <v>0.177184</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209671</v>
+        <v>0.211001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.162963</v>
+        <v>0.163052</v>
       </c>
       <c r="F70" t="n">
-        <v>0.164761</v>
+        <v>0.16441</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.185044</v>
+        <v>0.184814</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177781</v>
+        <v>0.177327</v>
       </c>
       <c r="D71" t="n">
-        <v>0.215624</v>
+        <v>0.217843</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163556</v>
+        <v>0.163643</v>
       </c>
       <c r="F71" t="n">
-        <v>0.165745</v>
+        <v>0.16501</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.18348</v>
+        <v>0.187171</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178587</v>
+        <v>0.178752</v>
       </c>
       <c r="D72" t="n">
-        <v>0.223745</v>
+        <v>0.225774</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164526</v>
+        <v>0.164124</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166818</v>
+        <v>0.165585</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.185849</v>
+        <v>0.189802</v>
       </c>
       <c r="C73" t="n">
-        <v>0.185125</v>
+        <v>0.180304</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232591</v>
+        <v>0.23469</v>
       </c>
       <c r="E73" t="n">
-        <v>0.164687</v>
+        <v>0.165079</v>
       </c>
       <c r="F73" t="n">
-        <v>0.167536</v>
+        <v>0.166323</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.189354</v>
+        <v>0.189248</v>
       </c>
       <c r="C74" t="n">
-        <v>0.182552</v>
+        <v>0.183012</v>
       </c>
       <c r="D74" t="n">
-        <v>0.241079</v>
+        <v>0.245382</v>
       </c>
       <c r="E74" t="n">
-        <v>0.165812</v>
+        <v>0.166264</v>
       </c>
       <c r="F74" t="n">
-        <v>0.169091</v>
+        <v>0.168421</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189031</v>
+        <v>0.195637</v>
       </c>
       <c r="C75" t="n">
-        <v>0.184208</v>
+        <v>0.185671</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250865</v>
+        <v>0.253207</v>
       </c>
       <c r="E75" t="n">
-        <v>0.16741</v>
+        <v>0.167613</v>
       </c>
       <c r="F75" t="n">
-        <v>0.171595</v>
+        <v>0.170485</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.190496</v>
+        <v>0.191154</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188804</v>
+        <v>0.187332</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260973</v>
+        <v>0.262702</v>
       </c>
       <c r="E76" t="n">
-        <v>0.168567</v>
+        <v>0.169886</v>
       </c>
       <c r="F76" t="n">
-        <v>0.172525</v>
+        <v>0.172812</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195938</v>
+        <v>0.197705</v>
       </c>
       <c r="C77" t="n">
-        <v>0.19085</v>
+        <v>0.192532</v>
       </c>
       <c r="D77" t="n">
-        <v>0.273793</v>
+        <v>0.272566</v>
       </c>
       <c r="E77" t="n">
-        <v>0.172321</v>
+        <v>0.171662</v>
       </c>
       <c r="F77" t="n">
-        <v>0.176674</v>
+        <v>0.176005</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.200522</v>
+        <v>0.201534</v>
       </c>
       <c r="C78" t="n">
-        <v>0.201739</v>
+        <v>0.197228</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224532</v>
+        <v>0.222683</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175923</v>
+        <v>0.17568</v>
       </c>
       <c r="F78" t="n">
-        <v>0.18053</v>
+        <v>0.180315</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.208578</v>
+        <v>0.205019</v>
       </c>
       <c r="C79" t="n">
-        <v>0.208262</v>
+        <v>0.203035</v>
       </c>
       <c r="D79" t="n">
-        <v>0.234724</v>
+        <v>0.235448</v>
       </c>
       <c r="E79" t="n">
-        <v>0.183087</v>
+        <v>0.181659</v>
       </c>
       <c r="F79" t="n">
-        <v>0.188813</v>
+        <v>0.187016</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.212295</v>
+        <v>0.211476</v>
       </c>
       <c r="C80" t="n">
-        <v>0.212566</v>
+        <v>0.2121</v>
       </c>
       <c r="D80" t="n">
-        <v>0.245376</v>
+        <v>0.244758</v>
       </c>
       <c r="E80" t="n">
-        <v>0.240238</v>
+        <v>0.240368</v>
       </c>
       <c r="F80" t="n">
-        <v>0.173469</v>
+        <v>0.173265</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.359891</v>
+        <v>0.360032</v>
       </c>
       <c r="C81" t="n">
-        <v>0.182045</v>
+        <v>0.181453</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258296</v>
+        <v>0.258396</v>
       </c>
       <c r="E81" t="n">
-        <v>0.242063</v>
+        <v>0.241666</v>
       </c>
       <c r="F81" t="n">
-        <v>0.174532</v>
+        <v>0.174602</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.361085</v>
+        <v>0.359085</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182713</v>
+        <v>0.182619</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271936</v>
+        <v>0.270219</v>
       </c>
       <c r="E82" t="n">
-        <v>0.243288</v>
+        <v>0.241967</v>
       </c>
       <c r="F82" t="n">
-        <v>0.175281</v>
+        <v>0.175399</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.362321</v>
+        <v>0.359054</v>
       </c>
       <c r="C83" t="n">
-        <v>0.183881</v>
+        <v>0.184935</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284177</v>
+        <v>0.284372</v>
       </c>
       <c r="E83" t="n">
-        <v>0.243316</v>
+        <v>0.239858</v>
       </c>
       <c r="F83" t="n">
-        <v>0.176984</v>
+        <v>0.176682</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.368154</v>
+        <v>0.360483</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184828</v>
+        <v>0.183958</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298603</v>
+        <v>0.298873</v>
       </c>
       <c r="E84" t="n">
-        <v>0.243539</v>
+        <v>0.24296</v>
       </c>
       <c r="F84" t="n">
-        <v>0.177838</v>
+        <v>0.176949</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.36532</v>
+        <v>0.36616</v>
       </c>
       <c r="C85" t="n">
-        <v>0.186015</v>
+        <v>0.185591</v>
       </c>
       <c r="D85" t="n">
-        <v>0.315679</v>
+        <v>0.313901</v>
       </c>
       <c r="E85" t="n">
-        <v>0.242929</v>
+        <v>0.2421</v>
       </c>
       <c r="F85" t="n">
-        <v>0.178426</v>
+        <v>0.178274</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.366594</v>
+        <v>0.366057</v>
       </c>
       <c r="C86" t="n">
-        <v>0.187503</v>
+        <v>0.188203</v>
       </c>
       <c r="D86" t="n">
-        <v>0.329165</v>
+        <v>0.328703</v>
       </c>
       <c r="E86" t="n">
-        <v>0.241503</v>
+        <v>0.241731</v>
       </c>
       <c r="F86" t="n">
-        <v>0.180168</v>
+        <v>0.180565</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.368013</v>
+        <v>0.363121</v>
       </c>
       <c r="C87" t="n">
-        <v>0.191644</v>
+        <v>0.188672</v>
       </c>
       <c r="D87" t="n">
-        <v>0.345265</v>
+        <v>0.343734</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24128</v>
+        <v>0.239114</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183505</v>
+        <v>0.182065</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369578</v>
+        <v>0.370076</v>
       </c>
       <c r="C88" t="n">
-        <v>0.192142</v>
+        <v>0.191516</v>
       </c>
       <c r="D88" t="n">
-        <v>0.362191</v>
+        <v>0.360797</v>
       </c>
       <c r="E88" t="n">
-        <v>0.240434</v>
+        <v>0.239204</v>
       </c>
       <c r="F88" t="n">
-        <v>0.184539</v>
+        <v>0.183861</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.368497</v>
+        <v>0.364913</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194536</v>
+        <v>0.194156</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377017</v>
+        <v>0.375714</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237769</v>
+        <v>0.240022</v>
       </c>
       <c r="F89" t="n">
-        <v>0.186866</v>
+        <v>0.186791</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.376974</v>
+        <v>0.366619</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198636</v>
+        <v>0.198674</v>
       </c>
       <c r="D90" t="n">
-        <v>0.393775</v>
+        <v>0.392762</v>
       </c>
       <c r="E90" t="n">
-        <v>0.237597</v>
+        <v>0.236941</v>
       </c>
       <c r="F90" t="n">
-        <v>0.190231</v>
+        <v>0.189686</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.374799</v>
+        <v>0.373674</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202506</v>
+        <v>0.20258</v>
       </c>
       <c r="D91" t="n">
-        <v>0.409561</v>
+        <v>0.40768</v>
       </c>
       <c r="E91" t="n">
-        <v>0.238064</v>
+        <v>0.239953</v>
       </c>
       <c r="F91" t="n">
-        <v>0.195452</v>
+        <v>0.194213</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.378196</v>
+        <v>0.378373</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208036</v>
+        <v>0.220212</v>
       </c>
       <c r="D92" t="n">
-        <v>0.359518</v>
+        <v>0.35755</v>
       </c>
       <c r="E92" t="n">
-        <v>0.23934</v>
+        <v>0.240696</v>
       </c>
       <c r="F92" t="n">
-        <v>0.199911</v>
+        <v>0.199368</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.379721</v>
+        <v>0.383313</v>
       </c>
       <c r="C93" t="n">
-        <v>0.21822</v>
+        <v>0.218358</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370007</v>
+        <v>0.370369</v>
       </c>
       <c r="E93" t="n">
-        <v>0.243289</v>
+        <v>0.245044</v>
       </c>
       <c r="F93" t="n">
-        <v>0.20846</v>
+        <v>0.207344</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.390235</v>
+        <v>0.384831</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237225</v>
+        <v>0.237531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.377128</v>
+        <v>0.377008</v>
       </c>
       <c r="E94" t="n">
-        <v>0.401219</v>
+        <v>0.398386</v>
       </c>
       <c r="F94" t="n">
-        <v>0.264505</v>
+        <v>0.263558</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.527415</v>
+        <v>0.526989</v>
       </c>
       <c r="C95" t="n">
-        <v>0.294396</v>
+        <v>0.291479</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394281</v>
+        <v>0.394521</v>
       </c>
       <c r="E95" t="n">
-        <v>0.39938</v>
+        <v>0.40037</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270275</v>
+        <v>0.266056</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.527485</v>
+        <v>0.527275</v>
       </c>
       <c r="C96" t="n">
-        <v>0.29417</v>
+        <v>0.296722</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408839</v>
+        <v>0.407325</v>
       </c>
       <c r="E96" t="n">
-        <v>0.39898</v>
+        <v>0.398102</v>
       </c>
       <c r="F96" t="n">
-        <v>0.266701</v>
+        <v>0.27391</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.528166</v>
+        <v>0.526564</v>
       </c>
       <c r="C97" t="n">
-        <v>0.297486</v>
+        <v>0.298821</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419543</v>
+        <v>0.423391</v>
       </c>
       <c r="E97" t="n">
-        <v>0.399294</v>
+        <v>0.39802</v>
       </c>
       <c r="F97" t="n">
-        <v>0.268597</v>
+        <v>0.263045</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.528836</v>
+        <v>0.527903</v>
       </c>
       <c r="C98" t="n">
-        <v>0.293959</v>
+        <v>0.29751</v>
       </c>
       <c r="D98" t="n">
-        <v>0.433279</v>
+        <v>0.435793</v>
       </c>
       <c r="E98" t="n">
-        <v>0.398937</v>
+        <v>0.397677</v>
       </c>
       <c r="F98" t="n">
-        <v>0.268279</v>
+        <v>0.268043</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.528074</v>
+        <v>0.528078</v>
       </c>
       <c r="C99" t="n">
-        <v>0.298225</v>
+        <v>0.302509</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450485</v>
+        <v>0.451577</v>
       </c>
       <c r="E99" t="n">
-        <v>0.398566</v>
+        <v>0.397811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.272039</v>
+        <v>0.268888</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5318889999999999</v>
+        <v>0.528931</v>
       </c>
       <c r="C100" t="n">
-        <v>0.300615</v>
+        <v>0.315493</v>
       </c>
       <c r="D100" t="n">
-        <v>0.462565</v>
+        <v>0.463221</v>
       </c>
       <c r="E100" t="n">
-        <v>0.398428</v>
+        <v>0.395342</v>
       </c>
       <c r="F100" t="n">
-        <v>0.270305</v>
+        <v>0.268542</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.531196</v>
+        <v>0.530295</v>
       </c>
       <c r="C101" t="n">
-        <v>0.30303</v>
+        <v>0.30107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477065</v>
+        <v>0.476634</v>
       </c>
       <c r="E101" t="n">
-        <v>0.400227</v>
+        <v>0.396239</v>
       </c>
       <c r="F101" t="n">
-        <v>0.275768</v>
+        <v>0.273086</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5331090000000001</v>
+        <v>0.531501</v>
       </c>
       <c r="C102" t="n">
-        <v>0.309063</v>
+        <v>0.301755</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495936</v>
+        <v>0.495844</v>
       </c>
       <c r="E102" t="n">
-        <v>0.39864</v>
+        <v>0.396388</v>
       </c>
       <c r="F102" t="n">
-        <v>0.277516</v>
+        <v>0.272362</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.534164</v>
+        <v>0.53138</v>
       </c>
       <c r="C103" t="n">
-        <v>0.304312</v>
+        <v>0.305004</v>
       </c>
       <c r="D103" t="n">
-        <v>0.514225</v>
+        <v>0.514566</v>
       </c>
       <c r="E103" t="n">
-        <v>0.401047</v>
+        <v>0.39772</v>
       </c>
       <c r="F103" t="n">
-        <v>0.278263</v>
+        <v>0.277347</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.536365</v>
+        <v>0.537438</v>
       </c>
       <c r="C104" t="n">
-        <v>0.308595</v>
+        <v>0.305645</v>
       </c>
       <c r="D104" t="n">
-        <v>0.529411</v>
+        <v>0.527585</v>
       </c>
       <c r="E104" t="n">
-        <v>0.401032</v>
+        <v>0.399222</v>
       </c>
       <c r="F104" t="n">
-        <v>0.280119</v>
+        <v>0.280003</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.539161</v>
+        <v>0.538697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.312445</v>
+        <v>0.309495</v>
       </c>
       <c r="D105" t="n">
-        <v>0.545184</v>
+        <v>0.544466</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402759</v>
+        <v>0.400763</v>
       </c>
       <c r="F105" t="n">
-        <v>0.286599</v>
+        <v>0.282462</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.543857</v>
+        <v>0.542119</v>
       </c>
       <c r="C106" t="n">
-        <v>0.318805</v>
+        <v>0.316135</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563658</v>
+        <v>0.561705</v>
       </c>
       <c r="E106" t="n">
-        <v>0.407915</v>
+        <v>0.404225</v>
       </c>
       <c r="F106" t="n">
-        <v>0.285592</v>
+        <v>0.282745</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.548592</v>
+        <v>0.547293</v>
       </c>
       <c r="C107" t="n">
-        <v>0.326977</v>
+        <v>0.326563</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5320780000000001</v>
+        <v>0.529578</v>
       </c>
       <c r="E107" t="n">
-        <v>0.412435</v>
+        <v>0.4099</v>
       </c>
       <c r="F107" t="n">
-        <v>0.293469</v>
+        <v>0.292036</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.555042</v>
+        <v>0.55369</v>
       </c>
       <c r="C108" t="n">
-        <v>0.345154</v>
+        <v>0.334794</v>
       </c>
       <c r="D108" t="n">
-        <v>0.544768</v>
+        <v>0.542224</v>
       </c>
       <c r="E108" t="n">
-        <v>0.535721</v>
+        <v>0.531764</v>
       </c>
       <c r="F108" t="n">
-        <v>0.484679</v>
+        <v>0.485884</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.568132</v>
+        <v>0.565833</v>
       </c>
       <c r="C109" t="n">
-        <v>0.34981</v>
+        <v>0.351721</v>
       </c>
       <c r="D109" t="n">
-        <v>0.551943</v>
+        <v>0.5481819999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.53315</v>
+        <v>0.531424</v>
       </c>
       <c r="F109" t="n">
-        <v>0.486916</v>
+        <v>0.486426</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.603421</v>
+        <v>0.6011069999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.527886</v>
+        <v>0.525361</v>
       </c>
       <c r="D110" t="n">
-        <v>0.565541</v>
+        <v>0.563133</v>
       </c>
       <c r="E110" t="n">
-        <v>0.533918</v>
+        <v>0.533129</v>
       </c>
       <c r="F110" t="n">
-        <v>0.485568</v>
+        <v>0.487346</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.604285</v>
+        <v>0.603004</v>
       </c>
       <c r="C111" t="n">
-        <v>0.529386</v>
+        <v>0.523013</v>
       </c>
       <c r="D111" t="n">
-        <v>0.580233</v>
+        <v>0.577928</v>
       </c>
       <c r="E111" t="n">
-        <v>0.535379</v>
+        <v>0.533009</v>
       </c>
       <c r="F111" t="n">
-        <v>0.485943</v>
+        <v>0.489452</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.60638</v>
+        <v>0.602966</v>
       </c>
       <c r="C112" t="n">
-        <v>0.531897</v>
+        <v>0.525831</v>
       </c>
       <c r="D112" t="n">
-        <v>0.592023</v>
+        <v>0.587961</v>
       </c>
       <c r="E112" t="n">
-        <v>0.536195</v>
+        <v>0.534918</v>
       </c>
       <c r="F112" t="n">
-        <v>0.487753</v>
+        <v>0.491211</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607138</v>
+        <v>0.605735</v>
       </c>
       <c r="C113" t="n">
-        <v>0.531011</v>
+        <v>0.525149</v>
       </c>
       <c r="D113" t="n">
-        <v>0.605912</v>
+        <v>0.604667</v>
       </c>
       <c r="E113" t="n">
-        <v>0.539126</v>
+        <v>0.535354</v>
       </c>
       <c r="F113" t="n">
-        <v>0.489192</v>
+        <v>0.488503</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608854</v>
+        <v>0.607511</v>
       </c>
       <c r="C114" t="n">
-        <v>0.531362</v>
+        <v>0.527471</v>
       </c>
       <c r="D114" t="n">
-        <v>0.621391</v>
+        <v>0.6181680000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.53707</v>
+        <v>0.533866</v>
       </c>
       <c r="F114" t="n">
-        <v>0.490845</v>
+        <v>0.492074</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608025</v>
+        <v>0.608385</v>
       </c>
       <c r="C115" t="n">
-        <v>0.532267</v>
+        <v>0.528118</v>
       </c>
       <c r="D115" t="n">
-        <v>0.636116</v>
+        <v>0.634283</v>
       </c>
       <c r="E115" t="n">
-        <v>0.539485</v>
+        <v>0.534707</v>
       </c>
       <c r="F115" t="n">
-        <v>0.493488</v>
+        <v>0.489897</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.612409</v>
+        <v>0.611115</v>
       </c>
       <c r="C116" t="n">
-        <v>0.536439</v>
+        <v>0.533852</v>
       </c>
       <c r="D116" t="n">
-        <v>0.649556</v>
+        <v>0.648795</v>
       </c>
       <c r="E116" t="n">
-        <v>0.541264</v>
+        <v>0.538146</v>
       </c>
       <c r="F116" t="n">
-        <v>0.498704</v>
+        <v>0.494831</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.615287</v>
+        <v>0.6115390000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.538451</v>
+        <v>0.536622</v>
       </c>
       <c r="D117" t="n">
-        <v>0.671064</v>
+        <v>0.668928</v>
       </c>
       <c r="E117" t="n">
-        <v>0.541183</v>
+        <v>0.540158</v>
       </c>
       <c r="F117" t="n">
-        <v>0.496498</v>
+        <v>0.496052</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.617717</v>
+        <v>0.616048</v>
       </c>
       <c r="C118" t="n">
-        <v>0.541855</v>
+        <v>0.542426</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680938</v>
+        <v>0.677602</v>
       </c>
       <c r="E118" t="n">
-        <v>0.542515</v>
+        <v>0.543261</v>
       </c>
       <c r="F118" t="n">
-        <v>0.499401</v>
+        <v>0.500606</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.622518</v>
+        <v>0.618651</v>
       </c>
       <c r="C119" t="n">
-        <v>0.546384</v>
+        <v>0.546975</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7014049999999999</v>
+        <v>0.699948</v>
       </c>
       <c r="E119" t="n">
-        <v>0.544472</v>
+        <v>0.542933</v>
       </c>
       <c r="F119" t="n">
-        <v>0.504486</v>
+        <v>0.5015309999999999</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625922</v>
+        <v>0.625402</v>
       </c>
       <c r="C120" t="n">
-        <v>0.551575</v>
+        <v>0.55177</v>
       </c>
       <c r="D120" t="n">
-        <v>0.722499</v>
+        <v>0.720197</v>
       </c>
       <c r="E120" t="n">
-        <v>0.551414</v>
+        <v>0.547474</v>
       </c>
       <c r="F120" t="n">
-        <v>0.50903</v>
+        <v>0.50789</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.633451</v>
+        <v>0.627559</v>
       </c>
       <c r="C121" t="n">
-        <v>0.55768</v>
+        <v>0.557133</v>
       </c>
       <c r="D121" t="n">
-        <v>0.637776</v>
+        <v>0.63461</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5546219999999999</v>
+        <v>0.554094</v>
       </c>
       <c r="F121" t="n">
-        <v>0.512806</v>
+        <v>0.511057</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.639446</v>
+        <v>0.637982</v>
       </c>
       <c r="C122" t="n">
-        <v>0.569319</v>
+        <v>0.568627</v>
       </c>
       <c r="D122" t="n">
-        <v>0.649062</v>
+        <v>0.646038</v>
       </c>
       <c r="E122" t="n">
-        <v>0.56485</v>
+        <v>0.563482</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5226730000000001</v>
+        <v>0.521079</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.65266</v>
+        <v>0.65157</v>
       </c>
       <c r="C123" t="n">
-        <v>0.585963</v>
+        <v>0.58224</v>
       </c>
       <c r="D123" t="n">
-        <v>0.661914</v>
+        <v>0.658799</v>
       </c>
       <c r="E123" t="n">
-        <v>0.693794</v>
+        <v>0.690137</v>
       </c>
       <c r="F123" t="n">
-        <v>0.703236</v>
+        <v>0.701747</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.745737</v>
+        <v>0.742146</v>
       </c>
       <c r="C124" t="n">
-        <v>0.736515</v>
+        <v>0.734945</v>
       </c>
       <c r="D124" t="n">
-        <v>0.673563</v>
+        <v>0.671098</v>
       </c>
       <c r="E124" t="n">
-        <v>0.694277</v>
+        <v>0.690419</v>
       </c>
       <c r="F124" t="n">
-        <v>0.704189</v>
+        <v>0.700105</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.745139</v>
+        <v>0.742178</v>
       </c>
       <c r="C125" t="n">
-        <v>0.74021</v>
+        <v>0.737502</v>
       </c>
       <c r="D125" t="n">
-        <v>0.685205</v>
+        <v>0.6833630000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.69469</v>
+        <v>0.693334</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7047639999999999</v>
+        <v>0.702358</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.744771</v>
+        <v>0.739828</v>
       </c>
       <c r="C126" t="n">
-        <v>0.74038</v>
+        <v>0.73667</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6996599999999999</v>
+        <v>0.696784</v>
       </c>
       <c r="E126" t="n">
-        <v>0.695674</v>
+        <v>0.6924439999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7057369999999999</v>
+        <v>0.702143</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.745555</v>
+        <v>0.742152</v>
       </c>
       <c r="C127" t="n">
-        <v>0.743579</v>
+        <v>0.7388209999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.715322</v>
+        <v>0.712815</v>
       </c>
       <c r="E127" t="n">
-        <v>0.697083</v>
+        <v>0.693237</v>
       </c>
       <c r="F127" t="n">
-        <v>0.708047</v>
+        <v>0.704547</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7473919999999999</v>
+        <v>0.74261</v>
       </c>
       <c r="C128" t="n">
-        <v>0.744259</v>
+        <v>0.739777</v>
       </c>
       <c r="D128" t="n">
-        <v>0.729942</v>
+        <v>0.726833</v>
       </c>
       <c r="E128" t="n">
-        <v>0.695465</v>
+        <v>0.693995</v>
       </c>
       <c r="F128" t="n">
-        <v>0.708992</v>
+        <v>0.705848</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.748261</v>
+        <v>0.7453379999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.747468</v>
+        <v>0.742542</v>
       </c>
       <c r="D129" t="n">
-        <v>0.74382</v>
+        <v>0.740905</v>
       </c>
       <c r="E129" t="n">
-        <v>0.698395</v>
+        <v>0.6935519999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>0.71104</v>
+        <v>0.708838</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.750306</v>
+        <v>0.748291</v>
       </c>
       <c r="C130" t="n">
-        <v>0.74875</v>
+        <v>0.7465079999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7572680000000001</v>
+        <v>0.754351</v>
       </c>
       <c r="E130" t="n">
-        <v>0.698966</v>
+        <v>0.69599</v>
       </c>
       <c r="F130" t="n">
-        <v>0.713006</v>
+        <v>0.709268</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.751905</v>
+        <v>0.74977</v>
       </c>
       <c r="C131" t="n">
-        <v>0.750722</v>
+        <v>0.746206</v>
       </c>
       <c r="D131" t="n">
-        <v>0.773935</v>
+        <v>0.770911</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7002119999999999</v>
+        <v>0.696658</v>
       </c>
       <c r="F131" t="n">
-        <v>0.713579</v>
+        <v>0.711187</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.755224</v>
+        <v>0.753248</v>
       </c>
       <c r="C132" t="n">
-        <v>0.754667</v>
+        <v>0.750332</v>
       </c>
       <c r="D132" t="n">
-        <v>0.788434</v>
+        <v>0.785366</v>
       </c>
       <c r="E132" t="n">
-        <v>0.702883</v>
+        <v>0.700727</v>
       </c>
       <c r="F132" t="n">
-        <v>0.717656</v>
+        <v>0.715934</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.756911</v>
+        <v>0.757399</v>
       </c>
       <c r="C133" t="n">
-        <v>0.75898</v>
+        <v>0.756212</v>
       </c>
       <c r="D133" t="n">
-        <v>0.806017</v>
+        <v>0.8023670000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.706788</v>
+        <v>0.705392</v>
       </c>
       <c r="F133" t="n">
-        <v>0.721526</v>
+        <v>0.722893</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.765815</v>
+        <v>0.7606039999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.764642</v>
+        <v>0.761482</v>
       </c>
       <c r="D134" t="n">
-        <v>0.82041</v>
+        <v>0.817085</v>
       </c>
       <c r="E134" t="n">
-        <v>0.709835</v>
+        <v>0.707191</v>
       </c>
       <c r="F134" t="n">
-        <v>0.727971</v>
+        <v>0.7246089999999999</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.770124</v>
+        <v>0.768144</v>
       </c>
       <c r="C135" t="n">
-        <v>0.77352</v>
+        <v>0.770073</v>
       </c>
       <c r="D135" t="n">
-        <v>0.692935</v>
+        <v>0.689947</v>
       </c>
       <c r="E135" t="n">
-        <v>0.717191</v>
+        <v>0.7138679999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>0.735397</v>
+        <v>0.73291</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.778175</v>
+        <v>0.77585</v>
       </c>
       <c r="C136" t="n">
-        <v>0.78255</v>
+        <v>0.781188</v>
       </c>
       <c r="D136" t="n">
-        <v>0.703366</v>
+        <v>0.700689</v>
       </c>
       <c r="E136" t="n">
-        <v>0.723033</v>
+        <v>0.722146</v>
       </c>
       <c r="F136" t="n">
-        <v>0.746441</v>
+        <v>0.743062</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.791621</v>
+        <v>0.788618</v>
       </c>
       <c r="C137" t="n">
-        <v>0.799019</v>
+        <v>0.797079</v>
       </c>
       <c r="D137" t="n">
-        <v>0.714274</v>
+        <v>0.711722</v>
       </c>
       <c r="E137" t="n">
-        <v>0.828501</v>
+        <v>0.825223</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835449</v>
+        <v>0.832055</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.871179</v>
+        <v>0.866052</v>
       </c>
       <c r="C138" t="n">
-        <v>0.867482</v>
+        <v>0.862215</v>
       </c>
       <c r="D138" t="n">
-        <v>0.726307</v>
+        <v>0.723201</v>
       </c>
       <c r="E138" t="n">
-        <v>0.829842</v>
+        <v>0.825141</v>
       </c>
       <c r="F138" t="n">
-        <v>0.837008</v>
+        <v>0.832176</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.872935</v>
+        <v>0.866225</v>
       </c>
       <c r="C139" t="n">
-        <v>0.869011</v>
+        <v>0.864393</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73768</v>
+        <v>0.734945</v>
       </c>
       <c r="E139" t="n">
-        <v>0.830167</v>
+        <v>0.8252080000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>0.839211</v>
+        <v>0.832936</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.870719</v>
+        <v>0.866862</v>
       </c>
       <c r="C140" t="n">
-        <v>0.869444</v>
+        <v>0.863469</v>
       </c>
       <c r="D140" t="n">
-        <v>0.750803</v>
+        <v>0.747864</v>
       </c>
       <c r="E140" t="n">
-        <v>0.832259</v>
+        <v>0.82613</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839174</v>
+        <v>0.8348449999999999</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.871905</v>
+        <v>0.8678360000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.87086</v>
+        <v>0.865803</v>
       </c>
       <c r="D141" t="n">
-        <v>0.765188</v>
+        <v>0.761989</v>
       </c>
       <c r="E141" t="n">
-        <v>0.832345</v>
+        <v>0.827905</v>
       </c>
       <c r="F141" t="n">
-        <v>0.841092</v>
+        <v>0.839137</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.870387</v>
+        <v>0.866742</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8722760000000001</v>
+        <v>0.868018</v>
       </c>
       <c r="D142" t="n">
-        <v>0.777624</v>
+        <v>0.774896</v>
       </c>
       <c r="E142" t="n">
-        <v>0.832807</v>
+        <v>0.82845</v>
       </c>
       <c r="F142" t="n">
-        <v>0.843046</v>
+        <v>0.839301</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.874204</v>
+        <v>0.869281</v>
       </c>
       <c r="C143" t="n">
-        <v>0.87412</v>
+        <v>0.868949</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7931319999999999</v>
+        <v>0.790427</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8336519999999999</v>
+        <v>0.8304319999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844406</v>
+        <v>0.839836</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.115037</v>
+        <v>0.116175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112385</v>
+        <v>0.113304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132202</v>
+        <v>0.133919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110646</v>
+        <v>0.111899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108485</v>
+        <v>0.112628</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11548</v>
+        <v>0.117102</v>
       </c>
       <c r="C3" t="n">
-        <v>0.117346</v>
+        <v>0.114125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140561</v>
+        <v>0.140479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.110985</v>
+        <v>0.112313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.108591</v>
+        <v>0.113108</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1157</v>
+        <v>0.118054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.130994</v>
+        <v>0.115307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147091</v>
+        <v>0.145255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111294</v>
+        <v>0.111087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.108925</v>
+        <v>0.113413</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.117272</v>
+        <v>0.122259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125819</v>
+        <v>0.118287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15471</v>
+        <v>0.152309</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11164</v>
+        <v>0.112731</v>
       </c>
       <c r="F5" t="n">
-        <v>0.109572</v>
+        <v>0.113814</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.119556</v>
+        <v>0.124605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.134693</v>
+        <v>0.119863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161979</v>
+        <v>0.158455</v>
       </c>
       <c r="E6" t="n">
-        <v>0.112001</v>
+        <v>0.113648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.110438</v>
+        <v>0.114721</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.122497</v>
+        <v>0.129246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.130951</v>
+        <v>0.135307</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12855</v>
+        <v>0.129223</v>
       </c>
       <c r="E7" t="n">
-        <v>0.113531</v>
+        <v>0.114354</v>
       </c>
       <c r="F7" t="n">
-        <v>0.113401</v>
+        <v>0.117427</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.128126</v>
+        <v>0.13566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.128863</v>
+        <v>0.13821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.131579</v>
+        <v>0.133281</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114879</v>
+        <v>0.114699</v>
       </c>
       <c r="F8" t="n">
-        <v>0.113408</v>
+        <v>0.117501</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138351</v>
+        <v>0.143852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.138106</v>
+        <v>0.155431</v>
       </c>
       <c r="D9" t="n">
-        <v>0.136506</v>
+        <v>0.138048</v>
       </c>
       <c r="E9" t="n">
-        <v>0.115886</v>
+        <v>0.117325</v>
       </c>
       <c r="F9" t="n">
-        <v>0.110451</v>
+        <v>0.11522</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.123823</v>
+        <v>0.126021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.116193</v>
+        <v>0.119801</v>
       </c>
       <c r="D10" t="n">
-        <v>0.140166</v>
+        <v>0.142733</v>
       </c>
       <c r="E10" t="n">
-        <v>0.116279</v>
+        <v>0.117387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.110308</v>
+        <v>0.115254</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.124224</v>
+        <v>0.126677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.123033</v>
+        <v>0.126543</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145</v>
+        <v>0.146474</v>
       </c>
       <c r="E11" t="n">
-        <v>0.116266</v>
+        <v>0.117673</v>
       </c>
       <c r="F11" t="n">
-        <v>0.110571</v>
+        <v>0.115617</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.124121</v>
+        <v>0.12693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121384</v>
+        <v>0.121165</v>
       </c>
       <c r="D12" t="n">
-        <v>0.150225</v>
+        <v>0.151763</v>
       </c>
       <c r="E12" t="n">
-        <v>0.116496</v>
+        <v>0.117887</v>
       </c>
       <c r="F12" t="n">
-        <v>0.110604</v>
+        <v>0.115748</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124529</v>
+        <v>0.128148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12649</v>
+        <v>0.125185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1554</v>
+        <v>0.156368</v>
       </c>
       <c r="E13" t="n">
-        <v>0.116611</v>
+        <v>0.118909</v>
       </c>
       <c r="F13" t="n">
-        <v>0.110812</v>
+        <v>0.123946</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125389</v>
+        <v>0.128743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.125974</v>
+        <v>0.131712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.160975</v>
+        <v>0.161835</v>
       </c>
       <c r="E14" t="n">
-        <v>0.116912</v>
+        <v>0.11957</v>
       </c>
       <c r="F14" t="n">
-        <v>0.111843</v>
+        <v>0.121486</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.126451</v>
+        <v>0.129587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.118536</v>
+        <v>0.124293</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167213</v>
+        <v>0.167371</v>
       </c>
       <c r="E15" t="n">
-        <v>0.117496</v>
+        <v>0.119997</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112726</v>
+        <v>0.117814</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.126418</v>
+        <v>0.13044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122334</v>
+        <v>0.127885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.174097</v>
+        <v>0.173903</v>
       </c>
       <c r="E16" t="n">
-        <v>0.119265</v>
+        <v>0.120019</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111142</v>
+        <v>0.117607</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128231</v>
+        <v>0.132269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119919</v>
+        <v>0.119909</v>
       </c>
       <c r="D17" t="n">
-        <v>0.180773</v>
+        <v>0.179129</v>
       </c>
       <c r="E17" t="n">
-        <v>0.117866</v>
+        <v>0.120816</v>
       </c>
       <c r="F17" t="n">
-        <v>0.117045</v>
+        <v>0.115775</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.128972</v>
+        <v>0.133479</v>
       </c>
       <c r="C18" t="n">
-        <v>0.123192</v>
+        <v>0.122929</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18609</v>
+        <v>0.182855</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11803</v>
+        <v>0.121536</v>
       </c>
       <c r="F18" t="n">
-        <v>0.113129</v>
+        <v>0.117028</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13102</v>
+        <v>0.136296</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127615</v>
+        <v>0.126277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.191112</v>
+        <v>0.189315</v>
       </c>
       <c r="E19" t="n">
-        <v>0.118566</v>
+        <v>0.121972</v>
       </c>
       <c r="F19" t="n">
-        <v>0.113006</v>
+        <v>0.11696</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.136549</v>
+        <v>0.138729</v>
       </c>
       <c r="C20" t="n">
-        <v>0.13663</v>
+        <v>0.128319</v>
       </c>
       <c r="D20" t="n">
-        <v>0.197288</v>
+        <v>0.195641</v>
       </c>
       <c r="E20" t="n">
-        <v>0.119595</v>
+        <v>0.122806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113409</v>
+        <v>0.125453</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140753</v>
+        <v>0.146387</v>
       </c>
       <c r="C21" t="n">
-        <v>0.144715</v>
+        <v>0.137145</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149212</v>
+        <v>0.156696</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120297</v>
+        <v>0.125215</v>
       </c>
       <c r="F21" t="n">
-        <v>0.115083</v>
+        <v>0.121699</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.148949</v>
+        <v>0.157945</v>
       </c>
       <c r="C22" t="n">
-        <v>0.157841</v>
+        <v>0.144876</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153382</v>
+        <v>0.161505</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124014</v>
+        <v>0.128684</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120579</v>
+        <v>0.124478</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158428</v>
+        <v>0.165273</v>
       </c>
       <c r="C23" t="n">
-        <v>0.153103</v>
+        <v>0.153379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.157449</v>
+        <v>0.165266</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125102</v>
+        <v>0.127153</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123882</v>
+        <v>0.126104</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134416</v>
+        <v>0.137331</v>
       </c>
       <c r="C24" t="n">
-        <v>0.130246</v>
+        <v>0.126896</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164401</v>
+        <v>0.169815</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125609</v>
+        <v>0.128436</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12095</v>
+        <v>0.123313</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134527</v>
+        <v>0.13697</v>
       </c>
       <c r="C25" t="n">
-        <v>0.136332</v>
+        <v>0.128837</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167578</v>
+        <v>0.174323</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125823</v>
+        <v>0.126785</v>
       </c>
       <c r="F25" t="n">
-        <v>0.124603</v>
+        <v>0.12914</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.136991</v>
+        <v>0.137426</v>
       </c>
       <c r="C26" t="n">
-        <v>0.128638</v>
+        <v>0.130033</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172177</v>
+        <v>0.180216</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125445</v>
+        <v>0.126744</v>
       </c>
       <c r="F26" t="n">
-        <v>0.121079</v>
+        <v>0.126343</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.135245</v>
+        <v>0.137245</v>
       </c>
       <c r="C27" t="n">
-        <v>0.129319</v>
+        <v>0.136621</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177281</v>
+        <v>0.185046</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125721</v>
+        <v>0.126659</v>
       </c>
       <c r="F27" t="n">
-        <v>0.126953</v>
+        <v>0.124882</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135775</v>
+        <v>0.138882</v>
       </c>
       <c r="C28" t="n">
-        <v>0.137318</v>
+        <v>0.142895</v>
       </c>
       <c r="D28" t="n">
-        <v>0.181593</v>
+        <v>0.189552</v>
       </c>
       <c r="E28" t="n">
-        <v>0.126021</v>
+        <v>0.127069</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120698</v>
+        <v>0.125945</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135975</v>
+        <v>0.138792</v>
       </c>
       <c r="C29" t="n">
-        <v>0.129497</v>
+        <v>0.130555</v>
       </c>
       <c r="D29" t="n">
-        <v>0.187832</v>
+        <v>0.19512</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125998</v>
+        <v>0.127531</v>
       </c>
       <c r="F29" t="n">
-        <v>0.132558</v>
+        <v>0.128289</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137785</v>
+        <v>0.139907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.139544</v>
+        <v>0.138356</v>
       </c>
       <c r="D30" t="n">
-        <v>0.192284</v>
+        <v>0.200055</v>
       </c>
       <c r="E30" t="n">
-        <v>0.126167</v>
+        <v>0.127767</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122809</v>
+        <v>0.128244</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.139343</v>
+        <v>0.141573</v>
       </c>
       <c r="C31" t="n">
-        <v>0.140719</v>
+        <v>0.14372</v>
       </c>
       <c r="D31" t="n">
-        <v>0.197419</v>
+        <v>0.203714</v>
       </c>
       <c r="E31" t="n">
-        <v>0.127032</v>
+        <v>0.128922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.127203</v>
+        <v>0.129961</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141446</v>
+        <v>0.143629</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13703</v>
+        <v>0.146248</v>
       </c>
       <c r="D32" t="n">
-        <v>0.203893</v>
+        <v>0.210055</v>
       </c>
       <c r="E32" t="n">
-        <v>0.128425</v>
+        <v>0.128617</v>
       </c>
       <c r="F32" t="n">
-        <v>0.121644</v>
+        <v>0.130445</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144574</v>
+        <v>0.146638</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145112</v>
+        <v>0.14747</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209929</v>
+        <v>0.214821</v>
       </c>
       <c r="E33" t="n">
-        <v>0.127605</v>
+        <v>0.128932</v>
       </c>
       <c r="F33" t="n">
-        <v>0.12507</v>
+        <v>0.129814</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147722</v>
+        <v>0.151225</v>
       </c>
       <c r="C34" t="n">
-        <v>0.152363</v>
+        <v>0.156706</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213633</v>
+        <v>0.221817</v>
       </c>
       <c r="E34" t="n">
-        <v>0.129797</v>
+        <v>0.13077</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12303</v>
+        <v>0.132499</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.153516</v>
+        <v>0.154705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.148261</v>
+        <v>0.163494</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165454</v>
+        <v>0.164547</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133756</v>
+        <v>0.134359</v>
       </c>
       <c r="F35" t="n">
-        <v>0.131586</v>
+        <v>0.138175</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.159244</v>
+        <v>0.162731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.156009</v>
+        <v>0.163367</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169511</v>
+        <v>0.167734</v>
       </c>
       <c r="E36" t="n">
-        <v>0.141235</v>
+        <v>0.144679</v>
       </c>
       <c r="F36" t="n">
-        <v>0.142288</v>
+        <v>0.143676</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.167043</v>
+        <v>0.170766</v>
       </c>
       <c r="C37" t="n">
-        <v>0.17953</v>
+        <v>0.180324</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173433</v>
+        <v>0.171736</v>
       </c>
       <c r="E37" t="n">
-        <v>0.137058</v>
+        <v>0.14109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.141315</v>
+        <v>0.143808</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.147371</v>
+        <v>0.150516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.146231</v>
+        <v>0.144332</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177846</v>
+        <v>0.177131</v>
       </c>
       <c r="E38" t="n">
-        <v>0.134325</v>
+        <v>0.146127</v>
       </c>
       <c r="F38" t="n">
-        <v>0.141125</v>
+        <v>0.143235</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148256</v>
+        <v>0.147041</v>
       </c>
       <c r="C39" t="n">
-        <v>0.148246</v>
+        <v>0.14758</v>
       </c>
       <c r="D39" t="n">
-        <v>0.183138</v>
+        <v>0.182252</v>
       </c>
       <c r="E39" t="n">
-        <v>0.137829</v>
+        <v>0.139593</v>
       </c>
       <c r="F39" t="n">
-        <v>0.139794</v>
+        <v>0.15028</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147428</v>
+        <v>0.153155</v>
       </c>
       <c r="C40" t="n">
-        <v>0.14695</v>
+        <v>0.146273</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186485</v>
+        <v>0.185162</v>
       </c>
       <c r="E40" t="n">
-        <v>0.137731</v>
+        <v>0.140422</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139928</v>
+        <v>0.145731</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147427</v>
+        <v>0.149965</v>
       </c>
       <c r="C41" t="n">
-        <v>0.146466</v>
+        <v>0.15142</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191535</v>
+        <v>0.190025</v>
       </c>
       <c r="E41" t="n">
-        <v>0.138055</v>
+        <v>0.143493</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141192</v>
+        <v>0.144479</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148914</v>
+        <v>0.15066</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152833</v>
+        <v>0.14859</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196337</v>
+        <v>0.195262</v>
       </c>
       <c r="E42" t="n">
-        <v>0.139492</v>
+        <v>0.141888</v>
       </c>
       <c r="F42" t="n">
-        <v>0.143322</v>
+        <v>0.146483</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.150923</v>
+        <v>0.152158</v>
       </c>
       <c r="C43" t="n">
-        <v>0.14999</v>
+        <v>0.155725</v>
       </c>
       <c r="D43" t="n">
-        <v>0.20111</v>
+        <v>0.200833</v>
       </c>
       <c r="E43" t="n">
-        <v>0.138108</v>
+        <v>0.145185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.14266</v>
+        <v>0.146487</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.151062</v>
+        <v>0.152152</v>
       </c>
       <c r="C44" t="n">
-        <v>0.154139</v>
+        <v>0.150612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.206205</v>
+        <v>0.204952</v>
       </c>
       <c r="E44" t="n">
-        <v>0.138629</v>
+        <v>0.143607</v>
       </c>
       <c r="F44" t="n">
-        <v>0.139821</v>
+        <v>0.147417</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.152738</v>
+        <v>0.154746</v>
       </c>
       <c r="C45" t="n">
-        <v>0.152699</v>
+        <v>0.151268</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211492</v>
+        <v>0.210465</v>
       </c>
       <c r="E45" t="n">
-        <v>0.138178</v>
+        <v>0.146681</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13939</v>
+        <v>0.145584</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.155041</v>
+        <v>0.157662</v>
       </c>
       <c r="C46" t="n">
-        <v>0.153992</v>
+        <v>0.154384</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216572</v>
+        <v>0.216123</v>
       </c>
       <c r="E46" t="n">
-        <v>0.139362</v>
+        <v>0.144178</v>
       </c>
       <c r="F46" t="n">
-        <v>0.151294</v>
+        <v>0.147632</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158835</v>
+        <v>0.161413</v>
       </c>
       <c r="C47" t="n">
-        <v>0.157755</v>
+        <v>0.163218</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222227</v>
+        <v>0.221493</v>
       </c>
       <c r="E47" t="n">
-        <v>0.14155</v>
+        <v>0.144044</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14645</v>
+        <v>0.149288</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.160836</v>
+        <v>0.166349</v>
       </c>
       <c r="C48" t="n">
-        <v>0.161785</v>
+        <v>0.165787</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227282</v>
+        <v>0.225704</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144632</v>
+        <v>0.146756</v>
       </c>
       <c r="F48" t="n">
-        <v>0.148715</v>
+        <v>0.15163</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164489</v>
+        <v>0.164134</v>
       </c>
       <c r="C49" t="n">
-        <v>0.17315</v>
+        <v>0.165111</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231843</v>
+        <v>0.230392</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151551</v>
+        <v>0.151475</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149551</v>
+        <v>0.157028</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.169504</v>
+        <v>0.171775</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174235</v>
+        <v>0.174843</v>
       </c>
       <c r="D50" t="n">
-        <v>0.171388</v>
+        <v>0.168884</v>
       </c>
       <c r="E50" t="n">
-        <v>0.153825</v>
+        <v>0.157723</v>
       </c>
       <c r="F50" t="n">
-        <v>0.154973</v>
+        <v>0.164202</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.177274</v>
+        <v>0.181009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.183341</v>
+        <v>0.180543</v>
       </c>
       <c r="D51" t="n">
-        <v>0.174994</v>
+        <v>0.172004</v>
       </c>
       <c r="E51" t="n">
-        <v>0.151302</v>
+        <v>0.152613</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152244</v>
+        <v>0.165763</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186953</v>
+        <v>0.195095</v>
       </c>
       <c r="C52" t="n">
-        <v>0.188645</v>
+        <v>0.192984</v>
       </c>
       <c r="D52" t="n">
-        <v>0.17883</v>
+        <v>0.176698</v>
       </c>
       <c r="E52" t="n">
-        <v>0.150459</v>
+        <v>0.158003</v>
       </c>
       <c r="F52" t="n">
-        <v>0.153242</v>
+        <v>0.156674</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159398</v>
+        <v>0.166242</v>
       </c>
       <c r="C53" t="n">
-        <v>0.175918</v>
+        <v>0.160479</v>
       </c>
       <c r="D53" t="n">
-        <v>0.18323</v>
+        <v>0.179791</v>
       </c>
       <c r="E53" t="n">
-        <v>0.150823</v>
+        <v>0.154318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.153526</v>
+        <v>0.156458</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160516</v>
+        <v>0.160141</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169102</v>
+        <v>0.166321</v>
       </c>
       <c r="D54" t="n">
-        <v>0.187037</v>
+        <v>0.184337</v>
       </c>
       <c r="E54" t="n">
-        <v>0.150782</v>
+        <v>0.153409</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156409</v>
+        <v>0.157512</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.160734</v>
+        <v>0.163788</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167338</v>
+        <v>0.163103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.192448</v>
+        <v>0.188983</v>
       </c>
       <c r="E55" t="n">
-        <v>0.151474</v>
+        <v>0.155281</v>
       </c>
       <c r="F55" t="n">
-        <v>0.155198</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.162178</v>
+        <v>0.165404</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167695</v>
+        <v>0.162115</v>
       </c>
       <c r="D56" t="n">
-        <v>0.19737</v>
+        <v>0.193693</v>
       </c>
       <c r="E56" t="n">
-        <v>0.152625</v>
+        <v>0.155176</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154512</v>
+        <v>0.161825</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.162296</v>
+        <v>0.167063</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169685</v>
+        <v>0.165247</v>
       </c>
       <c r="D57" t="n">
-        <v>0.201898</v>
+        <v>0.198932</v>
       </c>
       <c r="E57" t="n">
-        <v>0.151315</v>
+        <v>0.153238</v>
       </c>
       <c r="F57" t="n">
-        <v>0.155865</v>
+        <v>0.162488</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.163847</v>
+        <v>0.164584</v>
       </c>
       <c r="C58" t="n">
-        <v>0.170634</v>
+        <v>0.17219</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207534</v>
+        <v>0.204287</v>
       </c>
       <c r="E58" t="n">
-        <v>0.152563</v>
+        <v>0.15574</v>
       </c>
       <c r="F58" t="n">
-        <v>0.156195</v>
+        <v>0.160225</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.165132</v>
+        <v>0.16786</v>
       </c>
       <c r="C59" t="n">
-        <v>0.18085</v>
+        <v>0.169923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212167</v>
+        <v>0.209888</v>
       </c>
       <c r="E59" t="n">
-        <v>0.152623</v>
+        <v>0.156709</v>
       </c>
       <c r="F59" t="n">
-        <v>0.156024</v>
+        <v>0.163536</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.167057</v>
+        <v>0.166761</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174066</v>
+        <v>0.1682</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21785</v>
+        <v>0.215466</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15421</v>
+        <v>0.157581</v>
       </c>
       <c r="F60" t="n">
-        <v>0.163263</v>
+        <v>0.165752</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.169253</v>
+        <v>0.173956</v>
       </c>
       <c r="C61" t="n">
-        <v>0.183956</v>
+        <v>0.169594</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222902</v>
+        <v>0.222479</v>
       </c>
       <c r="E61" t="n">
-        <v>0.155271</v>
+        <v>0.159353</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16021</v>
+        <v>0.165438</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173022</v>
+        <v>0.178239</v>
       </c>
       <c r="C62" t="n">
-        <v>0.188518</v>
+        <v>0.175012</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228409</v>
+        <v>0.226745</v>
       </c>
       <c r="E62" t="n">
-        <v>0.15837</v>
+        <v>0.161927</v>
       </c>
       <c r="F62" t="n">
-        <v>0.164974</v>
+        <v>0.168482</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175717</v>
+        <v>0.176991</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183423</v>
+        <v>0.183923</v>
       </c>
       <c r="D63" t="n">
-        <v>0.232737</v>
+        <v>0.236555</v>
       </c>
       <c r="E63" t="n">
-        <v>0.161351</v>
+        <v>0.167956</v>
       </c>
       <c r="F63" t="n">
-        <v>0.172965</v>
+        <v>0.169704</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.185641</v>
+        <v>0.18275</v>
       </c>
       <c r="C64" t="n">
-        <v>0.189136</v>
+        <v>0.183405</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177194</v>
+        <v>0.1813</v>
       </c>
       <c r="E64" t="n">
-        <v>0.166107</v>
+        <v>0.169588</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169264</v>
+        <v>0.179236</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.187332</v>
+        <v>0.189579</v>
       </c>
       <c r="C65" t="n">
-        <v>0.204619</v>
+        <v>0.192448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.181002</v>
+        <v>0.182184</v>
       </c>
       <c r="E65" t="n">
-        <v>0.172243</v>
+        <v>0.175973</v>
       </c>
       <c r="F65" t="n">
-        <v>0.181677</v>
+        <v>0.182385</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.204972</v>
+        <v>0.203729</v>
       </c>
       <c r="C66" t="n">
-        <v>0.207048</v>
+        <v>0.200609</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18597</v>
+        <v>0.192459</v>
       </c>
       <c r="E66" t="n">
-        <v>0.162309</v>
+        <v>0.184271</v>
       </c>
       <c r="F66" t="n">
-        <v>0.162995</v>
+        <v>0.173057</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.179288</v>
+        <v>0.243192</v>
       </c>
       <c r="C67" t="n">
-        <v>0.174452</v>
+        <v>0.173119</v>
       </c>
       <c r="D67" t="n">
-        <v>0.190921</v>
+        <v>0.191619</v>
       </c>
       <c r="E67" t="n">
-        <v>0.161715</v>
+        <v>0.178378</v>
       </c>
       <c r="F67" t="n">
-        <v>0.163886</v>
+        <v>0.170437</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.179988</v>
+        <v>0.246715</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18115</v>
+        <v>0.174273</v>
       </c>
       <c r="D68" t="n">
-        <v>0.197924</v>
+        <v>0.19726</v>
       </c>
       <c r="E68" t="n">
-        <v>0.162342</v>
+        <v>0.169941</v>
       </c>
       <c r="F68" t="n">
-        <v>0.162345</v>
+        <v>0.169938</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.180708</v>
+        <v>0.229048</v>
       </c>
       <c r="C69" t="n">
-        <v>0.175804</v>
+        <v>0.176406</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203869</v>
+        <v>0.203729</v>
       </c>
       <c r="E69" t="n">
-        <v>0.162164</v>
+        <v>0.174203</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164405</v>
+        <v>0.170878</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187122</v>
+        <v>0.252046</v>
       </c>
       <c r="C70" t="n">
-        <v>0.182459</v>
+        <v>0.177701</v>
       </c>
       <c r="D70" t="n">
-        <v>0.209987</v>
+        <v>0.21296</v>
       </c>
       <c r="E70" t="n">
-        <v>0.163726</v>
+        <v>0.17048</v>
       </c>
       <c r="F70" t="n">
-        <v>0.16507</v>
+        <v>0.169974</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1841</v>
+        <v>0.234161</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177866</v>
+        <v>0.177875</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217078</v>
+        <v>0.222668</v>
       </c>
       <c r="E71" t="n">
-        <v>0.163898</v>
+        <v>0.169432</v>
       </c>
       <c r="F71" t="n">
-        <v>0.16632</v>
+        <v>0.172963</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.185654</v>
+        <v>0.200404</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178573</v>
+        <v>0.182934</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224598</v>
+        <v>0.229902</v>
       </c>
       <c r="E72" t="n">
-        <v>0.164093</v>
+        <v>0.173215</v>
       </c>
       <c r="F72" t="n">
-        <v>0.166749</v>
+        <v>0.172505</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.18599</v>
+        <v>0.196635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.179914</v>
+        <v>0.178248</v>
       </c>
       <c r="D73" t="n">
-        <v>0.232906</v>
+        <v>0.237544</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16475</v>
+        <v>0.181836</v>
       </c>
       <c r="F73" t="n">
-        <v>0.169657</v>
+        <v>0.173421</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.188697</v>
+        <v>0.19118</v>
       </c>
       <c r="C74" t="n">
-        <v>0.183457</v>
+        <v>0.181141</v>
       </c>
       <c r="D74" t="n">
-        <v>0.242872</v>
+        <v>0.246508</v>
       </c>
       <c r="E74" t="n">
-        <v>0.166195</v>
+        <v>0.17299</v>
       </c>
       <c r="F74" t="n">
-        <v>0.177223</v>
+        <v>0.176165</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.187285</v>
+        <v>0.195109</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193246</v>
+        <v>0.18948</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250605</v>
+        <v>0.257041</v>
       </c>
       <c r="E75" t="n">
-        <v>0.169566</v>
+        <v>0.180536</v>
       </c>
       <c r="F75" t="n">
-        <v>0.172666</v>
+        <v>0.176016</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19289</v>
+        <v>0.195562</v>
       </c>
       <c r="C76" t="n">
-        <v>0.187874</v>
+        <v>0.185466</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261741</v>
+        <v>0.265143</v>
       </c>
       <c r="E76" t="n">
-        <v>0.169423</v>
+        <v>0.181546</v>
       </c>
       <c r="F76" t="n">
-        <v>0.173509</v>
+        <v>0.179946</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202239</v>
+        <v>0.205379</v>
       </c>
       <c r="C77" t="n">
-        <v>0.192436</v>
+        <v>0.189143</v>
       </c>
       <c r="D77" t="n">
-        <v>0.271563</v>
+        <v>0.276871</v>
       </c>
       <c r="E77" t="n">
-        <v>0.17216</v>
+        <v>0.179799</v>
       </c>
       <c r="F77" t="n">
-        <v>0.179506</v>
+        <v>0.182792</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.201953</v>
+        <v>0.226586</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206365</v>
+        <v>0.194361</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224349</v>
+        <v>0.229701</v>
       </c>
       <c r="E78" t="n">
-        <v>0.175893</v>
+        <v>0.182941</v>
       </c>
       <c r="F78" t="n">
-        <v>0.181452</v>
+        <v>0.187931</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.206564</v>
+        <v>0.216794</v>
       </c>
       <c r="C79" t="n">
-        <v>0.202976</v>
+        <v>0.201314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.23526</v>
+        <v>0.237526</v>
       </c>
       <c r="E79" t="n">
-        <v>0.188273</v>
+        <v>0.190027</v>
       </c>
       <c r="F79" t="n">
-        <v>0.189043</v>
+        <v>0.195185</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.213196</v>
+        <v>0.233772</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215067</v>
+        <v>0.211699</v>
       </c>
       <c r="D80" t="n">
-        <v>0.243333</v>
+        <v>0.249054</v>
       </c>
       <c r="E80" t="n">
-        <v>0.241946</v>
+        <v>0.253238</v>
       </c>
       <c r="F80" t="n">
-        <v>0.174482</v>
+        <v>0.181028</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.362828</v>
+        <v>0.373717</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181105</v>
+        <v>0.181559</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257664</v>
+        <v>0.258538</v>
       </c>
       <c r="E81" t="n">
-        <v>0.244272</v>
+        <v>0.258983</v>
       </c>
       <c r="F81" t="n">
-        <v>0.175575</v>
+        <v>0.181594</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.362371</v>
+        <v>0.37733</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188687</v>
+        <v>0.184593</v>
       </c>
       <c r="D82" t="n">
-        <v>0.271982</v>
+        <v>0.273512</v>
       </c>
       <c r="E82" t="n">
-        <v>0.24163</v>
+        <v>0.256313</v>
       </c>
       <c r="F82" t="n">
-        <v>0.176245</v>
+        <v>0.182484</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.366156</v>
+        <v>0.380815</v>
       </c>
       <c r="C83" t="n">
-        <v>0.184775</v>
+        <v>0.185078</v>
       </c>
       <c r="D83" t="n">
-        <v>0.284397</v>
+        <v>0.286546</v>
       </c>
       <c r="E83" t="n">
-        <v>0.242312</v>
+        <v>0.260348</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17702</v>
+        <v>0.182453</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.364028</v>
+        <v>0.378476</v>
       </c>
       <c r="C84" t="n">
-        <v>0.184774</v>
+        <v>0.186838</v>
       </c>
       <c r="D84" t="n">
-        <v>0.298869</v>
+        <v>0.300435</v>
       </c>
       <c r="E84" t="n">
-        <v>0.242725</v>
+        <v>0.262062</v>
       </c>
       <c r="F84" t="n">
-        <v>0.178291</v>
+        <v>0.184655</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.363927</v>
+        <v>0.38092</v>
       </c>
       <c r="C85" t="n">
-        <v>0.18724</v>
+        <v>0.186745</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313746</v>
+        <v>0.31663</v>
       </c>
       <c r="E85" t="n">
-        <v>0.241648</v>
+        <v>0.26004</v>
       </c>
       <c r="F85" t="n">
-        <v>0.180589</v>
+        <v>0.18639</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.363563</v>
+        <v>0.380843</v>
       </c>
       <c r="C86" t="n">
-        <v>0.186806</v>
+        <v>0.187798</v>
       </c>
       <c r="D86" t="n">
-        <v>0.328828</v>
+        <v>0.331677</v>
       </c>
       <c r="E86" t="n">
-        <v>0.24203</v>
+        <v>0.249504</v>
       </c>
       <c r="F86" t="n">
-        <v>0.181104</v>
+        <v>0.189858</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.366219</v>
+        <v>0.383353</v>
       </c>
       <c r="C87" t="n">
-        <v>0.188687</v>
+        <v>0.190439</v>
       </c>
       <c r="D87" t="n">
-        <v>0.343653</v>
+        <v>0.34578</v>
       </c>
       <c r="E87" t="n">
-        <v>0.24131</v>
+        <v>0.259458</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183364</v>
+        <v>0.190712</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.369752</v>
+        <v>0.390772</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191245</v>
+        <v>0.191478</v>
       </c>
       <c r="D88" t="n">
-        <v>0.360016</v>
+        <v>0.361106</v>
       </c>
       <c r="E88" t="n">
-        <v>0.242178</v>
+        <v>0.25725</v>
       </c>
       <c r="F88" t="n">
-        <v>0.18603</v>
+        <v>0.193015</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.36975</v>
+        <v>0.392135</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194319</v>
+        <v>0.194907</v>
       </c>
       <c r="D89" t="n">
-        <v>0.375678</v>
+        <v>0.380197</v>
       </c>
       <c r="E89" t="n">
-        <v>0.237983</v>
+        <v>0.257047</v>
       </c>
       <c r="F89" t="n">
-        <v>0.187499</v>
+        <v>0.196082</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.372034</v>
+        <v>0.396301</v>
       </c>
       <c r="C90" t="n">
-        <v>0.198879</v>
+        <v>0.200034</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392876</v>
+        <v>0.394444</v>
       </c>
       <c r="E90" t="n">
-        <v>0.241161</v>
+        <v>0.264137</v>
       </c>
       <c r="F90" t="n">
-        <v>0.191212</v>
+        <v>0.197837</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.37372</v>
+        <v>0.395982</v>
       </c>
       <c r="C91" t="n">
-        <v>0.202506</v>
+        <v>0.203921</v>
       </c>
       <c r="D91" t="n">
-        <v>0.40756</v>
+        <v>0.413425</v>
       </c>
       <c r="E91" t="n">
-        <v>0.23791</v>
+        <v>0.262454</v>
       </c>
       <c r="F91" t="n">
-        <v>0.194593</v>
+        <v>0.204457</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.376719</v>
+        <v>0.397178</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208999</v>
+        <v>0.209326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.358165</v>
+        <v>0.357316</v>
       </c>
       <c r="E92" t="n">
-        <v>0.240837</v>
+        <v>0.25224</v>
       </c>
       <c r="F92" t="n">
-        <v>0.202382</v>
+        <v>0.208065</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.381148</v>
+        <v>0.405028</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215895</v>
+        <v>0.217495</v>
       </c>
       <c r="D93" t="n">
-        <v>0.367928</v>
+        <v>0.36875</v>
       </c>
       <c r="E93" t="n">
-        <v>0.243188</v>
+        <v>0.258736</v>
       </c>
       <c r="F93" t="n">
-        <v>0.209147</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387318</v>
+        <v>0.415304</v>
       </c>
       <c r="C94" t="n">
-        <v>0.229252</v>
+        <v>0.228685</v>
       </c>
       <c r="D94" t="n">
-        <v>0.378156</v>
+        <v>0.383303</v>
       </c>
       <c r="E94" t="n">
-        <v>0.398785</v>
+        <v>0.418349</v>
       </c>
       <c r="F94" t="n">
-        <v>0.270785</v>
+        <v>0.2894</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.525778</v>
+        <v>0.595264</v>
       </c>
       <c r="C95" t="n">
-        <v>0.297152</v>
+        <v>0.296146</v>
       </c>
       <c r="D95" t="n">
-        <v>0.394996</v>
+        <v>0.397396</v>
       </c>
       <c r="E95" t="n">
-        <v>0.397735</v>
+        <v>0.41695</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270985</v>
+        <v>0.291243</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.525817</v>
+        <v>0.594929</v>
       </c>
       <c r="C96" t="n">
-        <v>0.295936</v>
+        <v>0.301512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408013</v>
+        <v>0.413192</v>
       </c>
       <c r="E96" t="n">
-        <v>0.398402</v>
+        <v>0.416989</v>
       </c>
       <c r="F96" t="n">
-        <v>0.274198</v>
+        <v>0.294008</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5261940000000001</v>
+        <v>0.595136</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299625</v>
+        <v>0.298663</v>
       </c>
       <c r="D97" t="n">
-        <v>0.419721</v>
+        <v>0.428346</v>
       </c>
       <c r="E97" t="n">
-        <v>0.397559</v>
+        <v>0.417348</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2771</v>
+        <v>0.292643</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.526448</v>
+        <v>0.594878</v>
       </c>
       <c r="C98" t="n">
-        <v>0.295845</v>
+        <v>0.29552</v>
       </c>
       <c r="D98" t="n">
-        <v>0.435573</v>
+        <v>0.441749</v>
       </c>
       <c r="E98" t="n">
-        <v>0.397483</v>
+        <v>0.392243</v>
       </c>
       <c r="F98" t="n">
-        <v>0.27241</v>
+        <v>0.287291</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.526191</v>
+        <v>0.596014</v>
       </c>
       <c r="C99" t="n">
-        <v>0.300638</v>
+        <v>0.295676</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449081</v>
+        <v>0.456201</v>
       </c>
       <c r="E99" t="n">
-        <v>0.396962</v>
+        <v>0.41778</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278921</v>
+        <v>0.287816</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5286380000000001</v>
+        <v>0.597877</v>
       </c>
       <c r="C100" t="n">
-        <v>0.29961</v>
+        <v>0.301562</v>
       </c>
       <c r="D100" t="n">
-        <v>0.464069</v>
+        <v>0.474828</v>
       </c>
       <c r="E100" t="n">
-        <v>0.396061</v>
+        <v>0.416596</v>
       </c>
       <c r="F100" t="n">
-        <v>0.279136</v>
+        <v>0.292084</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5286960000000001</v>
+        <v>0.597249</v>
       </c>
       <c r="C101" t="n">
-        <v>0.300164</v>
+        <v>0.299175</v>
       </c>
       <c r="D101" t="n">
-        <v>0.477234</v>
+        <v>0.485278</v>
       </c>
       <c r="E101" t="n">
-        <v>0.395577</v>
+        <v>0.414935</v>
       </c>
       <c r="F101" t="n">
-        <v>0.278982</v>
+        <v>0.291256</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.529663</v>
+        <v>0.5979640000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.302656</v>
+        <v>0.299161</v>
       </c>
       <c r="D102" t="n">
-        <v>0.495379</v>
+        <v>0.504351</v>
       </c>
       <c r="E102" t="n">
-        <v>0.397212</v>
+        <v>0.418172</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279839</v>
+        <v>0.289353</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.530756</v>
+        <v>0.5989989999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>0.308322</v>
+        <v>0.304911</v>
       </c>
       <c r="D103" t="n">
-        <v>0.512506</v>
+        <v>0.5196</v>
       </c>
       <c r="E103" t="n">
-        <v>0.39774</v>
+        <v>0.417803</v>
       </c>
       <c r="F103" t="n">
-        <v>0.286833</v>
+        <v>0.299101</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.533928</v>
+        <v>0.599411</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310948</v>
+        <v>0.310725</v>
       </c>
       <c r="D104" t="n">
-        <v>0.527523</v>
+        <v>0.533559</v>
       </c>
       <c r="E104" t="n">
-        <v>0.398488</v>
+        <v>0.4061</v>
       </c>
       <c r="F104" t="n">
-        <v>0.282561</v>
+        <v>0.297227</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.537833</v>
+        <v>0.600558</v>
       </c>
       <c r="C105" t="n">
-        <v>0.310439</v>
+        <v>0.316992</v>
       </c>
       <c r="D105" t="n">
-        <v>0.544058</v>
+        <v>0.549822</v>
       </c>
       <c r="E105" t="n">
-        <v>0.402138</v>
+        <v>0.418557</v>
       </c>
       <c r="F105" t="n">
-        <v>0.292772</v>
+        <v>0.310531</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.540838</v>
+        <v>0.602972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.321713</v>
+        <v>0.312084</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563991</v>
+        <v>0.566944</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4048</v>
+        <v>0.421226</v>
       </c>
       <c r="F106" t="n">
-        <v>0.294313</v>
+        <v>0.313983</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.546463</v>
+        <v>0.607626</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328601</v>
+        <v>0.31933</v>
       </c>
       <c r="D107" t="n">
-        <v>0.52832</v>
+        <v>0.526377</v>
       </c>
       <c r="E107" t="n">
-        <v>0.41013</v>
+        <v>0.419596</v>
       </c>
       <c r="F107" t="n">
-        <v>0.298938</v>
+        <v>0.318391</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.553751</v>
+        <v>0.615072</v>
       </c>
       <c r="C108" t="n">
-        <v>0.334467</v>
+        <v>0.333932</v>
       </c>
       <c r="D108" t="n">
-        <v>0.54216</v>
+        <v>0.548001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.533094</v>
+        <v>0.551376</v>
       </c>
       <c r="F108" t="n">
-        <v>0.492495</v>
+        <v>0.507294</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.565084</v>
+        <v>0.624166</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351107</v>
+        <v>0.347467</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548195</v>
+        <v>0.565611</v>
       </c>
       <c r="E109" t="n">
-        <v>0.531732</v>
+        <v>0.552813</v>
       </c>
       <c r="F109" t="n">
-        <v>0.495739</v>
+        <v>0.490391</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.602454</v>
+        <v>0.689008</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5231789999999999</v>
+        <v>0.568588</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5636949999999999</v>
+        <v>0.5617799999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.532884</v>
+        <v>0.539098</v>
       </c>
       <c r="F110" t="n">
-        <v>0.493992</v>
+        <v>0.497093</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.602272</v>
+        <v>0.688348</v>
       </c>
       <c r="C111" t="n">
-        <v>0.528342</v>
+        <v>0.566975</v>
       </c>
       <c r="D111" t="n">
-        <v>0.575986</v>
+        <v>0.587892</v>
       </c>
       <c r="E111" t="n">
-        <v>0.534311</v>
+        <v>0.553602</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4953</v>
+        <v>0.515803</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.602342</v>
+        <v>0.694103</v>
       </c>
       <c r="C112" t="n">
-        <v>0.52717</v>
+        <v>0.566825</v>
       </c>
       <c r="D112" t="n">
-        <v>0.587359</v>
+        <v>0.59151</v>
       </c>
       <c r="E112" t="n">
-        <v>0.535184</v>
+        <v>0.557604</v>
       </c>
       <c r="F112" t="n">
-        <v>0.497898</v>
+        <v>0.513134</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.607206</v>
+        <v>0.6945480000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.525103</v>
+        <v>0.566357</v>
       </c>
       <c r="D113" t="n">
-        <v>0.60295</v>
+        <v>0.607231</v>
       </c>
       <c r="E113" t="n">
-        <v>0.535658</v>
+        <v>0.538036</v>
       </c>
       <c r="F113" t="n">
-        <v>0.49861</v>
+        <v>0.500605</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.608392</v>
+        <v>0.695134</v>
       </c>
       <c r="C114" t="n">
-        <v>0.528474</v>
+        <v>0.571614</v>
       </c>
       <c r="D114" t="n">
-        <v>0.617445</v>
+        <v>0.632686</v>
       </c>
       <c r="E114" t="n">
-        <v>0.533491</v>
+        <v>0.538595</v>
       </c>
       <c r="F114" t="n">
-        <v>0.497215</v>
+        <v>0.516398</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.608824</v>
+        <v>0.700636</v>
       </c>
       <c r="C115" t="n">
-        <v>0.529053</v>
+        <v>0.572564</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634076</v>
+        <v>0.634069</v>
       </c>
       <c r="E115" t="n">
-        <v>0.536362</v>
+        <v>0.554067</v>
       </c>
       <c r="F115" t="n">
-        <v>0.500038</v>
+        <v>0.514509</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.608325</v>
+        <v>0.69494</v>
       </c>
       <c r="C116" t="n">
-        <v>0.533856</v>
+        <v>0.57269</v>
       </c>
       <c r="D116" t="n">
-        <v>0.646172</v>
+        <v>0.658395</v>
       </c>
       <c r="E116" t="n">
-        <v>0.536752</v>
+        <v>0.557191</v>
       </c>
       <c r="F116" t="n">
-        <v>0.501494</v>
+        <v>0.519243</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.60925</v>
+        <v>0.699201</v>
       </c>
       <c r="C117" t="n">
-        <v>0.536388</v>
+        <v>0.575444</v>
       </c>
       <c r="D117" t="n">
-        <v>0.667424</v>
+        <v>0.67362</v>
       </c>
       <c r="E117" t="n">
-        <v>0.538861</v>
+        <v>0.551433</v>
       </c>
       <c r="F117" t="n">
-        <v>0.505754</v>
+        <v>0.525303</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.613963</v>
+        <v>0.698458</v>
       </c>
       <c r="C118" t="n">
-        <v>0.540439</v>
+        <v>0.581493</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676881</v>
+        <v>0.693707</v>
       </c>
       <c r="E118" t="n">
-        <v>0.541365</v>
+        <v>0.559893</v>
       </c>
       <c r="F118" t="n">
-        <v>0.508664</v>
+        <v>0.533554</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.621978</v>
+        <v>0.70643</v>
       </c>
       <c r="C119" t="n">
-        <v>0.542264</v>
+        <v>0.581739</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6968760000000001</v>
+        <v>0.711965</v>
       </c>
       <c r="E119" t="n">
-        <v>0.545705</v>
+        <v>0.56534</v>
       </c>
       <c r="F119" t="n">
-        <v>0.508023</v>
+        <v>0.530566</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.625772</v>
+        <v>0.706439</v>
       </c>
       <c r="C120" t="n">
-        <v>0.548561</v>
+        <v>0.587858</v>
       </c>
       <c r="D120" t="n">
-        <v>0.718041</v>
+        <v>0.72605</v>
       </c>
       <c r="E120" t="n">
-        <v>0.547894</v>
+        <v>0.569106</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5137119999999999</v>
+        <v>0.538486</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6288629999999999</v>
+        <v>0.716032</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5563</v>
+        <v>0.595532</v>
       </c>
       <c r="D121" t="n">
-        <v>0.63346</v>
+        <v>0.653847</v>
       </c>
       <c r="E121" t="n">
-        <v>0.553897</v>
+        <v>0.572845</v>
       </c>
       <c r="F121" t="n">
-        <v>0.520931</v>
+        <v>0.540914</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.637761</v>
+        <v>0.721979</v>
       </c>
       <c r="C122" t="n">
-        <v>0.572779</v>
+        <v>0.605587</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6447040000000001</v>
+        <v>0.662243</v>
       </c>
       <c r="E122" t="n">
-        <v>0.562763</v>
+        <v>0.580682</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5308929999999999</v>
+        <v>0.546864</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.64929</v>
+        <v>0.733588</v>
       </c>
       <c r="C123" t="n">
-        <v>0.580387</v>
+        <v>0.618651</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6573329999999999</v>
+        <v>0.674583</v>
       </c>
       <c r="E123" t="n">
-        <v>0.69092</v>
+        <v>0.7173850000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7046480000000001</v>
+        <v>0.730908</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.739303</v>
+        <v>0.810985</v>
       </c>
       <c r="C124" t="n">
-        <v>0.732291</v>
+        <v>0.7852209999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6695179999999999</v>
+        <v>0.671575</v>
       </c>
       <c r="E124" t="n">
-        <v>0.689592</v>
+        <v>0.7125359999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.706144</v>
+        <v>0.729773</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740434</v>
+        <v>0.8001509999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>0.733552</v>
+        <v>0.7841669999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.680804</v>
+        <v>0.699314</v>
       </c>
       <c r="E125" t="n">
-        <v>0.691448</v>
+        <v>0.717181</v>
       </c>
       <c r="F125" t="n">
-        <v>0.707026</v>
+        <v>0.734134</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7423070000000001</v>
+        <v>0.800646</v>
       </c>
       <c r="C126" t="n">
-        <v>0.735493</v>
+        <v>0.788717</v>
       </c>
       <c r="D126" t="n">
-        <v>0.695641</v>
+        <v>0.700722</v>
       </c>
       <c r="E126" t="n">
-        <v>0.691441</v>
+        <v>0.716074</v>
       </c>
       <c r="F126" t="n">
-        <v>0.70783</v>
+        <v>0.731786</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.742357</v>
+        <v>0.811766</v>
       </c>
       <c r="C127" t="n">
-        <v>0.736726</v>
+        <v>0.7899969999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.710989</v>
+        <v>0.7278790000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.693381</v>
+        <v>0.723093</v>
       </c>
       <c r="F127" t="n">
-        <v>0.709386</v>
+        <v>0.740263</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.743708</v>
+        <v>0.808953</v>
       </c>
       <c r="C128" t="n">
-        <v>0.738978</v>
+        <v>0.790423</v>
       </c>
       <c r="D128" t="n">
-        <v>0.724627</v>
+        <v>0.743152</v>
       </c>
       <c r="E128" t="n">
-        <v>0.693404</v>
+        <v>0.715544</v>
       </c>
       <c r="F128" t="n">
-        <v>0.711085</v>
+        <v>0.734916</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.746796</v>
+        <v>0.815281</v>
       </c>
       <c r="C129" t="n">
-        <v>0.740936</v>
+        <v>0.785762</v>
       </c>
       <c r="D129" t="n">
-        <v>0.73933</v>
+        <v>0.75663</v>
       </c>
       <c r="E129" t="n">
-        <v>0.693908</v>
+        <v>0.721954</v>
       </c>
       <c r="F129" t="n">
-        <v>0.713056</v>
+        <v>0.7339639999999999</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.745599</v>
+        <v>0.812826</v>
       </c>
       <c r="C130" t="n">
-        <v>0.742287</v>
+        <v>0.79461</v>
       </c>
       <c r="D130" t="n">
-        <v>0.75209</v>
+        <v>0.760961</v>
       </c>
       <c r="E130" t="n">
-        <v>0.697155</v>
+        <v>0.724257</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7162849999999999</v>
+        <v>0.739816</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.748243</v>
+        <v>0.816295</v>
       </c>
       <c r="C131" t="n">
-        <v>0.745635</v>
+        <v>0.795688</v>
       </c>
       <c r="D131" t="n">
-        <v>0.769136</v>
+        <v>0.7883790000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.697565</v>
+        <v>0.7218329999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>0.717141</v>
+        <v>0.742488</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.751685</v>
+        <v>0.817841</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7491719999999999</v>
+        <v>0.799932</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784218</v>
+        <v>0.803639</v>
       </c>
       <c r="E132" t="n">
-        <v>0.700518</v>
+        <v>0.727371</v>
       </c>
       <c r="F132" t="n">
-        <v>0.722462</v>
+        <v>0.7500250000000001</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.755555</v>
+        <v>0.827944</v>
       </c>
       <c r="C133" t="n">
-        <v>0.753846</v>
+        <v>0.803906</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80088</v>
+        <v>0.811686</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7030729999999999</v>
+        <v>0.723039</v>
       </c>
       <c r="F133" t="n">
-        <v>0.724285</v>
+        <v>0.748472</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.761684</v>
+        <v>0.826712</v>
       </c>
       <c r="C134" t="n">
-        <v>0.761358</v>
+        <v>0.811056</v>
       </c>
       <c r="D134" t="n">
-        <v>0.815626</v>
+        <v>0.838252</v>
       </c>
       <c r="E134" t="n">
-        <v>0.706933</v>
+        <v>0.721267</v>
       </c>
       <c r="F134" t="n">
-        <v>0.731588</v>
+        <v>0.743815</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.76786</v>
+        <v>0.833074</v>
       </c>
       <c r="C135" t="n">
-        <v>0.766741</v>
+        <v>0.817466</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690037</v>
+        <v>0.697664</v>
       </c>
       <c r="E135" t="n">
-        <v>0.711933</v>
+        <v>0.726112</v>
       </c>
       <c r="F135" t="n">
-        <v>0.737115</v>
+        <v>0.766341</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.77646</v>
+        <v>0.8448830000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.778826</v>
+        <v>0.828766</v>
       </c>
       <c r="D136" t="n">
-        <v>0.699977</v>
+        <v>0.715766</v>
       </c>
       <c r="E136" t="n">
-        <v>0.721002</v>
+        <v>0.75013</v>
       </c>
       <c r="F136" t="n">
-        <v>0.750738</v>
+        <v>0.777513</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786851</v>
+        <v>0.858055</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7938809999999999</v>
+        <v>0.8448369999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.710944</v>
+        <v>0.725115</v>
       </c>
       <c r="E137" t="n">
-        <v>0.823825</v>
+        <v>0.855228</v>
       </c>
       <c r="F137" t="n">
-        <v>0.835658</v>
+        <v>0.86892</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.864676</v>
+        <v>0.902543</v>
       </c>
       <c r="C138" t="n">
-        <v>0.862256</v>
+        <v>0.898833</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722477</v>
+        <v>0.739387</v>
       </c>
       <c r="E138" t="n">
-        <v>0.825065</v>
+        <v>0.85425</v>
       </c>
       <c r="F138" t="n">
-        <v>0.836306</v>
+        <v>0.860416</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.864545</v>
+        <v>0.904731</v>
       </c>
       <c r="C139" t="n">
-        <v>0.863408</v>
+        <v>0.899956</v>
       </c>
       <c r="D139" t="n">
-        <v>0.73433</v>
+        <v>0.752102</v>
       </c>
       <c r="E139" t="n">
-        <v>0.825418</v>
+        <v>0.8563730000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>0.837939</v>
+        <v>0.859633</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.865549</v>
+        <v>0.903773</v>
       </c>
       <c r="C140" t="n">
-        <v>0.865042</v>
+        <v>0.901695</v>
       </c>
       <c r="D140" t="n">
-        <v>0.747776</v>
+        <v>0.765794</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8260420000000001</v>
+        <v>0.855898</v>
       </c>
       <c r="F140" t="n">
-        <v>0.839144</v>
+        <v>0.876068</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.865936</v>
+        <v>0.904712</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8662530000000001</v>
+        <v>0.903271</v>
       </c>
       <c r="D141" t="n">
-        <v>0.761143</v>
+        <v>0.770525</v>
       </c>
       <c r="E141" t="n">
-        <v>0.827639</v>
+        <v>0.8470490000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>0.840122</v>
+        <v>0.873407</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.864533</v>
+        <v>0.8948660000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.866314</v>
+        <v>0.904495</v>
       </c>
       <c r="D142" t="n">
-        <v>0.774017</v>
+        <v>0.794006</v>
       </c>
       <c r="E142" t="n">
-        <v>0.826539</v>
+        <v>0.84566</v>
       </c>
       <c r="F142" t="n">
-        <v>0.841458</v>
+        <v>0.876359</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.867157</v>
+        <v>0.907487</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8683689999999999</v>
+        <v>0.907772</v>
       </c>
       <c r="D143" t="n">
-        <v>0.789529</v>
+        <v>0.807124</v>
       </c>
       <c r="E143" t="n">
-        <v>0.827473</v>
+        <v>0.847944</v>
       </c>
       <c r="F143" t="n">
-        <v>0.844963</v>
+        <v>0.881103</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.116175</v>
+        <v>0.121173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113304</v>
+        <v>0.124369</v>
       </c>
       <c r="D2" t="n">
-        <v>0.133919</v>
+        <v>0.137941</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111899</v>
+        <v>0.114357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.112628</v>
+        <v>0.113545</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.117102</v>
+        <v>0.126351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114125</v>
+        <v>0.126911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140479</v>
+        <v>0.144195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.112313</v>
+        <v>0.114529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.113108</v>
+        <v>0.114192</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118054</v>
+        <v>0.130554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.115307</v>
+        <v>0.126053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.145255</v>
+        <v>0.150611</v>
       </c>
       <c r="E4" t="n">
-        <v>0.111087</v>
+        <v>0.112464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.113413</v>
+        <v>0.114878</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.122259</v>
+        <v>0.125308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.118287</v>
+        <v>0.123656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.152309</v>
+        <v>0.157313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.112731</v>
+        <v>0.11537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.113814</v>
+        <v>0.114471</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.124605</v>
+        <v>0.129263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.119863</v>
+        <v>0.129516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.158455</v>
+        <v>0.163356</v>
       </c>
       <c r="E6" t="n">
-        <v>0.113648</v>
+        <v>0.11597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.114721</v>
+        <v>0.11527</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.129246</v>
+        <v>0.143688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.135307</v>
+        <v>0.135318</v>
       </c>
       <c r="D7" t="n">
-        <v>0.129223</v>
+        <v>0.133834</v>
       </c>
       <c r="E7" t="n">
-        <v>0.114354</v>
+        <v>0.117015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.117427</v>
+        <v>0.11674</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13566</v>
+        <v>0.140285</v>
       </c>
       <c r="C8" t="n">
-        <v>0.13821</v>
+        <v>0.138784</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133281</v>
+        <v>0.138233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114699</v>
+        <v>0.116549</v>
       </c>
       <c r="F8" t="n">
-        <v>0.117501</v>
+        <v>0.118549</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.143852</v>
+        <v>0.148717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155431</v>
+        <v>0.155524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.138048</v>
+        <v>0.142207</v>
       </c>
       <c r="E9" t="n">
-        <v>0.117325</v>
+        <v>0.119981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.11522</v>
+        <v>0.120875</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126021</v>
+        <v>0.126618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.119801</v>
+        <v>0.13898</v>
       </c>
       <c r="D10" t="n">
-        <v>0.142733</v>
+        <v>0.146904</v>
       </c>
       <c r="E10" t="n">
-        <v>0.117387</v>
+        <v>0.120217</v>
       </c>
       <c r="F10" t="n">
-        <v>0.115254</v>
+        <v>0.120709</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126677</v>
+        <v>0.127069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.126543</v>
+        <v>0.132803</v>
       </c>
       <c r="D11" t="n">
-        <v>0.146474</v>
+        <v>0.151351</v>
       </c>
       <c r="E11" t="n">
-        <v>0.117673</v>
+        <v>0.120478</v>
       </c>
       <c r="F11" t="n">
-        <v>0.115617</v>
+        <v>0.124398</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.12693</v>
+        <v>0.127276</v>
       </c>
       <c r="C12" t="n">
-        <v>0.121165</v>
+        <v>0.137766</v>
       </c>
       <c r="D12" t="n">
-        <v>0.151763</v>
+        <v>0.156583</v>
       </c>
       <c r="E12" t="n">
-        <v>0.117887</v>
+        <v>0.120276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.115748</v>
+        <v>0.121233</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.128148</v>
+        <v>0.127454</v>
       </c>
       <c r="C13" t="n">
-        <v>0.125185</v>
+        <v>0.127802</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156368</v>
+        <v>0.161821</v>
       </c>
       <c r="E13" t="n">
-        <v>0.118909</v>
+        <v>0.120045</v>
       </c>
       <c r="F13" t="n">
-        <v>0.123946</v>
+        <v>0.13222</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.128743</v>
+        <v>0.128405</v>
       </c>
       <c r="C14" t="n">
-        <v>0.131712</v>
+        <v>0.13721</v>
       </c>
       <c r="D14" t="n">
-        <v>0.161835</v>
+        <v>0.166165</v>
       </c>
       <c r="E14" t="n">
-        <v>0.11957</v>
+        <v>0.120681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.121486</v>
+        <v>0.120279</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.129587</v>
+        <v>0.128333</v>
       </c>
       <c r="C15" t="n">
-        <v>0.124293</v>
+        <v>0.139481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167371</v>
+        <v>0.17218</v>
       </c>
       <c r="E15" t="n">
-        <v>0.119997</v>
+        <v>0.12052</v>
       </c>
       <c r="F15" t="n">
-        <v>0.117814</v>
+        <v>0.119849</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.13044</v>
+        <v>0.129431</v>
       </c>
       <c r="C16" t="n">
-        <v>0.127885</v>
+        <v>0.129396</v>
       </c>
       <c r="D16" t="n">
-        <v>0.173903</v>
+        <v>0.177209</v>
       </c>
       <c r="E16" t="n">
-        <v>0.120019</v>
+        <v>0.120603</v>
       </c>
       <c r="F16" t="n">
-        <v>0.117607</v>
+        <v>0.118139</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.132269</v>
+        <v>0.130682</v>
       </c>
       <c r="C17" t="n">
-        <v>0.119909</v>
+        <v>0.133682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.179129</v>
+        <v>0.183493</v>
       </c>
       <c r="E17" t="n">
-        <v>0.120816</v>
+        <v>0.120882</v>
       </c>
       <c r="F17" t="n">
-        <v>0.115775</v>
+        <v>0.125572</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133479</v>
+        <v>0.132128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.122929</v>
+        <v>0.134188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.182855</v>
+        <v>0.188061</v>
       </c>
       <c r="E18" t="n">
-        <v>0.121536</v>
+        <v>0.121021</v>
       </c>
       <c r="F18" t="n">
-        <v>0.117028</v>
+        <v>0.118822</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.136296</v>
+        <v>0.134861</v>
       </c>
       <c r="C19" t="n">
-        <v>0.126277</v>
+        <v>0.126988</v>
       </c>
       <c r="D19" t="n">
-        <v>0.189315</v>
+        <v>0.193894</v>
       </c>
       <c r="E19" t="n">
-        <v>0.121972</v>
+        <v>0.121436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.11696</v>
+        <v>0.118473</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.138729</v>
+        <v>0.138427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.128319</v>
+        <v>0.140678</v>
       </c>
       <c r="D20" t="n">
-        <v>0.195641</v>
+        <v>0.196195</v>
       </c>
       <c r="E20" t="n">
-        <v>0.122806</v>
+        <v>0.121661</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125453</v>
+        <v>0.132744</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.146387</v>
+        <v>0.143673</v>
       </c>
       <c r="C21" t="n">
-        <v>0.137145</v>
+        <v>0.153505</v>
       </c>
       <c r="D21" t="n">
-        <v>0.156696</v>
+        <v>0.159355</v>
       </c>
       <c r="E21" t="n">
-        <v>0.125215</v>
+        <v>0.123391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.121699</v>
+        <v>0.138052</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.157945</v>
+        <v>0.15225</v>
       </c>
       <c r="C22" t="n">
-        <v>0.144876</v>
+        <v>0.172311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.161505</v>
+        <v>0.163666</v>
       </c>
       <c r="E22" t="n">
-        <v>0.128684</v>
+        <v>0.127699</v>
       </c>
       <c r="F22" t="n">
-        <v>0.124478</v>
+        <v>0.131415</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165273</v>
+        <v>0.164735</v>
       </c>
       <c r="C23" t="n">
-        <v>0.153379</v>
+        <v>0.180348</v>
       </c>
       <c r="D23" t="n">
-        <v>0.165266</v>
+        <v>0.169071</v>
       </c>
       <c r="E23" t="n">
-        <v>0.127153</v>
+        <v>0.129617</v>
       </c>
       <c r="F23" t="n">
-        <v>0.126104</v>
+        <v>0.133875</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.137331</v>
+        <v>0.137123</v>
       </c>
       <c r="C24" t="n">
-        <v>0.126896</v>
+        <v>0.128115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.169815</v>
+        <v>0.173764</v>
       </c>
       <c r="E24" t="n">
-        <v>0.128436</v>
+        <v>0.131492</v>
       </c>
       <c r="F24" t="n">
-        <v>0.123313</v>
+        <v>0.126997</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13697</v>
+        <v>0.138713</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128837</v>
+        <v>0.139627</v>
       </c>
       <c r="D25" t="n">
-        <v>0.174323</v>
+        <v>0.179712</v>
       </c>
       <c r="E25" t="n">
-        <v>0.126785</v>
+        <v>0.130492</v>
       </c>
       <c r="F25" t="n">
-        <v>0.12914</v>
+        <v>0.13192</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.137426</v>
+        <v>0.138802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.130033</v>
+        <v>0.13815</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180216</v>
+        <v>0.183153</v>
       </c>
       <c r="E26" t="n">
-        <v>0.126744</v>
+        <v>0.130432</v>
       </c>
       <c r="F26" t="n">
-        <v>0.126343</v>
+        <v>0.126326</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137245</v>
+        <v>0.137368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.136621</v>
+        <v>0.137576</v>
       </c>
       <c r="D27" t="n">
-        <v>0.185046</v>
+        <v>0.186587</v>
       </c>
       <c r="E27" t="n">
-        <v>0.126659</v>
+        <v>0.130151</v>
       </c>
       <c r="F27" t="n">
-        <v>0.124882</v>
+        <v>0.131872</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.138882</v>
+        <v>0.138419</v>
       </c>
       <c r="C28" t="n">
-        <v>0.142895</v>
+        <v>0.138656</v>
       </c>
       <c r="D28" t="n">
-        <v>0.189552</v>
+        <v>0.190915</v>
       </c>
       <c r="E28" t="n">
-        <v>0.127069</v>
+        <v>0.131297</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125945</v>
+        <v>0.124235</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.138792</v>
+        <v>0.141755</v>
       </c>
       <c r="C29" t="n">
-        <v>0.130555</v>
+        <v>0.144485</v>
       </c>
       <c r="D29" t="n">
-        <v>0.19512</v>
+        <v>0.196524</v>
       </c>
       <c r="E29" t="n">
-        <v>0.127531</v>
+        <v>0.131403</v>
       </c>
       <c r="F29" t="n">
-        <v>0.128289</v>
+        <v>0.133494</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.139907</v>
+        <v>0.140523</v>
       </c>
       <c r="C30" t="n">
-        <v>0.138356</v>
+        <v>0.140134</v>
       </c>
       <c r="D30" t="n">
-        <v>0.200055</v>
+        <v>0.201223</v>
       </c>
       <c r="E30" t="n">
-        <v>0.127767</v>
+        <v>0.131355</v>
       </c>
       <c r="F30" t="n">
-        <v>0.128244</v>
+        <v>0.126681</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141573</v>
+        <v>0.142826</v>
       </c>
       <c r="C31" t="n">
-        <v>0.14372</v>
+        <v>0.146574</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203714</v>
+        <v>0.205972</v>
       </c>
       <c r="E31" t="n">
-        <v>0.128922</v>
+        <v>0.135997</v>
       </c>
       <c r="F31" t="n">
-        <v>0.129961</v>
+        <v>0.128865</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143629</v>
+        <v>0.144124</v>
       </c>
       <c r="C32" t="n">
-        <v>0.146248</v>
+        <v>0.155794</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210055</v>
+        <v>0.211493</v>
       </c>
       <c r="E32" t="n">
-        <v>0.128617</v>
+        <v>0.132911</v>
       </c>
       <c r="F32" t="n">
-        <v>0.130445</v>
+        <v>0.137649</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.146638</v>
+        <v>0.147006</v>
       </c>
       <c r="C33" t="n">
-        <v>0.14747</v>
+        <v>0.148702</v>
       </c>
       <c r="D33" t="n">
-        <v>0.214821</v>
+        <v>0.215831</v>
       </c>
       <c r="E33" t="n">
-        <v>0.128932</v>
+        <v>0.133849</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129814</v>
+        <v>0.127243</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.151225</v>
+        <v>0.151888</v>
       </c>
       <c r="C34" t="n">
-        <v>0.156706</v>
+        <v>0.154001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221817</v>
+        <v>0.222734</v>
       </c>
       <c r="E34" t="n">
-        <v>0.13077</v>
+        <v>0.138536</v>
       </c>
       <c r="F34" t="n">
-        <v>0.132499</v>
+        <v>0.137405</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.154705</v>
+        <v>0.155522</v>
       </c>
       <c r="C35" t="n">
-        <v>0.163494</v>
+        <v>0.166693</v>
       </c>
       <c r="D35" t="n">
-        <v>0.164547</v>
+        <v>0.167186</v>
       </c>
       <c r="E35" t="n">
-        <v>0.134359</v>
+        <v>0.138808</v>
       </c>
       <c r="F35" t="n">
-        <v>0.138175</v>
+        <v>0.136861</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.162731</v>
+        <v>0.161981</v>
       </c>
       <c r="C36" t="n">
-        <v>0.163367</v>
+        <v>0.162681</v>
       </c>
       <c r="D36" t="n">
-        <v>0.167734</v>
+        <v>0.169576</v>
       </c>
       <c r="E36" t="n">
-        <v>0.144679</v>
+        <v>0.145686</v>
       </c>
       <c r="F36" t="n">
-        <v>0.143676</v>
+        <v>0.143827</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170766</v>
+        <v>0.175212</v>
       </c>
       <c r="C37" t="n">
-        <v>0.180324</v>
+        <v>0.178647</v>
       </c>
       <c r="D37" t="n">
-        <v>0.171736</v>
+        <v>0.174133</v>
       </c>
       <c r="E37" t="n">
-        <v>0.14109</v>
+        <v>0.143897</v>
       </c>
       <c r="F37" t="n">
-        <v>0.143808</v>
+        <v>0.145411</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150516</v>
+        <v>0.149318</v>
       </c>
       <c r="C38" t="n">
-        <v>0.144332</v>
+        <v>0.144307</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177131</v>
+        <v>0.179416</v>
       </c>
       <c r="E38" t="n">
-        <v>0.146127</v>
+        <v>0.143528</v>
       </c>
       <c r="F38" t="n">
-        <v>0.143235</v>
+        <v>0.143679</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147041</v>
+        <v>0.149153</v>
       </c>
       <c r="C39" t="n">
-        <v>0.14758</v>
+        <v>0.144679</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182252</v>
+        <v>0.183143</v>
       </c>
       <c r="E39" t="n">
-        <v>0.139593</v>
+        <v>0.143663</v>
       </c>
       <c r="F39" t="n">
-        <v>0.15028</v>
+        <v>0.146582</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.153155</v>
+        <v>0.14965</v>
       </c>
       <c r="C40" t="n">
-        <v>0.146273</v>
+        <v>0.156308</v>
       </c>
       <c r="D40" t="n">
-        <v>0.185162</v>
+        <v>0.187152</v>
       </c>
       <c r="E40" t="n">
-        <v>0.140422</v>
+        <v>0.143898</v>
       </c>
       <c r="F40" t="n">
-        <v>0.145731</v>
+        <v>0.145881</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149965</v>
+        <v>0.150329</v>
       </c>
       <c r="C41" t="n">
-        <v>0.15142</v>
+        <v>0.153314</v>
       </c>
       <c r="D41" t="n">
-        <v>0.190025</v>
+        <v>0.19244</v>
       </c>
       <c r="E41" t="n">
-        <v>0.143493</v>
+        <v>0.144394</v>
       </c>
       <c r="F41" t="n">
-        <v>0.144479</v>
+        <v>0.145453</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.15066</v>
+        <v>0.151009</v>
       </c>
       <c r="C42" t="n">
-        <v>0.14859</v>
+        <v>0.155954</v>
       </c>
       <c r="D42" t="n">
-        <v>0.195262</v>
+        <v>0.197278</v>
       </c>
       <c r="E42" t="n">
-        <v>0.141888</v>
+        <v>0.14499</v>
       </c>
       <c r="F42" t="n">
-        <v>0.146483</v>
+        <v>0.14663</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.152158</v>
+        <v>0.151554</v>
       </c>
       <c r="C43" t="n">
-        <v>0.155725</v>
+        <v>0.159881</v>
       </c>
       <c r="D43" t="n">
-        <v>0.200833</v>
+        <v>0.201988</v>
       </c>
       <c r="E43" t="n">
-        <v>0.145185</v>
+        <v>0.145179</v>
       </c>
       <c r="F43" t="n">
-        <v>0.146487</v>
+        <v>0.144446</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.152152</v>
+        <v>0.153222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.150612</v>
+        <v>0.15878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.204952</v>
+        <v>0.206408</v>
       </c>
       <c r="E44" t="n">
-        <v>0.143607</v>
+        <v>0.145297</v>
       </c>
       <c r="F44" t="n">
-        <v>0.147417</v>
+        <v>0.148286</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.154746</v>
+        <v>0.152831</v>
       </c>
       <c r="C45" t="n">
-        <v>0.151268</v>
+        <v>0.153701</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210465</v>
+        <v>0.212225</v>
       </c>
       <c r="E45" t="n">
-        <v>0.146681</v>
+        <v>0.147016</v>
       </c>
       <c r="F45" t="n">
-        <v>0.145584</v>
+        <v>0.151006</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.157662</v>
+        <v>0.157887</v>
       </c>
       <c r="C46" t="n">
-        <v>0.154384</v>
+        <v>0.159651</v>
       </c>
       <c r="D46" t="n">
-        <v>0.216123</v>
+        <v>0.217567</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144178</v>
+        <v>0.145854</v>
       </c>
       <c r="F46" t="n">
-        <v>0.147632</v>
+        <v>0.149754</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.161413</v>
+        <v>0.159532</v>
       </c>
       <c r="C47" t="n">
-        <v>0.163218</v>
+        <v>0.163968</v>
       </c>
       <c r="D47" t="n">
-        <v>0.221493</v>
+        <v>0.222165</v>
       </c>
       <c r="E47" t="n">
-        <v>0.144044</v>
+        <v>0.146213</v>
       </c>
       <c r="F47" t="n">
-        <v>0.149288</v>
+        <v>0.151592</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.166349</v>
+        <v>0.160393</v>
       </c>
       <c r="C48" t="n">
-        <v>0.165787</v>
+        <v>0.173297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.225704</v>
+        <v>0.226758</v>
       </c>
       <c r="E48" t="n">
-        <v>0.146756</v>
+        <v>0.149561</v>
       </c>
       <c r="F48" t="n">
-        <v>0.15163</v>
+        <v>0.155611</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.164134</v>
+        <v>0.165422</v>
       </c>
       <c r="C49" t="n">
-        <v>0.165111</v>
+        <v>0.16359</v>
       </c>
       <c r="D49" t="n">
-        <v>0.230392</v>
+        <v>0.232478</v>
       </c>
       <c r="E49" t="n">
-        <v>0.151475</v>
+        <v>0.157015</v>
       </c>
       <c r="F49" t="n">
-        <v>0.157028</v>
+        <v>0.157206</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.171775</v>
+        <v>0.171578</v>
       </c>
       <c r="C50" t="n">
-        <v>0.174843</v>
+        <v>0.177091</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168884</v>
+        <v>0.170689</v>
       </c>
       <c r="E50" t="n">
-        <v>0.157723</v>
+        <v>0.159825</v>
       </c>
       <c r="F50" t="n">
-        <v>0.164202</v>
+        <v>0.16201</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.181009</v>
+        <v>0.181217</v>
       </c>
       <c r="C51" t="n">
-        <v>0.180543</v>
+        <v>0.192044</v>
       </c>
       <c r="D51" t="n">
-        <v>0.172004</v>
+        <v>0.173561</v>
       </c>
       <c r="E51" t="n">
-        <v>0.152613</v>
+        <v>0.15765</v>
       </c>
       <c r="F51" t="n">
-        <v>0.165763</v>
+        <v>0.161509</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.195095</v>
+        <v>0.188626</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192984</v>
+        <v>0.192424</v>
       </c>
       <c r="D52" t="n">
-        <v>0.176698</v>
+        <v>0.177157</v>
       </c>
       <c r="E52" t="n">
-        <v>0.158003</v>
+        <v>0.159404</v>
       </c>
       <c r="F52" t="n">
-        <v>0.156674</v>
+        <v>0.163888</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166242</v>
+        <v>0.161134</v>
       </c>
       <c r="C53" t="n">
-        <v>0.160479</v>
+        <v>0.166613</v>
       </c>
       <c r="D53" t="n">
-        <v>0.179791</v>
+        <v>0.18163</v>
       </c>
       <c r="E53" t="n">
-        <v>0.154318</v>
+        <v>0.158582</v>
       </c>
       <c r="F53" t="n">
-        <v>0.156458</v>
+        <v>0.162927</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.160141</v>
+        <v>0.162224</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166321</v>
+        <v>0.162441</v>
       </c>
       <c r="D54" t="n">
-        <v>0.184337</v>
+        <v>0.185936</v>
       </c>
       <c r="E54" t="n">
-        <v>0.153409</v>
+        <v>0.158924</v>
       </c>
       <c r="F54" t="n">
-        <v>0.157512</v>
+        <v>0.166125</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.163788</v>
+        <v>0.162643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.163103</v>
+        <v>0.170079</v>
       </c>
       <c r="D55" t="n">
-        <v>0.188983</v>
+        <v>0.190344</v>
       </c>
       <c r="E55" t="n">
-        <v>0.155281</v>
+        <v>0.161481</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1598</v>
+        <v>0.16117</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.165404</v>
+        <v>0.163021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.162115</v>
+        <v>0.166942</v>
       </c>
       <c r="D56" t="n">
-        <v>0.193693</v>
+        <v>0.1957</v>
       </c>
       <c r="E56" t="n">
-        <v>0.155176</v>
+        <v>0.158552</v>
       </c>
       <c r="F56" t="n">
-        <v>0.161825</v>
+        <v>0.167453</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.167063</v>
+        <v>0.16278</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165247</v>
+        <v>0.170579</v>
       </c>
       <c r="D57" t="n">
-        <v>0.198932</v>
+        <v>0.200672</v>
       </c>
       <c r="E57" t="n">
-        <v>0.153238</v>
+        <v>0.158969</v>
       </c>
       <c r="F57" t="n">
-        <v>0.162488</v>
+        <v>0.163386</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.164584</v>
+        <v>0.168988</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17219</v>
+        <v>0.164985</v>
       </c>
       <c r="D58" t="n">
-        <v>0.204287</v>
+        <v>0.206128</v>
       </c>
       <c r="E58" t="n">
-        <v>0.15574</v>
+        <v>0.160265</v>
       </c>
       <c r="F58" t="n">
-        <v>0.160225</v>
+        <v>0.163992</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.16786</v>
+        <v>0.166797</v>
       </c>
       <c r="C59" t="n">
-        <v>0.169923</v>
+        <v>0.16687</v>
       </c>
       <c r="D59" t="n">
-        <v>0.209888</v>
+        <v>0.211051</v>
       </c>
       <c r="E59" t="n">
-        <v>0.156709</v>
+        <v>0.159507</v>
       </c>
       <c r="F59" t="n">
-        <v>0.163536</v>
+        <v>0.167954</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.166761</v>
+        <v>0.167978</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1682</v>
+        <v>0.169757</v>
       </c>
       <c r="D60" t="n">
-        <v>0.215466</v>
+        <v>0.216268</v>
       </c>
       <c r="E60" t="n">
-        <v>0.157581</v>
+        <v>0.162192</v>
       </c>
       <c r="F60" t="n">
-        <v>0.165752</v>
+        <v>0.170196</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.173956</v>
+        <v>0.171234</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169594</v>
+        <v>0.171893</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222479</v>
+        <v>0.221143</v>
       </c>
       <c r="E61" t="n">
-        <v>0.159353</v>
+        <v>0.16284</v>
       </c>
       <c r="F61" t="n">
-        <v>0.165438</v>
+        <v>0.169511</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.178239</v>
+        <v>0.173765</v>
       </c>
       <c r="C62" t="n">
-        <v>0.175012</v>
+        <v>0.181659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.226745</v>
+        <v>0.226341</v>
       </c>
       <c r="E62" t="n">
-        <v>0.161927</v>
+        <v>0.165271</v>
       </c>
       <c r="F62" t="n">
-        <v>0.168482</v>
+        <v>0.173786</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.176991</v>
+        <v>0.177443</v>
       </c>
       <c r="C63" t="n">
-        <v>0.183923</v>
+        <v>0.186298</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236555</v>
+        <v>0.230738</v>
       </c>
       <c r="E63" t="n">
-        <v>0.167956</v>
+        <v>0.168565</v>
       </c>
       <c r="F63" t="n">
-        <v>0.169704</v>
+        <v>0.173128</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18275</v>
+        <v>0.184257</v>
       </c>
       <c r="C64" t="n">
-        <v>0.183405</v>
+        <v>0.189567</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1813</v>
+        <v>0.178347</v>
       </c>
       <c r="E64" t="n">
-        <v>0.169588</v>
+        <v>0.171982</v>
       </c>
       <c r="F64" t="n">
-        <v>0.179236</v>
+        <v>0.181794</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.189579</v>
+        <v>0.189232</v>
       </c>
       <c r="C65" t="n">
-        <v>0.192448</v>
+        <v>0.195479</v>
       </c>
       <c r="D65" t="n">
-        <v>0.182184</v>
+        <v>0.179605</v>
       </c>
       <c r="E65" t="n">
-        <v>0.175973</v>
+        <v>0.179499</v>
       </c>
       <c r="F65" t="n">
-        <v>0.182385</v>
+        <v>0.193048</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.203729</v>
+        <v>0.198703</v>
       </c>
       <c r="C66" t="n">
-        <v>0.200609</v>
+        <v>0.2106</v>
       </c>
       <c r="D66" t="n">
-        <v>0.192459</v>
+        <v>0.186219</v>
       </c>
       <c r="E66" t="n">
-        <v>0.184271</v>
+        <v>0.169024</v>
       </c>
       <c r="F66" t="n">
-        <v>0.173057</v>
+        <v>0.170897</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.243192</v>
+        <v>0.18302</v>
       </c>
       <c r="C67" t="n">
-        <v>0.173119</v>
+        <v>0.172356</v>
       </c>
       <c r="D67" t="n">
-        <v>0.191619</v>
+        <v>0.190031</v>
       </c>
       <c r="E67" t="n">
-        <v>0.178378</v>
+        <v>0.171342</v>
       </c>
       <c r="F67" t="n">
-        <v>0.170437</v>
+        <v>0.179008</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.246715</v>
+        <v>0.180751</v>
       </c>
       <c r="C68" t="n">
-        <v>0.174273</v>
+        <v>0.173098</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19726</v>
+        <v>0.197582</v>
       </c>
       <c r="E68" t="n">
-        <v>0.169941</v>
+        <v>0.170877</v>
       </c>
       <c r="F68" t="n">
-        <v>0.169938</v>
+        <v>0.180391</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229048</v>
+        <v>0.182962</v>
       </c>
       <c r="C69" t="n">
-        <v>0.176406</v>
+        <v>0.173652</v>
       </c>
       <c r="D69" t="n">
-        <v>0.203729</v>
+        <v>0.204774</v>
       </c>
       <c r="E69" t="n">
-        <v>0.174203</v>
+        <v>0.171782</v>
       </c>
       <c r="F69" t="n">
-        <v>0.170878</v>
+        <v>0.173932</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.252046</v>
+        <v>0.181411</v>
       </c>
       <c r="C70" t="n">
-        <v>0.177701</v>
+        <v>0.17403</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21296</v>
+        <v>0.212654</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17048</v>
+        <v>0.171488</v>
       </c>
       <c r="F70" t="n">
-        <v>0.169974</v>
+        <v>0.174573</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.234161</v>
+        <v>0.18128</v>
       </c>
       <c r="C71" t="n">
-        <v>0.177875</v>
+        <v>0.175057</v>
       </c>
       <c r="D71" t="n">
-        <v>0.222668</v>
+        <v>0.218599</v>
       </c>
       <c r="E71" t="n">
-        <v>0.169432</v>
+        <v>0.171351</v>
       </c>
       <c r="F71" t="n">
-        <v>0.172963</v>
+        <v>0.171262</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.200404</v>
+        <v>0.183056</v>
       </c>
       <c r="C72" t="n">
-        <v>0.182934</v>
+        <v>0.177659</v>
       </c>
       <c r="D72" t="n">
-        <v>0.229902</v>
+        <v>0.2268</v>
       </c>
       <c r="E72" t="n">
-        <v>0.173215</v>
+        <v>0.171791</v>
       </c>
       <c r="F72" t="n">
-        <v>0.172505</v>
+        <v>0.175204</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.196635</v>
+        <v>0.184753</v>
       </c>
       <c r="C73" t="n">
-        <v>0.178248</v>
+        <v>0.177849</v>
       </c>
       <c r="D73" t="n">
-        <v>0.237544</v>
+        <v>0.234548</v>
       </c>
       <c r="E73" t="n">
-        <v>0.181836</v>
+        <v>0.172442</v>
       </c>
       <c r="F73" t="n">
-        <v>0.173421</v>
+        <v>0.177876</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.19118</v>
+        <v>0.186477</v>
       </c>
       <c r="C74" t="n">
-        <v>0.181141</v>
+        <v>0.179787</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246508</v>
+        <v>0.245053</v>
       </c>
       <c r="E74" t="n">
-        <v>0.17299</v>
+        <v>0.173196</v>
       </c>
       <c r="F74" t="n">
-        <v>0.176165</v>
+        <v>0.177513</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195109</v>
+        <v>0.188685</v>
       </c>
       <c r="C75" t="n">
-        <v>0.18948</v>
+        <v>0.182272</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257041</v>
+        <v>0.253197</v>
       </c>
       <c r="E75" t="n">
-        <v>0.180536</v>
+        <v>0.186561</v>
       </c>
       <c r="F75" t="n">
-        <v>0.176016</v>
+        <v>0.178865</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195562</v>
+        <v>0.192786</v>
       </c>
       <c r="C76" t="n">
-        <v>0.185466</v>
+        <v>0.185136</v>
       </c>
       <c r="D76" t="n">
-        <v>0.265143</v>
+        <v>0.265198</v>
       </c>
       <c r="E76" t="n">
-        <v>0.181546</v>
+        <v>0.187453</v>
       </c>
       <c r="F76" t="n">
-        <v>0.179946</v>
+        <v>0.182981</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.205379</v>
+        <v>0.19531</v>
       </c>
       <c r="C77" t="n">
-        <v>0.189143</v>
+        <v>0.189579</v>
       </c>
       <c r="D77" t="n">
-        <v>0.276871</v>
+        <v>0.276079</v>
       </c>
       <c r="E77" t="n">
-        <v>0.179799</v>
+        <v>0.17992</v>
       </c>
       <c r="F77" t="n">
-        <v>0.182792</v>
+        <v>0.18608</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.226586</v>
+        <v>0.198996</v>
       </c>
       <c r="C78" t="n">
-        <v>0.194361</v>
+        <v>0.194712</v>
       </c>
       <c r="D78" t="n">
-        <v>0.229701</v>
+        <v>0.227229</v>
       </c>
       <c r="E78" t="n">
-        <v>0.182941</v>
+        <v>0.18415</v>
       </c>
       <c r="F78" t="n">
-        <v>0.187931</v>
+        <v>0.198849</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.216794</v>
+        <v>0.207309</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201314</v>
+        <v>0.208536</v>
       </c>
       <c r="D79" t="n">
-        <v>0.237526</v>
+        <v>0.235822</v>
       </c>
       <c r="E79" t="n">
-        <v>0.190027</v>
+        <v>0.189339</v>
       </c>
       <c r="F79" t="n">
-        <v>0.195185</v>
+        <v>0.198435</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.233772</v>
+        <v>0.217847</v>
       </c>
       <c r="C80" t="n">
-        <v>0.211699</v>
+        <v>0.210646</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249054</v>
+        <v>0.245432</v>
       </c>
       <c r="E80" t="n">
-        <v>0.253238</v>
+        <v>0.24965</v>
       </c>
       <c r="F80" t="n">
-        <v>0.181028</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.373717</v>
+        <v>0.368611</v>
       </c>
       <c r="C81" t="n">
-        <v>0.181559</v>
+        <v>0.183634</v>
       </c>
       <c r="D81" t="n">
-        <v>0.258538</v>
+        <v>0.26039</v>
       </c>
       <c r="E81" t="n">
-        <v>0.258983</v>
+        <v>0.230727</v>
       </c>
       <c r="F81" t="n">
-        <v>0.181594</v>
+        <v>0.190705</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.37733</v>
+        <v>0.367157</v>
       </c>
       <c r="C82" t="n">
-        <v>0.184593</v>
+        <v>0.181714</v>
       </c>
       <c r="D82" t="n">
-        <v>0.273512</v>
+        <v>0.272067</v>
       </c>
       <c r="E82" t="n">
-        <v>0.256313</v>
+        <v>0.25157</v>
       </c>
       <c r="F82" t="n">
-        <v>0.182484</v>
+        <v>0.186039</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380815</v>
+        <v>0.368659</v>
       </c>
       <c r="C83" t="n">
-        <v>0.185078</v>
+        <v>0.184077</v>
       </c>
       <c r="D83" t="n">
-        <v>0.286546</v>
+        <v>0.285138</v>
       </c>
       <c r="E83" t="n">
-        <v>0.260348</v>
+        <v>0.252132</v>
       </c>
       <c r="F83" t="n">
-        <v>0.182453</v>
+        <v>0.187355</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.378476</v>
+        <v>0.371978</v>
       </c>
       <c r="C84" t="n">
-        <v>0.186838</v>
+        <v>0.18478</v>
       </c>
       <c r="D84" t="n">
-        <v>0.300435</v>
+        <v>0.301349</v>
       </c>
       <c r="E84" t="n">
-        <v>0.262062</v>
+        <v>0.25131</v>
       </c>
       <c r="F84" t="n">
-        <v>0.184655</v>
+        <v>0.19276</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.38092</v>
+        <v>0.368907</v>
       </c>
       <c r="C85" t="n">
-        <v>0.186745</v>
+        <v>0.185777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.31663</v>
+        <v>0.318534</v>
       </c>
       <c r="E85" t="n">
-        <v>0.26004</v>
+        <v>0.250694</v>
       </c>
       <c r="F85" t="n">
-        <v>0.18639</v>
+        <v>0.189201</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.380843</v>
+        <v>0.370999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.187798</v>
+        <v>0.18621</v>
       </c>
       <c r="D86" t="n">
-        <v>0.331677</v>
+        <v>0.33363</v>
       </c>
       <c r="E86" t="n">
-        <v>0.249504</v>
+        <v>0.251677</v>
       </c>
       <c r="F86" t="n">
-        <v>0.189858</v>
+        <v>0.197084</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.383353</v>
+        <v>0.37466</v>
       </c>
       <c r="C87" t="n">
-        <v>0.190439</v>
+        <v>0.189368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.34578</v>
+        <v>0.348206</v>
       </c>
       <c r="E87" t="n">
-        <v>0.259458</v>
+        <v>0.225237</v>
       </c>
       <c r="F87" t="n">
-        <v>0.190712</v>
+        <v>0.195638</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.390772</v>
+        <v>0.37671</v>
       </c>
       <c r="C88" t="n">
-        <v>0.191478</v>
+        <v>0.190636</v>
       </c>
       <c r="D88" t="n">
-        <v>0.361106</v>
+        <v>0.361447</v>
       </c>
       <c r="E88" t="n">
-        <v>0.25725</v>
+        <v>0.250584</v>
       </c>
       <c r="F88" t="n">
-        <v>0.193015</v>
+        <v>0.195526</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.392135</v>
+        <v>0.374886</v>
       </c>
       <c r="C89" t="n">
-        <v>0.194907</v>
+        <v>0.195419</v>
       </c>
       <c r="D89" t="n">
-        <v>0.380197</v>
+        <v>0.381081</v>
       </c>
       <c r="E89" t="n">
-        <v>0.257047</v>
+        <v>0.258369</v>
       </c>
       <c r="F89" t="n">
-        <v>0.196082</v>
+        <v>0.197425</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.396301</v>
+        <v>0.376324</v>
       </c>
       <c r="C90" t="n">
-        <v>0.200034</v>
+        <v>0.203067</v>
       </c>
       <c r="D90" t="n">
-        <v>0.394444</v>
+        <v>0.395347</v>
       </c>
       <c r="E90" t="n">
-        <v>0.264137</v>
+        <v>0.256039</v>
       </c>
       <c r="F90" t="n">
-        <v>0.197837</v>
+        <v>0.206377</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.395982</v>
+        <v>0.379823</v>
       </c>
       <c r="C91" t="n">
-        <v>0.203921</v>
+        <v>0.202915</v>
       </c>
       <c r="D91" t="n">
-        <v>0.413425</v>
+        <v>0.412354</v>
       </c>
       <c r="E91" t="n">
-        <v>0.262454</v>
+        <v>0.254506</v>
       </c>
       <c r="F91" t="n">
-        <v>0.204457</v>
+        <v>0.206071</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.397178</v>
+        <v>0.383674</v>
       </c>
       <c r="C92" t="n">
-        <v>0.209326</v>
+        <v>0.208913</v>
       </c>
       <c r="D92" t="n">
-        <v>0.357316</v>
+        <v>0.362281</v>
       </c>
       <c r="E92" t="n">
-        <v>0.25224</v>
+        <v>0.228672</v>
       </c>
       <c r="F92" t="n">
-        <v>0.208065</v>
+        <v>0.217188</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.405028</v>
+        <v>0.396166</v>
       </c>
       <c r="C93" t="n">
-        <v>0.217495</v>
+        <v>0.216315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36875</v>
+        <v>0.368359</v>
       </c>
       <c r="E93" t="n">
-        <v>0.258736</v>
+        <v>0.262874</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2181</v>
+        <v>0.222143</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.415304</v>
+        <v>0.39372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228685</v>
+        <v>0.227524</v>
       </c>
       <c r="D94" t="n">
-        <v>0.383303</v>
+        <v>0.381918</v>
       </c>
       <c r="E94" t="n">
-        <v>0.418349</v>
+        <v>0.412783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2894</v>
+        <v>0.276252</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.595264</v>
+        <v>0.596541</v>
       </c>
       <c r="C95" t="n">
-        <v>0.296146</v>
+        <v>0.290194</v>
       </c>
       <c r="D95" t="n">
-        <v>0.397396</v>
+        <v>0.395903</v>
       </c>
       <c r="E95" t="n">
-        <v>0.41695</v>
+        <v>0.380049</v>
       </c>
       <c r="F95" t="n">
-        <v>0.291243</v>
+        <v>0.280572</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.594929</v>
+        <v>0.595444</v>
       </c>
       <c r="C96" t="n">
-        <v>0.301512</v>
+        <v>0.289452</v>
       </c>
       <c r="D96" t="n">
-        <v>0.413192</v>
+        <v>0.412696</v>
       </c>
       <c r="E96" t="n">
-        <v>0.416989</v>
+        <v>0.415233</v>
       </c>
       <c r="F96" t="n">
-        <v>0.294008</v>
+        <v>0.284858</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.595136</v>
+        <v>0.59607</v>
       </c>
       <c r="C97" t="n">
-        <v>0.298663</v>
+        <v>0.289055</v>
       </c>
       <c r="D97" t="n">
-        <v>0.428346</v>
+        <v>0.425712</v>
       </c>
       <c r="E97" t="n">
-        <v>0.417348</v>
+        <v>0.412125</v>
       </c>
       <c r="F97" t="n">
-        <v>0.292643</v>
+        <v>0.29076</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.594878</v>
+        <v>0.595127</v>
       </c>
       <c r="C98" t="n">
-        <v>0.29552</v>
+        <v>0.291757</v>
       </c>
       <c r="D98" t="n">
-        <v>0.441749</v>
+        <v>0.442883</v>
       </c>
       <c r="E98" t="n">
-        <v>0.392243</v>
+        <v>0.379175</v>
       </c>
       <c r="F98" t="n">
-        <v>0.287291</v>
+        <v>0.283059</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.596014</v>
+        <v>0.597796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.295676</v>
+        <v>0.2962</v>
       </c>
       <c r="D99" t="n">
-        <v>0.456201</v>
+        <v>0.458248</v>
       </c>
       <c r="E99" t="n">
-        <v>0.41778</v>
+        <v>0.412622</v>
       </c>
       <c r="F99" t="n">
-        <v>0.287816</v>
+        <v>0.288877</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.597877</v>
+        <v>0.594173</v>
       </c>
       <c r="C100" t="n">
-        <v>0.301562</v>
+        <v>0.297393</v>
       </c>
       <c r="D100" t="n">
-        <v>0.474828</v>
+        <v>0.473853</v>
       </c>
       <c r="E100" t="n">
-        <v>0.416596</v>
+        <v>0.412324</v>
       </c>
       <c r="F100" t="n">
-        <v>0.292084</v>
+        <v>0.291874</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.597249</v>
+        <v>0.597128</v>
       </c>
       <c r="C101" t="n">
-        <v>0.299175</v>
+        <v>0.295211</v>
       </c>
       <c r="D101" t="n">
-        <v>0.485278</v>
+        <v>0.485142</v>
       </c>
       <c r="E101" t="n">
-        <v>0.414935</v>
+        <v>0.412749</v>
       </c>
       <c r="F101" t="n">
-        <v>0.291256</v>
+        <v>0.287981</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5979640000000001</v>
+        <v>0.599392</v>
       </c>
       <c r="C102" t="n">
-        <v>0.299161</v>
+        <v>0.297907</v>
       </c>
       <c r="D102" t="n">
-        <v>0.504351</v>
+        <v>0.503845</v>
       </c>
       <c r="E102" t="n">
-        <v>0.418172</v>
+        <v>0.411748</v>
       </c>
       <c r="F102" t="n">
-        <v>0.289353</v>
+        <v>0.297732</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5989989999999999</v>
+        <v>0.600303</v>
       </c>
       <c r="C103" t="n">
-        <v>0.304911</v>
+        <v>0.317284</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5196</v>
+        <v>0.521022</v>
       </c>
       <c r="E103" t="n">
-        <v>0.417803</v>
+        <v>0.413209</v>
       </c>
       <c r="F103" t="n">
-        <v>0.299101</v>
+        <v>0.297557</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.599411</v>
+        <v>0.60021</v>
       </c>
       <c r="C104" t="n">
-        <v>0.310725</v>
+        <v>0.305443</v>
       </c>
       <c r="D104" t="n">
-        <v>0.533559</v>
+        <v>0.53465</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4061</v>
+        <v>0.413983</v>
       </c>
       <c r="F104" t="n">
-        <v>0.297227</v>
+        <v>0.302453</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.600558</v>
+        <v>0.601543</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316992</v>
+        <v>0.310026</v>
       </c>
       <c r="D105" t="n">
-        <v>0.549822</v>
+        <v>0.550739</v>
       </c>
       <c r="E105" t="n">
-        <v>0.418557</v>
+        <v>0.415669</v>
       </c>
       <c r="F105" t="n">
-        <v>0.310531</v>
+        <v>0.303498</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.602972</v>
+        <v>0.60178</v>
       </c>
       <c r="C106" t="n">
-        <v>0.312084</v>
+        <v>0.315695</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566944</v>
+        <v>0.57319</v>
       </c>
       <c r="E106" t="n">
-        <v>0.421226</v>
+        <v>0.420002</v>
       </c>
       <c r="F106" t="n">
-        <v>0.313983</v>
+        <v>0.307315</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.607626</v>
+        <v>0.609093</v>
       </c>
       <c r="C107" t="n">
-        <v>0.31933</v>
+        <v>0.326754</v>
       </c>
       <c r="D107" t="n">
-        <v>0.526377</v>
+        <v>0.533457</v>
       </c>
       <c r="E107" t="n">
-        <v>0.419596</v>
+        <v>0.42395</v>
       </c>
       <c r="F107" t="n">
-        <v>0.318391</v>
+        <v>0.311896</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.615072</v>
+        <v>0.612312</v>
       </c>
       <c r="C108" t="n">
-        <v>0.333932</v>
+        <v>0.335503</v>
       </c>
       <c r="D108" t="n">
-        <v>0.548001</v>
+        <v>0.553683</v>
       </c>
       <c r="E108" t="n">
-        <v>0.551376</v>
+        <v>0.554373</v>
       </c>
       <c r="F108" t="n">
-        <v>0.507294</v>
+        <v>0.522232</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.624166</v>
+        <v>0.625449</v>
       </c>
       <c r="C109" t="n">
-        <v>0.347467</v>
+        <v>0.350301</v>
       </c>
       <c r="D109" t="n">
-        <v>0.565611</v>
+        <v>0.560303</v>
       </c>
       <c r="E109" t="n">
-        <v>0.552813</v>
+        <v>0.55467</v>
       </c>
       <c r="F109" t="n">
-        <v>0.490391</v>
+        <v>0.501738</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.689008</v>
+        <v>0.691984</v>
       </c>
       <c r="C110" t="n">
-        <v>0.568588</v>
+        <v>0.568391</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5617799999999999</v>
+        <v>0.581593</v>
       </c>
       <c r="E110" t="n">
-        <v>0.539098</v>
+        <v>0.5551739999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>0.497093</v>
+        <v>0.517586</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.688348</v>
+        <v>0.690203</v>
       </c>
       <c r="C111" t="n">
-        <v>0.566975</v>
+        <v>0.566215</v>
       </c>
       <c r="D111" t="n">
-        <v>0.587892</v>
+        <v>0.59343</v>
       </c>
       <c r="E111" t="n">
-        <v>0.553602</v>
+        <v>0.558889</v>
       </c>
       <c r="F111" t="n">
-        <v>0.515803</v>
+        <v>0.514382</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.694103</v>
+        <v>0.700476</v>
       </c>
       <c r="C112" t="n">
-        <v>0.566825</v>
+        <v>0.568282</v>
       </c>
       <c r="D112" t="n">
-        <v>0.59151</v>
+        <v>0.604513</v>
       </c>
       <c r="E112" t="n">
-        <v>0.557604</v>
+        <v>0.538703</v>
       </c>
       <c r="F112" t="n">
-        <v>0.513134</v>
+        <v>0.517203</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6945480000000001</v>
+        <v>0.696954</v>
       </c>
       <c r="C113" t="n">
-        <v>0.566357</v>
+        <v>0.5686290000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.607231</v>
+        <v>0.611885</v>
       </c>
       <c r="E113" t="n">
-        <v>0.538036</v>
+        <v>0.555736</v>
       </c>
       <c r="F113" t="n">
-        <v>0.500605</v>
+        <v>0.518992</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.695134</v>
+        <v>0.694117</v>
       </c>
       <c r="C114" t="n">
-        <v>0.571614</v>
+        <v>0.572613</v>
       </c>
       <c r="D114" t="n">
-        <v>0.632686</v>
+        <v>0.635293</v>
       </c>
       <c r="E114" t="n">
-        <v>0.538595</v>
+        <v>0.559264</v>
       </c>
       <c r="F114" t="n">
-        <v>0.516398</v>
+        <v>0.513643</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.700636</v>
+        <v>0.692188</v>
       </c>
       <c r="C115" t="n">
-        <v>0.572564</v>
+        <v>0.57381</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634069</v>
+        <v>0.647632</v>
       </c>
       <c r="E115" t="n">
-        <v>0.554067</v>
+        <v>0.556355</v>
       </c>
       <c r="F115" t="n">
-        <v>0.514509</v>
+        <v>0.521617</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.69494</v>
+        <v>0.699933</v>
       </c>
       <c r="C116" t="n">
-        <v>0.57269</v>
+        <v>0.575866</v>
       </c>
       <c r="D116" t="n">
-        <v>0.658395</v>
+        <v>0.6616340000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.557191</v>
+        <v>0.543642</v>
       </c>
       <c r="F116" t="n">
-        <v>0.519243</v>
+        <v>0.521014</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.699201</v>
+        <v>0.7005439999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.575444</v>
+        <v>0.578649</v>
       </c>
       <c r="D117" t="n">
-        <v>0.67362</v>
+        <v>0.678495</v>
       </c>
       <c r="E117" t="n">
-        <v>0.551433</v>
+        <v>0.5572589999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>0.525303</v>
+        <v>0.522351</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.698458</v>
+        <v>0.695674</v>
       </c>
       <c r="C118" t="n">
-        <v>0.581493</v>
+        <v>0.582869</v>
       </c>
       <c r="D118" t="n">
-        <v>0.693707</v>
+        <v>0.695091</v>
       </c>
       <c r="E118" t="n">
-        <v>0.559893</v>
+        <v>0.566681</v>
       </c>
       <c r="F118" t="n">
-        <v>0.533554</v>
+        <v>0.52961</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.70643</v>
+        <v>0.704149</v>
       </c>
       <c r="C119" t="n">
-        <v>0.581739</v>
+        <v>0.584433</v>
       </c>
       <c r="D119" t="n">
-        <v>0.711965</v>
+        <v>0.7140069999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.56534</v>
+        <v>0.548243</v>
       </c>
       <c r="F119" t="n">
-        <v>0.530566</v>
+        <v>0.5320820000000001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.706439</v>
+        <v>0.704939</v>
       </c>
       <c r="C120" t="n">
-        <v>0.587858</v>
+        <v>0.589153</v>
       </c>
       <c r="D120" t="n">
-        <v>0.72605</v>
+        <v>0.729887</v>
       </c>
       <c r="E120" t="n">
-        <v>0.569106</v>
+        <v>0.570128</v>
       </c>
       <c r="F120" t="n">
-        <v>0.538486</v>
+        <v>0.505562</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.716032</v>
+        <v>0.716392</v>
       </c>
       <c r="C121" t="n">
-        <v>0.595532</v>
+        <v>0.564132</v>
       </c>
       <c r="D121" t="n">
-        <v>0.653847</v>
+        <v>0.643751</v>
       </c>
       <c r="E121" t="n">
-        <v>0.572845</v>
+        <v>0.578611</v>
       </c>
       <c r="F121" t="n">
-        <v>0.540914</v>
+        <v>0.540067</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.721979</v>
+        <v>0.7206320000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.605587</v>
+        <v>0.6068210000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.662243</v>
+        <v>0.651648</v>
       </c>
       <c r="E122" t="n">
-        <v>0.580682</v>
+        <v>0.575646</v>
       </c>
       <c r="F122" t="n">
-        <v>0.546864</v>
+        <v>0.529238</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.733588</v>
+        <v>0.734307</v>
       </c>
       <c r="C123" t="n">
-        <v>0.618651</v>
+        <v>0.615943</v>
       </c>
       <c r="D123" t="n">
-        <v>0.674583</v>
+        <v>0.679213</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7173850000000001</v>
+        <v>0.715028</v>
       </c>
       <c r="F123" t="n">
-        <v>0.730908</v>
+        <v>0.737387</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.810985</v>
+        <v>0.809655</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7852209999999999</v>
+        <v>0.784679</v>
       </c>
       <c r="D124" t="n">
-        <v>0.671575</v>
+        <v>0.674218</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7125359999999999</v>
+        <v>0.71125</v>
       </c>
       <c r="F124" t="n">
-        <v>0.729773</v>
+        <v>0.737109</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8001509999999999</v>
+        <v>0.7992590000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7841669999999999</v>
+        <v>0.786444</v>
       </c>
       <c r="D125" t="n">
-        <v>0.699314</v>
+        <v>0.6861120000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.717181</v>
+        <v>0.722074</v>
       </c>
       <c r="F125" t="n">
-        <v>0.734134</v>
+        <v>0.73649</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.800646</v>
+        <v>0.810373</v>
       </c>
       <c r="C126" t="n">
-        <v>0.788717</v>
+        <v>0.787264</v>
       </c>
       <c r="D126" t="n">
-        <v>0.700722</v>
+        <v>0.716516</v>
       </c>
       <c r="E126" t="n">
-        <v>0.716074</v>
+        <v>0.721843</v>
       </c>
       <c r="F126" t="n">
-        <v>0.731786</v>
+        <v>0.73858</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.811766</v>
+        <v>0.813107</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7899969999999999</v>
+        <v>0.7752559999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7278790000000001</v>
+        <v>0.733433</v>
       </c>
       <c r="E127" t="n">
-        <v>0.723093</v>
+        <v>0.7227749999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>0.740263</v>
+        <v>0.735867</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.808953</v>
+        <v>0.813384</v>
       </c>
       <c r="C128" t="n">
-        <v>0.790423</v>
+        <v>0.790332</v>
       </c>
       <c r="D128" t="n">
-        <v>0.743152</v>
+        <v>0.748306</v>
       </c>
       <c r="E128" t="n">
-        <v>0.715544</v>
+        <v>0.723023</v>
       </c>
       <c r="F128" t="n">
-        <v>0.734916</v>
+        <v>0.730121</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.815281</v>
+        <v>0.816317</v>
       </c>
       <c r="C129" t="n">
-        <v>0.785762</v>
+        <v>0.792798</v>
       </c>
       <c r="D129" t="n">
-        <v>0.75663</v>
+        <v>0.748783</v>
       </c>
       <c r="E129" t="n">
-        <v>0.721954</v>
+        <v>0.705182</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7339639999999999</v>
+        <v>0.7399250000000001</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.812826</v>
+        <v>0.804038</v>
       </c>
       <c r="C130" t="n">
-        <v>0.79461</v>
+        <v>0.794351</v>
       </c>
       <c r="D130" t="n">
-        <v>0.760961</v>
+        <v>0.776224</v>
       </c>
       <c r="E130" t="n">
-        <v>0.724257</v>
+        <v>0.712718</v>
       </c>
       <c r="F130" t="n">
-        <v>0.739816</v>
+        <v>0.749813</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.816295</v>
+        <v>0.815129</v>
       </c>
       <c r="C131" t="n">
-        <v>0.795688</v>
+        <v>0.797001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7883790000000001</v>
+        <v>0.792497</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7218329999999999</v>
+        <v>0.72598</v>
       </c>
       <c r="F131" t="n">
-        <v>0.742488</v>
+        <v>0.742774</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.817841</v>
+        <v>0.821818</v>
       </c>
       <c r="C132" t="n">
-        <v>0.799932</v>
+        <v>0.802553</v>
       </c>
       <c r="D132" t="n">
-        <v>0.803639</v>
+        <v>0.808567</v>
       </c>
       <c r="E132" t="n">
-        <v>0.727371</v>
+        <v>0.728357</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7500250000000001</v>
+        <v>0.749466</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.827944</v>
+        <v>0.824838</v>
       </c>
       <c r="C133" t="n">
-        <v>0.803906</v>
+        <v>0.794554</v>
       </c>
       <c r="D133" t="n">
-        <v>0.811686</v>
+        <v>0.825615</v>
       </c>
       <c r="E133" t="n">
-        <v>0.723039</v>
+        <v>0.71537</v>
       </c>
       <c r="F133" t="n">
-        <v>0.748472</v>
+        <v>0.753243</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.826712</v>
+        <v>0.8174709999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.811056</v>
+        <v>0.811242</v>
       </c>
       <c r="D134" t="n">
-        <v>0.838252</v>
+        <v>0.832367</v>
       </c>
       <c r="E134" t="n">
-        <v>0.721267</v>
+        <v>0.720178</v>
       </c>
       <c r="F134" t="n">
-        <v>0.743815</v>
+        <v>0.744623</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.833074</v>
+        <v>0.83791</v>
       </c>
       <c r="C135" t="n">
-        <v>0.817466</v>
+        <v>0.81921</v>
       </c>
       <c r="D135" t="n">
-        <v>0.697664</v>
+        <v>0.701556</v>
       </c>
       <c r="E135" t="n">
-        <v>0.726112</v>
+        <v>0.740926</v>
       </c>
       <c r="F135" t="n">
-        <v>0.766341</v>
+        <v>0.763806</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8448830000000001</v>
+        <v>0.846133</v>
       </c>
       <c r="C136" t="n">
-        <v>0.828766</v>
+        <v>0.827856</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715766</v>
+        <v>0.720579</v>
       </c>
       <c r="E136" t="n">
-        <v>0.75013</v>
+        <v>0.747447</v>
       </c>
       <c r="F136" t="n">
-        <v>0.777513</v>
+        <v>0.766662</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.858055</v>
+        <v>0.854186</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8448369999999999</v>
+        <v>0.84357</v>
       </c>
       <c r="D137" t="n">
-        <v>0.725115</v>
+        <v>0.7219989999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.855228</v>
+        <v>0.853519</v>
       </c>
       <c r="F137" t="n">
-        <v>0.86892</v>
+        <v>0.878331</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.902543</v>
+        <v>0.904126</v>
       </c>
       <c r="C138" t="n">
-        <v>0.898833</v>
+        <v>0.899392</v>
       </c>
       <c r="D138" t="n">
-        <v>0.739387</v>
+        <v>0.743567</v>
       </c>
       <c r="E138" t="n">
-        <v>0.85425</v>
+        <v>0.857174</v>
       </c>
       <c r="F138" t="n">
-        <v>0.860416</v>
+        <v>0.873271</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.904731</v>
+        <v>0.892145</v>
       </c>
       <c r="C139" t="n">
-        <v>0.899956</v>
+        <v>0.887991</v>
       </c>
       <c r="D139" t="n">
-        <v>0.752102</v>
+        <v>0.7559129999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8563730000000001</v>
+        <v>0.854306</v>
       </c>
       <c r="F139" t="n">
-        <v>0.859633</v>
+        <v>0.872567</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.903773</v>
+        <v>0.904438</v>
       </c>
       <c r="C140" t="n">
-        <v>0.901695</v>
+        <v>0.908075</v>
       </c>
       <c r="D140" t="n">
-        <v>0.765794</v>
+        <v>0.769637</v>
       </c>
       <c r="E140" t="n">
-        <v>0.855898</v>
+        <v>0.856705</v>
       </c>
       <c r="F140" t="n">
-        <v>0.876068</v>
+        <v>0.877471</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.904712</v>
+        <v>0.905984</v>
       </c>
       <c r="C141" t="n">
-        <v>0.903271</v>
+        <v>0.903356</v>
       </c>
       <c r="D141" t="n">
-        <v>0.770525</v>
+        <v>0.777067</v>
       </c>
       <c r="E141" t="n">
-        <v>0.8470490000000001</v>
+        <v>0.860666</v>
       </c>
       <c r="F141" t="n">
-        <v>0.873407</v>
+        <v>0.879633</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8948660000000001</v>
+        <v>0.90737</v>
       </c>
       <c r="C142" t="n">
-        <v>0.904495</v>
+        <v>0.905099</v>
       </c>
       <c r="D142" t="n">
-        <v>0.794006</v>
+        <v>0.79692</v>
       </c>
       <c r="E142" t="n">
-        <v>0.84566</v>
+        <v>0.8579830000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>0.876359</v>
+        <v>0.8803800000000001</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.907487</v>
+        <v>0.908339</v>
       </c>
       <c r="C143" t="n">
-        <v>0.907772</v>
+        <v>0.892682</v>
       </c>
       <c r="D143" t="n">
-        <v>0.807124</v>
+        <v>0.811141</v>
       </c>
       <c r="E143" t="n">
-        <v>0.847944</v>
+        <v>0.859819</v>
       </c>
       <c r="F143" t="n">
-        <v>0.881103</v>
+        <v>0.884435</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered successful looukp.xlsx
+++ b/gcc-x86/Scattered successful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118832</v>
+        <v>0.126887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112513</v>
+        <v>0.119399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13281</v>
+        <v>0.141327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.109264</v>
+        <v>0.116011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106386</v>
+        <v>0.109439</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.120453</v>
+        <v>0.128752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113731</v>
+        <v>0.120934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.142031</v>
+        <v>0.147242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.109973</v>
+        <v>0.126211</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10634</v>
+        <v>0.108521</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120534</v>
+        <v>0.133243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.114943</v>
+        <v>0.123421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.147709</v>
+        <v>0.156539</v>
       </c>
       <c r="E4" t="n">
-        <v>0.11056</v>
+        <v>0.11687</v>
       </c>
       <c r="F4" t="n">
-        <v>0.106643</v>
+        <v>0.108804</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.121791</v>
+        <v>0.130117</v>
       </c>
       <c r="C5" t="n">
-        <v>0.115827</v>
+        <v>0.122237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.155161</v>
+        <v>0.165738</v>
       </c>
       <c r="E5" t="n">
-        <v>0.110642</v>
+        <v>0.119415</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106969</v>
+        <v>0.107351</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123821</v>
+        <v>0.131899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.119735</v>
+        <v>0.126053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.162299</v>
+        <v>0.167393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.110728</v>
+        <v>0.119322</v>
       </c>
       <c r="F6" t="n">
-        <v>0.10796</v>
+        <v>0.108446</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.126841</v>
+        <v>0.14624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.121837</v>
+        <v>0.135611</v>
       </c>
       <c r="D7" t="n">
-        <v>0.131293</v>
+        <v>0.138539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.112104</v>
+        <v>0.121425</v>
       </c>
       <c r="F7" t="n">
-        <v>0.108927</v>
+        <v>0.113634</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.132313</v>
+        <v>0.159309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.12732</v>
+        <v>0.140935</v>
       </c>
       <c r="D8" t="n">
-        <v>0.134246</v>
+        <v>0.14319</v>
       </c>
       <c r="E8" t="n">
-        <v>0.114218</v>
+        <v>0.123601</v>
       </c>
       <c r="F8" t="n">
-        <v>0.110889</v>
+        <v>0.111165</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.142131</v>
+        <v>0.153592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.137522</v>
+        <v>0.148854</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13874</v>
+        <v>0.147007</v>
       </c>
       <c r="E9" t="n">
-        <v>0.114687</v>
+        <v>0.122986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.111292</v>
+        <v>0.122294</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12698</v>
+        <v>0.130377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.119448</v>
+        <v>0.13251</v>
       </c>
       <c r="D10" t="n">
-        <v>0.142632</v>
+        <v>0.152954</v>
       </c>
       <c r="E10" t="n">
-        <v>0.114235</v>
+        <v>0.125238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.112088</v>
+        <v>0.116873</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126775</v>
+        <v>0.130269</v>
       </c>
       <c r="C11" t="n">
-        <v>0.119852</v>
+        <v>0.135011</v>
       </c>
       <c r="D11" t="n">
-        <v>0.147823</v>
+        <v>0.156593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.114471</v>
+        <v>0.12129</v>
       </c>
       <c r="F11" t="n">
-        <v>0.112354</v>
+        <v>0.124301</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.125356</v>
+        <v>0.130966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.120894</v>
+        <v>0.130697</v>
       </c>
       <c r="D12" t="n">
-        <v>0.152787</v>
+        <v>0.162756</v>
       </c>
       <c r="E12" t="n">
-        <v>0.114596</v>
+        <v>0.12256</v>
       </c>
       <c r="F12" t="n">
-        <v>0.112564</v>
+        <v>0.117314</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124719</v>
+        <v>0.130321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.121545</v>
+        <v>0.14421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158599</v>
+        <v>0.167144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.114609</v>
+        <v>0.120508</v>
       </c>
       <c r="F13" t="n">
-        <v>0.112178</v>
+        <v>0.129559</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.125318</v>
+        <v>0.131108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.12222</v>
+        <v>0.141161</v>
       </c>
       <c r="D14" t="n">
-        <v>0.164663</v>
+        <v>0.172675</v>
       </c>
       <c r="E14" t="n">
-        <v>0.115213</v>
+        <v>0.124949</v>
       </c>
       <c r="F14" t="n">
-        <v>0.112497</v>
+        <v>0.132623</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.125995</v>
+        <v>0.13209</v>
       </c>
       <c r="C15" t="n">
-        <v>0.123534</v>
+        <v>0.143008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.171751</v>
+        <v>0.175167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.115153</v>
+        <v>0.121131</v>
       </c>
       <c r="F15" t="n">
-        <v>0.112031</v>
+        <v>0.12262</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127165</v>
+        <v>0.132059</v>
       </c>
       <c r="C16" t="n">
-        <v>0.121401</v>
+        <v>0.131281</v>
       </c>
       <c r="D16" t="n">
-        <v>0.177591</v>
+        <v>0.183785</v>
       </c>
       <c r="E16" t="n">
-        <v>0.115129</v>
+        <v>0.120507</v>
       </c>
       <c r="F16" t="n">
-        <v>0.113136</v>
+        <v>0.123586</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.128332</v>
+        <v>0.132914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.122974</v>
+        <v>0.139022</v>
       </c>
       <c r="D17" t="n">
-        <v>0.184801</v>
+        <v>0.191096</v>
       </c>
       <c r="E17" t="n">
-        <v>0.115394</v>
+        <v>0.12121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.112951</v>
+        <v>0.116135</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.129025</v>
+        <v>0.134221</v>
       </c>
       <c r="C18" t="n">
-        <v>0.12627</v>
+        <v>0.148074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.189779</v>
+        <v>0.195145</v>
       </c>
       <c r="E18" t="n">
-        <v>0.115977</v>
+        <v>0.124495</v>
       </c>
       <c r="F18" t="n">
-        <v>0.109718</v>
+        <v>0.12822</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.131042</v>
+        <v>0.136353</v>
       </c>
       <c r="C19" t="n">
-        <v>0.127079</v>
+        <v>0.151566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.193089</v>
+        <v>0.20144</v>
       </c>
       <c r="E19" t="n">
-        <v>0.116118</v>
+        <v>0.122434</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115336</v>
+        <v>0.126249</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.135399</v>
+        <v>0.152801</v>
       </c>
       <c r="C20" t="n">
-        <v>0.130953</v>
+        <v>0.156799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200759</v>
+        <v>0.209033</v>
       </c>
       <c r="E20" t="n">
-        <v>0.116882</v>
+        <v>0.121486</v>
       </c>
       <c r="F20" t="n">
-        <v>0.114081</v>
+        <v>0.143373</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.140039</v>
+        <v>0.146743</v>
       </c>
       <c r="C21" t="n">
-        <v>0.136773</v>
+        <v>0.158186</v>
       </c>
       <c r="D21" t="n">
-        <v>0.150398</v>
+        <v>0.164773</v>
       </c>
       <c r="E21" t="n">
-        <v>0.117829</v>
+        <v>0.125573</v>
       </c>
       <c r="F21" t="n">
-        <v>0.117132</v>
+        <v>0.132092</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.147919</v>
+        <v>0.15627</v>
       </c>
       <c r="C22" t="n">
-        <v>0.149922</v>
+        <v>0.164869</v>
       </c>
       <c r="D22" t="n">
-        <v>0.154711</v>
+        <v>0.168403</v>
       </c>
       <c r="E22" t="n">
-        <v>0.121716</v>
+        <v>0.126758</v>
       </c>
       <c r="F22" t="n">
-        <v>0.119216</v>
+        <v>0.132839</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159217</v>
+        <v>0.16615</v>
       </c>
       <c r="C23" t="n">
-        <v>0.15688</v>
+        <v>0.172043</v>
       </c>
       <c r="D23" t="n">
-        <v>0.158823</v>
+        <v>0.173245</v>
       </c>
       <c r="E23" t="n">
-        <v>0.123538</v>
+        <v>0.126211</v>
       </c>
       <c r="F23" t="n">
-        <v>0.11789</v>
+        <v>0.129116</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.138517</v>
+        <v>0.137161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.136183</v>
+        <v>0.127518</v>
       </c>
       <c r="D24" t="n">
-        <v>0.164577</v>
+        <v>0.173179</v>
       </c>
       <c r="E24" t="n">
-        <v>0.12438</v>
+        <v>0.13034</v>
       </c>
       <c r="F24" t="n">
-        <v>0.119649</v>
+        <v>0.124656</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134804</v>
+        <v>0.136812</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128415</v>
+        <v>0.140333</v>
       </c>
       <c r="D25" t="n">
-        <v>0.167628</v>
+        <v>0.17904</v>
       </c>
       <c r="E25" t="n">
-        <v>0.124674</v>
+        <v>0.126918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.117486</v>
+        <v>0.122698</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.135947</v>
+        <v>0.137504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.12822</v>
+        <v>0.143892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171815</v>
+        <v>0.185332</v>
       </c>
       <c r="E26" t="n">
-        <v>0.12537</v>
+        <v>0.126982</v>
       </c>
       <c r="F26" t="n">
-        <v>0.117646</v>
+        <v>0.127432</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138076</v>
+        <v>0.137349</v>
       </c>
       <c r="C27" t="n">
-        <v>0.128417</v>
+        <v>0.138214</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177698</v>
+        <v>0.189809</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125074</v>
+        <v>0.127368</v>
       </c>
       <c r="F27" t="n">
-        <v>0.121749</v>
+        <v>0.123742</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137209</v>
+        <v>0.138554</v>
       </c>
       <c r="C28" t="n">
-        <v>0.133474</v>
+        <v>0.139114</v>
       </c>
       <c r="D28" t="n">
-        <v>0.183188</v>
+        <v>0.192842</v>
       </c>
       <c r="E28" t="n">
-        <v>0.124649</v>
+        <v>0.127847</v>
       </c>
       <c r="F28" t="n">
-        <v>0.128619</v>
+        <v>0.123161</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13783</v>
+        <v>0.139174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.13031</v>
+        <v>0.138214</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192347</v>
+        <v>0.195458</v>
       </c>
       <c r="E29" t="n">
-        <v>0.12634</v>
+        <v>0.12751</v>
       </c>
       <c r="F29" t="n">
-        <v>0.119404</v>
+        <v>0.145678</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.138948</v>
+        <v>0.146589</v>
       </c>
       <c r="C30" t="n">
-        <v>0.139443</v>
+        <v>0.143088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.193877</v>
+        <v>0.204431</v>
       </c>
       <c r="E30" t="n">
-        <v>0.124946</v>
+        <v>0.127755</v>
       </c>
       <c r="F30" t="n">
-        <v>0.127898</v>
+        <v>0.130225</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.141298</v>
+        <v>0.141701</v>
       </c>
       <c r="C31" t="n">
-        <v>0.143153</v>
+        <v>0.142332</v>
       </c>
       <c r="D31" t="n">
-        <v>0.198448</v>
+        <v>0.204723</v>
       </c>
       <c r="E31" t="n">
-        <v>0.125015</v>
+        <v>0.132697</v>
       </c>
       <c r="F31" t="n">
-        <v>0.123161</v>
+        <v>0.125063</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140961</v>
+        <v>0.143272</v>
       </c>
       <c r="C32" t="n">
-        <v>0.141096</v>
+        <v>0.149155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204761</v>
+        <v>0.214962</v>
       </c>
       <c r="E32" t="n">
-        <v>0.126136</v>
+        <v>0.130775</v>
       </c>
       <c r="F32" t="n">
-        <v>0.124192</v>
+        <v>0.14729</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.144756</v>
+        <v>0.148992</v>
       </c>
       <c r="C33" t="n">
-        <v>0.141463</v>
+        <v>0.154096</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212358</v>
+        <v>0.217994</v>
       </c>
       <c r="E33" t="n">
-        <v>0.126839</v>
+        <v>0.131687</v>
       </c>
       <c r="F33" t="n">
-        <v>0.125159</v>
+        <v>0.127981</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.148463</v>
+        <v>0.152828</v>
       </c>
       <c r="C34" t="n">
-        <v>0.14801</v>
+        <v>0.158502</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217493</v>
+        <v>0.228673</v>
       </c>
       <c r="E34" t="n">
-        <v>0.127195</v>
+        <v>0.133194</v>
       </c>
       <c r="F34" t="n">
-        <v>0.123845</v>
+        <v>0.150374</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152386</v>
+        <v>0.155887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.160396</v>
+        <v>0.176488</v>
       </c>
       <c r="D35" t="n">
-        <v>0.164996</v>
+        <v>0.167249</v>
       </c>
       <c r="E35" t="n">
-        <v>0.132187</v>
+        <v>0.134829</v>
       </c>
       <c r="F35" t="n">
-        <v>0.127444</v>
+        <v>0.144284</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.160055</v>
+        <v>0.161222</v>
       </c>
       <c r="C36" t="n">
-        <v>0.165276</v>
+        <v>0.161364</v>
       </c>
       <c r="D36" t="n">
-        <v>0.169404</v>
+        <v>0.16982</v>
       </c>
       <c r="E36" t="n">
-        <v>0.140257</v>
+        <v>0.145885</v>
       </c>
       <c r="F36" t="n">
-        <v>0.135779</v>
+        <v>0.155535</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.179517</v>
+        <v>0.169493</v>
       </c>
       <c r="C37" t="n">
-        <v>0.175131</v>
+        <v>0.177076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.173043</v>
+        <v>0.174398</v>
       </c>
       <c r="E37" t="n">
-        <v>0.132835</v>
+        <v>0.142271</v>
       </c>
       <c r="F37" t="n">
-        <v>0.142777</v>
+        <v>0.146736</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.14931</v>
+        <v>0.150267</v>
       </c>
       <c r="C38" t="n">
-        <v>0.153834</v>
+        <v>0.162631</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177911</v>
+        <v>0.180456</v>
       </c>
       <c r="E38" t="n">
-        <v>0.136115</v>
+        <v>0.143008</v>
       </c>
       <c r="F38" t="n">
-        <v>0.136233</v>
+        <v>0.147586</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.146008</v>
+        <v>0.149823</v>
       </c>
       <c r="C39" t="n">
-        <v>0.147163</v>
+        <v>0.16064</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182173</v>
+        <v>0.183709</v>
       </c>
       <c r="E39" t="n">
-        <v>0.136423</v>
+        <v>0.142331</v>
       </c>
       <c r="F39" t="n">
-        <v>0.137802</v>
+        <v>0.142183</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147368</v>
+        <v>0.149597</v>
       </c>
       <c r="C40" t="n">
-        <v>0.152654</v>
+        <v>0.155007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186593</v>
+        <v>0.188288</v>
       </c>
       <c r="E40" t="n">
-        <v>0.135013</v>
+        <v>0.140637</v>
       </c>
       <c r="F40" t="n">
-        <v>0.139274</v>
+        <v>0.137269</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.15115</v>
+        <v>0.150442</v>
       </c>
       <c r="C41" t="n">
-        <v>0.150401</v>
+        <v>0.160981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.191717</v>
+        <v>0.192658</v>
       </c>
       <c r="E41" t="n">
-        <v>0.136604</v>
+        <v>0.147712</v>
       </c>
       <c r="F41" t="n">
-        <v>0.136805</v>
+        <v>0.141481</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.148228</v>
+        <v>0.153393</v>
       </c>
       <c r="C42" t="n">
-        <v>0.152554</v>
+        <v>0.157395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.196124</v>
+        <v>0.19766</v>
       </c>
       <c r="E42" t="n">
-        <v>0.137744</v>
+        <v>0.142007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.136969</v>
+        <v>0.141797</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.151</v>
+        <v>0.151665</v>
       </c>
       <c r="C43" t="n">
-        <v>0.148174</v>
+        <v>0.161498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201405</v>
+        <v>0.202837</v>
       </c>
       <c r="E43" t="n">
-        <v>0.136761</v>
+        <v>0.141432</v>
       </c>
       <c r="F43" t="n">
-        <v>0.140903</v>
+        <v>0.147039</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19